--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Feature</t>
   </si>
@@ -147,19 +147,30 @@
   </si>
   <si>
     <t>Clock</t>
+  </si>
+  <si>
+    <t>Kill spaces</t>
+  </si>
+  <si>
+    <t>^\s*$\n</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF303336"/>
+      <name val="Inherit"/>
     </font>
   </fonts>
   <fills count="2">
@@ -182,8 +193,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,21 +609,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:I23"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H17" sqref="H17"/>
+      <selection activeCell="I31" sqref="I31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -626,7 +641,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>6</v>
       </c>
@@ -637,7 +652,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -650,8 +665,14 @@
       <c r="D3">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>41</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>8</v>
       </c>
@@ -665,7 +686,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" t="s">
         <v>28</v>
       </c>
@@ -676,7 +697,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" t="s">
         <v>13</v>
       </c>
@@ -690,7 +711,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" t="s">
         <v>14</v>
       </c>
@@ -704,7 +725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9">
       <c r="A8" t="s">
         <v>21</v>
       </c>
@@ -718,7 +739,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9">
       <c r="A9" t="s">
         <v>22</v>
       </c>
@@ -729,7 +750,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -740,7 +761,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9">
       <c r="A11" t="s">
         <v>12</v>
       </c>
@@ -754,7 +775,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9">
       <c r="A12" t="s">
         <v>15</v>
       </c>
@@ -768,7 +789,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9">
       <c r="A13" t="s">
         <v>20</v>
       </c>
@@ -782,7 +803,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9">
       <c r="A14" t="s">
         <v>18</v>
       </c>
@@ -796,7 +817,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9">
       <c r="A15" t="s">
         <v>16</v>
       </c>
@@ -807,7 +828,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9">
       <c r="A16" t="s">
         <v>35</v>
       </c>
@@ -818,7 +839,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" t="s">
         <v>9</v>
       </c>
@@ -832,7 +853,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>10</v>
       </c>
@@ -843,7 +864,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -854,7 +875,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>17</v>
       </c>
@@ -868,7 +889,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" t="s">
         <v>4</v>
       </c>
@@ -876,7 +897,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="A22" t="s">
         <v>5</v>
       </c>
@@ -884,7 +905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>40</v>
       </c>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
   <si>
     <t>Feature</t>
   </si>
@@ -153,6 +153,12 @@
   </si>
   <si>
     <t>^\s*$\n</t>
+  </si>
+  <si>
+    <t>Cal Panels Orientation</t>
+  </si>
+  <si>
+    <t>Cal Panels IScrollInfo</t>
   </si>
 </sst>
 </file>
@@ -296,8 +302,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:E23" totalsRowShown="0">
-  <autoFilter ref="A1:E23" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
+  <autoFilter ref="A1:E25" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:E22">
     <sortCondition ref="D1:D22"/>
   </sortState>
@@ -609,10 +615,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:I23"/>
+  <dimension ref="A1:I25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I31" sqref="I31"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -913,6 +919,22 @@
         <v>34</v>
       </c>
     </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C24" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>44</v>
+      </c>
+      <c r="C25" t="s">
+        <v>32</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
   <si>
     <t>Feature</t>
   </si>
@@ -159,6 +159,30 @@
   </si>
   <si>
     <t>Cal Panels IScrollInfo</t>
+  </si>
+  <si>
+    <t>Day panel</t>
+  </si>
+  <si>
+    <t>CalendarObject control</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>WeekView</t>
+  </si>
+  <si>
+    <t>MonthView</t>
+  </si>
+  <si>
+    <t>Day panel max scale</t>
+  </si>
+  <si>
+    <t>Make max scale proportional to viewport, if scale less than viewport, scale to viewport, then expand to week view</t>
+  </si>
+  <si>
+    <t>3h</t>
   </si>
 </sst>
 </file>
@@ -302,16 +326,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:E25" totalsRowShown="0">
-  <autoFilter ref="A1:E25" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:E22">
-    <sortCondition ref="D1:D22"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
+  <autoFilter ref="A1:F30" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F27">
+    <sortCondition ref="D1:D27"/>
   </sortState>
-  <tableColumns count="5">
+  <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature"/>
     <tableColumn id="2" xr3:uid="{9AABA1CB-4CFB-4C32-BB29-C2A627D5143C}" name="Needs"/>
     <tableColumn id="3" xr3:uid="{44037830-D1A7-4275-9E76-8E8A27CFA5FA}" name="Timeframe"/>
     <tableColumn id="4" xr3:uid="{BF9C91B9-D741-4386-8F98-4D819EB67396}" name="Priority"/>
+    <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
     <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -615,10 +640,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:I25"/>
+  <dimension ref="A1:J30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -627,10 +652,11 @@
     <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -644,294 +670,355 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
+        <v>47</v>
+      </c>
+      <c r="F1" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="2" spans="1:9">
+    <row r="2" spans="1:10">
       <c r="A2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C3" t="s">
+        <v>31</v>
+      </c>
+      <c r="D3">
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="F3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" t="s">
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D5">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>52</v>
+      </c>
+      <c r="D6">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C7" t="s">
         <v>37</v>
       </c>
-      <c r="D2">
+      <c r="D7">
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    <row r="8" spans="1:10">
+      <c r="A8" t="s">
         <v>7</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B8" t="s">
         <v>24</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C8" t="s">
         <v>37</v>
       </c>
-      <c r="D3">
+      <c r="D8">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I8" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J8" s="1" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="4" spans="1:9">
-      <c r="A4" t="s">
+    <row r="9" spans="1:10">
+      <c r="A9" t="s">
         <v>8</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B9" t="s">
         <v>25</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C9" t="s">
         <v>37</v>
       </c>
-      <c r="D4">
+      <c r="D9">
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
-      <c r="A5" t="s">
+    <row r="10" spans="1:10">
+      <c r="A10" t="s">
         <v>28</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C10" t="s">
         <v>37</v>
       </c>
-      <c r="D5">
+      <c r="D10">
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
-      <c r="A6" t="s">
+    <row r="11" spans="1:10">
+      <c r="A11" t="s">
         <v>13</v>
-      </c>
-      <c r="B6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>32</v>
-      </c>
-      <c r="D6">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B7" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>31</v>
-      </c>
-      <c r="D8">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" t="s">
-        <v>22</v>
-      </c>
-      <c r="C9" t="s">
-        <v>31</v>
-      </c>
-      <c r="D9">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10" t="s">
-        <v>31</v>
-      </c>
-      <c r="D10">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" t="s">
-        <v>12</v>
       </c>
       <c r="B11" t="s">
         <v>14</v>
       </c>
       <c r="C11" t="s">
+        <v>32</v>
+      </c>
+      <c r="D11">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12" t="s">
+        <v>7</v>
+      </c>
+      <c r="C12" t="s">
+        <v>31</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" t="s">
+        <v>31</v>
+      </c>
+      <c r="D13">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16" t="s">
         <v>33</v>
       </c>
-      <c r="D11">
+      <c r="D16">
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:9">
-      <c r="A12" t="s">
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
         <v>15</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B17" t="s">
         <v>14</v>
-      </c>
-      <c r="C12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D12">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" t="s">
-        <v>15</v>
-      </c>
-      <c r="C13" t="s">
-        <v>33</v>
-      </c>
-      <c r="D13">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9">
-      <c r="A14" t="s">
-        <v>18</v>
-      </c>
-      <c r="B14" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" t="s">
-        <v>39</v>
-      </c>
-      <c r="D14">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9">
-      <c r="A15" t="s">
-        <v>16</v>
-      </c>
-      <c r="C15" t="s">
-        <v>34</v>
-      </c>
-      <c r="D15">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9">
-      <c r="A16" t="s">
-        <v>35</v>
-      </c>
-      <c r="C16" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
       </c>
       <c r="C17" t="s">
         <v>33</v>
       </c>
       <c r="D17">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
+      <c r="C19" t="s">
+        <v>39</v>
+      </c>
+      <c r="D19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>35</v>
+      </c>
+      <c r="C21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" t="s">
+        <v>9</v>
+      </c>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D22">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6">
+      <c r="A23" t="s">
         <v>10</v>
       </c>
-      <c r="C18" t="s">
+      <c r="C23" t="s">
         <v>32</v>
       </c>
-      <c r="D18">
+      <c r="D23">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
+    <row r="24" spans="1:6">
+      <c r="A24" t="s">
         <v>19</v>
       </c>
-      <c r="C19" t="s">
+      <c r="C24" t="s">
         <v>31</v>
       </c>
-      <c r="D19">
+      <c r="D24">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
+    <row r="25" spans="1:6">
+      <c r="A25" t="s">
         <v>17</v>
       </c>
-      <c r="B20" t="s">
+      <c r="B25" t="s">
         <v>27</v>
       </c>
-      <c r="C20" t="s">
+      <c r="C25" t="s">
         <v>38</v>
       </c>
-      <c r="D20">
+      <c r="D25">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
+    <row r="26" spans="1:6">
+      <c r="A26" t="s">
         <v>4</v>
       </c>
-      <c r="E21" t="s">
+      <c r="F26" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
+    <row r="27" spans="1:6">
+      <c r="A27" t="s">
         <v>5</v>
       </c>
-      <c r="B22" t="s">
+      <c r="B27" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
+    <row r="28" spans="1:6">
+      <c r="A28" t="s">
         <v>40</v>
       </c>
-      <c r="C23" t="s">
+      <c r="C28" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
+    <row r="29" spans="1:6">
+      <c r="A29" t="s">
         <v>43</v>
       </c>
-      <c r="C24" t="s">
+      <c r="C29" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
+    <row r="30" spans="1:6">
+      <c r="A30" t="s">
         <v>44</v>
       </c>
-      <c r="C25" t="s">
+      <c r="C30" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
   <si>
     <t>Feature</t>
   </si>
@@ -179,10 +179,28 @@
     <t>Day panel max scale</t>
   </si>
   <si>
-    <t>Make max scale proportional to viewport, if scale less than viewport, scale to viewport, then expand to week view</t>
-  </si>
-  <si>
     <t>3h</t>
+  </si>
+  <si>
+    <t>week zooming</t>
+  </si>
+  <si>
+    <t>Make max scale proportional to viewport, if scale less than viewport, scale to viewport, then expand to week view, IsMaxScale</t>
+  </si>
+  <si>
+    <t>Horizontal list of Day panels</t>
+  </si>
+  <si>
+    <t>Day panel horizontal</t>
+  </si>
+  <si>
+    <t>Day horizontal, max scale</t>
+  </si>
+  <si>
+    <t>With horizontal Days at max scale, scaling should already happen by just shrinking week grid, nothing to code</t>
+  </si>
+  <si>
+    <t>Skip</t>
   </si>
 </sst>
 </file>
@@ -326,10 +344,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F30" totalsRowShown="0">
-  <autoFilter ref="A1:F30" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F27">
-    <sortCondition ref="D1:D27"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F32" totalsRowShown="0">
+  <autoFilter ref="A1:F32" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F29">
+    <sortCondition ref="D1:D29"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature"/>
@@ -640,16 +658,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J30"/>
+  <dimension ref="A1:J32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
@@ -697,328 +715,353 @@
       <c r="D3">
         <v>1.1000000000000001</v>
       </c>
+      <c r="E3" t="s">
+        <v>47</v>
+      </c>
       <c r="F3" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>46</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D4">
-        <v>0.7</v>
+        <v>55</v>
+      </c>
+      <c r="E4" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D5">
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C6" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D6">
-        <v>0.9</v>
+        <v>0.8</v>
+      </c>
+      <c r="F6" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
+        <v>52</v>
+      </c>
+      <c r="B7" t="s">
+        <v>56</v>
+      </c>
+      <c r="F7" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>24</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D8">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>41</v>
-      </c>
-      <c r="J8" s="1" t="s">
-        <v>42</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>25</v>
+        <v>6</v>
       </c>
       <c r="C9" t="s">
         <v>37</v>
       </c>
       <c r="D9">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>28</v>
+        <v>7</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
       </c>
       <c r="C10" t="s">
         <v>37</v>
       </c>
       <c r="D10">
-        <v>4</v>
+        <v>2</v>
+      </c>
+      <c r="I10" t="s">
+        <v>41</v>
+      </c>
+      <c r="J10" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>25</v>
       </c>
       <c r="C11" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D11">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="C12" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D12">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B13" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D13">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>22</v>
+        <v>14</v>
+      </c>
+      <c r="B14" t="s">
+        <v>7</v>
       </c>
       <c r="C14" t="s">
         <v>31</v>
       </c>
       <c r="D14">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
       </c>
       <c r="C15" t="s">
         <v>31</v>
       </c>
       <c r="D15">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>12</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C16" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D16">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>15</v>
-      </c>
-      <c r="B17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C17" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D17">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C18" t="s">
         <v>33</v>
       </c>
       <c r="D18">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B19" t="s">
         <v>14</v>
       </c>
       <c r="C19" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D19">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>16</v>
+        <v>20</v>
+      </c>
+      <c r="B20" t="s">
+        <v>15</v>
       </c>
       <c r="C20" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D20">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>35</v>
+        <v>18</v>
+      </c>
+      <c r="B21" t="s">
+        <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>9</v>
-      </c>
-      <c r="B22" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="D22">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="D23">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>19</v>
+        <v>9</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
       </c>
       <c r="C24" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="D24">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>17</v>
-      </c>
-      <c r="B25" t="s">
-        <v>27</v>
+        <v>10</v>
       </c>
       <c r="C25" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D25">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>4</v>
-      </c>
-      <c r="F26" t="s">
-        <v>30</v>
+        <v>19</v>
+      </c>
+      <c r="C26" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26">
+        <v>16</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B27" t="s">
-        <v>23</v>
+        <v>27</v>
+      </c>
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>40</v>
-      </c>
-      <c r="C28" t="s">
-        <v>34</v>
+        <v>4</v>
+      </c>
+      <c r="F28" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
+        <v>5</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
+        <v>40</v>
+      </c>
+      <c r="C30" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6">
+      <c r="A32" t="s">
         <v>44</v>
       </c>
-      <c r="C30" t="s">
+      <c r="C32" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
   <si>
     <t>Feature</t>
   </si>
@@ -200,7 +200,16 @@
     <t>With horizontal Days at max scale, scaling should already happen by just shrinking week grid, nothing to code</t>
   </si>
   <si>
-    <t>Skip</t>
+    <t>Date watermark</t>
+  </si>
+  <si>
+    <t>TextMargin toggle</t>
+  </si>
+  <si>
+    <t>Improve TextMargin cutoffs</t>
+  </si>
+  <si>
+    <t>Mark everything  that involves dimensions, Mark everything that is only 1D. Then draw the rest of the fucking owl</t>
   </si>
 </sst>
 </file>
@@ -344,10 +353,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F32" totalsRowShown="0">
-  <autoFilter ref="A1:F32" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F29">
-    <sortCondition ref="D1:D29"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
+  <autoFilter ref="A1:F35" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F32">
+    <sortCondition ref="D1:D32"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature"/>
@@ -658,10 +667,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J32"/>
+  <dimension ref="A1:J35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -671,6 +680,7 @@
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
+    <col min="6" max="6" width="114.28515625" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -726,342 +736,363 @@
       <c r="A4" t="s">
         <v>55</v>
       </c>
-      <c r="E4" t="s">
-        <v>58</v>
+      <c r="F4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>46</v>
-      </c>
-      <c r="C5" t="s">
-        <v>51</v>
-      </c>
-      <c r="D5">
-        <v>0.7</v>
+        <v>58</v>
+      </c>
+      <c r="E5" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C6" t="s">
-        <v>51</v>
-      </c>
-      <c r="D6">
-        <v>0.8</v>
-      </c>
-      <c r="F6" t="s">
-        <v>54</v>
+        <v>59</v>
+      </c>
+      <c r="E6" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>52</v>
-      </c>
-      <c r="B7" t="s">
-        <v>56</v>
-      </c>
-      <c r="F7" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="C8" t="s">
         <v>51</v>
       </c>
       <c r="D8">
-        <v>0.9</v>
+        <v>0.7</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>6</v>
+        <v>48</v>
       </c>
       <c r="C9" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>0.8</v>
+      </c>
+      <c r="F9" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="B10" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10">
-        <v>2</v>
-      </c>
-      <c r="I10" t="s">
-        <v>41</v>
-      </c>
-      <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>56</v>
+      </c>
+      <c r="F10" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="C11" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D11">
-        <v>3</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="C12" t="s">
         <v>37</v>
       </c>
       <c r="D12">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B13" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C13" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D13">
-        <v>5</v>
+        <v>2</v>
+      </c>
+      <c r="I13" t="s">
+        <v>41</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B14" t="s">
-        <v>7</v>
+        <v>25</v>
       </c>
       <c r="C14" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D14">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>21</v>
-      </c>
-      <c r="B15" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C15" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D15">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>22</v>
+        <v>13</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
       </c>
       <c r="C16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D16">
-        <v>8</v>
+        <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="B17" t="s">
+        <v>7</v>
       </c>
       <c r="C17" t="s">
         <v>31</v>
       </c>
       <c r="D17">
-        <v>9</v>
+        <v>6</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="B18" t="s">
         <v>14</v>
       </c>
       <c r="C18" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D18">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>15</v>
-      </c>
-      <c r="B19" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D19">
-        <v>10</v>
+        <v>8</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>20</v>
-      </c>
-      <c r="B20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="C20" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D20">
-        <v>11</v>
+        <v>9</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D21">
-        <v>12</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>16</v>
+        <v>15</v>
+      </c>
+      <c r="B22" t="s">
+        <v>14</v>
       </c>
       <c r="C22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D22">
-        <v>13</v>
+        <v>10</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>35</v>
+        <v>20</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
       </c>
       <c r="C23" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="B24" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C24" t="s">
-        <v>33</v>
+        <v>39</v>
       </c>
       <c r="D24">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C25" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="D25">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>19</v>
+        <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>31</v>
+        <v>36</v>
       </c>
       <c r="D26">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B27" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C27" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="D27">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>4</v>
-      </c>
-      <c r="F28" t="s">
-        <v>30</v>
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>32</v>
+      </c>
+      <c r="D28">
+        <v>15</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>5</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
+        <v>19</v>
+      </c>
+      <c r="C29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D29">
+        <v>16</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>40</v>
+        <v>17</v>
+      </c>
+      <c r="B30" t="s">
+        <v>27</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>38</v>
+      </c>
+      <c r="D30">
+        <v>17</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>43</v>
-      </c>
-      <c r="C31" t="s">
-        <v>33</v>
+        <v>4</v>
+      </c>
+      <c r="F31" t="s">
+        <v>30</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>5</v>
+      </c>
+      <c r="B32" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3">
+      <c r="A33" t="s">
+        <v>40</v>
+      </c>
+      <c r="C33" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3">
+      <c r="A34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3">
+      <c r="A35" t="s">
         <v>44</v>
       </c>
-      <c r="C32" t="s">
+      <c r="C35" t="s">
         <v>32</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
   <si>
     <t>Feature</t>
   </si>
@@ -188,15 +188,9 @@
     <t>Make max scale proportional to viewport, if scale less than viewport, scale to viewport, then expand to week view, IsMaxScale</t>
   </si>
   <si>
-    <t>Horizontal list of Day panels</t>
-  </si>
-  <si>
     <t>Day panel horizontal</t>
   </si>
   <si>
-    <t>Day horizontal, max scale</t>
-  </si>
-  <si>
     <t>With horizontal Days at max scale, scaling should already happen by just shrinking week grid, nothing to code</t>
   </si>
   <si>
@@ -210,6 +204,81 @@
   </si>
   <si>
     <t>Mark everything  that involves dimensions, Mark everything that is only 1D. Then draw the rest of the fucking owl</t>
+  </si>
+  <si>
+    <t>Validate input</t>
+  </si>
+  <si>
+    <t>Validate input by coloring the date entered box according to the state of the calendar object occupying that time if there is one</t>
+  </si>
+  <si>
+    <t>Suggest input</t>
+  </si>
+  <si>
+    <t>validate input</t>
+  </si>
+  <si>
+    <t>separate spinners for year month day time</t>
+  </si>
+  <si>
+    <t>Continuous Day Panel</t>
+  </si>
+  <si>
+    <t>Identical to a Day panel, but not restricted to a single day, update Date and watermark to date with most area, when midnight passes viewport middle. Update extent range to 3 days before, current, after</t>
+  </si>
+  <si>
+    <t>DayView</t>
+  </si>
+  <si>
+    <t>Buttons back forward 1 date, viewmodel of TimeTasks, transform them into CalObjs, bind Day itemsource to CalObjs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Horizontal list of Day panels, bind first day panel itemssource to calobjs </t>
+  </si>
+  <si>
+    <t>Week panel</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identical to a Day panel, but has start and end dates for the beginning and end of the week that Date is in. Date is highlighted. </t>
+  </si>
+  <si>
+    <t>Day panel cursor</t>
+  </si>
+  <si>
+    <t>An animated glowy rgb line that continuously updates to follow DateTime.Now. Animates smoothly over 1 second, updated once per second</t>
+  </si>
+  <si>
+    <t>week panel</t>
+  </si>
+  <si>
+    <t>week view</t>
+  </si>
+  <si>
+    <t>Day horizontal, max scale weekk panel</t>
+  </si>
+  <si>
+    <t>day panel</t>
+  </si>
+  <si>
+    <t>Animate watermark</t>
+  </si>
+  <si>
+    <t>When scrolling to next day, animate the watermark to follow midnight. Offset is a max calculation between viewport top, bottom, day top, bottom</t>
+  </si>
+  <si>
+    <t>Stacking calendar objects</t>
+  </si>
+  <si>
+    <t>Smartly fit them like legos. They have to be different dimensions. Fit in measure/arrange</t>
+  </si>
+  <si>
+    <t>Day TODOs</t>
+  </si>
+  <si>
+    <t>search TODO</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
   </si>
 </sst>
 </file>
@@ -353,10 +422,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F35" totalsRowShown="0">
-  <autoFilter ref="A1:F35" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F32">
-    <sortCondition ref="D1:D32"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0">
+  <autoFilter ref="A1:F45" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F37">
+    <sortCondition ref="D1:D37"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature"/>
@@ -667,15 +736,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J35"/>
+  <dimension ref="A1:J45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="A45" sqref="A45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="25.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -734,15 +803,21 @@
     </row>
     <row r="4" spans="1:10">
       <c r="A4" t="s">
-        <v>55</v>
+        <v>54</v>
+      </c>
+      <c r="E4" t="s">
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10">
       <c r="A5" t="s">
-        <v>58</v>
+        <v>43</v>
+      </c>
+      <c r="C5" t="s">
+        <v>33</v>
       </c>
       <c r="E5" t="s">
         <v>47</v>
@@ -750,7 +825,10 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C6" t="s">
+        <v>32</v>
       </c>
       <c r="E6" t="s">
         <v>47</v>
@@ -758,342 +836,449 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" t="s">
-        <v>60</v>
+        <v>56</v>
+      </c>
+      <c r="E7" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="8" spans="1:10">
       <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D8">
-        <v>0.7</v>
+        <v>57</v>
+      </c>
+      <c r="E8" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="9" spans="1:10">
       <c r="A9" t="s">
-        <v>48</v>
-      </c>
-      <c r="C9" t="s">
-        <v>51</v>
-      </c>
-      <c r="D9">
-        <v>0.8</v>
-      </c>
-      <c r="F9" t="s">
-        <v>54</v>
+        <v>58</v>
+      </c>
+      <c r="E9" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="10" spans="1:10">
       <c r="A10" t="s">
-        <v>52</v>
-      </c>
-      <c r="B10" t="s">
-        <v>56</v>
+        <v>67</v>
+      </c>
+      <c r="D10">
+        <v>0.7</v>
       </c>
       <c r="F10" t="s">
-        <v>57</v>
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:10">
       <c r="A11" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" t="s">
-        <v>51</v>
-      </c>
-      <c r="D11">
-        <v>0.9</v>
+        <v>72</v>
+      </c>
+      <c r="F11" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:10">
       <c r="A12" t="s">
-        <v>6</v>
-      </c>
-      <c r="C12" t="s">
-        <v>37</v>
+        <v>70</v>
+      </c>
+      <c r="B12" t="s">
+        <v>77</v>
       </c>
       <c r="D12">
-        <v>1</v>
+        <v>0.77</v>
+      </c>
+      <c r="F12" t="s">
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
       <c r="A13" t="s">
-        <v>7</v>
+        <v>48</v>
       </c>
       <c r="B13" t="s">
-        <v>24</v>
+        <v>74</v>
       </c>
       <c r="C13" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D13">
-        <v>2</v>
-      </c>
-      <c r="I13" t="s">
-        <v>41</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>42</v>
+        <v>0.8</v>
+      </c>
+      <c r="F13" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" t="s">
-        <v>8</v>
+        <v>52</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" t="s">
-        <v>37</v>
+        <v>76</v>
       </c>
       <c r="D14">
-        <v>3</v>
+        <v>0.85</v>
+      </c>
+      <c r="F14" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" t="s">
-        <v>28</v>
+        <v>49</v>
+      </c>
+      <c r="B15" t="s">
+        <v>75</v>
       </c>
       <c r="C15" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D15">
-        <v>4</v>
+        <v>0.9</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" t="s">
-        <v>13</v>
-      </c>
-      <c r="B16" t="s">
-        <v>14</v>
+        <v>6</v>
       </c>
       <c r="C16" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D16">
-        <v>5</v>
+        <v>1</v>
+      </c>
+      <c r="I16" t="s">
+        <v>41</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>14</v>
-      </c>
-      <c r="B17" t="s">
-        <v>7</v>
+        <v>46</v>
       </c>
       <c r="C17" t="s">
-        <v>31</v>
+        <v>51</v>
       </c>
       <c r="D17">
-        <v>6</v>
+        <v>1.1000000000000001</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>7</v>
       </c>
       <c r="B18" t="s">
-        <v>14</v>
+        <v>24</v>
       </c>
       <c r="C18" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D18">
-        <v>7</v>
+        <v>2</v>
+      </c>
+      <c r="E18" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>8</v>
+      </c>
+      <c r="B19" t="s">
+        <v>25</v>
       </c>
       <c r="C19" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D19">
-        <v>8</v>
+        <v>3</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="C20" t="s">
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="D20">
-        <v>9</v>
+        <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B21" t="s">
         <v>14</v>
       </c>
       <c r="C21" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="D21">
-        <v>9</v>
+        <v>5</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B22" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C22" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D22">
-        <v>10</v>
+        <v>6</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C23" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D23">
-        <v>11</v>
+        <v>7</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>18</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="C24" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D24">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="F24" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="C25" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D25">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>35</v>
+        <v>12</v>
+      </c>
+      <c r="B26" t="s">
+        <v>14</v>
       </c>
       <c r="C26" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D26">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="C27" t="s">
         <v>33</v>
       </c>
       <c r="D27">
-        <v>14</v>
+        <v>10</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B28" t="s">
+        <v>15</v>
       </c>
       <c r="C28" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="D28">
-        <v>15</v>
+        <v>11</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="B29" t="s">
+        <v>14</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>39</v>
       </c>
       <c r="D29">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="B30" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="C30" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="D30">
-        <v>17</v>
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>4</v>
-      </c>
-      <c r="F31" t="s">
-        <v>30</v>
+        <v>35</v>
+      </c>
+      <c r="C31" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31">
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
+        <v>9</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>33</v>
+      </c>
+      <c r="D32">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" t="s">
+        <v>10</v>
+      </c>
+      <c r="C33" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" t="s">
+        <v>19</v>
+      </c>
+      <c r="C34" t="s">
+        <v>31</v>
+      </c>
+      <c r="D34">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" t="s">
+        <v>17</v>
+      </c>
+      <c r="B35" t="s">
+        <v>27</v>
+      </c>
+      <c r="C35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" t="s">
+        <v>4</v>
+      </c>
+      <c r="F36" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" t="s">
         <v>5</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B37" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="33" spans="1:3">
-      <c r="A33" t="s">
+    <row r="38" spans="1:6">
+      <c r="A38" t="s">
         <v>40</v>
       </c>
-      <c r="C33" t="s">
+      <c r="C38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="34" spans="1:3">
-      <c r="A34" t="s">
-        <v>43</v>
-      </c>
-      <c r="C34" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3">
-      <c r="A35" t="s">
-        <v>44</v>
-      </c>
-      <c r="C35" t="s">
-        <v>32</v>
+    <row r="39" spans="1:6">
+      <c r="A39" t="s">
+        <v>60</v>
+      </c>
+      <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="F39" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" t="s">
+        <v>62</v>
+      </c>
+      <c r="B40" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" t="s">
+        <v>65</v>
+      </c>
+      <c r="F41" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
+      <c r="A42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" t="s">
+        <v>82</v>
+      </c>
+      <c r="F44" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" t="s">
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -278,7 +278,7 @@
     <t>search TODO</t>
   </si>
   <si>
-    <t xml:space="preserve"> </t>
+    <t>Finish properties. Different types? There are tasks that can be completed and pushed, but there are immutables like holidays. Different dimension for holidays. Dimensions signify layers when drawn. Objs of diff dimensions can be simultaneous. Objs can filter by label even if label is in another dimension.</t>
   </si>
 </sst>
 </file>
@@ -319,16 +319,28 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="5">
+  <dxfs count="7">
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -395,14 +407,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="4"/>
-      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="6"/>
+      <tableStyleElement type="headerRow" dxfId="5"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="2"/>
-      <tableStyleElement type="headerRow" dxfId="1"/>
-      <tableStyleElement type="secondRowStripe" dxfId="0"/>
+      <tableStyleElement type="wholeTable" dxfId="4"/>
+      <tableStyleElement type="headerRow" dxfId="3"/>
+      <tableStyleElement type="secondRowStripe" dxfId="2"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -428,12 +440,12 @@
     <sortCondition ref="D1:D37"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="0"/>
     <tableColumn id="2" xr3:uid="{9AABA1CB-4CFB-4C32-BB29-C2A627D5143C}" name="Needs"/>
     <tableColumn id="3" xr3:uid="{44037830-D1A7-4275-9E76-8E8A27CFA5FA}" name="Timeframe"/>
     <tableColumn id="4" xr3:uid="{BF9C91B9-D741-4386-8F98-4D819EB67396}" name="Priority"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -736,25 +748,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J45"/>
+  <dimension ref="A1:J44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="A45" sqref="A45"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F24" sqref="F24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="114.28515625" customWidth="1"/>
+    <col min="6" max="6" width="114.28515625" style="2" customWidth="1"/>
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10">
-      <c r="A1" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
@@ -769,12 +781,12 @@
       <c r="E1" t="s">
         <v>47</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:10">
-      <c r="A2" t="s">
+      <c r="A2" s="3" t="s">
         <v>45</v>
       </c>
       <c r="D2">
@@ -784,8 +796,8 @@
         <v>47</v>
       </c>
     </row>
-    <row r="3" spans="1:10">
-      <c r="A3" t="s">
+    <row r="3" spans="1:10" ht="30">
+      <c r="A3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="C3" t="s">
@@ -797,23 +809,23 @@
       <c r="E3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" t="s">
+      <c r="F3" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" t="s">
+      <c r="A4" s="3" t="s">
         <v>54</v>
       </c>
       <c r="E4" t="s">
         <v>47</v>
       </c>
-      <c r="F4" t="s">
+      <c r="F4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" t="s">
+      <c r="A5" s="3" t="s">
         <v>43</v>
       </c>
       <c r="C5" t="s">
@@ -824,7 +836,7 @@
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" t="s">
+      <c r="A6" s="3" t="s">
         <v>44</v>
       </c>
       <c r="C6" t="s">
@@ -835,7 +847,7 @@
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" t="s">
+      <c r="A7" s="3" t="s">
         <v>56</v>
       </c>
       <c r="E7" t="s">
@@ -843,7 +855,7 @@
       </c>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" t="s">
+      <c r="A8" s="3" t="s">
         <v>57</v>
       </c>
       <c r="E8" t="s">
@@ -851,7 +863,7 @@
       </c>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" t="s">
+      <c r="A9" s="3" t="s">
         <v>58</v>
       </c>
       <c r="E9" t="s">
@@ -859,26 +871,26 @@
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" t="s">
+      <c r="A10" s="3" t="s">
         <v>67</v>
       </c>
       <c r="D10">
         <v>0.7</v>
       </c>
-      <c r="F10" t="s">
+      <c r="F10" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" t="s">
+    <row r="11" spans="1:10" ht="30">
+      <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
-      <c r="F11" t="s">
+      <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" t="s">
+    <row r="12" spans="1:10" ht="30">
+      <c r="A12" s="3" t="s">
         <v>70</v>
       </c>
       <c r="B12" t="s">
@@ -887,12 +899,12 @@
       <c r="D12">
         <v>0.77</v>
       </c>
-      <c r="F12" t="s">
+      <c r="F12" s="2" t="s">
         <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:10">
-      <c r="A13" t="s">
+      <c r="A13" s="3" t="s">
         <v>48</v>
       </c>
       <c r="B13" t="s">
@@ -904,12 +916,12 @@
       <c r="D13">
         <v>0.8</v>
       </c>
-      <c r="F13" t="s">
+      <c r="F13" s="2" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" t="s">
+      <c r="A14" s="3" t="s">
         <v>52</v>
       </c>
       <c r="B14" t="s">
@@ -918,12 +930,12 @@
       <c r="D14">
         <v>0.85</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="2" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" t="s">
+      <c r="A15" s="3" t="s">
         <v>49</v>
       </c>
       <c r="B15" t="s">
@@ -937,7 +949,7 @@
       </c>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" t="s">
+      <c r="A16" s="3" t="s">
         <v>6</v>
       </c>
       <c r="C16" t="s">
@@ -953,8 +965,8 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
-      <c r="A17" t="s">
+    <row r="17" spans="1:6" ht="45">
+      <c r="A17" s="3" t="s">
         <v>46</v>
       </c>
       <c r="C17" t="s">
@@ -963,9 +975,12 @@
       <c r="D17">
         <v>1.1000000000000001</v>
       </c>
+      <c r="F17" s="2" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="18" spans="1:6">
-      <c r="A18" t="s">
+      <c r="A18" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B18" t="s">
@@ -982,7 +997,7 @@
       </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" t="s">
+      <c r="A19" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B19" t="s">
@@ -996,7 +1011,7 @@
       </c>
     </row>
     <row r="20" spans="1:6">
-      <c r="A20" t="s">
+      <c r="A20" s="3" t="s">
         <v>28</v>
       </c>
       <c r="C20" t="s">
@@ -1007,7 +1022,7 @@
       </c>
     </row>
     <row r="21" spans="1:6">
-      <c r="A21" t="s">
+      <c r="A21" s="3" t="s">
         <v>13</v>
       </c>
       <c r="B21" t="s">
@@ -1021,7 +1036,7 @@
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" t="s">
+      <c r="A22" s="3" t="s">
         <v>14</v>
       </c>
       <c r="B22" t="s">
@@ -1035,7 +1050,7 @@
       </c>
     </row>
     <row r="23" spans="1:6">
-      <c r="A23" t="s">
+      <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B23" t="s">
@@ -1049,7 +1064,7 @@
       </c>
     </row>
     <row r="24" spans="1:6">
-      <c r="A24" t="s">
+      <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
       <c r="C24" t="s">
@@ -1058,12 +1073,12 @@
       <c r="D24">
         <v>8</v>
       </c>
-      <c r="F24" t="s">
+      <c r="F24" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="25" spans="1:6">
-      <c r="A25" t="s">
+      <c r="A25" s="3" t="s">
         <v>11</v>
       </c>
       <c r="C25" t="s">
@@ -1074,7 +1089,7 @@
       </c>
     </row>
     <row r="26" spans="1:6">
-      <c r="A26" t="s">
+      <c r="A26" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B26" t="s">
@@ -1088,7 +1103,7 @@
       </c>
     </row>
     <row r="27" spans="1:6">
-      <c r="A27" t="s">
+      <c r="A27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="B27" t="s">
@@ -1102,7 +1117,7 @@
       </c>
     </row>
     <row r="28" spans="1:6">
-      <c r="A28" t="s">
+      <c r="A28" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B28" t="s">
@@ -1116,7 +1131,7 @@
       </c>
     </row>
     <row r="29" spans="1:6">
-      <c r="A29" t="s">
+      <c r="A29" s="3" t="s">
         <v>18</v>
       </c>
       <c r="B29" t="s">
@@ -1130,7 +1145,7 @@
       </c>
     </row>
     <row r="30" spans="1:6">
-      <c r="A30" t="s">
+      <c r="A30" s="3" t="s">
         <v>16</v>
       </c>
       <c r="C30" t="s">
@@ -1141,7 +1156,7 @@
       </c>
     </row>
     <row r="31" spans="1:6">
-      <c r="A31" t="s">
+      <c r="A31" s="3" t="s">
         <v>35</v>
       </c>
       <c r="C31" t="s">
@@ -1152,7 +1167,7 @@
       </c>
     </row>
     <row r="32" spans="1:6">
-      <c r="A32" t="s">
+      <c r="A32" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B32" t="s">
@@ -1166,7 +1181,7 @@
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" t="s">
+      <c r="A33" s="3" t="s">
         <v>10</v>
       </c>
       <c r="C33" t="s">
@@ -1177,7 +1192,7 @@
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" t="s">
+      <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
       <c r="C34" t="s">
@@ -1188,7 +1203,7 @@
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" t="s">
+      <c r="A35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="B35" t="s">
@@ -1201,16 +1216,16 @@
         <v>17</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
-      <c r="A36" t="s">
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F36" t="s">
+      <c r="F36" s="2" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" t="s">
+      <c r="A37" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B37" t="s">
@@ -1218,67 +1233,62 @@
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" t="s">
+      <c r="A38" s="3" t="s">
         <v>40</v>
       </c>
       <c r="C38" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
-      <c r="A39" t="s">
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="3" t="s">
         <v>60</v>
       </c>
       <c r="B39" t="s">
         <v>14</v>
       </c>
-      <c r="F39" t="s">
+      <c r="F39" s="2" t="s">
         <v>61</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" t="s">
+      <c r="A40" s="3" t="s">
         <v>62</v>
       </c>
       <c r="B40" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="41" spans="1:6">
-      <c r="A41" t="s">
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="F41" t="s">
+      <c r="F41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="42" spans="1:6">
-      <c r="A42" t="s">
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="F42" t="s">
+      <c r="F42" s="2" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" t="s">
+      <c r="A43" s="3" t="s">
         <v>80</v>
       </c>
-      <c r="F43" t="s">
+      <c r="F43" s="2" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" t="s">
+      <c r="A44" s="3" t="s">
         <v>82</v>
       </c>
-      <c r="F44" t="s">
+      <c r="F44" s="2" t="s">
         <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
-      <c r="A45" t="s">
-        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="119" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
   <si>
     <t>Feature</t>
   </si>
@@ -279,6 +279,12 @@
   </si>
   <si>
     <t>Finish properties. Different types? There are tasks that can be completed and pushed, but there are immutables like holidays. Different dimension for holidays. Dimensions signify layers when drawn. Objs of diff dimensions can be simultaneous. Objs can filter by label even if label is in another dimension.</t>
+  </si>
+  <si>
+    <t>What is WCF and why should I care?</t>
+  </si>
+  <si>
+    <t>ADO.NET</t>
   </si>
 </sst>
 </file>
@@ -336,10 +342,10 @@
   </cellStyles>
   <dxfs count="7">
     <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -434,18 +440,18 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F45" totalsRowShown="0">
-  <autoFilter ref="A1:F45" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0">
+  <autoFilter ref="A1:F46" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F37">
     <sortCondition ref="D1:D37"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
     <tableColumn id="2" xr3:uid="{9AABA1CB-4CFB-4C32-BB29-C2A627D5143C}" name="Needs"/>
     <tableColumn id="3" xr3:uid="{44037830-D1A7-4275-9E76-8E8A27CFA5FA}" name="Timeframe"/>
     <tableColumn id="4" xr3:uid="{BF9C91B9-D741-4386-8F98-4D819EB67396}" name="Priority"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -748,10 +754,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J44"/>
+  <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F24" sqref="F24"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -885,6 +891,9 @@
       <c r="A11" s="3" t="s">
         <v>72</v>
       </c>
+      <c r="E11" t="s">
+        <v>47</v>
+      </c>
       <c r="F11" s="2" t="s">
         <v>73</v>
       </c>
@@ -1289,6 +1298,16 @@
       </c>
       <c r="F44" s="2" t="s">
         <v>83</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -756,7 +756,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:J46"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A47" sqref="A47"/>
     </sheetView>
   </sheetViews>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
   <si>
     <t>Feature</t>
   </si>
@@ -285,6 +285,9 @@
   </si>
   <si>
     <t>ADO.NET</t>
+  </si>
+  <si>
+    <t>Ruler teeth style</t>
   </si>
 </sst>
 </file>
@@ -440,8 +443,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F46" totalsRowShown="0">
-  <autoFilter ref="A1:F46" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0">
+  <autoFilter ref="A1:F47" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F37">
     <sortCondition ref="D1:D37"/>
   </sortState>
@@ -754,10 +757,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J46"/>
+  <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1310,6 +1313,11 @@
         <v>86</v>
       </c>
     </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -294,7 +294,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="2">
+  <fonts count="3">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -306,6 +306,13 @@
       <sz val="10"/>
       <color rgb="FF303336"/>
       <name val="Inherit"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -328,7 +335,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -338,6 +345,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -759,8 +773,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:J47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A12" sqref="A12:XFD12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -901,74 +915,75 @@
         <v>73</v>
       </c>
     </row>
-    <row r="12" spans="1:10" ht="30">
-      <c r="A12" s="3" t="s">
+    <row r="12" spans="1:10" s="5" customFormat="1">
+      <c r="A12" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D12" s="5">
+        <v>13</v>
+      </c>
+      <c r="F12" s="6"/>
+    </row>
+    <row r="13" spans="1:10" ht="30">
+      <c r="A13" s="3" t="s">
         <v>70</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B13" t="s">
         <v>77</v>
       </c>
-      <c r="D12">
+      <c r="D13">
         <v>0.77</v>
       </c>
-      <c r="F12" s="2" t="s">
+      <c r="F13" s="2" t="s">
         <v>71</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B13" t="s">
-        <v>74</v>
-      </c>
-      <c r="C13" t="s">
-        <v>51</v>
-      </c>
-      <c r="D13">
-        <v>0.8</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="14" spans="1:10">
       <c r="A14" s="3" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="B14" t="s">
-        <v>76</v>
+        <v>74</v>
+      </c>
+      <c r="C14" t="s">
+        <v>51</v>
       </c>
       <c r="D14">
-        <v>0.85</v>
+        <v>0.8</v>
       </c>
       <c r="F14" s="2" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
     </row>
     <row r="15" spans="1:10">
       <c r="A15" s="3" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
-        <v>75</v>
-      </c>
-      <c r="C15" t="s">
-        <v>51</v>
+        <v>76</v>
       </c>
       <c r="D15">
-        <v>0.9</v>
+        <v>0.85</v>
+      </c>
+      <c r="F15" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:10">
       <c r="A16" s="3" t="s">
-        <v>6</v>
+        <v>49</v>
+      </c>
+      <c r="B16" t="s">
+        <v>75</v>
       </c>
       <c r="C16" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="I16" t="s">
         <v>41</v>
@@ -977,138 +992,135 @@
         <v>42</v>
       </c>
     </row>
-    <row r="17" spans="1:6" ht="45">
+    <row r="17" spans="1:6">
       <c r="A17" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C17" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" ht="45">
+      <c r="A18" s="3" t="s">
         <v>46</v>
       </c>
-      <c r="C17" t="s">
+      <c r="C18" t="s">
         <v>51</v>
       </c>
-      <c r="D17">
+      <c r="D18">
         <v>1.1000000000000001</v>
       </c>
-      <c r="F17" s="2" t="s">
+      <c r="F18" s="2" t="s">
         <v>84</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B18" t="s">
-        <v>24</v>
-      </c>
-      <c r="C18" t="s">
-        <v>37</v>
-      </c>
-      <c r="D18">
-        <v>2</v>
-      </c>
-      <c r="E18" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B19" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C19" t="s">
         <v>37</v>
       </c>
       <c r="D19">
-        <v>3</v>
+        <v>2</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" s="3" t="s">
-        <v>28</v>
+        <v>8</v>
+      </c>
+      <c r="B20" t="s">
+        <v>25</v>
       </c>
       <c r="C20" t="s">
         <v>37</v>
       </c>
       <c r="D20">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B21" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="C21" t="s">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="D21">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B22" t="s">
         <v>14</v>
       </c>
-      <c r="B22" t="s">
-        <v>7</v>
-      </c>
       <c r="C22" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="D22">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
       <c r="A23" s="3" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="B23" t="s">
-        <v>14</v>
+        <v>7</v>
       </c>
       <c r="C23" t="s">
         <v>31</v>
       </c>
       <c r="D23">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
+      </c>
+      <c r="B24" t="s">
+        <v>14</v>
       </c>
       <c r="C24" t="s">
         <v>31</v>
       </c>
       <c r="D24">
-        <v>8</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>64</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="3" t="s">
-        <v>11</v>
+        <v>22</v>
       </c>
       <c r="C25" t="s">
         <v>31</v>
       </c>
       <c r="D25">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="F25" s="2" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B26" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C26" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D26">
         <v>9</v>
@@ -1116,7 +1128,7 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B27" t="s">
         <v>14</v>
@@ -1125,46 +1137,49 @@
         <v>33</v>
       </c>
       <c r="D27">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="3" t="s">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="B28" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C28" t="s">
         <v>33</v>
       </c>
       <c r="D28">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="3" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C29" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="D29">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="3" t="s">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="B30" t="s">
+        <v>14</v>
       </c>
       <c r="C30" t="s">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D30">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:6">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
   <si>
     <t>Feature</t>
   </si>
@@ -41,9 +41,6 @@
     <t>VM only change tracking</t>
   </si>
   <si>
-    <t>Assessment</t>
-  </si>
-  <si>
     <t>Calendar views</t>
   </si>
   <si>
@@ -95,9 +92,6 @@
     <t>better timespan picker</t>
   </si>
   <si>
-    <t>breakthrough</t>
-  </si>
-  <si>
     <t>task events</t>
   </si>
   <si>
@@ -119,33 +113,9 @@
     <t>Could be achieved by not putting CollectionView in edit mode when VM is in edit mode, but if view is editing when trying to commit, cancel view edit, then commit</t>
   </si>
   <si>
-    <t>2h</t>
-  </si>
-  <si>
-    <t>6h</t>
-  </si>
-  <si>
-    <t>4h</t>
-  </si>
-  <si>
-    <t>30m</t>
-  </si>
-  <si>
     <t>Remote Desktop Tight VNC</t>
   </si>
   <si>
-    <t>1h</t>
-  </si>
-  <si>
-    <t>1d</t>
-  </si>
-  <si>
-    <t>2d</t>
-  </si>
-  <si>
-    <t>4 hours</t>
-  </si>
-  <si>
     <t>Clock</t>
   </si>
   <si>
@@ -179,9 +149,6 @@
     <t>Day panel max scale</t>
   </si>
   <si>
-    <t>3h</t>
-  </si>
-  <si>
     <t>week zooming</t>
   </si>
   <si>
@@ -248,15 +215,9 @@
     <t>An animated glowy rgb line that continuously updates to follow DateTime.Now. Animates smoothly over 1 second, updated once per second</t>
   </si>
   <si>
-    <t>week panel</t>
-  </si>
-  <si>
     <t>week view</t>
   </si>
   <si>
-    <t>Day horizontal, max scale weekk panel</t>
-  </si>
-  <si>
     <t>day panel</t>
   </si>
   <si>
@@ -284,10 +245,67 @@
     <t>What is WCF and why should I care?</t>
   </si>
   <si>
-    <t>ADO.NET</t>
-  </si>
-  <si>
     <t>Ruler teeth style</t>
+  </si>
+  <si>
+    <t>Day panel UI Virtualization</t>
+  </si>
+  <si>
+    <t>MainWindowVM -&gt; Navigate -&gt; GetDataCmd -&gt;</t>
+  </si>
+  <si>
+    <t>trigger states based on timertick event</t>
+  </si>
+  <si>
+    <t>click a CalendarObject</t>
+  </si>
+  <si>
+    <t>CalObj creates event. VM listens for event. Register even when creating in VM before adding to collection.</t>
+  </si>
+  <si>
+    <t>Selector</t>
+  </si>
+  <si>
+    <t>Cancelled</t>
+  </si>
+  <si>
+    <t>CalendarViewModel</t>
+  </si>
+  <si>
+    <t>DayViewModel</t>
+  </si>
+  <si>
+    <t>WeekViewModel</t>
+  </si>
+  <si>
+    <t>MonthViewModel</t>
+  </si>
+  <si>
+    <t>weekview</t>
+  </si>
+  <si>
+    <t>SCM issue tracking</t>
+  </si>
+  <si>
+    <t>Agile Scrum</t>
+  </si>
+  <si>
+    <t>CalendarObject thumbs</t>
+  </si>
+  <si>
+    <t>no need?</t>
+  </si>
+  <si>
+    <t>ListBox already does virtualization?</t>
+  </si>
+  <si>
+    <t>using ListBox</t>
+  </si>
+  <si>
+    <t>TextMargin bug after zoom + scroll</t>
+  </si>
+  <si>
+    <t>mistimed?</t>
   </si>
 </sst>
 </file>
@@ -457,10 +475,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F47" totalsRowShown="0">
-  <autoFilter ref="A1:F47" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F37">
-    <sortCondition ref="D1:D37"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F56" totalsRowShown="0">
+  <autoFilter ref="A1:F56" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F50">
+    <sortCondition ref="D1:D50"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -771,10 +789,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J47"/>
+  <dimension ref="A1:J56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12:XFD12"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="F56" sqref="F56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -788,7 +806,7 @@
     <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10">
+    <row r="1" spans="1:9">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -802,535 +820,670 @@
         <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="3" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="D2">
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="30">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="30">
       <c r="A3" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C3" t="s">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D3">
         <v>1.1000000000000001</v>
       </c>
       <c r="E3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="E5" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
+      <c r="A6" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="E6" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6">
+        <f>SUM(C12:C32)</f>
+        <v>65</v>
+      </c>
+      <c r="I6">
+        <f>H6/11</f>
+        <v>5.9090909090909092</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7">
+        <f>SUM(C12:C47)</f>
+        <v>130</v>
+      </c>
+      <c r="I7">
+        <f>H7/11</f>
+        <v>11.818181818181818</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
+      <c r="A9" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="F3" s="2" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="E4" t="s">
-        <v>47</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" ht="30">
+      <c r="A10" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
+      <c r="A11" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11">
+        <v>0.7</v>
+      </c>
+      <c r="E11" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
+      <c r="A12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
+      <c r="A13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="B13" t="s">
+        <v>81</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1" ht="30">
+      <c r="A14" s="3" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="C5" t="s">
-        <v>33</v>
-      </c>
-      <c r="E5" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="3" t="s">
+      <c r="B14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C14"/>
+      <c r="D14">
+        <v>4</v>
+      </c>
+      <c r="E14" t="s">
+        <v>80</v>
+      </c>
+      <c r="F14" s="2" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" s="5" customFormat="1">
+      <c r="A15" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15"/>
+      <c r="F15" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="5" customFormat="1">
+      <c r="A16" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16" t="s">
+        <v>85</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>6</v>
+      </c>
+      <c r="E16"/>
+      <c r="F16" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C6" t="s">
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C17">
+        <v>3</v>
+      </c>
+      <c r="D17">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18" t="s">
+        <v>63</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C19">
+        <v>3</v>
+      </c>
+      <c r="D19">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>10</v>
+      </c>
+      <c r="I20" t="s">
+        <v>31</v>
+      </c>
+      <c r="J20" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E6" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="3" t="s">
-        <v>56</v>
-      </c>
-      <c r="E7" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="E8" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="E9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="D10">
-        <v>0.7</v>
-      </c>
-      <c r="F10" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" ht="30">
-      <c r="A11" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="E11" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="2" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" s="5" customFormat="1">
-      <c r="A12" s="4" t="s">
+    </row>
+    <row r="21" spans="1:10" ht="45">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21">
+        <v>3</v>
+      </c>
+      <c r="D21">
+        <v>11</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D22">
+        <v>12</v>
+      </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B23" t="s">
+        <v>23</v>
+      </c>
+      <c r="D23">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24">
+        <v>6</v>
+      </c>
+      <c r="D24">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" t="s">
+        <v>13</v>
+      </c>
+      <c r="C25">
+        <v>6</v>
+      </c>
+      <c r="D25">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C26">
+        <v>3</v>
+      </c>
+      <c r="D26">
         <v>16</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>34</v>
-      </c>
-      <c r="D12" s="5">
+      <c r="F26" s="2" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>17</v>
+      </c>
+      <c r="E27" t="s">
+        <v>37</v>
+      </c>
+      <c r="F27" s="2" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F12" s="6"/>
-    </row>
-    <row r="13" spans="1:10" ht="30">
-      <c r="A13" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="B13" t="s">
-        <v>77</v>
-      </c>
-      <c r="D13">
-        <v>0.77</v>
-      </c>
-      <c r="F13" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B14" t="s">
-        <v>74</v>
-      </c>
-      <c r="C14" t="s">
-        <v>51</v>
-      </c>
-      <c r="D14">
-        <v>0.8</v>
-      </c>
-      <c r="F14" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B15" t="s">
+      <c r="B28" t="s">
+        <v>6</v>
+      </c>
+      <c r="C28">
+        <v>6</v>
+      </c>
+      <c r="D28">
+        <v>18</v>
+      </c>
+      <c r="F28" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D15">
-        <v>0.85</v>
-      </c>
-      <c r="F15" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B16" t="s">
-        <v>75</v>
-      </c>
-      <c r="C16" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16">
-        <v>0.9</v>
-      </c>
-      <c r="I16" t="s">
-        <v>41</v>
-      </c>
-      <c r="J16" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
-      <c r="A17" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C17" t="s">
-        <v>37</v>
-      </c>
-      <c r="D17">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6" ht="45">
-      <c r="A18" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="C18" t="s">
-        <v>51</v>
-      </c>
-      <c r="D18">
-        <v>1.1000000000000001</v>
-      </c>
-      <c r="F18" s="2" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B19" t="s">
-        <v>24</v>
-      </c>
-      <c r="C19" t="s">
-        <v>37</v>
-      </c>
-      <c r="D19">
-        <v>2</v>
-      </c>
-      <c r="E19" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
-      <c r="A20" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B20" t="s">
-        <v>25</v>
-      </c>
-      <c r="C20" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
-      <c r="A21" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="C21" t="s">
-        <v>37</v>
-      </c>
-      <c r="D21">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B22" t="s">
-        <v>14</v>
-      </c>
-      <c r="C22" t="s">
-        <v>32</v>
-      </c>
-      <c r="D22">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23" spans="1:6">
-      <c r="A23" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B23" t="s">
-        <v>7</v>
-      </c>
-      <c r="C23" t="s">
-        <v>31</v>
-      </c>
-      <c r="D23">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="24" spans="1:6">
-      <c r="A24" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B24" t="s">
-        <v>14</v>
-      </c>
-      <c r="C24" t="s">
-        <v>31</v>
-      </c>
-      <c r="D24">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
-      <c r="A25" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C25" t="s">
-        <v>31</v>
-      </c>
-      <c r="D25">
-        <v>8</v>
-      </c>
-      <c r="F25" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="A26" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="C26" t="s">
-        <v>31</v>
-      </c>
-      <c r="D26">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
-      <c r="A27" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B27" t="s">
-        <v>14</v>
-      </c>
-      <c r="C27" t="s">
-        <v>33</v>
-      </c>
-      <c r="D27">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
-      <c r="A28" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B28" t="s">
-        <v>14</v>
-      </c>
-      <c r="C28" t="s">
-        <v>33</v>
-      </c>
-      <c r="D28">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+    </row>
+    <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="B29" t="s">
-        <v>15</v>
-      </c>
-      <c r="C29" t="s">
-        <v>33</v>
+        <v>13</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
       </c>
       <c r="D29">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>20</v>
+      </c>
+      <c r="F30" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C31">
+        <v>4</v>
+      </c>
+      <c r="D31">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="30" spans="1:6">
-      <c r="A30" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="B30" t="s">
-        <v>14</v>
-      </c>
-      <c r="C30" t="s">
-        <v>39</v>
-      </c>
-      <c r="D30">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
-      <c r="A31" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="C31" t="s">
-        <v>36</v>
-      </c>
-      <c r="D31">
+      <c r="B32" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="32" spans="1:6">
-      <c r="A32" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="B32" t="s">
-        <v>26</v>
-      </c>
-      <c r="C32" t="s">
-        <v>33</v>
+      <c r="C32">
+        <v>4</v>
       </c>
       <c r="D32">
-        <v>14</v>
+        <v>22</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C33" t="s">
-        <v>32</v>
+        <v>14</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
       </c>
       <c r="D33">
-        <v>15</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C34" t="s">
-        <v>31</v>
+      <c r="B34" t="s">
+        <v>14</v>
+      </c>
+      <c r="C34">
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
       <c r="A35" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B35" t="s">
-        <v>27</v>
-      </c>
-      <c r="C35" t="s">
-        <v>38</v>
-      </c>
-      <c r="D35">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
+        <v>13</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>30</v>
+        <v>51</v>
+      </c>
+      <c r="B36" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="B37" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>25</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="C38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
+      <c r="A38" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B38" s="5"/>
+      <c r="C38" s="5"/>
+      <c r="D38" s="5"/>
+      <c r="E38" s="5"/>
+      <c r="F38" s="6"/>
+    </row>
+    <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="B39" t="s">
-        <v>14</v>
-      </c>
-      <c r="F39" s="2" t="s">
-        <v>61</v>
+        <v>29</v>
+      </c>
+      <c r="C39">
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <v>26</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>62</v>
+        <v>8</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
+        <v>24</v>
+      </c>
+      <c r="C40">
+        <v>10</v>
+      </c>
+      <c r="D40">
+        <v>27</v>
+      </c>
+      <c r="F40" s="2" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="F41" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6" ht="30">
+        <v>9</v>
+      </c>
+      <c r="C41">
+        <v>6</v>
+      </c>
+      <c r="D41">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>78</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>79</v>
+        <v>18</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>29</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="2" t="s">
-        <v>81</v>
+        <v>16</v>
+      </c>
+      <c r="B43" t="s">
+        <v>25</v>
+      </c>
+      <c r="C43">
+        <v>20</v>
+      </c>
+      <c r="D43">
+        <v>30</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>82</v>
+        <v>74</v>
+      </c>
+      <c r="C44">
+        <v>4</v>
+      </c>
+      <c r="D44">
+        <v>31</v>
+      </c>
+      <c r="E44" t="s">
+        <v>89</v>
       </c>
       <c r="F44" s="2" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" ht="30">
       <c r="A45" s="3" t="s">
-        <v>85</v>
+        <v>65</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>32</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="C46">
+        <v>4</v>
+      </c>
+      <c r="D46">
+        <v>33</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C47">
+        <v>4</v>
+      </c>
+      <c r="D47">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" ht="30">
+      <c r="A49" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" ht="30">
+      <c r="A50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="F51" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3" t="s">
         <v>87</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6">
+      <c r="A55" s="3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F56" s="2" t="s">
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
   <si>
     <t>Feature</t>
   </si>
@@ -266,9 +266,6 @@
     <t>Selector</t>
   </si>
   <si>
-    <t>Cancelled</t>
-  </si>
-  <si>
     <t>CalendarViewModel</t>
   </si>
   <si>
@@ -306,13 +303,40 @@
   </si>
   <si>
     <t>mistimed?</t>
+  </si>
+  <si>
+    <t>VerticalLRWeekView</t>
+  </si>
+  <si>
+    <t>HorizontalLRWeekView</t>
+  </si>
+  <si>
+    <t>continuous day panel</t>
+  </si>
+  <si>
+    <t>HorizontalUDWeekView</t>
+  </si>
+  <si>
+    <t>This is a vertical list of horizontal days. Week.Height is fixed to VP Height.</t>
+  </si>
+  <si>
+    <t>This is a horizontal list of vertical days. Week.Width is fixed to VP width. Scale and Offset affects all days at once.</t>
+  </si>
+  <si>
+    <t>Hoizontal week, horizontal days. This will just use a horizontal ContinuousDay panel</t>
+  </si>
+  <si>
+    <t>VerticalUDWeekView</t>
+  </si>
+  <si>
+    <t>Vertical week, vertical days. This will just use a vertical ContinuousDay panel</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="3">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -328,6 +352,14 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <strike/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -353,7 +385,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -369,6 +401,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -475,10 +521,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F56" totalsRowShown="0">
-  <autoFilter ref="A1:F56" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F50">
-    <sortCondition ref="D1:D50"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F60" totalsRowShown="0">
+  <autoFilter ref="A1:F60" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F54">
+    <sortCondition ref="D1:D54"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -789,10 +835,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J56"/>
+  <dimension ref="A1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="F56" sqref="F56"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -878,7 +924,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>SUM(C12:C32)</f>
+        <f>SUM(C12:C34)</f>
         <v>65</v>
       </c>
       <c r="I6">
@@ -894,7 +940,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <f>SUM(C12:C47)</f>
+        <f>SUM(C12:C52)</f>
         <v>130</v>
       </c>
       <c r="I7">
@@ -945,7 +991,7 @@
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C12">
         <v>3</v>
@@ -954,12 +1000,12 @@
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:9">
+    <row r="13" spans="1:9" s="5" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="B13" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C13">
         <v>3</v>
@@ -967,6 +1013,8 @@
       <c r="D13">
         <v>3</v>
       </c>
+      <c r="E13"/>
+      <c r="F13" s="2"/>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1" ht="30">
       <c r="A14" s="3" t="s">
@@ -979,511 +1027,579 @@
       <c r="D14">
         <v>4</v>
       </c>
-      <c r="E14" t="s">
-        <v>80</v>
-      </c>
+      <c r="E14"/>
       <c r="F14" s="2" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15"/>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>5</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="B15" t="s">
+        <v>59</v>
+      </c>
+      <c r="C15"/>
+      <c r="D15"/>
       <c r="E15"/>
       <c r="F15" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>41</v>
+        <v>96</v>
       </c>
       <c r="B16" t="s">
-        <v>85</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>6</v>
-      </c>
+        <v>93</v>
+      </c>
+      <c r="C16"/>
+      <c r="D16"/>
       <c r="E16"/>
       <c r="F16" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" s="5" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>83</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="B17"/>
       <c r="C17">
         <v>3</v>
       </c>
       <c r="D17">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>5</v>
+      </c>
+      <c r="E17"/>
+      <c r="F17" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" s="5" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>84</v>
       </c>
       <c r="C18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D18">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>6</v>
+      </c>
+      <c r="E18"/>
+      <c r="F18" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" s="5" customFormat="1">
       <c r="A19" s="3" t="s">
-        <v>84</v>
-      </c>
+        <v>82</v>
+      </c>
+      <c r="B19"/>
       <c r="C19">
         <v>3</v>
       </c>
       <c r="D19">
-        <v>9</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="E19"/>
+      <c r="F19" s="2"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>5</v>
+        <v>39</v>
+      </c>
+      <c r="B20" t="s">
+        <v>63</v>
       </c>
       <c r="C20">
         <v>3</v>
       </c>
       <c r="D20">
-        <v>10</v>
-      </c>
-      <c r="I20" t="s">
-        <v>31</v>
-      </c>
-      <c r="J20" s="1" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="45">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>36</v>
+        <v>83</v>
       </c>
       <c r="C21">
         <v>3</v>
       </c>
       <c r="D21">
-        <v>11</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>71</v>
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B22" t="s">
-        <v>22</v>
+        <v>5</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
       </c>
       <c r="D22">
-        <v>12</v>
-      </c>
-      <c r="E22" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" ht="45">
       <c r="A23" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B23" t="s">
-        <v>23</v>
+        <v>36</v>
+      </c>
+      <c r="C23">
+        <v>3</v>
       </c>
       <c r="D23">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="F23" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="I23" t="s">
+        <v>31</v>
+      </c>
+      <c r="J23" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C24">
         <v>6</v>
       </c>
+      <c r="B24" t="s">
+        <v>22</v>
+      </c>
       <c r="D24">
-        <v>14</v>
+        <v>12</v>
+      </c>
+      <c r="E24" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="D25">
         <v>13</v>
-      </c>
-      <c r="C25">
-        <v>6</v>
-      </c>
-      <c r="D25">
-        <v>15</v>
       </c>
     </row>
     <row r="26" spans="1:10">
       <c r="A26" s="3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C26">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D26">
-        <v>16</v>
-      </c>
-      <c r="F26" s="2" t="s">
-        <v>78</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
-        <v>79</v>
+        <v>12</v>
+      </c>
+      <c r="B27" t="s">
+        <v>13</v>
       </c>
       <c r="C27">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D27">
-        <v>17</v>
-      </c>
-      <c r="E27" t="s">
-        <v>37</v>
-      </c>
-      <c r="F27" s="2" t="s">
-        <v>91</v>
+        <v>15</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B28" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C28">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D28">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B29" t="s">
-        <v>13</v>
+        <v>79</v>
       </c>
       <c r="C29">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D29">
-        <v>19</v>
+        <v>17</v>
+      </c>
+      <c r="E29" t="s">
+        <v>37</v>
+      </c>
+      <c r="F29" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>21</v>
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>6</v>
       </c>
       <c r="C30">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D30">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="F30" s="2" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>21</v>
+        <v>19</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C32">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D32">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F32" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C33">
         <v>4</v>
       </c>
       <c r="D33">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B34" t="s">
+        <v>13</v>
+      </c>
+      <c r="C34">
+        <v>4</v>
+      </c>
+      <c r="D34">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C34">
-        <v>6</v>
-      </c>
-      <c r="D34">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="3" t="s">
-        <v>49</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
       </c>
-      <c r="F35" s="2" t="s">
-        <v>50</v>
+      <c r="C35">
+        <v>4</v>
+      </c>
+      <c r="D35">
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
       <c r="B36" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="C36">
+        <v>6</v>
+      </c>
+      <c r="D36">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" ht="30">
       <c r="A37" s="3" t="s">
-        <v>17</v>
+        <v>49</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>25</v>
+      <c r="F37" s="2" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B38" s="5"/>
-      <c r="C38" s="5"/>
-      <c r="D38" s="5"/>
-      <c r="E38" s="5"/>
-      <c r="F38" s="6"/>
+      <c r="A38" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B38" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
       </c>
       <c r="C39">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D39">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B40" t="s">
-        <v>24</v>
-      </c>
-      <c r="C40">
-        <v>10</v>
-      </c>
-      <c r="D40">
-        <v>27</v>
-      </c>
-      <c r="F40" s="2" t="s">
-        <v>75</v>
-      </c>
+      <c r="A40" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B40" s="5"/>
+      <c r="C40" s="5"/>
+      <c r="D40" s="5"/>
+      <c r="E40" s="5"/>
+      <c r="F40" s="6"/>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C41">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D41">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B42" t="s">
+        <v>24</v>
       </c>
       <c r="C42">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D42">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F42" s="2" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="B43" t="s">
-        <v>25</v>
+        <v>9</v>
       </c>
       <c r="C43">
-        <v>20</v>
+        <v>6</v>
       </c>
       <c r="D43">
-        <v>30</v>
+        <v>28</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B45" t="s">
+        <v>25</v>
+      </c>
+      <c r="C45">
+        <v>20</v>
+      </c>
+      <c r="D45">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="C44">
+      <c r="B46" s="8"/>
+      <c r="C46" s="8">
         <v>4</v>
       </c>
-      <c r="D44">
+      <c r="D46" s="8">
         <v>31</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E46" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F46" s="9" t="s">
         <v>89</v>
       </c>
-      <c r="F44" s="2" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6" ht="30">
-      <c r="A45" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C45">
-        <v>1</v>
-      </c>
-      <c r="D45">
-        <v>32</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46">
-        <v>4</v>
-      </c>
-      <c r="D46">
-        <v>33</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+    </row>
+    <row r="47" spans="1:6" ht="30">
       <c r="A47" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C47">
-        <v>4</v>
+        <v>54</v>
       </c>
       <c r="D47">
-        <v>34</v>
+        <v>31.1</v>
+      </c>
+      <c r="F47" s="2" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6" ht="30">
-      <c r="A49" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="F49" s="2" t="s">
-        <v>55</v>
+      <c r="A48" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="B48" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C48" s="11"/>
+      <c r="D48" s="11">
+        <v>31.2</v>
+      </c>
+      <c r="E48" s="11"/>
+      <c r="F48" s="12" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C49" s="11"/>
+      <c r="D49" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="E49" s="11"/>
+      <c r="F49" s="12" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
       <c r="A50" s="3" t="s">
-        <v>4</v>
+        <v>65</v>
+      </c>
+      <c r="B50" t="s">
+        <v>95</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>32</v>
       </c>
       <c r="F50" s="2" t="s">
-        <v>28</v>
+        <v>66</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+      <c r="C51">
+        <v>4</v>
+      </c>
+      <c r="D51">
+        <v>33</v>
       </c>
       <c r="F51" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="3" t="s">
-        <v>72</v>
+        <v>73</v>
+      </c>
+      <c r="C52">
+        <v>4</v>
+      </c>
+      <c r="D52">
+        <v>34</v>
       </c>
     </row>
     <row r="53" spans="1:6">
       <c r="A53" s="3" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" ht="30">
       <c r="A54" s="3" t="s">
-        <v>87</v>
+        <v>4</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>88</v>
+        <v>69</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6">
+      <c r="A59" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F60" s="2" t="s">
         <v>92</v>
-      </c>
-      <c r="F56" s="2" t="s">
-        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -15,6 +15,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
   <si>
     <t>Feature</t>
   </si>
@@ -149,18 +150,12 @@
     <t>Day panel max scale</t>
   </si>
   <si>
-    <t>week zooming</t>
-  </si>
-  <si>
     <t>Make max scale proportional to viewport, if scale less than viewport, scale to viewport, then expand to week view, IsMaxScale</t>
   </si>
   <si>
     <t>Day panel horizontal</t>
   </si>
   <si>
-    <t>With horizontal Days at max scale, scaling should already happen by just shrinking week grid, nothing to code</t>
-  </si>
-  <si>
     <t>Date watermark</t>
   </si>
   <si>
@@ -278,9 +273,6 @@
     <t>MonthViewModel</t>
   </si>
   <si>
-    <t>weekview</t>
-  </si>
-  <si>
     <t>SCM issue tracking</t>
   </si>
   <si>
@@ -299,12 +291,6 @@
     <t>using ListBox</t>
   </si>
   <si>
-    <t>TextMargin bug after zoom + scroll</t>
-  </si>
-  <si>
-    <t>mistimed?</t>
-  </si>
-  <si>
     <t>VerticalLRWeekView</t>
   </si>
   <si>
@@ -330,6 +316,33 @@
   </si>
   <si>
     <t>Vertical week, vertical days. This will just use a vertical ContinuousDay panel</t>
+  </si>
+  <si>
+    <t>Day not in month styles</t>
+  </si>
+  <si>
+    <t>flag, gray background, darker gray watermark, distinguishable from month days</t>
+  </si>
+  <si>
+    <t>Pages</t>
+  </si>
+  <si>
+    <t>in month view click on a week to page to week, click on a day to page to day</t>
+  </si>
+  <si>
+    <t>Double click week to WeekView</t>
+  </si>
+  <si>
+    <t>CalendarPicker</t>
+  </si>
+  <si>
+    <t>Swap Calendar Views</t>
+  </si>
+  <si>
+    <t>Figure out how to easily swap to month/week/day views</t>
+  </si>
+  <si>
+    <t>Use the DatePicker to choose a date</t>
   </si>
 </sst>
 </file>
@@ -521,10 +534,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F60" totalsRowShown="0">
-  <autoFilter ref="A1:F60" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F54">
-    <sortCondition ref="D1:D54"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F63" totalsRowShown="0">
+  <autoFilter ref="A1:F63" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F57">
+    <sortCondition ref="D1:D57"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -835,15 +848,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J60"/>
+  <dimension ref="A1:J63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="27.42578125" style="3" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
@@ -894,18 +907,18 @@
         <v>37</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="s">
         <v>37</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -924,33 +937,33 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>SUM(C12:C34)</f>
-        <v>65</v>
+        <f>SUM(C12:C37)</f>
+        <v>64</v>
       </c>
       <c r="I6">
         <f>H6/11</f>
-        <v>5.9090909090909092</v>
+        <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="3" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
         <v>37</v>
       </c>
       <c r="H7">
-        <f>SUM(C12:C52)</f>
-        <v>130</v>
+        <f>SUM(C12:C55)</f>
+        <v>129</v>
       </c>
       <c r="I7">
         <f>H7/11</f>
-        <v>11.818181818181818</v>
+        <v>11.727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="3" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E8" t="s">
         <v>37</v>
@@ -958,7 +971,7 @@
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="3" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="E9" t="s">
         <v>37</v>
@@ -966,18 +979,18 @@
     </row>
     <row r="10" spans="1:9" ht="30">
       <c r="A10" s="3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E10" t="s">
         <v>37</v>
       </c>
       <c r="F10" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D11">
         <v>0.7</v>
@@ -986,176 +999,174 @@
         <v>37</v>
       </c>
       <c r="F11" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" ht="30">
+      <c r="A12" s="3" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C12">
-        <v>3</v>
+      <c r="B12" t="s">
+        <v>62</v>
       </c>
       <c r="D12">
-        <v>2</v>
+        <v>4</v>
+      </c>
+      <c r="E12" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="2" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1">
       <c r="A13" s="3" t="s">
-        <v>81</v>
+        <v>88</v>
       </c>
       <c r="B13" t="s">
-        <v>80</v>
-      </c>
-      <c r="C13">
-        <v>3</v>
-      </c>
-      <c r="D13">
-        <v>3</v>
-      </c>
-      <c r="E13"/>
-      <c r="F13" s="2"/>
-    </row>
-    <row r="14" spans="1:9" s="5" customFormat="1" ht="30">
+        <v>57</v>
+      </c>
+      <c r="C13"/>
+      <c r="D13"/>
+      <c r="E13" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" s="5" customFormat="1">
       <c r="A14" s="3" t="s">
-        <v>59</v>
+        <v>91</v>
       </c>
       <c r="B14" t="s">
-        <v>64</v>
+        <v>88</v>
       </c>
       <c r="C14"/>
-      <c r="D14">
-        <v>4</v>
-      </c>
-      <c r="E14"/>
+      <c r="D14"/>
+      <c r="E14" t="s">
+        <v>37</v>
+      </c>
       <c r="F14" s="2" t="s">
-        <v>60</v>
+        <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1">
       <c r="A15" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="B15" t="s">
-        <v>59</v>
-      </c>
-      <c r="C15"/>
-      <c r="D15"/>
-      <c r="E15"/>
+        <v>38</v>
+      </c>
+      <c r="B15"/>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>5</v>
+      </c>
+      <c r="E15" t="s">
+        <v>37</v>
+      </c>
       <c r="F15" s="2" t="s">
-        <v>98</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1">
       <c r="A16" s="3" t="s">
-        <v>96</v>
+        <v>39</v>
       </c>
       <c r="B16" t="s">
-        <v>93</v>
-      </c>
-      <c r="C16"/>
-      <c r="D16"/>
-      <c r="E16"/>
-      <c r="F16" s="2" t="s">
-        <v>97</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>8</v>
+      </c>
+      <c r="E16" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="2"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1">
       <c r="A17" s="3" t="s">
-        <v>38</v>
+        <v>97</v>
       </c>
       <c r="B17"/>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>5</v>
-      </c>
-      <c r="E17"/>
+      <c r="C17"/>
+      <c r="D17"/>
+      <c r="E17" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="2" t="s">
-        <v>58</v>
+        <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1">
       <c r="A18" s="3" t="s">
-        <v>41</v>
-      </c>
-      <c r="B18" t="s">
-        <v>84</v>
-      </c>
+        <v>5</v>
+      </c>
+      <c r="B18"/>
       <c r="C18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D18">
-        <v>6</v>
-      </c>
-      <c r="E18"/>
-      <c r="F18" s="2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10" s="5" customFormat="1">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="B19"/>
-      <c r="C19">
-        <v>3</v>
-      </c>
-      <c r="D19">
-        <v>7</v>
-      </c>
-      <c r="E19"/>
-      <c r="F19" s="2"/>
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B20" t="s">
-        <v>63</v>
-      </c>
-      <c r="C20">
-        <v>3</v>
-      </c>
-      <c r="D20">
-        <v>8</v>
+        <v>102</v>
+      </c>
+      <c r="F20" s="2" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C21">
-        <v>3</v>
-      </c>
-      <c r="D21">
-        <v>9</v>
+        <v>103</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="3" t="s">
-        <v>5</v>
+        <v>78</v>
       </c>
       <c r="C22">
         <v>3</v>
       </c>
       <c r="D22">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10" ht="45">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
-        <v>36</v>
+        <v>79</v>
+      </c>
+      <c r="B23" t="s">
+        <v>78</v>
       </c>
       <c r="C23">
         <v>3</v>
       </c>
       <c r="D23">
-        <v>11</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>71</v>
+        <v>3</v>
       </c>
       <c r="I23" t="s">
         <v>31</v>
@@ -1166,440 +1177,479 @@
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B24" t="s">
-        <v>22</v>
+        <v>80</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
       </c>
       <c r="D24">
-        <v>12</v>
-      </c>
-      <c r="E24" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B25" t="s">
-        <v>23</v>
+        <v>81</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
       </c>
       <c r="D25">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" ht="45">
       <c r="A26" s="3" t="s">
-        <v>26</v>
+        <v>36</v>
       </c>
       <c r="C26">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D26">
-        <v>14</v>
+        <v>11</v>
+      </c>
+      <c r="F26" s="2" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10">
       <c r="A27" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27" t="s">
+        <v>22</v>
+      </c>
+      <c r="D27">
         <v>12</v>
       </c>
-      <c r="B27" t="s">
-        <v>13</v>
-      </c>
-      <c r="C27">
-        <v>6</v>
-      </c>
-      <c r="D27">
-        <v>15</v>
+      <c r="E27" t="s">
+        <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="C28">
-        <v>3</v>
+        <v>7</v>
+      </c>
+      <c r="B28" t="s">
+        <v>23</v>
       </c>
       <c r="D28">
-        <v>16</v>
-      </c>
-      <c r="F28" s="2" t="s">
-        <v>78</v>
+        <v>13</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="C29">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>17</v>
-      </c>
-      <c r="E29" t="s">
-        <v>37</v>
-      </c>
-      <c r="F29" s="2" t="s">
-        <v>90</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" t="s">
         <v>13</v>
-      </c>
-      <c r="B30" t="s">
-        <v>6</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>18</v>
-      </c>
-      <c r="F30" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B31" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C31">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D31">
-        <v>19</v>
+        <v>16</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>76</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C32">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D32">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E32" t="s">
+        <v>37</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>53</v>
+        <v>87</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="B33" t="s">
+        <v>6</v>
       </c>
       <c r="C33">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>21</v>
+        <v>18</v>
+      </c>
+      <c r="F33" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="B34" t="s">
         <v>13</v>
       </c>
       <c r="C34">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D35">
-        <v>23</v>
+        <v>20</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C36">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D36">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6" ht="30">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="B37" t="s">
         <v>13</v>
       </c>
-      <c r="F37" s="2" t="s">
-        <v>50</v>
+      <c r="C37">
+        <v>4</v>
+      </c>
+      <c r="D37">
+        <v>22</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="B38" t="s">
-        <v>52</v>
+        <v>13</v>
+      </c>
+      <c r="C38">
+        <v>4</v>
+      </c>
+      <c r="D38">
+        <v>23</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B39" t="s">
+        <v>14</v>
+      </c>
+      <c r="C39">
+        <v>6</v>
+      </c>
+      <c r="D39">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
+      <c r="A40" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B40" t="s">
         <v>13</v>
       </c>
-      <c r="C39">
-        <v>4</v>
-      </c>
-      <c r="D39">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
-      <c r="A40" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B40" s="5"/>
-      <c r="C40" s="5"/>
-      <c r="D40" s="5"/>
-      <c r="E40" s="5"/>
-      <c r="F40" s="6"/>
+      <c r="F40" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C41">
-        <v>1</v>
-      </c>
-      <c r="D41">
-        <v>26</v>
+        <v>49</v>
+      </c>
+      <c r="B41" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="B42" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
       <c r="C42">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D42">
-        <v>27</v>
-      </c>
-      <c r="F42" s="2" t="s">
-        <v>75</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="C43">
-        <v>6</v>
-      </c>
-      <c r="D43">
-        <v>28</v>
-      </c>
+      <c r="A43" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B43" s="5"/>
+      <c r="C43" s="5"/>
+      <c r="D43" s="5"/>
+      <c r="E43" s="5"/>
+      <c r="F43" s="6"/>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="3" t="s">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="C44">
         <v>1</v>
       </c>
       <c r="D44">
-        <v>29</v>
+        <v>26</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B45" t="s">
+        <v>24</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45">
+        <v>27</v>
+      </c>
+      <c r="F45" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46">
+        <v>6</v>
+      </c>
+      <c r="D46">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6">
+      <c r="A47" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6">
+      <c r="A48" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B48" t="s">
         <v>25</v>
       </c>
-      <c r="C45">
+      <c r="C48">
         <v>20</v>
       </c>
-      <c r="D45">
+      <c r="D48">
         <v>30</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="B46" s="8"/>
-      <c r="C46" s="8">
+    <row r="49" spans="1:6">
+      <c r="A49" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="B49" s="8"/>
+      <c r="C49" s="8">
         <v>4</v>
       </c>
-      <c r="D46" s="8">
+      <c r="D49" s="8">
         <v>31</v>
       </c>
-      <c r="E46" s="8" t="s">
-        <v>88</v>
-      </c>
-      <c r="F46" s="9" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6" ht="30">
-      <c r="A47" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="D47">
-        <v>31.1</v>
-      </c>
-      <c r="F47" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
-      <c r="A48" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="B48" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C48" s="11"/>
-      <c r="D48" s="11">
-        <v>31.2</v>
-      </c>
-      <c r="E48" s="11"/>
-      <c r="F48" s="12" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="10" t="s">
-        <v>100</v>
-      </c>
-      <c r="B49" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C49" s="11"/>
-      <c r="D49" s="11">
-        <v>31.3</v>
-      </c>
-      <c r="E49" s="11"/>
-      <c r="F49" s="12" t="s">
-        <v>101</v>
+      <c r="E49" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F49" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="50" spans="1:6" ht="30">
       <c r="A50" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="D50">
+        <v>31.1</v>
+      </c>
+      <c r="F50" s="2" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C51" s="11"/>
+      <c r="D51" s="11">
+        <v>31.2</v>
+      </c>
+      <c r="E51" s="11"/>
+      <c r="F51" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="11"/>
+      <c r="D52" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="E52" s="11"/>
+      <c r="F52" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="B53" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53">
+        <v>1</v>
+      </c>
+      <c r="D53">
+        <v>32</v>
+      </c>
+      <c r="F53" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="3" t="s">
         <v>65</v>
       </c>
-      <c r="B50" t="s">
-        <v>95</v>
-      </c>
-      <c r="C50">
-        <v>1</v>
-      </c>
-      <c r="D50">
-        <v>32</v>
-      </c>
-      <c r="F50" s="2" t="s">
+      <c r="C54">
+        <v>4</v>
+      </c>
+      <c r="D54">
+        <v>33</v>
+      </c>
+      <c r="F54" s="2" t="s">
         <v>66</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C51">
-        <v>4</v>
-      </c>
-      <c r="D51">
-        <v>33</v>
-      </c>
-      <c r="F51" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C52">
-        <v>4</v>
-      </c>
-      <c r="D52">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>70</v>
+        <v>71</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55">
+        <v>34</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="E56" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30">
       <c r="A57" s="3" t="s">
-        <v>85</v>
+        <v>4</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>86</v>
+        <v>67</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>87</v>
+        <v>70</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="F60" s="2" t="s">
-        <v>92</v>
+        <v>82</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
+      <c r="A61" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="F63" s="2" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -15,7 +15,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="171027"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -25,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="141" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
   <si>
     <t>Feature</t>
   </si>
@@ -327,9 +326,6 @@
     <t>Pages</t>
   </si>
   <si>
-    <t>in month view click on a week to page to week, click on a day to page to day</t>
-  </si>
-  <si>
     <t>Double click week to WeekView</t>
   </si>
   <si>
@@ -343,6 +339,15 @@
   </si>
   <si>
     <t>Use the DatePicker to choose a date</t>
+  </si>
+  <si>
+    <t>YearView</t>
+  </si>
+  <si>
+    <t>Like MonthView, a ListBox of months, select month, double click month to MonthView</t>
+  </si>
+  <si>
+    <t>Draw concurrent CalendarObjects</t>
   </si>
 </sst>
 </file>
@@ -534,10 +539,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F63" totalsRowShown="0">
-  <autoFilter ref="A1:F63" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F57">
-    <sortCondition ref="D1:D57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F65" totalsRowShown="0">
+  <autoFilter ref="A1:F65" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F58">
+    <sortCondition ref="D1:D58"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -848,10 +853,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J63"/>
+  <dimension ref="A1:J65"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A63" sqref="A63:F63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -937,7 +942,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>SUM(C12:C37)</f>
+        <f>SUM(C12:C38)</f>
         <v>64</v>
       </c>
       <c r="I6">
@@ -953,7 +958,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <f>SUM(C12:C55)</f>
+        <f>SUM(C12:C56)</f>
         <v>129</v>
       </c>
       <c r="I7">
@@ -1119,7 +1124,7 @@
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E19" t="s">
         <v>37</v>
@@ -1127,21 +1132,24 @@
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="3" t="s">
-        <v>102</v>
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>37</v>
       </c>
       <c r="F20" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="E21" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="2" t="s">
         <v>103</v>
-      </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="22" spans="1:10">
@@ -1227,144 +1235,135 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B28" t="s">
-        <v>23</v>
-      </c>
-      <c r="D28">
-        <v>13</v>
+        <v>107</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
+        <v>7</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
       </c>
       <c r="D29">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B30" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="C30">
         <v>6</v>
       </c>
       <c r="D30">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="B31" t="s">
+        <v>13</v>
       </c>
       <c r="C31">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>16</v>
-      </c>
-      <c r="F31" s="2" t="s">
-        <v>76</v>
+        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C32">
         <v>3</v>
       </c>
       <c r="D32">
-        <v>17</v>
-      </c>
-      <c r="E32" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B33" t="s">
-        <v>6</v>
+        <v>77</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>18</v>
+        <v>17</v>
+      </c>
+      <c r="E33" t="s">
+        <v>37</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B34" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C34">
         <v>6</v>
       </c>
       <c r="D34">
-        <v>19</v>
+        <v>18</v>
+      </c>
+      <c r="F34" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="B35" t="s">
+        <v>13</v>
       </c>
       <c r="C35">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D35">
-        <v>20</v>
-      </c>
-      <c r="F35" s="2" t="s">
-        <v>51</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C36">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D36">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F36" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B37" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C37">
         <v>4</v>
       </c>
       <c r="D37">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B38" t="s">
         <v>13</v>
@@ -1373,283 +1372,302 @@
         <v>4</v>
       </c>
       <c r="D38">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B39" t="s">
+        <v>13</v>
+      </c>
+      <c r="C39">
+        <v>4</v>
+      </c>
+      <c r="D39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B39" t="s">
+      <c r="B40" t="s">
         <v>14</v>
       </c>
-      <c r="C39">
+      <c r="C40">
         <v>6</v>
       </c>
-      <c r="D39">
+      <c r="D40">
         <v>24</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="3" t="s">
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B40" t="s">
+      <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="F40" s="2" t="s">
+      <c r="F41" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B41" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>25</v>
       </c>
     </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="4" t="s">
+    <row r="44" spans="1:6">
+      <c r="A44" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B43" s="5"/>
-      <c r="C43" s="5"/>
-      <c r="D43" s="5"/>
-      <c r="E43" s="5"/>
-      <c r="F43" s="6"/>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C44">
-        <v>1</v>
-      </c>
-      <c r="D44">
-        <v>26</v>
-      </c>
+      <c r="B44" s="5"/>
+      <c r="C44" s="5"/>
+      <c r="D44" s="5"/>
+      <c r="E44" s="5"/>
+      <c r="F44" s="6"/>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B45" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C45">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D45">
-        <v>27</v>
-      </c>
-      <c r="F45" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B46" t="s">
+        <v>24</v>
       </c>
       <c r="C46">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D46">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F46" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D47">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C48">
+        <v>1</v>
+      </c>
+      <c r="D48">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6">
+      <c r="A49" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B48" t="s">
+      <c r="B49" t="s">
         <v>25</v>
       </c>
-      <c r="C48">
+      <c r="C49">
         <v>20</v>
       </c>
-      <c r="D48">
+      <c r="D49">
         <v>30</v>
       </c>
     </row>
-    <row r="49" spans="1:6">
-      <c r="A49" s="7" t="s">
+    <row r="50" spans="1:6">
+      <c r="A50" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B49" s="8"/>
-      <c r="C49" s="8">
+      <c r="B50" s="8"/>
+      <c r="C50" s="8">
         <v>4</v>
       </c>
-      <c r="D49" s="8">
+      <c r="D50" s="8">
         <v>31</v>
       </c>
-      <c r="E49" s="8" t="s">
+      <c r="E50" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F49" s="9" t="s">
+      <c r="F50" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="50" spans="1:6" ht="30">
-      <c r="A50" s="3" t="s">
+    <row r="51" spans="1:6" ht="30">
+      <c r="A51" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D50">
+      <c r="D51">
         <v>31.1</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F51" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
-      <c r="A51" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C51" s="11"/>
-      <c r="D51" s="11">
-        <v>31.2</v>
-      </c>
-      <c r="E51" s="11"/>
-      <c r="F51" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B52" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C52" s="11"/>
       <c r="D52" s="11">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="E52" s="11"/>
       <c r="F52" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C53" s="11"/>
+      <c r="D53" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="E53" s="11"/>
+      <c r="F53" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B54" t="s">
         <v>90</v>
       </c>
-      <c r="C53">
+      <c r="C54">
         <v>1</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>32</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54">
-        <v>4</v>
-      </c>
-      <c r="D54">
-        <v>33</v>
-      </c>
-      <c r="F54" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C55">
         <v>4</v>
       </c>
       <c r="D55">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F55" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C56">
+        <v>4</v>
+      </c>
+      <c r="D56">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6">
+      <c r="A57" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E56" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="3" t="s">
+      <c r="E57" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" ht="30">
+      <c r="A58" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F58" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F58" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="F59" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6">
+      <c r="A64" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1">
+      <c r="A65" s="3" t="s">
         <v>99</v>
-      </c>
-      <c r="F63" s="2" t="s">
-        <v>100</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="144" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
   <si>
     <t>Feature</t>
   </si>
@@ -348,6 +348,21 @@
   </si>
   <si>
     <t>Draw concurrent CalendarObjects</t>
+  </si>
+  <si>
+    <t>Notes show up on calendar</t>
+  </si>
+  <si>
+    <t>Autocomplete textboxes</t>
+  </si>
+  <si>
+    <t>Create new Note at current time with task type set to 'checkin', edit popup for task under nowmarker, edit for state</t>
+  </si>
+  <si>
+    <t>"We found a conflicting object at 4:45PM, what do you want to do?" Push, Merge, Yield, Edit, Cancel</t>
+  </si>
+  <si>
+    <t>Implmnt TimeTasks on Calendar</t>
   </si>
 </sst>
 </file>
@@ -539,10 +554,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F65" totalsRowShown="0">
-  <autoFilter ref="A1:F65" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F58">
-    <sortCondition ref="D1:D58"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F68" totalsRowShown="0">
+  <autoFilter ref="A1:F68" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F60">
+    <sortCondition ref="D1:D60"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -853,10 +868,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J65"/>
+  <dimension ref="A1:J68"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A63" sqref="A63:F63"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36:F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -942,7 +957,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>SUM(C12:C38)</f>
+        <f>SUM(C12:C40)</f>
         <v>64</v>
       </c>
       <c r="I6">
@@ -958,7 +973,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <f>SUM(C12:C56)</f>
+        <f>SUM(C12:C58)</f>
         <v>129</v>
       </c>
       <c r="I7">
@@ -1162,6 +1177,9 @@
       <c r="D22">
         <v>2</v>
       </c>
+      <c r="E22" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="3" t="s">
@@ -1176,6 +1194,9 @@
       <c r="D23">
         <v>3</v>
       </c>
+      <c r="E23" t="s">
+        <v>37</v>
+      </c>
       <c r="I23" t="s">
         <v>31</v>
       </c>
@@ -1193,6 +1214,9 @@
       <c r="D24">
         <v>7</v>
       </c>
+      <c r="E24" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="3" t="s">
@@ -1204,6 +1228,9 @@
       <c r="D25">
         <v>9</v>
       </c>
+      <c r="E25" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="26" spans="1:10" ht="45">
       <c r="A26" s="3" t="s">
@@ -1215,6 +1242,9 @@
       <c r="D26">
         <v>11</v>
       </c>
+      <c r="E26" t="s">
+        <v>37</v>
+      </c>
       <c r="F26" s="2" t="s">
         <v>69</v>
       </c>
@@ -1235,96 +1265,87 @@
     </row>
     <row r="28" spans="1:10">
       <c r="A28" s="3" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B29" t="s">
-        <v>23</v>
+        <v>26</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
       </c>
       <c r="D29">
-        <v>13</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C30">
-        <v>6</v>
-      </c>
-      <c r="D30">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31">
         <v>13</v>
-      </c>
-      <c r="C31">
-        <v>6</v>
-      </c>
-      <c r="D31">
-        <v>15</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="B32" t="s">
+        <v>6</v>
       </c>
       <c r="C32">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D32">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>77</v>
+        <v>20</v>
+      </c>
+      <c r="B33" t="s">
+        <v>13</v>
       </c>
       <c r="C33">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33">
-        <v>17</v>
-      </c>
-      <c r="E33" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>87</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B34" t="s">
-        <v>6</v>
+        <v>75</v>
       </c>
       <c r="C34">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B35" t="s">
         <v>13</v>
@@ -1333,341 +1354,371 @@
         <v>6</v>
       </c>
       <c r="D35">
-        <v>19</v>
+        <v>15</v>
+      </c>
+      <c r="F35" s="2" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>21</v>
+        <v>77</v>
       </c>
       <c r="C36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D36">
-        <v>20</v>
+        <v>17</v>
+      </c>
+      <c r="E36" t="s">
+        <v>37</v>
       </c>
       <c r="F36" s="2" t="s">
-        <v>51</v>
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C37">
-        <v>4</v>
-      </c>
-      <c r="D37">
-        <v>21</v>
+        <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B38" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C38">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D38">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F38" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B39" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C39">
         <v>4</v>
       </c>
       <c r="D39">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B40" t="s">
+        <v>13</v>
+      </c>
+      <c r="C40">
+        <v>4</v>
+      </c>
+      <c r="D40">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
+      <c r="A41" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="C40">
-        <v>6</v>
-      </c>
-      <c r="D40">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
-      <c r="A41" s="3" t="s">
-        <v>47</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
       </c>
-      <c r="F41" s="2" t="s">
-        <v>48</v>
+      <c r="C41">
+        <v>4</v>
+      </c>
+      <c r="D41">
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B42" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="C42">
+        <v>6</v>
+      </c>
+      <c r="D42">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" ht="30">
       <c r="A43" s="3" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B43" t="s">
         <v>13</v>
       </c>
-      <c r="C43">
-        <v>4</v>
-      </c>
-      <c r="D43">
-        <v>25</v>
+      <c r="F43" s="2" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="B44" s="5"/>
-      <c r="C44" s="5"/>
-      <c r="D44" s="5"/>
-      <c r="E44" s="5"/>
-      <c r="F44" s="6"/>
+      <c r="A44" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B44" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B45" t="s">
+        <v>13</v>
       </c>
       <c r="C45">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D45">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B46" t="s">
-        <v>24</v>
-      </c>
-      <c r="C46">
-        <v>10</v>
-      </c>
-      <c r="D46">
-        <v>27</v>
-      </c>
-      <c r="F46" s="2" t="s">
-        <v>73</v>
-      </c>
+      <c r="A46" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B46" s="5"/>
+      <c r="C46" s="5"/>
+      <c r="D46" s="5"/>
+      <c r="E46" s="5"/>
+      <c r="F46" s="6"/>
     </row>
     <row r="47" spans="1:6">
       <c r="A47" s="3" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D47">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B48" t="s">
+        <v>24</v>
       </c>
       <c r="C48">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D48">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F48" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6">
+      <c r="A50" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C50">
+        <v>1</v>
+      </c>
+      <c r="D50">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6">
+      <c r="A51" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B51" t="s">
         <v>25</v>
       </c>
-      <c r="C49">
+      <c r="C51">
         <v>20</v>
       </c>
-      <c r="D49">
+      <c r="D51">
         <v>30</v>
       </c>
     </row>
-    <row r="50" spans="1:6">
-      <c r="A50" s="7" t="s">
+    <row r="52" spans="1:6">
+      <c r="A52" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B50" s="8"/>
-      <c r="C50" s="8">
+      <c r="B52" s="8"/>
+      <c r="C52" s="8">
         <v>4</v>
       </c>
-      <c r="D50" s="8">
+      <c r="D52" s="8">
         <v>31</v>
       </c>
-      <c r="E50" s="8" t="s">
+      <c r="E52" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F50" s="9" t="s">
+      <c r="F52" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="51" spans="1:6" ht="30">
-      <c r="A51" s="3" t="s">
+    <row r="53" spans="1:6" ht="30">
+      <c r="A53" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D51">
+      <c r="D53">
         <v>31.1</v>
       </c>
-      <c r="F51" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="10" t="s">
+    <row r="54" spans="1:6">
+      <c r="A54" s="10" t="s">
         <v>89</v>
       </c>
-      <c r="B52" s="11" t="s">
+      <c r="B54" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C52" s="11"/>
-      <c r="D52" s="11">
+      <c r="C54" s="11"/>
+      <c r="D54" s="11">
         <v>31.2</v>
       </c>
-      <c r="E52" s="11"/>
-      <c r="F52" s="12" t="s">
+      <c r="E54" s="11"/>
+      <c r="F54" s="12" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="10" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="10" t="s">
         <v>95</v>
       </c>
-      <c r="B53" s="11" t="s">
+      <c r="B55" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="C53" s="11"/>
-      <c r="D53" s="11">
+      <c r="C55" s="11"/>
+      <c r="D55" s="11">
         <v>31.3</v>
       </c>
-      <c r="E53" s="11"/>
-      <c r="F53" s="12" t="s">
+      <c r="E55" s="11"/>
+      <c r="F55" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="3" t="s">
+    <row r="56" spans="1:6" ht="30">
+      <c r="A56" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B56" t="s">
         <v>90</v>
       </c>
-      <c r="C54">
+      <c r="C56">
         <v>1</v>
       </c>
-      <c r="D54">
+      <c r="D56">
         <v>32</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F56" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C55">
-        <v>4</v>
-      </c>
-      <c r="D55">
-        <v>33</v>
-      </c>
-      <c r="F55" s="2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C56">
-        <v>4</v>
-      </c>
-      <c r="D56">
-        <v>34</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="E57" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6" ht="30">
+        <v>65</v>
+      </c>
+      <c r="C57">
+        <v>4</v>
+      </c>
+      <c r="D57">
+        <v>33</v>
+      </c>
+      <c r="F57" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58">
         <v>4</v>
       </c>
-      <c r="F58" s="2" t="s">
-        <v>28</v>
+      <c r="D58">
+        <v>34</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F59" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="E59" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" ht="30">
       <c r="A60" s="3" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="F60" s="2" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="61" spans="1:6">
       <c r="A61" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="F61" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6">
+      <c r="A65" s="3" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6">
+      <c r="A66" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F64" s="2" t="s">
+      <c r="F66" s="2" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="65" spans="1:1">
-      <c r="A65" s="3" t="s">
+    <row r="67" spans="1:6">
+      <c r="A67" s="3" t="s">
         <v>99</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6">
+      <c r="A68" s="3" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
   <si>
     <t>Feature</t>
   </si>
@@ -363,6 +363,18 @@
   </si>
   <si>
     <t>Implmnt TimeTasks on Calendar</t>
+  </si>
+  <si>
+    <t>Color by type/state</t>
+  </si>
+  <si>
+    <t>Note types graphic</t>
+  </si>
+  <si>
+    <t>concurrent CalObjs</t>
+  </si>
+  <si>
+    <t>Draw notes with a little note graphic on the right side of a day</t>
   </si>
 </sst>
 </file>
@@ -554,10 +566,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F68" totalsRowShown="0">
-  <autoFilter ref="A1:F68" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F60">
-    <sortCondition ref="D1:D60"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F70" totalsRowShown="0">
+  <autoFilter ref="A1:F70" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F61">
+    <sortCondition ref="D1:D61"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -868,10 +880,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J68"/>
+  <dimension ref="A1:J70"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A36" sqref="A36:F36"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -957,7 +969,7 @@
         <v>37</v>
       </c>
       <c r="H6">
-        <f>SUM(C12:C40)</f>
+        <f>SUM(C12:C41)</f>
         <v>64</v>
       </c>
       <c r="I6">
@@ -973,7 +985,7 @@
         <v>37</v>
       </c>
       <c r="H7">
-        <f>SUM(C12:C58)</f>
+        <f>SUM(C12:C59)</f>
         <v>129</v>
       </c>
       <c r="I7">
@@ -1267,6 +1279,9 @@
       <c r="A28" s="3" t="s">
         <v>108</v>
       </c>
+      <c r="E28" t="s">
+        <v>37</v>
+      </c>
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
@@ -1384,46 +1399,43 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="C38">
-        <v>2</v>
-      </c>
-      <c r="D38">
-        <v>20</v>
+        <v>114</v>
+      </c>
+      <c r="B38" t="s">
+        <v>115</v>
       </c>
       <c r="F38" s="2" t="s">
-        <v>51</v>
+        <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="3" t="s">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="C39">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D39">
-        <v>21</v>
+        <v>20</v>
+      </c>
+      <c r="F39" s="2" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="B40" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C40">
         <v>4</v>
       </c>
       <c r="D40">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B41" t="s">
         <v>13</v>
@@ -1432,293 +1444,312 @@
         <v>4</v>
       </c>
       <c r="D41">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B42" t="s">
+        <v>13</v>
+      </c>
+      <c r="C42">
+        <v>4</v>
+      </c>
+      <c r="D42">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B43" t="s">
         <v>14</v>
       </c>
-      <c r="C42">
+      <c r="C43">
         <v>6</v>
       </c>
-      <c r="D42">
+      <c r="D43">
         <v>24</v>
       </c>
     </row>
-    <row r="43" spans="1:6" ht="30">
-      <c r="A43" s="3" t="s">
+    <row r="44" spans="1:6" ht="30">
+      <c r="A44" s="3" t="s">
         <v>47</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B44" t="s">
         <v>13</v>
       </c>
-      <c r="F43" s="2" t="s">
+      <c r="F44" s="2" t="s">
         <v>48</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B44" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6">
+      <c r="A46" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B46" t="s">
         <v>13</v>
       </c>
-      <c r="C45">
+      <c r="C46">
         <v>4</v>
       </c>
-      <c r="D45">
+      <c r="D46">
         <v>25</v>
       </c>
     </row>
-    <row r="46" spans="1:6">
-      <c r="A46" s="4" t="s">
+    <row r="47" spans="1:6">
+      <c r="A47" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="B46" s="5"/>
-      <c r="C46" s="5"/>
-      <c r="D46" s="5"/>
-      <c r="E46" s="5"/>
-      <c r="F46" s="6"/>
-    </row>
-    <row r="47" spans="1:6">
-      <c r="A47" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="C47">
-        <v>1</v>
-      </c>
-      <c r="D47">
-        <v>26</v>
-      </c>
+      <c r="B47" s="5"/>
+      <c r="C47" s="5"/>
+      <c r="D47" s="5"/>
+      <c r="E47" s="5"/>
+      <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="B48" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C48">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="D48">
-        <v>27</v>
-      </c>
-      <c r="F48" s="2" t="s">
-        <v>73</v>
+        <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6">
       <c r="A49" s="3" t="s">
-        <v>9</v>
+        <v>8</v>
+      </c>
+      <c r="B49" t="s">
+        <v>24</v>
       </c>
       <c r="C49">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="D49">
-        <v>28</v>
+        <v>27</v>
+      </c>
+      <c r="F49" s="2" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="3" t="s">
-        <v>18</v>
+        <v>9</v>
       </c>
       <c r="C50">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="D50">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6">
+      <c r="A52" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B52" t="s">
         <v>25</v>
       </c>
-      <c r="C51">
+      <c r="C52">
         <v>20</v>
       </c>
-      <c r="D51">
+      <c r="D52">
         <v>30</v>
       </c>
     </row>
-    <row r="52" spans="1:6">
-      <c r="A52" s="7" t="s">
+    <row r="53" spans="1:6">
+      <c r="A53" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="B52" s="8"/>
-      <c r="C52" s="8">
+      <c r="B53" s="8"/>
+      <c r="C53" s="8">
         <v>4</v>
       </c>
-      <c r="D52" s="8">
+      <c r="D53" s="8">
         <v>31</v>
       </c>
-      <c r="E52" s="8" t="s">
+      <c r="E53" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="F52" s="9" t="s">
+      <c r="F53" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="53" spans="1:6" ht="30">
-      <c r="A53" s="3" t="s">
+    <row r="54" spans="1:6" ht="30">
+      <c r="A54" s="3" t="s">
         <v>52</v>
       </c>
-      <c r="D53">
+      <c r="D54">
         <v>31.1</v>
       </c>
-      <c r="F53" s="2" t="s">
+      <c r="F54" s="2" t="s">
         <v>53</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
-      <c r="A54" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="B54" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="C54" s="11"/>
-      <c r="D54" s="11">
-        <v>31.2</v>
-      </c>
-      <c r="E54" s="11"/>
-      <c r="F54" s="12" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>95</v>
+        <v>89</v>
       </c>
       <c r="B55" s="11" t="s">
         <v>90</v>
       </c>
       <c r="C55" s="11"/>
       <c r="D55" s="11">
-        <v>31.3</v>
+        <v>31.2</v>
       </c>
       <c r="E55" s="11"/>
       <c r="F55" s="12" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
+      <c r="A56" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="C56" s="11"/>
+      <c r="D56" s="11">
+        <v>31.3</v>
+      </c>
+      <c r="E56" s="11"/>
+      <c r="F56" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="56" spans="1:6" ht="30">
-      <c r="A56" s="3" t="s">
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="B56" t="s">
+      <c r="B57" t="s">
         <v>90</v>
       </c>
-      <c r="C56">
+      <c r="C57">
         <v>1</v>
       </c>
-      <c r="D56">
+      <c r="D57">
         <v>32</v>
       </c>
-      <c r="F56" s="2" t="s">
+      <c r="F57" s="2" t="s">
         <v>64</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
-      <c r="A57" s="3" t="s">
-        <v>65</v>
-      </c>
-      <c r="C57">
-        <v>4</v>
-      </c>
-      <c r="D57">
-        <v>33</v>
-      </c>
-      <c r="F57" s="2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="3" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C58">
         <v>4</v>
       </c>
       <c r="D58">
-        <v>34</v>
+        <v>33</v>
+      </c>
+      <c r="F58" s="2" t="s">
+        <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59">
+        <v>4</v>
+      </c>
+      <c r="D59">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="E59" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30">
-      <c r="A60" s="3" t="s">
+      <c r="E60" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F60" s="2" t="s">
+      <c r="F61" s="2" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="F61" s="2" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="3" t="s">
-        <v>70</v>
+        <v>67</v>
+      </c>
+      <c r="F62" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="3" t="s">
-        <v>82</v>
+        <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="F66" s="2" t="s">
-        <v>106</v>
+        <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="3" t="s">
-        <v>99</v>
+        <v>105</v>
+      </c>
+      <c r="F67" s="2" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="3" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6">
+      <c r="A69" s="3" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6">
+      <c r="A70" s="3" t="s">
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
   <si>
     <t>Feature</t>
   </si>
@@ -375,6 +375,18 @@
   </si>
   <si>
     <t>Draw notes with a little note graphic on the right side of a day</t>
+  </si>
+  <si>
+    <t>New Note Here</t>
+  </si>
+  <si>
+    <t>Set time to where cursor is on day/week panel</t>
+  </si>
+  <si>
+    <t>CalendarVM works like NotesVM</t>
+  </si>
+  <si>
+    <t>Legend</t>
   </si>
 </sst>
 </file>
@@ -566,8 +578,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F70" totalsRowShown="0">
-  <autoFilter ref="A1:F70" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F73" totalsRowShown="0">
+  <autoFilter ref="A1:F73" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F61">
     <sortCondition ref="D1:D61"/>
   </sortState>
@@ -880,10 +892,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J70"/>
+  <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="A74" sqref="A74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1752,6 +1764,24 @@
         <v>113</v>
       </c>
     </row>
+    <row r="71" spans="1:6">
+      <c r="A71" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="F71" s="2" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6">
+      <c r="A72" s="3" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6">
+      <c r="A73" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -12,7 +12,8 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="TODO" sheetId="1" r:id="rId1"/>
+    <sheet name="Powerpoint" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
   <si>
     <t>Feature</t>
   </si>
@@ -387,6 +388,45 @@
   </si>
   <si>
     <t>Legend</t>
+  </si>
+  <si>
+    <t>Features</t>
+  </si>
+  <si>
+    <t>Technologies used</t>
+  </si>
+  <si>
+    <t>Details</t>
+  </si>
+  <si>
+    <t>Planned Features</t>
+  </si>
+  <si>
+    <t>C#</t>
+  </si>
+  <si>
+    <t>.NET Framwork 4.6.2</t>
+  </si>
+  <si>
+    <t>WPF</t>
+  </si>
+  <si>
+    <t>SQL Server</t>
+  </si>
+  <si>
+    <t>EF</t>
+  </si>
+  <si>
+    <t>MVVM</t>
+  </si>
+  <si>
+    <t>Entity Framework. An object-relational mapping (ORM) framework for ADO.NET that enables me to work with database data using POCOs (Plain Old C# Objects) so that I don't have to worry about writing and maintaining data access code like SQL queries.</t>
+  </si>
+  <si>
+    <t>Model View ViewModel. The MVVM pattern</t>
+  </si>
+  <si>
+    <t>SQL Server CE</t>
   </si>
 </sst>
 </file>
@@ -578,8 +618,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F73" totalsRowShown="0">
-  <autoFilter ref="A1:F73" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F74" totalsRowShown="0">
+  <autoFilter ref="A1:F74" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F61">
     <sortCondition ref="D1:D61"/>
   </sortState>
@@ -892,10 +932,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J73"/>
+  <dimension ref="A1:J74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A74" sqref="A74"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1527,7 +1567,9 @@
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" s="5"/>
+      <c r="E47" t="s">
+        <v>37</v>
+      </c>
       <c r="F47" s="6"/>
     </row>
     <row r="48" spans="1:6">
@@ -1780,6 +1822,11 @@
     <row r="73" spans="1:6">
       <c r="A73" s="3" t="s">
         <v>120</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6">
+      <c r="A74" s="3" t="s">
+        <v>133</v>
       </c>
     </row>
   </sheetData>
@@ -1789,4 +1836,140 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6385039B-DE64-42C6-B08D-18EE0A38BC7E}">
+  <dimension ref="A1:I8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H7" sqref="H7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="81.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C1" s="2"/>
+      <c r="D1" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9">
+      <c r="A2" s="2"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="H2" s="2"/>
+      <c r="I2" s="2"/>
+    </row>
+    <row r="3" spans="1:9">
+      <c r="A3" s="2"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="H3" s="2"/>
+      <c r="I3" s="2"/>
+    </row>
+    <row r="4" spans="1:9">
+      <c r="A4" s="2"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2"/>
+    </row>
+    <row r="5" spans="1:9">
+      <c r="A5" s="2"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="H5" s="2"/>
+      <c r="I5" s="2"/>
+    </row>
+    <row r="6" spans="1:9" ht="45">
+      <c r="A6" s="2"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="H6" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="I6" s="2"/>
+    </row>
+    <row r="7" spans="1:9">
+      <c r="A7" s="2"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="H7" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="I7" s="2"/>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="A8" s="2"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -13,7 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
-    <sheet name="Powerpoint" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
   <si>
     <t>Feature</t>
   </si>
@@ -390,50 +390,35 @@
     <t>Legend</t>
   </si>
   <si>
-    <t>Features</t>
-  </si>
-  <si>
-    <t>Technologies used</t>
-  </si>
-  <si>
-    <t>Details</t>
-  </si>
-  <si>
-    <t>Planned Features</t>
-  </si>
-  <si>
-    <t>C#</t>
-  </si>
-  <si>
-    <t>.NET Framwork 4.6.2</t>
-  </si>
-  <si>
-    <t>WPF</t>
-  </si>
-  <si>
-    <t>SQL Server</t>
-  </si>
-  <si>
-    <t>EF</t>
-  </si>
-  <si>
-    <t>MVVM</t>
-  </si>
-  <si>
-    <t>Entity Framework. An object-relational mapping (ORM) framework for ADO.NET that enables me to work with database data using POCOs (Plain Old C# Objects) so that I don't have to worry about writing and maintaining data access code like SQL queries.</t>
-  </si>
-  <si>
-    <t>Model View ViewModel. The MVVM pattern</t>
-  </si>
-  <si>
     <t>SQL Server CE</t>
+  </si>
+  <si>
+    <t>Main purposes of this program:</t>
+  </si>
+  <si>
+    <t>To ultimately decide on the best use of my time at any given time, based on allocation of priorities based on my values</t>
+  </si>
+  <si>
+    <t>To help me discover what my values are, based on trends of how time was spent, how I felt during that time, and my opinion of that time in retrospect</t>
+  </si>
+  <si>
+    <t>Label hits</t>
+  </si>
+  <si>
+    <t>sort labels by hits. Score hits by uses.</t>
+  </si>
+  <si>
+    <t>CalendarObject selected</t>
+  </si>
+  <si>
+    <t>store selected state in CalendarObject so that selection box can be propogated through mimicry</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -461,6 +446,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -482,7 +474,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
@@ -514,6 +506,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -618,8 +611,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F74" totalsRowShown="0">
-  <autoFilter ref="A1:F74" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F76" totalsRowShown="0">
+  <autoFilter ref="A1:F76" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F61">
     <sortCondition ref="D1:D61"/>
   </sortState>
@@ -932,10 +925,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J74"/>
+  <dimension ref="A1:J76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1337,111 +1330,111 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="C29">
-        <v>6</v>
-      </c>
-      <c r="D29">
-        <v>14</v>
+        <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="3" t="s">
-        <v>112</v>
+        <v>7</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="D30">
+        <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="3" t="s">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="B31" t="s">
-        <v>23</v>
+        <v>6</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
       </c>
       <c r="D31">
-        <v>13</v>
+        <v>18</v>
+      </c>
+      <c r="F31" s="2" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B32" t="s">
         <v>13</v>
-      </c>
-      <c r="B32" t="s">
-        <v>6</v>
       </c>
       <c r="C32">
         <v>6</v>
       </c>
       <c r="D32">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="F32" s="2" t="s">
-        <v>74</v>
+        <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="B33" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C33">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D33">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F33" s="2" t="s">
-        <v>110</v>
+        <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="3" t="s">
-        <v>75</v>
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>13</v>
       </c>
       <c r="C34">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F34" s="2" t="s">
-        <v>76</v>
+        <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>13</v>
+        <v>77</v>
       </c>
       <c r="C35">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D35">
-        <v>15</v>
+        <v>17</v>
+      </c>
+      <c r="E35" t="s">
+        <v>37</v>
       </c>
       <c r="F35" s="2" t="s">
-        <v>111</v>
+        <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="3" t="s">
-        <v>77</v>
+        <v>26</v>
       </c>
       <c r="C36">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D36">
-        <v>17</v>
-      </c>
-      <c r="E36" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="2" t="s">
-        <v>87</v>
+        <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1826,7 +1819,23 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="3" t="s">
-        <v>133</v>
+        <v>121</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6">
+      <c r="A75" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="F75" s="2" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6">
+      <c r="A76" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -1839,135 +1848,32 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6385039B-DE64-42C6-B08D-18EE0A38BC7E}">
-  <dimension ref="A1:I8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396B387-46D7-4AB3-8C4F-DEA1CC7ED8C8}">
+  <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="4" max="4" width="17.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="19.140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="81.42578125" customWidth="1"/>
+    <col min="1" max="16384" width="9.140625" style="13"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B1" s="2" t="s">
+    <row r="1" spans="1:1">
+      <c r="A1" s="13" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1">
+      <c r="A2" s="13" t="s">
         <v>123</v>
       </c>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2" t="s">
+    </row>
+    <row r="3" spans="1:1">
+      <c r="A3" s="13" t="s">
         <v>124</v>
       </c>
-      <c r="E1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2" t="s">
-        <v>122</v>
-      </c>
-      <c r="H1" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="I1" s="2"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9" ht="45">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="H7" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
   <si>
     <t>Feature</t>
   </si>
@@ -412,16 +412,49 @@
   </si>
   <si>
     <t>store selected state in CalendarObject so that selection box can be propogated through mimicry</t>
+  </si>
+  <si>
+    <t>On Commit</t>
+  </si>
+  <si>
+    <t>Prevent any operations while commiting</t>
+  </si>
+  <si>
+    <t>week view save as</t>
+  </si>
+  <si>
+    <t>save image and txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -432,21 +465,7 @@
       <name val="Inherit"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <strike/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -474,17 +493,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -492,21 +503,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,8 +624,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F76" totalsRowShown="0">
-  <autoFilter ref="A1:F76" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F78" totalsRowShown="0">
+  <autoFilter ref="A1:F78" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:F61">
     <sortCondition ref="D1:D61"/>
   </sortState>
@@ -925,917 +938,931 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J76"/>
+  <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A79" sqref="A79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="33.140625" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="38.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="114.28515625" style="2" customWidth="1"/>
-    <col min="9" max="9" width="10.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="33.140625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.7109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" style="3" customWidth="1"/>
+    <col min="6" max="6" width="114.28515625" style="4" customWidth="1"/>
+    <col min="7" max="8" width="9.140625" style="3"/>
+    <col min="9" max="9" width="10.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F1" s="2" t="s">
+      <c r="E1" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="3">
         <v>0</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:9" ht="30">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="3">
         <v>1.1000000000000001</v>
       </c>
-      <c r="E3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F3" s="2" t="s">
+      <c r="E3" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:9">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E4" t="s">
-        <v>37</v>
-      </c>
-      <c r="F4" s="2" t="s">
+      <c r="E4" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="4" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:9">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E5" t="s">
+      <c r="E5" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:9">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="E6" t="s">
-        <v>37</v>
-      </c>
-      <c r="H6">
+      <c r="E6" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H6" s="3">
         <f>SUM(C12:C41)</f>
         <v>64</v>
       </c>
-      <c r="I6">
+      <c r="I6" s="3">
         <f>H6/11</f>
         <v>5.8181818181818183</v>
       </c>
     </row>
     <row r="7" spans="1:9">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="E7" t="s">
-        <v>37</v>
-      </c>
-      <c r="H7">
+      <c r="E7" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" s="3">
         <f>SUM(C12:C59)</f>
         <v>129</v>
       </c>
-      <c r="I7">
+      <c r="I7" s="3">
         <f>H7/11</f>
         <v>11.727272727272727</v>
       </c>
     </row>
     <row r="8" spans="1:9">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="E8" t="s">
+      <c r="E8" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:9">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:9" ht="30">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="E10" t="s">
-        <v>37</v>
-      </c>
-      <c r="F10" s="2" t="s">
+      <c r="E10" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" s="4" t="s">
         <v>60</v>
       </c>
     </row>
     <row r="11" spans="1:9">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="3">
         <v>0.7</v>
       </c>
-      <c r="E11" t="s">
-        <v>37</v>
-      </c>
-      <c r="F11" s="2" t="s">
+      <c r="E11" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F11" s="4" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="30">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="3" t="s">
         <v>62</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="3">
         <v>4</v>
       </c>
-      <c r="E12" t="s">
-        <v>37</v>
-      </c>
-      <c r="F12" s="2" t="s">
+      <c r="E12" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="4" t="s">
         <v>58</v>
       </c>
     </row>
     <row r="13" spans="1:9" s="5" customFormat="1">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="C13"/>
-      <c r="D13"/>
-      <c r="E13" t="s">
-        <v>37</v>
-      </c>
-      <c r="F13" s="2" t="s">
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F13" s="4" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:9" s="5" customFormat="1">
-      <c r="A14" s="3" t="s">
+      <c r="A14" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="3" t="s">
         <v>88</v>
       </c>
-      <c r="C14"/>
-      <c r="D14"/>
-      <c r="E14" t="s">
-        <v>37</v>
-      </c>
-      <c r="F14" s="2" t="s">
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F14" s="4" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="15" spans="1:9" s="5" customFormat="1">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="B15"/>
-      <c r="C15">
+      <c r="B15" s="3"/>
+      <c r="C15" s="3">
         <v>3</v>
       </c>
-      <c r="D15">
+      <c r="D15" s="3">
         <v>5</v>
       </c>
-      <c r="E15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F15" s="2" t="s">
+      <c r="E15" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F15" s="4" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="16" spans="1:9" s="5" customFormat="1">
-      <c r="A16" s="3" t="s">
+      <c r="A16" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B16" t="s">
+      <c r="B16" s="3" t="s">
         <v>61</v>
       </c>
-      <c r="C16">
+      <c r="C16" s="3">
         <v>3</v>
       </c>
-      <c r="D16">
+      <c r="D16" s="3">
         <v>8</v>
       </c>
-      <c r="E16" t="s">
-        <v>37</v>
-      </c>
-      <c r="F16" s="2"/>
+      <c r="E16" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="4"/>
     </row>
     <row r="17" spans="1:10" s="5" customFormat="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="B17"/>
-      <c r="C17"/>
-      <c r="D17"/>
-      <c r="E17" t="s">
-        <v>37</v>
-      </c>
-      <c r="F17" s="2" t="s">
+      <c r="B17" s="3"/>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F17" s="4" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="5" customFormat="1">
-      <c r="A18" s="3" t="s">
+      <c r="A18" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="B18"/>
-      <c r="C18">
+      <c r="B18" s="3"/>
+      <c r="C18" s="3">
         <v>3</v>
       </c>
-      <c r="D18">
+      <c r="D18" s="3">
         <v>10</v>
       </c>
-      <c r="E18" t="s">
-        <v>37</v>
-      </c>
-      <c r="F18" s="2"/>
+      <c r="E18" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="4"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="3" t="s">
+      <c r="A19" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="E19" t="s">
+      <c r="E19" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="3" t="s">
+      <c r="A20" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="E20" t="s">
-        <v>37</v>
-      </c>
-      <c r="F20" s="2" t="s">
+      <c r="E20" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="4" t="s">
         <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="3" t="s">
+      <c r="A21" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E21" t="s">
-        <v>37</v>
-      </c>
-      <c r="F21" s="2" t="s">
+      <c r="E21" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="4" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="3" t="s">
+      <c r="A22" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="C22">
+      <c r="C22" s="3">
         <v>3</v>
       </c>
-      <c r="D22">
+      <c r="D22" s="3">
         <v>2</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="3" t="s">
+      <c r="A23" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="3" t="s">
         <v>78</v>
       </c>
-      <c r="C23">
+      <c r="C23" s="3">
         <v>3</v>
       </c>
-      <c r="D23">
+      <c r="D23" s="3">
         <v>3</v>
       </c>
-      <c r="E23" t="s">
-        <v>37</v>
-      </c>
-      <c r="I23" t="s">
+      <c r="E23" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="I23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="J23" s="1" t="s">
+      <c r="J23" s="6" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="3" t="s">
+      <c r="A24" s="2" t="s">
         <v>80</v>
       </c>
-      <c r="C24">
+      <c r="C24" s="3">
         <v>3</v>
       </c>
-      <c r="D24">
+      <c r="D24" s="3">
         <v>7</v>
       </c>
-      <c r="E24" t="s">
+      <c r="E24" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="3" t="s">
+      <c r="A25" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C25">
+      <c r="C25" s="3">
         <v>3</v>
       </c>
-      <c r="D25">
+      <c r="D25" s="3">
         <v>9</v>
       </c>
-      <c r="E25" t="s">
+      <c r="E25" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" ht="45">
-      <c r="A26" s="3" t="s">
+      <c r="A26" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C26">
+      <c r="C26" s="3">
         <v>3</v>
       </c>
-      <c r="D26">
+      <c r="D26" s="3">
         <v>11</v>
       </c>
-      <c r="E26" t="s">
-        <v>37</v>
-      </c>
-      <c r="F26" s="2" t="s">
+      <c r="E26" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F26" s="4" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="3" t="s">
+      <c r="A27" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B27" t="s">
+      <c r="B27" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="D27">
+      <c r="D27" s="3">
         <v>12</v>
       </c>
-      <c r="E27" t="s">
+      <c r="E27" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="3" t="s">
+      <c r="A28" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="E28" t="s">
+      <c r="E28" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="3" t="s">
+      <c r="A29" s="2" t="s">
         <v>112</v>
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="3" t="s">
+      <c r="A30" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="B30" t="s">
+      <c r="B30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="D30">
+      <c r="D30" s="3">
         <v>13</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="3" t="s">
+      <c r="A31" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="B31" t="s">
+      <c r="B31" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="C31">
+      <c r="C31" s="3">
         <v>6</v>
       </c>
-      <c r="D31">
+      <c r="D31" s="3">
         <v>18</v>
       </c>
-      <c r="F31" s="2" t="s">
+      <c r="F31" s="4" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10">
-      <c r="A32" s="3" t="s">
+      <c r="A32" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B32" t="s">
+      <c r="B32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C32">
+      <c r="C32" s="3">
         <v>6</v>
       </c>
-      <c r="D32">
+      <c r="D32" s="3">
         <v>19</v>
       </c>
-      <c r="F32" s="2" t="s">
+      <c r="F32" s="4" t="s">
         <v>110</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="3" t="s">
+      <c r="A33" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="C33">
+      <c r="C33" s="3">
         <v>3</v>
       </c>
-      <c r="D33">
+      <c r="D33" s="3">
         <v>16</v>
       </c>
-      <c r="F33" s="2" t="s">
+      <c r="F33" s="4" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C34">
+      <c r="C34" s="3">
         <v>6</v>
       </c>
-      <c r="D34">
+      <c r="D34" s="3">
         <v>15</v>
       </c>
-      <c r="F34" s="2" t="s">
+      <c r="F34" s="4" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="35" spans="1:6">
-      <c r="A35" s="3" t="s">
+      <c r="A35" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="C35">
+      <c r="C35" s="3">
         <v>3</v>
       </c>
-      <c r="D35">
+      <c r="D35" s="3">
         <v>17</v>
       </c>
-      <c r="E35" t="s">
-        <v>37</v>
-      </c>
-      <c r="F35" s="2" t="s">
+      <c r="E35" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F35" s="4" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="3" t="s">
+      <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C36">
+      <c r="C36" s="3">
         <v>6</v>
       </c>
-      <c r="D36">
+      <c r="D36" s="3">
         <v>14</v>
       </c>
     </row>
     <row r="37" spans="1:6">
-      <c r="A37" s="3" t="s">
+      <c r="A37" s="2" t="s">
         <v>107</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="3" t="s">
+      <c r="A38" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="B38" t="s">
+      <c r="B38" s="3" t="s">
         <v>115</v>
       </c>
-      <c r="F38" s="2" t="s">
+      <c r="F38" s="4" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="39" spans="1:6">
-      <c r="A39" s="3" t="s">
+      <c r="A39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C39">
+      <c r="C39" s="3">
         <v>2</v>
       </c>
-      <c r="D39">
+      <c r="D39" s="3">
         <v>20</v>
       </c>
-      <c r="F39" s="2" t="s">
+      <c r="F39" s="4" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="40" spans="1:6">
-      <c r="A40" s="3" t="s">
+      <c r="A40" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="C40">
+      <c r="C40" s="3">
         <v>4</v>
       </c>
-      <c r="D40">
+      <c r="D40" s="3">
         <v>21</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="3" t="s">
+      <c r="A41" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="B41" t="s">
+      <c r="B41" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C41">
+      <c r="C41" s="3">
         <v>4</v>
       </c>
-      <c r="D41">
+      <c r="D41" s="3">
         <v>22</v>
       </c>
     </row>
     <row r="42" spans="1:6">
-      <c r="A42" s="3" t="s">
+      <c r="A42" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C42">
+      <c r="C42" s="3">
         <v>4</v>
       </c>
-      <c r="D42">
+      <c r="D42" s="3">
         <v>23</v>
       </c>
     </row>
     <row r="43" spans="1:6">
-      <c r="A43" s="3" t="s">
+      <c r="A43" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="B43" t="s">
+      <c r="B43" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C43">
+      <c r="C43" s="3">
         <v>6</v>
       </c>
-      <c r="D43">
+      <c r="D43" s="3">
         <v>24</v>
       </c>
     </row>
     <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="3" t="s">
+      <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="B44" t="s">
+      <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="2" t="s">
+      <c r="F44" s="4" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="3" t="s">
+      <c r="A45" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B45" t="s">
+      <c r="B45" s="3" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="46" spans="1:6">
-      <c r="A46" s="3" t="s">
+      <c r="A46" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="B46" t="s">
+      <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46">
+      <c r="C46" s="3">
         <v>4</v>
       </c>
-      <c r="D46">
+      <c r="D46" s="3">
         <v>25</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="4" t="s">
+      <c r="A47" s="7" t="s">
         <v>15</v>
       </c>
       <c r="B47" s="5"/>
       <c r="C47" s="5"/>
       <c r="D47" s="5"/>
-      <c r="E47" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="6"/>
+      <c r="E47" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="8"/>
     </row>
     <row r="48" spans="1:6">
-      <c r="A48" s="3" t="s">
+      <c r="A48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="C48">
+      <c r="C48" s="3">
         <v>1</v>
       </c>
-      <c r="D48">
+      <c r="D48" s="3">
         <v>26</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="3" t="s">
+      <c r="A49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C49">
+      <c r="C49" s="3">
         <v>10</v>
       </c>
-      <c r="D49">
+      <c r="D49" s="3">
         <v>27</v>
       </c>
-      <c r="F49" s="2" t="s">
+      <c r="F49" s="4" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="50" spans="1:6">
-      <c r="A50" s="3" t="s">
+      <c r="A50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C50">
+      <c r="C50" s="3">
         <v>6</v>
       </c>
-      <c r="D50">
+      <c r="D50" s="3">
         <v>28</v>
       </c>
     </row>
     <row r="51" spans="1:6">
-      <c r="A51" s="3" t="s">
+      <c r="A51" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C51">
+      <c r="C51" s="3">
         <v>1</v>
       </c>
-      <c r="D51">
+      <c r="D51" s="3">
         <v>29</v>
       </c>
     </row>
     <row r="52" spans="1:6">
-      <c r="A52" s="3" t="s">
+      <c r="A52" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C52">
+      <c r="C52" s="3">
         <v>20</v>
       </c>
-      <c r="D52">
+      <c r="D52" s="3">
         <v>30</v>
       </c>
     </row>
     <row r="53" spans="1:6">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="8"/>
-      <c r="C53" s="8">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10">
         <v>4</v>
       </c>
-      <c r="D53" s="8">
+      <c r="D53" s="10">
         <v>31</v>
       </c>
-      <c r="E53" s="8" t="s">
+      <c r="E53" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="F53" s="11" t="s">
         <v>86</v>
       </c>
     </row>
     <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="3" t="s">
+      <c r="A54" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54">
+      <c r="D54" s="3">
         <v>31.1</v>
       </c>
-      <c r="F54" s="2" t="s">
+      <c r="F54" s="4" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
+      <c r="A55" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="B55" s="11" t="s">
+      <c r="B55" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C55" s="11"/>
-      <c r="D55" s="11">
+      <c r="D55" s="3">
         <v>31.2</v>
       </c>
-      <c r="E55" s="11"/>
-      <c r="F55" s="12" t="s">
+      <c r="F55" s="4" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
+      <c r="A56" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C56" s="11"/>
-      <c r="D56" s="11">
+      <c r="D56" s="3">
         <v>31.3</v>
       </c>
-      <c r="E56" s="11"/>
-      <c r="F56" s="12" t="s">
+      <c r="F56" s="4" t="s">
         <v>96</v>
       </c>
     </row>
     <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="3" t="s">
+      <c r="A57" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="B57" t="s">
+      <c r="B57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C57">
+      <c r="C57" s="3">
         <v>1</v>
       </c>
-      <c r="D57">
+      <c r="D57" s="3">
         <v>32</v>
       </c>
-      <c r="F57" s="2" t="s">
+      <c r="F57" s="4" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="58" spans="1:6">
-      <c r="A58" s="3" t="s">
+      <c r="A58" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="C58">
+      <c r="C58" s="3">
         <v>4</v>
       </c>
-      <c r="D58">
+      <c r="D58" s="3">
         <v>33</v>
       </c>
-      <c r="F58" s="2" t="s">
+      <c r="F58" s="4" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="59" spans="1:6">
-      <c r="A59" s="3" t="s">
+      <c r="A59" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C59">
+      <c r="C59" s="3">
         <v>4</v>
       </c>
-      <c r="D59">
+      <c r="D59" s="3">
         <v>34</v>
       </c>
     </row>
     <row r="60" spans="1:6">
-      <c r="A60" s="3" t="s">
+      <c r="A60" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="E60" t="s">
+      <c r="E60" s="3" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
-      <c r="A61" s="3" t="s">
+      <c r="A61" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F61" s="2" t="s">
+      <c r="F61" s="4" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="62" spans="1:6">
-      <c r="A62" s="3" t="s">
+      <c r="A62" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="F62" s="2" t="s">
+      <c r="F62" s="4" t="s">
         <v>68</v>
       </c>
     </row>
     <row r="63" spans="1:6">
-      <c r="A63" s="3" t="s">
+      <c r="A63" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="64" spans="1:6">
-      <c r="A64" s="3" t="s">
+      <c r="A64" s="2" t="s">
         <v>82</v>
       </c>
     </row>
     <row r="65" spans="1:6">
-      <c r="A65" s="3" t="s">
+      <c r="A65" s="2" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="66" spans="1:6">
-      <c r="A66" s="3" t="s">
+      <c r="A66" s="2" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="67" spans="1:6">
-      <c r="A67" s="3" t="s">
+      <c r="A67" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="F67" s="2" t="s">
+      <c r="F67" s="4" t="s">
         <v>106</v>
       </c>
     </row>
     <row r="68" spans="1:6">
-      <c r="A68" s="3" t="s">
+      <c r="A68" s="2" t="s">
         <v>99</v>
       </c>
     </row>
     <row r="69" spans="1:6">
-      <c r="A69" s="3" t="s">
+      <c r="A69" s="2" t="s">
         <v>109</v>
       </c>
     </row>
     <row r="70" spans="1:6">
-      <c r="A70" s="3" t="s">
+      <c r="A70" s="2" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="71" spans="1:6">
-      <c r="A71" s="3" t="s">
+      <c r="A71" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="F71" s="2" t="s">
+      <c r="F71" s="4" t="s">
         <v>118</v>
       </c>
     </row>
     <row r="72" spans="1:6">
-      <c r="A72" s="3" t="s">
+      <c r="A72" s="2" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="73" spans="1:6">
-      <c r="A73" s="3" t="s">
+      <c r="A73" s="2" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="74" spans="1:6">
-      <c r="A74" s="3" t="s">
+      <c r="A74" s="2" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:6">
-      <c r="A75" s="3" t="s">
+      <c r="A75" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="F75" s="2" t="s">
+      <c r="F75" s="4" t="s">
         <v>126</v>
       </c>
     </row>
     <row r="76" spans="1:6">
-      <c r="A76" s="3" t="s">
+      <c r="A76" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="F76" s="2" t="s">
+      <c r="F76" s="4" t="s">
         <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6">
+      <c r="A77" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F77" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6">
+      <c r="A78" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -1857,21 +1884,21 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="16384" width="9.140625" style="13"/>
+    <col min="1" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="13" t="s">
+      <c r="A1" s="1" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="13" t="s">
+      <c r="A2" s="1" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="1" t="s">
         <v>124</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18431"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -940,8 +940,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:J78"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A79" sqref="A79"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="A29" sqref="A29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1345,111 +1345,111 @@
     </row>
     <row r="29" spans="1:10">
       <c r="A29" s="2" t="s">
-        <v>112</v>
+        <v>26</v>
+      </c>
+      <c r="C29" s="3">
+        <v>6</v>
+      </c>
+      <c r="D29" s="3">
+        <v>14</v>
       </c>
     </row>
     <row r="30" spans="1:10">
       <c r="A30" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D30" s="3">
-        <v>13</v>
+        <v>112</v>
       </c>
     </row>
     <row r="31" spans="1:10">
       <c r="A31" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D31" s="3">
         <v>13</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C31" s="3">
-        <v>6</v>
-      </c>
-      <c r="D31" s="3">
-        <v>18</v>
-      </c>
-      <c r="F31" s="4" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>20</v>
+        <v>13</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="C32" s="3">
         <v>6</v>
       </c>
       <c r="D32" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F32" s="4" t="s">
-        <v>110</v>
+        <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>75</v>
+        <v>20</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C33" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D33" s="3">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F33" s="4" t="s">
-        <v>76</v>
+        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>13</v>
+        <v>75</v>
       </c>
       <c r="C34" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D34" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>111</v>
+        <v>76</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>77</v>
+        <v>12</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C35" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D35" s="3">
-        <v>17</v>
-      </c>
-      <c r="E35" s="3" t="s">
-        <v>37</v>
+        <v>15</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>87</v>
+        <v>111</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>26</v>
+        <v>77</v>
       </c>
       <c r="C36" s="3">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>14</v>
+        <v>17</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="4" t="s">
+        <v>87</v>
       </c>
     </row>
     <row r="37" spans="1:6">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="176" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="137">
   <si>
     <t>Feature</t>
   </si>
@@ -424,6 +424,18 @@
   </si>
   <si>
     <t>save image and txt</t>
+  </si>
+  <si>
+    <t>edit labels from pattern editor</t>
+  </si>
+  <si>
+    <t>label editor popup from pattern editor popup</t>
+  </si>
+  <si>
+    <t>edit patterns from task editor</t>
+  </si>
+  <si>
+    <t>pattern editor popup from task editor popup</t>
   </si>
 </sst>
 </file>
@@ -493,7 +505,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -518,6 +530,12 @@
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -624,10 +642,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F78" totalsRowShown="0">
-  <autoFilter ref="A1:F78" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:F61">
-    <sortCondition ref="D1:D61"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:F80" totalsRowShown="0">
+  <autoFilter ref="A1:F80" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:F63">
+    <sortCondition ref="D1:D63"/>
   </sortState>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
@@ -938,10 +956,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:J78"/>
+  <dimension ref="A1:J80"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1029,7 +1047,7 @@
         <v>37</v>
       </c>
       <c r="H6" s="3">
-        <f>SUM(C12:C41)</f>
+        <f>SUM(C12:C43)</f>
         <v>64</v>
       </c>
       <c r="I6" s="3">
@@ -1045,7 +1063,7 @@
         <v>37</v>
       </c>
       <c r="H7" s="3">
-        <f>SUM(C12:C59)</f>
+        <f>SUM(C12:C61)</f>
         <v>129</v>
       </c>
       <c r="I7" s="3">
@@ -1355,72 +1373,57 @@
       </c>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="2" t="s">
-        <v>112</v>
+      <c r="A30" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="F30" s="13" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="31" spans="1:10">
-      <c r="A31" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="D31" s="3">
-        <v>13</v>
+      <c r="A31" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="F31" s="13" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="32" spans="1:10">
       <c r="A32" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C32" s="3">
-        <v>6</v>
-      </c>
-      <c r="D32" s="3">
-        <v>18</v>
-      </c>
-      <c r="F32" s="4" t="s">
-        <v>74</v>
+        <v>112</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="2" t="s">
-        <v>20</v>
+        <v>7</v>
       </c>
       <c r="B33" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="D33" s="3">
         <v>13</v>
-      </c>
-      <c r="C33" s="3">
-        <v>6</v>
-      </c>
-      <c r="D33" s="3">
-        <v>19</v>
-      </c>
-      <c r="F33" s="4" t="s">
-        <v>110</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="2" t="s">
-        <v>75</v>
+        <v>13</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>6</v>
       </c>
       <c r="C34" s="3">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D34" s="3">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F34" s="4" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" s="2" t="s">
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>13</v>
@@ -1429,439 +1432,470 @@
         <v>6</v>
       </c>
       <c r="D35" s="3">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="F35" s="4" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="2" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="C36" s="3">
         <v>3</v>
       </c>
       <c r="D36" s="3">
-        <v>17</v>
-      </c>
-      <c r="E36" s="3" t="s">
-        <v>37</v>
+        <v>16</v>
       </c>
       <c r="F36" s="4" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="2" t="s">
-        <v>107</v>
+        <v>12</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="3">
+        <v>6</v>
+      </c>
+      <c r="D37" s="3">
+        <v>15</v>
+      </c>
+      <c r="F37" s="4" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="2" t="s">
-        <v>114</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>115</v>
+        <v>77</v>
+      </c>
+      <c r="C38" s="3">
+        <v>3</v>
+      </c>
+      <c r="D38" s="3">
+        <v>17</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>37</v>
       </c>
       <c r="F38" s="4" t="s">
-        <v>116</v>
+        <v>87</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C39" s="3">
-        <v>2</v>
-      </c>
-      <c r="D39" s="3">
-        <v>20</v>
-      </c>
-      <c r="F39" s="4" t="s">
-        <v>51</v>
+        <v>107</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C40" s="3">
-        <v>4</v>
-      </c>
-      <c r="D40" s="3">
-        <v>21</v>
+        <v>114</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="F40" s="4" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B41" s="3" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="C41" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" s="3">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="F41" s="4" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B42" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C42" s="3">
         <v>4</v>
       </c>
       <c r="D42" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" s="2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B43" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C43" s="3">
+        <v>4</v>
+      </c>
+      <c r="D43" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="2" t="s">
         <v>14</v>
-      </c>
-      <c r="C43" s="3">
-        <v>6</v>
-      </c>
-      <c r="D43" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" ht="30">
-      <c r="A44" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="B44" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="F44" s="4" t="s">
-        <v>48</v>
+      <c r="C44" s="3">
+        <v>4</v>
+      </c>
+      <c r="D44" s="3">
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="2" t="s">
-        <v>49</v>
+        <v>19</v>
       </c>
       <c r="B45" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="46" spans="1:6">
+        <v>14</v>
+      </c>
+      <c r="C45" s="3">
+        <v>6</v>
+      </c>
+      <c r="D45" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" ht="30">
       <c r="A46" s="2" t="s">
-        <v>17</v>
+        <v>47</v>
       </c>
       <c r="B46" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C46" s="3">
-        <v>4</v>
-      </c>
-      <c r="D46" s="3">
-        <v>25</v>
+      <c r="F46" s="4" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="47" spans="1:6">
-      <c r="A47" s="7" t="s">
-        <v>15</v>
-      </c>
-      <c r="B47" s="5"/>
-      <c r="C47" s="5"/>
-      <c r="D47" s="5"/>
-      <c r="E47" s="3" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="8"/>
+      <c r="A47" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" s="2" t="s">
-        <v>29</v>
+        <v>17</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>13</v>
       </c>
       <c r="C48" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D48" s="3">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="49" spans="1:6">
-      <c r="A49" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B49" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C49" s="3">
-        <v>10</v>
-      </c>
-      <c r="D49" s="3">
-        <v>27</v>
-      </c>
-      <c r="F49" s="4" t="s">
-        <v>73</v>
-      </c>
+      <c r="A49" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="B49" s="5"/>
+      <c r="C49" s="5"/>
+      <c r="D49" s="5"/>
+      <c r="E49" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="F49" s="8"/>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" s="2" t="s">
-        <v>9</v>
+        <v>29</v>
       </c>
       <c r="C50" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="D50" s="3">
-        <v>28</v>
+        <v>26</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" s="2" t="s">
-        <v>18</v>
+        <v>8</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>24</v>
       </c>
       <c r="C51" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="D51" s="3">
-        <v>29</v>
+        <v>27</v>
+      </c>
+      <c r="F51" s="4" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" s="3">
+        <v>6</v>
+      </c>
+      <c r="D52" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6">
+      <c r="A53" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C53" s="3">
+        <v>1</v>
+      </c>
+      <c r="D53" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6">
+      <c r="A54" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B52" s="3" t="s">
+      <c r="B54" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C52" s="3">
+      <c r="C54" s="3">
         <v>20</v>
       </c>
-      <c r="D52" s="3">
+      <c r="D54" s="3">
         <v>30</v>
       </c>
     </row>
-    <row r="53" spans="1:6">
-      <c r="A53" s="9" t="s">
+    <row r="55" spans="1:6">
+      <c r="A55" s="9" t="s">
         <v>72</v>
       </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10">
+      <c r="B55" s="10"/>
+      <c r="C55" s="10">
         <v>4</v>
       </c>
-      <c r="D53" s="10">
+      <c r="D55" s="10">
         <v>31</v>
       </c>
-      <c r="E53" s="10" t="s">
+      <c r="E55" s="10" t="s">
         <v>85</v>
       </c>
-      <c r="F53" s="11" t="s">
+      <c r="F55" s="11" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="54" spans="1:6" ht="30">
-      <c r="A54" s="2" t="s">
+    <row r="56" spans="1:6" ht="30">
+      <c r="A56" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="D54" s="3">
+      <c r="D56" s="3">
         <v>31.1</v>
       </c>
-      <c r="F54" s="4" t="s">
+      <c r="F56" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="2" t="s">
+    <row r="57" spans="1:6">
+      <c r="A57" s="2" t="s">
         <v>89</v>
-      </c>
-      <c r="B55" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D55" s="3">
-        <v>31.2</v>
-      </c>
-      <c r="F55" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B56" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D56" s="3">
-        <v>31.3</v>
-      </c>
-      <c r="F56" s="4" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="2" t="s">
-        <v>63</v>
       </c>
       <c r="B57" s="3" t="s">
         <v>90</v>
       </c>
-      <c r="C57" s="3">
-        <v>1</v>
-      </c>
       <c r="D57" s="3">
-        <v>32</v>
+        <v>31.2</v>
       </c>
       <c r="F57" s="4" t="s">
-        <v>64</v>
+        <v>94</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C58" s="3">
-        <v>4</v>
+        <v>95</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="D58" s="3">
-        <v>33</v>
+        <v>31.3</v>
       </c>
       <c r="F58" s="4" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" ht="30">
       <c r="A59" s="2" t="s">
-        <v>71</v>
+        <v>63</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>90</v>
       </c>
       <c r="C59" s="3">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D59" s="3">
-        <v>34</v>
+        <v>32</v>
+      </c>
+      <c r="F59" s="4" t="s">
+        <v>64</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="E60" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6" ht="30">
+        <v>65</v>
+      </c>
+      <c r="C60" s="3">
+        <v>4</v>
+      </c>
+      <c r="D60" s="3">
+        <v>33</v>
+      </c>
+      <c r="F60" s="4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6">
       <c r="A61" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C61" s="3">
         <v>4</v>
       </c>
-      <c r="F61" s="4" t="s">
-        <v>28</v>
+      <c r="D61" s="3">
+        <v>34</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="F62" s="4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="63" spans="1:6">
+        <v>30</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" ht="30">
       <c r="A63" s="2" t="s">
-        <v>70</v>
+        <v>4</v>
+      </c>
+      <c r="F63" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
     <row r="64" spans="1:6">
       <c r="A64" s="2" t="s">
-        <v>82</v>
+        <v>67</v>
+      </c>
+      <c r="F64" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" s="2" t="s">
-        <v>83</v>
+        <v>70</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="F67" s="4" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="68" spans="1:6">
       <c r="A68" s="2" t="s">
-        <v>99</v>
+        <v>84</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" s="2" t="s">
-        <v>109</v>
+        <v>105</v>
+      </c>
+      <c r="F69" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="70" spans="1:6">
       <c r="A70" s="2" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F71" s="4" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" s="2" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" s="2" t="s">
-        <v>120</v>
+        <v>117</v>
+      </c>
+      <c r="F73" s="4" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="74" spans="1:6">
       <c r="A74" s="2" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="F75" s="4" t="s">
-        <v>126</v>
+        <v>120</v>
       </c>
     </row>
     <row r="76" spans="1:6">
       <c r="A76" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F76" s="4" t="s">
-        <v>128</v>
+        <v>121</v>
       </c>
     </row>
     <row r="77" spans="1:6">
       <c r="A77" s="2" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="F77" s="4" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
     </row>
     <row r="78" spans="1:6">
       <c r="A78" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="F78" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6">
+      <c r="A79" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="F79" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6">
+      <c r="A80" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="F78" s="4" t="s">
+      <c r="F80" s="4" t="s">
         <v>132</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
   <si>
     <t>Feature</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>Note graphic</t>
+  </si>
+  <si>
+    <t>Auto Assign names to new notes</t>
   </si>
 </sst>
 </file>
@@ -515,6 +518,12 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -559,12 +568,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <b val="0"/>
         <i val="0"/>
@@ -601,9 +604,9 @@
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="3"/>
-      <tableStyleElement type="headerRow" dxfId="2"/>
-      <tableStyleElement type="secondRowStripe" dxfId="1"/>
+      <tableStyleElement type="wholeTable" dxfId="5"/>
+      <tableStyleElement type="headerRow" dxfId="4"/>
+      <tableStyleElement type="secondRowStripe" dxfId="3"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -625,16 +628,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D83" totalsRowShown="0">
-  <autoFilter ref="A1:D83" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D84" totalsRowShown="0">
+  <autoFilter ref="A1:D84" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D65">
     <sortCondition ref="B1:B65"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="5"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
     <tableColumn id="4" xr3:uid="{BF9C91B9-D741-4386-8F98-4D819EB67396}" name="Priority"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -937,10 +940,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H83"/>
+  <dimension ref="A1:H84"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4:H10"/>
+      <selection activeCell="B84" sqref="B84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -976,7 +979,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:4" ht="30">
+    <row r="3" spans="1:4">
       <c r="A3" s="2" t="s">
         <v>32</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:4" ht="30">
+    <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
         <v>48</v>
       </c>
@@ -1741,9 +1744,14 @@
         <v>110</v>
       </c>
     </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
   <si>
     <t>Feature</t>
   </si>
@@ -409,6 +409,15 @@
   </si>
   <si>
     <t>Auto Assign names to new notes</t>
+  </si>
+  <si>
+    <t>Should a Resource be a Filterable?</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>Because I made Allocation.TimeTask nullable, if I make a Task, give it an Allocation, then delete the Task, will the Allocation remain?</t>
   </si>
 </sst>
 </file>
@@ -628,8 +637,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D84" totalsRowShown="0">
-  <autoFilter ref="A1:D84" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D86" totalsRowShown="0">
+  <autoFilter ref="A1:D86" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D65">
     <sortCondition ref="B1:B65"/>
   </sortState>
@@ -940,10 +949,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H84"/>
+  <dimension ref="A1:H86"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B84" sqref="B84"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A87" sqref="A87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1747,6 +1756,19 @@
     <row r="84" spans="1:4">
       <c r="A84" s="12" t="s">
         <v>127</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>130</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
   <si>
     <t>Feature</t>
   </si>
@@ -418,6 +418,18 @@
   </si>
   <si>
     <t>Because I made Allocation.TimeTask nullable, if I make a Task, give it an Allocation, then delete the Task, will the Allocation remain?</t>
+  </si>
+  <si>
+    <t>Redesign DAL, Filters</t>
+  </si>
+  <si>
+    <t>Implement Filters in TimeTaskView</t>
+  </si>
+  <si>
+    <t>Filters in TimeTaskViewModel</t>
+  </si>
+  <si>
+    <t>FilterSelectorView</t>
   </si>
 </sst>
 </file>
@@ -527,12 +539,6 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -541,6 +547,12 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -637,16 +649,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D86" totalsRowShown="0">
-  <autoFilter ref="A1:D86" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D65">
-    <sortCondition ref="B1:B65"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
+  <autoFilter ref="A1:D90" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D69">
+    <sortCondition ref="B1:B69"/>
   </sortState>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
     <tableColumn id="4" xr3:uid="{BF9C91B9-D741-4386-8F98-4D819EB67396}" name="Priority"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -949,10 +961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H86"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A87" sqref="A87"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A38" sqref="A38:XFD38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1319,95 +1331,91 @@
       </c>
     </row>
     <row r="37" spans="1:4">
-      <c r="A37" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B37" s="3">
-        <v>1</v>
+      <c r="A37" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:4">
-      <c r="A38" s="2" t="s">
-        <v>4</v>
+      <c r="A38" s="12" t="s">
+        <v>134</v>
       </c>
       <c r="B38" s="3">
-        <v>2</v>
-      </c>
+        <v>0.1</v>
+      </c>
+      <c r="C38" s="14"/>
     </row>
     <row r="39" spans="1:4">
       <c r="A39" s="12" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="B39" s="3">
-        <v>3</v>
-      </c>
+        <v>0.2</v>
+      </c>
+      <c r="C39" s="14"/>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>120</v>
+        <v>133</v>
       </c>
       <c r="B40" s="3">
-        <v>4</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="C40" s="14"/>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="2" t="s">
-        <v>10</v>
+        <v>91</v>
       </c>
       <c r="B41" s="3">
-        <v>5</v>
-      </c>
-      <c r="D41" s="4" t="s">
-        <v>61</v>
+        <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="2" t="s">
-        <v>92</v>
+        <v>4</v>
       </c>
       <c r="B42" s="3">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B43" s="3">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="B44" s="3">
-        <v>8</v>
-      </c>
-      <c r="D44" s="4" t="s">
-        <v>89</v>
-      </c>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" s="10" customFormat="1">
+      <c r="A43" s="9" t="s">
+        <v>119</v>
+      </c>
+      <c r="B43" s="10">
+        <v>3</v>
+      </c>
+      <c r="D43" s="11"/>
+    </row>
+    <row r="44" spans="1:4" s="10" customFormat="1">
+      <c r="A44" s="9" t="s">
+        <v>120</v>
+      </c>
+      <c r="B44" s="10">
+        <v>4</v>
+      </c>
+      <c r="D44" s="11"/>
     </row>
     <row r="45" spans="1:4">
       <c r="A45" s="2" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="B45" s="3">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="D45" s="4" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="46" spans="1:4">
       <c r="A46" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B46" s="3">
-        <v>10</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>103</v>
+        <v>6</v>
       </c>
     </row>
     <row r="47" spans="1:4">
@@ -1415,365 +1423,406 @@
         <v>9</v>
       </c>
       <c r="B47" s="3">
-        <v>11</v>
+        <v>6.5</v>
       </c>
       <c r="D47" s="4" t="s">
         <v>90</v>
       </c>
     </row>
     <row r="48" spans="1:4">
-      <c r="A48" s="12" t="s">
-        <v>123</v>
+      <c r="A48" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B48" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>106</v>
+        <v>17</v>
       </c>
       <c r="B49" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>107</v>
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B50" s="3">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>8</v>
+        <v>102</v>
       </c>
       <c r="B51" s="3">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D51" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>13</v>
+      <c r="A52" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="B52" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B53" s="3">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B54" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B55" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B56" s="3">
-        <v>20</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="12" t="s">
-        <v>116</v>
+      <c r="A57" s="2" t="s">
+        <v>96</v>
       </c>
       <c r="B57" s="3">
-        <v>21</v>
-      </c>
-      <c r="D57" s="13" t="s">
-        <v>117</v>
+        <v>17</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B58" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="12" t="s">
-        <v>126</v>
+      <c r="A59" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B59" s="3">
-        <v>23</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>93</v>
+        <v>19</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B60" s="3">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D60" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>39</v>
+      <c r="A61" s="12" t="s">
+        <v>116</v>
       </c>
       <c r="B61" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D61" s="13" t="s">
-        <v>40</v>
+        <v>117</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B62" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>121</v>
+        <v>126</v>
       </c>
       <c r="B63" s="3">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D63" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>122</v>
+      <c r="A64" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B64" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B65" s="3">
-        <v>29</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B66" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>71</v>
+      <c r="A67" s="12" t="s">
+        <v>121</v>
       </c>
       <c r="B67" s="3">
-        <v>31</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>125</v>
+        <v>27</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>85</v>
+      <c r="A68" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="B68" s="3">
-        <v>32</v>
-      </c>
-      <c r="D68" s="4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>94</v>
+        <v>54</v>
       </c>
       <c r="B69" s="3">
-        <v>33</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>124</v>
+        <v>29</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>100</v>
+        <v>59</v>
       </c>
       <c r="B70" s="3">
-        <v>34</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>101</v>
+        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="B71" s="3">
-        <v>35</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>105</v>
+        <v>31</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>125</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>114</v>
+      <c r="A72" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B72" s="3">
-        <v>36</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>115</v>
+        <v>32</v>
+      </c>
+      <c r="D72" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>88</v>
+        <v>94</v>
       </c>
       <c r="B73" s="3">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>79</v>
+        <v>100</v>
       </c>
       <c r="B74" s="3">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="12" t="s">
-        <v>118</v>
+      <c r="A75" s="2" t="s">
+        <v>104</v>
       </c>
       <c r="B75" s="3">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>105</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>69</v>
+      <c r="A76" s="12" t="s">
+        <v>114</v>
       </c>
       <c r="B76" s="3">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B77" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B78" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B79" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B80" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B81" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="78" spans="1:4" ht="30">
-      <c r="A78" s="9" t="s">
+    <row r="82" spans="1:4" ht="30">
+      <c r="A82" s="9" t="s">
         <v>43</v>
-      </c>
-      <c r="B78" s="10"/>
-      <c r="C78" s="10"/>
-      <c r="D78" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4" ht="30">
-      <c r="A79" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B79" s="10"/>
-      <c r="C79" s="10"/>
-      <c r="D79" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4" s="10" customFormat="1">
-      <c r="A80" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D80" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B81" s="10"/>
-      <c r="C81" s="10"/>
-      <c r="D81" s="11"/>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="B82" s="10"/>
       <c r="C82" s="10"/>
       <c r="D82" s="11" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30">
       <c r="A83" s="9" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
       <c r="B83" s="10"/>
       <c r="C83" s="10"/>
       <c r="D83" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" s="10" customFormat="1">
+      <c r="A84" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="D84" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B85" s="10"/>
+      <c r="C85" s="10"/>
+      <c r="D85" s="11"/>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="11" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="12" t="s">
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="12" t="s">
+    <row r="90" spans="1:4">
+      <c r="A90" s="12" t="s">
         <v>129</v>
       </c>
-      <c r="D86" s="13" t="s">
+      <c r="D90" s="13" t="s">
         <v>130</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="C1:C1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="171" uniqueCount="135">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>Feature</t>
   </si>
@@ -411,15 +411,6 @@
     <t>Auto Assign names to new notes</t>
   </si>
   <si>
-    <t>Should a Resource be a Filterable?</t>
-  </si>
-  <si>
-    <t>Question</t>
-  </si>
-  <si>
-    <t>Because I made Allocation.TimeTask nullable, if I make a Task, give it an Allocation, then delete the Task, will the Allocation remain?</t>
-  </si>
-  <si>
     <t>Redesign DAL, Filters</t>
   </si>
   <si>
@@ -430,6 +421,21 @@
   </si>
   <si>
     <t>FilterSelectorView</t>
+  </si>
+  <si>
+    <t>New alloc control template switch like TPClauseView</t>
+  </si>
+  <si>
+    <t>better AllocationSelectorView</t>
+  </si>
+  <si>
+    <t>Note 51 etc.</t>
+  </si>
+  <si>
+    <t>FilterView</t>
+  </si>
+  <si>
+    <t>like TPClause view</t>
   </si>
 </sst>
 </file>
@@ -649,10 +655,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
-  <autoFilter ref="A1:D90" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D69">
-    <sortCondition ref="B1:B69"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D91" totalsRowShown="0">
+  <autoFilter ref="A1:D91" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D71">
+    <sortCondition ref="B1:B71"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -961,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A38" sqref="A38:XFD38"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="D40" sqref="D40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1332,492 +1338,505 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" s="9" t="s">
         <v>131</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="B38" s="3">
+      <c r="B38" s="10">
         <v>0.1</v>
       </c>
-      <c r="C38" s="14"/>
-    </row>
-    <row r="39" spans="1:4">
+      <c r="C38" s="10"/>
+      <c r="D38" s="11"/>
+    </row>
+    <row r="39" spans="1:4" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="B39" s="3">
+        <v>135</v>
+      </c>
+      <c r="D39" s="13" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4">
+      <c r="A40" s="12"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="11"/>
+    </row>
+    <row r="41" spans="1:4">
+      <c r="A41" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B41" s="3">
         <v>0.2</v>
       </c>
-      <c r="C39" s="14"/>
-    </row>
-    <row r="40" spans="1:4">
-      <c r="A40" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="B40" s="3">
+      <c r="C41" s="14"/>
+    </row>
+    <row r="42" spans="1:4">
+      <c r="A42" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B42" s="3">
         <v>0.3</v>
       </c>
-      <c r="C40" s="14"/>
-    </row>
-    <row r="41" spans="1:4">
-      <c r="A41" s="2" t="s">
+      <c r="C42" s="14"/>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B41" s="3">
+      <c r="B43" s="3">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
-      <c r="A42" s="2" t="s">
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B42" s="3">
+      <c r="B44" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="43" spans="1:4" s="10" customFormat="1">
-      <c r="A43" s="9" t="s">
+    <row r="45" spans="1:4" s="10" customFormat="1">
+      <c r="A45" s="9" t="s">
         <v>119</v>
       </c>
-      <c r="B43" s="10">
+      <c r="B45" s="10">
         <v>3</v>
       </c>
-      <c r="D43" s="11"/>
-    </row>
-    <row r="44" spans="1:4" s="10" customFormat="1">
-      <c r="A44" s="9" t="s">
+      <c r="D45" s="11"/>
+    </row>
+    <row r="46" spans="1:4" s="10" customFormat="1">
+      <c r="A46" s="9" t="s">
         <v>120</v>
       </c>
-      <c r="B44" s="10">
+      <c r="B46" s="10">
         <v>4</v>
       </c>
-      <c r="D44" s="11"/>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B45" s="3">
-        <v>5</v>
-      </c>
-      <c r="D45" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B46" s="3">
-        <v>6</v>
-      </c>
+      <c r="D46" s="11"/>
     </row>
     <row r="47" spans="1:4">
       <c r="A47" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B47" s="3">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="D47" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="B48" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B49" s="3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D49" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>62</v>
+        <v>95</v>
       </c>
       <c r="B50" s="3">
-        <v>9</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B51" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>123</v>
+      <c r="A52" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B52" s="3">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D52" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B53" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>7</v>
+      <c r="A54" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="B54" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>8</v>
+        <v>106</v>
       </c>
       <c r="B55" s="3">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>107</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B56" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>96</v>
+        <v>8</v>
       </c>
       <c r="B57" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B58" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>14</v>
+        <v>96</v>
       </c>
       <c r="B59" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>56</v>
+        <v>11</v>
       </c>
       <c r="B60" s="3">
-        <v>20</v>
-      </c>
-      <c r="D60" s="4" t="s">
-        <v>57</v>
+        <v>18</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>116</v>
+      <c r="A61" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B61" s="3">
-        <v>21</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>117</v>
+        <v>19</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>16</v>
+        <v>56</v>
       </c>
       <c r="B62" s="3">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>126</v>
+        <v>116</v>
       </c>
       <c r="B63" s="3">
-        <v>23</v>
-      </c>
-      <c r="D63" s="4" t="s">
-        <v>93</v>
+        <v>21</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>117</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B64" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>39</v>
+      <c r="A65" s="12" t="s">
+        <v>126</v>
       </c>
       <c r="B65" s="3">
-        <v>25</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="D65" s="4" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B66" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B67" s="3">
+        <v>25</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B68" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
+    <row r="69" spans="1:4">
+      <c r="A69" s="12" t="s">
         <v>121</v>
       </c>
-      <c r="B67" s="3">
+      <c r="B69" s="3">
         <v>27</v>
       </c>
     </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="12" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B70" s="3">
         <v>28</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B69" s="3">
-        <v>29</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B70" s="3">
-        <v>30</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B71" s="3">
-        <v>31</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>125</v>
+        <v>29</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>85</v>
+        <v>59</v>
       </c>
       <c r="B72" s="3">
-        <v>32</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>86</v>
+        <v>30</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>71</v>
       </c>
       <c r="B73" s="3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>100</v>
+        <v>85</v>
       </c>
       <c r="B74" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D74" s="4" t="s">
-        <v>101</v>
+        <v>86</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>104</v>
+        <v>94</v>
       </c>
       <c r="B75" s="3">
-        <v>35</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>105</v>
+        <v>33</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>114</v>
+      <c r="A76" s="2" t="s">
+        <v>100</v>
       </c>
       <c r="B76" s="3">
-        <v>36</v>
-      </c>
-      <c r="D76" s="13" t="s">
-        <v>115</v>
+        <v>34</v>
+      </c>
+      <c r="D76" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B77" s="3">
+        <v>35</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4">
+      <c r="A78" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B78" s="3">
+        <v>36</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="B77" s="3">
+      <c r="B79" s="3">
         <v>37</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B79" s="3">
-        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B80" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B81" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4">
+      <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B82" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B81" s="3">
+      <c r="B83" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="82" spans="1:4" ht="30">
-      <c r="A82" s="9" t="s">
+    <row r="84" spans="1:4" ht="30">
+      <c r="A84" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B82" s="10"/>
-      <c r="C82" s="10"/>
-      <c r="D82" s="11" t="s">
+      <c r="B84" s="10"/>
+      <c r="C84" s="10"/>
+      <c r="D84" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30">
-      <c r="A83" s="9" t="s">
+    <row r="85" spans="1:4" ht="30">
+      <c r="A85" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4" s="10" customFormat="1">
-      <c r="A84" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D84" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="B85" s="10"/>
       <c r="C85" s="10"/>
-      <c r="D85" s="11"/>
-    </row>
-    <row r="86" spans="1:4">
+      <c r="D85" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" s="10" customFormat="1">
       <c r="A86" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
+        <v>18</v>
+      </c>
       <c r="D86" s="11" t="s">
-        <v>111</v>
+        <v>42</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
-        <v>109</v>
+        <v>21</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
-      <c r="D87" s="11" t="s">
+      <c r="D87" s="11"/>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B88" s="10"/>
+      <c r="C88" s="10"/>
+      <c r="D88" s="11" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11" t="s">
         <v>110</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="12" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>130</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
   <si>
     <t>Feature</t>
   </si>
@@ -436,6 +436,21 @@
   </si>
   <si>
     <t>like TPClause view</t>
+  </si>
+  <si>
+    <t>maybe I need to separate everything from Filterables table into their own tables? Maybe I didn't setup filter delete correctly?</t>
+  </si>
+  <si>
+    <t>There was a problem updating the database: Database Update Failed</t>
+  </si>
+  <si>
+    <t>An error occurred while saving entities that do not expose foreign key properties for their relationships. The EntityEntries property will return null because a single entity cannot be identified as the source of the exception. Handling of exceptions while saving can be made easier by exposing foreign key properties in your entity types. See the InnerException for details.</t>
+  </si>
+  <si>
+    <t>A relationship from the 'TimeTaskFilter_TimeTask' AssociationSet is in the 'Deleted' state. Given multiplicity constraints, a corresponding 'TimeTaskFilter_TimeTask_Source' must also in the 'Deleted' state.</t>
+  </si>
+  <si>
+    <t>some kind of error when removing filters</t>
   </si>
 </sst>
 </file>
@@ -655,8 +670,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D91" totalsRowShown="0">
-  <autoFilter ref="A1:D91" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D93" totalsRowShown="0">
+  <autoFilter ref="A1:D93" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D71">
     <sortCondition ref="B1:B71"/>
   </sortState>
@@ -967,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D40" sqref="D40"/>
+    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="A93" sqref="A93"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1743,7 +1758,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
+    <row r="81" spans="1:5">
       <c r="A81" s="12" t="s">
         <v>118</v>
       </c>
@@ -1751,7 +1766,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:4">
+    <row r="82" spans="1:5">
       <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
@@ -1759,7 +1774,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
+    <row r="83" spans="1:5">
       <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
@@ -1767,7 +1782,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30">
+    <row r="84" spans="1:5" ht="30">
       <c r="A84" s="9" t="s">
         <v>43</v>
       </c>
@@ -1777,7 +1792,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:4" ht="30">
+    <row r="85" spans="1:5" ht="30">
       <c r="A85" s="9" t="s">
         <v>52</v>
       </c>
@@ -1787,7 +1802,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="10" customFormat="1">
+    <row r="86" spans="1:5" s="10" customFormat="1">
       <c r="A86" s="9" t="s">
         <v>18</v>
       </c>
@@ -1795,7 +1810,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
+    <row r="87" spans="1:5">
       <c r="A87" s="9" t="s">
         <v>21</v>
       </c>
@@ -1803,7 +1818,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:5">
       <c r="A88" s="9" t="s">
         <v>108</v>
       </c>
@@ -1813,7 +1828,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:4">
+    <row r="89" spans="1:5">
       <c r="A89" s="9" t="s">
         <v>109</v>
       </c>
@@ -1823,7 +1838,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
+    <row r="90" spans="1:5">
       <c r="A90" s="12" t="s">
         <v>127</v>
       </c>
@@ -1831,12 +1846,37 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:4">
+    <row r="91" spans="1:5">
       <c r="A91" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>132</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5">
+      <c r="A92" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>137</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5">
+      <c r="A93" s="12"/>
+      <c r="D93" s="13"/>
+    </row>
+    <row r="94" spans="1:5">
+      <c r="E94" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5">
+      <c r="E96" s="3" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="178" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
   <si>
     <t>Feature</t>
   </si>
@@ -436,21 +436,6 @@
   </si>
   <si>
     <t>like TPClause view</t>
-  </si>
-  <si>
-    <t>maybe I need to separate everything from Filterables table into their own tables? Maybe I didn't setup filter delete correctly?</t>
-  </si>
-  <si>
-    <t>There was a problem updating the database: Database Update Failed</t>
-  </si>
-  <si>
-    <t>An error occurred while saving entities that do not expose foreign key properties for their relationships. The EntityEntries property will return null because a single entity cannot be identified as the source of the exception. Handling of exceptions while saving can be made easier by exposing foreign key properties in your entity types. See the InnerException for details.</t>
-  </si>
-  <si>
-    <t>A relationship from the 'TimeTaskFilter_TimeTask' AssociationSet is in the 'Deleted' state. Given multiplicity constraints, a corresponding 'TimeTaskFilter_TimeTask_Source' must also in the 'Deleted' state.</t>
-  </si>
-  <si>
-    <t>some kind of error when removing filters</t>
   </si>
 </sst>
 </file>
@@ -670,8 +655,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D93" totalsRowShown="0">
-  <autoFilter ref="A1:D93" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D91" totalsRowShown="0">
+  <autoFilter ref="A1:D91" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D71">
     <sortCondition ref="B1:B71"/>
   </sortState>
@@ -982,10 +967,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H91"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="A93" sqref="A93"/>
+    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
+      <selection activeCell="B100" sqref="B100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1758,7 +1743,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
         <v>118</v>
       </c>
@@ -1766,7 +1751,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
         <v>69</v>
       </c>
@@ -1774,7 +1759,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
         <v>70</v>
       </c>
@@ -1782,7 +1767,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="84" spans="1:5" ht="30">
+    <row r="84" spans="1:4" ht="30">
       <c r="A84" s="9" t="s">
         <v>43</v>
       </c>
@@ -1792,7 +1777,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="85" spans="1:5" ht="30">
+    <row r="85" spans="1:4" ht="30">
       <c r="A85" s="9" t="s">
         <v>52</v>
       </c>
@@ -1802,7 +1787,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="86" spans="1:5" s="10" customFormat="1">
+    <row r="86" spans="1:4" s="10" customFormat="1">
       <c r="A86" s="9" t="s">
         <v>18</v>
       </c>
@@ -1810,7 +1795,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
         <v>21</v>
       </c>
@@ -1818,7 +1803,7 @@
       <c r="C87" s="10"/>
       <c r="D87" s="11"/>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
         <v>108</v>
       </c>
@@ -1828,7 +1813,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:4">
       <c r="A89" s="9" t="s">
         <v>109</v>
       </c>
@@ -1838,7 +1823,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
         <v>127</v>
       </c>
@@ -1846,37 +1831,12 @@
         <v>134</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
         <v>133</v>
       </c>
       <c r="D91" s="13" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="92" spans="1:5">
-      <c r="A92" s="12" t="s">
-        <v>141</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>137</v>
-      </c>
-      <c r="E92" s="3" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5">
-      <c r="A93" s="12"/>
-      <c r="D93" s="13"/>
-    </row>
-    <row r="94" spans="1:5">
-      <c r="E94" s="3" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="96" spans="1:5">
-      <c r="E96" s="3" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="137">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
   <si>
     <t>Feature</t>
   </si>
@@ -303,9 +303,6 @@
     <t>Implmnt TimeTasks on Calendar</t>
   </si>
   <si>
-    <t>Color by type/state</t>
-  </si>
-  <si>
     <t>Draw notes with a little note graphic on the right side of a day</t>
   </si>
   <si>
@@ -384,12 +381,6 @@
     <t>WCF</t>
   </si>
   <si>
-    <t>Include/Exclude Labels</t>
-  </si>
-  <si>
-    <t>Should Tasks have labels?</t>
-  </si>
-  <si>
     <t>More theme colors</t>
   </si>
   <si>
@@ -436,6 +427,21 @@
   </si>
   <si>
     <t>like TPClause view</t>
+  </si>
+  <si>
+    <t>Create CalObjs from TimeTask data</t>
+  </si>
+  <si>
+    <t>detect range, build cal objs inside areas specified by filters</t>
+  </si>
+  <si>
+    <t>bug</t>
+  </si>
+  <si>
+    <t>reproduce: select a task. Hit refresh. After refresh, can still press edit. If press edit, it opens weird old task? Should clear selected task and not allow press of edit when refresh is pressed until new task selected</t>
+  </si>
+  <si>
+    <t>toggle Color by type/state</t>
   </si>
 </sst>
 </file>
@@ -655,10 +661,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D91" totalsRowShown="0">
-  <autoFilter ref="A1:D91" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D71">
-    <sortCondition ref="B1:B71"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
+  <autoFilter ref="A1:D90" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D70">
+    <sortCondition ref="B1:B70"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -967,10 +973,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H91"/>
+  <dimension ref="A1:H90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="B100" sqref="B100"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="A51" sqref="A51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1322,7 +1328,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>29</v>
@@ -1330,7 +1336,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>29</v>
@@ -1338,470 +1344,483 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C37" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" s="14" customFormat="1">
+      <c r="A38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C37" s="14" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" s="9" t="s">
-        <v>131</v>
-      </c>
-      <c r="B38" s="10">
+      <c r="B38" s="14">
         <v>0.1</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="11"/>
+      <c r="C38" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D38" s="13"/>
     </row>
     <row r="39" spans="1:4" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>135</v>
+        <v>132</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4">
-      <c r="A40" s="12"/>
-      <c r="B40" s="10"/>
-      <c r="C40" s="10"/>
-      <c r="D40" s="11"/>
+      <c r="A40" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="B40" s="3">
+        <v>0.2</v>
+      </c>
+      <c r="C40" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B41" s="3">
-        <v>0.2</v>
-      </c>
-      <c r="C41" s="14"/>
+        <v>0.3</v>
+      </c>
+      <c r="C41" s="14" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="42" spans="1:4">
       <c r="A42" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="B42" s="3">
-        <v>0.3</v>
+        <v>134</v>
       </c>
       <c r="C42" s="14"/>
-    </row>
-    <row r="43" spans="1:4">
-      <c r="A43" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B43" s="3">
-        <v>1</v>
+      <c r="D42" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" ht="30">
+      <c r="A43" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C43" s="14"/>
+      <c r="D43" s="13" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B45" s="3">
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:4" s="10" customFormat="1">
-      <c r="A45" s="9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B45" s="10">
-        <v>3</v>
-      </c>
-      <c r="D45" s="11"/>
-    </row>
-    <row r="46" spans="1:4" s="10" customFormat="1">
-      <c r="A46" s="9" t="s">
-        <v>120</v>
-      </c>
-      <c r="B46" s="10">
-        <v>4</v>
-      </c>
-      <c r="D46" s="11"/>
+    <row r="46" spans="1:4">
+      <c r="A46" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B46" s="3">
+        <v>5</v>
+      </c>
+      <c r="D46" s="4" t="s">
+        <v>61</v>
+      </c>
     </row>
     <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>10</v>
+      <c r="A47" s="12" t="s">
+        <v>138</v>
       </c>
       <c r="B47" s="3">
-        <v>5</v>
-      </c>
-      <c r="D47" s="4" t="s">
-        <v>61</v>
+        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>92</v>
+        <v>9</v>
       </c>
       <c r="B48" s="3">
-        <v>6</v>
+        <v>6.5</v>
+      </c>
+      <c r="D48" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>9</v>
+        <v>94</v>
       </c>
       <c r="B49" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>90</v>
+        <v>7</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="2" t="s">
-        <v>95</v>
+        <v>17</v>
       </c>
       <c r="B50" s="3">
-        <v>7</v>
+        <v>8</v>
+      </c>
+      <c r="D50" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>17</v>
+        <v>62</v>
       </c>
       <c r="B51" s="3">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>89</v>
+        <v>63</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>62</v>
+        <v>101</v>
       </c>
       <c r="B52" s="3">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D52" s="4" t="s">
-        <v>63</v>
+        <v>102</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
-        <v>102</v>
+      <c r="A53" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B53" s="3">
-        <v>10</v>
-      </c>
-      <c r="D53" s="4" t="s">
-        <v>103</v>
+        <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="12" t="s">
-        <v>123</v>
+      <c r="A54" s="2" t="s">
+        <v>105</v>
       </c>
       <c r="B54" s="3">
-        <v>12</v>
+        <v>13</v>
+      </c>
+      <c r="D54" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>106</v>
+        <v>7</v>
       </c>
       <c r="B55" s="3">
-        <v>13</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>107</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B56" s="3">
-        <v>14</v>
+        <v>15</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="B57" s="3">
-        <v>15</v>
+        <v>16</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>13</v>
+        <v>95</v>
       </c>
       <c r="B58" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>96</v>
+        <v>11</v>
       </c>
       <c r="B59" s="3">
-        <v>17</v>
+        <v>18</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B60" s="3">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>14</v>
+        <v>56</v>
       </c>
       <c r="B61" s="3">
-        <v>19</v>
+        <v>20</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>56</v>
+      <c r="A62" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B62" s="3">
-        <v>20</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>57</v>
+        <v>21</v>
+      </c>
+      <c r="D62" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>116</v>
+      <c r="A63" s="2" t="s">
+        <v>16</v>
       </c>
       <c r="B63" s="3">
-        <v>21</v>
-      </c>
-      <c r="D63" s="13" t="s">
-        <v>117</v>
+        <v>22</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>16</v>
+      <c r="A64" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="B64" s="3">
-        <v>22</v>
+        <v>23</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>126</v>
+      <c r="A65" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B65" s="3">
-        <v>23</v>
-      </c>
-      <c r="D65" s="4" t="s">
-        <v>93</v>
+        <v>24</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B66" s="3">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="D66" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>39</v>
+        <v>6</v>
       </c>
       <c r="B67" s="3">
-        <v>25</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>40</v>
+        <v>26</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>6</v>
+      <c r="A68" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B68" s="3">
-        <v>26</v>
+        <v>27</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B69" s="3">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>122</v>
+      <c r="A70" s="2" t="s">
+        <v>54</v>
       </c>
       <c r="B70" s="3">
-        <v>28</v>
+        <v>29</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>54</v>
+        <v>59</v>
       </c>
       <c r="B71" s="3">
-        <v>29</v>
-      </c>
-      <c r="D71" s="4" t="s">
-        <v>55</v>
+        <v>30</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="B72" s="3">
-        <v>30</v>
+        <v>31</v>
+      </c>
+      <c r="D72" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>71</v>
+        <v>85</v>
       </c>
       <c r="B73" s="3">
-        <v>31</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>125</v>
+        <v>32</v>
+      </c>
+      <c r="D73" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>85</v>
+        <v>93</v>
       </c>
       <c r="B74" s="3">
-        <v>32</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>86</v>
+        <v>33</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>94</v>
+        <v>99</v>
       </c>
       <c r="B75" s="3">
-        <v>33</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>124</v>
+        <v>34</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B76" s="3">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>104</v>
+      <c r="A77" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B77" s="3">
-        <v>35</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>105</v>
+        <v>36</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="12" t="s">
-        <v>114</v>
+      <c r="A78" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="B78" s="3">
-        <v>36</v>
-      </c>
-      <c r="D78" s="13" t="s">
-        <v>115</v>
+        <v>37</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B79" s="3">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>79</v>
+      <c r="A80" s="12" t="s">
+        <v>117</v>
       </c>
       <c r="B80" s="3">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>118</v>
+      <c r="A81" s="2" t="s">
+        <v>69</v>
       </c>
       <c r="B81" s="3">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B82" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B83" s="3">
         <v>41</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" ht="30">
+      <c r="A83" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B83" s="10"/>
+      <c r="C83" s="10"/>
+      <c r="D83" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="84" spans="1:4" ht="30">
       <c r="A84" s="9" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="B84" s="10"/>
       <c r="C84" s="10"/>
       <c r="D84" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" ht="30">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" s="10" customFormat="1">
       <c r="A85" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B85" s="10"/>
-      <c r="C85" s="10"/>
+        <v>18</v>
+      </c>
       <c r="D85" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4" s="10" customFormat="1">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
       <c r="A86" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D86" s="11" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="B86" s="10"/>
+      <c r="C86" s="10"/>
+      <c r="D86" s="11"/>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="9" t="s">
-        <v>21</v>
+        <v>107</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
-      <c r="D87" s="11"/>
+      <c r="D87" s="11" t="s">
+        <v>110</v>
+      </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
@@ -1810,33 +1829,23 @@
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="89" spans="1:4">
-      <c r="A89" s="9" t="s">
-        <v>109</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11" t="s">
-        <v>110</v>
+      <c r="A89" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="D91" s="13" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
   </sheetData>
@@ -1868,17 +1877,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18528"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="139">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
   <si>
     <t>Feature</t>
   </si>
@@ -442,6 +442,24 @@
   </si>
   <si>
     <t>toggle Color by type/state</t>
+  </si>
+  <si>
+    <t>allocations using resource should be deleted, typed objects should be deleted</t>
+  </si>
+  <si>
+    <t>Deleting a Resource/types in use</t>
+  </si>
+  <si>
+    <t>Check "Label already exists"</t>
+  </si>
+  <si>
+    <t>when deleting label, if label is in use</t>
+  </si>
+  <si>
+    <t>don’t delete entity using label, but remove label from it's label list</t>
+  </si>
+  <si>
+    <t>deny delete operation on TaskType if it is used</t>
   </si>
 </sst>
 </file>
@@ -661,8 +679,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D90" totalsRowShown="0">
-  <autoFilter ref="A1:D90" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D94" totalsRowShown="0">
+  <autoFilter ref="A1:D94" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D70">
     <sortCondition ref="B1:B70"/>
   </sortState>
@@ -973,10 +991,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H90"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="A51" sqref="A51"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A95" sqref="A95"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1846,6 +1864,32 @@
       </c>
       <c r="D90" s="13" t="s">
         <v>129</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D91" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="12" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
   <si>
     <t>Feature</t>
   </si>
@@ -444,22 +444,13 @@
     <t>toggle Color by type/state</t>
   </si>
   <si>
-    <t>allocations using resource should be deleted, typed objects should be deleted</t>
-  </si>
-  <si>
-    <t>Deleting a Resource/types in use</t>
-  </si>
-  <si>
     <t>Check "Label already exists"</t>
   </si>
   <si>
-    <t>when deleting label, if label is in use</t>
-  </si>
-  <si>
-    <t>don’t delete entity using label, but remove label from it's label list</t>
-  </si>
-  <si>
-    <t>deny delete operation on TaskType if it is used</t>
+    <t>Resource API</t>
+  </si>
+  <si>
+    <t>create an API that exposes functions that allow an external program to interact with resource consumption/acquisition</t>
   </si>
 </sst>
 </file>
@@ -679,8 +670,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D94" totalsRowShown="0">
-  <autoFilter ref="A1:D94" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D92" totalsRowShown="0">
+  <autoFilter ref="A1:D92" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D70">
     <sortCondition ref="B1:B70"/>
   </sortState>
@@ -991,10 +982,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A95" sqref="A95"/>
+      <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1868,28 +1859,15 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D91" s="13" t="s">
         <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D92" s="13" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="12" t="s">
-        <v>142</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="12" t="s">
-        <v>144</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -984,7 +984,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:H92"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
       <selection activeCell="A97" sqref="A97"/>
     </sheetView>
   </sheetViews>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
   <si>
     <t>Feature</t>
   </si>
@@ -438,9 +438,6 @@
     <t>bug</t>
   </si>
   <si>
-    <t>reproduce: select a task. Hit refresh. After refresh, can still press edit. If press edit, it opens weird old task? Should clear selected task and not allow press of edit when refresh is pressed until new task selected</t>
-  </si>
-  <si>
     <t>toggle Color by type/state</t>
   </si>
   <si>
@@ -451,6 +448,33 @@
   </si>
   <si>
     <t>create an API that exposes functions that allow an external program to interact with resource consumption/acquisition</t>
+  </si>
+  <si>
+    <t>Problem</t>
+  </si>
+  <si>
+    <t>TimeTasks need to be created entirely, not just by the current calendar view because the resources it allocates may be consumed differently outside of the view because of collisions or filters</t>
+  </si>
+  <si>
+    <t>SPOOKY LANGOLIERS. reproduce: select a task. Hit refresh. After refresh, can still press edit. If press edit, it opens weird old task? Should clear selected task and not allow press of edit when refresh is pressed until new task selected</t>
+  </si>
+  <si>
+    <t>Question</t>
+  </si>
+  <si>
+    <t>In EF is there a way to prevent the modification of certain entities?</t>
+  </si>
+  <si>
+    <t>Enforce only one time allocation</t>
+  </si>
+  <si>
+    <t>Validation? Disable add command</t>
+  </si>
+  <si>
+    <t>requires at least one allocation to be enabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">TimeTask Eager/Even/Apathetic </t>
   </si>
 </sst>
 </file>
@@ -670,10 +694,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D92" totalsRowShown="0">
-  <autoFilter ref="A1:D92" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D70">
-    <sortCondition ref="B1:B70"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D96" totalsRowShown="0">
+  <autoFilter ref="A1:D96" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D73">
+    <sortCondition ref="B1:B73"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -982,10 +1006,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H92"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="A97" sqref="A97"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A44" sqref="A44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1404,470 +1428,505 @@
         <v>29</v>
       </c>
     </row>
-    <row r="42" spans="1:4">
+    <row r="42" spans="1:4" ht="30">
       <c r="A42" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="13" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4">
+      <c r="A43" s="12" t="s">
+        <v>146</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D44" s="13" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="12" t="s">
         <v>134</v>
       </c>
-      <c r="C42" s="14"/>
-      <c r="D42" s="13" t="s">
+      <c r="C45" s="14"/>
+      <c r="D45" s="13" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="43" spans="1:4" ht="30">
-      <c r="A43" s="12" t="s">
+    <row r="46" spans="1:4" ht="30">
+      <c r="A46" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="C43" s="14"/>
-      <c r="D43" s="13" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="2" t="s">
+      <c r="C46" s="14"/>
+      <c r="D46" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4">
+      <c r="A47" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B44" s="3">
+      <c r="B47" s="3">
         <v>1</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B45" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B46" s="3">
-        <v>5</v>
-      </c>
-      <c r="D46" s="4" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B47" s="3">
-        <v>6</v>
       </c>
     </row>
     <row r="48" spans="1:4">
       <c r="A48" s="2" t="s">
-        <v>9</v>
+        <v>4</v>
       </c>
       <c r="B48" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D48" s="4" t="s">
-        <v>90</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" s="2" t="s">
-        <v>94</v>
+        <v>10</v>
       </c>
       <c r="B49" s="3">
-        <v>7</v>
+        <v>5</v>
+      </c>
+      <c r="D49" s="4" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="2" t="s">
-        <v>17</v>
+      <c r="A50" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="B50" s="3">
-        <v>8</v>
-      </c>
-      <c r="D50" s="4" t="s">
-        <v>89</v>
+        <v>6</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="2" t="s">
-        <v>62</v>
+        <v>9</v>
       </c>
       <c r="B51" s="3">
-        <v>9</v>
+        <v>6.5</v>
       </c>
       <c r="D51" s="4" t="s">
-        <v>63</v>
+        <v>90</v>
       </c>
     </row>
     <row r="52" spans="1:4">
       <c r="A52" s="2" t="s">
-        <v>101</v>
+        <v>94</v>
       </c>
       <c r="B52" s="3">
-        <v>10</v>
-      </c>
-      <c r="D52" s="4" t="s">
-        <v>102</v>
+        <v>7</v>
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="12" t="s">
-        <v>120</v>
+      <c r="A53" s="2" t="s">
+        <v>17</v>
       </c>
       <c r="B53" s="3">
-        <v>12</v>
+        <v>8</v>
+      </c>
+      <c r="D53" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="2" t="s">
-        <v>105</v>
+        <v>62</v>
       </c>
       <c r="B54" s="3">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="D54" s="4" t="s">
-        <v>106</v>
+        <v>63</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>7</v>
+        <v>101</v>
       </c>
       <c r="B55" s="3">
-        <v>14</v>
+        <v>10</v>
+      </c>
+      <c r="D55" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>8</v>
+      <c r="A56" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B56" s="3">
-        <v>15</v>
+        <v>12</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="B57" s="3">
         <v>13</v>
       </c>
-      <c r="B57" s="3">
-        <v>16</v>
+      <c r="D57" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>95</v>
+        <v>7</v>
       </c>
       <c r="B58" s="3">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="B59" s="3">
-        <v>18</v>
+        <v>15</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B60" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B61" s="3">
-        <v>20</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="12" t="s">
-        <v>115</v>
+      <c r="A62" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B62" s="3">
-        <v>21</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B63" s="3">
-        <v>22</v>
+        <v>19</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="12" t="s">
-        <v>123</v>
+      <c r="A64" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B64" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>41</v>
+      <c r="A65" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B65" s="3">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D65" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B66" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B67" s="3">
+        <v>23</v>
+      </c>
+      <c r="D67" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B68" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B69" s="3">
         <v>25</v>
       </c>
-      <c r="D66" s="13" t="s">
+      <c r="D69" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B67" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B68" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B69" s="3">
-        <v>28</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B70" s="3">
-        <v>29</v>
-      </c>
-      <c r="D70" s="4" t="s">
-        <v>55</v>
+        <v>26</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>59</v>
+      <c r="A71" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B71" s="3">
-        <v>30</v>
+        <v>27</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>71</v>
+      <c r="A72" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B72" s="3">
-        <v>31</v>
-      </c>
-      <c r="D72" s="13" t="s">
-        <v>122</v>
+        <v>28</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
       <c r="B73" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D73" s="4" t="s">
-        <v>86</v>
+        <v>55</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>93</v>
+        <v>59</v>
       </c>
       <c r="B74" s="3">
-        <v>33</v>
-      </c>
-      <c r="D74" s="13" t="s">
-        <v>121</v>
+        <v>30</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="2" t="s">
-        <v>99</v>
+        <v>71</v>
       </c>
       <c r="B75" s="3">
-        <v>34</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>103</v>
+        <v>85</v>
       </c>
       <c r="B76" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D76" s="4" t="s">
-        <v>104</v>
+        <v>86</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>113</v>
+      <c r="A77" s="2" t="s">
+        <v>93</v>
       </c>
       <c r="B77" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>114</v>
+        <v>121</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>88</v>
+        <v>99</v>
       </c>
       <c r="B78" s="3">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>79</v>
+        <v>103</v>
       </c>
       <c r="B79" s="3">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D79" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B80" s="3">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>69</v>
+        <v>88</v>
       </c>
       <c r="B81" s="3">
-        <v>40</v>
+        <v>37</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B82" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B84" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4">
+      <c r="A85" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B85" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="83" spans="1:4" ht="30">
-      <c r="A83" s="9" t="s">
+    <row r="86" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="A86" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="B83" s="10"/>
-      <c r="C83" s="10"/>
-      <c r="D83" s="11" t="s">
+      <c r="D86" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="84" spans="1:4" ht="30">
-      <c r="A84" s="9" t="s">
+    <row r="87" spans="1:4" ht="30">
+      <c r="A87" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B84" s="10"/>
-      <c r="C84" s="10"/>
-      <c r="D84" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4" s="10" customFormat="1">
-      <c r="A85" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="D85" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B86" s="10"/>
-      <c r="C86" s="10"/>
-      <c r="D86" s="11"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="9" t="s">
-        <v>107</v>
       </c>
       <c r="B87" s="10"/>
       <c r="C87" s="10"/>
       <c r="D87" s="11" t="s">
-        <v>110</v>
+        <v>53</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="9" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B88" s="10"/>
       <c r="C88" s="10"/>
       <c r="D88" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B89" s="10"/>
+      <c r="C89" s="10"/>
+      <c r="D89" s="11"/>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B90" s="10"/>
+      <c r="C90" s="10"/>
+      <c r="D90" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D89" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="12" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D95" s="13" t="s">
         <v>140</v>
       </c>
-      <c r="D92" s="13" t="s">
-        <v>141</v>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
   <si>
     <t>Feature</t>
   </si>
@@ -475,13 +475,31 @@
   </si>
   <si>
     <t xml:space="preserve">TimeTask Eager/Even/Apathetic </t>
+  </si>
+  <si>
+    <t>Allocation.MinimumBlocks</t>
+  </si>
+  <si>
+    <t>If set, causes allocation process to try to create CalendarObjects with at least this much resource so that the task isn't spread too thin across the task's range</t>
+  </si>
+  <si>
+    <t>ApatheticAllocate</t>
+  </si>
+  <si>
+    <t>Deal with other types of allocations</t>
+  </si>
+  <si>
+    <t>non-time allocations like dollar per hour, gas per dollar, etc</t>
+  </si>
+  <si>
+    <t>Test creating calobjs from task data</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -523,6 +541,14 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -544,7 +570,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -578,6 +604,13 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -694,10 +727,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D96" totalsRowShown="0">
-  <autoFilter ref="A1:D96" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D73">
-    <sortCondition ref="B1:B73"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D100" totalsRowShown="0">
+  <autoFilter ref="A1:D100" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D77">
+    <sortCondition ref="B1:B77"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1006,10 +1039,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H100"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A46" sqref="A46:D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1387,9 +1420,6 @@
       <c r="A38" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="B38" s="14">
-        <v>0.1</v>
-      </c>
       <c r="C38" s="14" t="s">
         <v>29</v>
       </c>
@@ -1410,9 +1440,6 @@
       <c r="A40" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="B40" s="3">
-        <v>0.2</v>
-      </c>
       <c r="C40" s="14" t="s">
         <v>29</v>
       </c>
@@ -1421,9 +1448,6 @@
       <c r="A41" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="B41" s="3">
-        <v>0.3</v>
-      </c>
       <c r="C41" s="14" t="s">
         <v>29</v>
       </c>
@@ -1441,491 +1465,534 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4">
+      <c r="A44" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="B44" s="3">
+        <v>1</v>
+      </c>
+      <c r="C44" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4">
+      <c r="A45" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="B45" s="3">
+        <v>2</v>
+      </c>
+      <c r="C45" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4">
+      <c r="A46" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="B46" s="16"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="17"/>
+    </row>
+    <row r="47" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="A47" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="14"/>
+      <c r="D47" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4">
+      <c r="A48" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D43" s="13" t="s">
+      <c r="D48" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="44" spans="1:4">
-      <c r="A44" s="12" t="s">
+    <row r="49" spans="1:4" s="16" customFormat="1">
+      <c r="A49" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="D44" s="13" t="s">
+      <c r="B49" s="3"/>
+      <c r="C49" s="3"/>
+      <c r="D49" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="45" spans="1:4">
-      <c r="A45" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C45" s="14"/>
-      <c r="D45" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="46" spans="1:4" ht="30">
-      <c r="A46" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="C46" s="14"/>
-      <c r="D46" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="47" spans="1:4">
-      <c r="A47" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B47" s="3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="B48" s="3">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B49" s="3">
-        <v>5</v>
-      </c>
-      <c r="D49" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B50" s="3">
-        <v>6</v>
-      </c>
+        <v>152</v>
+      </c>
+      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B51" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D51" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B52" s="3">
-        <v>7</v>
+      <c r="A51" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" ht="30">
+      <c r="A52" s="9" t="s">
+        <v>150</v>
+      </c>
+      <c r="B52" s="10"/>
+      <c r="C52" s="10"/>
+      <c r="D52" s="11" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="2" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B53" s="3">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="D53" s="4" t="s">
-        <v>89</v>
+        <v>61</v>
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>62</v>
+      <c r="A54" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="B54" s="3">
-        <v>9</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>63</v>
+        <v>6</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="2" t="s">
-        <v>101</v>
+        <v>9</v>
       </c>
       <c r="B55" s="3">
-        <v>10</v>
+        <v>6.5</v>
       </c>
       <c r="D55" s="4" t="s">
-        <v>102</v>
+        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="12" t="s">
-        <v>120</v>
+      <c r="A56" s="2" t="s">
+        <v>94</v>
       </c>
       <c r="B56" s="3">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>105</v>
+        <v>17</v>
       </c>
       <c r="B57" s="3">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="D57" s="4" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>7</v>
+        <v>62</v>
       </c>
       <c r="B58" s="3">
-        <v>14</v>
+        <v>9</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>8</v>
+        <v>101</v>
       </c>
       <c r="B59" s="3">
-        <v>15</v>
+        <v>10</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
-        <v>13</v>
+      <c r="A60" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B60" s="3">
-        <v>16</v>
+        <v>12</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>95</v>
+        <v>105</v>
       </c>
       <c r="B61" s="3">
-        <v>17</v>
+        <v>13</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="B62" s="3">
-        <v>18</v>
+        <v>14</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B63" s="3">
-        <v>19</v>
+        <v>15</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>56</v>
+        <v>13</v>
       </c>
       <c r="B64" s="3">
-        <v>20</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>57</v>
+        <v>16</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="12" t="s">
-        <v>115</v>
+      <c r="A65" s="2" t="s">
+        <v>95</v>
       </c>
       <c r="B65" s="3">
-        <v>21</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>116</v>
+        <v>17</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
       <c r="B66" s="3">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>123</v>
+      <c r="A67" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B67" s="3">
-        <v>23</v>
-      </c>
-      <c r="D67" s="4" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B68" s="3">
-        <v>24</v>
+        <v>20</v>
+      </c>
+      <c r="D68" s="4" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>39</v>
+      <c r="A69" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B69" s="3">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="D69" s="13" t="s">
-        <v>40</v>
+        <v>116</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B70" s="3">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="12" t="s">
-        <v>118</v>
+        <v>123</v>
       </c>
       <c r="B71" s="3">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D71" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>119</v>
+      <c r="A72" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B72" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>54</v>
+        <v>39</v>
       </c>
       <c r="B73" s="3">
-        <v>29</v>
-      </c>
-      <c r="D73" s="4" t="s">
-        <v>55</v>
+        <v>25</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>59</v>
+        <v>6</v>
       </c>
       <c r="B74" s="3">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>71</v>
+      <c r="A75" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B75" s="3">
-        <v>31</v>
-      </c>
-      <c r="D75" s="13" t="s">
-        <v>122</v>
+        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>85</v>
+      <c r="A76" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B76" s="3">
-        <v>32</v>
-      </c>
-      <c r="D76" s="4" t="s">
-        <v>86</v>
+        <v>28</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="2" t="s">
-        <v>93</v>
+        <v>54</v>
       </c>
       <c r="B77" s="3">
-        <v>33</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>121</v>
+        <v>29</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>99</v>
+        <v>59</v>
       </c>
       <c r="B78" s="3">
-        <v>34</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>100</v>
+        <v>30</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>103</v>
+        <v>71</v>
       </c>
       <c r="B79" s="3">
-        <v>35</v>
-      </c>
-      <c r="D79" s="4" t="s">
-        <v>104</v>
+        <v>31</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="12" t="s">
-        <v>113</v>
+      <c r="A80" s="2" t="s">
+        <v>85</v>
       </c>
       <c r="B80" s="3">
-        <v>36</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>114</v>
+        <v>32</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>88</v>
+        <v>93</v>
       </c>
       <c r="B81" s="3">
-        <v>37</v>
+        <v>33</v>
+      </c>
+      <c r="D81" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>79</v>
+        <v>99</v>
       </c>
       <c r="B82" s="3">
-        <v>38</v>
+        <v>34</v>
+      </c>
+      <c r="D82" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="83" spans="1:4">
-      <c r="A83" s="12" t="s">
-        <v>117</v>
+      <c r="A83" s="2" t="s">
+        <v>103</v>
       </c>
       <c r="B83" s="3">
-        <v>39</v>
+        <v>35</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>69</v>
+      <c r="A84" s="12" t="s">
+        <v>113</v>
       </c>
       <c r="B84" s="3">
-        <v>40</v>
+        <v>36</v>
+      </c>
+      <c r="D84" s="13" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B85" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B86" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B87" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4">
+      <c r="A88" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B88" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B89" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="86" spans="1:4" s="10" customFormat="1" ht="30">
-      <c r="A86" s="9" t="s">
+    <row r="90" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="A90" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D86" s="11" t="s">
+      <c r="D90" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30">
-      <c r="A87" s="9" t="s">
+    <row r="91" spans="1:4" ht="30">
+      <c r="A91" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B87" s="10"/>
-      <c r="C87" s="10"/>
-      <c r="D87" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B88" s="10"/>
-      <c r="C88" s="10"/>
-      <c r="D88" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B89" s="10"/>
-      <c r="C89" s="10"/>
-      <c r="D89" s="11"/>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B90" s="10"/>
-      <c r="C90" s="10"/>
-      <c r="D90" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="B91" s="10"/>
       <c r="C91" s="10"/>
       <c r="D91" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B92" s="10"/>
+      <c r="C92" s="10"/>
+      <c r="D92" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B93" s="10"/>
+      <c r="C93" s="10"/>
+      <c r="D93" s="11"/>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B94" s="10"/>
+      <c r="C94" s="10"/>
+      <c r="D94" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B95" s="10"/>
+      <c r="C95" s="10"/>
+      <c r="D95" s="11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D96" s="13" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4">
+      <c r="A97" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D97" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D96" s="13" t="s">
+      <c r="D100" s="13" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="200" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
   <si>
     <t>Feature</t>
   </si>
@@ -493,6 +493,9 @@
   </si>
   <si>
     <t>Test creating calobjs from task data</t>
+  </si>
+  <si>
+    <t>time pattern where clauses are not saving/retrieving the correct equivalency</t>
   </si>
 </sst>
 </file>
@@ -570,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -604,13 +607,7 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -727,10 +724,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D100" totalsRowShown="0">
-  <autoFilter ref="A1:D100" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D77">
-    <sortCondition ref="B1:B77"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D101" totalsRowShown="0">
+  <autoFilter ref="A1:D101" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D78">
+    <sortCondition ref="B1:B78"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1039,10 +1036,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H100"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A46" sqref="A46:D46"/>
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1496,503 +1493,509 @@
         <v>29</v>
       </c>
     </row>
-    <row r="46" spans="1:4">
-      <c r="A46" s="15" t="s">
+    <row r="46" spans="1:4" s="14" customFormat="1">
+      <c r="A46" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="B46" s="16"/>
-      <c r="C46" s="16"/>
-      <c r="D46" s="17"/>
-    </row>
-    <row r="47" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="D46" s="13"/>
+    </row>
+    <row r="47" spans="1:4" s="14" customFormat="1">
       <c r="A47" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="B47" s="3"/>
-      <c r="C47" s="14"/>
       <c r="D47" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="A48" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="14"/>
+      <c r="D48" s="13" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="48" spans="1:4">
-      <c r="A48" s="12" t="s">
+    <row r="49" spans="1:4">
+      <c r="A49" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="D48" s="13" t="s">
+      <c r="D49" s="13" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="49" spans="1:4" s="16" customFormat="1">
-      <c r="A49" s="12" t="s">
+    <row r="50" spans="1:4" s="15" customFormat="1">
+      <c r="A50" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="B49" s="3"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="13" t="s">
+      <c r="B50" s="3"/>
+      <c r="C50" s="3"/>
+      <c r="D50" s="13" t="s">
         <v>148</v>
       </c>
-    </row>
-    <row r="50" spans="1:4">
-      <c r="A50" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D50" s="13"/>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D51" s="13"/>
+    </row>
+    <row r="52" spans="1:4">
+      <c r="A52" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="D51" s="13" t="s">
+      <c r="D52" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="52" spans="1:4" ht="30">
-      <c r="A52" s="9" t="s">
+    <row r="53" spans="1:4" ht="30">
+      <c r="A53" s="9" t="s">
         <v>150</v>
       </c>
-      <c r="B52" s="10"/>
-      <c r="C52" s="10"/>
-      <c r="D52" s="11" t="s">
+      <c r="B53" s="10"/>
+      <c r="C53" s="10"/>
+      <c r="D53" s="11" t="s">
         <v>151</v>
       </c>
     </row>
-    <row r="53" spans="1:4">
-      <c r="A53" s="2" t="s">
+    <row r="54" spans="1:4">
+      <c r="A54" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="B53" s="3">
+      <c r="B54" s="3">
         <v>5</v>
       </c>
-      <c r="D53" s="4" t="s">
+      <c r="D54" s="4" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="12" t="s">
+    <row r="55" spans="1:4">
+      <c r="A55" s="12" t="s">
         <v>137</v>
       </c>
-      <c r="B54" s="3">
+      <c r="B55" s="3">
         <v>6</v>
-      </c>
-    </row>
-    <row r="55" spans="1:4">
-      <c r="A55" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="B55" s="3">
-        <v>6.5</v>
-      </c>
-      <c r="D55" s="4" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>94</v>
+        <v>9</v>
       </c>
       <c r="B56" s="3">
-        <v>7</v>
+        <v>6.5</v>
+      </c>
+      <c r="D56" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="2" t="s">
-        <v>17</v>
+        <v>94</v>
       </c>
       <c r="B57" s="3">
-        <v>8</v>
-      </c>
-      <c r="D57" s="4" t="s">
-        <v>89</v>
+        <v>7</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>62</v>
+        <v>17</v>
       </c>
       <c r="B58" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>63</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="B59" s="3">
+        <v>9</v>
+      </c>
+      <c r="D59" s="4" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4">
+      <c r="A60" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B60" s="3">
         <v>10</v>
       </c>
-      <c r="D59" s="4" t="s">
+      <c r="D60" s="4" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="12" t="s">
+    <row r="61" spans="1:4">
+      <c r="A61" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B61" s="3">
         <v>12</v>
-      </c>
-    </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="B61" s="3">
-        <v>13</v>
-      </c>
-      <c r="D61" s="4" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>7</v>
+        <v>105</v>
       </c>
       <c r="B62" s="3">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D62" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B63" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B64" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>95</v>
+        <v>13</v>
       </c>
       <c r="B65" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>11</v>
+        <v>95</v>
       </c>
       <c r="B66" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B67" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B68" s="3">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="B68" s="3">
+      <c r="B69" s="3">
         <v>20</v>
       </c>
-      <c r="D68" s="4" t="s">
+      <c r="D69" s="4" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
+    <row r="70" spans="1:4">
+      <c r="A70" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="B69" s="3">
+      <c r="B70" s="3">
         <v>21</v>
       </c>
-      <c r="D69" s="13" t="s">
+      <c r="D70" s="13" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B70" s="3">
+      <c r="B71" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
+    <row r="72" spans="1:4">
+      <c r="A72" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="B71" s="3">
+      <c r="B72" s="3">
         <v>23</v>
       </c>
-      <c r="D71" s="4" t="s">
+      <c r="D72" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4">
-      <c r="A72" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B72" s="3">
-        <v>24</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B73" s="3">
-        <v>25</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B74" s="3">
+        <v>25</v>
+      </c>
+      <c r="D74" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B75" s="3">
         <v>26</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B75" s="3">
-        <v>27</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B76" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="B76" s="3">
+      <c r="B77" s="3">
         <v>28</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="B77" s="3">
-        <v>29</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="B78" s="3">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D78" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="B79" s="3">
-        <v>31</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>122</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>85</v>
+        <v>71</v>
       </c>
       <c r="B80" s="3">
-        <v>32</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>86</v>
+        <v>31</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="2" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B81" s="3">
-        <v>33</v>
-      </c>
-      <c r="D81" s="13" t="s">
-        <v>121</v>
+        <v>32</v>
+      </c>
+      <c r="D81" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="2" t="s">
-        <v>99</v>
+        <v>93</v>
       </c>
       <c r="B82" s="3">
-        <v>34</v>
-      </c>
-      <c r="D82" s="4" t="s">
-        <v>100</v>
+        <v>33</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="B83" s="3">
+        <v>34</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="B83" s="3">
+      <c r="B84" s="3">
         <v>35</v>
       </c>
-      <c r="D83" s="4" t="s">
+      <c r="D84" s="4" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
+    <row r="85" spans="1:4">
+      <c r="A85" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="B84" s="3">
+      <c r="B85" s="3">
         <v>36</v>
       </c>
-      <c r="D84" s="13" t="s">
+      <c r="D85" s="13" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:4">
-      <c r="A85" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B85" s="3">
-        <v>37</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B86" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B87" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="12" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
         <v>117</v>
       </c>
-      <c r="B87" s="3">
+      <c r="B88" s="3">
         <v>39</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="B88" s="3">
-        <v>40</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B90" s="3">
         <v>41</v>
       </c>
     </row>
-    <row r="90" spans="1:4" s="10" customFormat="1" ht="30">
-      <c r="A90" s="9" t="s">
+    <row r="91" spans="1:4" s="10" customFormat="1" ht="30">
+      <c r="A91" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="D90" s="11" t="s">
+      <c r="D91" s="11" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="91" spans="1:4" ht="30">
-      <c r="A91" s="9" t="s">
+    <row r="92" spans="1:4" ht="30">
+      <c r="A92" s="9" t="s">
         <v>52</v>
-      </c>
-      <c r="B91" s="10"/>
-      <c r="C91" s="10"/>
-      <c r="D91" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4">
-      <c r="A92" s="9" t="s">
-        <v>18</v>
       </c>
       <c r="B92" s="10"/>
       <c r="C92" s="10"/>
       <c r="D92" s="11" t="s">
-        <v>42</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B93" s="10"/>
       <c r="C93" s="10"/>
-      <c r="D93" s="11"/>
+      <c r="D93" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="9" t="s">
-        <v>107</v>
+        <v>21</v>
       </c>
       <c r="B94" s="10"/>
       <c r="C94" s="10"/>
-      <c r="D94" s="11" t="s">
-        <v>110</v>
-      </c>
+      <c r="D94" s="11"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="9" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B95" s="10"/>
       <c r="C95" s="10"/>
       <c r="D95" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="11" t="s">
         <v>109</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D96" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>138</v>
+        <v>130</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D100" s="13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="12" t="s">
         <v>144</v>
       </c>
-      <c r="D100" s="13" t="s">
+      <c r="D101" s="13" t="s">
         <v>145</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="169">
   <si>
     <t>Feature</t>
   </si>
@@ -462,9 +462,6 @@
     <t>Question</t>
   </si>
   <si>
-    <t>In EF is there a way to prevent the modification of certain entities?</t>
-  </si>
-  <si>
     <t>Enforce only one time allocation</t>
   </si>
   <si>
@@ -496,6 +493,45 @@
   </si>
   <si>
     <t>time pattern where clauses are not saving/retrieving the correct equivalency</t>
+  </si>
+  <si>
+    <t>Time Resources UI stuff</t>
+  </si>
+  <si>
+    <t>color Time resources differently (V). Don't allow time resources to be modified (VM).</t>
+  </si>
+  <si>
+    <t>Add lots of stuff to seed method</t>
+  </si>
+  <si>
+    <t>Holiday patterns, more labels, task types, time resources, other resources</t>
+  </si>
+  <si>
+    <t>If I can make it so time resources are distinctly different than other resources, couldn't I do the same for TaskTypes? Is there any reason that TaskTypes must be a separate entity from Labels? It's not bad that they are. I don't want other labels in the tasktype list and I don't want tasktypes in the labels list, so theres no point in making them labels.</t>
+  </si>
+  <si>
+    <t>Data Analysis of Resource allocations/ consumption</t>
+  </si>
+  <si>
+    <t>Let me select a set of labeledentities and let me add a certain label to all of them with one click. At the same time, show me a list of all common labels amoung them and let me delete each.</t>
+  </si>
+  <si>
+    <t>better editors regarding labels</t>
+  </si>
+  <si>
+    <t>Show me all of the entities that are labeled with a certain label</t>
+  </si>
+  <si>
+    <t>LabeledEntitiesView</t>
+  </si>
+  <si>
+    <t>Loading scalability</t>
+  </si>
+  <si>
+    <t>Instead of loading everything and blocking, load only enough to fit the screen, load in the background, allow me to use the program even while it is loading rows.</t>
+  </si>
+  <si>
+    <t>In EF is there a way to prevent the modification of certain entities? No just do it from VM</t>
   </si>
 </sst>
 </file>
@@ -724,10 +760,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D101" totalsRowShown="0">
-  <autoFilter ref="A1:D101" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D78">
-    <sortCondition ref="B1:B78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D107" totalsRowShown="0">
+  <autoFilter ref="A1:D107" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D83">
+    <sortCondition ref="B1:B83"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1036,10 +1072,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:H107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C53" sqref="C53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1495,508 +1531,602 @@
     </row>
     <row r="46" spans="1:4" s="14" customFormat="1">
       <c r="A46" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="C46" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D46" s="13" t="s">
         <v>155</v>
       </c>
-      <c r="D46" s="13"/>
-    </row>
-    <row r="47" spans="1:4" s="14" customFormat="1">
+    </row>
+    <row r="47" spans="1:4" s="14" customFormat="1" ht="30">
       <c r="A47" s="12" t="s">
         <v>136</v>
       </c>
+      <c r="B47" s="3"/>
+      <c r="C47" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D47" s="13" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" s="10" customFormat="1">
+      <c r="A48" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="B48" s="3"/>
+      <c r="C48" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D48" s="13" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" s="10" customFormat="1">
+      <c r="A49" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B49" s="3"/>
+      <c r="C49" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D49" s="4"/>
+    </row>
+    <row r="50" spans="1:4">
+      <c r="A50" s="12" t="s">
+        <v>144</v>
+      </c>
+      <c r="C50" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D50" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" s="15" customFormat="1">
+      <c r="A51" s="12" t="s">
         <v>156</v>
       </c>
-    </row>
-    <row r="48" spans="1:4" s="10" customFormat="1" ht="30">
-      <c r="A48" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B48" s="3"/>
-      <c r="C48" s="14"/>
-      <c r="D48" s="13" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="49" spans="1:4">
-      <c r="A49" s="12" t="s">
+      <c r="B51" s="14"/>
+      <c r="C51" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D51" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" s="15" customFormat="1">
+      <c r="A52" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B52" s="3"/>
+      <c r="C52" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D52" s="13" t="s">
         <v>146</v>
       </c>
-      <c r="D49" s="13" t="s">
+    </row>
+    <row r="53" spans="1:4">
+      <c r="A53" s="12" t="s">
+        <v>154</v>
+      </c>
+      <c r="B53" s="14"/>
+      <c r="C53" s="14"/>
+      <c r="D53" s="13"/>
+    </row>
+    <row r="54" spans="1:4">
+      <c r="A54" s="12" t="s">
+        <v>148</v>
+      </c>
+      <c r="D54" s="13" t="s">
         <v>147</v>
-      </c>
-    </row>
-    <row r="50" spans="1:4" s="15" customFormat="1">
-      <c r="A50" s="12" t="s">
-        <v>149</v>
-      </c>
-      <c r="B50" s="3"/>
-      <c r="C50" s="3"/>
-      <c r="D50" s="13" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4">
-      <c r="A51" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="D51" s="13"/>
-    </row>
-    <row r="52" spans="1:4">
-      <c r="A52" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D52" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" ht="30">
-      <c r="A53" s="9" t="s">
-        <v>150</v>
-      </c>
-      <c r="B53" s="10"/>
-      <c r="C53" s="10"/>
-      <c r="D53" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="54" spans="1:4">
-      <c r="A54" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B54" s="3">
-        <v>5</v>
-      </c>
-      <c r="D54" s="4" t="s">
-        <v>61</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="12" t="s">
-        <v>137</v>
-      </c>
-      <c r="B55" s="3">
-        <v>6</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B56" s="3">
-        <v>6.5</v>
+        <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>90</v>
+        <v>61</v>
       </c>
     </row>
     <row r="57" spans="1:4">
-      <c r="A57" s="2" t="s">
-        <v>94</v>
+      <c r="A57" s="12" t="s">
+        <v>137</v>
       </c>
       <c r="B57" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B58" s="3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>62</v>
+        <v>94</v>
       </c>
       <c r="B59" s="3">
-        <v>9</v>
-      </c>
-      <c r="D59" s="4" t="s">
-        <v>63</v>
+        <v>7</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" s="2" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="B60" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>102</v>
+        <v>89</v>
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="12" t="s">
-        <v>120</v>
+      <c r="A61" s="2" t="s">
+        <v>62</v>
       </c>
       <c r="B61" s="3">
-        <v>12</v>
+        <v>9</v>
+      </c>
+      <c r="D61" s="4" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="B62" s="3">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="2" t="s">
-        <v>7</v>
+      <c r="A63" s="12" t="s">
+        <v>120</v>
       </c>
       <c r="B63" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>8</v>
+        <v>105</v>
       </c>
       <c r="B64" s="3">
-        <v>15</v>
+        <v>13</v>
+      </c>
+      <c r="D64" s="4" t="s">
+        <v>106</v>
       </c>
     </row>
     <row r="65" spans="1:4">
       <c r="A65" s="2" t="s">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="B65" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
-        <v>95</v>
+        <v>8</v>
       </c>
       <c r="B66" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B67" s="3">
-        <v>18</v>
+      <c r="A67" s="12" t="s">
+        <v>152</v>
+      </c>
+      <c r="D67" s="13" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B68" s="3">
-        <v>19</v>
+        <v>16</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>56</v>
+        <v>95</v>
       </c>
       <c r="B69" s="3">
-        <v>20</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>57</v>
+        <v>17</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>115</v>
+      <c r="A70" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="B70" s="3">
-        <v>21</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>116</v>
+        <v>18</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B71" s="3">
-        <v>22</v>
+        <v>19</v>
+      </c>
+      <c r="D71" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="12" t="s">
-        <v>123</v>
+      <c r="A72" s="2" t="s">
+        <v>56</v>
       </c>
       <c r="B72" s="3">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>92</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="2" t="s">
-        <v>41</v>
+      <c r="A73" s="12" t="s">
+        <v>115</v>
       </c>
       <c r="B73" s="3">
-        <v>24</v>
+        <v>21</v>
+      </c>
+      <c r="D73" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B74" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4">
+      <c r="A75" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B75" s="3">
+        <v>23</v>
+      </c>
+      <c r="D75" s="4" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4">
+      <c r="A76" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B76" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4">
+      <c r="A77" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="B74" s="3">
+      <c r="B77" s="3">
         <v>25</v>
       </c>
-      <c r="D74" s="13" t="s">
+      <c r="D77" s="13" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="75" spans="1:4">
-      <c r="A75" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B75" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="76" spans="1:4">
-      <c r="A76" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B76" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="77" spans="1:4">
-      <c r="A77" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B77" s="3">
-        <v>28</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>54</v>
+        <v>6</v>
       </c>
       <c r="B78" s="3">
-        <v>29</v>
-      </c>
-      <c r="D78" s="4" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="79" spans="1:4">
-      <c r="A79" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B79" s="3">
-        <v>30</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" ht="30">
+      <c r="A79" s="12" t="s">
+        <v>163</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="B80" s="3">
-        <v>31</v>
+      <c r="A80" s="12" t="s">
+        <v>165</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>122</v>
+        <v>164</v>
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="2" t="s">
-        <v>85</v>
+      <c r="A81" s="12" t="s">
+        <v>118</v>
       </c>
       <c r="B81" s="3">
-        <v>32</v>
-      </c>
-      <c r="D81" s="4" t="s">
-        <v>86</v>
+        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
-        <v>93</v>
+      <c r="A82" s="12" t="s">
+        <v>119</v>
       </c>
       <c r="B82" s="3">
-        <v>33</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>121</v>
+        <v>28</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
-        <v>99</v>
+        <v>54</v>
       </c>
       <c r="B83" s="3">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D83" s="4" t="s">
-        <v>100</v>
+        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>103</v>
+        <v>59</v>
       </c>
       <c r="B84" s="3">
-        <v>35</v>
-      </c>
-      <c r="D84" s="4" t="s">
-        <v>104</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4">
-      <c r="A85" s="12" t="s">
-        <v>113</v>
+      <c r="A85" s="2" t="s">
+        <v>71</v>
       </c>
       <c r="B85" s="3">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>114</v>
+        <v>122</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="B86" s="3">
-        <v>37</v>
+        <v>32</v>
+      </c>
+      <c r="D86" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="87" spans="1:4">
       <c r="A87" s="2" t="s">
-        <v>79</v>
+        <v>93</v>
       </c>
       <c r="B87" s="3">
-        <v>38</v>
+        <v>33</v>
+      </c>
+      <c r="D87" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="88" spans="1:4">
-      <c r="A88" s="12" t="s">
-        <v>117</v>
+      <c r="A88" s="2" t="s">
+        <v>99</v>
       </c>
       <c r="B88" s="3">
-        <v>39</v>
+        <v>34</v>
+      </c>
+      <c r="D88" s="4" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="B89" s="3">
+        <v>35</v>
+      </c>
+      <c r="D89" s="4" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
+      <c r="A90" s="12" t="s">
+        <v>113</v>
+      </c>
+      <c r="B90" s="3">
+        <v>36</v>
+      </c>
+      <c r="D90" s="13" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="B91" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4">
+      <c r="A92" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B92" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4">
+      <c r="A93" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B93" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B89" s="3">
+      <c r="B94" s="3">
         <v>40</v>
       </c>
     </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
+    <row r="95" spans="1:4" s="10" customFormat="1">
+      <c r="A95" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B90" s="3">
+      <c r="B95" s="3">
         <v>41</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" s="10" customFormat="1" ht="30">
-      <c r="A91" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="92" spans="1:4" ht="30">
-      <c r="A92" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B92" s="10"/>
-      <c r="C92" s="10"/>
-      <c r="D92" s="11" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="93" spans="1:4">
-      <c r="A93" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B93" s="10"/>
-      <c r="C93" s="10"/>
-      <c r="D93" s="11" t="s">
+      <c r="C95" s="3"/>
+      <c r="D95" s="4"/>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="B96" s="3">
         <v>42</v>
       </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="9" t="s">
-        <v>21</v>
-      </c>
-      <c r="B94" s="10"/>
-      <c r="C94" s="10"/>
-      <c r="D94" s="11"/>
-    </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="9" t="s">
-        <v>107</v>
-      </c>
-      <c r="B95" s="10"/>
-      <c r="C95" s="10"/>
-      <c r="D95" s="11" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="9" t="s">
-        <v>108</v>
-      </c>
-      <c r="B96" s="10"/>
-      <c r="C96" s="10"/>
-      <c r="D96" s="11" t="s">
-        <v>109</v>
+      <c r="D96" s="13" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="12" t="s">
-        <v>124</v>
+        <v>139</v>
+      </c>
+      <c r="B97" s="3">
+        <v>43</v>
       </c>
       <c r="D97" s="13" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="12" t="s">
-        <v>130</v>
+        <v>158</v>
+      </c>
+      <c r="B98" s="3">
+        <v>44</v>
       </c>
       <c r="D98" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" ht="45">
       <c r="A99" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
+        <v>144</v>
+      </c>
+      <c r="B99" s="3">
+        <v>45</v>
+      </c>
+      <c r="C99" s="14"/>
+      <c r="D99" s="13" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" ht="30">
       <c r="A100" s="12" t="s">
-        <v>139</v>
-      </c>
+        <v>166</v>
+      </c>
+      <c r="C100" s="14"/>
       <c r="D100" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="D101" s="13" t="s">
-        <v>145</v>
+        <v>167</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" ht="30">
+      <c r="A101" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="B101" s="10"/>
+      <c r="C101" s="10"/>
+      <c r="D101" s="11" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" ht="30">
+      <c r="A102" s="9" t="s">
+        <v>43</v>
+      </c>
+      <c r="B102" s="10"/>
+      <c r="C102" s="10"/>
+      <c r="D102" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" ht="30">
+      <c r="A103" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="B103" s="10"/>
+      <c r="C103" s="10"/>
+      <c r="D103" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="9" t="s">
+        <v>18</v>
+      </c>
+      <c r="B104" s="10"/>
+      <c r="C104" s="10"/>
+      <c r="D104" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B105" s="10"/>
+      <c r="C105" s="10"/>
+      <c r="D105" s="11"/>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B106" s="10"/>
+      <c r="C106" s="10"/>
+      <c r="D106" s="11" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="9" t="s">
+        <v>108</v>
+      </c>
+      <c r="B107" s="10"/>
+      <c r="C107" s="10"/>
+      <c r="D107" s="11" t="s">
+        <v>109</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="173">
   <si>
     <t>Feature</t>
   </si>
@@ -156,9 +156,6 @@
     <t>separate spinners for year month day time</t>
   </si>
   <si>
-    <t>Continuous Day Panel</t>
-  </si>
-  <si>
     <t>Identical to a Day panel, but not restricted to a single day, update Date and watermark to date with most area, when midnight passes viewport middle. Update extent range to 3 days before, current, after</t>
   </si>
   <si>
@@ -532,6 +529,21 @@
   </si>
   <si>
     <t>In EF is there a way to prevent the modification of certain entities? No just do it from VM</t>
+  </si>
+  <si>
+    <t>MonthPanel</t>
+  </si>
+  <si>
+    <t>YearPanel</t>
+  </si>
+  <si>
+    <t>Continuous Panel</t>
+  </si>
+  <si>
+    <t>LoadingView as separate window</t>
+  </si>
+  <si>
+    <t>Run in a separate borderless window fixed on the parent window in a different thread. See: project "LoadingOverlay"</t>
   </si>
 </sst>
 </file>
@@ -760,8 +772,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D107" totalsRowShown="0">
-  <autoFilter ref="A1:D107" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D110" totalsRowShown="0">
+  <autoFilter ref="A1:D110" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <sortState ref="A2:D83">
     <sortCondition ref="B1:B83"/>
   </sortState>
@@ -1072,10 +1084,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H107"/>
+  <dimension ref="A1:H110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C53" sqref="C53"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A105" sqref="A105"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1175,59 +1187,59 @@
     </row>
     <row r="10" spans="1:4" ht="30">
       <c r="A10" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>50</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D11" s="4" t="s">
         <v>45</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D12" s="4" t="s">
         <v>48</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1">
@@ -1239,7 +1251,7 @@
         <v>29</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="5" customFormat="1">
@@ -1254,14 +1266,14 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1">
@@ -1276,7 +1288,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1284,29 +1296,29 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>82</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -1314,7 +1326,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -1328,7 +1340,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
@@ -1336,7 +1348,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -1350,18 +1362,18 @@
         <v>29</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1374,7 +1386,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -1406,7 +1418,7 @@
         <v>29</v>
       </c>
       <c r="D32" s="4" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="33" spans="1:4">
@@ -1427,7 +1439,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>29</v>
@@ -1435,7 +1447,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>29</v>
@@ -1443,7 +1455,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>29</v>
@@ -1451,7 +1463,7 @@
     </row>
     <row r="38" spans="1:4" s="14" customFormat="1">
       <c r="A38" s="12" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>29</v>
@@ -1460,18 +1472,18 @@
     </row>
     <row r="39" spans="1:4" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C39" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="13" t="s">
         <v>132</v>
-      </c>
-      <c r="C39" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="13" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>29</v>
@@ -1479,7 +1491,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>29</v>
@@ -1487,29 +1499,29 @@
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D42" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="C42" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D42" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>29</v>
+      </c>
+      <c r="D43" s="13" t="s">
         <v>134</v>
-      </c>
-      <c r="C43" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="D43" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -1531,42 +1543,42 @@
     </row>
     <row r="46" spans="1:4" s="14" customFormat="1">
       <c r="A46" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="14" customFormat="1" ht="30">
       <c r="A47" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="14" t="s">
@@ -1576,42 +1588,42 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="15" customFormat="1">
       <c r="A51" s="12" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="15" customFormat="1">
       <c r="A52" s="12" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="12" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14"/>
@@ -1619,15 +1631,15 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="12" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="D55" s="13"/>
     </row>
@@ -1639,12 +1651,12 @@
         <v>5</v>
       </c>
       <c r="D56" s="4" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="B57" s="3">
         <v>6</v>
@@ -1658,12 +1670,12 @@
         <v>6.5</v>
       </c>
       <c r="D58" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B59" s="3">
         <v>7</v>
@@ -1677,34 +1689,34 @@
         <v>8</v>
       </c>
       <c r="D60" s="4" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="61" spans="1:4">
       <c r="A61" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B61" s="3">
         <v>9</v>
       </c>
       <c r="D61" s="4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B62" s="3">
         <v>10</v>
       </c>
       <c r="D62" s="4" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="63" spans="1:4">
       <c r="A63" s="12" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B63" s="3">
         <v>12</v>
@@ -1712,13 +1724,13 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B64" s="3">
         <v>13</v>
       </c>
       <c r="D64" s="4" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="65" spans="1:4">
@@ -1739,10 +1751,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D67" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="68" spans="1:4">
@@ -1755,7 +1767,7 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B69" s="3">
         <v>17</v>
@@ -1777,29 +1789,29 @@
         <v>19</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B72" s="3">
         <v>20</v>
       </c>
       <c r="D72" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="12" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="B73" s="3">
         <v>21</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:4">
@@ -1812,13 +1824,13 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B75" s="3">
         <v>23</v>
       </c>
       <c r="D75" s="4" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="76" spans="1:4">
@@ -1850,23 +1862,23 @@
     </row>
     <row r="79" spans="1:4" ht="30">
       <c r="A79" s="12" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="12" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D80" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B81" s="3">
         <v>27</v>
@@ -1874,7 +1886,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B82" s="3">
         <v>28</v>
@@ -1882,18 +1894,18 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B83" s="3">
+        <v>29</v>
+      </c>
+      <c r="D83" s="4" t="s">
         <v>54</v>
-      </c>
-      <c r="B83" s="3">
-        <v>29</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" s="2" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B84" s="3">
         <v>30</v>
@@ -1901,232 +1913,253 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B85" s="3">
         <v>31</v>
       </c>
       <c r="D85" s="13" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86" spans="1:4">
-      <c r="A86" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B86" s="3">
-        <v>32</v>
-      </c>
-      <c r="D86" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A86" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D86" s="13"/>
     </row>
     <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B87" s="3">
-        <v>33</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
-      <c r="A88" s="2" t="s">
-        <v>99</v>
-      </c>
-      <c r="B88" s="3">
-        <v>34</v>
-      </c>
-      <c r="D88" s="4" t="s">
-        <v>100</v>
+      <c r="A87" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="D87" s="13"/>
+    </row>
+    <row r="88" spans="1:4" ht="30">
+      <c r="A88" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B88" s="14"/>
+      <c r="C88" s="14"/>
+      <c r="D88" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="2" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="B89" s="3">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D89" s="4" t="s">
-        <v>104</v>
+        <v>85</v>
       </c>
     </row>
     <row r="90" spans="1:4">
-      <c r="A90" s="12" t="s">
-        <v>113</v>
+      <c r="A90" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B90" s="3">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="D90" s="13" t="s">
-        <v>114</v>
+        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>88</v>
+        <v>98</v>
       </c>
       <c r="B91" s="3">
-        <v>37</v>
+        <v>34</v>
+      </c>
+      <c r="D91" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>79</v>
+        <v>102</v>
       </c>
       <c r="B92" s="3">
-        <v>38</v>
+        <v>35</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="B93" s="3">
-        <v>39</v>
+        <v>36</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="B94" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="95" spans="1:4" s="10" customFormat="1">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
       <c r="A95" s="2" t="s">
-        <v>70</v>
+        <v>78</v>
       </c>
       <c r="B95" s="3">
-        <v>41</v>
-      </c>
-      <c r="C95" s="3"/>
-      <c r="D95" s="4"/>
+        <v>38</v>
+      </c>
     </row>
     <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>124</v>
+        <v>116</v>
       </c>
       <c r="B96" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" s="10" customFormat="1">
+      <c r="A97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B97" s="3">
+        <v>40</v>
+      </c>
+      <c r="C97" s="3"/>
+      <c r="D97" s="4"/>
+    </row>
+    <row r="98" spans="1:4">
+      <c r="A98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B98" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
+      <c r="A99" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B99" s="3">
         <v>42</v>
       </c>
-      <c r="D96" s="13" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="12" t="s">
+      <c r="D99" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B100" s="3">
+        <v>43</v>
+      </c>
+      <c r="D100" s="13" t="s">
         <v>139</v>
       </c>
-      <c r="B97" s="3">
-        <v>43</v>
-      </c>
-      <c r="D97" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="12" t="s">
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B101" s="3">
+        <v>44</v>
+      </c>
+      <c r="D101" s="13" t="s">
         <v>158</v>
       </c>
-      <c r="B98" s="3">
-        <v>44</v>
-      </c>
-      <c r="D98" s="13" t="s">
+    </row>
+    <row r="102" spans="1:4" ht="45">
+      <c r="A102" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B102" s="3">
+        <v>45</v>
+      </c>
+      <c r="C102" s="14"/>
+      <c r="D102" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="99" spans="1:4" ht="45">
-      <c r="A99" s="12" t="s">
-        <v>144</v>
-      </c>
-      <c r="B99" s="3">
-        <v>45</v>
-      </c>
-      <c r="C99" s="14"/>
-      <c r="D99" s="13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4" ht="30">
-      <c r="A100" s="12" t="s">
+    <row r="103" spans="1:4" ht="30">
+      <c r="A103" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C103" s="14"/>
+      <c r="D103" s="13" t="s">
         <v>166</v>
       </c>
-      <c r="C100" s="14"/>
-      <c r="D100" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4" ht="30">
-      <c r="A101" s="9" t="s">
-        <v>149</v>
-      </c>
-      <c r="B101" s="10"/>
-      <c r="C101" s="10"/>
-      <c r="D101" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4" ht="30">
-      <c r="A102" s="9" t="s">
-        <v>43</v>
-      </c>
-      <c r="B102" s="10"/>
-      <c r="C102" s="10"/>
-      <c r="D102" s="11" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30">
-      <c r="A103" s="9" t="s">
-        <v>52</v>
-      </c>
-      <c r="B103" s="10"/>
-      <c r="C103" s="10"/>
-      <c r="D103" s="11" t="s">
-        <v>53</v>
-      </c>
     </row>
     <row r="104" spans="1:4">
-      <c r="A104" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B104" s="10"/>
-      <c r="C104" s="10"/>
-      <c r="D104" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4">
+      <c r="A104" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C104" s="14"/>
+      <c r="D104" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" s="14" customFormat="1" ht="30">
       <c r="A105" s="9" t="s">
-        <v>21</v>
+        <v>148</v>
       </c>
       <c r="B105" s="10"/>
       <c r="C105" s="10"/>
-      <c r="D105" s="11"/>
-    </row>
-    <row r="106" spans="1:4">
+      <c r="D105" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" ht="30">
       <c r="A106" s="9" t="s">
-        <v>107</v>
+        <v>51</v>
       </c>
       <c r="B106" s="10"/>
       <c r="C106" s="10"/>
       <c r="D106" s="11" t="s">
-        <v>110</v>
+        <v>52</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="9" t="s">
-        <v>108</v>
+        <v>18</v>
       </c>
       <c r="B107" s="10"/>
       <c r="C107" s="10"/>
       <c r="D107" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="11"/>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="11" t="s">
         <v>109</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B110" s="10"/>
+      <c r="C110" s="10"/>
+      <c r="D110" s="11" t="s">
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2158,17 +2191,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="173">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
   <si>
     <t>Feature</t>
   </si>
@@ -544,6 +544,24 @@
   </si>
   <si>
     <t>Run in a separate borderless window fixed on the parent window in a different thread. See: project "LoadingOverlay"</t>
+  </si>
+  <si>
+    <t>Parallel</t>
+  </si>
+  <si>
+    <t>In CreateEventObjectsFromTimeTasks implement task cancellation</t>
+  </si>
+  <si>
+    <t>better allocations</t>
+  </si>
+  <si>
+    <t>indefinite tasks</t>
+  </si>
+  <si>
+    <t>allow a set amount with a rate. E.g. Spend $1000 at a rate of $200 per week. E.g. Spend 500 hours at a rate of 40 hours per week</t>
+  </si>
+  <si>
+    <t>make End optional, but must have either defined start and end, or defined start and any time allocation</t>
   </si>
 </sst>
 </file>
@@ -772,10 +790,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D110" totalsRowShown="0">
-  <autoFilter ref="A1:D110" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D83">
-    <sortCondition ref="B1:B83"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D113" totalsRowShown="0">
+  <autoFilter ref="A1:D113" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D85">
+    <sortCondition ref="B1:B85"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1084,10 +1102,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H110"/>
+  <dimension ref="A1:H113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A105" sqref="A105"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69:D71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1626,13 +1644,18 @@
         <v>153</v>
       </c>
       <c r="B53" s="14"/>
-      <c r="C53" s="14"/>
+      <c r="C53" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D53" s="13"/>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
         <v>147</v>
       </c>
+      <c r="C54" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D54" s="13" t="s">
         <v>146</v>
       </c>
@@ -1641,6 +1664,9 @@
       <c r="A55" s="12" t="s">
         <v>150</v>
       </c>
+      <c r="C55" s="14" t="s">
+        <v>29</v>
+      </c>
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
@@ -1750,415 +1776,440 @@
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D67" s="13" t="s">
-        <v>152</v>
+      <c r="A67" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B67" s="3">
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="2" t="s">
-        <v>13</v>
+        <v>94</v>
       </c>
       <c r="B68" s="3">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B69" s="3">
-        <v>17</v>
+      <c r="A69" s="12" t="s">
+        <v>175</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>177</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B70" s="3">
-        <v>18</v>
+      <c r="A70" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D70" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B71" s="3">
-        <v>19</v>
+      <c r="A71" s="12" t="s">
+        <v>151</v>
       </c>
       <c r="D71" s="13" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>55</v>
+        <v>11</v>
       </c>
       <c r="B72" s="3">
-        <v>20</v>
-      </c>
-      <c r="D72" s="4" t="s">
-        <v>56</v>
+        <v>18</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="12" t="s">
-        <v>114</v>
+      <c r="A73" s="2" t="s">
+        <v>14</v>
       </c>
       <c r="B73" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D73" s="13" t="s">
-        <v>115</v>
+        <v>160</v>
       </c>
     </row>
     <row r="74" spans="1:4">
       <c r="A74" s="2" t="s">
-        <v>16</v>
+        <v>55</v>
       </c>
       <c r="B74" s="3">
-        <v>22</v>
+        <v>20</v>
+      </c>
+      <c r="D74" s="4" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>122</v>
+        <v>114</v>
       </c>
       <c r="B75" s="3">
-        <v>23</v>
-      </c>
-      <c r="D75" s="4" t="s">
-        <v>91</v>
+        <v>21</v>
+      </c>
+      <c r="D75" s="13" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="2" t="s">
-        <v>41</v>
+        <v>16</v>
       </c>
       <c r="B76" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="2" t="s">
-        <v>39</v>
+      <c r="A77" s="12" t="s">
+        <v>122</v>
       </c>
       <c r="B77" s="3">
-        <v>25</v>
-      </c>
-      <c r="D77" s="13" t="s">
-        <v>40</v>
+        <v>23</v>
+      </c>
+      <c r="D77" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B78" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4">
+      <c r="A79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B79" s="3">
+        <v>25</v>
+      </c>
+      <c r="D79" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4">
+      <c r="A80" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B78" s="3">
+      <c r="B80" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="79" spans="1:4" ht="30">
-      <c r="A79" s="12" t="s">
+    <row r="81" spans="1:4" ht="30">
+      <c r="A81" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="D79" s="13" t="s">
+      <c r="D81" s="13" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="80" spans="1:4">
-      <c r="A80" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D80" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B81" s="3">
-        <v>27</v>
       </c>
     </row>
     <row r="82" spans="1:4">
       <c r="A82" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="D82" s="13" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4">
+      <c r="A84" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B84" s="3">
         <v>28</v>
-      </c>
-    </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B83" s="3">
-        <v>29</v>
-      </c>
-      <c r="D83" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B84" s="3">
-        <v>30</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="B85" s="3">
+        <v>29</v>
+      </c>
+      <c r="D85" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4">
+      <c r="A86" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B86" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="B85" s="3">
+      <c r="B87" s="3">
         <v>31</v>
       </c>
-      <c r="D85" s="13" t="s">
+      <c r="D87" s="13" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="86" spans="1:4">
-      <c r="A86" s="12" t="s">
+    <row r="88" spans="1:4">
+      <c r="A88" s="12" t="s">
         <v>168</v>
       </c>
-      <c r="D86" s="13"/>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="12" t="s">
+      <c r="D88" s="13"/>
+    </row>
+    <row r="89" spans="1:4">
+      <c r="A89" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="D87" s="13"/>
-    </row>
-    <row r="88" spans="1:4" ht="30">
-      <c r="A88" s="12" t="s">
+      <c r="D89" s="13"/>
+    </row>
+    <row r="90" spans="1:4" ht="30">
+      <c r="A90" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="B88" s="14"/>
-      <c r="C88" s="14"/>
-      <c r="D88" s="13" t="s">
+      <c r="B90" s="14"/>
+      <c r="C90" s="14"/>
+      <c r="D90" s="13" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4">
-      <c r="A89" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B89" s="3">
-        <v>32</v>
-      </c>
-      <c r="D89" s="4" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4">
-      <c r="A90" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B90" s="3">
-        <v>33</v>
-      </c>
-      <c r="D90" s="13" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
       </c>
       <c r="B91" s="3">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>99</v>
+        <v>85</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B92" s="3">
-        <v>35</v>
-      </c>
-      <c r="D92" s="4" t="s">
-        <v>103</v>
+        <v>33</v>
+      </c>
+      <c r="D92" s="13" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="93" spans="1:4">
-      <c r="A93" s="12" t="s">
-        <v>112</v>
+      <c r="A93" s="2" t="s">
+        <v>98</v>
       </c>
       <c r="B93" s="3">
-        <v>36</v>
-      </c>
-      <c r="D93" s="13" t="s">
-        <v>113</v>
+        <v>34</v>
+      </c>
+      <c r="D93" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="94" spans="1:4">
       <c r="A94" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="B94" s="3">
+        <v>35</v>
+      </c>
+      <c r="D94" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4">
+      <c r="A95" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B95" s="3">
+        <v>36</v>
+      </c>
+      <c r="D95" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4">
+      <c r="A96" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B94" s="3">
+      <c r="B96" s="3">
         <v>37</v>
       </c>
     </row>
-    <row r="95" spans="1:4">
-      <c r="A95" s="2" t="s">
+    <row r="97" spans="1:4">
+      <c r="A97" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B95" s="3">
+      <c r="B97" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="12" t="s">
+    <row r="98" spans="1:4">
+      <c r="A98" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="B96" s="3">
+      <c r="B98" s="3">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:4" s="10" customFormat="1">
-      <c r="A97" s="2" t="s">
+    <row r="99" spans="1:4" s="10" customFormat="1">
+      <c r="A99" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B97" s="3">
+      <c r="B99" s="3">
         <v>40</v>
       </c>
-      <c r="C97" s="3"/>
-      <c r="D97" s="4"/>
-    </row>
-    <row r="98" spans="1:4">
-      <c r="A98" s="2" t="s">
+      <c r="C99" s="3"/>
+      <c r="D99" s="4"/>
+    </row>
+    <row r="100" spans="1:4">
+      <c r="A100" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="B98" s="3">
+      <c r="B100" s="3">
         <v>41</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4">
-      <c r="A99" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B99" s="3">
-        <v>42</v>
-      </c>
-      <c r="D99" s="13" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="100" spans="1:4">
-      <c r="A100" s="12" t="s">
-        <v>138</v>
-      </c>
-      <c r="B100" s="3">
-        <v>43</v>
-      </c>
-      <c r="D100" s="13" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B101" s="3">
+        <v>42</v>
+      </c>
+      <c r="D101" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B102" s="3">
+        <v>43</v>
+      </c>
+      <c r="D102" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4">
+      <c r="A103" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="B101" s="3">
+      <c r="B103" s="3">
         <v>44</v>
       </c>
-      <c r="D101" s="13" t="s">
+      <c r="D103" s="13" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="102" spans="1:4" ht="45">
-      <c r="A102" s="12" t="s">
+    <row r="104" spans="1:4" ht="45">
+      <c r="A104" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="B102" s="3">
+      <c r="B104" s="3">
         <v>45</v>
-      </c>
-      <c r="C102" s="14"/>
-      <c r="D102" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="103" spans="1:4" ht="30">
-      <c r="A103" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C103" s="14"/>
-      <c r="D103" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4">
-      <c r="A104" s="12" t="s">
-        <v>171</v>
       </c>
       <c r="C104" s="14"/>
       <c r="D104" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" ht="30">
+      <c r="A105" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C105" s="14"/>
+      <c r="D105" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4">
+      <c r="A106" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C106" s="14"/>
+      <c r="D106" s="13" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="105" spans="1:4" s="14" customFormat="1" ht="30">
-      <c r="A105" s="9" t="s">
+    <row r="107" spans="1:4">
+      <c r="A107" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="C107" s="14"/>
+      <c r="D107" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" s="14" customFormat="1" ht="30">
+      <c r="A108" s="9" t="s">
         <v>148</v>
-      </c>
-      <c r="B105" s="10"/>
-      <c r="C105" s="10"/>
-      <c r="D105" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="106" spans="1:4" ht="30">
-      <c r="A106" s="9" t="s">
-        <v>51</v>
-      </c>
-      <c r="B106" s="10"/>
-      <c r="C106" s="10"/>
-      <c r="D106" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="B107" s="10"/>
-      <c r="C107" s="10"/>
-      <c r="D107" s="11" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="108" spans="1:4">
-      <c r="A108" s="9" t="s">
-        <v>21</v>
       </c>
       <c r="B108" s="10"/>
       <c r="C108" s="10"/>
-      <c r="D108" s="11"/>
-    </row>
-    <row r="109" spans="1:4">
+      <c r="D108" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" ht="30">
       <c r="A109" s="9" t="s">
-        <v>106</v>
+        <v>51</v>
       </c>
       <c r="B109" s="10"/>
       <c r="C109" s="10"/>
       <c r="D109" s="11" t="s">
-        <v>109</v>
+        <v>52</v>
       </c>
     </row>
     <row r="110" spans="1:4">
       <c r="A110" s="9" t="s">
-        <v>107</v>
+        <v>18</v>
       </c>
       <c r="B110" s="10"/>
       <c r="C110" s="10"/>
       <c r="D110" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B111" s="10"/>
+      <c r="C111" s="10"/>
+      <c r="D111" s="11"/>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="9" t="s">
+        <v>106</v>
+      </c>
+      <c r="B112" s="10"/>
+      <c r="C112" s="10"/>
+      <c r="D112" s="11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="9" t="s">
+        <v>107</v>
+      </c>
+      <c r="B113" s="10"/>
+      <c r="C113" s="10"/>
+      <c r="D113" s="11" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="235" uniqueCount="179">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
   <si>
     <t>Feature</t>
   </si>
@@ -562,6 +562,36 @@
   </si>
   <si>
     <t>make End optional, but must have either defined start and end, or defined start and any time allocation</t>
+  </si>
+  <si>
+    <t>CalObj.Split()</t>
+  </si>
+  <si>
+    <t>CalObj.Push()</t>
+  </si>
+  <si>
+    <t>Recalculate Allocations</t>
+  </si>
+  <si>
+    <t>enums?</t>
+  </si>
+  <si>
+    <t>Try to implement those static readonly List&lt;string&gt; as enum</t>
+  </si>
+  <si>
+    <t>pattern editor All/Any</t>
+  </si>
+  <si>
+    <t>TimePatternClause "Time Range" option</t>
+  </si>
+  <si>
+    <t>start - end</t>
+  </si>
+  <si>
+    <t>non-interactive CalObj</t>
+  </si>
+  <si>
+    <t>Generally to display stuff like holidays, don't have collisions, cant select or click</t>
   </si>
 </sst>
 </file>
@@ -790,10 +820,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D113" totalsRowShown="0">
-  <autoFilter ref="A1:D113" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D85">
-    <sortCondition ref="B1:B85"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D119" totalsRowShown="0">
+  <autoFilter ref="A1:D119" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D91">
+    <sortCondition ref="B1:B91"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1102,10 +1132,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H113"/>
+  <dimension ref="A1:H119"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69:D71"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A69" sqref="A69"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1670,546 +1700,595 @@
       <c r="D55" s="13"/>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="B56" s="3">
-        <v>5</v>
-      </c>
-      <c r="D56" s="4" t="s">
-        <v>60</v>
+      <c r="A56" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="C56" s="14"/>
+      <c r="D56" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>136</v>
-      </c>
-      <c r="B57" s="3">
-        <v>6</v>
-      </c>
+        <v>184</v>
+      </c>
+      <c r="C57" s="14"/>
+      <c r="D57" s="13"/>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B58" s="3">
+        <v>5</v>
+      </c>
+      <c r="D58" s="4" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" s="10" customFormat="1">
+      <c r="A59" s="9" t="s">
+        <v>136</v>
+      </c>
+      <c r="B59" s="10">
+        <v>6</v>
+      </c>
+      <c r="D59" s="11"/>
+    </row>
+    <row r="60" spans="1:4" s="14" customFormat="1">
+      <c r="A60" s="12" t="s">
+        <v>179</v>
+      </c>
+      <c r="D60" s="13"/>
+    </row>
+    <row r="61" spans="1:4" s="14" customFormat="1">
+      <c r="A61" s="12" t="s">
+        <v>180</v>
+      </c>
+      <c r="D61" s="13" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" s="14" customFormat="1">
+      <c r="A62" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="B58" s="3">
+      <c r="B62" s="14">
         <v>6.5</v>
       </c>
-      <c r="D58" s="4" t="s">
+      <c r="D62" s="13" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="59" spans="1:4">
-      <c r="A59" s="2" t="s">
+    <row r="63" spans="1:4" s="14" customFormat="1">
+      <c r="A63" s="12" t="s">
         <v>93</v>
       </c>
-      <c r="B59" s="3">
+      <c r="B63" s="14">
         <v>7</v>
       </c>
-    </row>
-    <row r="60" spans="1:4">
-      <c r="A60" s="2" t="s">
+      <c r="D63" s="13"/>
+    </row>
+    <row r="64" spans="1:4" s="14" customFormat="1">
+      <c r="A64" s="12" t="s">
         <v>17</v>
       </c>
-      <c r="B60" s="3">
+      <c r="B64" s="14">
         <v>8</v>
       </c>
-      <c r="D60" s="4" t="s">
+      <c r="D64" s="13" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="61" spans="1:4">
-      <c r="A61" s="2" t="s">
+    <row r="65" spans="1:4" s="14" customFormat="1">
+      <c r="A65" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="B61" s="3">
+      <c r="B65" s="14">
         <v>9</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D65" s="13" t="s">
         <v>62</v>
-      </c>
-    </row>
-    <row r="62" spans="1:4">
-      <c r="A62" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B62" s="3">
-        <v>10</v>
-      </c>
-      <c r="D62" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4">
-      <c r="A63" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B63" s="3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4">
-      <c r="A64" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B64" s="3">
-        <v>13</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4">
-      <c r="A65" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="B65" s="3">
-        <v>14</v>
       </c>
     </row>
     <row r="66" spans="1:4">
       <c r="A66" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B66" s="3">
+        <v>10</v>
+      </c>
+      <c r="D66" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="B67" s="3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4">
+      <c r="A68" s="12" t="s">
+        <v>187</v>
+      </c>
+      <c r="D68" s="13" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4">
+      <c r="A69" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="B69" s="3">
+        <v>13</v>
+      </c>
+      <c r="D69" s="4" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4">
+      <c r="A70" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="B70" s="3">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4">
+      <c r="A71" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B66" s="3">
+      <c r="B71" s="3">
         <v>15</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="B67" s="3">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4">
-      <c r="A68" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B68" s="3">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4">
-      <c r="A69" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="D69" s="13" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="70" spans="1:4">
-      <c r="A70" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="D70" s="13" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="71" spans="1:4">
-      <c r="A71" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="D71" s="13" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="B72" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>14</v>
+        <v>94</v>
       </c>
       <c r="B73" s="3">
-        <v>19</v>
-      </c>
-      <c r="D73" s="13" t="s">
-        <v>160</v>
+        <v>17</v>
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="B74" s="3">
-        <v>20</v>
-      </c>
-      <c r="D74" s="4" t="s">
-        <v>56</v>
+      <c r="A74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="14"/>
+      <c r="D74" s="13" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B75" s="3">
-        <v>21</v>
+        <v>175</v>
       </c>
       <c r="D75" s="13" t="s">
-        <v>115</v>
+        <v>177</v>
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="B76" s="3">
-        <v>22</v>
+      <c r="A76" s="12" t="s">
+        <v>176</v>
+      </c>
+      <c r="D76" s="13" t="s">
+        <v>178</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B77" s="3">
-        <v>23</v>
-      </c>
-      <c r="D77" s="4" t="s">
-        <v>91</v>
+        <v>151</v>
+      </c>
+      <c r="D77" s="13" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="78" spans="1:4">
       <c r="A78" s="2" t="s">
-        <v>41</v>
+        <v>11</v>
       </c>
       <c r="B78" s="3">
-        <v>24</v>
+        <v>18</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>39</v>
+        <v>14</v>
       </c>
       <c r="B79" s="3">
-        <v>25</v>
+        <v>19</v>
       </c>
       <c r="D79" s="13" t="s">
-        <v>40</v>
+        <v>160</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
-        <v>6</v>
+        <v>55</v>
       </c>
       <c r="B80" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="81" spans="1:4" ht="30">
+        <v>20</v>
+      </c>
+      <c r="D80" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
       <c r="A81" s="12" t="s">
-        <v>162</v>
+        <v>114</v>
+      </c>
+      <c r="B81" s="3">
+        <v>21</v>
       </c>
       <c r="D81" s="13" t="s">
-        <v>161</v>
+        <v>115</v>
       </c>
     </row>
     <row r="82" spans="1:4">
-      <c r="A82" s="12" t="s">
-        <v>164</v>
-      </c>
-      <c r="D82" s="13" t="s">
-        <v>163</v>
+      <c r="A82" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="B82" s="3">
+        <v>22</v>
       </c>
     </row>
     <row r="83" spans="1:4">
       <c r="A83" s="12" t="s">
-        <v>117</v>
+        <v>122</v>
       </c>
       <c r="B83" s="3">
-        <v>27</v>
+        <v>23</v>
+      </c>
+      <c r="D83" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="84" spans="1:4">
-      <c r="A84" s="12" t="s">
-        <v>118</v>
+      <c r="A84" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B84" s="3">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>53</v>
+        <v>39</v>
       </c>
       <c r="B85" s="3">
-        <v>29</v>
-      </c>
-      <c r="D85" s="4" t="s">
-        <v>54</v>
+        <v>25</v>
+      </c>
+      <c r="D85" s="13" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
-        <v>58</v>
+        <v>6</v>
       </c>
       <c r="B86" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="87" spans="1:4">
-      <c r="A87" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="B87" s="3">
-        <v>31</v>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" ht="30">
+      <c r="A87" s="12" t="s">
+        <v>162</v>
       </c>
       <c r="D87" s="13" t="s">
-        <v>121</v>
+        <v>161</v>
       </c>
     </row>
     <row r="88" spans="1:4">
       <c r="A88" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D88" s="13"/>
+        <v>164</v>
+      </c>
+      <c r="D88" s="13" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>169</v>
-      </c>
-      <c r="D89" s="13"/>
-    </row>
-    <row r="90" spans="1:4" ht="30">
+        <v>117</v>
+      </c>
+      <c r="B89" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B90" s="14"/>
-      <c r="C90" s="14"/>
-      <c r="D90" s="13" t="s">
-        <v>43</v>
+        <v>118</v>
+      </c>
+      <c r="B90" s="3">
+        <v>28</v>
       </c>
     </row>
     <row r="91" spans="1:4">
       <c r="A91" s="2" t="s">
-        <v>84</v>
+        <v>53</v>
       </c>
       <c r="B91" s="3">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="D91" s="4" t="s">
-        <v>85</v>
+        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>92</v>
+        <v>58</v>
       </c>
       <c r="B92" s="3">
-        <v>33</v>
-      </c>
-      <c r="D92" s="13" t="s">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>98</v>
+        <v>70</v>
       </c>
       <c r="B93" s="3">
-        <v>34</v>
-      </c>
-      <c r="D93" s="4" t="s">
-        <v>99</v>
+        <v>31</v>
+      </c>
+      <c r="D93" s="13" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="94" spans="1:4">
-      <c r="A94" s="2" t="s">
-        <v>102</v>
-      </c>
-      <c r="B94" s="3">
-        <v>35</v>
-      </c>
-      <c r="D94" s="4" t="s">
-        <v>103</v>
-      </c>
+      <c r="A94" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="D94" s="13"/>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B95" s="3">
-        <v>36</v>
-      </c>
-      <c r="D95" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="96" spans="1:4">
-      <c r="A96" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B96" s="3">
-        <v>37</v>
+        <v>169</v>
+      </c>
+      <c r="D95" s="13"/>
+    </row>
+    <row r="96" spans="1:4" ht="30">
+      <c r="A96" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="B96" s="14"/>
+      <c r="C96" s="14"/>
+      <c r="D96" s="13" t="s">
+        <v>43</v>
       </c>
     </row>
     <row r="97" spans="1:4">
       <c r="A97" s="2" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="B97" s="3">
-        <v>38</v>
+        <v>32</v>
+      </c>
+      <c r="D97" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4">
-      <c r="A98" s="12" t="s">
-        <v>116</v>
+      <c r="A98" s="2" t="s">
+        <v>92</v>
       </c>
       <c r="B98" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="99" spans="1:4" s="10" customFormat="1">
+        <v>33</v>
+      </c>
+      <c r="D98" s="13" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>68</v>
+        <v>98</v>
       </c>
       <c r="B99" s="3">
-        <v>40</v>
-      </c>
-      <c r="C99" s="3"/>
-      <c r="D99" s="4"/>
+        <v>34</v>
+      </c>
+      <c r="D99" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>69</v>
+        <v>102</v>
       </c>
       <c r="B100" s="3">
-        <v>41</v>
+        <v>35</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" s="12" t="s">
-        <v>123</v>
+        <v>112</v>
       </c>
       <c r="B101" s="3">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="D101" s="13" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
     </row>
     <row r="102" spans="1:4">
-      <c r="A102" s="12" t="s">
-        <v>138</v>
+      <c r="A102" s="2" t="s">
+        <v>87</v>
       </c>
       <c r="B102" s="3">
-        <v>43</v>
-      </c>
-      <c r="D102" s="13" t="s">
-        <v>139</v>
+        <v>37</v>
       </c>
     </row>
     <row r="103" spans="1:4">
-      <c r="A103" s="12" t="s">
-        <v>157</v>
+      <c r="A103" s="2" t="s">
+        <v>78</v>
       </c>
       <c r="B103" s="3">
-        <v>44</v>
-      </c>
-      <c r="D103" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="104" spans="1:4" ht="45">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" s="10" customFormat="1">
       <c r="A104" s="12" t="s">
-        <v>143</v>
+        <v>116</v>
       </c>
       <c r="B104" s="3">
-        <v>45</v>
-      </c>
-      <c r="C104" s="14"/>
-      <c r="D104" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="105" spans="1:4" ht="30">
-      <c r="A105" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C105" s="14"/>
-      <c r="D105" s="13" t="s">
-        <v>166</v>
+        <v>39</v>
+      </c>
+      <c r="C104" s="3"/>
+      <c r="D104" s="4"/>
+    </row>
+    <row r="105" spans="1:4">
+      <c r="A105" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B105" s="3">
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:4">
-      <c r="A106" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C106" s="14"/>
-      <c r="D106" s="13" t="s">
-        <v>172</v>
+      <c r="A106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B106" s="3">
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:4">
       <c r="A107" s="12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B107" s="3">
+        <v>42</v>
+      </c>
+      <c r="D107" s="13" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4">
+      <c r="A108" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="B108" s="3">
+        <v>43</v>
+      </c>
+      <c r="D108" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4">
+      <c r="A109" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="B109" s="3">
+        <v>44</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" ht="45">
+      <c r="A110" s="12" t="s">
+        <v>143</v>
+      </c>
+      <c r="B110" s="3">
+        <v>45</v>
+      </c>
+      <c r="C110" s="14"/>
+      <c r="D110" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="30">
+      <c r="A111" s="12" t="s">
+        <v>165</v>
+      </c>
+      <c r="C111" s="14"/>
+      <c r="D111" s="13" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C112" s="14"/>
+      <c r="D112" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="C107" s="14"/>
-      <c r="D107" s="13" t="s">
+      <c r="C113" s="14"/>
+      <c r="D113" s="13" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="108" spans="1:4" s="14" customFormat="1" ht="30">
-      <c r="A108" s="9" t="s">
+    <row r="114" spans="1:4" s="14" customFormat="1" ht="30">
+      <c r="A114" s="9" t="s">
         <v>148</v>
       </c>
-      <c r="B108" s="10"/>
-      <c r="C108" s="10"/>
-      <c r="D108" s="11" t="s">
+      <c r="B114" s="10"/>
+      <c r="C114" s="10"/>
+      <c r="D114" s="11" t="s">
         <v>149</v>
       </c>
     </row>
-    <row r="109" spans="1:4" ht="30">
-      <c r="A109" s="9" t="s">
+    <row r="115" spans="1:4" ht="30">
+      <c r="A115" s="9" t="s">
         <v>51</v>
       </c>
-      <c r="B109" s="10"/>
-      <c r="C109" s="10"/>
-      <c r="D109" s="11" t="s">
+      <c r="B115" s="10"/>
+      <c r="C115" s="10"/>
+      <c r="D115" s="11" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="110" spans="1:4">
-      <c r="A110" s="9" t="s">
+    <row r="116" spans="1:4">
+      <c r="A116" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="B110" s="10"/>
-      <c r="C110" s="10"/>
-      <c r="D110" s="11" t="s">
+      <c r="B116" s="10"/>
+      <c r="C116" s="10"/>
+      <c r="D116" s="11" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="111" spans="1:4">
-      <c r="A111" s="9" t="s">
+    <row r="117" spans="1:4">
+      <c r="A117" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="B111" s="10"/>
-      <c r="C111" s="10"/>
-      <c r="D111" s="11"/>
-    </row>
-    <row r="112" spans="1:4">
-      <c r="A112" s="9" t="s">
+      <c r="B117" s="10"/>
+      <c r="C117" s="10"/>
+      <c r="D117" s="11"/>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" s="9" t="s">
         <v>106</v>
       </c>
-      <c r="B112" s="10"/>
-      <c r="C112" s="10"/>
-      <c r="D112" s="11" t="s">
+      <c r="B118" s="10"/>
+      <c r="C118" s="10"/>
+      <c r="D118" s="11" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="113" spans="1:4">
-      <c r="A113" s="9" t="s">
+    <row r="119" spans="1:4">
+      <c r="A119" s="9" t="s">
         <v>107</v>
       </c>
-      <c r="B113" s="10"/>
-      <c r="C113" s="10"/>
-      <c r="D113" s="11" t="s">
+      <c r="B119" s="10"/>
+      <c r="C119" s="10"/>
+      <c r="D119" s="11" t="s">
         <v>108</v>
       </c>
     </row>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="1" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId2"/>
+    <sheet name="States" sheetId="4" r:id="rId2"/>
+    <sheet name="Thoughts" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="245" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="232">
   <si>
     <t>Feature</t>
   </si>
@@ -207,9 +208,6 @@
     <t>MainWindowVM -&gt; Navigate -&gt; GetDataCmd -&gt;</t>
   </si>
   <si>
-    <t>trigger states based on timertick event</t>
-  </si>
-  <si>
     <t>click a CalendarObject</t>
   </si>
   <si>
@@ -291,9 +289,6 @@
     <t>Autocomplete textboxes</t>
   </si>
   <si>
-    <t>Create new Note at current time with task type set to 'checkin', edit popup for task under nowmarker, edit for state</t>
-  </si>
-  <si>
     <t>"We found a conflicting object at 4:45PM, what do you want to do?" Push, Merge, Yield, Edit, Cancel</t>
   </si>
   <si>
@@ -592,6 +587,141 @@
   </si>
   <si>
     <t>Generally to display stuff like holidays, don't have collisions, cant select or click</t>
+  </si>
+  <si>
+    <t>Can I add a NoteVM to CalendarVM or do I need to implement CRUDs in CalendarVM</t>
+  </si>
+  <si>
+    <t>CalObj States</t>
+  </si>
+  <si>
+    <t>State</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>Happens When</t>
+  </si>
+  <si>
+    <t>Current</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>Confirmed</t>
+  </si>
+  <si>
+    <t>Incomplete</t>
+  </si>
+  <si>
+    <t>Conflict</t>
+  </si>
+  <si>
+    <t>Insufficient</t>
+  </si>
+  <si>
+    <t>CheckIn</t>
+  </si>
+  <si>
+    <t>Unscheduled</t>
+  </si>
+  <si>
+    <t>AutoCheckIn</t>
+  </si>
+  <si>
+    <t>AutoConfirm</t>
+  </si>
+  <si>
+    <t>Azure</t>
+  </si>
+  <si>
+    <t>LimeGreen</t>
+  </si>
+  <si>
+    <t>SpringGreen</t>
+  </si>
+  <si>
+    <t>Crimson</t>
+  </si>
+  <si>
+    <t>Pink</t>
+  </si>
+  <si>
+    <t>Orange</t>
+  </si>
+  <si>
+    <t>DodgerBlue</t>
+  </si>
+  <si>
+    <t>Chartreuse</t>
+  </si>
+  <si>
+    <t>SkyBlue</t>
+  </si>
+  <si>
+    <t>MediumAquamarine</t>
+  </si>
+  <si>
+    <t>Aquamarine</t>
+  </si>
+  <si>
+    <t>CalObj is now</t>
+  </si>
+  <si>
+    <t>CalObj has expired and has been checked in as completed</t>
+  </si>
+  <si>
+    <t>CalObj is scheduled and has been checked in as confirmed</t>
+  </si>
+  <si>
+    <t>CalObj has expired and it is confirmed that the task constraints were not met</t>
+  </si>
+  <si>
+    <t>CalObj has a validation error or is experiencing an unresolvable collision</t>
+  </si>
+  <si>
+    <t>CalObj does not have enough resources to meet the requirements</t>
+  </si>
+  <si>
+    <t>CalObj has expired and needs to be checked</t>
+  </si>
+  <si>
+    <t>CalObj has expired and was checked in as a task different than the task that was scheduled</t>
+  </si>
+  <si>
+    <t>Unconfirmed</t>
+  </si>
+  <si>
+    <t>CalObj is scheduled and is requesting to be confirmed</t>
+  </si>
+  <si>
+    <t>CalObj is scheduled and has been confirmed automatically according to settings</t>
+  </si>
+  <si>
+    <t>CalObj has expired and was checked in automatically according to settings</t>
+  </si>
+  <si>
+    <t>If the note is "Incomplete", raise validation error on note if not in past, otherwise it will mark tas incomplete.</t>
+  </si>
+  <si>
+    <t>If the note is "confirm", the task is either confirmed or completed.</t>
+  </si>
+  <si>
+    <t>On timer tick and CheckIn(), if CalObj.Intersects(DateTime.Now)</t>
+  </si>
+  <si>
+    <t>See: states tab</t>
+  </si>
+  <si>
+    <t xml:space="preserve">If the note is "complete", raise validation error on note if not in past, otherwise it will mark task completed. </t>
+  </si>
+  <si>
+    <t>CalObj.CheckIn() finds the last relevant note (by dimension, tasktype, and intersects). The note specifies the state of the CalObj based on what is written in the description. If the note is "start", it resets the start of the CalObj to note date. If the note is "end", it resets the end of the CalObj to note date.</t>
+  </si>
+  <si>
+    <t>on timer tick, if CalObj &lt; Now</t>
   </si>
 </sst>
 </file>
@@ -669,7 +799,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -704,6 +834,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -820,10 +953,10 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D119" totalsRowShown="0">
-  <autoFilter ref="A1:D119" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
-  <sortState ref="A2:D91">
-    <sortCondition ref="B1:B91"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:D120" totalsRowShown="0">
+  <autoFilter ref="A1:D120" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+  <sortState ref="A2:D92">
+    <sortCondition ref="B1:B92"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
@@ -1132,10 +1265,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:H119"/>
+  <dimension ref="A1:H120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="A69" sqref="A69"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="A67" sqref="A67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1268,26 +1401,26 @@
     </row>
     <row r="13" spans="1:4" s="5" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B13" s="3"/>
       <c r="C13" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="5" customFormat="1">
       <c r="A14" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B14" s="3"/>
       <c r="C14" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="5" customFormat="1">
@@ -1314,14 +1447,14 @@
     </row>
     <row r="17" spans="1:8" s="5" customFormat="1">
       <c r="A17" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B17" s="3"/>
       <c r="C17" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D17" s="4" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:8" s="5" customFormat="1">
@@ -1336,7 +1469,7 @@
     </row>
     <row r="19" spans="1:8">
       <c r="A19" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>29</v>
@@ -1344,29 +1477,29 @@
     </row>
     <row r="20" spans="1:8">
       <c r="A20" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C20" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D20" s="4" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:8">
       <c r="A21" s="2" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="D21" s="4" t="s">
         <v>81</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>82</v>
       </c>
     </row>
     <row r="22" spans="1:8">
       <c r="A22" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C22" s="3" t="s">
         <v>29</v>
@@ -1374,7 +1507,7 @@
     </row>
     <row r="23" spans="1:8">
       <c r="A23" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>29</v>
@@ -1388,7 +1521,7 @@
     </row>
     <row r="24" spans="1:8">
       <c r="A24" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>29</v>
@@ -1396,7 +1529,7 @@
     </row>
     <row r="25" spans="1:8">
       <c r="A25" s="2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>29</v>
@@ -1415,13 +1548,13 @@
     </row>
     <row r="27" spans="1:8">
       <c r="A27" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>29</v>
       </c>
       <c r="D27" s="4" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1434,7 +1567,7 @@
     </row>
     <row r="29" spans="1:8">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>29</v>
@@ -1487,7 +1620,7 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="14" t="s">
         <v>29</v>
@@ -1495,7 +1628,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="C36" s="14" t="s">
         <v>29</v>
@@ -1503,7 +1636,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C37" s="14" t="s">
         <v>29</v>
@@ -1511,7 +1644,7 @@
     </row>
     <row r="38" spans="1:4" s="14" customFormat="1">
       <c r="A38" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C38" s="14" t="s">
         <v>29</v>
@@ -1520,18 +1653,18 @@
     </row>
     <row r="39" spans="1:4" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C39" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D39" s="13" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="40" spans="1:4">
       <c r="A40" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="14" t="s">
         <v>29</v>
@@ -1539,7 +1672,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" s="12" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="C41" s="14" t="s">
         <v>29</v>
@@ -1547,29 +1680,29 @@
     </row>
     <row r="42" spans="1:4" ht="30">
       <c r="A42" s="12" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C42" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D42" s="13" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="43" spans="1:4">
       <c r="A43" s="12" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C43" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D43" s="13" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="44" spans="1:4">
       <c r="A44" s="2" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="B44" s="3">
         <v>1</v>
@@ -1591,42 +1724,42 @@
     </row>
     <row r="46" spans="1:4" s="14" customFormat="1">
       <c r="A46" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C46" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D46" s="13" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="1:4" s="14" customFormat="1" ht="30">
       <c r="A47" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B47" s="3"/>
       <c r="C47" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D47" s="13" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="48" spans="1:4" s="10" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B48" s="3"/>
       <c r="C48" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D48" s="13" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="49" spans="1:4" s="10" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B49" s="3"/>
       <c r="C49" s="14" t="s">
@@ -1636,42 +1769,42 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" s="12" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="C50" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D50" s="13" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="51" spans="1:4" s="15" customFormat="1">
       <c r="A51" s="12" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B51" s="14"/>
       <c r="C51" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D51" s="13" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="52" spans="1:4" s="15" customFormat="1">
       <c r="A52" s="12" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="B52" s="3"/>
       <c r="C52" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D52" s="13" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" s="12" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B53" s="14"/>
       <c r="C53" s="14" t="s">
@@ -1681,18 +1814,18 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" s="12" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="C54" s="14" t="s">
         <v>29</v>
       </c>
       <c r="D54" s="13" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="55" spans="1:4">
       <c r="A55" s="12" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="C55" s="14" t="s">
         <v>29</v>
@@ -1701,16 +1834,16 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" s="12" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C56" s="14"/>
       <c r="D56" s="13" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="57" spans="1:4">
       <c r="A57" s="12" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C57" s="14"/>
       <c r="D57" s="13"/>
@@ -1722,574 +1855,586 @@
       <c r="B58" s="3">
         <v>5</v>
       </c>
-      <c r="D58" s="4" t="s">
-        <v>60</v>
+      <c r="D58" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="59" spans="1:4" s="10" customFormat="1">
-      <c r="A59" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="B59" s="10">
+      <c r="A59" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="B59" s="14">
+        <v>8</v>
+      </c>
+      <c r="C59" s="14"/>
+      <c r="D59" s="13" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" s="10" customFormat="1">
+      <c r="A60" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B60" s="14"/>
+      <c r="C60" s="14"/>
+      <c r="D60" s="13" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" s="14" customFormat="1">
+      <c r="A61" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="B61" s="10">
         <v>6</v>
       </c>
-      <c r="D59" s="11"/>
-    </row>
-    <row r="60" spans="1:4" s="14" customFormat="1">
-      <c r="A60" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="D60" s="13"/>
-    </row>
-    <row r="61" spans="1:4" s="14" customFormat="1">
-      <c r="A61" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="D61" s="13" t="s">
-        <v>181</v>
-      </c>
+      <c r="C61" s="10"/>
+      <c r="D61" s="11"/>
     </row>
     <row r="62" spans="1:4" s="14" customFormat="1">
       <c r="A62" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="B62" s="14">
-        <v>6.5</v>
-      </c>
-      <c r="D62" s="13" t="s">
-        <v>89</v>
-      </c>
+        <v>177</v>
+      </c>
+      <c r="D62" s="13"/>
     </row>
     <row r="63" spans="1:4" s="14" customFormat="1">
       <c r="A63" s="12" t="s">
-        <v>93</v>
-      </c>
-      <c r="B63" s="14">
-        <v>7</v>
-      </c>
-      <c r="D63" s="13"/>
+        <v>178</v>
+      </c>
+      <c r="D63" s="13" t="s">
+        <v>179</v>
+      </c>
     </row>
     <row r="64" spans="1:4" s="14" customFormat="1">
       <c r="A64" s="12" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="B64" s="14">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="D64" s="13" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="65" spans="1:4" s="14" customFormat="1">
       <c r="A65" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B65" s="14">
+        <v>7</v>
+      </c>
+      <c r="D65" s="13"/>
+    </row>
+    <row r="66" spans="1:4" s="14" customFormat="1">
+      <c r="A66" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="B66" s="14">
+        <v>9</v>
+      </c>
+      <c r="D66" s="13" t="s">
         <v>61</v>
       </c>
-      <c r="B65" s="14">
-        <v>9</v>
-      </c>
-      <c r="D65" s="13" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="66" spans="1:4">
-      <c r="A66" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B66" s="3">
+    </row>
+    <row r="67" spans="1:4">
+      <c r="A67" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B67" s="3">
         <v>10</v>
       </c>
-      <c r="D66" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4">
-      <c r="A67" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="B67" s="3">
-        <v>12</v>
+      <c r="D67" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="D68" s="13" t="s">
-        <v>188</v>
+        <v>117</v>
+      </c>
+      <c r="B68" s="3">
+        <v>12</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="2" t="s">
-        <v>104</v>
-      </c>
-      <c r="B69" s="3">
-        <v>13</v>
-      </c>
-      <c r="D69" s="4" t="s">
-        <v>105</v>
+      <c r="A69" s="12" t="s">
+        <v>185</v>
+      </c>
+      <c r="D69" s="13" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" s="2" t="s">
-        <v>7</v>
+        <v>102</v>
       </c>
       <c r="B70" s="3">
-        <v>14</v>
+        <v>13</v>
+      </c>
+      <c r="D70" s="4" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="71" spans="1:4">
       <c r="A71" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B71" s="3">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" s="2" t="s">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="B72" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" s="2" t="s">
-        <v>94</v>
+        <v>13</v>
       </c>
       <c r="B73" s="3">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4">
+      <c r="A74" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="B74" s="3">
         <v>17</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4">
-      <c r="A74" s="12" t="s">
-        <v>182</v>
-      </c>
-      <c r="C74" s="14"/>
-      <c r="D74" s="13" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="75" spans="1:4">
       <c r="A75" s="12" t="s">
-        <v>175</v>
-      </c>
+        <v>180</v>
+      </c>
+      <c r="C75" s="14"/>
       <c r="D75" s="13" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="76" spans="1:4">
       <c r="A76" s="12" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D76" s="13" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" s="12" t="s">
-        <v>151</v>
+        <v>174</v>
       </c>
       <c r="D77" s="13" t="s">
-        <v>152</v>
+        <v>176</v>
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B78" s="3">
-        <v>18</v>
+      <c r="A78" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="D78" s="13" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" s="2" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B79" s="3">
-        <v>19</v>
-      </c>
-      <c r="D79" s="13" t="s">
-        <v>160</v>
+        <v>18</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="B80" s="3">
+        <v>19</v>
+      </c>
+      <c r="D80" s="13" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4">
+      <c r="A81" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="B80" s="3">
+      <c r="B81" s="3">
         <v>20</v>
       </c>
-      <c r="D80" s="4" t="s">
+      <c r="D81" s="4" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="81" spans="1:4">
-      <c r="A81" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="B81" s="3">
+    <row r="82" spans="1:4">
+      <c r="A82" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B82" s="3">
         <v>21</v>
       </c>
-      <c r="D81" s="13" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="82" spans="1:4">
-      <c r="A82" s="2" t="s">
+      <c r="D82" s="13" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4">
+      <c r="A83" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B82" s="3">
+      <c r="B83" s="3">
         <v>22</v>
       </c>
     </row>
-    <row r="83" spans="1:4">
-      <c r="A83" s="12" t="s">
-        <v>122</v>
-      </c>
-      <c r="B83" s="3">
+    <row r="84" spans="1:4">
+      <c r="A84" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="B84" s="3">
         <v>23</v>
       </c>
-      <c r="D83" s="4" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="84" spans="1:4">
-      <c r="A84" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B84" s="3">
-        <v>24</v>
+      <c r="D84" s="4" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="85" spans="1:4">
       <c r="A85" s="2" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B85" s="3">
-        <v>25</v>
-      </c>
-      <c r="D85" s="13" t="s">
-        <v>40</v>
+        <v>24</v>
       </c>
     </row>
     <row r="86" spans="1:4">
       <c r="A86" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="B86" s="3">
+        <v>25</v>
+      </c>
+      <c r="D86" s="13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4">
+      <c r="A87" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B86" s="3">
+      <c r="B87" s="3">
         <v>26</v>
       </c>
     </row>
-    <row r="87" spans="1:4" ht="30">
-      <c r="A87" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="D87" s="13" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4">
+    <row r="88" spans="1:4" ht="30">
       <c r="A88" s="12" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="D88" s="13" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
     </row>
     <row r="89" spans="1:4">
       <c r="A89" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="B89" s="3">
-        <v>27</v>
+        <v>162</v>
+      </c>
+      <c r="D89" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="90" spans="1:4">
       <c r="A90" s="12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B90" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4">
+      <c r="A91" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="B91" s="3">
         <v>28</v>
-      </c>
-    </row>
-    <row r="91" spans="1:4">
-      <c r="A91" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="B91" s="3">
-        <v>29</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" s="2" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="B92" s="3">
-        <v>30</v>
+        <v>29</v>
+      </c>
+      <c r="D92" s="4" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="93" spans="1:4">
       <c r="A93" s="2" t="s">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="B93" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4">
+      <c r="A94" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="B94" s="3">
         <v>31</v>
       </c>
-      <c r="D93" s="13" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="94" spans="1:4">
-      <c r="A94" s="12" t="s">
-        <v>168</v>
-      </c>
-      <c r="D94" s="13"/>
+      <c r="D94" s="13" t="s">
+        <v>119</v>
+      </c>
     </row>
     <row r="95" spans="1:4">
       <c r="A95" s="12" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="D95" s="13"/>
     </row>
-    <row r="96" spans="1:4" ht="30">
+    <row r="96" spans="1:4">
       <c r="A96" s="12" t="s">
-        <v>170</v>
-      </c>
-      <c r="B96" s="14"/>
-      <c r="C96" s="14"/>
-      <c r="D96" s="13" t="s">
+        <v>167</v>
+      </c>
+      <c r="D96" s="13"/>
+    </row>
+    <row r="97" spans="1:4" ht="30">
+      <c r="A97" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="B97" s="14"/>
+      <c r="C97" s="14"/>
+      <c r="D97" s="13" t="s">
         <v>43</v>
-      </c>
-    </row>
-    <row r="97" spans="1:4">
-      <c r="A97" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="B97" s="3">
-        <v>32</v>
-      </c>
-      <c r="D97" s="4" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="98" spans="1:4">
       <c r="A98" s="2" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="B98" s="3">
-        <v>33</v>
-      </c>
-      <c r="D98" s="13" t="s">
-        <v>120</v>
+        <v>32</v>
+      </c>
+      <c r="D98" s="4" t="s">
+        <v>84</v>
       </c>
     </row>
     <row r="99" spans="1:4">
       <c r="A99" s="2" t="s">
-        <v>98</v>
+        <v>90</v>
       </c>
       <c r="B99" s="3">
-        <v>34</v>
-      </c>
-      <c r="D99" s="4" t="s">
-        <v>99</v>
+        <v>33</v>
+      </c>
+      <c r="D99" s="13" t="s">
+        <v>118</v>
       </c>
     </row>
     <row r="100" spans="1:4">
       <c r="A100" s="2" t="s">
-        <v>102</v>
+        <v>96</v>
       </c>
       <c r="B100" s="3">
+        <v>34</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4">
+      <c r="A101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="B101" s="3">
         <v>35</v>
       </c>
-      <c r="D100" s="4" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:4">
-      <c r="A101" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B101" s="3">
+      <c r="D101" s="4" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4">
+      <c r="A102" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="B102" s="3">
         <v>36</v>
       </c>
-      <c r="D101" s="13" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="102" spans="1:4">
-      <c r="A102" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B102" s="3">
-        <v>37</v>
+      <c r="D102" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="103" spans="1:4">
       <c r="A103" s="2" t="s">
-        <v>78</v>
+        <v>86</v>
       </c>
       <c r="B103" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4">
+      <c r="A104" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="B104" s="3">
         <v>38</v>
       </c>
     </row>
-    <row r="104" spans="1:4" s="10" customFormat="1">
-      <c r="A104" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="B104" s="3">
+    <row r="105" spans="1:4" s="10" customFormat="1">
+      <c r="A105" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="B105" s="3">
         <v>39</v>
       </c>
-      <c r="C104" s="3"/>
-      <c r="D104" s="4"/>
-    </row>
-    <row r="105" spans="1:4">
-      <c r="A105" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B105" s="3">
-        <v>40</v>
-      </c>
+      <c r="C105" s="3"/>
+      <c r="D105" s="4"/>
     </row>
     <row r="106" spans="1:4">
       <c r="A106" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B106" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4">
+      <c r="A107" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B107" s="3">
         <v>41</v>
-      </c>
-    </row>
-    <row r="107" spans="1:4">
-      <c r="A107" s="12" t="s">
-        <v>123</v>
-      </c>
-      <c r="B107" s="3">
-        <v>42</v>
-      </c>
-      <c r="D107" s="13" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="108" spans="1:4">
       <c r="A108" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
       <c r="B108" s="3">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D108" s="13" t="s">
-        <v>139</v>
+        <v>128</v>
       </c>
     </row>
     <row r="109" spans="1:4">
       <c r="A109" s="12" t="s">
-        <v>157</v>
+        <v>136</v>
       </c>
       <c r="B109" s="3">
+        <v>43</v>
+      </c>
+      <c r="D109" s="13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4">
+      <c r="A110" s="12" t="s">
+        <v>155</v>
+      </c>
+      <c r="B110" s="3">
         <v>44</v>
       </c>
-      <c r="D109" s="13" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="110" spans="1:4" ht="45">
-      <c r="A110" s="12" t="s">
-        <v>143</v>
-      </c>
-      <c r="B110" s="3">
+      <c r="D110" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" ht="45">
+      <c r="A111" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="B111" s="3">
         <v>45</v>
-      </c>
-      <c r="C110" s="14"/>
-      <c r="D110" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="111" spans="1:4" ht="30">
-      <c r="A111" s="12" t="s">
-        <v>165</v>
       </c>
       <c r="C111" s="14"/>
       <c r="D111" s="13" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="112" spans="1:4">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" ht="30">
       <c r="A112" s="12" t="s">
-        <v>171</v>
+        <v>163</v>
       </c>
       <c r="C112" s="14"/>
       <c r="D112" s="13" t="s">
-        <v>172</v>
+        <v>164</v>
       </c>
     </row>
     <row r="113" spans="1:4">
       <c r="A113" s="12" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C113" s="14"/>
       <c r="D113" s="13" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="114" spans="1:4" s="14" customFormat="1" ht="30">
-      <c r="A114" s="9" t="s">
-        <v>148</v>
-      </c>
-      <c r="B114" s="10"/>
-      <c r="C114" s="10"/>
-      <c r="D114" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="115" spans="1:4" ht="30">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C114" s="14"/>
+      <c r="D114" s="13" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" s="14" customFormat="1" ht="30">
       <c r="A115" s="9" t="s">
-        <v>51</v>
+        <v>146</v>
       </c>
       <c r="B115" s="10"/>
       <c r="C115" s="10"/>
       <c r="D115" s="11" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="116" spans="1:4">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" ht="30">
       <c r="A116" s="9" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
       <c r="B116" s="10"/>
       <c r="C116" s="10"/>
       <c r="D116" s="11" t="s">
-        <v>42</v>
+        <v>52</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" s="9" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B117" s="10"/>
       <c r="C117" s="10"/>
-      <c r="D117" s="11"/>
+      <c r="D117" s="11" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="118" spans="1:4">
       <c r="A118" s="9" t="s">
-        <v>106</v>
+        <v>21</v>
       </c>
       <c r="B118" s="10"/>
       <c r="C118" s="10"/>
-      <c r="D118" s="11" t="s">
-        <v>109</v>
-      </c>
+      <c r="D118" s="11"/>
     </row>
     <row r="119" spans="1:4">
       <c r="A119" s="9" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="B119" s="10"/>
       <c r="C119" s="10"/>
       <c r="D119" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" s="9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B120" s="10"/>
+      <c r="C120" s="10"/>
+      <c r="D120" s="11" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -2307,6 +2452,184 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB4886-0351-4FBB-AD2E-ACDCB11388DD}">
+  <dimension ref="A1:D13"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D9" sqref="D9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="119.7109375" style="16" customWidth="1"/>
+    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4">
+      <c r="A1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" ht="45">
+      <c r="A2" t="s">
+        <v>189</v>
+      </c>
+      <c r="B2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C2" t="s">
+        <v>191</v>
+      </c>
+      <c r="D2" s="16" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4">
+      <c r="A3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B3" t="s">
+        <v>202</v>
+      </c>
+      <c r="C3" t="s">
+        <v>213</v>
+      </c>
+      <c r="D3" s="16" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4">
+      <c r="A4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B4" t="s">
+        <v>203</v>
+      </c>
+      <c r="C4" t="s">
+        <v>214</v>
+      </c>
+      <c r="D4" s="16" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" t="s">
+        <v>194</v>
+      </c>
+      <c r="B5" t="s">
+        <v>204</v>
+      </c>
+      <c r="C5" t="s">
+        <v>215</v>
+      </c>
+      <c r="D5" s="16" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" t="s">
+        <v>195</v>
+      </c>
+      <c r="B6" t="s">
+        <v>205</v>
+      </c>
+      <c r="C6" t="s">
+        <v>216</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" t="s">
+        <v>196</v>
+      </c>
+      <c r="B7" t="s">
+        <v>206</v>
+      </c>
+      <c r="C7" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" t="s">
+        <v>197</v>
+      </c>
+      <c r="B8" t="s">
+        <v>207</v>
+      </c>
+      <c r="C8" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" t="s">
+        <v>198</v>
+      </c>
+      <c r="B9" t="s">
+        <v>208</v>
+      </c>
+      <c r="C9" t="s">
+        <v>219</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" t="s">
+        <v>199</v>
+      </c>
+      <c r="B10" t="s">
+        <v>209</v>
+      </c>
+      <c r="C10" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B11" t="s">
+        <v>210</v>
+      </c>
+      <c r="C11" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>211</v>
+      </c>
+      <c r="C12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>212</v>
+      </c>
+      <c r="C13" t="s">
+        <v>223</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396B387-46D7-4AB3-8C4F-DEA1CC7ED8C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>
@@ -2321,17 +2644,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -737,9 +737,6 @@
     <t>after CalObjs are created during loading, foreach CalObj, call FindCheckIn()</t>
   </si>
   <si>
-    <t xml:space="preserve">If CheckIn note is "complete", raise validation error on note if not in past, otherwise it will mark task completed. </t>
-  </si>
-  <si>
     <t>If CheckIn note is "confirm", the task is either confirmed or completed.</t>
   </si>
   <si>
@@ -822,6 +819,9 @@
   </si>
   <si>
     <t>foreach dimension, go through all of the CalendarObjects detecting any intersections and resolving them based on the various properties of the parent mapping. If a CalObj is completely inside another, either delete the insider, or split the outsider.</t>
+  </si>
+  <si>
+    <t>If CheckIn note is "complete", the task is either confirmed or completed.</t>
   </si>
 </sst>
 </file>
@@ -1029,10 +1029,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1042,6 +1042,12 @@
   </cellStyles>
   <dxfs count="8">
     <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1050,12 +1056,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1162,9 +1162,9 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C123" totalsRowShown="0">
   <autoFilter ref="A1:C123" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1469,8 +1469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:G123"/>
   <sheetViews>
-    <sheetView topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A61" sqref="A61"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2510,7 +2510,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,7 +2527,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A17" sqref="A17:D17"/>
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2584,7 +2584,7 @@
         <v>212</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>236</v>
+        <v>264</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2598,7 +2598,7 @@
         <v>213</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2612,7 +2612,7 @@
         <v>214</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -2705,32 +2705,32 @@
       </c>
     </row>
     <row r="16" spans="1:4">
-      <c r="A16" s="29" t="s">
+      <c r="A16" s="28" t="s">
+        <v>240</v>
+      </c>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+    </row>
+    <row r="17" spans="1:4">
+      <c r="A17" s="28" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="29"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="29"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="29" t="s">
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18" s="28" t="s">
         <v>242</v>
       </c>
-      <c r="B17" s="29"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="29"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="29" t="s">
-        <v>243</v>
-      </c>
-      <c r="B18" s="29"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="29"/>
+      <c r="B18" s="28"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" s="30" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B19" s="30"/>
       <c r="C19" s="30"/>
@@ -2749,85 +2749,92 @@
       <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="29"/>
-      <c r="B22" s="29"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="29"/>
+      <c r="A22" s="28"/>
+      <c r="B22" s="28"/>
+      <c r="C22" s="28"/>
+      <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="28"/>
-      <c r="B23" s="28"/>
-      <c r="C23" s="28"/>
-      <c r="D23" s="28"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="29" t="s">
+      <c r="A24" s="28" t="s">
+        <v>238</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+    </row>
+    <row r="25" spans="1:4">
+      <c r="A25" s="28" t="s">
+        <v>235</v>
+      </c>
+      <c r="B25" s="28"/>
+      <c r="C25" s="28"/>
+      <c r="D25" s="28"/>
+    </row>
+    <row r="26" spans="1:4">
+      <c r="A26" s="28" t="s">
         <v>239</v>
       </c>
-      <c r="B24" s="29"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="29"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="B25" s="29"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="29"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="29" t="s">
-        <v>240</v>
-      </c>
-      <c r="B26" s="29"/>
-      <c r="C26" s="29"/>
-      <c r="D26" s="29"/>
+      <c r="B26" s="28"/>
+      <c r="C26" s="28"/>
+      <c r="D26" s="28"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="29"/>
-      <c r="B27" s="29"/>
-      <c r="C27" s="29"/>
-      <c r="D27" s="29"/>
+      <c r="A27" s="28"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="29"/>
-      <c r="B28" s="29"/>
-      <c r="C28" s="29"/>
-      <c r="D28" s="29"/>
+      <c r="A28" s="28"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="29"/>
-      <c r="B29" s="29"/>
-      <c r="C29" s="29"/>
-      <c r="D29" s="29"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="29"/>
-      <c r="B30" s="29"/>
-      <c r="C30" s="29"/>
-      <c r="D30" s="29"/>
+      <c r="A30" s="28"/>
+      <c r="B30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="D30" s="28"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="29"/>
-      <c r="B31" s="29"/>
-      <c r="C31" s="29"/>
-      <c r="D31" s="29"/>
+      <c r="A31" s="28"/>
+      <c r="B31" s="28"/>
+      <c r="C31" s="28"/>
+      <c r="D31" s="28"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="29"/>
-      <c r="B32" s="29"/>
-      <c r="C32" s="29"/>
-      <c r="D32" s="29"/>
+      <c r="A32" s="28"/>
+      <c r="B32" s="28"/>
+      <c r="C32" s="28"/>
+      <c r="D32" s="28"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="29"/>
-      <c r="B33" s="29"/>
-      <c r="C33" s="29"/>
-      <c r="D33" s="29"/>
+      <c r="A33" s="28"/>
+      <c r="B33" s="28"/>
+      <c r="C33" s="28"/>
+      <c r="D33" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A23:D23"/>
@@ -2839,13 +2846,6 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -2856,7 +2856,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2868,108 +2868,108 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="28" t="s">
-        <v>246</v>
-      </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
+      <c r="A1" s="29" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>243</v>
+      </c>
+      <c r="B3" t="s">
+        <v>248</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="B3" t="s">
-        <v>249</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>245</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B4" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
+        <v>249</v>
+      </c>
+      <c r="B5" t="s">
         <v>250</v>
       </c>
-      <c r="B5" t="s">
-        <v>251</v>
-      </c>
       <c r="C5" s="16" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:13">
       <c r="A6" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
+        <v>255</v>
+      </c>
+      <c r="B7" t="s">
+        <v>251</v>
+      </c>
+      <c r="C7" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="B7" t="s">
-        <v>252</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
+        <v>257</v>
+      </c>
+      <c r="B8" t="s">
+        <v>251</v>
+      </c>
+      <c r="C8" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="B8" t="s">
-        <v>252</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>259</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
       <c r="A9" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B9" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
+        <v>262</v>
+      </c>
+      <c r="B10" t="s">
+        <v>251</v>
+      </c>
+      <c r="C10" s="16" t="s">
         <v>263</v>
-      </c>
-      <c r="B10" t="s">
-        <v>252</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>264</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="265">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="268">
   <si>
     <t>Feature</t>
   </si>
@@ -293,9 +293,6 @@
     <t>Implmnt TimeTasks on Calendar</t>
   </si>
   <si>
-    <t>Draw notes with a little note graphic on the right side of a day</t>
-  </si>
-  <si>
     <t>New Note Here</t>
   </si>
   <si>
@@ -593,9 +590,6 @@
     <t>State</t>
   </si>
   <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>Happens When</t>
   </si>
   <si>
@@ -822,6 +816,21 @@
   </si>
   <si>
     <t>If CheckIn note is "complete", the task is either confirmed or completed.</t>
+  </si>
+  <si>
+    <t>Square with rounded corners and the right bottom corner is flipped up. Color by task type, but with a darker shade and a black border.</t>
+  </si>
+  <si>
+    <t>Filters on the EntityViews</t>
+  </si>
+  <si>
+    <t>If today changes, do I need to rebuild the calendar for an reason?</t>
+  </si>
+  <si>
+    <t>Day panel dimensions</t>
+  </si>
+  <si>
+    <t>Border Color</t>
   </si>
 </sst>
 </file>
@@ -1032,21 +1041,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="8">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1056,6 +1059,12 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -1159,12 +1168,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C123" totalsRowShown="0">
-  <autoFilter ref="A1:C123" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C125" totalsRowShown="0">
+  <autoFilter ref="A1:C125" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1467,10 +1476,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G123"/>
+  <dimension ref="A1:G125"/>
   <sheetViews>
     <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A61" sqref="A61"/>
+      <selection activeCell="A72" sqref="A72:C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1811,7 +1820,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B35" s="14" t="s">
         <v>28</v>
@@ -1819,7 +1828,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B36" s="14" t="s">
         <v>28</v>
@@ -1827,7 +1836,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B37" s="14" t="s">
         <v>28</v>
@@ -1835,7 +1844,7 @@
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1">
       <c r="A38" s="12" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B38" s="14" t="s">
         <v>28</v>
@@ -1844,18 +1853,18 @@
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B39" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39" s="13" t="s">
         <v>128</v>
-      </c>
-      <c r="B39" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="13" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B40" s="14" t="s">
         <v>28</v>
@@ -1863,7 +1872,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="B41" s="14" t="s">
         <v>28</v>
@@ -1871,24 +1880,24 @@
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="B42" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="13" t="s">
         <v>137</v>
-      </c>
-      <c r="B42" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C42" s="13" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="B43" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C43" s="13" t="s">
         <v>130</v>
-      </c>
-      <c r="B43" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C43" s="13" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1909,40 +1918,40 @@
     </row>
     <row r="46" spans="1:3" s="14" customFormat="1">
       <c r="A46" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B46" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="14" customFormat="1" ht="30">
       <c r="A47" s="12" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="B47" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="10" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B48" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="10" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B49" s="14" t="s">
         <v>28</v>
@@ -1951,40 +1960,40 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B50" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="15" customFormat="1">
       <c r="A51" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C51" s="13" t="s">
         <v>152</v>
-      </c>
-      <c r="B51" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C51" s="13" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="15" customFormat="1">
       <c r="A52" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="B52" s="14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C52" s="13" t="s">
         <v>141</v>
-      </c>
-      <c r="B52" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C52" s="13" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B53" s="14" t="s">
         <v>28</v>
@@ -1993,18 +2002,18 @@
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B54" s="14" t="s">
         <v>28</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B55" s="14" t="s">
         <v>28</v>
@@ -2013,15 +2022,15 @@
     </row>
     <row r="56" spans="1:3" s="10" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B57" s="14" t="s">
         <v>28</v>
@@ -2030,7 +2039,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2042,7 +2051,7 @@
         <v>9</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2051,466 +2060,486 @@
       </c>
       <c r="B60" s="14"/>
       <c r="C60" s="13" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="61" spans="1:3" s="10" customFormat="1">
       <c r="A61" s="12" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="10" customFormat="1">
-      <c r="A62" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="C62" s="11"/>
+      <c r="A62" s="12" t="s">
+        <v>118</v>
+      </c>
+      <c r="B62" s="3"/>
+      <c r="C62" s="13" t="s">
+        <v>263</v>
+      </c>
     </row>
     <row r="63" spans="1:3" s="14" customFormat="1">
-      <c r="A63" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C63" s="13"/>
+      <c r="A63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="B63" s="10"/>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" s="14" customFormat="1">
       <c r="A64" s="12" t="s">
-        <v>177</v>
-      </c>
-      <c r="C64" s="13" t="s">
-        <v>178</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C64" s="13"/>
     </row>
     <row r="65" spans="1:3" s="14" customFormat="1">
       <c r="A65" s="12" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C65" s="13" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1">
       <c r="A66" s="12" t="s">
-        <v>230</v>
+        <v>8</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>231</v>
+        <v>86</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1">
       <c r="A67" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="C67" s="13"/>
+        <v>228</v>
+      </c>
+      <c r="C67" s="13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1">
       <c r="A68" s="12" t="s">
-        <v>90</v>
+        <v>230</v>
       </c>
       <c r="C68" s="13"/>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1">
       <c r="A69" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3" s="14" customFormat="1">
+      <c r="A70" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C69" s="13" t="s">
+      <c r="C70" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="2" t="s">
+    <row r="71" spans="1:3">
+      <c r="A71" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="C71" s="4" t="s">
         <v>97</v>
-      </c>
-      <c r="C70" s="4" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="12" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="72" spans="1:3">
       <c r="A72" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3">
+      <c r="A73" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3">
+      <c r="A74" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="C74" s="13" t="s">
         <v>183</v>
-      </c>
-      <c r="C72" s="13" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
-        <v>101</v>
-      </c>
-      <c r="C73" s="4" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="C75" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>91</v>
+        <v>7</v>
       </c>
     </row>
     <row r="78" spans="1:3">
-      <c r="A78" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="13" t="s">
-        <v>180</v>
+      <c r="A78" s="2" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
-        <v>172</v>
-      </c>
-      <c r="C79" s="13" t="s">
-        <v>174</v>
+      <c r="A79" s="2" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="12" t="s">
-        <v>173</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B80" s="14"/>
       <c r="C80" s="13" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="81" spans="1:3">
       <c r="A81" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3">
+      <c r="A83" s="12" t="s">
+        <v>147</v>
+      </c>
+      <c r="C83" s="13" t="s">
         <v>148</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C84" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="85" spans="1:3">
-      <c r="A85" s="12" t="s">
-        <v>111</v>
+      <c r="A85" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C85" s="13" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C86" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C87" s="4" t="s">
-        <v>88</v>
+        <v>110</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" ht="30">
-      <c r="A91" s="12" t="s">
-        <v>159</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>158</v>
+        <v>39</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="12" t="s">
-        <v>161</v>
+        <v>139</v>
       </c>
       <c r="C92" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3" ht="30">
+      <c r="A94" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="12" t="s">
         <v>160</v>
       </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="12" t="s">
+      <c r="C95" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="12" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C95" s="4" t="s">
+      <c r="C98" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C97" s="13" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="12" t="s">
+      <c r="C100" s="13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C101" s="13"/>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C98" s="13"/>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12" t="s">
+      <c r="C102" s="13"/>
+    </row>
+    <row r="103" spans="1:3" ht="30">
+      <c r="A103" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="C99" s="13"/>
-    </row>
-    <row r="100" spans="1:3" ht="30">
-      <c r="A100" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B100" s="14"/>
-      <c r="C100" s="13" t="s">
+      <c r="B103" s="14"/>
+      <c r="C103" s="13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C101" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C102" s="13" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>99</v>
+        <v>82</v>
       </c>
       <c r="C104" s="4" t="s">
-        <v>100</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
-        <v>109</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>110</v>
+      <c r="A105" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C105" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C106" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3" s="10" customFormat="1">
-      <c r="A108" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="B108" s="3"/>
-      <c r="C108" s="4"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" s="10" customFormat="1">
+      <c r="A110" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B110" s="3"/>
+      <c r="C110" s="4"/>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12" t="s">
-        <v>120</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="12" t="s">
-        <v>135</v>
-      </c>
-      <c r="C112" s="13" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C113" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C115" s="13" t="s">
         <v>154</v>
       </c>
-      <c r="C113" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3" ht="45">
-      <c r="A114" s="12" t="s">
-        <v>140</v>
-      </c>
-      <c r="B114" s="14"/>
-      <c r="C114" s="13" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
-      <c r="A115" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B115" s="14"/>
-      <c r="C115" s="13" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+    </row>
+    <row r="116" spans="1:3" ht="45">
       <c r="A116" s="12" t="s">
-        <v>168</v>
+        <v>139</v>
       </c>
       <c r="B116" s="14"/>
       <c r="C116" s="13" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3" ht="30">
       <c r="A117" s="12" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="13" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A118" s="9" t="s">
-        <v>145</v>
-      </c>
-      <c r="B118" s="10"/>
-      <c r="C118" s="11" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
-      <c r="A119" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B119" s="10"/>
-      <c r="C119" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B118" s="14"/>
+      <c r="C118" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B119" s="14"/>
+      <c r="C119" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" s="14" customFormat="1" ht="30">
       <c r="A120" s="9" t="s">
-        <v>17</v>
+        <v>144</v>
       </c>
       <c r="B120" s="10"/>
       <c r="C120" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B121" s="10"/>
-      <c r="C121" s="11"/>
+      <c r="C121" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="9" t="s">
-        <v>103</v>
+        <v>17</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11" t="s">
-        <v>106</v>
+        <v>41</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B123" s="10"/>
+      <c r="C123" s="11"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B124" s="10"/>
+      <c r="C124" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B125" s="10"/>
+      <c r="C125" s="11" t="s">
         <v>104</v>
-      </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11" t="s">
-        <v>105</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2527,7 +2556,7 @@
   <dimension ref="A1:D33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="A27" sqref="A27:D27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2542,171 +2571,171 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>186</v>
+      </c>
+      <c r="B2" t="s">
+        <v>267</v>
+      </c>
+      <c r="C2" t="s">
         <v>187</v>
       </c>
-      <c r="B2" t="s">
-        <v>188</v>
-      </c>
-      <c r="C2" t="s">
-        <v>189</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="C3" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="D3" s="16" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="C4" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="C5" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="D5" s="16" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="C6" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="C7" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="C8" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="C9" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="D9" s="16" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="C10" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B11" s="25" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="C11" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="B12" s="26" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="D12" s="16" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C13" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="28" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B16" s="28"/>
       <c r="C16" s="28"/>
@@ -2714,7 +2743,7 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" s="28" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B17" s="28"/>
       <c r="C17" s="28"/>
@@ -2722,31 +2751,31 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" s="28" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B18" s="28"/>
       <c r="C18" s="28"/>
       <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30" t="s">
-        <v>260</v>
-      </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="A19" s="29" t="s">
+        <v>258</v>
+      </c>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="28"/>
@@ -2755,14 +2784,14 @@
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B24" s="28"/>
       <c r="C24" s="28"/>
@@ -2770,7 +2799,7 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" s="28" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B25" s="28"/>
       <c r="C25" s="28"/>
@@ -2778,7 +2807,7 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" s="28" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B26" s="28"/>
       <c r="C26" s="28"/>
@@ -2828,13 +2857,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A23:D23"/>
@@ -2846,8 +2868,16 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -2856,7 +2886,7 @@
   <dimension ref="A1:M10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2868,53 +2898,53 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
-        <v>245</v>
-      </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="A1" s="30" t="s">
+        <v>243</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B3" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
     </row>
     <row r="4" spans="1:13">
       <c r="A4" t="s">
-        <v>246</v>
+        <v>255</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="C4" s="16" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>249</v>
+        <v>244</v>
       </c>
       <c r="B5" t="s">
+        <v>248</v>
+      </c>
+      <c r="C5" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="C5" s="16" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="6" spans="1:13">
@@ -2922,54 +2952,54 @@
         <v>247</v>
       </c>
       <c r="B6" t="s">
+        <v>248</v>
+      </c>
+      <c r="C6" s="16" t="s">
         <v>251</v>
-      </c>
-      <c r="C6" s="16" t="s">
-        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
     </row>
     <row r="8" spans="1:13">
       <c r="A8" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C8" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:13" ht="75">
       <c r="A9" t="s">
+        <v>257</v>
+      </c>
+      <c r="B9" t="s">
+        <v>249</v>
+      </c>
+      <c r="C9" s="16" t="s">
         <v>259</v>
-      </c>
-      <c r="B9" t="s">
-        <v>251</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="10" spans="1:13" ht="30">
       <c r="A10" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B10" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="C10" s="16" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
   </sheetData>
@@ -2995,17 +3025,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="2" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="268">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="270">
   <si>
     <t>Feature</t>
   </si>
@@ -831,6 +831,12 @@
   </si>
   <si>
     <t>Border Color</t>
+  </si>
+  <si>
+    <t>noninteractive NowMarker</t>
+  </si>
+  <si>
+    <t>no selection but has tooltip</t>
   </si>
 </sst>
 </file>
@@ -1041,10 +1047,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1168,8 +1174,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C125" totalsRowShown="0">
-  <autoFilter ref="A1:C125" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C126" totalsRowShown="0">
+  <autoFilter ref="A1:C126" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -1476,10 +1482,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G125"/>
+  <dimension ref="A1:G126"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A72" sqref="A72:C72"/>
+    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="C110" sqref="C110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2404,136 +2410,144 @@
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
+      <c r="A109" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="110" spans="1:3" s="10" customFormat="1">
-      <c r="A110" s="12" t="s">
+    <row r="111" spans="1:3" s="10" customFormat="1">
+      <c r="A111" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B110" s="3"/>
-      <c r="C110" s="4"/>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B111" s="3"/>
+      <c r="C111" s="4"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C113" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C114" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C115" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C115" s="13" t="s">
+      <c r="C116" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="45">
-      <c r="A116" s="12" t="s">
+    <row r="117" spans="1:3" ht="45">
+      <c r="A117" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="B116" s="14"/>
-      <c r="C116" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30">
-      <c r="A117" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="B117" s="14"/>
       <c r="C117" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30">
       <c r="A118" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B118" s="14"/>
       <c r="C118" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B120" s="14"/>
+      <c r="C120" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="120" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A120" s="9" t="s">
+    <row r="121" spans="1:3" s="14" customFormat="1" ht="30">
+      <c r="A121" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B120" s="10"/>
-      <c r="C120" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30">
-      <c r="A121" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="B121" s="10"/>
       <c r="C121" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
       <c r="A122" s="9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B122" s="10"/>
       <c r="C122" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B123" s="10"/>
-      <c r="C123" s="11"/>
+      <c r="C123" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="9" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="C124" s="11"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2758,24 +2772,24 @@
       <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
+      <c r="A19" s="30" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="B19" s="30"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="30"/>
+      <c r="B20" s="30"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="30"/>
+      <c r="B21" s="30"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="28"/>
@@ -2784,10 +2798,10 @@
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="29"/>
+      <c r="B23" s="29"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
@@ -2857,6 +2871,13 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A23:D23"/>
@@ -2868,13 +2889,6 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2885,7 +2899,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
   <dimension ref="A1:M10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
@@ -2898,21 +2912,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="29" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="270">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="273">
   <si>
     <t>Feature</t>
   </si>
@@ -837,6 +837,15 @@
   </si>
   <si>
     <t>no selection but has tooltip</t>
+  </si>
+  <si>
+    <t>Should the AllocationMethod be a property of Allocation?</t>
+  </si>
+  <si>
+    <t>TaskMaps fix</t>
+  </si>
+  <si>
+    <t>CalObjs  can fall outside of their respective inclusion zones (we mark them as Unscheduled), but they must be inside their respective per zones. This means we have to move CalObjs lists and whatever uses them from InclusionZones to PerZones</t>
   </si>
 </sst>
 </file>
@@ -1047,10 +1056,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1174,8 +1183,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C126" totalsRowShown="0">
-  <autoFilter ref="A1:C126" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0">
+  <autoFilter ref="A1:C128" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -1482,10 +1491,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:G128"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="C110" sqref="C110"/>
+      <selection activeCell="A60" sqref="A60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2052,502 +2061,519 @@
       </c>
       <c r="C58" s="13"/>
     </row>
-    <row r="59" spans="1:3">
-      <c r="A59" s="2" t="s">
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B59" s="14"/>
+      <c r="C59" s="13" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="C59" s="13" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
-        <v>16</v>
-      </c>
-      <c r="B60" s="14"/>
       <c r="C60" s="13" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="61" spans="1:3" s="10" customFormat="1">
+    <row r="61" spans="1:3">
       <c r="A61" s="12" t="s">
-        <v>139</v>
+        <v>16</v>
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13" t="s">
-        <v>184</v>
+        <v>221</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="10" customFormat="1">
       <c r="A62" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B62" s="14"/>
+      <c r="C62" s="13" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" s="10" customFormat="1">
+      <c r="A63" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="B62" s="3"/>
-      <c r="C62" s="13" t="s">
+      <c r="B63" s="3"/>
+      <c r="C63" s="13" t="s">
         <v>263</v>
       </c>
     </row>
-    <row r="63" spans="1:3" s="14" customFormat="1">
-      <c r="A63" s="9" t="s">
+    <row r="64" spans="1:3" s="14" customFormat="1">
+      <c r="A64" s="9" t="s">
         <v>132</v>
       </c>
-      <c r="B63" s="10"/>
-      <c r="C63" s="11"/>
-    </row>
-    <row r="64" spans="1:3" s="14" customFormat="1">
-      <c r="A64" s="12" t="s">
-        <v>175</v>
-      </c>
-      <c r="C64" s="13"/>
+      <c r="B64" s="10"/>
+      <c r="C64" s="11"/>
     </row>
     <row r="65" spans="1:3" s="14" customFormat="1">
       <c r="A65" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C65" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>175</v>
+      </c>
+      <c r="C65" s="13"/>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1">
       <c r="A66" s="12" t="s">
-        <v>8</v>
+        <v>176</v>
       </c>
       <c r="C66" s="13" t="s">
-        <v>86</v>
+        <v>177</v>
       </c>
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1">
       <c r="A67" s="12" t="s">
-        <v>228</v>
+        <v>8</v>
       </c>
       <c r="C67" s="13" t="s">
-        <v>229</v>
+        <v>86</v>
       </c>
     </row>
     <row r="68" spans="1:3" s="14" customFormat="1">
       <c r="A68" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C68" s="13"/>
+        <v>139</v>
+      </c>
+      <c r="C68" s="13" t="s">
+        <v>270</v>
+      </c>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1">
       <c r="A69" s="12" t="s">
-        <v>89</v>
-      </c>
-      <c r="C69" s="13"/>
+        <v>228</v>
+      </c>
+      <c r="C69" s="13" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" s="14" customFormat="1">
+      <c r="A71" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C71" s="13"/>
+    </row>
+    <row r="72" spans="1:3" s="14" customFormat="1">
+      <c r="A72" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C70" s="13" t="s">
+      <c r="C72" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="71" spans="1:3">
-      <c r="A71" s="2" t="s">
+    <row r="73" spans="1:3">
+      <c r="A73" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C71" s="4" t="s">
+      <c r="C73" s="4" t="s">
         <v>97</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3">
-      <c r="A72" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3">
+      <c r="A75" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="76" spans="1:3">
+      <c r="A76" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C74" s="13" t="s">
+      <c r="C76" s="13" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C75" s="4" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="76" spans="1:3">
-      <c r="A76" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="2" t="s">
-        <v>7</v>
+        <v>100</v>
+      </c>
+      <c r="C77" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3">
+      <c r="A80" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B80" s="14"/>
-      <c r="C80" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="82" spans="1:3">
       <c r="A82" s="12" t="s">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B82" s="14"/>
       <c r="C82" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C83" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C84" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="85" spans="1:3">
+      <c r="A85" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C83" s="13" t="s">
+      <c r="C85" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C85" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C86" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
-        <v>110</v>
+      <c r="A87" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C87" s="13" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C88" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>88</v>
+      <c r="A89" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>38</v>
+        <v>88</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>39</v>
+        <v>116</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>265</v>
+      <c r="A92" s="2" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C93" s="13" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C94" s="13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C93" s="13" t="s">
+      <c r="C95" s="13" t="s">
         <v>264</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30">
-      <c r="A94" s="12" t="s">
+    <row r="96" spans="1:3" ht="30">
+      <c r="A96" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C94" s="13" t="s">
+      <c r="C96" s="13" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="12" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C98" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>57</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C100" s="4" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C100" s="13" t="s">
+      <c r="C102" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="12" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C101" s="13"/>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="12" t="s">
+      <c r="C103" s="13"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C102" s="13"/>
-    </row>
-    <row r="103" spans="1:3" ht="30">
-      <c r="A103" s="12" t="s">
+      <c r="C104" s="13"/>
+    </row>
+    <row r="105" spans="1:3" ht="30">
+      <c r="A105" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B103" s="14"/>
-      <c r="C103" s="13" t="s">
+      <c r="B105" s="14"/>
+      <c r="C105" s="13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C105" s="4" t="s">
-        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>98</v>
+        <v>82</v>
       </c>
       <c r="C106" s="4" t="s">
-        <v>99</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C107" s="13" t="s">
-        <v>109</v>
+      <c r="A107" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>85</v>
+        <v>98</v>
+      </c>
+      <c r="C108" s="4" t="s">
+        <v>99</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
-        <v>268</v>
+        <v>108</v>
       </c>
       <c r="C109" s="13" t="s">
-        <v>269</v>
+        <v>109</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" s="10" customFormat="1">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B111" s="3"/>
-      <c r="C111" s="4"/>
+        <v>268</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>269</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="10" customFormat="1">
+      <c r="A113" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B113" s="3"/>
+      <c r="C113" s="4"/>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C114" s="13" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C115" s="13" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="12" t="s">
+        <v>119</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C117" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C118" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="45">
-      <c r="A117" s="12" t="s">
+    <row r="119" spans="1:3" ht="45">
+      <c r="A119" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="B117" s="14"/>
-      <c r="C117" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3" ht="30">
-      <c r="A118" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B118" s="14"/>
-      <c r="C118" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="12" t="s">
-        <v>167</v>
       </c>
       <c r="B119" s="14"/>
       <c r="C119" s="13" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="12" t="s">
-        <v>169</v>
+        <v>161</v>
       </c>
       <c r="B120" s="14"/>
       <c r="C120" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B122" s="14"/>
+      <c r="C122" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="121" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A121" s="9" t="s">
+    <row r="123" spans="1:3" s="14" customFormat="1" ht="30">
+      <c r="A123" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B121" s="10"/>
-      <c r="C121" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B122" s="10"/>
-      <c r="C122" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="9" t="s">
-        <v>17</v>
       </c>
       <c r="B123" s="10"/>
       <c r="C123" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="30">
       <c r="A124" s="9" t="s">
-        <v>20</v>
+        <v>50</v>
       </c>
       <c r="B124" s="10"/>
-      <c r="C124" s="11"/>
+      <c r="C124" s="11" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="9" t="s">
-        <v>102</v>
+        <v>17</v>
       </c>
       <c r="B125" s="10"/>
       <c r="C125" s="11" t="s">
-        <v>105</v>
+        <v>41</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B126" s="10"/>
+      <c r="C126" s="11"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B127" s="10"/>
+      <c r="C127" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="9" t="s">
         <v>103</v>
       </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11" t="s">
+      <c r="B128" s="10"/>
+      <c r="C128" s="11" t="s">
         <v>104</v>
       </c>
     </row>
@@ -2772,24 +2798,24 @@
       <c r="D18" s="28"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="30" t="s">
+      <c r="A19" s="29" t="s">
         <v>258</v>
       </c>
-      <c r="B19" s="30"/>
-      <c r="C19" s="30"/>
-      <c r="D19" s="30"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="29"/>
+      <c r="D19" s="29"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="30"/>
-      <c r="B20" s="30"/>
-      <c r="C20" s="30"/>
-      <c r="D20" s="30"/>
+      <c r="A20" s="29"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="29"/>
+      <c r="D20" s="29"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="30"/>
-      <c r="B21" s="30"/>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
+      <c r="A21" s="29"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="29"/>
+      <c r="D21" s="29"/>
     </row>
     <row r="22" spans="1:4">
       <c r="A22" s="28"/>
@@ -2798,10 +2824,10 @@
       <c r="D22" s="28"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="29"/>
-      <c r="B23" s="29"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="29"/>
+      <c r="A23" s="30"/>
+      <c r="B23" s="30"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
     </row>
     <row r="24" spans="1:4">
       <c r="A24" s="28" t="s">
@@ -2871,13 +2897,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A17:D17"/>
-    <mergeCell ref="A18:D18"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A16:D16"/>
-    <mergeCell ref="A19:D19"/>
-    <mergeCell ref="A20:D20"/>
-    <mergeCell ref="A21:D21"/>
     <mergeCell ref="A32:D32"/>
     <mergeCell ref="A33:D33"/>
     <mergeCell ref="A23:D23"/>
@@ -2889,6 +2908,13 @@
     <mergeCell ref="A31:D31"/>
     <mergeCell ref="A25:D25"/>
     <mergeCell ref="A24:D24"/>
+    <mergeCell ref="A17:D17"/>
+    <mergeCell ref="A18:D18"/>
+    <mergeCell ref="A22:D22"/>
+    <mergeCell ref="A16:D16"/>
+    <mergeCell ref="A19:D19"/>
+    <mergeCell ref="A20:D20"/>
+    <mergeCell ref="A21:D21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -2912,21 +2938,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="29" t="s">
+      <c r="A1" s="30" t="s">
         <v>243</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="2" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="273">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="272">
   <si>
     <t>Feature</t>
   </si>
@@ -617,9 +617,6 @@
     <t>Unscheduled</t>
   </si>
   <si>
-    <t>AutoCheckIn</t>
-  </si>
-  <si>
     <t>AutoConfirm</t>
   </si>
   <si>
@@ -695,18 +692,6 @@
     <t>See: states tab</t>
   </si>
   <si>
-    <t>on timer tick, if CalObj &lt; Now</t>
-  </si>
-  <si>
-    <t>on timer tick, if CalObj &lt; Now and was previously confirmed or autoconfirmed</t>
-  </si>
-  <si>
-    <t>When a note is created, and the note is not of type "note", but type does not correspond to any task's inclusion zones under it</t>
-  </si>
-  <si>
-    <t>After the task has completed (or completed a per), but the total allocated resources were not spent, mark all related calobjs</t>
-  </si>
-  <si>
     <t>start - end, add a second optional TimePropertyValue column</t>
   </si>
   <si>
@@ -725,33 +710,12 @@
     <t>Details</t>
   </si>
   <si>
-    <t>On timer tick, if CalObj.Intersects(DateTime.Now)</t>
-  </si>
-  <si>
-    <t>after CalObjs are created during loading, foreach CalObj, call FindCheckIn()</t>
-  </si>
-  <si>
-    <t>If CheckIn note is "confirm", the task is either confirmed or completed.</t>
-  </si>
-  <si>
-    <t>If CheckIn note is "Incomplete", raise validation error on note if not in past, otherwise it will mark tas incomplete.</t>
-  </si>
-  <si>
-    <t>CalObj.FindCheckIn is called when</t>
-  </si>
-  <si>
-    <t>when a new note is added</t>
-  </si>
-  <si>
     <t>Notes with a task type other than "Note" will determine the checkins and ultimately the states of every CalendarObject.</t>
   </si>
   <si>
     <t>If no note exists for a CalendarObject, the possible states are AutoConfirm, AutoCheckIn, Unconfirmed, CheckIn, Insufficient, Conflict.</t>
   </si>
   <si>
-    <t>There will be a "Notes Pass" that displays all notes and determines the states of CalendarObjects.</t>
-  </si>
-  <si>
     <t>Pass</t>
   </si>
   <si>
@@ -761,18 +725,12 @@
     <t>SetUpCalendarObjects() must go through a number of passes that determines different thing about how CalendarObjects interact with everything</t>
   </si>
   <si>
-    <t>BuildPerZones()</t>
-  </si>
-  <si>
     <t>BuildTaskMaps()</t>
   </si>
   <si>
     <t>Where</t>
   </si>
   <si>
-    <t>BuildInclusionZones()</t>
-  </si>
-  <si>
     <t>TimeTask</t>
   </si>
   <si>
@@ -785,21 +743,12 @@
     <t>Find the set of time blocks that meet the given filters and are within the given per zone set. To make this faster we can exclude the per zones that don't fit the calendar before this calculation.</t>
   </si>
   <si>
-    <t>Create a datastructure that associates a task with its InclusionZones and the CalendarObjects within each zone.</t>
-  </si>
-  <si>
     <t>AllocateTime()</t>
   </si>
   <si>
     <t>Depending on the type of allocations and other settings of the task, we build up the CalendarObjects within each InclusionZone by adding time to each.</t>
   </si>
   <si>
-    <t>CreateNoteObjects()</t>
-  </si>
-  <si>
-    <t>Create CalendarObjects to display Notes on the Calendar.</t>
-  </si>
-  <si>
     <t>DetermineStates()</t>
   </si>
   <si>
@@ -815,9 +764,6 @@
     <t>foreach dimension, go through all of the CalendarObjects detecting any intersections and resolving them based on the various properties of the parent mapping. If a CalObj is completely inside another, either delete the insider, or split the outsider.</t>
   </si>
   <si>
-    <t>If CheckIn note is "complete", the task is either confirmed or completed.</t>
-  </si>
-  <si>
     <t>Square with rounded corners and the right bottom corner is flipped up. Color by task type, but with a darker shade and a black border.</t>
   </si>
   <si>
@@ -846,6 +792,57 @@
   </si>
   <si>
     <t>CalObjs  can fall outside of their respective inclusion zones (we mark them as Unscheduled), but they must be inside their respective per zones. This means we have to move CalObjs lists and whatever uses them from InclusionZones to PerZones</t>
+  </si>
+  <si>
+    <t>Possible things a Note can say for a checkin: Completed, Confirmed, Incomplete, Start, End, Cancel</t>
+  </si>
+  <si>
+    <t>A CalObj outside of an InclusionZone is marked as Unscheduled</t>
+  </si>
+  <si>
+    <t>CalObj not within a Per. Unresolvable collision.</t>
+  </si>
+  <si>
+    <t>A note marks CalObj as Cancel/Incomplete</t>
+  </si>
+  <si>
+    <t>Note marks CalObj as Confirm/Complete.</t>
+  </si>
+  <si>
+    <t>AutoCompleted</t>
+  </si>
+  <si>
+    <t>If the Per has remaining allocation.  Overrides complete</t>
+  </si>
+  <si>
+    <t>Leads to</t>
+  </si>
+  <si>
+    <t>CheckIn, AutoCompleted, Insufficient, Unscheduled</t>
+  </si>
+  <si>
+    <t>Completed, Incomplete, Insufficient</t>
+  </si>
+  <si>
+    <t>AutoCompleted, Confirmed, Incomplete</t>
+  </si>
+  <si>
+    <t>CheckIn,  Confirmed, Incomplete</t>
+  </si>
+  <si>
+    <t>AllocateTimeFromNotes()</t>
+  </si>
+  <si>
+    <t>BuildZones()</t>
+  </si>
+  <si>
+    <t>a datastructure that associates a task to Per zones, CalObjs, InclusionZones</t>
+  </si>
+  <si>
+    <t>Note States</t>
+  </si>
+  <si>
+    <t>Note represents a CalObj that was deleted or doesen't make sense in this context</t>
   </si>
 </sst>
 </file>
@@ -1004,7 +1001,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="31">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1053,6 +1050,10 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1493,8 +1494,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:G128"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A60" sqref="A60"/>
+    <sheetView topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="A59" sqref="A59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2040,7 +2041,7 @@
         <v>181</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2054,7 +2055,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2063,11 +2064,11 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="12" t="s">
-        <v>271</v>
+        <v>253</v>
       </c>
       <c r="B59" s="14"/>
       <c r="C59" s="13" t="s">
-        <v>272</v>
+        <v>254</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2075,7 +2076,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2084,7 +2085,7 @@
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="10" customFormat="1">
@@ -2102,7 +2103,7 @@
       </c>
       <c r="B63" s="3"/>
       <c r="C63" s="13" t="s">
-        <v>263</v>
+        <v>245</v>
       </c>
     </row>
     <row r="64" spans="1:3" s="14" customFormat="1">
@@ -2139,20 +2140,20 @@
         <v>139</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>270</v>
+        <v>252</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1">
       <c r="A69" s="12" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
       <c r="C69" s="13" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="12" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
       <c r="C70" s="13"/>
     </row>
@@ -2180,7 +2181,7 @@
     </row>
     <row r="74" spans="1:3">
       <c r="A74" s="12" t="s">
-        <v>266</v>
+        <v>248</v>
       </c>
       <c r="B74" s="14"/>
       <c r="C74" s="13"/>
@@ -2319,7 +2320,7 @@
         <v>139</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>265</v>
+        <v>247</v>
       </c>
     </row>
     <row r="95" spans="1:3">
@@ -2327,7 +2328,7 @@
         <v>5</v>
       </c>
       <c r="C95" s="13" t="s">
-        <v>264</v>
+        <v>246</v>
       </c>
     </row>
     <row r="96" spans="1:3" ht="30">
@@ -2437,10 +2438,10 @@
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>268</v>
+        <v>250</v>
       </c>
       <c r="C111" s="13" t="s">
-        <v>269</v>
+        <v>251</v>
       </c>
     </row>
     <row r="112" spans="1:3">
@@ -2593,307 +2594,343 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB4886-0351-4FBB-AD2E-ACDCB11388DD}">
-  <dimension ref="A1:D33"/>
+  <dimension ref="A1:E38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A27" sqref="A27:D27"/>
+      <selection activeCell="C35" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="127" style="16" customWidth="1"/>
+    <col min="4" max="4" width="58.28515625" style="16" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="20" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>185</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:5">
       <c r="A2" t="s">
         <v>186</v>
       </c>
       <c r="B2" t="s">
-        <v>267</v>
+        <v>249</v>
       </c>
       <c r="C2" t="s">
         <v>187</v>
       </c>
       <c r="D2" s="16" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>226</v>
+      </c>
+      <c r="E2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3" t="s">
         <v>188</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C3" t="s">
-        <v>209</v>
-      </c>
-      <c r="D3" s="16" t="s">
-        <v>232</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4">
+        <v>208</v>
+      </c>
+      <c r="E3" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4" t="s">
         <v>189</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C4" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5" t="s">
         <v>190</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C5" t="s">
-        <v>211</v>
-      </c>
-      <c r="D5" s="16" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
+        <v>210</v>
+      </c>
+      <c r="E5" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6" t="s">
         <v>191</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C6" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7" t="s">
         <v>192</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C7" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
+        <v>212</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8" t="s">
         <v>193</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C8" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>225</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9" t="s">
         <v>194</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C9" t="s">
-        <v>215</v>
-      </c>
-      <c r="D9" s="16" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
+        <v>214</v>
+      </c>
+      <c r="E9" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10" t="s">
         <v>195</v>
       </c>
       <c r="B10" s="24" t="s">
+        <v>204</v>
+      </c>
+      <c r="C10" t="s">
+        <v>215</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>256</v>
+      </c>
+      <c r="E10" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>216</v>
+      </c>
+      <c r="B11" s="25" t="s">
         <v>205</v>
       </c>
-      <c r="C10" t="s">
-        <v>216</v>
-      </c>
-      <c r="D10" s="16" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
+      <c r="C11" t="s">
         <v>217</v>
       </c>
-      <c r="B11" s="25" t="s">
+      <c r="E11" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B12" s="26" t="s">
         <v>206</v>
       </c>
-      <c r="C11" t="s">
+      <c r="C12" t="s">
+        <v>219</v>
+      </c>
+      <c r="E12" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>196</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="C13" t="s">
         <v>218</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" t="s">
-        <v>196</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>207</v>
-      </c>
-      <c r="C12" t="s">
-        <v>220</v>
-      </c>
-      <c r="D12" s="16" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" t="s">
-        <v>197</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>208</v>
-      </c>
-      <c r="C13" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="28" t="s">
-        <v>238</v>
-      </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
+      <c r="E13" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="30" t="s">
+        <v>227</v>
+      </c>
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
     </row>
     <row r="17" spans="1:4">
-      <c r="A17" s="28" t="s">
-        <v>239</v>
-      </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
+      <c r="A17" s="30" t="s">
+        <v>228</v>
+      </c>
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="28" t="s">
-        <v>240</v>
-      </c>
-      <c r="B18" s="28"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="28"/>
+      <c r="A18" s="30"/>
+      <c r="B18" s="30"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="29" t="s">
-        <v>258</v>
-      </c>
-      <c r="B19" s="29"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="29"/>
+      <c r="A19" s="31" t="s">
+        <v>241</v>
+      </c>
+      <c r="B19" s="31"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="31"/>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="29"/>
-      <c r="B20" s="29"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="29"/>
+      <c r="A20" s="31" t="s">
+        <v>255</v>
+      </c>
+      <c r="B20" s="31"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="31"/>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="29"/>
-      <c r="B21" s="29"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="29"/>
+      <c r="A21" s="31"/>
+      <c r="B21" s="31"/>
+      <c r="C21" s="31"/>
+      <c r="D21" s="31"/>
     </row>
     <row r="22" spans="1:4">
-      <c r="A22" s="28"/>
-      <c r="B22" s="28"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="28"/>
+      <c r="A22" s="30"/>
+      <c r="B22" s="30"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
     </row>
     <row r="23" spans="1:4">
-      <c r="A23" s="30"/>
-      <c r="B23" s="30"/>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
+      <c r="A23" s="32"/>
+      <c r="B23" s="32"/>
+      <c r="C23" s="32"/>
+      <c r="D23" s="32"/>
     </row>
     <row r="24" spans="1:4">
-      <c r="A24" s="28" t="s">
-        <v>236</v>
-      </c>
-      <c r="B24" s="28"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="28"/>
+      <c r="A24" s="30"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="28" t="s">
-        <v>233</v>
-      </c>
-      <c r="B25" s="28"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="28"/>
+      <c r="A25" s="30"/>
+      <c r="B25" s="30"/>
+      <c r="C25" s="30"/>
+      <c r="D25" s="30"/>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="28" t="s">
-        <v>237</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
+      <c r="A26" s="30"/>
+      <c r="B26" s="30"/>
+      <c r="C26" s="30"/>
+      <c r="D26" s="30"/>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="28"/>
-      <c r="B27" s="28"/>
-      <c r="C27" s="28"/>
-      <c r="D27" s="28"/>
+      <c r="A27" s="30"/>
+      <c r="B27" s="30"/>
+      <c r="C27" s="30"/>
+      <c r="D27" s="30"/>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="28"/>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
+      <c r="A28" s="30"/>
+      <c r="B28" s="30"/>
+      <c r="C28" s="30"/>
+      <c r="D28" s="30"/>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="30"/>
+      <c r="C29" s="30"/>
+      <c r="D29" s="30"/>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="28"/>
-      <c r="B30" s="28"/>
-      <c r="C30" s="28"/>
-      <c r="D30" s="28"/>
+      <c r="A30" s="30"/>
+      <c r="B30" s="30"/>
+      <c r="C30" s="30"/>
+      <c r="D30" s="30"/>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="28"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="28"/>
-      <c r="D31" s="28"/>
+      <c r="A31" s="30"/>
+      <c r="B31" s="30"/>
+      <c r="C31" s="30"/>
+      <c r="D31" s="30"/>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="28"/>
-      <c r="B32" s="28"/>
-      <c r="C32" s="28"/>
-      <c r="D32" s="28"/>
+      <c r="A32" s="30"/>
+      <c r="B32" s="30"/>
+      <c r="C32" s="30"/>
+      <c r="D32" s="30"/>
     </row>
     <row r="33" spans="1:4">
-      <c r="A33" s="28"/>
-      <c r="B33" s="28"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="28"/>
+      <c r="A33" s="30"/>
+      <c r="B33" s="30"/>
+      <c r="C33" s="30"/>
+      <c r="D33" s="30"/>
+    </row>
+    <row r="36" spans="1:4">
+      <c r="A36" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4">
+      <c r="A37" t="s">
+        <v>186</v>
+      </c>
+      <c r="B37" t="s">
+        <v>249</v>
+      </c>
+      <c r="C37" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4">
+      <c r="A38" t="s">
+        <v>192</v>
+      </c>
+      <c r="B38" s="21" t="s">
+        <v>201</v>
+      </c>
+      <c r="C38" t="s">
+        <v>271</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="18">
@@ -2923,123 +2960,121 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
-  <dimension ref="A1:M10"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="177.140625" style="16" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="30" t="s">
-        <v>243</v>
-      </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
+      <c r="A1" s="32" t="s">
+        <v>231</v>
+      </c>
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
       <c r="B3" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="C3" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
-      <c r="A4" t="s">
-        <v>255</v>
-      </c>
-      <c r="B4" t="s">
-        <v>249</v>
-      </c>
-      <c r="C4" s="16" t="s">
-        <v>256</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>268</v>
       </c>
       <c r="B5" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:13">
-      <c r="A6" t="s">
-        <v>247</v>
-      </c>
       <c r="B6" t="s">
-        <v>248</v>
+        <v>234</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>251</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
       <c r="B7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>252</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
-      <c r="A8" t="s">
-        <v>253</v>
-      </c>
-      <c r="B8" t="s">
-        <v>249</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13" ht="75">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="29" customFormat="1">
+      <c r="A8" s="29" t="s">
+        <v>267</v>
+      </c>
+      <c r="B8" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="C8" s="28"/>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" t="s">
-        <v>257</v>
+        <v>238</v>
       </c>
       <c r="B9" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="C9" s="16" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" ht="30">
-      <c r="A10" t="s">
-        <v>260</v>
-      </c>
-      <c r="B10" t="s">
-        <v>249</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>261</v>
+        <v>239</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="29" customFormat="1">
+      <c r="C10" s="28"/>
+    </row>
+    <row r="11" spans="1:13" ht="75">
+      <c r="A11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B11" t="s">
+        <v>235</v>
+      </c>
+      <c r="C11" s="16" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="30">
+      <c r="A12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B12" t="s">
+        <v>235</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>244</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -15,7 +15,8 @@
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
     <sheet name="States" sheetId="4" r:id="rId2"/>
     <sheet name="Calendar Passes" sheetId="5" r:id="rId3"/>
-    <sheet name="Thoughts" sheetId="3" r:id="rId4"/>
+    <sheet name="Notes" sheetId="6" r:id="rId4"/>
+    <sheet name="Thoughts" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="272">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="360">
   <si>
     <t>Feature</t>
   </si>
@@ -581,9 +582,6 @@
     <t>Generally to display stuff like holidays, don't have collisions, cant select or click</t>
   </si>
   <si>
-    <t>Can I add a NoteVM to CalendarVM or do I need to implement CRUDs in CalendarVM</t>
-  </si>
-  <si>
     <t>CalObj States</t>
   </si>
   <si>
@@ -737,18 +735,12 @@
     <t>CalendarVM</t>
   </si>
   <si>
-    <t>If a task has a TimePerTime allocation, we need to find the "Per Zones" so that we can allocate all and reset for each per. If there is no TPTA we just allocate once to the full task</t>
-  </si>
-  <si>
     <t>Find the set of time blocks that meet the given filters and are within the given per zone set. To make this faster we can exclude the per zones that don't fit the calendar before this calculation.</t>
   </si>
   <si>
     <t>AllocateTime()</t>
   </si>
   <si>
-    <t>Depending on the type of allocations and other settings of the task, we build up the CalendarObjects within each InclusionZone by adding time to each.</t>
-  </si>
-  <si>
     <t>DetermineStates()</t>
   </si>
   <si>
@@ -761,9 +753,6 @@
     <t>CalculateCollisions()</t>
   </si>
   <si>
-    <t>foreach dimension, go through all of the CalendarObjects detecting any intersections and resolving them based on the various properties of the parent mapping. If a CalObj is completely inside another, either delete the insider, or split the outsider.</t>
-  </si>
-  <si>
     <t>Square with rounded corners and the right bottom corner is flipped up. Color by task type, but with a darker shade and a black border.</t>
   </si>
   <si>
@@ -843,6 +832,396 @@
   </si>
   <si>
     <t>Note represents a CalObj that was deleted or doesen't make sense in this context</t>
+  </si>
+  <si>
+    <t>Then, go through each inclusion zone in each per zone, create or build up calobjs by adding remaining allocated time, respecting note locks.</t>
+  </si>
+  <si>
+    <t>TaskType Travel</t>
+  </si>
+  <si>
+    <t>Report on</t>
+  </si>
+  <si>
+    <t>How well the schedule is being adhered to. Based on unscheduled time, incompletes, insufficient, consistency</t>
+  </si>
+  <si>
+    <t>Can I add a NoteVM to CalendarVM or do I need to implement CRUDs in CalendarVM? Former</t>
+  </si>
+  <si>
+    <t>Show DateTime under cursor</t>
+  </si>
+  <si>
+    <t>in bottom bar</t>
+  </si>
+  <si>
+    <t>Go to Now, follow</t>
+  </si>
+  <si>
+    <t xml:space="preserve">When a note determines the Start/End/State of a CalObj, that property is marked with a bool "Lock", prevents modification from allocations or collisions. </t>
+  </si>
+  <si>
+    <t>We want to build only the CalObjs that are necessary. To do this we want to select all of the PerZones that Intersect the calendar view. However it's possible a Per could stretch outside the view. In that case, there could be interaction between that Per and objects outside of the view. But then that causes a problem where we need to know about interactions with this Per outside of the view.</t>
+  </si>
+  <si>
+    <t>If a task has a TimePerTime allocation, we need to find the "Per Zones". If there is no TPTA we just allocate once to the full task</t>
+  </si>
+  <si>
+    <t>To solve this, any CalObjs that start before the start of the view must be affirmed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">foreach dimension, go through all of the CalendarObjects detecting any intersections, resolved by priority. If a CalObj is completely inside another, either delete the insider, or split the outsider. When a CalObj takes precedent over another in a collision, subtract from TimeAllocation. </t>
+  </si>
+  <si>
+    <t>CleanUpStates()</t>
+  </si>
+  <si>
+    <t>Some states were determined by the notes, but we still need to check for extra cases. If CalObj bleeds out of InclusionZone, split at the edge and mark the extraneous as Unscheduled. If Per has extra remaining, mark all of its TaskObjs as Insufficient.</t>
+  </si>
+  <si>
+    <t>Theory</t>
+  </si>
+  <si>
+    <t>Move this back to CalendarVM</t>
+  </si>
+  <si>
+    <t>Move BuildZones to CalendarVM</t>
+  </si>
+  <si>
+    <t>end</t>
+  </si>
+  <si>
+    <t>foreach note</t>
+  </si>
+  <si>
+    <t>which task?</t>
+  </si>
+  <si>
+    <t>what state?</t>
+  </si>
+  <si>
+    <t>prev over zone?</t>
+  </si>
+  <si>
+    <t>pN not exist</t>
+  </si>
+  <si>
+    <t>N start
+N over Z</t>
+  </si>
+  <si>
+    <t>N start
+N not over Z</t>
+  </si>
+  <si>
+    <t>pN start
+pN over Z</t>
+  </si>
+  <si>
+    <t>pN exist?</t>
+  </si>
+  <si>
+    <t>pN start?</t>
+  </si>
+  <si>
+    <t>pN end?</t>
+  </si>
+  <si>
+    <t>pP different?</t>
+  </si>
+  <si>
+    <t>pZ different?</t>
+  </si>
+  <si>
+    <t>over Z?</t>
+  </si>
+  <si>
+    <t>N end
+N over Z</t>
+  </si>
+  <si>
+    <t>N end
+N not over Z</t>
+  </si>
+  <si>
+    <t>N start
+Z different</t>
+  </si>
+  <si>
+    <t>N end
+Z different</t>
+  </si>
+  <si>
+    <t>pN start
+pN not over Z</t>
+  </si>
+  <si>
+    <t>pN end
+pN over Z</t>
+  </si>
+  <si>
+    <t>pN end
+pN not over Z</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>set pN = N, repeat</t>
+  </si>
+  <si>
+    <t>A note can say:</t>
+  </si>
+  <si>
+    <t>confirm</t>
+  </si>
+  <si>
+    <t>cancel</t>
+  </si>
+  <si>
+    <t>start</t>
+  </si>
+  <si>
+    <t>N start
+N over Z
+P/T different</t>
+  </si>
+  <si>
+    <t>N start
+N not over Z
+P/T different</t>
+  </si>
+  <si>
+    <t>N end
+N over Z
+P/T different</t>
+  </si>
+  <si>
+    <t>N end
+N not over Z
+P/T different</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N + 5
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N + 5
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N - 5
+C.End = N
+C.State = conflict</t>
+  </si>
+  <si>
+    <t>pC.End = N
+create new C
+C.Start = N
+C.End = N + 5
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = N
+C.End = N+5
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = pZ.End
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = N
+C.End = N+5
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, N)
+create new C
+C.Start = N
+C.End = N + 5
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, N)
+create new C
+C.Start = N
+C.End = N + 5
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, N-5)
+create new C
+C.Start = N - 5
+C.End = N
+C.State = conflict</t>
+  </si>
+  <si>
+    <t>Don't lock when a Note implicitly sets Start/End</t>
+  </si>
+  <si>
+    <t>Whenever Start/End is explicitly set from a Note, lock it</t>
+  </si>
+  <si>
+    <t>pC.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = pC.End
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+pC.End = Z.Start
+C.Start = Z.Start
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = Z.Start
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C1
+pC.End = Z1.Start
+C1.Start = Z1.Start
+C1.End = N
+C1.State = confirm
+create new C2
+C2.Start = N
+C2.End = N + 5
+C2.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C1
+C1.Start = pC.End
+C1.End = pZ.End
+C1.State = confirm
+create new C2
+C2.Start = C1.End
+C2.End = N
+C2.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = pC.End
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N+5
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = Z.Start
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N+ 5
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = Max(Z.Start, pC.End)
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = N
+create new C
+C.Start = N
+C.End = N + 5
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, Z.Start)
+create new C
+C.Start = Max(pC.End, Z.Start)
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Max(Z.Start, pC.End)
+create new C
+C.Start = pC.End
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = N-5
+create new C
+C.Start = N - 5
+C.End = N
+C.State = conflict</t>
+  </si>
+  <si>
+    <t>conflict happens when Note is "end" but we can't determine a previous start</t>
+  </si>
+  <si>
+    <t>we can determine start/end implicitly based on zone boundaries and explicit start/end</t>
+  </si>
+  <si>
+    <t>N</t>
+  </si>
+  <si>
+    <t>Z</t>
+  </si>
+  <si>
+    <t>T</t>
+  </si>
+  <si>
+    <t>P</t>
+  </si>
+  <si>
+    <t>Note/Note.DateTime</t>
+  </si>
+  <si>
+    <t>InclusionZone</t>
+  </si>
+  <si>
+    <t>PerZone</t>
+  </si>
+  <si>
+    <t>pX</t>
+  </si>
+  <si>
+    <t>previous X</t>
+  </si>
+  <si>
+    <t>C</t>
+  </si>
+  <si>
+    <t>CalendarObject</t>
+  </si>
+  <si>
+    <t>Foreach dimension, Foreach note, determine which InclusionZone it refers to if  any, then create or modify the TaskObj it refers to. Keep track of the previously created TaskObj so we can determine when it ends based on the next note.</t>
   </si>
 </sst>
 </file>
@@ -974,7 +1353,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -997,11 +1376,169 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="55">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1050,6 +1587,7 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -1057,15 +1595,105 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="8">
+  <dxfs count="12">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF7F"/>
+          <bgColor rgb="FF00FF7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7FFF00"/>
+          <bgColor rgb="FF7FFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -1148,27 +1776,27 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="7"/>
-      <tableStyleElement type="headerRow" dxfId="6"/>
+      <tableStyleElement type="wholeTable" dxfId="11"/>
+      <tableStyleElement type="headerRow" dxfId="10"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="5"/>
-      <tableStyleElement type="headerRow" dxfId="4"/>
-      <tableStyleElement type="secondRowStripe" dxfId="3"/>
+      <tableStyleElement type="wholeTable" dxfId="9"/>
+      <tableStyleElement type="headerRow" dxfId="8"/>
+      <tableStyleElement type="secondRowStripe" dxfId="7"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFDC143C"/>
+      <color rgb="FFFFC0CB"/>
+      <color rgb="FF00FF7F"/>
+      <color rgb="FF7FFF00"/>
       <color rgb="FF7FFFD4"/>
       <color rgb="FF66CDAA"/>
       <color rgb="FF87CEEB"/>
-      <color rgb="FF7FFF00"/>
       <color rgb="FF1E90FF"/>
       <color rgb="FFFFA500"/>
-      <color rgb="FFFFC0CB"/>
-      <color rgb="FFDC143C"/>
-      <color rgb="FF00FF7F"/>
       <color rgb="FF32CD32"/>
     </mruColors>
   </colors>
@@ -1184,12 +1812,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C128" totalsRowShown="0">
-  <autoFilter ref="A1:C128" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C133" totalsRowShown="0">
+  <autoFilter ref="A1:C133" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="6"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="1"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="5"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1492,10 +2120,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G128"/>
+  <dimension ref="A1:G133"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="A59" sqref="A59"/>
+    <sheetView topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="B60" sqref="B60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2041,7 +2669,7 @@
         <v>181</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
     </row>
     <row r="57" spans="1:3">
@@ -2055,7 +2683,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B58" s="14" t="s">
         <v>28</v>
@@ -2064,11 +2692,13 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="12" t="s">
-        <v>253</v>
-      </c>
-      <c r="B59" s="14"/>
+        <v>249</v>
+      </c>
+      <c r="B59" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C59" s="13" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2076,7 +2706,7 @@
         <v>9</v>
       </c>
       <c r="C60" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="61" spans="1:3">
@@ -2085,47 +2715,45 @@
       </c>
       <c r="B61" s="14"/>
       <c r="C61" s="13" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="62" spans="1:3" s="10" customFormat="1">
       <c r="A62" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="B62" s="14"/>
+      <c r="B62" s="14" t="s">
+        <v>28</v>
+      </c>
       <c r="C62" s="13" t="s">
-        <v>184</v>
+        <v>272</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="10" customFormat="1">
-      <c r="A63" s="12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B63" s="3"/>
-      <c r="C63" s="13" t="s">
-        <v>245</v>
-      </c>
+      <c r="A63" s="9" t="s">
+        <v>132</v>
+      </c>
+      <c r="C63" s="11"/>
     </row>
     <row r="64" spans="1:3" s="14" customFormat="1">
-      <c r="A64" s="9" t="s">
-        <v>132</v>
-      </c>
-      <c r="B64" s="10"/>
-      <c r="C64" s="11"/>
-    </row>
-    <row r="65" spans="1:3" s="14" customFormat="1">
-      <c r="A65" s="12" t="s">
+      <c r="A64" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C65" s="13"/>
+      <c r="C64" s="13"/>
+    </row>
+    <row r="65" spans="1:3" s="10" customFormat="1">
+      <c r="A65" s="9" t="s">
+        <v>176</v>
+      </c>
+      <c r="C65" s="11" t="s">
+        <v>177</v>
+      </c>
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1">
       <c r="A66" s="12" t="s">
-        <v>176</v>
-      </c>
-      <c r="C66" s="13" t="s">
-        <v>177</v>
-      </c>
+        <v>285</v>
+      </c>
+      <c r="C66" s="13"/>
     </row>
     <row r="67" spans="1:3" s="14" customFormat="1">
       <c r="A67" s="12" t="s">
@@ -2140,447 +2768,484 @@
         <v>139</v>
       </c>
       <c r="C68" s="13" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
     </row>
     <row r="69" spans="1:3" s="14" customFormat="1">
       <c r="A69" s="12" t="s">
-        <v>223</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B69" s="3"/>
       <c r="C69" s="13" t="s">
-        <v>224</v>
+        <v>241</v>
       </c>
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C70" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="C70" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1">
       <c r="A71" s="12" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="C71" s="13"/>
     </row>
     <row r="72" spans="1:3" s="14" customFormat="1">
       <c r="A72" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" s="14" customFormat="1">
+      <c r="A73" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C72" s="13" t="s">
+      <c r="C73" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="73" spans="1:3">
-      <c r="A73" s="2" t="s">
+    <row r="74" spans="1:3">
+      <c r="A74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C73" s="4" t="s">
+      <c r="C74" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="12" t="s">
-        <v>248</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
     </row>
     <row r="75" spans="1:3">
       <c r="A75" s="12" t="s">
-        <v>115</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B75" s="14"/>
+      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3">
+      <c r="A77" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C76" s="13" t="s">
+      <c r="C77" s="13" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3">
-      <c r="A77" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C77" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="78" spans="1:3">
       <c r="A78" s="2" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="C78" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3">
+      <c r="A82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
+    <row r="83" spans="1:3">
+      <c r="A83" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B82" s="14"/>
-      <c r="C82" s="13" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="12" t="s">
-        <v>171</v>
-      </c>
-      <c r="C83" s="13" t="s">
-        <v>173</v>
       </c>
     </row>
     <row r="84" spans="1:3">
       <c r="A84" s="12" t="s">
-        <v>172</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B84" s="14"/>
       <c r="C84" s="13" t="s">
-        <v>174</v>
+        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="12" t="s">
+        <v>171</v>
+      </c>
+      <c r="C85" s="13" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3">
+      <c r="A86" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C86" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="87" spans="1:3">
+      <c r="A87" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C85" s="13" t="s">
+      <c r="C87" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C87" s="13" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C88" s="4" t="s">
-        <v>55</v>
+        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="12" t="s">
-        <v>110</v>
+      <c r="A89" s="2" t="s">
+        <v>13</v>
       </c>
       <c r="C89" s="13" t="s">
-        <v>111</v>
+        <v>156</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>15</v>
+        <v>54</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>88</v>
+      <c r="A91" s="12" t="s">
+        <v>110</v>
       </c>
       <c r="C91" s="13" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>38</v>
+      <c r="A93" s="12" t="s">
+        <v>273</v>
       </c>
       <c r="C93" s="13" t="s">
-        <v>39</v>
+        <v>274</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="12" t="s">
-        <v>139</v>
+      <c r="A94" s="2" t="s">
+        <v>88</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>247</v>
+        <v>116</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C95" s="13" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" ht="30">
-      <c r="A96" s="12" t="s">
-        <v>158</v>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
+        <v>38</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>157</v>
+        <v>39</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="C97" s="13" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" ht="30">
+      <c r="A99" s="12" t="s">
+        <v>158</v>
+      </c>
+      <c r="C99" s="13" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C100" s="13" t="s">
         <v>159</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="12" t="s">
+    <row r="101" spans="1:3">
+      <c r="A101" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="12" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="12" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C100" s="4" t="s">
+      <c r="C103" s="4" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C105" s="13" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="12" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="C106" s="13"/>
+    </row>
+    <row r="107" spans="1:3">
+      <c r="A107" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="C107" s="13"/>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="C103" s="13"/>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="12" t="s">
-        <v>165</v>
-      </c>
-      <c r="C104" s="13"/>
-    </row>
-    <row r="105" spans="1:3" ht="30">
-      <c r="A105" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="B105" s="14"/>
-      <c r="C105" s="13" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="C107" s="4" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>98</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>99</v>
-      </c>
+      <c r="C108" s="13"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C109" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>85</v>
+        <v>165</v>
+      </c>
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110" spans="1:3" ht="30">
+      <c r="A110" s="12" t="s">
+        <v>166</v>
+      </c>
+      <c r="B110" s="14"/>
+      <c r="C110" s="13" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="C111" s="13" t="s">
-        <v>251</v>
+      <c r="A111" s="2" t="s">
+        <v>82</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" s="10" customFormat="1">
-      <c r="A113" s="12" t="s">
-        <v>112</v>
-      </c>
-      <c r="B113" s="3"/>
-      <c r="C113" s="4"/>
+        <v>94</v>
+      </c>
+      <c r="C112" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>66</v>
+      <c r="A114" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="C114" s="13" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>67</v>
+        <v>85</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="12" t="s">
-        <v>119</v>
+        <v>246</v>
       </c>
       <c r="C116" s="13" t="s">
-        <v>126</v>
+        <v>247</v>
       </c>
     </row>
     <row r="117" spans="1:3">
-      <c r="A117" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" s="10" customFormat="1">
       <c r="A118" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="C118" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="45">
-      <c r="A119" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="B119" s="14"/>
-      <c r="C119" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
-      <c r="A120" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="B120" s="14"/>
-      <c r="C120" s="13" t="s">
-        <v>162</v>
+        <v>112</v>
+      </c>
+      <c r="B118" s="3"/>
+      <c r="C118" s="4"/>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>67</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="12" t="s">
-        <v>167</v>
-      </c>
-      <c r="B121" s="14"/>
+        <v>119</v>
+      </c>
       <c r="C121" s="13" t="s">
-        <v>168</v>
+        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C122" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3" ht="45">
+      <c r="A124" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="B124" s="14"/>
+      <c r="C124" s="13" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30">
+      <c r="A125" s="12" t="s">
+        <v>161</v>
+      </c>
+      <c r="B125" s="14"/>
+      <c r="C125" s="13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="12" t="s">
+        <v>167</v>
+      </c>
+      <c r="B126" s="14"/>
+      <c r="C126" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="B122" s="14"/>
-      <c r="C122" s="13" t="s">
+      <c r="B127" s="14"/>
+      <c r="C127" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="123" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A123" s="9" t="s">
+    <row r="128" spans="1:3" s="14" customFormat="1" ht="30">
+      <c r="A128" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B123" s="10"/>
-      <c r="C123" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3" ht="30">
-      <c r="A124" s="9" t="s">
-        <v>50</v>
-      </c>
-      <c r="B124" s="10"/>
-      <c r="C124" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="B125" s="10"/>
-      <c r="C125" s="11" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="B126" s="10"/>
-      <c r="C126" s="11"/>
-    </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="9" t="s">
-        <v>102</v>
-      </c>
-      <c r="B127" s="10"/>
-      <c r="C127" s="11" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="9" t="s">
-        <v>103</v>
       </c>
       <c r="B128" s="10"/>
       <c r="C128" s="11" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3" ht="30">
+      <c r="A129" s="9" t="s">
+        <v>50</v>
+      </c>
+      <c r="B129" s="10"/>
+      <c r="C129" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="9" t="s">
+        <v>17</v>
+      </c>
+      <c r="B130" s="10"/>
+      <c r="C130" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="9" t="s">
+        <v>20</v>
+      </c>
+      <c r="B131" s="10"/>
+      <c r="C131" s="11"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="9" t="s">
+        <v>102</v>
+      </c>
+      <c r="B132" s="10"/>
+      <c r="C132" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B133" s="10"/>
+      <c r="C133" s="11" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -2594,10 +3259,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB4886-0351-4FBB-AD2E-ACDCB11388DD}">
-  <dimension ref="A1:E38"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C35" sqref="C35"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2606,345 +3271,271 @@
     <col min="2" max="2" width="19.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="82.85546875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="58.28515625" style="16" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20" customWidth="1"/>
+    <col min="5" max="5" width="48" customWidth="1"/>
     <col min="6" max="6" width="9.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>185</v>
+      </c>
+      <c r="B2" t="s">
+        <v>245</v>
+      </c>
+      <c r="C2" t="s">
         <v>186</v>
       </c>
-      <c r="B2" t="s">
-        <v>249</v>
-      </c>
-      <c r="C2" t="s">
-        <v>187</v>
-      </c>
       <c r="D2" s="16" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B3" s="17" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="C3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C4" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D4" s="16" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B5" s="19" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="C5" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="E5" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C6" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D6" s="16" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="C7" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D7" s="16" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="C8" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D8" s="16" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="C9" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="E9" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="B10" s="24" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="C10" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D10" s="16" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="E10" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
+        <v>215</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" t="s">
         <v>216</v>
       </c>
-      <c r="B11" s="25" t="s">
-        <v>205</v>
-      </c>
-      <c r="C11" t="s">
-        <v>217</v>
-      </c>
       <c r="E11" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B12" s="26" t="s">
+        <v>205</v>
+      </c>
+      <c r="C12" t="s">
+        <v>218</v>
+      </c>
+      <c r="E12" t="s">
         <v>260</v>
-      </c>
-      <c r="B12" s="26" t="s">
-        <v>206</v>
-      </c>
-      <c r="C12" t="s">
-        <v>219</v>
-      </c>
-      <c r="E12" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C13" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="E13" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="34" t="s">
+        <v>226</v>
+      </c>
+      <c r="B16" s="34"/>
+      <c r="C16" s="34"/>
+      <c r="D16" s="34"/>
+    </row>
+    <row r="17" spans="1:7">
+      <c r="A17" s="34" t="s">
         <v>227</v>
       </c>
-      <c r="B16" s="30"/>
-      <c r="C16" s="30"/>
-      <c r="D16" s="30"/>
-    </row>
-    <row r="17" spans="1:4">
-      <c r="A17" s="30" t="s">
-        <v>228</v>
-      </c>
-      <c r="B17" s="30"/>
-      <c r="C17" s="30"/>
-      <c r="D17" s="30"/>
-    </row>
-    <row r="18" spans="1:4">
-      <c r="A18" s="30"/>
-      <c r="B18" s="30"/>
-      <c r="C18" s="30"/>
-      <c r="D18" s="30"/>
-    </row>
-    <row r="19" spans="1:4">
-      <c r="A19" s="31" t="s">
-        <v>241</v>
-      </c>
-      <c r="B19" s="31"/>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-    </row>
-    <row r="20" spans="1:4">
-      <c r="A20" s="31" t="s">
-        <v>255</v>
-      </c>
-      <c r="B20" s="31"/>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-    </row>
-    <row r="21" spans="1:4">
-      <c r="A21" s="31"/>
-      <c r="B21" s="31"/>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-    </row>
-    <row r="22" spans="1:4">
-      <c r="A22" s="30"/>
-      <c r="B22" s="30"/>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-    </row>
-    <row r="23" spans="1:4">
-      <c r="A23" s="32"/>
-      <c r="B23" s="32"/>
-      <c r="C23" s="32"/>
-      <c r="D23" s="32"/>
-    </row>
-    <row r="24" spans="1:4">
-      <c r="A24" s="30"/>
-      <c r="B24" s="30"/>
-      <c r="C24" s="30"/>
-      <c r="D24" s="30"/>
-    </row>
-    <row r="25" spans="1:4">
-      <c r="A25" s="30"/>
-      <c r="B25" s="30"/>
-      <c r="C25" s="30"/>
-      <c r="D25" s="30"/>
-    </row>
-    <row r="26" spans="1:4">
-      <c r="A26" s="30"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="30"/>
-      <c r="D26" s="30"/>
-    </row>
-    <row r="27" spans="1:4">
-      <c r="A27" s="30"/>
-      <c r="B27" s="30"/>
-      <c r="C27" s="30"/>
-      <c r="D27" s="30"/>
-    </row>
-    <row r="28" spans="1:4">
-      <c r="A28" s="30"/>
-      <c r="B28" s="30"/>
-      <c r="C28" s="30"/>
-      <c r="D28" s="30"/>
-    </row>
-    <row r="29" spans="1:4">
-      <c r="A29" s="30"/>
-      <c r="B29" s="30"/>
-      <c r="C29" s="30"/>
-      <c r="D29" s="30"/>
-    </row>
-    <row r="30" spans="1:4">
-      <c r="A30" s="30"/>
-      <c r="B30" s="30"/>
-      <c r="C30" s="30"/>
-      <c r="D30" s="30"/>
-    </row>
-    <row r="31" spans="1:4">
-      <c r="A31" s="30"/>
-      <c r="B31" s="30"/>
-      <c r="C31" s="30"/>
-      <c r="D31" s="30"/>
-    </row>
-    <row r="32" spans="1:4">
-      <c r="A32" s="30"/>
-      <c r="B32" s="30"/>
-      <c r="C32" s="30"/>
-      <c r="D32" s="30"/>
-    </row>
-    <row r="33" spans="1:4">
-      <c r="A33" s="30"/>
-      <c r="B33" s="30"/>
-      <c r="C33" s="30"/>
-      <c r="D33" s="30"/>
-    </row>
-    <row r="36" spans="1:4">
-      <c r="A36" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="1:4">
-      <c r="A37" t="s">
+      <c r="B17" s="34"/>
+      <c r="C17" s="34"/>
+      <c r="D17" s="34"/>
+    </row>
+    <row r="18" spans="1:7">
+      <c r="A18" s="34"/>
+      <c r="B18" s="34"/>
+      <c r="C18" s="34"/>
+      <c r="D18" s="34"/>
+    </row>
+    <row r="19" spans="1:7">
+      <c r="A19" s="35" t="s">
+        <v>238</v>
+      </c>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+    </row>
+    <row r="20" spans="1:7">
+      <c r="A20" s="35" t="s">
+        <v>251</v>
+      </c>
+      <c r="B20" s="35"/>
+      <c r="C20" s="35"/>
+      <c r="D20" s="35"/>
+    </row>
+    <row r="21" spans="1:7">
+      <c r="A21" s="35"/>
+      <c r="B21" s="35"/>
+      <c r="C21" s="35"/>
+      <c r="D21" s="35"/>
+    </row>
+    <row r="22" spans="1:7">
+      <c r="A22" s="34" t="s">
+        <v>276</v>
+      </c>
+      <c r="B22" s="34"/>
+      <c r="C22" s="34"/>
+      <c r="D22" s="34"/>
+    </row>
+    <row r="24" spans="1:7">
+      <c r="A24" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
+      <c r="A25" t="s">
+        <v>185</v>
+      </c>
+      <c r="B25" t="s">
+        <v>245</v>
+      </c>
+      <c r="C25" t="s">
         <v>186</v>
       </c>
-      <c r="B37" t="s">
-        <v>249</v>
-      </c>
-      <c r="C37" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4">
-      <c r="A38" t="s">
-        <v>192</v>
-      </c>
-      <c r="B38" s="21" t="s">
-        <v>201</v>
-      </c>
-      <c r="C38" t="s">
-        <v>271</v>
-      </c>
+    </row>
+    <row r="26" spans="1:7">
+      <c r="A26" t="s">
+        <v>191</v>
+      </c>
+      <c r="B26" s="21" t="s">
+        <v>200</v>
+      </c>
+      <c r="C26" t="s">
+        <v>267</v>
+      </c>
+      <c r="G26" s="30"/>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A32:D32"/>
-    <mergeCell ref="A33:D33"/>
-    <mergeCell ref="A23:D23"/>
-    <mergeCell ref="A26:D26"/>
-    <mergeCell ref="A27:D27"/>
-    <mergeCell ref="A28:D28"/>
-    <mergeCell ref="A29:D29"/>
-    <mergeCell ref="A30:D30"/>
-    <mergeCell ref="A31:D31"/>
-    <mergeCell ref="A25:D25"/>
-    <mergeCell ref="A24:D24"/>
+  <mergeCells count="7">
     <mergeCell ref="A17:D17"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A22:D22"/>
@@ -2960,121 +3551,153 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
-  <dimension ref="A1:M12"/>
+  <dimension ref="A1:M18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="24.42578125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="11.85546875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="177.140625" style="16" customWidth="1"/>
+    <col min="3" max="3" width="170" style="16" customWidth="1"/>
     <col min="13" max="13" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="32" t="s">
-        <v>231</v>
-      </c>
-      <c r="B1" s="32"/>
-      <c r="C1" s="32"/>
-      <c r="D1" s="32"/>
-      <c r="E1" s="32"/>
-      <c r="F1" s="32"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
+      <c r="A1" s="36" t="s">
+        <v>230</v>
+      </c>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="36"/>
+      <c r="H1" s="36"/>
+      <c r="I1" s="36"/>
+      <c r="J1" s="36"/>
+      <c r="K1" s="36"/>
+      <c r="L1" s="36"/>
+      <c r="M1" s="36"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
+        <v>228</v>
+      </c>
+      <c r="B3" t="s">
+        <v>232</v>
+      </c>
+      <c r="C3" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="B3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" s="16" t="s">
-        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:13">
       <c r="A5" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B5" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>236</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>278</v>
+      </c>
+      <c r="D5" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" ht="30">
       <c r="B6" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="C6" s="16" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="7" spans="1:13">
       <c r="A7" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="C7" s="16" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13" s="29" customFormat="1">
-      <c r="A8" s="29" t="s">
-        <v>267</v>
-      </c>
-      <c r="B8" s="29" t="s">
-        <v>235</v>
-      </c>
-      <c r="C8" s="28"/>
-    </row>
-    <row r="9" spans="1:13">
-      <c r="A9" t="s">
-        <v>238</v>
-      </c>
-      <c r="B9" t="s">
-        <v>235</v>
-      </c>
-      <c r="C9" s="16" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" s="30" customFormat="1">
+      <c r="C8" s="29"/>
+    </row>
+    <row r="9" spans="1:13" s="30" customFormat="1" ht="45">
+      <c r="B9" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C9" s="29" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" s="30" customFormat="1">
+      <c r="B10" s="30" t="s">
+        <v>283</v>
+      </c>
+      <c r="C10" s="29" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" s="32" customFormat="1" ht="30">
+      <c r="A11" s="28" t="s">
+        <v>263</v>
+      </c>
+      <c r="B11" s="28" t="s">
+        <v>234</v>
+      </c>
+      <c r="C11" s="31" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
+      <c r="A12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C12" s="16" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" ht="30">
+      <c r="A13" t="s">
+        <v>240</v>
+      </c>
+      <c r="B13" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" ht="30">
+      <c r="A14" t="s">
+        <v>281</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>234</v>
+      </c>
+      <c r="C14" s="16" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" s="10" customFormat="1" ht="90">
+      <c r="A18" s="10" t="s">
+        <v>237</v>
+      </c>
+      <c r="B18" s="10" t="s">
+        <v>234</v>
+      </c>
+      <c r="C18" s="11" t="s">
         <v>239</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13" s="29" customFormat="1">
-      <c r="C10" s="28"/>
-    </row>
-    <row r="11" spans="1:13" ht="75">
-      <c r="A11" t="s">
-        <v>240</v>
-      </c>
-      <c r="B11" t="s">
-        <v>235</v>
-      </c>
-      <c r="C11" s="16" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13" ht="30">
-      <c r="A12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C12" s="16" t="s">
-        <v>244</v>
       </c>
     </row>
   </sheetData>
@@ -3082,10 +3705,468 @@
     <mergeCell ref="A1:M1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABC8D572-6EFF-4BEA-BBEB-12B67F83C118}">
+  <sheetPr>
+    <pageSetUpPr autoPageBreaks="0"/>
+  </sheetPr>
+  <dimension ref="A1:K17"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="17.85546875" style="33" customWidth="1"/>
+    <col min="2" max="5" width="22.42578125" style="33" customWidth="1"/>
+    <col min="6" max="7" width="18.5703125" style="33" customWidth="1"/>
+    <col min="8" max="9" width="24.7109375" style="33" customWidth="1"/>
+    <col min="10" max="11" width="31.140625" style="33" customWidth="1"/>
+    <col min="12" max="16384" width="17.85546875" style="33"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11">
+      <c r="A1" s="50" t="s">
+        <v>287</v>
+      </c>
+      <c r="B1" s="50" t="s">
+        <v>310</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="D1" s="50"/>
+      <c r="E1" s="50"/>
+      <c r="F1" s="50"/>
+      <c r="G1" s="53" t="s">
+        <v>348</v>
+      </c>
+      <c r="H1" s="50" t="s">
+        <v>352</v>
+      </c>
+      <c r="I1" s="50"/>
+      <c r="J1" s="50"/>
+      <c r="K1" s="50"/>
+    </row>
+    <row r="2" spans="1:11">
+      <c r="A2" s="50" t="s">
+        <v>288</v>
+      </c>
+      <c r="B2" s="51" t="s">
+        <v>311</v>
+      </c>
+      <c r="C2" s="50" t="s">
+        <v>329</v>
+      </c>
+      <c r="D2" s="50"/>
+      <c r="E2" s="50"/>
+      <c r="F2" s="50"/>
+      <c r="G2" s="53" t="s">
+        <v>349</v>
+      </c>
+      <c r="H2" s="50" t="s">
+        <v>353</v>
+      </c>
+      <c r="I2" s="50"/>
+      <c r="J2" s="50"/>
+      <c r="K2" s="50"/>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B3" s="52" t="s">
+        <v>312</v>
+      </c>
+      <c r="C3" s="50" t="s">
+        <v>346</v>
+      </c>
+      <c r="D3" s="50"/>
+      <c r="E3" s="50"/>
+      <c r="F3" s="50"/>
+      <c r="G3" s="53" t="s">
+        <v>350</v>
+      </c>
+      <c r="H3" s="50" t="s">
+        <v>233</v>
+      </c>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" s="50" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="50" t="s">
+        <v>313</v>
+      </c>
+      <c r="C4" s="50" t="s">
+        <v>347</v>
+      </c>
+      <c r="D4" s="50"/>
+      <c r="E4" s="50"/>
+      <c r="F4" s="50"/>
+      <c r="G4" s="53" t="s">
+        <v>351</v>
+      </c>
+      <c r="H4" s="50" t="s">
+        <v>354</v>
+      </c>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+      <c r="K4" s="50"/>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" s="50" t="s">
+        <v>295</v>
+      </c>
+      <c r="B5" s="50" t="s">
+        <v>286</v>
+      </c>
+      <c r="C5" s="50"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="50"/>
+      <c r="G5" s="54" t="s">
+        <v>357</v>
+      </c>
+      <c r="H5" s="33" t="s">
+        <v>358</v>
+      </c>
+      <c r="I5" s="50"/>
+      <c r="J5" s="50"/>
+      <c r="K5" s="50"/>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" s="50" t="s">
+        <v>296</v>
+      </c>
+      <c r="B6" s="50"/>
+      <c r="C6" s="50"/>
+      <c r="D6" s="50"/>
+      <c r="E6" s="50"/>
+      <c r="F6" s="50"/>
+      <c r="G6" s="53" t="s">
+        <v>355</v>
+      </c>
+      <c r="H6" s="50" t="s">
+        <v>356</v>
+      </c>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+      <c r="K6" s="50"/>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" s="50" t="s">
+        <v>297</v>
+      </c>
+      <c r="B7" s="50"/>
+      <c r="C7" s="50"/>
+      <c r="D7" s="50"/>
+      <c r="E7" s="50"/>
+      <c r="F7" s="50"/>
+      <c r="G7" s="50"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+      <c r="K7" s="50"/>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" s="50" t="s">
+        <v>298</v>
+      </c>
+      <c r="B8" s="50"/>
+      <c r="C8" s="50"/>
+      <c r="D8" s="50"/>
+      <c r="E8" s="50"/>
+      <c r="F8" s="50"/>
+      <c r="G8" s="50"/>
+      <c r="H8" s="50"/>
+      <c r="I8" s="50"/>
+      <c r="J8" s="50"/>
+      <c r="K8" s="50"/>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" s="50" t="s">
+        <v>299</v>
+      </c>
+      <c r="B9" s="50"/>
+      <c r="C9" s="50"/>
+      <c r="D9" s="50"/>
+      <c r="E9" s="50"/>
+      <c r="F9" s="50"/>
+      <c r="G9" s="50"/>
+      <c r="H9" s="50"/>
+      <c r="I9" s="50"/>
+      <c r="J9" s="50"/>
+      <c r="K9" s="50"/>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" s="50" t="s">
+        <v>290</v>
+      </c>
+      <c r="B10" s="50"/>
+      <c r="C10" s="50"/>
+      <c r="D10" s="50"/>
+      <c r="E10" s="50"/>
+      <c r="F10" s="50"/>
+      <c r="G10" s="50"/>
+      <c r="H10" s="50"/>
+      <c r="I10" s="50"/>
+      <c r="J10" s="50"/>
+      <c r="K10" s="50"/>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" s="50" t="s">
+        <v>309</v>
+      </c>
+      <c r="B11" s="50"/>
+      <c r="C11" s="50"/>
+      <c r="D11" s="50"/>
+      <c r="E11" s="50"/>
+      <c r="F11" s="50"/>
+      <c r="G11" s="50"/>
+      <c r="H11" s="50"/>
+      <c r="I11" s="50"/>
+      <c r="J11" s="50"/>
+      <c r="K11" s="50"/>
+    </row>
+    <row r="12" spans="1:11" ht="45">
+      <c r="A12" s="39"/>
+      <c r="B12" s="37" t="s">
+        <v>292</v>
+      </c>
+      <c r="C12" s="37" t="s">
+        <v>293</v>
+      </c>
+      <c r="D12" s="37" t="s">
+        <v>301</v>
+      </c>
+      <c r="E12" s="37" t="s">
+        <v>302</v>
+      </c>
+      <c r="F12" s="37" t="s">
+        <v>303</v>
+      </c>
+      <c r="G12" s="37" t="s">
+        <v>304</v>
+      </c>
+      <c r="H12" s="37" t="s">
+        <v>314</v>
+      </c>
+      <c r="I12" s="37" t="s">
+        <v>315</v>
+      </c>
+      <c r="J12" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="K12" s="40" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" ht="60">
+      <c r="A13" s="38" t="s">
+        <v>291</v>
+      </c>
+      <c r="B13" s="42" t="s">
+        <v>318</v>
+      </c>
+      <c r="C13" s="43" t="s">
+        <v>319</v>
+      </c>
+      <c r="D13" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="E13" s="43" t="s">
+        <v>320</v>
+      </c>
+      <c r="F13" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="G13" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="H13" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="I13" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="J13" s="43" t="s">
+        <v>308</v>
+      </c>
+      <c r="K13" s="44" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" ht="75">
+      <c r="A14" s="38" t="s">
+        <v>294</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>321</v>
+      </c>
+      <c r="C14" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D14" s="46" t="s">
+        <v>323</v>
+      </c>
+      <c r="E14" s="46" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="46" t="s">
+        <v>325</v>
+      </c>
+      <c r="G14" s="46" t="s">
+        <v>339</v>
+      </c>
+      <c r="H14" s="46" t="s">
+        <v>326</v>
+      </c>
+      <c r="I14" s="46" t="s">
+        <v>327</v>
+      </c>
+      <c r="J14" s="46" t="s">
+        <v>343</v>
+      </c>
+      <c r="K14" s="46" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" ht="135">
+      <c r="A15" s="38" t="s">
+        <v>305</v>
+      </c>
+      <c r="B15" s="45" t="s">
+        <v>335</v>
+      </c>
+      <c r="C15" s="46" t="s">
+        <v>322</v>
+      </c>
+      <c r="D15" s="46" t="s">
+        <v>333</v>
+      </c>
+      <c r="E15" s="46" t="s">
+        <v>331</v>
+      </c>
+      <c r="F15" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="G15" s="46" t="s">
+        <v>308</v>
+      </c>
+      <c r="H15" s="46" t="s">
+        <v>321</v>
+      </c>
+      <c r="I15" s="46" t="s">
+        <v>342</v>
+      </c>
+      <c r="J15" s="46" t="s">
+        <v>344</v>
+      </c>
+      <c r="K15" s="47" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" ht="120">
+      <c r="A16" s="38" t="s">
+        <v>306</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C16" s="46" t="s">
+        <v>319</v>
+      </c>
+      <c r="D16" s="46" t="s">
+        <v>332</v>
+      </c>
+      <c r="E16" s="46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F16" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="G16" s="46" t="s">
+        <v>334</v>
+      </c>
+      <c r="H16" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="I16" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J16" s="46" t="s">
+        <v>341</v>
+      </c>
+      <c r="K16" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="60">
+      <c r="A17" s="41" t="s">
+        <v>307</v>
+      </c>
+      <c r="B17" s="48" t="s">
+        <v>318</v>
+      </c>
+      <c r="C17" s="49" t="s">
+        <v>319</v>
+      </c>
+      <c r="D17" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="E17" s="49" t="s">
+        <v>337</v>
+      </c>
+      <c r="F17" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="G17" s="49" t="s">
+        <v>308</v>
+      </c>
+      <c r="H17" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="I17" s="46" t="s">
+        <v>340</v>
+      </c>
+      <c r="J17" s="49" t="s">
+        <v>341</v>
+      </c>
+      <c r="K17" s="47" t="s">
+        <v>320</v>
+      </c>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="B13:K17">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="unscheduled">
+      <formula>NOT(ISERROR(SEARCH("unscheduled",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="confirm">
+      <formula>NOT(ISERROR(SEARCH("confirm",B13)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",B13)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396B387-46D7-4AB3-8C4F-DEA1CC7ED8C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="2" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="3" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="360">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="464" uniqueCount="363">
   <si>
     <t>Feature</t>
   </si>
@@ -826,12 +826,6 @@
   </si>
   <si>
     <t>a datastructure that associates a task to Per zones, CalObjs, InclusionZones</t>
-  </si>
-  <si>
-    <t>Note States</t>
-  </si>
-  <si>
-    <t>Note represents a CalObj that was deleted or doesen't make sense in this context</t>
   </si>
   <si>
     <t>Then, go through each inclusion zone in each per zone, create or build up calobjs by adding remaining allocated time, respecting note locks.</t>
@@ -980,90 +974,12 @@
   </si>
   <si>
     <t>start</t>
-  </si>
-  <si>
-    <t>N start
-N over Z
-P/T different</t>
-  </si>
-  <si>
-    <t>N start
-N not over Z
-P/T different</t>
-  </si>
-  <si>
-    <t>N end
-N over Z
-P/T different</t>
-  </si>
-  <si>
-    <t>N end
-N not over Z
-P/T different</t>
-  </si>
-  <si>
-    <t>create new C
-C.Start = N
-C.End = N + 5
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>create new C
-C.Start = N
-C.End = N + 5
-C.State = unscheduled</t>
   </si>
   <si>
     <t>create new C
 C.Start = N - 5
 C.End = N
 C.State = conflict</t>
-  </si>
-  <si>
-    <t>pC.End = N
-create new C
-C.Start = N
-C.End = N + 5
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = pZ.End
-create new C
-C.Start = N
-C.End = N+5
-C.State = unscheduled</t>
-  </si>
-  <si>
-    <t>pC.End = N
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = pZ.End
-create new C
-C.Start = pZ.End
-C.End = N
-C.State = unscheduled</t>
-  </si>
-  <si>
-    <t>pC.End = pZ.End
-create new C
-C.Start = N
-C.End = N+5
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = Min(pZ.End, N)
-create new C
-C.Start = N
-C.End = N + 5
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = Min(pZ.End, N)
-create new C
-C.Start = N
-C.End = N + 5
-C.State = unscheduled</t>
   </si>
   <si>
     <t>pC.End = Min(pZ.End, N-5)
@@ -1079,10 +995,6 @@
     <t>Whenever Start/End is explicitly set from a Note, lock it</t>
   </si>
   <si>
-    <t>pC.End = N
-C.State = unscheduled</t>
-  </si>
-  <si>
     <t>create new C
 C.Start = pC.End
 C.End = N
@@ -1090,49 +1002,15 @@
   </si>
   <si>
     <t>create new C
-pC.End = Z.Start
 C.Start = Z.Start
 C.End = N
 C.State = confirm</t>
-  </si>
-  <si>
-    <t>create new C
-C.Start = Z.Start
-C.End = N
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>create new C1
-pC.End = Z1.Start
-C1.Start = Z1.Start
-C1.End = N
-C1.State = confirm
-create new C2
-C2.Start = N
-C2.End = N + 5
-C2.State = confirm</t>
-  </si>
-  <si>
-    <t>create new C1
-C1.Start = pC.End
-C1.End = pZ.End
-C1.State = confirm
-create new C2
-C2.Start = C1.End
-C2.End = N
-C2.State = unscheduled</t>
   </si>
   <si>
     <t>create new C
 C.Start = pC.End
 C.End = N
 C.State = unscheduled</t>
-  </si>
-  <si>
-    <t>create new C
-C.Start = N
-C.End = N+5
-C.State = confirm</t>
   </si>
   <si>
     <t>pC.End = pZ.End
@@ -1143,34 +1021,7 @@
   </si>
   <si>
     <t>create new C
-C.Start = N
-C.End = N+ 5
-C.State = unscheduled</t>
-  </si>
-  <si>
-    <t>create new C
 C.Start = Max(Z.Start, pC.End)
-C.End = N
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = N
-create new C
-C.Start = N
-C.End = N + 5
-C.State = unscheduled</t>
-  </si>
-  <si>
-    <t>pC.End = Min(pZ.End, Z.Start)
-create new C
-C.Start = Max(pC.End, Z.Start)
-C.End = N
-C.State = confirm</t>
-  </si>
-  <si>
-    <t>pC.End = Max(Z.Start, pC.End)
-create new C
-C.Start = pC.End
 C.End = N
 C.State = confirm</t>
   </si>
@@ -1221,7 +1072,168 @@
     <t>CalendarObject</t>
   </si>
   <si>
-    <t>Foreach dimension, Foreach note, determine which InclusionZone it refers to if  any, then create or modify the TaskObj it refers to. Keep track of the previously created TaskObj so we can determine when it ends based on the next note.</t>
+    <t>Foreach dimension, Foreach note, determine which InclusionZone it refers to if  any, then create or modify the TaskObj it refers to. Keep track of the previously created TaskObj so we can determine when it ends based on the next note. See Notes tab</t>
+  </si>
+  <si>
+    <t>N start
+N over Z
+P different</t>
+  </si>
+  <si>
+    <t>N start
+N not over Z
+P different</t>
+  </si>
+  <si>
+    <t>N end
+N over Z
+P different</t>
+  </si>
+  <si>
+    <t>N end
+N not over Z
+P different</t>
+  </si>
+  <si>
+    <t>pC.End = N
+(confirmed)</t>
+  </si>
+  <si>
+    <t>pC.End = N
+(unscheduled)</t>
+  </si>
+  <si>
+    <t>pC.End = Z.Start
+create new C
+C.Start = Z.Start
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = pC.End
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>create new C1
+C1.Start = pC.End
+C1.End = pZ.End
+C1.State = confirm
+pC = C1
+create new C2
+C2.Start = pC.End
+C2.End = N
+C2.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = Max(Z.Start, pC.End)
+create new C
+C.Start = Max(Z.Start, pC.End)
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, Z.Start)
+create new C
+C.Start = Max(Z.Start, pC.End)
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>create new C
+C.Start = N
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = N
+create new C
+C.Start = N
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, N)
+create new C
+C.Start = N
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = Min(pZ.End, N)
+create new C
+C.Start = N
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = Z.Start
+create new C1
+C1.Start = Z.Start
+C1.End = N
+C1.State = confirm
+create new C2
+C2.Start = N
+C2.End = N
+C2.State = confirm</t>
+  </si>
+  <si>
+    <t>pC.End = N
+create new C
+C.Start = N
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = N
+C.End = N
+C.State = unscheduled</t>
+  </si>
+  <si>
+    <t>pC.End = pZ.End
+create new C
+C.Start = N
+C.End = N
+C.State = confirm</t>
+  </si>
+  <si>
+    <t>make a line at the Note.DT. Fix Day panels to stretch note to day width</t>
+  </si>
+  <si>
+    <t>N cancel
+N over Z</t>
+  </si>
+  <si>
+    <t>N cancel
+N not over Z</t>
+  </si>
+  <si>
+    <t>pN cancel
+pN over Z</t>
+  </si>
+  <si>
+    <t>pN cancel
+pN not over Z</t>
+  </si>
+  <si>
+    <t>N cancel
+N over Z
+P different</t>
+  </si>
+  <si>
+    <t>N cancel
+N not over Z
+P different</t>
   </si>
 </sst>
 </file>
@@ -1353,7 +1365,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -1371,46 +1383,6 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
-      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -1438,19 +1410,6 @@
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
       </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -1534,11 +1493,93 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="55">
+  <cellXfs count="61">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1599,20 +1640,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1621,19 +1652,48 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1645,20 +1705,122 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
+  <dxfs count="24">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF7F"/>
+          <bgColor rgb="FF00FF7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7FFF00"/>
+          <bgColor rgb="FF7FFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF7F"/>
+          <bgColor rgb="FF00FF7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7FFF00"/>
+          <bgColor rgb="FF7FFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF7F"/>
+          <bgColor rgb="FF00FF7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7FFF00"/>
+          <bgColor rgb="FF7FFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1776,14 +1938,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="11"/>
-      <tableStyleElement type="headerRow" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="23"/>
+      <tableStyleElement type="headerRow" dxfId="22"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="9"/>
-      <tableStyleElement type="headerRow" dxfId="8"/>
-      <tableStyleElement type="secondRowStripe" dxfId="7"/>
+      <tableStyleElement type="wholeTable" dxfId="21"/>
+      <tableStyleElement type="headerRow" dxfId="20"/>
+      <tableStyleElement type="secondRowStripe" dxfId="19"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1812,12 +1974,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C133" totalsRowShown="0">
-  <autoFilter ref="A1:C133" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C134" totalsRowShown="0">
+  <autoFilter ref="A1:C134" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="17"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2120,10 +2282,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G133"/>
+  <dimension ref="A1:G134"/>
   <sheetViews>
     <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="A71" sqref="A71"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2726,7 +2888,7 @@
         <v>28</v>
       </c>
       <c r="C62" s="13" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="63" spans="1:3" s="10" customFormat="1">
@@ -2751,7 +2913,7 @@
     </row>
     <row r="66" spans="1:3" s="14" customFormat="1">
       <c r="A66" s="12" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="C66" s="13"/>
     </row>
@@ -2782,470 +2944,479 @@
     </row>
     <row r="70" spans="1:3" s="14" customFormat="1">
       <c r="A70" s="12" t="s">
-        <v>222</v>
-      </c>
+        <v>118</v>
+      </c>
+      <c r="B70" s="3"/>
       <c r="C70" s="13" t="s">
-        <v>223</v>
+        <v>356</v>
       </c>
     </row>
     <row r="71" spans="1:3" s="14" customFormat="1">
       <c r="A71" s="12" t="s">
-        <v>224</v>
-      </c>
-      <c r="C71" s="13"/>
+        <v>222</v>
+      </c>
+      <c r="C71" s="13" t="s">
+        <v>223</v>
+      </c>
     </row>
     <row r="72" spans="1:3" s="14" customFormat="1">
       <c r="A72" s="12" t="s">
-        <v>89</v>
+        <v>224</v>
       </c>
       <c r="C72" s="13"/>
     </row>
     <row r="73" spans="1:3" s="14" customFormat="1">
       <c r="A73" s="12" t="s">
+        <v>89</v>
+      </c>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" s="14" customFormat="1">
+      <c r="A74" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C73" s="13" t="s">
+      <c r="C74" s="13" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="74" spans="1:3">
-      <c r="A74" s="2" t="s">
+    <row r="75" spans="1:3">
+      <c r="A75" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="C74" s="4" t="s">
+      <c r="C75" s="4" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="75" spans="1:3">
-      <c r="A75" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3">
       <c r="A76" s="12" t="s">
-        <v>115</v>
-      </c>
+        <v>244</v>
+      </c>
+      <c r="B76" s="14"/>
+      <c r="C76" s="13"/>
     </row>
     <row r="77" spans="1:3">
       <c r="A77" s="12" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3">
+      <c r="A78" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="C77" s="13" t="s">
+      <c r="C78" s="13" t="s">
         <v>183</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C78" s="4" t="s">
-        <v>101</v>
       </c>
     </row>
     <row r="79" spans="1:3">
       <c r="A79" s="2" t="s">
-        <v>6</v>
+        <v>100</v>
+      </c>
+      <c r="C79" s="4" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="80" spans="1:3">
       <c r="A80" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3">
+      <c r="A81" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="12" t="s">
-        <v>270</v>
-      </c>
-      <c r="C81" s="13" t="s">
-        <v>271</v>
-      </c>
-    </row>
     <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>12</v>
+      <c r="A82" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="C82" s="13" t="s">
+        <v>269</v>
       </c>
     </row>
     <row r="83" spans="1:3">
       <c r="A83" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3">
+      <c r="A84" s="2" t="s">
         <v>90</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="B84" s="14"/>
-      <c r="C84" s="13" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="85" spans="1:3">
       <c r="A85" s="12" t="s">
-        <v>171</v>
-      </c>
+        <v>178</v>
+      </c>
+      <c r="B85" s="14"/>
       <c r="C85" s="13" t="s">
-        <v>173</v>
+        <v>179</v>
       </c>
     </row>
     <row r="86" spans="1:3">
       <c r="A86" s="12" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C86" s="13" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="C87" s="13" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3">
+      <c r="A88" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C87" s="13" t="s">
+      <c r="C88" s="13" t="s">
         <v>148</v>
-      </c>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
-        <v>10</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>156</v>
+        <v>10</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C90" s="13" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C90" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="12" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="C91" s="13" t="s">
+      <c r="C92" s="13" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+    <row r="93" spans="1:3">
+      <c r="A93" s="2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="12" t="s">
-        <v>273</v>
-      </c>
-      <c r="C93" s="13" t="s">
-        <v>274</v>
-      </c>
-    </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>88</v>
+      <c r="A94" s="12" t="s">
+        <v>271</v>
       </c>
       <c r="C94" s="13" t="s">
-        <v>116</v>
+        <v>272</v>
       </c>
     </row>
     <row r="95" spans="1:3">
       <c r="A95" s="2" t="s">
-        <v>40</v>
+        <v>88</v>
+      </c>
+      <c r="C95" s="13" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C97" s="13" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="12" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="12" t="s">
         <v>139</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C98" s="13" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C99" s="13" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="30">
-      <c r="A99" s="12" t="s">
+    <row r="100" spans="1:3" ht="30">
+      <c r="A100" s="12" t="s">
         <v>158</v>
       </c>
-      <c r="C99" s="13" t="s">
+      <c r="C100" s="13" t="s">
         <v>157</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="12" t="s">
-        <v>160</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>159</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="12" t="s">
-        <v>113</v>
+        <v>160</v>
+      </c>
+      <c r="C101" s="13" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="12" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="12" t="s">
         <v>114</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C103" s="4" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>57</v>
+        <v>52</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C105" s="13" t="s">
+      <c r="C106" s="13" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="12" t="s">
-        <v>275</v>
-      </c>
-      <c r="C106" s="13"/>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="12" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C107" s="13"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="12" t="s">
-        <v>164</v>
+        <v>267</v>
       </c>
       <c r="C108" s="13"/>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="12" t="s">
+        <v>164</v>
+      </c>
+      <c r="C109" s="13"/>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110" spans="1:3" ht="30">
-      <c r="A110" s="12" t="s">
+      <c r="C110" s="13"/>
+    </row>
+    <row r="111" spans="1:3" ht="30">
+      <c r="A111" s="12" t="s">
         <v>166</v>
       </c>
-      <c r="B110" s="14"/>
-      <c r="C110" s="13" t="s">
+      <c r="B111" s="14"/>
+      <c r="C111" s="13" t="s">
         <v>42</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>94</v>
+        <v>82</v>
       </c>
       <c r="C112" s="4" t="s">
-        <v>95</v>
+        <v>83</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="C113" s="4" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="C113" s="4" t="s">
+      <c r="C114" s="4" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="12" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="12" t="s">
         <v>108</v>
       </c>
-      <c r="C114" s="13" t="s">
+      <c r="C115" s="13" t="s">
         <v>109</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="12" t="s">
+    <row r="117" spans="1:3">
+      <c r="A117" s="12" t="s">
         <v>246</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C117" s="13" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
         <v>76</v>
       </c>
     </row>
-    <row r="118" spans="1:3" s="10" customFormat="1">
-      <c r="A118" s="12" t="s">
+    <row r="119" spans="1:3" s="10" customFormat="1">
+      <c r="A119" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="B118" s="3"/>
-      <c r="C118" s="4"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>66</v>
-      </c>
+      <c r="B119" s="3"/>
+      <c r="C119" s="4"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
         <v>67</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="12" t="s">
-        <v>119</v>
-      </c>
-      <c r="C121" s="13" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="12" t="s">
-        <v>134</v>
+        <v>119</v>
       </c>
       <c r="C122" s="13" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="C123" s="13" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="12" t="s">
         <v>153</v>
       </c>
-      <c r="C123" s="13" t="s">
+      <c r="C124" s="13" t="s">
         <v>154</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="45">
-      <c r="A124" s="12" t="s">
+    <row r="125" spans="1:3" ht="45">
+      <c r="A125" s="12" t="s">
         <v>139</v>
-      </c>
-      <c r="B124" s="14"/>
-      <c r="C124" s="13" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="30">
-      <c r="A125" s="12" t="s">
-        <v>161</v>
       </c>
       <c r="B125" s="14"/>
       <c r="C125" s="13" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
       <c r="A126" s="12" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="B126" s="14"/>
       <c r="C126" s="13" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="12" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B127" s="14"/>
       <c r="C127" s="13" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="12" t="s">
+        <v>169</v>
+      </c>
+      <c r="B128" s="14"/>
+      <c r="C128" s="13" t="s">
         <v>170</v>
       </c>
     </row>
-    <row r="128" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A128" s="9" t="s">
+    <row r="129" spans="1:3" s="14" customFormat="1" ht="30">
+      <c r="A129" s="9" t="s">
         <v>144</v>
-      </c>
-      <c r="B128" s="10"/>
-      <c r="C128" s="11" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3" ht="30">
-      <c r="A129" s="9" t="s">
-        <v>50</v>
       </c>
       <c r="B129" s="10"/>
       <c r="C129" s="11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" ht="30">
       <c r="A130" s="9" t="s">
-        <v>17</v>
+        <v>50</v>
       </c>
       <c r="B130" s="10"/>
       <c r="C130" s="11" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="9" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B131" s="10"/>
-      <c r="C131" s="11"/>
+      <c r="C131" s="11" t="s">
+        <v>41</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="9" t="s">
-        <v>102</v>
+        <v>20</v>
       </c>
       <c r="B132" s="10"/>
-      <c r="C132" s="11" t="s">
-        <v>105</v>
-      </c>
+      <c r="C132" s="11"/>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="9" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B133" s="10"/>
       <c r="C133" s="11" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="B134" s="10"/>
+      <c r="C134" s="11" t="s">
         <v>104</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="4" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="16" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3259,10 +3430,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB4886-0351-4FBB-AD2E-ACDCB11388DD}">
-  <dimension ref="A1:G26"/>
+  <dimension ref="A1:G30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="B31" sqref="B31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3455,84 +3626,91 @@
       </c>
     </row>
     <row r="16" spans="1:5">
-      <c r="A16" s="34" t="s">
+      <c r="A16" s="47" t="s">
         <v>226</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34"/>
-      <c r="D16" s="34"/>
+      <c r="B16" s="47"/>
+      <c r="C16" s="47"/>
+      <c r="D16" s="47"/>
     </row>
     <row r="17" spans="1:7">
-      <c r="A17" s="34" t="s">
+      <c r="A17" s="47" t="s">
         <v>227</v>
       </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34"/>
-      <c r="D17" s="34"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="47"/>
+      <c r="D17" s="47"/>
     </row>
     <row r="18" spans="1:7">
-      <c r="A18" s="34"/>
-      <c r="B18" s="34"/>
-      <c r="C18" s="34"/>
-      <c r="D18" s="34"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
     </row>
     <row r="19" spans="1:7">
-      <c r="A19" s="35" t="s">
+      <c r="A19" s="48" t="s">
         <v>238</v>
       </c>
-      <c r="B19" s="35"/>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
+      <c r="B19" s="48"/>
+      <c r="C19" s="48"/>
+      <c r="D19" s="48"/>
     </row>
     <row r="20" spans="1:7">
-      <c r="A20" s="35" t="s">
+      <c r="A20" s="48" t="s">
         <v>251</v>
       </c>
-      <c r="B20" s="35"/>
-      <c r="C20" s="35"/>
-      <c r="D20" s="35"/>
+      <c r="B20" s="48"/>
+      <c r="C20" s="48"/>
+      <c r="D20" s="48"/>
     </row>
     <row r="21" spans="1:7">
-      <c r="A21" s="35"/>
-      <c r="B21" s="35"/>
-      <c r="C21" s="35"/>
-      <c r="D21" s="35"/>
+      <c r="A21" s="48"/>
+      <c r="B21" s="48"/>
+      <c r="C21" s="48"/>
+      <c r="D21" s="48"/>
     </row>
     <row r="22" spans="1:7">
-      <c r="A22" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="B22" s="34"/>
-      <c r="C22" s="34"/>
-      <c r="D22" s="34"/>
+      <c r="A22" s="47" t="s">
+        <v>274</v>
+      </c>
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
     </row>
     <row r="24" spans="1:7">
-      <c r="A24" t="s">
-        <v>266</v>
-      </c>
+      <c r="B24" s="46"/>
+      <c r="C24" s="46"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" t="s">
-        <v>185</v>
-      </c>
-      <c r="B25" t="s">
-        <v>245</v>
-      </c>
-      <c r="C25" t="s">
-        <v>186</v>
-      </c>
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="46"/>
     </row>
     <row r="26" spans="1:7">
-      <c r="A26" t="s">
-        <v>191</v>
-      </c>
-      <c r="B26" s="21" t="s">
-        <v>200</v>
-      </c>
-      <c r="C26" t="s">
-        <v>267</v>
-      </c>
+      <c r="A26" s="46"/>
+      <c r="B26" s="46"/>
+      <c r="C26" s="46"/>
       <c r="G26" s="30"/>
+    </row>
+    <row r="27" spans="1:7">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+    </row>
+    <row r="28" spans="1:7">
+      <c r="A28" s="46"/>
+      <c r="B28" s="46"/>
+      <c r="C28" s="46"/>
+    </row>
+    <row r="29" spans="1:7">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+    </row>
+    <row r="30" spans="1:7">
+      <c r="A30" s="46"/>
+      <c r="B30" s="46"/>
+      <c r="C30" s="46"/>
     </row>
   </sheetData>
   <mergeCells count="7">
@@ -3553,8 +3731,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
   <dimension ref="A1:M18"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3566,21 +3744,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:13">
-      <c r="A1" s="36" t="s">
+      <c r="A1" s="49" t="s">
         <v>230</v>
       </c>
-      <c r="B1" s="36"/>
-      <c r="C1" s="36"/>
-      <c r="D1" s="36"/>
-      <c r="E1" s="36"/>
-      <c r="F1" s="36"/>
-      <c r="G1" s="36"/>
-      <c r="H1" s="36"/>
-      <c r="I1" s="36"/>
-      <c r="J1" s="36"/>
-      <c r="K1" s="36"/>
-      <c r="L1" s="36"/>
-      <c r="M1" s="36"/>
+      <c r="B1" s="49"/>
+      <c r="C1" s="49"/>
+      <c r="D1" s="49"/>
+      <c r="E1" s="49"/>
+      <c r="F1" s="49"/>
+      <c r="G1" s="49"/>
+      <c r="H1" s="49"/>
+      <c r="I1" s="49"/>
+      <c r="J1" s="49"/>
+      <c r="K1" s="49"/>
+      <c r="L1" s="49"/>
+      <c r="M1" s="49"/>
     </row>
     <row r="3" spans="1:13">
       <c r="A3" t="s">
@@ -3601,10 +3779,10 @@
         <v>233</v>
       </c>
       <c r="C5" s="16" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="D5" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="6" spans="1:13" ht="30">
@@ -3631,18 +3809,18 @@
     </row>
     <row r="9" spans="1:13" s="30" customFormat="1" ht="45">
       <c r="B9" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C9" s="29" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="30" customFormat="1">
       <c r="B10" s="30" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="C10" s="29" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="11" spans="1:13" s="32" customFormat="1" ht="30">
@@ -3653,7 +3831,7 @@
         <v>234</v>
       </c>
       <c r="C11" s="31" t="s">
-        <v>359</v>
+        <v>335</v>
       </c>
     </row>
     <row r="12" spans="1:13">
@@ -3664,7 +3842,7 @@
         <v>234</v>
       </c>
       <c r="C12" s="16" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="13" spans="1:13" ht="30">
@@ -3675,18 +3853,18 @@
         <v>234</v>
       </c>
       <c r="C13" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="14" spans="1:13" ht="30">
       <c r="A14" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B14" s="32" t="s">
         <v>234</v>
       </c>
       <c r="C14" s="16" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="18" spans="1:3" s="10" customFormat="1" ht="90">
@@ -3714,11 +3892,11 @@
   <sheetPr>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:K17"/>
+  <dimension ref="A1:O20"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E9" sqref="E9"/>
+      <selection pane="topRight" activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.85546875" defaultRowHeight="15"/>
@@ -3731,431 +3909,510 @@
     <col min="12" max="16384" width="17.85546875" style="33"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11">
-      <c r="A1" s="50" t="s">
+    <row r="1" spans="1:15" ht="45">
+      <c r="A1" s="34"/>
+      <c r="B1" s="58" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="58" t="s">
+        <v>291</v>
+      </c>
+      <c r="D1" s="58" t="s">
+        <v>299</v>
+      </c>
+      <c r="E1" s="58" t="s">
+        <v>300</v>
+      </c>
+      <c r="F1" s="58" t="s">
+        <v>301</v>
+      </c>
+      <c r="G1" s="58" t="s">
+        <v>302</v>
+      </c>
+      <c r="H1" s="58" t="s">
+        <v>336</v>
+      </c>
+      <c r="I1" s="58" t="s">
+        <v>337</v>
+      </c>
+      <c r="J1" s="58" t="s">
+        <v>338</v>
+      </c>
+      <c r="K1" s="58" t="s">
+        <v>339</v>
+      </c>
+      <c r="L1" s="59" t="s">
+        <v>357</v>
+      </c>
+      <c r="M1" s="59" t="s">
+        <v>358</v>
+      </c>
+      <c r="N1" s="59" t="s">
+        <v>361</v>
+      </c>
+      <c r="O1" s="60" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" ht="60">
+      <c r="A2" s="56" t="s">
+        <v>289</v>
+      </c>
+      <c r="B2" s="34" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="E2" s="35" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="G2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="H2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="I2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="J2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="K2" s="35" t="s">
+        <v>306</v>
+      </c>
+      <c r="L2" s="35"/>
+      <c r="M2" s="51"/>
+      <c r="N2" s="51"/>
+      <c r="O2" s="52"/>
+    </row>
+    <row r="3" spans="1:15" ht="75">
+      <c r="A3" s="56" t="s">
+        <v>292</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>349</v>
+      </c>
+      <c r="C3" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D3" s="37" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="37" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="37" t="s">
+        <v>355</v>
+      </c>
+      <c r="G3" s="37" t="s">
+        <v>319</v>
+      </c>
+      <c r="H3" s="37" t="s">
+        <v>350</v>
+      </c>
+      <c r="I3" s="37" t="s">
+        <v>351</v>
+      </c>
+      <c r="J3" s="37" t="s">
+        <v>346</v>
+      </c>
+      <c r="K3" s="37" t="s">
+        <v>313</v>
+      </c>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="50"/>
+    </row>
+    <row r="4" spans="1:15" ht="135">
+      <c r="A4" s="56" t="s">
+        <v>303</v>
+      </c>
+      <c r="B4" s="36" t="s">
+        <v>352</v>
+      </c>
+      <c r="C4" s="37" t="s">
+        <v>354</v>
+      </c>
+      <c r="D4" s="37" t="s">
+        <v>342</v>
+      </c>
+      <c r="E4" s="37" t="s">
+        <v>341</v>
+      </c>
+      <c r="F4" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G4" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H4" s="37" t="s">
+        <v>349</v>
+      </c>
+      <c r="I4" s="37" t="s">
+        <v>353</v>
+      </c>
+      <c r="J4" s="37" t="s">
+        <v>345</v>
+      </c>
+      <c r="K4" s="37" t="s">
+        <v>321</v>
+      </c>
+      <c r="L4" s="53"/>
+      <c r="M4" s="53"/>
+      <c r="N4" s="53"/>
+      <c r="O4" s="50"/>
+    </row>
+    <row r="5" spans="1:15" ht="135">
+      <c r="A5" s="56" t="s">
+        <v>304</v>
+      </c>
+      <c r="B5" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C5" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D5" s="37" t="s">
+        <v>316</v>
+      </c>
+      <c r="E5" s="37" t="s">
+        <v>344</v>
+      </c>
+      <c r="F5" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="G5" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="H5" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I5" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J5" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K5" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L5" s="37"/>
+      <c r="M5" s="53"/>
+      <c r="N5" s="53"/>
+      <c r="O5" s="50"/>
+    </row>
+    <row r="6" spans="1:15" ht="60">
+      <c r="A6" s="56" t="s">
+        <v>305</v>
+      </c>
+      <c r="B6" s="36" t="s">
+        <v>347</v>
+      </c>
+      <c r="C6" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="D6" s="37" t="s">
+        <v>317</v>
+      </c>
+      <c r="E6" s="37" t="s">
+        <v>318</v>
+      </c>
+      <c r="F6" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="G6" s="37" t="s">
+        <v>306</v>
+      </c>
+      <c r="H6" s="37" t="s">
+        <v>347</v>
+      </c>
+      <c r="I6" s="37" t="s">
+        <v>348</v>
+      </c>
+      <c r="J6" s="37" t="s">
+        <v>320</v>
+      </c>
+      <c r="K6" s="37" t="s">
+        <v>312</v>
+      </c>
+      <c r="L6" s="37"/>
+      <c r="M6" s="53"/>
+      <c r="N6" s="53"/>
+      <c r="O6" s="50"/>
+    </row>
+    <row r="7" spans="1:15" s="45" customFormat="1" ht="30">
+      <c r="A7" s="56" t="s">
+        <v>359</v>
+      </c>
+      <c r="B7" s="36"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="53"/>
+      <c r="N7" s="53"/>
+      <c r="O7" s="50"/>
+    </row>
+    <row r="8" spans="1:15" s="45" customFormat="1" ht="30">
+      <c r="A8" s="57" t="s">
+        <v>360</v>
+      </c>
+      <c r="B8" s="38"/>
+      <c r="C8" s="39"/>
+      <c r="D8" s="39"/>
+      <c r="E8" s="39"/>
+      <c r="F8" s="39"/>
+      <c r="G8" s="39"/>
+      <c r="H8" s="39"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="39"/>
+      <c r="K8" s="39"/>
+      <c r="L8" s="39"/>
+      <c r="M8" s="54"/>
+      <c r="N8" s="54"/>
+      <c r="O8" s="55"/>
+    </row>
+    <row r="10" spans="1:15">
+      <c r="A10" s="40" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="40" t="s">
+        <v>308</v>
+      </c>
+      <c r="C10" s="40" t="s">
+        <v>315</v>
+      </c>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="43" t="s">
+        <v>324</v>
+      </c>
+      <c r="H10" s="40" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
+      <c r="A11" s="40" t="s">
+        <v>286</v>
+      </c>
+      <c r="B11" s="41" t="s">
+        <v>309</v>
+      </c>
+      <c r="C11" s="40" t="s">
+        <v>314</v>
+      </c>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="43" t="s">
+        <v>325</v>
+      </c>
+      <c r="H11" s="40" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
+      <c r="A12" s="40" t="s">
         <v>287</v>
       </c>
-      <c r="B1" s="50" t="s">
+      <c r="B12" s="42" t="s">
         <v>310</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="C12" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="43" t="s">
+        <v>326</v>
+      </c>
+      <c r="H12" s="40" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
+      <c r="A13" s="40" t="s">
+        <v>298</v>
+      </c>
+      <c r="B13" s="40" t="s">
+        <v>311</v>
+      </c>
+      <c r="C13" s="40" t="s">
+        <v>323</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="43" t="s">
+        <v>327</v>
+      </c>
+      <c r="H13" s="40" t="s">
         <v>330</v>
       </c>
-      <c r="D1" s="50"/>
-      <c r="E1" s="50"/>
-      <c r="F1" s="50"/>
-      <c r="G1" s="53" t="s">
-        <v>348</v>
-      </c>
-      <c r="H1" s="50" t="s">
-        <v>352</v>
-      </c>
-      <c r="I1" s="50"/>
-      <c r="J1" s="50"/>
-      <c r="K1" s="50"/>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="50" t="s">
+    </row>
+    <row r="14" spans="1:15">
+      <c r="A14" s="40" t="s">
+        <v>293</v>
+      </c>
+      <c r="B14" s="40" t="s">
+        <v>284</v>
+      </c>
+      <c r="C14" s="40"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="44" t="s">
+        <v>333</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
+      <c r="A15" s="40" t="s">
+        <v>294</v>
+      </c>
+      <c r="B15" s="40"/>
+      <c r="C15" s="40"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="43" t="s">
+        <v>331</v>
+      </c>
+      <c r="H15" s="40" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
+      <c r="A16" s="40" t="s">
+        <v>295</v>
+      </c>
+      <c r="B16" s="40"/>
+      <c r="C16" s="40"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" s="40" t="s">
+        <v>296</v>
+      </c>
+      <c r="B17" s="40"/>
+      <c r="C17" s="40"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+    </row>
+    <row r="18" spans="1:8">
+      <c r="A18" s="40" t="s">
+        <v>297</v>
+      </c>
+      <c r="B18" s="40"/>
+      <c r="C18" s="40"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+    </row>
+    <row r="19" spans="1:8">
+      <c r="A19" s="40" t="s">
         <v>288</v>
       </c>
-      <c r="B2" s="51" t="s">
-        <v>311</v>
-      </c>
-      <c r="C2" s="50" t="s">
-        <v>329</v>
-      </c>
-      <c r="D2" s="50"/>
-      <c r="E2" s="50"/>
-      <c r="F2" s="50"/>
-      <c r="G2" s="53" t="s">
-        <v>349</v>
-      </c>
-      <c r="H2" s="50" t="s">
-        <v>353</v>
-      </c>
-      <c r="I2" s="50"/>
-      <c r="J2" s="50"/>
-      <c r="K2" s="50"/>
-    </row>
-    <row r="3" spans="1:11">
-      <c r="A3" s="50" t="s">
-        <v>289</v>
-      </c>
-      <c r="B3" s="52" t="s">
-        <v>312</v>
-      </c>
-      <c r="C3" s="50" t="s">
-        <v>346</v>
-      </c>
-      <c r="D3" s="50"/>
-      <c r="E3" s="50"/>
-      <c r="F3" s="50"/>
-      <c r="G3" s="53" t="s">
-        <v>350</v>
-      </c>
-      <c r="H3" s="50" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="50"/>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="50" t="s">
-        <v>300</v>
-      </c>
-      <c r="B4" s="50" t="s">
-        <v>313</v>
-      </c>
-      <c r="C4" s="50" t="s">
-        <v>347</v>
-      </c>
-      <c r="D4" s="50"/>
-      <c r="E4" s="50"/>
-      <c r="F4" s="50"/>
-      <c r="G4" s="53" t="s">
-        <v>351</v>
-      </c>
-      <c r="H4" s="50" t="s">
-        <v>354</v>
-      </c>
-      <c r="I4" s="50"/>
-      <c r="J4" s="50"/>
-      <c r="K4" s="50"/>
-    </row>
-    <row r="5" spans="1:11">
-      <c r="A5" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B5" s="50" t="s">
-        <v>286</v>
-      </c>
-      <c r="C5" s="50"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="50"/>
-      <c r="G5" s="54" t="s">
-        <v>357</v>
-      </c>
-      <c r="H5" s="33" t="s">
-        <v>358</v>
-      </c>
-      <c r="I5" s="50"/>
-      <c r="J5" s="50"/>
-      <c r="K5" s="50"/>
-    </row>
-    <row r="6" spans="1:11">
-      <c r="A6" s="50" t="s">
-        <v>296</v>
-      </c>
-      <c r="B6" s="50"/>
-      <c r="C6" s="50"/>
-      <c r="D6" s="50"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="50"/>
-      <c r="G6" s="53" t="s">
-        <v>355</v>
-      </c>
-      <c r="H6" s="50" t="s">
-        <v>356</v>
-      </c>
-      <c r="I6" s="50"/>
-      <c r="J6" s="50"/>
-      <c r="K6" s="50"/>
-    </row>
-    <row r="7" spans="1:11">
-      <c r="A7" s="50" t="s">
-        <v>297</v>
-      </c>
-      <c r="B7" s="50"/>
-      <c r="C7" s="50"/>
-      <c r="D7" s="50"/>
-      <c r="E7" s="50"/>
-      <c r="F7" s="50"/>
-      <c r="G7" s="50"/>
-      <c r="H7" s="50"/>
-      <c r="I7" s="50"/>
-      <c r="J7" s="50"/>
-      <c r="K7" s="50"/>
-    </row>
-    <row r="8" spans="1:11">
-      <c r="A8" s="50" t="s">
-        <v>298</v>
-      </c>
-      <c r="B8" s="50"/>
-      <c r="C8" s="50"/>
-      <c r="D8" s="50"/>
-      <c r="E8" s="50"/>
-      <c r="F8" s="50"/>
-      <c r="G8" s="50"/>
-      <c r="H8" s="50"/>
-      <c r="I8" s="50"/>
-      <c r="J8" s="50"/>
-      <c r="K8" s="50"/>
-    </row>
-    <row r="9" spans="1:11">
-      <c r="A9" s="50" t="s">
-        <v>299</v>
-      </c>
-      <c r="B9" s="50"/>
-      <c r="C9" s="50"/>
-      <c r="D9" s="50"/>
-      <c r="E9" s="50"/>
-      <c r="F9" s="50"/>
-      <c r="G9" s="50"/>
-      <c r="H9" s="50"/>
-      <c r="I9" s="50"/>
-      <c r="J9" s="50"/>
-      <c r="K9" s="50"/>
-    </row>
-    <row r="10" spans="1:11">
-      <c r="A10" s="50" t="s">
-        <v>290</v>
-      </c>
-      <c r="B10" s="50"/>
-      <c r="C10" s="50"/>
-      <c r="D10" s="50"/>
-      <c r="E10" s="50"/>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50"/>
-      <c r="H10" s="50"/>
-      <c r="I10" s="50"/>
-      <c r="J10" s="50"/>
-      <c r="K10" s="50"/>
-    </row>
-    <row r="11" spans="1:11">
-      <c r="A11" s="50" t="s">
-        <v>309</v>
-      </c>
-      <c r="B11" s="50"/>
-      <c r="C11" s="50"/>
-      <c r="D11" s="50"/>
-      <c r="E11" s="50"/>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50"/>
-      <c r="H11" s="50"/>
-      <c r="I11" s="50"/>
-      <c r="J11" s="50"/>
-      <c r="K11" s="50"/>
-    </row>
-    <row r="12" spans="1:11" ht="45">
-      <c r="A12" s="39"/>
-      <c r="B12" s="37" t="s">
-        <v>292</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>293</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>301</v>
-      </c>
-      <c r="E12" s="37" t="s">
-        <v>302</v>
-      </c>
-      <c r="F12" s="37" t="s">
-        <v>303</v>
-      </c>
-      <c r="G12" s="37" t="s">
-        <v>304</v>
-      </c>
-      <c r="H12" s="37" t="s">
-        <v>314</v>
-      </c>
-      <c r="I12" s="37" t="s">
-        <v>315</v>
-      </c>
-      <c r="J12" s="37" t="s">
-        <v>316</v>
-      </c>
-      <c r="K12" s="40" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" ht="60">
-      <c r="A13" s="38" t="s">
-        <v>291</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>318</v>
-      </c>
-      <c r="C13" s="43" t="s">
-        <v>319</v>
-      </c>
-      <c r="D13" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="E13" s="43" t="s">
-        <v>320</v>
-      </c>
-      <c r="F13" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="G13" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="H13" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="I13" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="J13" s="43" t="s">
-        <v>308</v>
-      </c>
-      <c r="K13" s="44" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" ht="75">
-      <c r="A14" s="38" t="s">
-        <v>294</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>321</v>
-      </c>
-      <c r="C14" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="D14" s="46" t="s">
-        <v>323</v>
-      </c>
-      <c r="E14" s="46" t="s">
-        <v>324</v>
-      </c>
-      <c r="F14" s="46" t="s">
-        <v>325</v>
-      </c>
-      <c r="G14" s="46" t="s">
-        <v>339</v>
-      </c>
-      <c r="H14" s="46" t="s">
-        <v>326</v>
-      </c>
-      <c r="I14" s="46" t="s">
-        <v>327</v>
-      </c>
-      <c r="J14" s="46" t="s">
-        <v>343</v>
-      </c>
-      <c r="K14" s="46" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" ht="135">
-      <c r="A15" s="38" t="s">
-        <v>305</v>
-      </c>
-      <c r="B15" s="45" t="s">
-        <v>335</v>
-      </c>
-      <c r="C15" s="46" t="s">
-        <v>322</v>
-      </c>
-      <c r="D15" s="46" t="s">
-        <v>333</v>
-      </c>
-      <c r="E15" s="46" t="s">
-        <v>331</v>
-      </c>
-      <c r="F15" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="G15" s="46" t="s">
-        <v>308</v>
-      </c>
-      <c r="H15" s="46" t="s">
-        <v>321</v>
-      </c>
-      <c r="I15" s="46" t="s">
-        <v>342</v>
-      </c>
-      <c r="J15" s="46" t="s">
-        <v>344</v>
-      </c>
-      <c r="K15" s="47" t="s">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" ht="120">
-      <c r="A16" s="38" t="s">
-        <v>306</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="C16" s="46" t="s">
-        <v>319</v>
-      </c>
-      <c r="D16" s="46" t="s">
-        <v>332</v>
-      </c>
-      <c r="E16" s="46" t="s">
-        <v>336</v>
-      </c>
-      <c r="F16" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="G16" s="46" t="s">
-        <v>334</v>
-      </c>
-      <c r="H16" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="I16" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="J16" s="46" t="s">
-        <v>341</v>
-      </c>
-      <c r="K16" s="47" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="17" spans="1:11" ht="60">
-      <c r="A17" s="41" t="s">
+      <c r="B19" s="40"/>
+      <c r="C19" s="40"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+    </row>
+    <row r="20" spans="1:8">
+      <c r="A20" s="40" t="s">
         <v>307</v>
       </c>
-      <c r="B17" s="48" t="s">
-        <v>318</v>
-      </c>
-      <c r="C17" s="49" t="s">
-        <v>319</v>
-      </c>
-      <c r="D17" s="49" t="s">
-        <v>334</v>
-      </c>
-      <c r="E17" s="49" t="s">
-        <v>337</v>
-      </c>
-      <c r="F17" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="G17" s="49" t="s">
-        <v>308</v>
-      </c>
-      <c r="H17" s="46" t="s">
-        <v>338</v>
-      </c>
-      <c r="I17" s="46" t="s">
-        <v>340</v>
-      </c>
-      <c r="J17" s="49" t="s">
-        <v>341</v>
-      </c>
-      <c r="K17" s="47" t="s">
-        <v>320</v>
-      </c>
+      <c r="B20" s="40"/>
+      <c r="C20" s="40"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B13:K17">
+  <conditionalFormatting sqref="B2:K8">
+    <cfRule type="containsText" dxfId="15" priority="13" operator="containsText" text="unscheduled">
+      <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="confirm">
+      <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="15" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="16" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L2">
+    <cfRule type="containsText" dxfId="11" priority="9" operator="containsText" text="unscheduled">
+      <formula>NOT(ISERROR(SEARCH("unscheduled",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="10" operator="containsText" text="confirm">
+      <formula>NOT(ISERROR(SEARCH("confirm",L2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",L2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="12" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L6:L8">
+    <cfRule type="containsText" dxfId="7" priority="5" operator="containsText" text="unscheduled">
+      <formula>NOT(ISERROR(SEARCH("unscheduled",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="6" operator="containsText" text="confirm">
+      <formula>NOT(ISERROR(SEARCH("confirm",L6)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="7" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",L6)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="L5">
     <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="unscheduled">
-      <formula>NOT(ISERROR(SEARCH("unscheduled",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("unscheduled",L5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="confirm">
-      <formula>NOT(ISERROR(SEARCH("confirm",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("confirm",L5)))</formula>
     </cfRule>
     <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="conflict">
-      <formula>NOT(ISERROR(SEARCH("conflict",B13)))</formula>
+      <formula>NOT(ISERROR(SEARCH("conflict",L5)))</formula>
     </cfRule>
     <cfRule type="cellIs" dxfId="0" priority="4" operator="equal">
       <formula>"N/A"</formula>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="326">
   <si>
     <t>Feature</t>
   </si>
@@ -55,9 +55,6 @@
     <t>Data Analysis of Calendar</t>
   </si>
   <si>
-    <t>Collisions</t>
-  </si>
-  <si>
     <t>priority view</t>
   </si>
   <si>
@@ -268,9 +265,6 @@
     <t>Autocomplete textboxes</t>
   </si>
   <si>
-    <t>"We found a conflicting object at 4:45PM, what do you want to do?" Push, Merge, Yield, Edit, Cancel</t>
-  </si>
-  <si>
     <t>Implmnt TimeTasks on Calendar</t>
   </si>
   <si>
@@ -658,9 +652,6 @@
     <t>BuildTaskMaps()</t>
   </si>
   <si>
-    <t>AllocateTime()</t>
-  </si>
-  <si>
     <t>CalculateCollisions()</t>
   </si>
   <si>
@@ -715,9 +706,6 @@
     <t>CheckIn,  Confirmed, Incomplete</t>
   </si>
   <si>
-    <t>BuildZones()</t>
-  </si>
-  <si>
     <t>TaskType Travel</t>
   </si>
   <si>
@@ -772,13 +760,7 @@
     <t>See: States</t>
   </si>
   <si>
-    <t>See: Notes</t>
-  </si>
-  <si>
     <t>States Theory</t>
-  </si>
-  <si>
-    <t>Notes Theory</t>
   </si>
   <si>
     <t>Calendar Objects Theory</t>
@@ -845,9 +827,6 @@
     <t>CheckIns</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a new entity called CheckIn that has a Task, a Note, a DateTime, and a Text that is either "start" or "end". Note no longer has a Task. </t>
-  </si>
-  <si>
     <t xml:space="preserve">A task can be cancelled by setting end to start. </t>
   </si>
   <si>
@@ -884,11 +863,6 @@
     <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict.</t>
   </si>
   <si>
-    <t>For each dimension, for each CheckIn, determine which InclusionZone it refers to if  any, then create or modify the CalObj it refers to. 
-Keep track of the previously created CalObj so we can determine when it ends based on the next CheckIn.
-Depending on the CheckIn, lock the properties it modifies.</t>
-  </si>
-  <si>
     <t>For each dimension, go through all of the CalendarObjects detecting any intersections, resolved by priority. If a CalObj is completely inside another, either delete the insider, or split the outsider. When a CalObj takes precedent over another in a collision, subtract from TimeAllocation. In some cases where normally a split would happen, it might cause a small part of the split task to exist afterwards, in which case it would make more sense to not split, but instead push the insider to the outside.</t>
   </si>
   <si>
@@ -950,9 +924,6 @@
   </si>
   <si>
     <t>Previous</t>
-  </si>
-  <si>
-    <t>Foreach PerZone, create or modify CalObjs in the InclusionZones, determine the size of the CalObjs based on the Allocation.Amount and the AllocationMethod. If AutoCheckIn, set state appropriately, otherwise set state to Unconfirmed or CheckIn.</t>
   </si>
   <si>
     <t>orderby CheckInType</t>
@@ -1039,7 +1010,37 @@
 (unscheduled)</t>
   </si>
   <si>
-    <t xml:space="preserve">TaskMap has a set of PerZones. PerZone has a set of InclusionZones, a set of CalendarObjects, and a set of CheckIns. </t>
+    <t>AllocateTimeFromFilters()</t>
+  </si>
+  <si>
+    <t>BuildCheckIns()</t>
+  </si>
+  <si>
+    <t>For each Task, build a list of CheckIns made of event CIs and zone boundary Cis</t>
+  </si>
+  <si>
+    <t>For each PerZone, create or modify CalObjs in the InclusionZones, determine the size of the CalObjs based on the Allocation.Amount and the AllocationMethod. If AutoCheckIn, set state appropriately, otherwise set state to Unconfirmed or CheckIn.</t>
+  </si>
+  <si>
+    <t>For each PerZone, for each CheckIn, create or modify the CalObj based on CheckIns tab rules.</t>
+  </si>
+  <si>
+    <t>TaskMap has a set of PerZones. PerZone has a set of InclusionZones and a set of CalendarObjects and a set of CheckIns.</t>
+  </si>
+  <si>
+    <t>Create a new entity called CheckIn that has a Task, a Note, a DateTime, and a Text that is either "start" or "end".</t>
+  </si>
+  <si>
+    <t>CheckIns Theory</t>
+  </si>
+  <si>
+    <t>See: CheckIns</t>
+  </si>
+  <si>
+    <t>Collision Theory</t>
+  </si>
+  <si>
+    <t xml:space="preserve">this will be very similar to what we did for BuildAllocations() but we want to respect the CalObjs built in AllocateTimeFromCheckIns(). </t>
   </si>
 </sst>
 </file>
@@ -1736,8 +1737,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C134" totalsRowShown="0">
-  <autoFilter ref="A1:C134" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C142" totalsRowShown="0">
+  <autoFilter ref="A1:C142" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="9"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -2044,10 +2045,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G134"/>
+  <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="A135" sqref="A135"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="C72" sqref="C72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2065,166 +2066,166 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="2" spans="1:3">
       <c r="A2" s="2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="1:3">
       <c r="A3" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>27</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="4" spans="1:3">
       <c r="A4" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:3">
       <c r="A6" s="2" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:3">
       <c r="A7" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:3">
       <c r="A8" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3">
       <c r="A9" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="4" t="s">
         <v>43</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="11" spans="1:3">
       <c r="A11" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="4" t="s">
         <v>38</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:3">
       <c r="A12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="4" t="s">
         <v>41</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>42</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="5" customFormat="1">
       <c r="A13" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="5" customFormat="1">
       <c r="A14" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>64</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="5" customFormat="1">
       <c r="A15" s="2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:3" s="5" customFormat="1">
       <c r="A16" s="2" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:7" s="5" customFormat="1">
       <c r="A17" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C17" s="4" t="s">
         <v>67</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="18" spans="1:7" s="5" customFormat="1">
@@ -2232,98 +2233,98 @@
         <v>1</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:7">
       <c r="A19" s="2" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="20" spans="1:7">
       <c r="A20" s="2" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:7">
       <c r="A21" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="4" t="s">
         <v>72</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:7">
       <c r="A22" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="23" spans="1:7">
       <c r="A23" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F23" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G23" s="6" t="s">
         <v>18</v>
-      </c>
-      <c r="G23" s="6" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="24" spans="1:7">
       <c r="A24" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:7">
       <c r="A25" s="2" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="26" spans="1:7" ht="45">
       <c r="A26" s="2" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="27" spans="1:7">
       <c r="A27" s="2" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C27" s="4" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2331,31 +2332,31 @@
         <v>2</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="29" spans="1:7">
       <c r="A29" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="31" spans="1:7">
       <c r="A31" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C31" s="8"/>
     </row>
@@ -2364,116 +2365,116 @@
         <v>4</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="33" spans="1:3">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="34" spans="1:3">
       <c r="A34" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B34" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="12" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="B35" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="12" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B36" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="12" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B37" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:3" s="14" customFormat="1">
       <c r="A38" s="12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B38" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C38" s="13"/>
     </row>
     <row r="39" spans="1:3" s="14" customFormat="1">
       <c r="A39" s="12" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B39" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C39" s="13" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B40" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="12" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B41" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="12" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C42" s="13" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="12" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B43" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C43" s="13" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="44" spans="1:3">
       <c r="A44" s="2" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B44" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -2481,703 +2482,782 @@
         <v>3</v>
       </c>
       <c r="B45" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="46" spans="1:3" s="14" customFormat="1">
       <c r="A46" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B46" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C46" s="13" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="14" customFormat="1" ht="30">
       <c r="A47" s="12" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B47" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C47" s="13" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="10" customFormat="1">
       <c r="A48" s="12" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B48" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C48" s="13" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="10" customFormat="1">
       <c r="A49" s="12" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B49" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="B50" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C50" s="13" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="15" customFormat="1">
       <c r="A51" s="12" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B51" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C51" s="13" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="15" customFormat="1">
       <c r="A52" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B52" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C52" s="13" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="12" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B53" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C53" s="13"/>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="12" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B54" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C54" s="13" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="12" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="B55" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C55" s="13"/>
     </row>
     <row r="56" spans="1:3" s="10" customFormat="1">
       <c r="A56" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="12" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="B57" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C57" s="13"/>
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="B58" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C58" s="13"/>
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="12" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="B59" s="14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="C59" s="13" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B60" s="14"/>
-      <c r="C60" s="26" t="s">
-        <v>245</v>
+        <v>125</v>
+      </c>
+      <c r="B60" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="13" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="12" t="s">
-        <v>248</v>
+        <v>244</v>
+      </c>
+      <c r="B61" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C61" s="26" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="12" t="s">
-        <v>249</v>
+        <v>243</v>
+      </c>
+      <c r="B62" s="14" t="s">
+        <v>23</v>
       </c>
       <c r="C62" s="26" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="12" t="s">
-        <v>269</v>
-      </c>
-      <c r="B63" s="14"/>
+        <v>263</v>
+      </c>
+      <c r="B63" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C63" s="13" t="s">
-        <v>270</v>
+        <v>321</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B64" s="14"/>
-      <c r="C64" s="13"/>
+        <v>322</v>
+      </c>
+      <c r="B64" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="26" t="s">
+        <v>323</v>
+      </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="12" t="s">
-        <v>228</v>
-      </c>
-      <c r="B65" s="14"/>
+        <v>240</v>
+      </c>
+      <c r="B65" s="14" t="s">
+        <v>23</v>
+      </c>
       <c r="C65" s="13"/>
     </row>
-    <row r="66" spans="1:3" s="10" customFormat="1">
+    <row r="66" spans="1:3">
       <c r="A66" s="12" t="s">
-        <v>127</v>
+        <v>249</v>
       </c>
       <c r="B66" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="13"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B67" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="13"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B68" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="13"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="12" t="s">
+        <v>316</v>
+      </c>
+      <c r="B69" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="13"/>
+    </row>
+    <row r="70" spans="1:3">
+      <c r="A70" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B70" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="13"/>
+    </row>
+    <row r="71" spans="1:3" s="10" customFormat="1">
+      <c r="A71" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B71" s="14"/>
+      <c r="C71" s="13" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="10" customFormat="1">
+      <c r="A72" s="12" t="s">
+        <v>324</v>
+      </c>
+      <c r="B72" s="14"/>
+      <c r="C72" s="13"/>
+    </row>
+    <row r="73" spans="1:3" s="10" customFormat="1">
+      <c r="A73" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B73" s="14"/>
+      <c r="C73" s="13"/>
+    </row>
+    <row r="74" spans="1:3" s="10" customFormat="1">
+      <c r="A74" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B74" s="14"/>
+      <c r="C74" s="13"/>
+    </row>
+    <row r="75" spans="1:3" s="10" customFormat="1">
+      <c r="A75" s="12" t="s">
         <v>232</v>
       </c>
-    </row>
-    <row r="67" spans="1:3" s="14" customFormat="1">
-      <c r="A67" s="12" t="s">
-        <v>161</v>
-      </c>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A68" s="12" t="s">
-        <v>266</v>
-      </c>
-      <c r="C68" s="13" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="69" spans="1:3" s="14" customFormat="1">
-      <c r="A69" s="12" t="s">
-        <v>8</v>
-      </c>
-      <c r="C69" s="13" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="70" spans="1:3" s="14" customFormat="1">
-      <c r="A70" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="C70" s="13" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="71" spans="1:3" s="14" customFormat="1">
-      <c r="A71" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B71" s="3"/>
-      <c r="C71" s="13" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="14" customFormat="1">
-      <c r="A72" s="12" t="s">
-        <v>107</v>
-      </c>
-      <c r="B72" s="3"/>
-      <c r="C72" s="13" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="73" spans="1:3" s="14" customFormat="1">
-      <c r="A73" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C73" s="13" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="74" spans="1:3" s="14" customFormat="1">
-      <c r="A74" s="12" t="s">
-        <v>203</v>
-      </c>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:3" s="14" customFormat="1">
-      <c r="A75" s="12" t="s">
-        <v>82</v>
-      </c>
+      <c r="B75" s="14"/>
       <c r="C75" s="13"/>
     </row>
     <row r="76" spans="1:3" s="14" customFormat="1">
       <c r="A76" s="12" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="13"/>
+    </row>
+    <row r="77" spans="1:3" s="14" customFormat="1" ht="30">
+      <c r="A77" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="C77" s="13" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="14" customFormat="1">
+      <c r="A78" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="13" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="14" customFormat="1">
+      <c r="A79" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="13" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="14" customFormat="1">
+      <c r="A80" s="12" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="13" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="14" customFormat="1">
+      <c r="A81" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="C81" s="13" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:3" s="14" customFormat="1">
+      <c r="A82" s="12" t="s">
+        <v>201</v>
+      </c>
+      <c r="C82" s="13"/>
+    </row>
+    <row r="83" spans="1:3" s="14" customFormat="1">
+      <c r="A83" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="C83" s="13"/>
+    </row>
+    <row r="84" spans="1:3" s="14" customFormat="1">
+      <c r="A84" s="12" t="s">
+        <v>51</v>
+      </c>
+      <c r="C84" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="C76" s="13" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="77" spans="1:3" s="14" customFormat="1">
-      <c r="A77" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B77" s="3"/>
-      <c r="C77" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3">
-      <c r="A78" s="12" t="s">
-        <v>214</v>
-      </c>
-      <c r="B78" s="14"/>
-      <c r="C78" s="13"/>
-    </row>
-    <row r="79" spans="1:3">
-      <c r="A79" s="12" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3">
-      <c r="A80" s="12" t="s">
-        <v>166</v>
-      </c>
-      <c r="C80" s="13" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3">
-      <c r="A81" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="C81" s="4" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3">
-      <c r="A82" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3">
-      <c r="A83" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3">
-      <c r="A84" s="12" t="s">
-        <v>230</v>
-      </c>
-      <c r="C84" s="13" t="s">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="85" spans="1:3">
+    </row>
+    <row r="85" spans="1:3" s="14" customFormat="1">
       <c r="A85" s="2" t="s">
-        <v>11</v>
+        <v>87</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
-        <v>83</v>
-      </c>
+      <c r="A86" s="12" t="s">
+        <v>211</v>
+      </c>
+      <c r="B86" s="14"/>
+      <c r="C86" s="13"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B87" s="14"/>
-      <c r="C87" s="13" t="s">
-        <v>163</v>
+        <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="12" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="C88" s="13" t="s">
-        <v>159</v>
+        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="12" t="s">
-        <v>158</v>
-      </c>
-      <c r="C89" s="13" t="s">
-        <v>160</v>
+      <c r="A89" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="C89" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:3">
-      <c r="A90" s="12" t="s">
-        <v>133</v>
-      </c>
-      <c r="C90" s="13" t="s">
-        <v>134</v>
+      <c r="A90" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
-        <v>12</v>
+      <c r="A92" s="12" t="s">
+        <v>226</v>
       </c>
       <c r="C92" s="13" t="s">
-        <v>142</v>
+        <v>227</v>
       </c>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C93" s="4" t="s">
-        <v>48</v>
+        <v>10</v>
       </c>
     </row>
     <row r="94" spans="1:3">
-      <c r="A94" s="12" t="s">
-        <v>99</v>
-      </c>
-      <c r="C94" s="13" t="s">
-        <v>100</v>
+      <c r="A94" s="2" t="s">
+        <v>81</v>
       </c>
     </row>
     <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>14</v>
+      <c r="A95" s="12" t="s">
+        <v>160</v>
+      </c>
+      <c r="B95" s="14"/>
+      <c r="C95" s="13" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="12" t="s">
-        <v>233</v>
+        <v>155</v>
       </c>
       <c r="C96" s="13" t="s">
-        <v>234</v>
+        <v>157</v>
       </c>
     </row>
     <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
-        <v>81</v>
+      <c r="A97" s="12" t="s">
+        <v>156</v>
       </c>
       <c r="C97" s="13" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
     </row>
     <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>36</v>
+      <c r="A98" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C98" s="13" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="C99" s="13" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
-      <c r="A100" s="12" t="s">
-        <v>127</v>
+      <c r="A100" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C100" s="13" t="s">
-        <v>213</v>
+        <v>140</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C101" s="13" t="s">
-        <v>212</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3" ht="30">
+        <v>46</v>
+      </c>
+      <c r="C101" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
       <c r="A102" s="12" t="s">
-        <v>144</v>
+        <v>97</v>
       </c>
       <c r="C102" s="13" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="12" t="s">
-        <v>146</v>
-      </c>
-      <c r="C103" s="13" t="s">
-        <v>145</v>
+      <c r="A103" s="2" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="12" t="s">
-        <v>102</v>
+        <v>229</v>
+      </c>
+      <c r="C104" s="13" t="s">
+        <v>230</v>
       </c>
     </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="12" t="s">
+      <c r="A105" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="C105" s="13" t="s">
         <v>103</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
-        <v>50</v>
+        <v>33</v>
+      </c>
+      <c r="C107" s="13" t="s">
+        <v>34</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>61</v>
+      <c r="A108" s="12" t="s">
+        <v>125</v>
       </c>
       <c r="C108" s="13" t="s">
-        <v>106</v>
+        <v>210</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="C109" s="13"/>
-    </row>
-    <row r="110" spans="1:3">
+      <c r="A109" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C109" s="13" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3" ht="30">
       <c r="A110" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C110" s="13"/>
+        <v>142</v>
+      </c>
+      <c r="C110" s="13" t="s">
+        <v>141</v>
+      </c>
     </row>
     <row r="111" spans="1:3">
       <c r="A111" s="12" t="s">
-        <v>150</v>
-      </c>
-      <c r="C111" s="13"/>
+        <v>144</v>
+      </c>
+      <c r="C111" s="13" t="s">
+        <v>143</v>
+      </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="12" t="s">
-        <v>151</v>
-      </c>
-      <c r="C112" s="13"/>
-    </row>
-    <row r="113" spans="1:3" ht="30">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
       <c r="A113" s="12" t="s">
-        <v>152</v>
-      </c>
-      <c r="B113" s="14"/>
-      <c r="C113" s="13" t="s">
-        <v>37</v>
+        <v>101</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="2" t="s">
-        <v>75</v>
+        <v>44</v>
       </c>
       <c r="C114" s="4" t="s">
-        <v>76</v>
+        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>88</v>
+        <v>49</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C116" s="4" t="s">
-        <v>92</v>
+        <v>60</v>
+      </c>
+      <c r="C116" s="13" t="s">
+        <v>104</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="C117" s="13" t="s">
-        <v>98</v>
-      </c>
+        <v>231</v>
+      </c>
+      <c r="C117" s="13"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>78</v>
-      </c>
+      <c r="A118" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="C118" s="13"/>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="C119" s="13" t="s">
-        <v>217</v>
-      </c>
+        <v>148</v>
+      </c>
+      <c r="C119" s="13"/>
     </row>
     <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+      <c r="A120" s="12" t="s">
+        <v>149</v>
+      </c>
+      <c r="C120" s="13"/>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="12" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3" s="10" customFormat="1">
+        <v>150</v>
+      </c>
+      <c r="B121" s="14"/>
+      <c r="C121" s="13" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="B122" s="3"/>
-      <c r="C122" s="4"/>
+        <v>74</v>
+      </c>
+      <c r="C122" s="4" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>60</v>
+        <v>85</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="12" t="s">
-        <v>108</v>
-      </c>
-      <c r="C124" s="13" t="s">
-        <v>115</v>
+      <c r="A124" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="12" t="s">
-        <v>122</v>
+        <v>95</v>
       </c>
       <c r="C125" s="13" t="s">
-        <v>123</v>
+        <v>96</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="12" t="s">
-        <v>139</v>
-      </c>
-      <c r="C126" s="13" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="127" spans="1:3" ht="45">
+      <c r="A126" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="127" spans="1:3">
       <c r="A127" s="12" t="s">
-        <v>127</v>
-      </c>
-      <c r="B127" s="14" t="s">
-        <v>24</v>
+        <v>213</v>
       </c>
       <c r="C127" s="13" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3" ht="30">
-      <c r="A128" s="12" t="s">
-        <v>147</v>
-      </c>
-      <c r="B128" s="14"/>
-      <c r="C128" s="13" t="s">
-        <v>148</v>
+        <v>214</v>
+      </c>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="12" t="s">
-        <v>153</v>
-      </c>
-      <c r="B129" s="14"/>
-      <c r="C129" s="13" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="12" t="s">
-        <v>155</v>
-      </c>
-      <c r="B130" s="14"/>
-      <c r="C130" s="13" t="s">
-        <v>156</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3" s="10" customFormat="1">
+      <c r="A130" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B130" s="3"/>
+      <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="12" t="s">
-        <v>242</v>
-      </c>
-      <c r="B131" s="14"/>
-      <c r="C131" s="13" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" ht="30">
+      <c r="A131" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="12" t="s">
-        <v>251</v>
-      </c>
-      <c r="B132" s="14"/>
+        <v>106</v>
+      </c>
       <c r="C132" s="13" t="s">
-        <v>252</v>
+        <v>113</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="12" t="s">
-        <v>253</v>
+        <v>120</v>
       </c>
       <c r="C133" s="13" t="s">
-        <v>254</v>
+        <v>121</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="12" t="s">
-        <v>288</v>
+        <v>137</v>
       </c>
       <c r="C134" s="13" t="s">
-        <v>289</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="45">
+      <c r="A135" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="B135" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C135" s="13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3" ht="30">
+      <c r="A136" s="12" t="s">
+        <v>145</v>
+      </c>
+      <c r="B136" s="14"/>
+      <c r="C136" s="13" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="12" t="s">
+        <v>151</v>
+      </c>
+      <c r="B137" s="14"/>
+      <c r="C137" s="13" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="12" t="s">
+        <v>153</v>
+      </c>
+      <c r="B138" s="14"/>
+      <c r="C138" s="13" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B139" s="14"/>
+      <c r="C139" s="13" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
+      <c r="A140" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B140" s="14"/>
+      <c r="C140" s="13" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="C141" s="13" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="C142" s="13" t="s">
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -3187,9 +3267,9 @@
     </cfRule>
   </conditionalFormatting>
   <hyperlinks>
-    <hyperlink ref="C61" location="States!A1" display="See: States" xr:uid="{F7AB6EDF-D736-4142-AF82-33DD02D700EE}"/>
-    <hyperlink ref="C62" location="Notes!A1" display="See: Notes" xr:uid="{F95899B6-AE9F-4F2E-91B2-A1A41AA41985}"/>
-    <hyperlink ref="C60" location="'Calendar Passes'!A1" display="See: Calendar Passes" xr:uid="{B196297D-CC2E-4049-A9D9-98A834D3618A}"/>
+    <hyperlink ref="C62" location="States!A1" display="See: States" xr:uid="{F7AB6EDF-D736-4142-AF82-33DD02D700EE}"/>
+    <hyperlink ref="C61" location="'Calendar Passes'!A1" display="See: Calendar Passes" xr:uid="{B196297D-CC2E-4049-A9D9-98A834D3618A}"/>
+    <hyperlink ref="C64" location="CheckIns!A1" display="See: CheckIns" xr:uid="{F90B02B4-8195-44F2-8080-2F041F2A240D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3201,10 +3281,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3216,7 +3296,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="21" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B1" s="21"/>
       <c r="C1" s="21"/>
@@ -3232,130 +3312,138 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B3" s="16" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B4" s="16" t="s">
-        <v>285</v>
+        <v>277</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="24" customFormat="1">
       <c r="A6" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="24" customFormat="1">
       <c r="A7" s="24" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B7" s="23" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B8" s="16" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="19" customFormat="1" ht="45">
-      <c r="A9" s="17" t="s">
-        <v>296</v>
-      </c>
-      <c r="B9" s="18" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="24" customFormat="1" ht="30">
-      <c r="A10" t="s">
-        <v>209</v>
-      </c>
-      <c r="B10" s="16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" ht="45">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="24" customFormat="1">
+      <c r="A9" s="24" t="s">
+        <v>316</v>
+      </c>
+      <c r="B9" s="29" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="19" customFormat="1">
+      <c r="A10" s="17" t="s">
+        <v>288</v>
+      </c>
+      <c r="B10" s="18" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="24" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>210</v>
+        <v>315</v>
       </c>
       <c r="B11" s="16" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" s="24" customFormat="1">
-      <c r="A12" s="24" t="s">
-        <v>267</v>
-      </c>
-      <c r="B12" s="25" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12">
-      <c r="A13" t="s">
-        <v>236</v>
-      </c>
-      <c r="B13" s="16" t="s">
-        <v>282</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12">
-      <c r="B16" s="16" t="s">
-        <v>291</v>
+        <v>318</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12" ht="45">
+      <c r="A12" t="s">
+        <v>207</v>
+      </c>
+      <c r="B12" s="16" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="24" customFormat="1">
+      <c r="A13" s="24" t="s">
+        <v>261</v>
+      </c>
+      <c r="B13" s="25" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12">
+      <c r="A14" t="s">
+        <v>232</v>
+      </c>
+      <c r="B14" s="16" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="16" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="16" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="16" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2" ht="45">
-      <c r="B20" s="11" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="30">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="16" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2" ht="45">
       <c r="B21" s="11" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="30">
       <c r="B22" s="11" t="s">
-        <v>298</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="45">
-      <c r="B23" s="16" t="s">
-        <v>299</v>
+        <v>289</v>
+      </c>
+    </row>
+    <row r="23" spans="2:2" ht="30">
+      <c r="B23" s="11" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="45">
+      <c r="B24" s="16" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -3385,236 +3473,236 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="21" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="21" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B2" s="21" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="C2" s="21" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="D2" s="21" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E2" s="21" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="21" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B3" s="32" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D3" s="21" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="E3" s="21" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B4" s="33" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C4" s="21" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D4" s="21" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="21" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B5" s="34" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C5" s="21" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D5" s="21" t="s">
-        <v>273</v>
+        <v>266</v>
       </c>
       <c r="E5" s="21" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="21" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="B6" s="35" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C6" s="21" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="21" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B7" s="36" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="D7" s="21" t="s">
-        <v>280</v>
+        <v>273</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="21" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B8" s="37" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C8" s="21" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D8" s="21" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="21" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B9" s="38" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C9" s="21" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D9" s="21" t="s">
-        <v>274</v>
+        <v>267</v>
       </c>
       <c r="E9" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B10" s="39" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C10" s="21" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="D10" s="21" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="E10" s="21" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="21" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B11" s="40" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="C11" s="21" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D11" s="21" t="s">
-        <v>276</v>
+        <v>269</v>
       </c>
       <c r="E11" s="21" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="21" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B12" s="41" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="C12" s="21" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D12" s="21" t="s">
-        <v>277</v>
+        <v>270</v>
       </c>
       <c r="E12" s="21" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="21" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B13" s="42" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="C13" s="21" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D13" s="21" t="s">
-        <v>278</v>
+        <v>271</v>
       </c>
       <c r="E13" s="21" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="21" t="s">
-        <v>271</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="21" t="s">
-        <v>272</v>
+        <v>265</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="21" t="s">
-        <v>281</v>
+        <v>274</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="21" t="s">
-        <v>279</v>
+        <v>272</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="21" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="21" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="31" customFormat="1">
       <c r="A21" s="31" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="31" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3637,238 +3725,239 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="L4" sqref="L4"/>
+      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="13.140625" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="20.28515625" style="27" bestFit="1" customWidth="1"/>
-    <col min="4" max="5" width="23.140625" style="27" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="27" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="27" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="27" customWidth="1"/>
     <col min="6" max="6" width="14" style="27" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="13.140625" style="27"/>
+    <col min="11" max="16384" width="22.28515625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
       <c r="A1" s="48" t="s">
+        <v>296</v>
+      </c>
+      <c r="B1" s="45" t="s">
+        <v>301</v>
+      </c>
+      <c r="C1" s="43" t="s">
+        <v>302</v>
+      </c>
+      <c r="D1" s="43" t="s">
+        <v>303</v>
+      </c>
+      <c r="E1" s="43" t="s">
         <v>304</v>
       </c>
-      <c r="B1" s="45" t="s">
-        <v>310</v>
-      </c>
-      <c r="C1" s="43" t="s">
-        <v>311</v>
-      </c>
-      <c r="D1" s="43" t="s">
-        <v>312</v>
-      </c>
-      <c r="E1" s="43" t="s">
-        <v>313</v>
-      </c>
       <c r="F1" s="43" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="G1" s="43" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="H1" s="44" t="s">
-        <v>301</v>
+        <v>293</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="49" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B2" s="46" t="s">
-        <v>314</v>
+        <v>305</v>
       </c>
       <c r="C2" s="30" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="D2" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E2" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F2" s="30" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G2" s="30" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H2" s="52" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I2" s="27"/>
       <c r="J2" s="27"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="50" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="B3" s="47" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F3" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G3" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H3" s="53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I3" s="27"/>
       <c r="J3" s="27"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="50" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B4" s="47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="E4" s="20" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="F4" s="20" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="G4" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H4" s="53" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="I4" s="27"/>
       <c r="J4" s="27"/>
     </row>
-    <row r="5" spans="1:10" ht="60">
+    <row r="5" spans="1:10" ht="75">
       <c r="A5" s="50" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B5" s="47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="F5" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G5" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H5" s="53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I5" s="27"/>
       <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="50" t="s">
-        <v>302</v>
+        <v>294</v>
       </c>
       <c r="B6" s="47" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E6" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F6" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G6" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H6" s="53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I6" s="27"/>
       <c r="J6" s="27"/>
     </row>
-    <row r="7" spans="1:10" ht="60">
+    <row r="7" spans="1:10" ht="75">
       <c r="A7" s="50" t="s">
-        <v>303</v>
+        <v>295</v>
       </c>
       <c r="B7" s="47" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="E7" s="20" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F7" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G7" s="20" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H7" s="53" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I7" s="27"/>
       <c r="J7" s="27"/>
     </row>
-    <row r="8" spans="1:10" ht="60.75" thickBot="1">
+    <row r="8" spans="1:10" ht="75.75" thickBot="1">
       <c r="A8" s="51" t="s">
-        <v>300</v>
+        <v>292</v>
       </c>
       <c r="B8" s="54" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="C8" s="55" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="D8" s="55" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="E8" s="55" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="F8" s="55" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G8" s="55" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H8" s="56" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I8" s="27"/>
       <c r="J8" s="27"/>
@@ -4132,17 +4221,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="29" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="29" t="s">
-        <v>287</v>
+        <v>279</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30">
       <c r="A3" s="29" t="s">
-        <v>290</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>
@@ -4165,17 +4254,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="457" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="326">
   <si>
     <t>Feature</t>
   </si>
@@ -520,9 +520,6 @@
     <t>pattern editor All/Any</t>
   </si>
   <si>
-    <t>TimePatternClause "Time Range" option</t>
-  </si>
-  <si>
     <t>non-interactive CalObj</t>
   </si>
   <si>
@@ -620,9 +617,6 @@
   </si>
   <si>
     <t>CalObj has expired and was checked in automatically according to settings</t>
-  </si>
-  <si>
-    <t>start - end, add a second optional TimePropertyValue column</t>
   </si>
   <si>
     <t>update Notes</t>
@@ -860,9 +854,6 @@
     <t xml:space="preserve">When a CheckIn determines the Start/End/State of a CalObj, that property is marked with a bool "Lock", prevents modification from allocations or collisions. </t>
   </si>
   <si>
-    <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict.</t>
-  </si>
-  <si>
     <t>For each dimension, go through all of the CalendarObjects detecting any intersections, resolved by priority. If a CalObj is completely inside another, either delete the insider, or split the outsider. When a CalObj takes precedent over another in a collision, subtract from TimeAllocation. In some cases where normally a split would happen, it might cause a small part of the split task to exist afterwards, in which case it would make more sense to not split, but instead push the insider to the outside.</t>
   </si>
   <si>
@@ -952,13 +943,6 @@
   <si>
     <t>N End
 out Z</t>
-  </si>
-  <si>
-    <t>pC.End = N
-create new C
-🔒C.Start = N
-C.End = Z.End
-🔒C.State = confirmed</t>
   </si>
   <si>
     <t>create new C
@@ -1040,7 +1024,23 @@
     <t>Collision Theory</t>
   </si>
   <si>
-    <t xml:space="preserve">this will be very similar to what we did for BuildAllocations() but we want to respect the CalObjs built in AllocateTimeFromCheckIns(). </t>
+    <t>what to do</t>
+  </si>
+  <si>
+    <t>For any given time, show me a list of all the tasks that I can do. These are tasks with InclusionZones intersectingt he given time. Order them by priority and depending on if they have a CalObj in its InclusionZone already and if its resources have been met or not.</t>
+  </si>
+  <si>
+    <t>pC.End = N
+create new C
+🔒C.Start = N
+C.End = N
+🔒C.State = confirmed</t>
+  </si>
+  <si>
+    <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict. If there are any CalObjs that cross a zone boundary by more than MinDur, split it</t>
+  </si>
+  <si>
+    <t>this will be very similar to what we did for BuildAllocations() but we want to respect the CalObjs built in AllocateTimeFromCheckIns(). Check if there is a CalObj in each InclusionZone ignore, otherwise create CalObjs in each vacant zone and allocate any remaining time to them.</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1432,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="56">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1451,9 +1451,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2047,15 +2044,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:G142"/>
   <sheetViews>
-    <sheetView topLeftCell="A64" workbookViewId="0">
-      <selection activeCell="C72" sqref="C72"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="B72" sqref="B72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="133.42578125" style="4" customWidth="1"/>
+    <col min="3" max="3" width="151.140625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
@@ -2364,7 +2361,7 @@
       <c r="A32" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C32" s="4" t="s">
@@ -2375,7 +2372,7 @@
       <c r="A33" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B33" s="14" t="s">
+      <c r="B33" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2383,89 +2380,89 @@
       <c r="A34" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B34" s="14" t="s">
+      <c r="B34" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="35" spans="1:3">
-      <c r="A35" s="12" t="s">
+      <c r="A35" s="11" t="s">
         <v>94</v>
       </c>
-      <c r="B35" s="14" t="s">
+      <c r="B35" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="36" spans="1:3">
-      <c r="A36" s="12" t="s">
+      <c r="A36" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="37" spans="1:3">
-      <c r="A37" s="12" t="s">
+      <c r="A37" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="B37" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" s="14" customFormat="1">
-      <c r="A38" s="12" t="s">
+      <c r="B37" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" s="13" customFormat="1">
+      <c r="A38" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="B38" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C38" s="13"/>
-    </row>
-    <row r="39" spans="1:3" s="14" customFormat="1">
-      <c r="A39" s="12" t="s">
+      <c r="B38" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="12"/>
+    </row>
+    <row r="39" spans="1:3" s="13" customFormat="1">
+      <c r="A39" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="B39" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="13" t="s">
+      <c r="B39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:3">
-      <c r="A40" s="12" t="s">
+      <c r="A40" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="41" spans="1:3">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="11" t="s">
         <v>109</v>
       </c>
-      <c r="B41" s="14" t="s">
+      <c r="B41" s="13" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="42" spans="1:3" ht="30">
-      <c r="A42" s="12" t="s">
+      <c r="A42" s="11" t="s">
         <v>122</v>
       </c>
-      <c r="B42" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:3">
-      <c r="A43" s="12" t="s">
+      <c r="A43" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="B43" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="13" t="s">
+      <c r="B43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>117</v>
       </c>
     </row>
@@ -2473,7 +2470,7 @@
       <c r="A44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="13" t="s">
         <v>23</v>
       </c>
     </row>
@@ -2481,392 +2478,395 @@
       <c r="A45" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="B45" s="14" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" s="14" customFormat="1">
-      <c r="A46" s="12" t="s">
+      <c r="B45" s="13" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" s="13" customFormat="1">
+      <c r="A46" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B46" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="12" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="47" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A47" s="12" t="s">
+    <row r="47" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A47" s="11" t="s">
         <v>118</v>
       </c>
-      <c r="B47" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C47" s="13" t="s">
+      <c r="B47" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C47" s="12" t="s">
         <v>124</v>
       </c>
     </row>
-    <row r="48" spans="1:3" s="10" customFormat="1">
-      <c r="A48" s="12" t="s">
+    <row r="48" spans="1:3" s="9" customFormat="1">
+      <c r="A48" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="B48" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C48" s="13" t="s">
+      <c r="B48" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C48" s="12" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="49" spans="1:3" s="10" customFormat="1">
-      <c r="A49" s="12" t="s">
+    <row r="49" spans="1:3" s="9" customFormat="1">
+      <c r="A49" s="11" t="s">
         <v>119</v>
       </c>
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C49" s="4"/>
     </row>
     <row r="50" spans="1:3">
-      <c r="A50" s="12" t="s">
+      <c r="A50" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="B50" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C50" s="12" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="51" spans="1:3" s="15" customFormat="1">
-      <c r="A51" s="12" t="s">
+    <row r="51" spans="1:3" s="14" customFormat="1" ht="45">
+      <c r="A51" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B51" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" s="14" customFormat="1">
+      <c r="A52" s="11" t="s">
         <v>135</v>
       </c>
-      <c r="B51" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C51" s="13" t="s">
+      <c r="B52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>136</v>
       </c>
     </row>
-    <row r="52" spans="1:3" s="15" customFormat="1">
-      <c r="A52" s="12" t="s">
+    <row r="53" spans="1:3">
+      <c r="A53" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="B52" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="13" t="s">
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="A53" s="12" t="s">
+    <row r="54" spans="1:3">
+      <c r="A54" s="11" t="s">
         <v>133</v>
       </c>
-      <c r="B53" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="13"/>
-    </row>
-    <row r="54" spans="1:3">
-      <c r="A54" s="12" t="s">
+      <c r="B54" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C54" s="12"/>
+    </row>
+    <row r="55" spans="1:3">
+      <c r="A55" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="B54" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C54" s="13" t="s">
+      <c r="B55" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C55" s="12" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="55" spans="1:3">
-      <c r="A55" s="12" t="s">
+    <row r="56" spans="1:3">
+      <c r="A56" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="B55" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C55" s="13"/>
-    </row>
-    <row r="56" spans="1:3" s="10" customFormat="1">
-      <c r="A56" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="C56" s="11" t="s">
+      <c r="B56" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C56" s="12"/>
+    </row>
+    <row r="57" spans="1:3">
+      <c r="A57" s="11" t="s">
+        <v>162</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C57" s="12"/>
+    </row>
+    <row r="58" spans="1:3">
+      <c r="A58" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C58" s="12"/>
+    </row>
+    <row r="59" spans="1:3" ht="30">
+      <c r="A59" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3">
+      <c r="A60" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C60" s="12" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3">
+      <c r="A61" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C61" s="25" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3">
+      <c r="A62" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C62" s="25" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3">
+      <c r="A63" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C63" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3">
+      <c r="A64" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="25" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3">
+      <c r="A65" s="11" t="s">
+        <v>238</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C65" s="12"/>
+    </row>
+    <row r="66" spans="1:3">
+      <c r="A66" s="11" t="s">
+        <v>247</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C66" s="12"/>
+    </row>
+    <row r="67" spans="1:3">
+      <c r="A67" s="11" t="s">
+        <v>250</v>
+      </c>
+      <c r="B67" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C67" s="12"/>
+    </row>
+    <row r="68" spans="1:3">
+      <c r="A68" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="B68" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C68" s="12"/>
+    </row>
+    <row r="69" spans="1:3">
+      <c r="A69" s="11" t="s">
+        <v>312</v>
+      </c>
+      <c r="B69" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C69" s="12"/>
+    </row>
+    <row r="70" spans="1:3" s="9" customFormat="1">
+      <c r="A70" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="B70" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C70" s="12"/>
+    </row>
+    <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
+      <c r="A71" s="11" t="s">
+        <v>311</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C71" s="12" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" s="9" customFormat="1">
+      <c r="A72" s="11" t="s">
+        <v>320</v>
+      </c>
+      <c r="B72" s="13"/>
+      <c r="C72" s="12"/>
+    </row>
+    <row r="73" spans="1:3" s="9" customFormat="1">
+      <c r="A73" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B73" s="13"/>
+      <c r="C73" s="12"/>
+    </row>
+    <row r="74" spans="1:3" s="9" customFormat="1">
+      <c r="A74" s="11" t="s">
+        <v>259</v>
+      </c>
+      <c r="B74" s="13"/>
+      <c r="C74" s="12"/>
+    </row>
+    <row r="75" spans="1:3" s="13" customFormat="1">
+      <c r="A75" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C75" s="12"/>
+    </row>
+    <row r="76" spans="1:3" s="13" customFormat="1">
+      <c r="A76" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A77" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C77" s="12" t="s">
+        <v>257</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1">
+      <c r="A78" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C78" s="12" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" s="13" customFormat="1">
+      <c r="A79" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B79" s="3"/>
+      <c r="C79" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="80" spans="1:3" s="13" customFormat="1">
+      <c r="A80" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="B80" s="3"/>
+      <c r="C80" s="12" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="81" spans="1:3" s="13" customFormat="1">
+      <c r="A81" s="11" t="s">
         <v>197</v>
       </c>
-    </row>
-    <row r="57" spans="1:3">
-      <c r="A57" s="12" t="s">
-        <v>162</v>
-      </c>
-      <c r="B57" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C57" s="13"/>
-    </row>
-    <row r="58" spans="1:3">
-      <c r="A58" s="12" t="s">
+      <c r="C81" s="12" t="s">
         <v>198</v>
       </c>
-      <c r="B58" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C58" s="13"/>
-    </row>
-    <row r="59" spans="1:3" ht="30">
-      <c r="A59" s="12" t="s">
-        <v>216</v>
-      </c>
-      <c r="B59" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="13" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="60" spans="1:3">
-      <c r="A60" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B60" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C60" s="13" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="61" spans="1:3">
-      <c r="A61" s="12" t="s">
-        <v>244</v>
-      </c>
-      <c r="B61" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C61" s="26" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="62" spans="1:3">
-      <c r="A62" s="12" t="s">
-        <v>243</v>
-      </c>
-      <c r="B62" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C62" s="26" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="63" spans="1:3">
-      <c r="A63" s="12" t="s">
-        <v>263</v>
-      </c>
-      <c r="B63" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C63" s="13" t="s">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="64" spans="1:3">
-      <c r="A64" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="B64" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="26" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="65" spans="1:3">
-      <c r="A65" s="12" t="s">
-        <v>240</v>
-      </c>
-      <c r="B65" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C65" s="13"/>
-    </row>
-    <row r="66" spans="1:3">
-      <c r="A66" s="12" t="s">
-        <v>249</v>
-      </c>
-      <c r="B66" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C66" s="13"/>
-    </row>
-    <row r="67" spans="1:3">
-      <c r="A67" s="12" t="s">
-        <v>252</v>
-      </c>
-      <c r="B67" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C67" s="13"/>
-    </row>
-    <row r="68" spans="1:3">
-      <c r="A68" s="12" t="s">
-        <v>250</v>
-      </c>
-      <c r="B68" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C68" s="13"/>
-    </row>
-    <row r="69" spans="1:3">
-      <c r="A69" s="12" t="s">
-        <v>316</v>
-      </c>
-      <c r="B69" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C69" s="13"/>
-    </row>
-    <row r="70" spans="1:3">
-      <c r="A70" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="B70" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C70" s="13"/>
-    </row>
-    <row r="71" spans="1:3" s="10" customFormat="1">
-      <c r="A71" s="12" t="s">
-        <v>315</v>
-      </c>
-      <c r="B71" s="14"/>
-      <c r="C71" s="13" t="s">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="72" spans="1:3" s="10" customFormat="1">
-      <c r="A72" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="B72" s="14"/>
-      <c r="C72" s="13"/>
-    </row>
-    <row r="73" spans="1:3" s="10" customFormat="1">
-      <c r="A73" s="12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B73" s="14"/>
-      <c r="C73" s="13"/>
-    </row>
-    <row r="74" spans="1:3" s="10" customFormat="1">
-      <c r="A74" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="B74" s="14"/>
-      <c r="C74" s="13"/>
-    </row>
-    <row r="75" spans="1:3" s="10" customFormat="1">
-      <c r="A75" s="12" t="s">
-        <v>232</v>
-      </c>
-      <c r="B75" s="14"/>
-      <c r="C75" s="13"/>
-    </row>
-    <row r="76" spans="1:3" s="14" customFormat="1">
-      <c r="A76" s="12" t="s">
-        <v>159</v>
-      </c>
-      <c r="C76" s="13"/>
-    </row>
-    <row r="77" spans="1:3" s="14" customFormat="1" ht="30">
-      <c r="A77" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="C77" s="13" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="14" customFormat="1">
-      <c r="A78" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="C78" s="13" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="79" spans="1:3" s="14" customFormat="1">
-      <c r="A79" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="3"/>
-      <c r="C79" s="13" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="14" customFormat="1">
-      <c r="A80" s="12" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="3"/>
-      <c r="C80" s="13" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="81" spans="1:3" s="14" customFormat="1">
-      <c r="A81" s="12" t="s">
+    </row>
+    <row r="82" spans="1:3" s="13" customFormat="1">
+      <c r="A82" s="11" t="s">
         <v>199</v>
       </c>
-      <c r="C81" s="13" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="82" spans="1:3" s="14" customFormat="1">
-      <c r="A82" s="12" t="s">
-        <v>201</v>
-      </c>
-      <c r="C82" s="13"/>
-    </row>
-    <row r="83" spans="1:3" s="14" customFormat="1">
-      <c r="A83" s="12" t="s">
+      <c r="C82" s="12"/>
+    </row>
+    <row r="83" spans="1:3" s="13" customFormat="1">
+      <c r="A83" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C83" s="13"/>
-    </row>
-    <row r="84" spans="1:3" s="14" customFormat="1">
-      <c r="A84" s="12" t="s">
+      <c r="C83" s="12"/>
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1">
+      <c r="A84" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="13" t="s">
+      <c r="C84" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:3" s="14" customFormat="1">
+    <row r="85" spans="1:3">
       <c r="A85" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B85" s="3"/>
       <c r="C85" s="4" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="86" spans="1:3">
-      <c r="A86" s="12" t="s">
-        <v>211</v>
-      </c>
-      <c r="B86" s="14"/>
-      <c r="C86" s="13"/>
+      <c r="A86" s="11" t="s">
+        <v>209</v>
+      </c>
+      <c r="B86" s="13"/>
+      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3">
-      <c r="A87" s="12" t="s">
+      <c r="A87" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="88" spans="1:3">
-      <c r="A88" s="12" t="s">
+      <c r="A88" s="11" t="s">
+        <v>163</v>
+      </c>
+      <c r="C88" s="12" t="s">
         <v>164</v>
-      </c>
-      <c r="C88" s="13" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="89" spans="1:3">
@@ -2888,11 +2888,11 @@
       </c>
     </row>
     <row r="92" spans="1:3">
-      <c r="A92" s="12" t="s">
-        <v>226</v>
-      </c>
-      <c r="C92" s="13" t="s">
-        <v>227</v>
+      <c r="A92" s="11" t="s">
+        <v>224</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="93" spans="1:3">
@@ -2900,364 +2900,361 @@
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
+    <row r="94" spans="1:3" ht="30">
+      <c r="A94" s="11" t="s">
+        <v>321</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="12" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="B95" s="14"/>
-      <c r="C95" s="13" t="s">
+      <c r="B96" s="13"/>
+      <c r="C96" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="12" t="s">
+    <row r="97" spans="1:3">
+      <c r="A97" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C96" s="13" t="s">
+      <c r="C97" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="12" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C97" s="13" t="s">
+      <c r="C98" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="12" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C98" s="13" t="s">
+      <c r="C99" s="12" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C100" s="13" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="101" spans="1:3">
       <c r="A101" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C101" s="4" t="s">
+      <c r="C102" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="12" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C102" s="13" t="s">
+      <c r="C103" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="12" t="s">
-        <v>229</v>
-      </c>
-      <c r="C104" s="13" t="s">
-        <v>230</v>
-      </c>
-    </row>
     <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C105" s="13" t="s">
-        <v>103</v>
+      <c r="A105" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>228</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C107" s="13" t="s">
+      <c r="C108" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="12" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C108" s="13" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
+      <c r="C109" s="12" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C109" s="13" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="110" spans="1:3" ht="30">
-      <c r="A110" s="12" t="s">
+      <c r="C110" s="12" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30">
+      <c r="A111" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C110" s="13" t="s">
+      <c r="C111" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="12" t="s">
+    <row r="112" spans="1:3">
+      <c r="A112" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C111" s="13" t="s">
+      <c r="C112" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="12" t="s">
+    <row r="113" spans="1:3">
+      <c r="A113" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="12" t="s">
+    <row r="114" spans="1:3">
+      <c r="A114" s="11" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C116" s="13" t="s">
+      <c r="C117" s="12" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="12" t="s">
-        <v>231</v>
-      </c>
-      <c r="C117" s="13"/>
-    </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="12" t="s">
-        <v>225</v>
-      </c>
-      <c r="C118" s="13"/>
+      <c r="A118" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C118" s="12"/>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="12" t="s">
+      <c r="A119" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="12"/>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C119" s="13"/>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="12" t="s">
+      <c r="C120" s="12"/>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C120" s="13"/>
-    </row>
-    <row r="121" spans="1:3" ht="30">
-      <c r="A121" s="12" t="s">
+      <c r="C121" s="12"/>
+    </row>
+    <row r="122" spans="1:3" ht="30">
+      <c r="A122" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B121" s="14"/>
-      <c r="C121" s="13" t="s">
+      <c r="B122" s="13"/>
+      <c r="C122" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C123" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C124" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C124" s="4" t="s">
+      <c r="C125" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="12" t="s">
+    <row r="126" spans="1:3">
+      <c r="A126" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C125" s="13" t="s">
+      <c r="C126" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
+    <row r="127" spans="1:3">
+      <c r="A127" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="12" t="s">
-        <v>213</v>
-      </c>
-      <c r="C127" s="13" t="s">
-        <v>214</v>
-      </c>
-    </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
+      <c r="A128" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="12" t="s">
+    <row r="130" spans="1:3" s="9" customFormat="1">
+      <c r="A130" s="11" t="s">
         <v>99</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="10" customFormat="1">
-      <c r="A130" s="2" t="s">
-        <v>58</v>
       </c>
       <c r="B130" s="3"/>
       <c r="C130" s="4"/>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="12" t="s">
+    <row r="133" spans="1:3">
+      <c r="A133" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="C132" s="13" t="s">
+      <c r="C133" s="12" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="12" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="C133" s="13" t="s">
+      <c r="C134" s="12" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="12" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="11" t="s">
         <v>137</v>
       </c>
-      <c r="C134" s="13" t="s">
+      <c r="C135" s="12" t="s">
         <v>138</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="45">
-      <c r="A135" s="12" t="s">
-        <v>125</v>
-      </c>
-      <c r="B135" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="C135" s="13" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3" ht="30">
-      <c r="A136" s="12" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="11" t="s">
         <v>145</v>
       </c>
-      <c r="B136" s="14"/>
-      <c r="C136" s="13" t="s">
+      <c r="B136" s="13"/>
+      <c r="C136" s="12" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="12" t="s">
+      <c r="A137" s="11" t="s">
         <v>151</v>
       </c>
-      <c r="B137" s="14"/>
-      <c r="C137" s="13" t="s">
+      <c r="B137" s="13"/>
+      <c r="C137" s="12" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="138" spans="1:3">
-      <c r="A138" s="12" t="s">
+      <c r="A138" s="11" t="s">
         <v>153</v>
       </c>
-      <c r="B138" s="14"/>
-      <c r="C138" s="13" t="s">
+      <c r="B138" s="13"/>
+      <c r="C138" s="12" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="139" spans="1:3">
-      <c r="A139" s="12" t="s">
-        <v>238</v>
-      </c>
-      <c r="B139" s="14"/>
-      <c r="C139" s="13" t="s">
-        <v>239</v>
+      <c r="A139" s="11" t="s">
+        <v>236</v>
+      </c>
+      <c r="B139" s="13"/>
+      <c r="C139" s="12" t="s">
+        <v>237</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30">
-      <c r="A140" s="12" t="s">
+      <c r="A140" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="B140" s="13"/>
+      <c r="C140" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="11" t="s">
         <v>245</v>
       </c>
-      <c r="B140" s="14"/>
-      <c r="C140" s="13" t="s">
+      <c r="C141" s="12" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="12" t="s">
-        <v>247</v>
-      </c>
-      <c r="C141" s="13" t="s">
-        <v>248</v>
-      </c>
-    </row>
     <row r="142" spans="1:3">
-      <c r="A142" s="12" t="s">
-        <v>280</v>
-      </c>
-      <c r="C142" s="13" t="s">
-        <v>281</v>
+      <c r="A142" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>278</v>
       </c>
     </row>
   </sheetData>
@@ -3284,166 +3281,166 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="32.5703125" customWidth="1"/>
-    <col min="2" max="2" width="192.85546875" style="16" customWidth="1"/>
+    <col min="2" max="2" width="192.85546875" style="15" customWidth="1"/>
     <col min="12" max="12" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12">
-      <c r="A1" s="21" t="s">
-        <v>205</v>
-      </c>
-      <c r="B1" s="21"/>
-      <c r="C1" s="21"/>
-      <c r="D1" s="21"/>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21"/>
-      <c r="G1" s="21"/>
-      <c r="H1" s="21"/>
-      <c r="I1" s="21"/>
-      <c r="J1" s="21"/>
-      <c r="K1" s="21"/>
-      <c r="L1" s="21"/>
+      <c r="A1" s="20" t="s">
+        <v>203</v>
+      </c>
+      <c r="B1" s="20"/>
+      <c r="C1" s="20"/>
+      <c r="D1" s="20"/>
+      <c r="E1" s="20"/>
+      <c r="F1" s="20"/>
+      <c r="G1" s="20"/>
+      <c r="H1" s="20"/>
+      <c r="I1" s="20"/>
+      <c r="J1" s="20"/>
+      <c r="K1" s="20"/>
+      <c r="L1" s="20"/>
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>203</v>
-      </c>
-      <c r="B3" s="16" t="s">
-        <v>204</v>
+        <v>201</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>240</v>
-      </c>
-      <c r="B4" s="16" t="s">
-        <v>277</v>
+        <v>238</v>
+      </c>
+      <c r="B4" s="15" t="s">
+        <v>274</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>247</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>249</v>
       </c>
-      <c r="B5" s="16" t="s">
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" s="23" customFormat="1">
+      <c r="A7" s="23" t="s">
+        <v>250</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>251</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="24" customFormat="1">
-      <c r="A6" t="s">
-        <v>206</v>
-      </c>
-      <c r="B6" s="16" t="s">
-        <v>320</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" s="24" customFormat="1">
-      <c r="A7" s="24" t="s">
-        <v>252</v>
-      </c>
-      <c r="B7" s="23" t="s">
-        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>250</v>
-      </c>
-      <c r="B8" s="16" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="24" customFormat="1">
-      <c r="A9" s="24" t="s">
-        <v>316</v>
-      </c>
-      <c r="B9" s="29" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="19" customFormat="1">
-      <c r="A10" s="17" t="s">
-        <v>288</v>
-      </c>
-      <c r="B10" s="18" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="24" customFormat="1" ht="30">
+        <v>248</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1">
+      <c r="A9" s="23" t="s">
+        <v>312</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="18" customFormat="1">
+      <c r="A10" s="16" t="s">
+        <v>285</v>
+      </c>
+      <c r="B10" s="17" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>315</v>
-      </c>
-      <c r="B11" s="16" t="s">
-        <v>318</v>
+        <v>311</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>314</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>207</v>
-      </c>
-      <c r="B12" s="16" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="13" spans="1:12" s="24" customFormat="1">
-      <c r="A13" s="24" t="s">
-        <v>261</v>
-      </c>
-      <c r="B13" s="25" t="s">
-        <v>262</v>
+        <v>205</v>
+      </c>
+      <c r="B12" s="15" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="13" spans="1:12" s="23" customFormat="1">
+      <c r="A13" s="23" t="s">
+        <v>259</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>260</v>
       </c>
     </row>
     <row r="14" spans="1:12">
       <c r="A14" t="s">
-        <v>232</v>
-      </c>
-      <c r="B14" s="16" t="s">
-        <v>275</v>
+        <v>230</v>
+      </c>
+      <c r="B14" s="15" t="s">
+        <v>324</v>
       </c>
     </row>
     <row r="17" spans="2:2">
-      <c r="B17" s="16" t="s">
+      <c r="B17" s="15" t="s">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="18" spans="2:2">
+      <c r="B18" s="15" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="19" spans="2:2">
+      <c r="B19" s="15" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="20" spans="2:2">
+      <c r="B20" s="15" t="s">
         <v>283</v>
       </c>
     </row>
-    <row r="18" spans="2:2">
-      <c r="B18" s="16" t="s">
+    <row r="21" spans="2:2" ht="45">
+      <c r="B21" s="10" t="s">
         <v>284</v>
       </c>
     </row>
-    <row r="19" spans="2:2">
-      <c r="B19" s="16" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="20" spans="2:2">
-      <c r="B20" s="16" t="s">
+    <row r="22" spans="2:2" ht="30">
+      <c r="B22" s="10" t="s">
         <v>286</v>
       </c>
     </row>
-    <row r="21" spans="2:2" ht="45">
-      <c r="B21" s="11" t="s">
+    <row r="23" spans="2:2" ht="30">
+      <c r="B23" s="10" t="s">
         <v>287</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="30">
-      <c r="B22" s="11" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="23" spans="2:2" ht="30">
-      <c r="B23" s="11" t="s">
-        <v>290</v>
-      </c>
-    </row>
     <row r="24" spans="2:2" ht="45">
-      <c r="B24" s="16" t="s">
-        <v>291</v>
+      <c r="B24" s="15" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -3462,251 +3459,251 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" style="21" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.5703125" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="82.85546875" style="21" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="63" style="21" customWidth="1"/>
-    <col min="5" max="5" width="48" style="21" customWidth="1"/>
-    <col min="6" max="6" width="9.7109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="7" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.5703125" style="20" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="82.85546875" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="63" style="20" customWidth="1"/>
+    <col min="5" max="5" width="48" style="20" customWidth="1"/>
+    <col min="6" max="6" width="9.7109375" style="20" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9.140625" style="20"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="20" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" s="20" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" s="21" t="s">
+      <c r="B2" s="20" t="s">
+        <v>210</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B2" s="21" t="s">
-        <v>212</v>
-      </c>
-      <c r="C2" s="21" t="s">
+      <c r="D2" s="20" t="s">
+        <v>200</v>
+      </c>
+      <c r="E2" s="20" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="D2" s="21" t="s">
-        <v>202</v>
-      </c>
-      <c r="E2" s="21" t="s">
+      <c r="B3" s="31" t="s">
+        <v>176</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>234</v>
+      </c>
+      <c r="E3" s="20" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="B4" s="32" t="s">
+        <v>177</v>
+      </c>
+      <c r="C4" s="20" t="s">
+        <v>188</v>
+      </c>
+      <c r="D4" s="20" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="B5" s="33" t="s">
+        <v>178</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>264</v>
+      </c>
+      <c r="E5" s="20" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" s="20" t="s">
+        <v>233</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B7" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>253</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="B8" s="36" t="s">
+        <v>181</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>190</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="B9" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>191</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>265</v>
+      </c>
+      <c r="E9" s="20" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
-      <c r="A3" s="21" t="s">
-        <v>169</v>
-      </c>
-      <c r="B3" s="32" t="s">
-        <v>177</v>
-      </c>
-      <c r="C3" s="21" t="s">
-        <v>188</v>
-      </c>
-      <c r="D3" s="21" t="s">
-        <v>236</v>
-      </c>
-      <c r="E3" s="21" t="s">
+    <row r="10" spans="1:5">
+      <c r="A10" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B10" s="38" t="s">
+        <v>183</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="D10" s="20" t="s">
+        <v>266</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" s="20" t="s">
+        <v>192</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>193</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>267</v>
+      </c>
+      <c r="E11" s="20" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" s="20" t="s">
+        <v>216</v>
+      </c>
+      <c r="B12" s="40" t="s">
+        <v>185</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E12" s="20" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="B13" s="41" t="s">
+        <v>186</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="E13" s="20" t="s">
         <v>221</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
-      <c r="A4" s="21" t="s">
-        <v>170</v>
-      </c>
-      <c r="B4" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="C4" s="21" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="21" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" s="21" t="s">
-        <v>171</v>
-      </c>
-      <c r="B5" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="C5" s="21" t="s">
-        <v>190</v>
-      </c>
-      <c r="D5" s="21" t="s">
-        <v>266</v>
-      </c>
-      <c r="E5" s="21" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" s="21" t="s">
-        <v>235</v>
-      </c>
-      <c r="B6" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" s="21" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" s="21" t="s">
-        <v>172</v>
-      </c>
-      <c r="B7" s="36" t="s">
-        <v>181</v>
-      </c>
-      <c r="C7" s="21" t="s">
-        <v>255</v>
-      </c>
-      <c r="D7" s="21" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" s="21" t="s">
-        <v>173</v>
-      </c>
-      <c r="B8" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="C8" s="21" t="s">
-        <v>191</v>
-      </c>
-      <c r="D8" s="21" t="s">
-        <v>219</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" s="21" t="s">
-        <v>174</v>
-      </c>
-      <c r="B9" s="38" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" s="21" t="s">
-        <v>192</v>
-      </c>
-      <c r="D9" s="21" t="s">
-        <v>267</v>
-      </c>
-      <c r="E9" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" s="21" t="s">
-        <v>175</v>
-      </c>
-      <c r="B10" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="C10" s="21" t="s">
-        <v>256</v>
-      </c>
-      <c r="D10" s="21" t="s">
-        <v>268</v>
-      </c>
-      <c r="E10" s="21" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" s="21" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="40" t="s">
-        <v>185</v>
-      </c>
-      <c r="C11" s="21" t="s">
-        <v>194</v>
-      </c>
-      <c r="D11" s="21" t="s">
-        <v>269</v>
-      </c>
-      <c r="E11" s="21" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" s="21" t="s">
-        <v>218</v>
-      </c>
-      <c r="B12" s="41" t="s">
-        <v>186</v>
-      </c>
-      <c r="C12" s="21" t="s">
-        <v>196</v>
-      </c>
-      <c r="D12" s="21" t="s">
+    <row r="15" spans="1:5">
+      <c r="A15" s="20" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="20" t="s">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="20" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="20" t="s">
         <v>270</v>
       </c>
-      <c r="E12" s="21" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" s="21" t="s">
-        <v>176</v>
-      </c>
-      <c r="B13" s="42" t="s">
-        <v>187</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>195</v>
-      </c>
-      <c r="D13" s="21" t="s">
-        <v>271</v>
-      </c>
-      <c r="E13" s="21" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="21" t="s">
-        <v>264</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="21" t="s">
-        <v>265</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="21" t="s">
-        <v>274</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="21" t="s">
-        <v>272</v>
-      </c>
     </row>
     <row r="19" spans="1:6">
-      <c r="A19" s="21" t="s">
-        <v>298</v>
+      <c r="A19" s="20" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="21" t="s">
+      <c r="A20" s="20" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="30" customFormat="1">
+      <c r="A21" s="30" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6">
+      <c r="A22" s="30" t="s">
         <v>297</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="31" customFormat="1">
-      <c r="A21" s="31" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="31" t="s">
-        <v>300</v>
-      </c>
-    </row>
     <row r="26" spans="1:6">
-      <c r="F26" s="22"/>
+      <c r="F26" s="21"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3725,457 +3722,457 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D5" sqref="D5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="27" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="22" style="27" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="27" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="27" customWidth="1"/>
-    <col min="6" max="6" width="14" style="27" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="27" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="27" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="22.28515625" style="27"/>
+    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="22" style="26" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="26" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="26" customWidth="1"/>
+    <col min="6" max="6" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="26" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="22.28515625" style="26"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A1" s="48" t="s">
-        <v>296</v>
-      </c>
-      <c r="B1" s="45" t="s">
+      <c r="A1" s="47" t="s">
+        <v>293</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>298</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>299</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>300</v>
+      </c>
+      <c r="E1" s="42" t="s">
         <v>301</v>
       </c>
-      <c r="C1" s="43" t="s">
+      <c r="F1" s="42" t="s">
+        <v>291</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>292</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="48" t="s">
+        <v>298</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>323</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>305</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>231</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>303</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>231</v>
+      </c>
+      <c r="I2" s="26"/>
+      <c r="J2" s="26"/>
+    </row>
+    <row r="3" spans="1:10" ht="60">
+      <c r="A3" s="49" t="s">
+        <v>299</v>
+      </c>
+      <c r="B3" s="46" t="s">
         <v>302</v>
       </c>
-      <c r="D1" s="43" t="s">
-        <v>303</v>
-      </c>
-      <c r="E1" s="43" t="s">
+      <c r="C3" s="19" t="s">
         <v>304</v>
       </c>
-      <c r="F1" s="43" t="s">
-        <v>294</v>
-      </c>
-      <c r="G1" s="43" t="s">
-        <v>295</v>
-      </c>
-      <c r="H1" s="44" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="49" t="s">
+      <c r="D3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
+    </row>
+    <row r="4" spans="1:10" ht="75">
+      <c r="A4" s="49" t="s">
+        <v>300</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>310</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>310</v>
+      </c>
+      <c r="I4" s="26"/>
+      <c r="J4" s="26"/>
+    </row>
+    <row r="5" spans="1:10" ht="60">
+      <c r="A5" s="49" t="s">
         <v>301</v>
       </c>
-      <c r="B2" s="46" t="s">
-        <v>305</v>
-      </c>
-      <c r="C2" s="30" t="s">
+      <c r="B5" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C5" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D5" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="E5" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F5" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H5" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I5" s="26"/>
+      <c r="J5" s="26"/>
+    </row>
+    <row r="6" spans="1:10" ht="60">
+      <c r="A6" s="49" t="s">
+        <v>291</v>
+      </c>
+      <c r="B6" s="46" t="s">
+        <v>302</v>
+      </c>
+      <c r="C6" s="19" t="s">
         <v>309</v>
       </c>
-      <c r="D2" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="E2" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="F2" s="30" t="s">
-        <v>233</v>
-      </c>
-      <c r="G2" s="30" t="s">
-        <v>307</v>
-      </c>
-      <c r="H2" s="52" t="s">
-        <v>233</v>
-      </c>
-      <c r="I2" s="27"/>
-      <c r="J2" s="27"/>
-    </row>
-    <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="50" t="s">
-        <v>302</v>
-      </c>
-      <c r="B3" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="C3" s="20" t="s">
+      <c r="D6" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E6" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="F6" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G6" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H6" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I6" s="26"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:10" ht="60">
+      <c r="A7" s="49" t="s">
+        <v>292</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>231</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="D7" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="E7" s="19" t="s">
         <v>308</v>
       </c>
-      <c r="D3" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E3" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="F3" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="G3" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H3" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
-    </row>
-    <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="50" t="s">
-        <v>303</v>
-      </c>
-      <c r="B4" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C4" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>310</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>258</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>314</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H4" s="53" t="s">
-        <v>314</v>
-      </c>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
-    </row>
-    <row r="5" spans="1:10" ht="75">
-      <c r="A5" s="50" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>257</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>311</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H5" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="50" t="s">
-        <v>294</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>306</v>
-      </c>
-      <c r="C6" s="20" t="s">
-        <v>313</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H6" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
-    </row>
-    <row r="7" spans="1:10" ht="75">
-      <c r="A7" s="50" t="s">
-        <v>295</v>
-      </c>
-      <c r="B7" s="47" t="s">
-        <v>233</v>
-      </c>
-      <c r="C7" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>312</v>
-      </c>
-      <c r="F7" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="G7" s="20" t="s">
-        <v>233</v>
-      </c>
-      <c r="H7" s="53" t="s">
-        <v>233</v>
-      </c>
-      <c r="I7" s="27"/>
-      <c r="J7" s="27"/>
-    </row>
-    <row r="8" spans="1:10" ht="75.75" thickBot="1">
-      <c r="A8" s="51" t="s">
-        <v>292</v>
-      </c>
-      <c r="B8" s="54" t="s">
-        <v>233</v>
-      </c>
-      <c r="C8" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="D8" s="55" t="s">
-        <v>257</v>
-      </c>
-      <c r="E8" s="55" t="s">
-        <v>312</v>
-      </c>
-      <c r="F8" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="G8" s="55" t="s">
-        <v>233</v>
-      </c>
-      <c r="H8" s="56" t="s">
-        <v>233</v>
-      </c>
-      <c r="I8" s="27"/>
-      <c r="J8" s="27"/>
-    </row>
-    <row r="9" spans="1:10" s="28" customFormat="1"/>
-    <row r="10" spans="1:10" s="28" customFormat="1"/>
-    <row r="11" spans="1:10" s="28" customFormat="1"/>
-    <row r="12" spans="1:10" s="28" customFormat="1"/>
-    <row r="13" spans="1:10" s="28" customFormat="1"/>
-    <row r="14" spans="1:10" s="28" customFormat="1"/>
-    <row r="15" spans="1:10" s="28" customFormat="1"/>
-    <row r="16" spans="1:10" s="28" customFormat="1"/>
-    <row r="17" s="28" customFormat="1"/>
-    <row r="18" s="28" customFormat="1"/>
-    <row r="19" s="28" customFormat="1"/>
-    <row r="20" s="28" customFormat="1"/>
-    <row r="21" s="28" customFormat="1"/>
-    <row r="22" s="28" customFormat="1"/>
-    <row r="23" s="28" customFormat="1"/>
-    <row r="24" s="28" customFormat="1"/>
-    <row r="25" s="28" customFormat="1"/>
-    <row r="26" s="28" customFormat="1"/>
-    <row r="27" s="28" customFormat="1"/>
-    <row r="28" s="28" customFormat="1"/>
-    <row r="29" s="28" customFormat="1"/>
-    <row r="30" s="28" customFormat="1"/>
-    <row r="31" s="28" customFormat="1"/>
-    <row r="32" s="28" customFormat="1"/>
-    <row r="33" s="28" customFormat="1"/>
-    <row r="34" s="28" customFormat="1"/>
-    <row r="35" s="28" customFormat="1"/>
-    <row r="36" s="28" customFormat="1"/>
-    <row r="37" s="28" customFormat="1"/>
-    <row r="38" s="28" customFormat="1"/>
-    <row r="39" s="28" customFormat="1"/>
-    <row r="40" s="28" customFormat="1"/>
-    <row r="41" s="28" customFormat="1"/>
-    <row r="42" s="28" customFormat="1"/>
-    <row r="43" s="28" customFormat="1"/>
-    <row r="44" s="28" customFormat="1"/>
-    <row r="45" s="28" customFormat="1"/>
-    <row r="46" s="28" customFormat="1"/>
-    <row r="47" s="28" customFormat="1"/>
-    <row r="48" s="28" customFormat="1"/>
-    <row r="49" s="28" customFormat="1"/>
-    <row r="50" s="28" customFormat="1"/>
-    <row r="51" s="28" customFormat="1"/>
-    <row r="52" s="28" customFormat="1"/>
-    <row r="53" s="28" customFormat="1"/>
-    <row r="54" s="28" customFormat="1"/>
-    <row r="55" s="28" customFormat="1"/>
-    <row r="56" s="28" customFormat="1"/>
-    <row r="57" s="28" customFormat="1"/>
-    <row r="58" s="28" customFormat="1"/>
-    <row r="59" s="28" customFormat="1"/>
-    <row r="60" s="28" customFormat="1"/>
-    <row r="61" s="28" customFormat="1"/>
-    <row r="62" s="28" customFormat="1"/>
-    <row r="63" s="28" customFormat="1"/>
-    <row r="64" s="28" customFormat="1"/>
-    <row r="65" s="28" customFormat="1"/>
-    <row r="66" s="28" customFormat="1"/>
-    <row r="67" s="28" customFormat="1"/>
-    <row r="68" s="28" customFormat="1"/>
-    <row r="69" s="28" customFormat="1"/>
-    <row r="70" s="28" customFormat="1"/>
-    <row r="71" s="28" customFormat="1"/>
-    <row r="72" s="28" customFormat="1"/>
-    <row r="73" s="28" customFormat="1"/>
-    <row r="74" s="28" customFormat="1"/>
-    <row r="75" s="28" customFormat="1"/>
-    <row r="76" s="28" customFormat="1"/>
-    <row r="77" s="28" customFormat="1"/>
-    <row r="78" s="28" customFormat="1"/>
-    <row r="79" s="28" customFormat="1"/>
-    <row r="80" s="28" customFormat="1"/>
-    <row r="81" s="28" customFormat="1"/>
-    <row r="82" s="28" customFormat="1"/>
-    <row r="83" s="28" customFormat="1"/>
-    <row r="84" s="28" customFormat="1"/>
-    <row r="85" s="28" customFormat="1"/>
-    <row r="86" s="28" customFormat="1"/>
-    <row r="87" s="28" customFormat="1"/>
-    <row r="88" s="28" customFormat="1"/>
-    <row r="89" s="28" customFormat="1"/>
-    <row r="90" s="28" customFormat="1"/>
-    <row r="91" s="28" customFormat="1"/>
-    <row r="92" s="28" customFormat="1"/>
-    <row r="93" s="28" customFormat="1"/>
-    <row r="94" s="28" customFormat="1"/>
-    <row r="95" s="28" customFormat="1"/>
-    <row r="96" s="28" customFormat="1"/>
-    <row r="97" s="28" customFormat="1"/>
-    <row r="98" s="28" customFormat="1"/>
-    <row r="99" s="28" customFormat="1"/>
-    <row r="100" s="28" customFormat="1"/>
-    <row r="101" s="28" customFormat="1"/>
-    <row r="102" s="28" customFormat="1"/>
-    <row r="103" s="28" customFormat="1"/>
-    <row r="104" s="28" customFormat="1"/>
-    <row r="105" s="28" customFormat="1"/>
-    <row r="106" s="28" customFormat="1"/>
-    <row r="107" s="28" customFormat="1"/>
-    <row r="108" s="28" customFormat="1"/>
-    <row r="109" s="28" customFormat="1"/>
-    <row r="110" s="28" customFormat="1"/>
-    <row r="111" s="28" customFormat="1"/>
-    <row r="112" s="28" customFormat="1"/>
-    <row r="113" s="28" customFormat="1"/>
-    <row r="114" s="28" customFormat="1"/>
-    <row r="115" s="28" customFormat="1"/>
-    <row r="116" s="28" customFormat="1"/>
-    <row r="117" s="28" customFormat="1"/>
-    <row r="118" s="28" customFormat="1"/>
-    <row r="119" s="28" customFormat="1"/>
-    <row r="120" s="28" customFormat="1"/>
-    <row r="121" s="28" customFormat="1"/>
-    <row r="122" s="28" customFormat="1"/>
-    <row r="123" s="28" customFormat="1"/>
-    <row r="124" s="28" customFormat="1"/>
-    <row r="125" s="28" customFormat="1"/>
-    <row r="126" s="28" customFormat="1"/>
-    <row r="127" s="28" customFormat="1"/>
-    <row r="128" s="28" customFormat="1"/>
-    <row r="129" s="28" customFormat="1"/>
-    <row r="130" s="28" customFormat="1"/>
-    <row r="131" s="28" customFormat="1"/>
-    <row r="132" s="28" customFormat="1"/>
-    <row r="133" s="28" customFormat="1"/>
-    <row r="134" s="28" customFormat="1"/>
-    <row r="135" s="28" customFormat="1"/>
-    <row r="136" s="28" customFormat="1"/>
-    <row r="137" s="28" customFormat="1"/>
-    <row r="138" s="28" customFormat="1"/>
-    <row r="139" s="28" customFormat="1"/>
-    <row r="140" s="28" customFormat="1"/>
-    <row r="141" s="28" customFormat="1"/>
-    <row r="142" s="28" customFormat="1"/>
-    <row r="143" s="28" customFormat="1"/>
-    <row r="144" s="28" customFormat="1"/>
-    <row r="145" s="28" customFormat="1"/>
-    <row r="146" s="28" customFormat="1"/>
-    <row r="147" s="28" customFormat="1"/>
-    <row r="148" s="28" customFormat="1"/>
-    <row r="149" s="28" customFormat="1"/>
-    <row r="150" s="28" customFormat="1"/>
-    <row r="151" s="28" customFormat="1"/>
-    <row r="152" s="28" customFormat="1"/>
-    <row r="153" s="28" customFormat="1"/>
-    <row r="154" s="28" customFormat="1"/>
-    <row r="155" s="28" customFormat="1"/>
-    <row r="156" s="28" customFormat="1"/>
-    <row r="157" s="28" customFormat="1"/>
-    <row r="158" s="28" customFormat="1"/>
-    <row r="159" s="28" customFormat="1"/>
-    <row r="160" s="28" customFormat="1"/>
-    <row r="161" s="28" customFormat="1"/>
-    <row r="162" s="28" customFormat="1"/>
-    <row r="163" s="28" customFormat="1"/>
-    <row r="164" s="28" customFormat="1"/>
-    <row r="165" s="28" customFormat="1"/>
-    <row r="166" s="28" customFormat="1"/>
-    <row r="167" s="28" customFormat="1"/>
-    <row r="168" s="28" customFormat="1"/>
-    <row r="169" s="28" customFormat="1"/>
-    <row r="170" s="28" customFormat="1"/>
-    <row r="171" s="28" customFormat="1"/>
-    <row r="172" s="28" customFormat="1"/>
-    <row r="173" s="28" customFormat="1"/>
-    <row r="174" s="28" customFormat="1"/>
-    <row r="175" s="28" customFormat="1"/>
-    <row r="176" s="28" customFormat="1"/>
-    <row r="177" spans="9:10" s="28" customFormat="1"/>
-    <row r="178" spans="9:10" s="28" customFormat="1"/>
-    <row r="179" spans="9:10" s="28" customFormat="1"/>
-    <row r="180" spans="9:10" s="28" customFormat="1"/>
-    <row r="181" spans="9:10" s="28" customFormat="1"/>
-    <row r="182" spans="9:10" s="28" customFormat="1"/>
-    <row r="183" spans="9:10" s="28" customFormat="1"/>
-    <row r="184" spans="9:10" s="28" customFormat="1"/>
-    <row r="185" spans="9:10" s="28" customFormat="1"/>
-    <row r="186" spans="9:10" s="28" customFormat="1"/>
-    <row r="187" spans="9:10" s="28" customFormat="1"/>
+      <c r="F7" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>231</v>
+      </c>
+      <c r="H7" s="52" t="s">
+        <v>231</v>
+      </c>
+      <c r="I7" s="26"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:10" ht="60.75" thickBot="1">
+      <c r="A8" s="50" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>231</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>255</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>308</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>231</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>231</v>
+      </c>
+      <c r="I8" s="26"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:10" s="27" customFormat="1"/>
+    <row r="10" spans="1:10" s="27" customFormat="1"/>
+    <row r="11" spans="1:10" s="27" customFormat="1"/>
+    <row r="12" spans="1:10" s="27" customFormat="1"/>
+    <row r="13" spans="1:10" s="27" customFormat="1"/>
+    <row r="14" spans="1:10" s="27" customFormat="1"/>
+    <row r="15" spans="1:10" s="27" customFormat="1"/>
+    <row r="16" spans="1:10" s="27" customFormat="1"/>
+    <row r="17" s="27" customFormat="1"/>
+    <row r="18" s="27" customFormat="1"/>
+    <row r="19" s="27" customFormat="1"/>
+    <row r="20" s="27" customFormat="1"/>
+    <row r="21" s="27" customFormat="1"/>
+    <row r="22" s="27" customFormat="1"/>
+    <row r="23" s="27" customFormat="1"/>
+    <row r="24" s="27" customFormat="1"/>
+    <row r="25" s="27" customFormat="1"/>
+    <row r="26" s="27" customFormat="1"/>
+    <row r="27" s="27" customFormat="1"/>
+    <row r="28" s="27" customFormat="1"/>
+    <row r="29" s="27" customFormat="1"/>
+    <row r="30" s="27" customFormat="1"/>
+    <row r="31" s="27" customFormat="1"/>
+    <row r="32" s="27" customFormat="1"/>
+    <row r="33" s="27" customFormat="1"/>
+    <row r="34" s="27" customFormat="1"/>
+    <row r="35" s="27" customFormat="1"/>
+    <row r="36" s="27" customFormat="1"/>
+    <row r="37" s="27" customFormat="1"/>
+    <row r="38" s="27" customFormat="1"/>
+    <row r="39" s="27" customFormat="1"/>
+    <row r="40" s="27" customFormat="1"/>
+    <row r="41" s="27" customFormat="1"/>
+    <row r="42" s="27" customFormat="1"/>
+    <row r="43" s="27" customFormat="1"/>
+    <row r="44" s="27" customFormat="1"/>
+    <row r="45" s="27" customFormat="1"/>
+    <row r="46" s="27" customFormat="1"/>
+    <row r="47" s="27" customFormat="1"/>
+    <row r="48" s="27" customFormat="1"/>
+    <row r="49" s="27" customFormat="1"/>
+    <row r="50" s="27" customFormat="1"/>
+    <row r="51" s="27" customFormat="1"/>
+    <row r="52" s="27" customFormat="1"/>
+    <row r="53" s="27" customFormat="1"/>
+    <row r="54" s="27" customFormat="1"/>
+    <row r="55" s="27" customFormat="1"/>
+    <row r="56" s="27" customFormat="1"/>
+    <row r="57" s="27" customFormat="1"/>
+    <row r="58" s="27" customFormat="1"/>
+    <row r="59" s="27" customFormat="1"/>
+    <row r="60" s="27" customFormat="1"/>
+    <row r="61" s="27" customFormat="1"/>
+    <row r="62" s="27" customFormat="1"/>
+    <row r="63" s="27" customFormat="1"/>
+    <row r="64" s="27" customFormat="1"/>
+    <row r="65" s="27" customFormat="1"/>
+    <row r="66" s="27" customFormat="1"/>
+    <row r="67" s="27" customFormat="1"/>
+    <row r="68" s="27" customFormat="1"/>
+    <row r="69" s="27" customFormat="1"/>
+    <row r="70" s="27" customFormat="1"/>
+    <row r="71" s="27" customFormat="1"/>
+    <row r="72" s="27" customFormat="1"/>
+    <row r="73" s="27" customFormat="1"/>
+    <row r="74" s="27" customFormat="1"/>
+    <row r="75" s="27" customFormat="1"/>
+    <row r="76" s="27" customFormat="1"/>
+    <row r="77" s="27" customFormat="1"/>
+    <row r="78" s="27" customFormat="1"/>
+    <row r="79" s="27" customFormat="1"/>
+    <row r="80" s="27" customFormat="1"/>
+    <row r="81" s="27" customFormat="1"/>
+    <row r="82" s="27" customFormat="1"/>
+    <row r="83" s="27" customFormat="1"/>
+    <row r="84" s="27" customFormat="1"/>
+    <row r="85" s="27" customFormat="1"/>
+    <row r="86" s="27" customFormat="1"/>
+    <row r="87" s="27" customFormat="1"/>
+    <row r="88" s="27" customFormat="1"/>
+    <row r="89" s="27" customFormat="1"/>
+    <row r="90" s="27" customFormat="1"/>
+    <row r="91" s="27" customFormat="1"/>
+    <row r="92" s="27" customFormat="1"/>
+    <row r="93" s="27" customFormat="1"/>
+    <row r="94" s="27" customFormat="1"/>
+    <row r="95" s="27" customFormat="1"/>
+    <row r="96" s="27" customFormat="1"/>
+    <row r="97" s="27" customFormat="1"/>
+    <row r="98" s="27" customFormat="1"/>
+    <row r="99" s="27" customFormat="1"/>
+    <row r="100" s="27" customFormat="1"/>
+    <row r="101" s="27" customFormat="1"/>
+    <row r="102" s="27" customFormat="1"/>
+    <row r="103" s="27" customFormat="1"/>
+    <row r="104" s="27" customFormat="1"/>
+    <row r="105" s="27" customFormat="1"/>
+    <row r="106" s="27" customFormat="1"/>
+    <row r="107" s="27" customFormat="1"/>
+    <row r="108" s="27" customFormat="1"/>
+    <row r="109" s="27" customFormat="1"/>
+    <row r="110" s="27" customFormat="1"/>
+    <row r="111" s="27" customFormat="1"/>
+    <row r="112" s="27" customFormat="1"/>
+    <row r="113" s="27" customFormat="1"/>
+    <row r="114" s="27" customFormat="1"/>
+    <row r="115" s="27" customFormat="1"/>
+    <row r="116" s="27" customFormat="1"/>
+    <row r="117" s="27" customFormat="1"/>
+    <row r="118" s="27" customFormat="1"/>
+    <row r="119" s="27" customFormat="1"/>
+    <row r="120" s="27" customFormat="1"/>
+    <row r="121" s="27" customFormat="1"/>
+    <row r="122" s="27" customFormat="1"/>
+    <row r="123" s="27" customFormat="1"/>
+    <row r="124" s="27" customFormat="1"/>
+    <row r="125" s="27" customFormat="1"/>
+    <row r="126" s="27" customFormat="1"/>
+    <row r="127" s="27" customFormat="1"/>
+    <row r="128" s="27" customFormat="1"/>
+    <row r="129" s="27" customFormat="1"/>
+    <row r="130" s="27" customFormat="1"/>
+    <row r="131" s="27" customFormat="1"/>
+    <row r="132" s="27" customFormat="1"/>
+    <row r="133" s="27" customFormat="1"/>
+    <row r="134" s="27" customFormat="1"/>
+    <row r="135" s="27" customFormat="1"/>
+    <row r="136" s="27" customFormat="1"/>
+    <row r="137" s="27" customFormat="1"/>
+    <row r="138" s="27" customFormat="1"/>
+    <row r="139" s="27" customFormat="1"/>
+    <row r="140" s="27" customFormat="1"/>
+    <row r="141" s="27" customFormat="1"/>
+    <row r="142" s="27" customFormat="1"/>
+    <row r="143" s="27" customFormat="1"/>
+    <row r="144" s="27" customFormat="1"/>
+    <row r="145" s="27" customFormat="1"/>
+    <row r="146" s="27" customFormat="1"/>
+    <row r="147" s="27" customFormat="1"/>
+    <row r="148" s="27" customFormat="1"/>
+    <row r="149" s="27" customFormat="1"/>
+    <row r="150" s="27" customFormat="1"/>
+    <row r="151" s="27" customFormat="1"/>
+    <row r="152" s="27" customFormat="1"/>
+    <row r="153" s="27" customFormat="1"/>
+    <row r="154" s="27" customFormat="1"/>
+    <row r="155" s="27" customFormat="1"/>
+    <row r="156" s="27" customFormat="1"/>
+    <row r="157" s="27" customFormat="1"/>
+    <row r="158" s="27" customFormat="1"/>
+    <row r="159" s="27" customFormat="1"/>
+    <row r="160" s="27" customFormat="1"/>
+    <row r="161" s="27" customFormat="1"/>
+    <row r="162" s="27" customFormat="1"/>
+    <row r="163" s="27" customFormat="1"/>
+    <row r="164" s="27" customFormat="1"/>
+    <row r="165" s="27" customFormat="1"/>
+    <row r="166" s="27" customFormat="1"/>
+    <row r="167" s="27" customFormat="1"/>
+    <row r="168" s="27" customFormat="1"/>
+    <row r="169" s="27" customFormat="1"/>
+    <row r="170" s="27" customFormat="1"/>
+    <row r="171" s="27" customFormat="1"/>
+    <row r="172" s="27" customFormat="1"/>
+    <row r="173" s="27" customFormat="1"/>
+    <row r="174" s="27" customFormat="1"/>
+    <row r="175" s="27" customFormat="1"/>
+    <row r="176" s="27" customFormat="1"/>
+    <row r="177" spans="9:10" s="27" customFormat="1"/>
+    <row r="178" spans="9:10" s="27" customFormat="1"/>
+    <row r="179" spans="9:10" s="27" customFormat="1"/>
+    <row r="180" spans="9:10" s="27" customFormat="1"/>
+    <row r="181" spans="9:10" s="27" customFormat="1"/>
+    <row r="182" spans="9:10" s="27" customFormat="1"/>
+    <row r="183" spans="9:10" s="27" customFormat="1"/>
+    <row r="184" spans="9:10" s="27" customFormat="1"/>
+    <row r="185" spans="9:10" s="27" customFormat="1"/>
+    <row r="186" spans="9:10" s="27" customFormat="1"/>
+    <row r="187" spans="9:10" s="27" customFormat="1"/>
     <row r="188" spans="9:10">
-      <c r="I188" s="27"/>
-      <c r="J188" s="27"/>
+      <c r="I188" s="26"/>
+      <c r="J188" s="26"/>
     </row>
     <row r="189" spans="9:10">
-      <c r="I189" s="27"/>
-      <c r="J189" s="27"/>
+      <c r="I189" s="26"/>
+      <c r="J189" s="26"/>
     </row>
     <row r="190" spans="9:10">
-      <c r="I190" s="27"/>
-      <c r="J190" s="27"/>
+      <c r="I190" s="26"/>
+      <c r="J190" s="26"/>
     </row>
     <row r="191" spans="9:10">
-      <c r="I191" s="27"/>
-      <c r="J191" s="27"/>
+      <c r="I191" s="26"/>
+      <c r="J191" s="26"/>
     </row>
     <row r="192" spans="9:10">
-      <c r="I192" s="27"/>
-      <c r="J192" s="27"/>
+      <c r="I192" s="26"/>
+      <c r="J192" s="26"/>
     </row>
     <row r="193" spans="9:10">
-      <c r="I193" s="27"/>
-      <c r="J193" s="27"/>
+      <c r="I193" s="26"/>
+      <c r="J193" s="26"/>
     </row>
     <row r="194" spans="9:10">
-      <c r="I194" s="27"/>
-      <c r="J194" s="27"/>
+      <c r="I194" s="26"/>
+      <c r="J194" s="26"/>
     </row>
     <row r="195" spans="9:10">
-      <c r="I195" s="27"/>
-      <c r="J195" s="27"/>
+      <c r="I195" s="26"/>
+      <c r="J195" s="26"/>
     </row>
     <row r="196" spans="9:10">
-      <c r="I196" s="27"/>
-      <c r="J196" s="27"/>
+      <c r="I196" s="26"/>
+      <c r="J196" s="26"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
@@ -4211,27 +4208,27 @@
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="172.42578125" style="29" customWidth="1"/>
+    <col min="1" max="1" width="172.42578125" style="28" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1">
-      <c r="A1" s="29" t="s">
-        <v>278</v>
+      <c r="A1" s="28" t="s">
+        <v>275</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="28" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" ht="30">
+      <c r="A3" s="28" t="s">
         <v>279</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30">
-      <c r="A3" s="29" t="s">
-        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" activeTab="1" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" activeTab="4" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,9 @@
     <sheet name="States" sheetId="4" r:id="rId3"/>
     <sheet name="CheckIns" sheetId="6" r:id="rId4"/>
     <sheet name="Collisions" sheetId="7" r:id="rId5"/>
-    <sheet name="Thoughts" sheetId="3" r:id="rId6"/>
+    <sheet name="Collisions2" sheetId="11" r:id="rId6"/>
+    <sheet name="Redistributions" sheetId="9" r:id="rId7"/>
+    <sheet name="Thoughts" sheetId="3" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="458" uniqueCount="326">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="386">
   <si>
     <t>Feature</t>
   </si>
@@ -509,12 +511,6 @@
   </si>
   <si>
     <t>CalObj.Split()</t>
-  </si>
-  <si>
-    <t>enums?</t>
-  </si>
-  <si>
-    <t>Try to implement those static readonly List&lt;string&gt; as enum</t>
   </si>
   <si>
     <t>pattern editor All/Any</t>
@@ -860,19 +856,10 @@
     <t>Find the set of relevant tasks by recursively selecting tasks that intersect the calendar view and tasks that intersect previously selected tasks. Intersect (no tangents): s2 &lt; e1 &amp;&amp; s1 &lt; e2</t>
   </si>
   <si>
-    <t>What if two CalObjs experience a collision where a lower priority task can only be done on a Monday, but the higher priority task can be done any day of the week?</t>
-  </si>
-  <si>
-    <t>CalObjs should be pushed until no room is left in any InclusionZone, then by priority</t>
-  </si>
-  <si>
     <t>Mood wheel</t>
   </si>
   <si>
     <t>Easy interface to create a note indicating how I feel, or other useful data.</t>
-  </si>
-  <si>
-    <t>What if there are three consecutive CalObjs on a Monday. The first is higher priority, but has free area on other week days. The second can only be on Monday. The third also can only be on Monday. We need to make room for the third by pushing the second back, which pushes the first into other days.</t>
   </si>
   <si>
     <t>We can get a list of manual CheckIns from Notes.</t>
@@ -1041,6 +1028,215 @@
   </si>
   <si>
     <t>this will be very similar to what we did for BuildAllocations() but we want to respect the CalObjs built in AllocateTimeFromCheckIns(). Check if there is a CalObj in each InclusionZone ignore, otherwise create CalObjs in each vacant zone and allocate any remaining time to them.</t>
+  </si>
+  <si>
+    <t>In an intersection between C1 and C2…</t>
+  </si>
+  <si>
+    <t>A CalObj C can be pushed if it has start/end unlocked from the respective direction.</t>
+  </si>
+  <si>
+    <t>If C has both start and end unlocked and it has room within its Z in the direction of the push, then both start and end are pushed.</t>
+  </si>
+  <si>
+    <t>If C has start unlocked but end is locked and it is being pushed from the left, only start will be pushed and C will shrink. Likewise in the opposite direction.</t>
+  </si>
+  <si>
+    <t>If C shrinks, try to add the lost time to sibling CalObjs.</t>
+  </si>
+  <si>
+    <t>If C is pushed but does not have room in its Z, it’s the same as if the side with no room is locked and C will either shrink or cant be pushed.</t>
+  </si>
+  <si>
+    <t>If C1 is inside C2, decide to either delete C1 or split C2.</t>
+  </si>
+  <si>
+    <t>Decide on if C1 or C2 is pushed/split/deleted/shrunk based on a combination of priority, if either has room to be pushed, if either has insufficient resources</t>
+  </si>
+  <si>
+    <t>conflict</t>
+  </si>
+  <si>
+    <t>C2S🔒</t>
+  </si>
+  <si>
+    <t>C1E🔒</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C2CanReDist = T
+C1 &lt; C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C2CanReDist = F
+C1 &lt; C2</t>
+  </si>
+  <si>
+    <t>C1HasRoom = F
+C1CanReDist = T</t>
+  </si>
+  <si>
+    <t>C1HasRoom = F
+C1CanReDist = F</t>
+  </si>
+  <si>
+    <t>C1 Push</t>
+  </si>
+  <si>
+    <t>C1 Shrink</t>
+  </si>
+  <si>
+    <t>C2 Push</t>
+  </si>
+  <si>
+    <t>C2 Shrink</t>
+  </si>
+  <si>
+    <t>C2 ReDist</t>
+  </si>
+  <si>
+    <t>C2HasRoom = T
+C1 &lt; C2</t>
+  </si>
+  <si>
+    <t>C1HasRoom = T</t>
+  </si>
+  <si>
+    <t>C1 ReDist</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C2CanReDist = F
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom = T
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C2CanReDist = T
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>Ping Pong effect: C1 early overlap C2 early overlap C3. C2 &lt; C1. C2 &lt; C3. When C2 collides with C1, it is pushed away from C1. When C2 collides with C3 it is pushed away from C3. C2 ping pongs back and forth between C1 and C3 forever. The triple collision is never resolved.</t>
+  </si>
+  <si>
+    <t>See: Collisions</t>
+  </si>
+  <si>
+    <t>A collision between two COs can be covered by a simple one pass approach, however as soon as we introduce chain collisions it becomes non-trivial and we run into problems like Ping-Ponging.</t>
+  </si>
+  <si>
+    <t>In theory, there should not be any remaining collisions after the second pass except for unresolvable collisions that are marked as conflict.</t>
+  </si>
+  <si>
+    <t>In the first pass, Measure, we look at every existing collision, calculate and propagate the forces produced by each collision based on the COs properties. A CO can have two forces acting on it, one on start, one on end. These forces are stored on the CO as properties. Any two forces acting on start or end are combined. Forces are propagated recursively in order to confirm that everything in a collision chain agrees.</t>
+  </si>
+  <si>
+    <t>Redistribution</t>
+  </si>
+  <si>
+    <t>is there a way to determine if an object can be redistributed and by how much?</t>
+  </si>
+  <si>
+    <t>Redistribution problem: What if there are three consecutive CalObjs on a Monday. The first is higher priority, but has free area on other week days. The second can only be on Monday. The third also can only be on Monday. We need to make room for the third by pushing the second back, which pushes the first into other days.</t>
+  </si>
+  <si>
+    <t>CalObjs should be pushed until no room is left in any InclusionZone, then by priority.</t>
+  </si>
+  <si>
+    <t>Redistribution problem: What if two CalObjs experience a collision where a lower priority task can only be done on a Monday, but the higher priority task can be done any day of the week?</t>
+  </si>
+  <si>
+    <t>To solve this, we need to introduce amultiple passes of Measure then Arrange approach to collisions.</t>
+  </si>
+  <si>
+    <t>The consequence of not calculating this is that in the case where a non-redistributable lower priority C1 collides with a redistributable higher priority C2, the lower priority C1 will be incorrectly overwritten by the higher priority C2 that could have been redistributed.</t>
+  </si>
+  <si>
+    <t>What if we, instead of detecting if C2 can truly redistribute, we detect if it might be able to based on if there is room for its sibling CO's. Then we put C2 in a "redistributing" state, finish the Measure/Arrange pass, then do a second Measure/Arrange pass. In the second pass, any CO in a "redistributing" state that failed to redistrubute in the first pass (wherein the time lost from the collision was not redistributed fully), will gain back the leftover time and go through another collision but this time assume that it can't be redistributed. Therein only after giving redistribution a try will C2 overwrite C1.</t>
+  </si>
+  <si>
+    <t>The aformentioned forces are not mathematical vectors, but instead are data structures that carry certain data. A force carries direction, size, and priority.</t>
+  </si>
+  <si>
+    <t>C1 ∩ C2</t>
+  </si>
+  <si>
+    <t>AllocateInsufficient()</t>
+  </si>
+  <si>
+    <t>If we do nothing about this, the user will have to confirm times that would otherwise be pushed out by something that could have been redistributed.</t>
+  </si>
+  <si>
+    <t>Redistributions</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F
+C1 &lt; C2</t>
+  </si>
+  <si>
+    <t>C1HasRoom = F</t>
+  </si>
+  <si>
+    <t>A collision between two CO's is simple, but 3 or more becomes non-trivial and could cause Ping-Ponging and we need to come up with a better solution.</t>
+  </si>
+  <si>
+    <t>C1 ∩ C2: C1.Start &lt; C2.Start, C1.End &gt; C2.Start, C1.End &lt; C2.End</t>
+  </si>
+  <si>
+    <t>C1 Inside C2: C1.Start &gt; C2.Start, C1.End &lt; C2.End</t>
+  </si>
+  <si>
+    <t>After a push, the two objects become tangent where start == End or Start == end. So long as they remain tangent, they will be remembered and used in subsequent collisions until they are not.</t>
+  </si>
+  <si>
+    <t>When calculating a collision between two CO's where one is pushed, we check if we can push in that direction by checking if each tangent in that direction can be pushed.</t>
+  </si>
+  <si>
+    <t>In a collision between C1 and C2, where C2 is pushed right, each CO, in a chain to the right where each is tangent to the next, is compared to C1 to see if its context beats C1's context. We will look for the first case in the chain where we can decide to shrink a CO, push the chain, or if we can push C1.</t>
+  </si>
+  <si>
+    <t>We also need to consider that a push may not completely handle the collision. Push as much as possible, then run another collision test. Only set tangents when it is confirmed that the collision was entirely successful.</t>
+  </si>
+  <si>
+    <t>Collision Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if there is a collision between C1 and C2 that causes C2 to be pushed very far to the right such that C2 shrunk and became insufficient. Then the next calculated collision between C1 and C3 where C3.P &gt; C1.P. C2 was pushed far past the end of C3. C1 is then shrunk so that it is tangent with the start of C3. But now there is a huge gap between C3.End and C2.Start. </t>
+  </si>
+  <si>
+    <t>The gap can be filled during AllocateInsufficient() that looks for tasks that are insufficient and tries to add time to identified gaps.</t>
+  </si>
+  <si>
+    <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it.</t>
+  </si>
+  <si>
+    <t>Travel Time + Minimum Time</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>Can be used to determine travel time amoung other things.</t>
+  </si>
+  <si>
+    <t>Perhaps for each gap, detect which tasks are at each end of the gap, detect if either of those tasks has InclusionZone in the gap, detect if either of those tasks has Insufficient time, then fill in some or all of the time with the insufficient task until either the gap is full, the InclusionZone is full, or the task has met resources and is no longer insufficient.</t>
+  </si>
+  <si>
+    <t>Perhaps to attempt to avoid this problem, try to do collisions in order of priority. Pick the highest priority CO, find the CO's it has collisions with, then order the calcualtion of those collisions by each colliding CO's priority. This isn't going to solve the problem completely, but will lessen the necessity of the intensive solution in the next step.</t>
+  </si>
+  <si>
+    <t>When calculating collisions, we will incorporate knowledge of previous collisions.</t>
+  </si>
+  <si>
+    <t>After a collision between two objects where they become tangent, both remember each other from the direction it was placed. An object can remember two tangents, one for each side.</t>
   </si>
 </sst>
 </file>
@@ -1432,7 +1628,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1553,12 +1749,166 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="38">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -1625,6 +1975,31 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1698,14 +2073,14 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="14"/>
-      <tableStyleElement type="headerRow" dxfId="13"/>
+      <tableStyleElement type="wholeTable" dxfId="37"/>
+      <tableStyleElement type="headerRow" dxfId="36"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="12"/>
-      <tableStyleElement type="headerRow" dxfId="11"/>
-      <tableStyleElement type="secondRowStripe" dxfId="10"/>
+      <tableStyleElement type="wholeTable" dxfId="35"/>
+      <tableStyleElement type="headerRow" dxfId="34"/>
+      <tableStyleElement type="secondRowStripe" dxfId="33"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -1734,14 +2109,24 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C142" totalsRowShown="0">
-  <autoFilter ref="A1:C142" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C144" totalsRowShown="0">
+  <autoFilter ref="A1:C144" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="9"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="32"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="8"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="31"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A106" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
+  <autoFilter ref="A1:A106" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
@@ -2042,10 +2427,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G142"/>
+  <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="B72" sqref="B72"/>
+    <sheetView topLeftCell="A103" workbookViewId="0">
+      <selection activeCell="A115" sqref="A115"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -2302,7 +2687,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="45">
+    <row r="26" spans="1:7" ht="30">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2599,7 +2984,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -2608,7 +2993,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>23</v>
@@ -2617,13 +3002,13 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -2634,56 +3019,56 @@
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>317</v>
+        <v>312</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>318</v>
+        <v>313</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>319</v>
+        <v>314</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -2692,7 +3077,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -2701,7 +3086,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -2710,7 +3095,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -2719,7 +3104,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -2728,7 +3113,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -2737,71 +3122,73 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>325</v>
+        <v>320</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>320</v>
+        <v>315</v>
       </c>
       <c r="B72" s="13"/>
-      <c r="C72" s="12"/>
+      <c r="C72" s="25" t="s">
+        <v>348</v>
+      </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>205</v>
+        <v>315</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="12" t="s">
+        <v>364</v>
+      </c>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>259</v>
+        <v>203</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="12"/>
     </row>
-    <row r="75" spans="1:3" s="13" customFormat="1">
+    <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>230</v>
-      </c>
+        <v>257</v>
+      </c>
+      <c r="B75" s="13"/>
       <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" s="13" customFormat="1">
       <c r="A76" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="C76" s="12"/>
+    </row>
+    <row r="77" spans="1:3" s="13" customFormat="1">
+      <c r="A77" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="77" spans="1:3" s="13" customFormat="1" ht="30">
-      <c r="A77" s="11" t="s">
-        <v>258</v>
-      </c>
-      <c r="C77" s="12" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="78" spans="1:3" s="13" customFormat="1">
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A78" s="11" t="s">
-        <v>125</v>
+        <v>256</v>
       </c>
       <c r="C78" s="12" t="s">
-        <v>213</v>
+        <v>255</v>
       </c>
     </row>
     <row r="79" spans="1:3" s="13" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B79" s="3"/>
+        <v>125</v>
+      </c>
       <c r="C79" s="12" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
@@ -2810,116 +3197,116 @@
       </c>
       <c r="B80" s="3"/>
       <c r="C80" s="12" t="s">
-        <v>232</v>
+        <v>204</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>197</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B81" s="3"/>
       <c r="C81" s="12" t="s">
-        <v>198</v>
+        <v>230</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>199</v>
-      </c>
-      <c r="C82" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="C82" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
-        <v>80</v>
+        <v>197</v>
       </c>
       <c r="C83" s="12"/>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C84" s="12"/>
+    </row>
+    <row r="85" spans="1:3" s="13" customFormat="1">
+      <c r="A85" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C84" s="12" t="s">
+      <c r="C85" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="85" spans="1:3">
-      <c r="A85" s="2" t="s">
+    <row r="86" spans="1:3">
+      <c r="A86" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C85" s="4" t="s">
+      <c r="C86" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="B86" s="13"/>
-      <c r="C86" s="12"/>
     </row>
     <row r="87" spans="1:3">
       <c r="A87" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>207</v>
+      </c>
+      <c r="B87" s="13"/>
+      <c r="C87" s="12"/>
     </row>
     <row r="88" spans="1:3">
       <c r="A88" s="11" t="s">
-        <v>163</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>164</v>
+        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:3">
-      <c r="A89" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C89" s="4" t="s">
-        <v>92</v>
+      <c r="A89" s="11" t="s">
+        <v>161</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="90" spans="1:3">
       <c r="A90" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="C90" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:3">
       <c r="A91" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C92" s="12" t="s">
-        <v>225</v>
-      </c>
-    </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
+      <c r="A93" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="94" spans="1:3">
+      <c r="A94" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="30">
-      <c r="A94" s="11" t="s">
-        <v>321</v>
-      </c>
-      <c r="C94" s="12" t="s">
-        <v>322</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
+    <row r="95" spans="1:3" ht="30">
+      <c r="A95" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3">
+      <c r="A96" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="12" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="97" spans="1:3">
@@ -2982,10 +3369,10 @@
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="106" spans="1:3">
@@ -3014,7 +3401,7 @@
         <v>125</v>
       </c>
       <c r="C109" s="12" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="110" spans="1:3">
@@ -3022,7 +3409,7 @@
         <v>5</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:3" ht="30">
@@ -3041,225 +3428,241 @@
         <v>143</v>
       </c>
     </row>
-    <row r="113" spans="1:3">
+    <row r="113" spans="1:3" ht="30">
       <c r="A113" s="11" t="s">
-        <v>100</v>
+        <v>379</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="11" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C117" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11" t="s">
-        <v>229</v>
-      </c>
-      <c r="C118" s="12"/>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C119" s="12"/>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="11" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="C120" s="12"/>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C121" s="12"/>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C122" s="12"/>
+    </row>
+    <row r="123" spans="1:3">
+      <c r="A123" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C121" s="12"/>
-    </row>
-    <row r="122" spans="1:3" ht="30">
-      <c r="A122" s="11" t="s">
+      <c r="C123" s="12"/>
+    </row>
+    <row r="124" spans="1:3" ht="30">
+      <c r="A124" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B122" s="13"/>
-      <c r="C122" s="12" t="s">
+      <c r="B124" s="13"/>
+      <c r="C124" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C124" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C125" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>96</v>
+      <c r="A126" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C126" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="11" t="s">
-        <v>211</v>
+        <v>95</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>212</v>
+        <v>96</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3" s="9" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
       <c r="A130" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B130" s="3"/>
-      <c r="C130" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" s="9" customFormat="1">
+      <c r="A132" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B132" s="3"/>
+      <c r="C132" s="4"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="11" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C135" s="12" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B136" s="13"/>
+        <v>120</v>
+      </c>
       <c r="C136" s="12" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B137" s="13"/>
+        <v>137</v>
+      </c>
       <c r="C137" s="12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B138" s="13"/>
       <c r="C138" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="11" t="s">
-        <v>236</v>
+        <v>151</v>
       </c>
       <c r="B139" s="13"/>
       <c r="C139" s="12" t="s">
-        <v>237</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
       <c r="A140" s="11" t="s">
-        <v>243</v>
+        <v>153</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="12" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>245</v>
-      </c>
+        <v>234</v>
+      </c>
+      <c r="B141" s="13"/>
       <c r="C141" s="12" t="s">
-        <v>246</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3" ht="30">
       <c r="A142" s="11" t="s">
-        <v>277</v>
-      </c>
+        <v>241</v>
+      </c>
+      <c r="B142" s="13"/>
       <c r="C142" s="12" t="s">
-        <v>278</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="11" t="s">
+        <v>273</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>274</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="7" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -3267,6 +3670,7 @@
     <hyperlink ref="C62" location="States!A1" display="See: States" xr:uid="{F7AB6EDF-D736-4142-AF82-33DD02D700EE}"/>
     <hyperlink ref="C61" location="'Calendar Passes'!A1" display="See: Calendar Passes" xr:uid="{B196297D-CC2E-4049-A9D9-98A834D3618A}"/>
     <hyperlink ref="C64" location="CheckIns!A1" display="See: CheckIns" xr:uid="{F90B02B4-8195-44F2-8080-2F041F2A240D}"/>
+    <hyperlink ref="C72" location="Collisions!A1" display="See: Collisions" xr:uid="{028915BC-8C08-4CF5-BDC8-6F5484B7F595}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -3278,10 +3682,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
-  <dimension ref="A1:L24"/>
+  <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3293,7 +3697,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -3309,138 +3713,144 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>245</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>247</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>316</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
-        <v>312</v>
+        <v>307</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>313</v>
+        <v>308</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>285</v>
+        <v>280</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>315</v>
+        <v>310</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>311</v>
+        <v>306</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>314</v>
+        <v>309</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1">
       <c r="A13" s="23" t="s">
-        <v>259</v>
-      </c>
-      <c r="B13" s="24" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12">
-      <c r="A14" t="s">
-        <v>230</v>
-      </c>
-      <c r="B14" s="15" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2">
-      <c r="B17" s="15" t="s">
-        <v>280</v>
+        <v>362</v>
+      </c>
+      <c r="B13" s="28"/>
+    </row>
+    <row r="14" spans="1:12" s="23" customFormat="1">
+      <c r="A14" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="B14" s="24" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12">
+      <c r="A15" t="s">
+        <v>228</v>
+      </c>
+      <c r="B15" s="15" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2" ht="45">
-      <c r="B21" s="10" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="22" spans="2:2" ht="30">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="21" spans="2:2">
+      <c r="B21" s="15" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="45">
       <c r="B22" s="10" t="s">
-        <v>286</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="45">
-      <c r="B24" s="15" t="s">
-        <v>288</v>
+        <v>281</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" ht="30">
+      <c r="B24" s="10" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" ht="45">
+      <c r="B25" s="15" t="s">
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -3470,236 +3880,236 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="B11" s="39" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>294</v>
+        <v>289</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1">
       <c r="A21" s="30" t="s">
-        <v>296</v>
+        <v>291</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="30" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -3722,7 +4132,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
+      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -3739,222 +4149,222 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
       <c r="A1" s="47" t="s">
+        <v>288</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>293</v>
       </c>
-      <c r="B1" s="44" t="s">
-        <v>298</v>
-      </c>
       <c r="C1" s="42" t="s">
-        <v>299</v>
+        <v>294</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>290</v>
+        <v>285</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="48" t="s">
+        <v>293</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>300</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>298</v>
       </c>
-      <c r="B2" s="45" t="s">
-        <v>323</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>305</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>231</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>303</v>
-      </c>
       <c r="H2" s="51" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="49" t="s">
+        <v>294</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>297</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>299</v>
       </c>
-      <c r="B3" s="46" t="s">
-        <v>302</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>304</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="49" t="s">
-        <v>300</v>
+        <v>295</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>306</v>
+        <v>301</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>310</v>
+        <v>305</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="A5" s="49" t="s">
-        <v>301</v>
+        <v>296</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H5" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="49" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>302</v>
+        <v>297</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>309</v>
+        <v>304</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H6" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="49" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H7" s="52" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
     <row r="8" spans="1:10" ht="60.75" thickBot="1">
       <c r="A8" s="50" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>308</v>
+        <v>303</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -4176,25 +4586,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="containsText" dxfId="6" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="2" operator="containsText" text="cancel">
+    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="cancel">
       <formula>NOT(ISERROR(SEARCH("cancel",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="3" operator="containsText" text="pN = N">
+    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="pN = N">
       <formula>NOT(ISERROR(SEARCH("pN = N",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="28" operator="containsText" text="unscheduled">
+    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="unscheduled">
       <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="29" operator="containsText" text="confirm">
+    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="confirm">
       <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="30" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4205,38 +4615,572 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="172.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="201.42578125" style="28" customWidth="1"/>
+    <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
+    <col min="3" max="6" width="9.140625" style="20"/>
+    <col min="7" max="16384" width="9.140625" style="28"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1">
-      <c r="A1" s="28" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1">
+    <row r="1" spans="1:6" s="12" customFormat="1">
+      <c r="A1" s="12" t="s">
+        <v>315</v>
+      </c>
+      <c r="B1" s="57"/>
+      <c r="C1" s="57"/>
+      <c r="D1" s="57"/>
+      <c r="E1" s="57"/>
+      <c r="F1" s="57"/>
+    </row>
+    <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="28" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="3" spans="1:1" ht="30">
+        <v>322</v>
+      </c>
+      <c r="B2" s="57"/>
+      <c r="C2" s="57"/>
+      <c r="D2" s="57"/>
+      <c r="E2" s="57"/>
+      <c r="F2" s="57"/>
+    </row>
+    <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>279</v>
+        <v>323</v>
+      </c>
+      <c r="B3" s="57"/>
+      <c r="C3" s="57"/>
+      <c r="D3" s="57"/>
+      <c r="E3" s="57"/>
+      <c r="F3" s="57"/>
+    </row>
+    <row r="4" spans="1:6" s="12" customFormat="1">
+      <c r="A4" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B4" s="57"/>
+      <c r="C4" s="57"/>
+      <c r="D4" s="57"/>
+      <c r="E4" s="57"/>
+      <c r="F4" s="57"/>
+    </row>
+    <row r="5" spans="1:6" s="12" customFormat="1">
+      <c r="A5" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B5" s="57"/>
+      <c r="C5" s="57"/>
+      <c r="D5" s="57"/>
+      <c r="E5" s="57"/>
+      <c r="F5" s="57"/>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="28" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" s="28" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" s="28" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" s="28" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" s="28" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1">
+      <c r="A17" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1">
+      <c r="A18" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1">
+      <c r="A20" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
+      <c r="A22" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" ht="30">
+      <c r="A23" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" ht="30">
+      <c r="A24" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30">
+      <c r="A26" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" ht="30">
+      <c r="A29" s="28" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" ht="30">
+      <c r="A30" s="28" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="28" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1">
+      <c r="A33" s="28" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1">
+      <c r="A34" s="28" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" ht="30">
+      <c r="A35" s="28" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1">
+      <c r="A36" s="28" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" ht="45">
+      <c r="A37" s="28" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1">
+      <c r="A47" s="10" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1">
+      <c r="A48" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" ht="30">
+      <c r="A49" s="10" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1">
+      <c r="A50" s="10" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1">
+      <c r="A51" s="10" t="s">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11BE1A-892C-449D-A753-1B446ED96C7C}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6" ht="30.75" thickBot="1">
+      <c r="A1" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>365</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>366</v>
+      </c>
+      <c r="F1" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" s="49" t="s">
+        <v>367</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="F3" s="52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" thickBot="1">
+      <c r="A4" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B4" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" s="56"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A1:F4 A6">
+    <cfRule type="containsText" dxfId="19" priority="9" stopIfTrue="1" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B2:F4">
+    <cfRule type="containsText" dxfId="17" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
+      <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
+      <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
+      <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="10" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
+      <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D1CD3F-B09A-47BC-BCAB-315B61D092F4}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight" activeCell="B1" sqref="B1"/>
+      <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
+      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" ht="45.75" thickBot="1">
+      <c r="A1" s="47" t="s">
+        <v>361</v>
+      </c>
+      <c r="B1" s="44" t="s">
+        <v>345</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>341</v>
+      </c>
+      <c r="D1" s="42" t="s">
+        <v>346</v>
+      </c>
+      <c r="E1" s="42" t="s">
+        <v>332</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>344</v>
+      </c>
+      <c r="G1" s="42" t="s">
+        <v>333</v>
+      </c>
+      <c r="H1" s="43" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="48" t="s">
+        <v>342</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>338</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="G2" s="29" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="51" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="49" t="s">
+        <v>334</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="H3" s="52" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="49" t="s">
+        <v>335</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>338</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>338</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>340</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="H4" s="52" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" thickBot="1">
+      <c r="A5" s="50" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>338</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>338</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>340</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="G5" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" s="56"/>
+      <c r="B7" s="56"/>
+      <c r="C7" s="56"/>
+      <c r="D7" s="56"/>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" s="56"/>
+    </row>
+  </sheetData>
+  <conditionalFormatting sqref="A7:D7 A8 A1:H5">
+    <cfRule type="containsText" dxfId="9" priority="14" stopIfTrue="1" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",A1)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
+      <formula>"N/A"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B7:D7 B2:H5">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
+      <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
+      <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
+      <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
+      <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396B387-46D7-4AB3-8C4F-DEA1CC7ED8C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="562" uniqueCount="386">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="411">
   <si>
     <t>Feature</t>
   </si>
@@ -1237,6 +1237,100 @@
   </si>
   <si>
     <t>After a collision between two objects where they become tangent, both remember each other from the direction it was placed. An object can remember two tangents, one for each side.</t>
+  </si>
+  <si>
+    <t>Collision Tests</t>
+  </si>
+  <si>
+    <t>To determine the outcome of a collision, we need to test a few things:</t>
+  </si>
+  <si>
+    <t>If C1.P &lt; C2.P and C1.P &lt; C1.LT.P then shrink C1</t>
+  </si>
+  <si>
+    <t>If C1.P &lt; C2.P and C1.P &lt; C1.LT.P and C1.P &lt; C1.LT.LT.P and C1.P &lt; C1.LT.LT.LT.P … then shrink C1</t>
+  </si>
+  <si>
+    <t>In a collision C1 ∩ C2, Is C1.Priority (C1.P) &gt;, &lt;, or = to C2.P</t>
+  </si>
+  <si>
+    <t>Is C1.E🔒? Is C2.S🔒?</t>
+  </si>
+  <si>
+    <t>C1 T C2 ∩ C3</t>
+  </si>
+  <si>
+    <t>C2E🔒</t>
+  </si>
+  <si>
+    <t>C3S🔒</t>
+  </si>
+  <si>
+    <t>C3 Shrink</t>
+  </si>
+  <si>
+    <t>C3 Push</t>
+  </si>
+  <si>
+    <t>C1HasRoom = F
+C2HasRoom = T
+C1 &lt; C2</t>
+  </si>
+  <si>
+    <t>C3HasRoom = F
+C2 &gt;= C3
+C1 &gt;= C3</t>
+  </si>
+  <si>
+    <t>C3HasRoom = T
+C2 &lt; C3
+C1 &gt;= C3</t>
+  </si>
+  <si>
+    <t>C3HasRoom = T
+C2 &lt; C3
+C1 &lt; C3</t>
+  </si>
+  <si>
+    <t>C3HasRoom = F
+C2 &gt;= C3
+C1 &lt; C3</t>
+  </si>
+  <si>
+    <t>C3HasRoom = F
+C2 &lt; C3
+C1 &lt; C3</t>
+  </si>
+  <si>
+    <t>C3HasRoom = F
+C2 &lt; C3
+C1 &gt;= C3</t>
+  </si>
+  <si>
+    <t>C1HasRoom = F
+C2HasRoom = T
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>As shown in the patterns above we want to find the nearest "weakest link" in the chain of tangents. That CO will be first to be shrunk. We can find the weakest link recursively. The recursion of LT checks can stop as soon as either the next LT is null or LT.LT.P &gt; LT.P or LT can't be pushed or shrunk.</t>
+  </si>
+  <si>
+    <t>Does C1 have room? Does C2 have room? C1 has room to the left if C1.S is unlocked and C1.Z.S &lt; C1.S and ((C1.LT == null) Or (C1.LT has room to the left) Or (C1.LT is shrinkable and it has lowest priority)).</t>
+  </si>
+  <si>
+    <t>Based on these tests, we use the table in Collisions2 to resolve the collision</t>
+  </si>
+  <si>
+    <t>C2HasRoom = F</t>
+  </si>
+  <si>
+    <t>C1HasRoom = T
+C2HasRoom = T</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C3HasRoom = T
+C2 &gt;= C3
+</t>
   </si>
 </sst>
 </file>
@@ -1376,7 +1470,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="18">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -1623,12 +1717,161 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color theme="0" tint="-0.24994659260841701"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1753,87 +1996,69 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="38">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
+  <dxfs count="62">
     <dxf>
       <fill>
         <patternFill>
@@ -1930,6 +2155,95 @@
     </dxf>
     <dxf>
       <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
         <patternFill patternType="solid">
           <fgColor rgb="FF00FF7F"/>
           <bgColor rgb="FF00FF7F"/>
@@ -1975,6 +2289,370 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2066,21 +2744,25 @@
         <bottom style="thin">
           <color auto="1"/>
         </bottom>
-        <vertical/>
-        <horizontal/>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="37"/>
-      <tableStyleElement type="headerRow" dxfId="36"/>
+      <tableStyleElement type="wholeTable" dxfId="61"/>
+      <tableStyleElement type="headerRow" dxfId="60"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="35"/>
-      <tableStyleElement type="headerRow" dxfId="34"/>
-      <tableStyleElement type="secondRowStripe" dxfId="33"/>
+      <tableStyleElement type="wholeTable" dxfId="59"/>
+      <tableStyleElement type="headerRow" dxfId="58"/>
+      <tableStyleElement type="secondRowStripe" dxfId="57"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -2112,19 +2794,52 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C144" totalsRowShown="0">
   <autoFilter ref="A1:C144" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="56"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="31"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="55"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A106" totalsRowShown="0" headerRowDxfId="30" dataDxfId="29">
-  <autoFilter ref="A1:A106" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A116" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
+  <autoFilter ref="A1:A116" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="52"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0" headerRowDxfId="42" dataDxfId="43" headerRowBorderDxfId="50" tableBorderDxfId="51">
+  <autoFilter ref="A1:F4" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="C1 ∩ C2" dataDxfId="49"/>
+    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom = T_x000a_C1 &gt;= C2" dataDxfId="48"/>
+    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom = T_x000a_C1 &lt; C2" dataDxfId="47"/>
+    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom = F_x000a_C1 &gt;= C2" dataDxfId="46"/>
+    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom = F_x000a_C1 &lt; C2" dataDxfId="45"/>
+    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="44"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A6:I12" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="40" tableBorderDxfId="41">
+  <autoFilter ref="A6:I12" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
+  <tableColumns count="9">
+    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="C1 T C2 ∩ C3" dataDxfId="39"/>
+    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C3HasRoom = T_x000a_C2 &gt;= C3_x000a_" dataDxfId="38"/>
+    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C3HasRoom = T_x000a_C2 &lt; C3_x000a_C1 &gt;= C3" dataDxfId="37"/>
+    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C3HasRoom = T_x000a_C2 &lt; C3_x000a_C1 &lt; C3" dataDxfId="36"/>
+    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C3HasRoom = F_x000a_C2 &gt;= C3_x000a_C1 &gt;= C3" dataDxfId="35"/>
+    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C3HasRoom = F_x000a_C2 &gt;= C3_x000a_C1 &lt; C3" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C3HasRoom = F_x000a_C2 &lt; C3_x000a_C1 &gt;= C3" dataDxfId="34"/>
+    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C3HasRoom = F_x000a_C2 &lt; C3_x000a_C1 &lt; C3" dataDxfId="33"/>
+    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C3S🔒" dataDxfId="32"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2429,8 +3144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
   <dimension ref="A1:G144"/>
   <sheetViews>
-    <sheetView topLeftCell="A103" workbookViewId="0">
-      <selection activeCell="A115" sqref="A115"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="B74" sqref="B74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3135,7 +3850,9 @@
       <c r="A72" s="11" t="s">
         <v>315</v>
       </c>
-      <c r="B72" s="13"/>
+      <c r="B72" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C72" s="25" t="s">
         <v>348</v>
       </c>
@@ -3662,7 +4379,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="27" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4586,25 +5303,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="containsText" dxfId="26" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="2" operator="containsText" text="cancel">
+    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="cancel">
       <formula>NOT(ISERROR(SEARCH("cancel",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="3" operator="containsText" text="pN = N">
+    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="pN = N">
       <formula>NOT(ISERROR(SEARCH("pN = N",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="28" operator="containsText" text="unscheduled">
+    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="unscheduled">
       <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="29" operator="containsText" text="confirm">
+    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="confirm">
       <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="30" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -4615,10 +5332,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F61"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4746,100 +5463,148 @@
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="23" spans="1:1" ht="30">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1" ht="30">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
       <c r="A24" s="28" t="s">
-        <v>383</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="28" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" ht="30">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1">
       <c r="A26" s="28" t="s">
-        <v>382</v>
+        <v>406</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1">
+      <c r="A27" s="28" t="s">
+        <v>388</v>
       </c>
     </row>
     <row r="28" spans="1:1">
       <c r="A28" s="28" t="s">
-        <v>356</v>
+        <v>389</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="30">
       <c r="A29" s="28" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1">
+      <c r="A30" s="25" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1">
+      <c r="A32" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" ht="30">
+      <c r="A33" s="28" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" ht="30">
+      <c r="A34" s="28" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1">
+      <c r="A35" s="28" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" ht="30">
+      <c r="A36" s="28" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1">
+      <c r="A38" s="28" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" ht="30">
+      <c r="A39" s="28" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="30" spans="1:1" ht="30">
-      <c r="A30" s="28" t="s">
+    <row r="40" spans="1:1" ht="30">
+      <c r="A40" s="28" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
-      <c r="A31" s="28" t="s">
+    <row r="41" spans="1:1">
+      <c r="A41" s="28" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="33" spans="1:1">
-      <c r="A33" s="28" t="s">
+    <row r="43" spans="1:1">
+      <c r="A43" s="28" t="s">
         <v>352</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
-      <c r="A34" s="28" t="s">
+    <row r="44" spans="1:1">
+      <c r="A44" s="28" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="35" spans="1:1" ht="30">
-      <c r="A35" s="28" t="s">
+    <row r="45" spans="1:1" ht="30">
+      <c r="A45" s="28" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="36" spans="1:1">
-      <c r="A36" s="28" t="s">
+    <row r="46" spans="1:1">
+      <c r="A46" s="28" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="37" spans="1:1" ht="45">
-      <c r="A37" s="28" t="s">
+    <row r="47" spans="1:1" ht="45">
+      <c r="A47" s="28" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="47" spans="1:1">
-      <c r="A47" s="10" t="s">
+    <row r="57" spans="1:1">
+      <c r="A57" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="48" spans="1:1">
-      <c r="A48" s="10" t="s">
+    <row r="58" spans="1:1">
+      <c r="A58" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="49" spans="1:1" ht="30">
-      <c r="A49" s="10" t="s">
+    <row r="59" spans="1:1" ht="30">
+      <c r="A59" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="50" spans="1:1">
-      <c r="A50" s="10" t="s">
+    <row r="60" spans="1:1">
+      <c r="A60" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="51" spans="1:1">
-      <c r="A51" s="10" t="s">
+    <row r="61" spans="1:1">
+      <c r="A61" s="10" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A30" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
   <tableParts count="1">
@@ -4850,39 +5615,45 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11BE1A-892C-449D-A753-1B446ED96C7C}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="C21" sqref="C21"/>
+      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
+      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15"/>
+  <cols>
+    <col min="3" max="4" width="16.5703125" style="23"/>
+    <col min="8" max="9" width="16.5703125" style="23"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="30.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A1" s="72" t="s">
         <v>361</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="73" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="74" t="s">
         <v>341</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="74" t="s">
         <v>365</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="74" t="s">
         <v>366</v>
       </c>
-      <c r="F1" s="43" t="s">
+      <c r="F1" s="75" t="s">
         <v>330</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
-      <c r="A2" s="48" t="s">
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+    </row>
+    <row r="2" spans="1:12">
+      <c r="A2" s="68" t="s">
         <v>342</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -4897,12 +5668,14 @@
       <c r="E2" s="29" t="s">
         <v>336</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="70" t="s">
         <v>336</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
-      <c r="A3" s="49" t="s">
+      <c r="H2" s="56"/>
+      <c r="I2" s="56"/>
+    </row>
+    <row r="3" spans="1:12">
+      <c r="A3" s="69" t="s">
         <v>367</v>
       </c>
       <c r="B3" s="46" t="s">
@@ -4917,69 +5690,284 @@
       <c r="E3" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="F3" s="52" t="s">
+      <c r="F3" s="71" t="s">
         <v>337</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="15.75" thickBot="1">
-      <c r="A4" s="50" t="s">
+      <c r="H3" s="56"/>
+      <c r="I3" s="56"/>
+    </row>
+    <row r="4" spans="1:12">
+      <c r="A4" s="76" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="77" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="54" t="s">
+      <c r="C4" s="78" t="s">
         <v>338</v>
       </c>
-      <c r="D4" s="54" t="s">
+      <c r="D4" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="E4" s="54" t="s">
+      <c r="E4" s="78" t="s">
         <v>339</v>
       </c>
-      <c r="F4" s="55" t="s">
+      <c r="F4" s="79" t="s">
         <v>329</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" s="56"/>
+      <c r="H4" s="56"/>
+      <c r="I4" s="56"/>
+    </row>
+    <row r="6" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A6" s="72" t="s">
+        <v>392</v>
+      </c>
+      <c r="B6" s="73" t="s">
+        <v>410</v>
+      </c>
+      <c r="C6" s="74" t="s">
+        <v>399</v>
+      </c>
+      <c r="D6" s="74" t="s">
+        <v>400</v>
+      </c>
+      <c r="E6" s="74" t="s">
+        <v>398</v>
+      </c>
+      <c r="F6" s="74" t="s">
+        <v>401</v>
+      </c>
+      <c r="G6" s="75" t="s">
+        <v>403</v>
+      </c>
+      <c r="H6" s="75" t="s">
+        <v>402</v>
+      </c>
+      <c r="I6" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="J6" s="67"/>
+      <c r="K6" s="56"/>
+      <c r="L6" s="56"/>
+    </row>
+    <row r="7" spans="1:12" ht="30">
+      <c r="A7" s="68" t="s">
+        <v>409</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>396</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>396</v>
+      </c>
+      <c r="D7" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>338</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="G7" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="H7" s="66" t="s">
+        <v>338</v>
+      </c>
+      <c r="I7" s="66" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" ht="45">
+      <c r="A8" s="69" t="s">
+        <v>404</v>
+      </c>
+      <c r="B8" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C8" s="58" t="s">
+        <v>396</v>
+      </c>
+      <c r="D8" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="E8" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F8" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="G8" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="H8" s="60" t="s">
+        <v>339</v>
+      </c>
+      <c r="I8" s="60" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="9" spans="1:12" s="23" customFormat="1" ht="45">
+      <c r="A9" s="69" t="s">
+        <v>397</v>
+      </c>
+      <c r="B9" s="59" t="s">
+        <v>396</v>
+      </c>
+      <c r="C9" s="58" t="s">
+        <v>229</v>
+      </c>
+      <c r="D9" s="60" t="s">
+        <v>396</v>
+      </c>
+      <c r="E9" s="58" t="s">
+        <v>395</v>
+      </c>
+      <c r="F9" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="G9" s="60" t="s">
+        <v>229</v>
+      </c>
+      <c r="H9" s="80" t="s">
+        <v>338</v>
+      </c>
+      <c r="I9" s="80" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="10" spans="1:12" s="23" customFormat="1">
+      <c r="A10" s="68" t="s">
+        <v>408</v>
+      </c>
+      <c r="B10" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C10" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="D10" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E10" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F10" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G10" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="H10" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="I10" s="63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" s="23" customFormat="1">
+      <c r="A11" s="76" t="s">
+        <v>331</v>
+      </c>
+      <c r="B11" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C11" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="D11" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E11" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F11" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G11" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="H11" s="63" t="s">
+        <v>339</v>
+      </c>
+      <c r="I11" s="63" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="12" spans="1:12">
+      <c r="A12" s="76" t="s">
+        <v>393</v>
+      </c>
+      <c r="B12" s="61" t="s">
+        <v>396</v>
+      </c>
+      <c r="C12" s="62" t="s">
+        <v>396</v>
+      </c>
+      <c r="D12" s="63" t="s">
+        <v>396</v>
+      </c>
+      <c r="E12" s="62" t="s">
+        <v>395</v>
+      </c>
+      <c r="F12" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="G12" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="H12" s="63" t="s">
+        <v>395</v>
+      </c>
+      <c r="I12" s="63" t="s">
+        <v>329</v>
+      </c>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="A1:F4 A6">
-    <cfRule type="containsText" dxfId="19" priority="9" stopIfTrue="1" operator="containsText" text="conflict">
-      <formula>NOT(ISERROR(SEARCH("conflict",A1)))</formula>
+  <conditionalFormatting sqref="B2:F4 B7:I12">
+    <cfRule type="containsText" dxfId="21" priority="1" stopIfTrue="1" operator="containsText" text="C1 Expand">
+      <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="10" stopIfTrue="1" operator="equal">
+    <cfRule type="containsText" dxfId="20" priority="2" stopIfTrue="1" operator="containsText" text="C2 Expand">
+      <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="19" priority="19" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="18" priority="20" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="17" priority="21" stopIfTrue="1" operator="containsText" text="C3 Shrink">
+      <formula>NOT(ISERROR(SEARCH("C3 Shrink",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="16" priority="22" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="15" priority="23" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+      <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="14" priority="24" stopIfTrue="1" operator="containsText" text="C1 Push">
+      <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="25" stopIfTrue="1" operator="containsText" text="C2 Push">
+      <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="26" stopIfTrue="1" operator="containsText" text="C3 Push">
+      <formula>NOT(ISERROR(SEARCH("C3 Push",B2)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="11" priority="27" stopIfTrue="1" operator="containsText" text="conflict">
+      <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="28" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B2:F4">
-    <cfRule type="containsText" dxfId="17" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
-      <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
-      <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
-      <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
-      <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
-      <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
-      <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
-      <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
-      <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
-    </cfRule>
-  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18625"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="635" uniqueCount="411">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="429">
   <si>
     <t>Feature</t>
   </si>
@@ -1174,163 +1174,241 @@
     <t>Redistributions</t>
   </si>
   <si>
-    <t>C2HasRoom = F
+    <t>A collision between two CO's is simple, but 3 or more becomes non-trivial and could cause Ping-Ponging and we need to come up with a better solution.</t>
+  </si>
+  <si>
+    <t>C1 ∩ C2: C1.Start &lt; C2.Start, C1.End &gt; C2.Start, C1.End &lt; C2.End</t>
+  </si>
+  <si>
+    <t>C1 Inside C2: C1.Start &gt; C2.Start, C1.End &lt; C2.End</t>
+  </si>
+  <si>
+    <t>After a push, the two objects become tangent where start == End or Start == end. So long as they remain tangent, they will be remembered and used in subsequent collisions until they are not.</t>
+  </si>
+  <si>
+    <t>When calculating a collision between two CO's where one is pushed, we check if we can push in that direction by checking if each tangent in that direction can be pushed.</t>
+  </si>
+  <si>
+    <t>In a collision between C1 and C2, where C2 is pushed right, each CO, in a chain to the right where each is tangent to the next, is compared to C1 to see if its context beats C1's context. We will look for the first case in the chain where we can decide to shrink a CO, push the chain, or if we can push C1.</t>
+  </si>
+  <si>
+    <t>We also need to consider that a push may not completely handle the collision. Push as much as possible, then run another collision test. Only set tangents when it is confirmed that the collision was entirely successful.</t>
+  </si>
+  <si>
+    <t>Collision Priority</t>
+  </si>
+  <si>
+    <t xml:space="preserve">What if there is a collision between C1 and C2 that causes C2 to be pushed very far to the right such that C2 shrunk and became insufficient. Then the next calculated collision between C1 and C3 where C3.P &gt; C1.P. C2 was pushed far past the end of C3. C1 is then shrunk so that it is tangent with the start of C3. But now there is a huge gap between C3.End and C2.Start. </t>
+  </si>
+  <si>
+    <t>The gap can be filled during AllocateInsufficient() that looks for tasks that are insufficient and tries to add time to identified gaps.</t>
+  </si>
+  <si>
+    <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it.</t>
+  </si>
+  <si>
+    <t>Travel Time + Minimum Time</t>
+  </si>
+  <si>
+    <t>Google Maps</t>
+  </si>
+  <si>
+    <t>Can be used to determine travel time amoung other things.</t>
+  </si>
+  <si>
+    <t>Perhaps for each gap, detect which tasks are at each end of the gap, detect if either of those tasks has InclusionZone in the gap, detect if either of those tasks has Insufficient time, then fill in some or all of the time with the insufficient task until either the gap is full, the InclusionZone is full, or the task has met resources and is no longer insufficient.</t>
+  </si>
+  <si>
+    <t>Perhaps to attempt to avoid this problem, try to do collisions in order of priority. Pick the highest priority CO, find the CO's it has collisions with, then order the calcualtion of those collisions by each colliding CO's priority. This isn't going to solve the problem completely, but will lessen the necessity of the intensive solution in the next step.</t>
+  </si>
+  <si>
+    <t>When calculating collisions, we will incorporate knowledge of previous collisions.</t>
+  </si>
+  <si>
+    <t>After a collision between two objects where they become tangent, both remember each other from the direction it was placed. An object can remember two tangents, one for each side.</t>
+  </si>
+  <si>
+    <t>Collision Tests</t>
+  </si>
+  <si>
+    <t>To determine the outcome of a collision, we need to test a few things:</t>
+  </si>
+  <si>
+    <t>Is C1.E🔒? Is C2.S🔒?</t>
+  </si>
+  <si>
+    <t>C3E🔒</t>
+  </si>
+  <si>
+    <t>C2 Push R</t>
+  </si>
+  <si>
+    <t>C1 Push L</t>
+  </si>
+  <si>
+    <t>C2 Shrink R</t>
+  </si>
+  <si>
+    <t>C1 Shrink L</t>
+  </si>
+  <si>
+    <t>Collision
+C1 ∩ C2</t>
+  </si>
+  <si>
+    <t>Collision
+C3 T C1 ∩ C2</t>
+  </si>
+  <si>
+    <t>C1.Z.S &gt;= C1.S</t>
+  </si>
+  <si>
+    <t>Collision
+C3 T C1 ∩ C2 T C4</t>
+  </si>
+  <si>
+    <t>See Collisions2</t>
+  </si>
+  <si>
+    <t>Does C1 have room? Does C2 have room? C1 has room to the left if C1.S is unlocked and C1.Z.S &lt; C1.S and ((C1.LT == null) Or (C1.LT.E is unlocked and C1.LT has room to the left)).</t>
+  </si>
+  <si>
+    <t>LT.HasRoom = T when LT has no locks and LT.Z.S &lt; LT.S and (LT.LT == null or LT.LT.HasRoom == T)</t>
+  </si>
+  <si>
+    <t>LT.HasRoom = F when LT.E🔒 or LT.S🔒 or LT.Z.S &gt;= LT.S or LT.LT.HasRoom=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2HasRoom=T
+LP &gt;= RP
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2HasRoom=T
+LP &lt; RP
+</t>
+  </si>
+  <si>
+    <t>C1HasRoom=F
+LP &lt; C1</t>
+  </si>
+  <si>
+    <t>C2HasRoom=T
 C1 &gt;= C2</t>
   </si>
   <si>
-    <t>C2HasRoom = F
+    <t>C2HasRoom=T
 C1 &lt; C2</t>
   </si>
   <si>
-    <t>C1HasRoom = F</t>
-  </si>
-  <si>
-    <t>A collision between two CO's is simple, but 3 or more becomes non-trivial and could cause Ping-Ponging and we need to come up with a better solution.</t>
-  </si>
-  <si>
-    <t>C1 ∩ C2: C1.Start &lt; C2.Start, C1.End &gt; C2.Start, C1.End &lt; C2.End</t>
-  </si>
-  <si>
-    <t>C1 Inside C2: C1.Start &gt; C2.Start, C1.End &lt; C2.End</t>
-  </si>
-  <si>
-    <t>After a push, the two objects become tangent where start == End or Start == end. So long as they remain tangent, they will be remembered and used in subsequent collisions until they are not.</t>
-  </si>
-  <si>
-    <t>When calculating a collision between two CO's where one is pushed, we check if we can push in that direction by checking if each tangent in that direction can be pushed.</t>
-  </si>
-  <si>
-    <t>In a collision between C1 and C2, where C2 is pushed right, each CO, in a chain to the right where each is tangent to the next, is compared to C1 to see if its context beats C1's context. We will look for the first case in the chain where we can decide to shrink a CO, push the chain, or if we can push C1.</t>
-  </si>
-  <si>
-    <t>We also need to consider that a push may not completely handle the collision. Push as much as possible, then run another collision test. Only set tangents when it is confirmed that the collision was entirely successful.</t>
-  </si>
-  <si>
-    <t>Collision Priority</t>
-  </si>
-  <si>
-    <t xml:space="preserve">What if there is a collision between C1 and C2 that causes C2 to be pushed very far to the right such that C2 shrunk and became insufficient. Then the next calculated collision between C1 and C3 where C3.P &gt; C1.P. C2 was pushed far past the end of C3. C1 is then shrunk so that it is tangent with the start of C3. But now there is a huge gap between C3.End and C2.Start. </t>
-  </si>
-  <si>
-    <t>The gap can be filled during AllocateInsufficient() that looks for tasks that are insufficient and tries to add time to identified gaps.</t>
-  </si>
-  <si>
-    <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it.</t>
-  </si>
-  <si>
-    <t>Travel Time + Minimum Time</t>
-  </si>
-  <si>
-    <t>Google Maps</t>
-  </si>
-  <si>
-    <t>Can be used to determine travel time amoung other things.</t>
-  </si>
-  <si>
-    <t>Perhaps for each gap, detect which tasks are at each end of the gap, detect if either of those tasks has InclusionZone in the gap, detect if either of those tasks has Insufficient time, then fill in some or all of the time with the insufficient task until either the gap is full, the InclusionZone is full, or the task has met resources and is no longer insufficient.</t>
-  </si>
-  <si>
-    <t>Perhaps to attempt to avoid this problem, try to do collisions in order of priority. Pick the highest priority CO, find the CO's it has collisions with, then order the calcualtion of those collisions by each colliding CO's priority. This isn't going to solve the problem completely, but will lessen the necessity of the intensive solution in the next step.</t>
-  </si>
-  <si>
-    <t>When calculating collisions, we will incorporate knowledge of previous collisions.</t>
-  </si>
-  <si>
-    <t>After a collision between two objects where they become tangent, both remember each other from the direction it was placed. An object can remember two tangents, one for each side.</t>
-  </si>
-  <si>
-    <t>Collision Tests</t>
-  </si>
-  <si>
-    <t>To determine the outcome of a collision, we need to test a few things:</t>
-  </si>
-  <si>
-    <t>If C1.P &lt; C2.P and C1.P &lt; C1.LT.P then shrink C1</t>
-  </si>
-  <si>
-    <t>If C1.P &lt; C2.P and C1.P &lt; C1.LT.P and C1.P &lt; C1.LT.LT.P and C1.P &lt; C1.LT.LT.LT.P … then shrink C1</t>
-  </si>
-  <si>
-    <t>In a collision C1 ∩ C2, Is C1.Priority (C1.P) &gt;, &lt;, or = to C2.P</t>
-  </si>
-  <si>
-    <t>Is C1.E🔒? Is C2.S🔒?</t>
-  </si>
-  <si>
-    <t>C1 T C2 ∩ C3</t>
-  </si>
-  <si>
-    <t>C2E🔒</t>
-  </si>
-  <si>
-    <t>C3S🔒</t>
-  </si>
-  <si>
-    <t>C3 Shrink</t>
-  </si>
-  <si>
-    <t>C3 Push</t>
-  </si>
-  <si>
-    <t>C1HasRoom = F
-C2HasRoom = T
+    <t>C2HasRoom=F
+C1 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
 C1 &lt; C2</t>
   </si>
   <si>
-    <t>C3HasRoom = F
-C2 &gt;= C3
-C1 &gt;= C3</t>
-  </si>
-  <si>
-    <t>C3HasRoom = T
-C2 &lt; C3
-C1 &gt;= C3</t>
-  </si>
-  <si>
-    <t>C3HasRoom = T
-C2 &lt; C3
-C1 &lt; C3</t>
-  </si>
-  <si>
-    <t>C3HasRoom = F
-C2 &gt;= C3
-C1 &lt; C3</t>
-  </si>
-  <si>
-    <t>C3HasRoom = F
-C2 &lt; C3
-C1 &lt; C3</t>
-  </si>
-  <si>
-    <t>C3HasRoom = F
-C2 &lt; C3
-C1 &gt;= C3</t>
-  </si>
-  <si>
-    <t>C1HasRoom = F
-C2HasRoom = T
-C1 &gt;= C2</t>
-  </si>
-  <si>
-    <t>As shown in the patterns above we want to find the nearest "weakest link" in the chain of tangents. That CO will be first to be shrunk. We can find the weakest link recursively. The recursion of LT checks can stop as soon as either the next LT is null or LT.LT.P &gt; LT.P or LT can't be pushed or shrunk.</t>
-  </si>
-  <si>
-    <t>Does C1 have room? Does C2 have room? C1 has room to the left if C1.S is unlocked and C1.Z.S &lt; C1.S and ((C1.LT == null) Or (C1.LT has room to the left) Or (C1.LT is shrinkable and it has lowest priority)).</t>
-  </si>
-  <si>
-    <t>Based on these tests, we use the table in Collisions2 to resolve the collision</t>
-  </si>
-  <si>
-    <t>C2HasRoom = F</t>
-  </si>
-  <si>
-    <t>C1HasRoom = T
-C2HasRoom = T</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C3HasRoom = T
-C2 &gt;= C3
+    <t>C1HasRoom=T</t>
+  </si>
+  <si>
+    <t>C1HasRoom=F</t>
+  </si>
+  <si>
+    <t xml:space="preserve">C2HasRoom=T
+C1 &gt;= C2
 </t>
+  </si>
+  <si>
+    <t>C2HasRoom=T
+C1 &lt; C2
+C3 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=T
+C1 &lt; C2
+C3 &lt; C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+C1 &gt;= C2
+C3 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+C1 &gt;= C2
+C3 &lt; C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+C1 &lt; C2
+C3 &gt;= C2</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+C1 &lt; C2
+C3 &lt; C2</t>
+  </si>
+  <si>
+    <t>C1.Z.S &lt; C1.S
+C3HasRoom=T</t>
+  </si>
+  <si>
+    <t>C1.Z.S &lt; C1.S
+C3HasRoom=F
+C3 &lt; C1</t>
+  </si>
+  <si>
+    <t>C1.Z.S &lt; C1.S
+C3HasRoom=F
+C3 &gt;= C1</t>
+  </si>
+  <si>
+    <t>In a Collision C1 ∩ C2, where C1.P &lt; C2.P: 
+Find the left side data: Determine C1HasRoom.
+If C1.HasRoom == T, LC is the LT where LT.LT == null. LP = LC.P.
+Else If C1.HasRoom == F, LC is the nearest LT where LT.S🔒 or LT.Z.S &gt;=LT.S or LT.LT.E🔒. LP = C.P where C is the LT with the lowest priority from C1 to LC.
+Find the right side data: Determine C2HasRoom. Find RC. Find RP. 
+Determine collision result based on comparing C1HasRoom=T|F, C2HasRoom=T|F, and LP &gt;=|&lt; RP.</t>
+  </si>
+  <si>
+    <t>C1HasRoom=F
+LP == C1</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &gt;= RP
+C2 == RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &gt;= RP
+C2 &gt; RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &lt; RP
+C2 &gt; RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &lt; RP
+C2 == RP</t>
+  </si>
+  <si>
+    <t>In a collision where C1 is inside C2, C1 © C2, decide to delete C1 or split C2</t>
+  </si>
+  <si>
+    <t>In a collision where C1 intersects C2 from left to right, C1 ∩ C2, decide to push or shrink C1 to the left or C2 to the right</t>
+  </si>
+  <si>
+    <t>Intersect collision</t>
+  </si>
+  <si>
+    <t>Inside collision</t>
+  </si>
+  <si>
+    <t>Inside Collision</t>
   </si>
 </sst>
 </file>
@@ -1470,7 +1548,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1866,12 +1944,49 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1996,21 +2111,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2050,15 +2150,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="62">
+  <dxfs count="123">
     <dxf>
       <fill>
         <patternFill>
@@ -2156,13 +2307,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="9" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2191,13 +2335,6 @@
     <dxf>
       <fill>
         <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
           <bgColor theme="7" tint="0.39994506668294322"/>
         </patternFill>
       </fill>
@@ -2206,20 +2343,6 @@
       <fill>
         <patternFill>
           <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2291,7 +2414,54 @@
       </fill>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2300,21 +2470,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2323,12 +2494,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2337,12 +2518,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2351,12 +2542,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2367,12 +2568,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2381,12 +2592,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
@@ -2397,12 +2618,22 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border diagonalUp="0" diagonalDown="0">
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2411,11 +2642,21 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
-        <vertical/>
-        <horizontal/>
       </border>
     </dxf>
     <dxf>
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -2423,7 +2664,7 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
+      <border diagonalUp="0" diagonalDown="0" outline="0">
         <left/>
         <right style="medium">
           <color indexed="64"/>
@@ -2432,60 +2673,405 @@
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
         <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+        <patternFill>
+          <bgColor theme="9" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.79998168889431442"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF33CC33"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF3300"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <fill>
@@ -2547,9 +3133,7 @@
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
+        <right/>
         <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </top>
@@ -2594,6 +3178,275 @@
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+      </font>
+      <border>
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color auto="1"/>
+        </left>
+        <right style="medium">
+          <color auto="1"/>
+        </right>
+        <top style="medium">
+          <color auto="1"/>
+        </top>
+        <bottom style="medium">
+          <color auto="1"/>
+        </bottom>
+        <vertical style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </vertical>
+        <horizontal style="thin">
+          <color theme="0" tint="-0.14996795556505021"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
         <left/>
         <right style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2633,13 +3486,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -2652,6 +3498,41 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -2719,54 +3600,25 @@
         </bottom>
       </border>
     </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-        <vertical style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </vertical>
-        <horizontal style="thin">
-          <color theme="0" tint="-0.14996795556505021"/>
-        </horizontal>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="Table Style 1" pivot="0" count="3" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="61"/>
-      <tableStyleElement type="headerRow" dxfId="60"/>
+    <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
+      <tableStyleElement type="wholeTable" dxfId="101"/>
+      <tableStyleElement type="headerRow" dxfId="100"/>
+      <tableStyleElement type="firstColumn" dxfId="99"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="59"/>
-      <tableStyleElement type="headerRow" dxfId="58"/>
-      <tableStyleElement type="secondRowStripe" dxfId="57"/>
+      <tableStyleElement type="wholeTable" dxfId="122"/>
+      <tableStyleElement type="headerRow" dxfId="121"/>
+      <tableStyleElement type="secondRowStripe" dxfId="120"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FFCCFFCC"/>
+      <color rgb="FFFF3300"/>
+      <color rgb="FF33CC33"/>
       <color rgb="FFFF00FF"/>
       <color rgb="FF9370DB"/>
       <color rgb="FFDC143C"/>
@@ -2774,9 +3626,6 @@
       <color rgb="FF00FF7F"/>
       <color rgb="FF7FFF00"/>
       <color rgb="FF7FFFD4"/>
-      <color rgb="FF66CDAA"/>
-      <color rgb="FF87CEEB"/>
-      <color rgb="FF1E90FF"/>
     </mruColors>
   </colors>
   <extLst>
@@ -2791,55 +3640,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C144" totalsRowShown="0">
-  <autoFilter ref="A1:C144" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C146" totalsRowShown="0">
+  <autoFilter ref="A1:C146" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="56"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="119"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="55"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="118"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A116" totalsRowShown="0" headerRowDxfId="54" dataDxfId="53">
-  <autoFilter ref="A1:A116" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A117" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+  <autoFilter ref="A1:A117" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="52"/>
+    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="115"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A1:F4" totalsRowShown="0" headerRowDxfId="42" dataDxfId="43" headerRowBorderDxfId="50" tableBorderDxfId="51">
-  <autoFilter ref="A1:F4" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="114" dataDxfId="112" headerRowBorderDxfId="113" tableBorderDxfId="111">
+  <autoFilter ref="A7:F10" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="C1 ∩ C2" dataDxfId="49"/>
-    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom = T_x000a_C1 &gt;= C2" dataDxfId="48"/>
-    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom = T_x000a_C1 &lt; C2" dataDxfId="47"/>
-    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom = F_x000a_C1 &gt;= C2" dataDxfId="46"/>
-    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom = F_x000a_C1 &lt; C2" dataDxfId="45"/>
-    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="44"/>
+    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="110"/>
+    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="109"/>
+    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="108"/>
+    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="107"/>
+    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="106"/>
+    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="105"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A6:I12" totalsRowShown="0" headerRowDxfId="31" headerRowBorderDxfId="40" tableBorderDxfId="41">
-  <autoFilter ref="A6:I12" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="104" tableBorderDxfId="103">
+  <autoFilter ref="A12:I18" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="C1 T C2 ∩ C3" dataDxfId="39"/>
-    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C3HasRoom = T_x000a_C2 &gt;= C3_x000a_" dataDxfId="38"/>
-    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C3HasRoom = T_x000a_C2 &lt; C3_x000a_C1 &gt;= C3" dataDxfId="37"/>
-    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C3HasRoom = T_x000a_C2 &lt; C3_x000a_C1 &lt; C3" dataDxfId="36"/>
-    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C3HasRoom = F_x000a_C2 &gt;= C3_x000a_C1 &gt;= C3" dataDxfId="35"/>
-    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C3HasRoom = F_x000a_C2 &gt;= C3_x000a_C1 &lt; C3" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C3HasRoom = F_x000a_C2 &lt; C3_x000a_C1 &gt;= C3" dataDxfId="34"/>
-    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C3HasRoom = F_x000a_C2 &lt; C3_x000a_C1 &lt; C3" dataDxfId="33"/>
-    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C3S🔒" dataDxfId="32"/>
+    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="36"/>
+    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="35"/>
+    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="34"/>
+    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="33"/>
+    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="32"/>
+    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="31"/>
+    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="30"/>
+    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="29"/>
+    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="28"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="102">
+  <autoFilter ref="A1:H5" xr:uid="{3AB9159B-B403-4CC8-8649-2A74831EFA39}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="98"/>
+    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="97"/>
+    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="96"/>
+    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="95"/>
+    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="92"/>
+    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="94"/>
+    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="91"/>
+    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="93"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3142,10 +4008,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G144"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B74" sqref="B74"/>
+    <sheetView topLeftCell="A55" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76:C76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3859,527 +4725,540 @@
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>315</v>
+        <v>426</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="12" t="s">
-        <v>364</v>
-      </c>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>203</v>
+        <v>427</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>257</v>
+        <v>203</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="12"/>
     </row>
-    <row r="76" spans="1:3" s="13" customFormat="1">
-      <c r="A76" s="11" t="s">
+    <row r="76" spans="1:3" s="9" customFormat="1">
+      <c r="A76" s="94" t="s">
+        <v>315</v>
+      </c>
+      <c r="C76" s="10" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="77" spans="1:3" s="9" customFormat="1">
+      <c r="A77" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="B77" s="13"/>
+      <c r="C77" s="12"/>
+    </row>
+    <row r="78" spans="1:3" s="13" customFormat="1">
+      <c r="A78" s="11" t="s">
         <v>228</v>
       </c>
-      <c r="C76" s="12"/>
-    </row>
-    <row r="77" spans="1:3" s="13" customFormat="1">
-      <c r="A77" s="11" t="s">
-        <v>159</v>
-      </c>
-      <c r="C77" s="12"/>
-    </row>
-    <row r="78" spans="1:3" s="13" customFormat="1" ht="30">
-      <c r="A78" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C78" s="12" t="s">
-        <v>255</v>
-      </c>
+      <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" s="13" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C79" s="12" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row r="80" spans="1:3" s="13" customFormat="1">
+        <v>159</v>
+      </c>
+      <c r="C79" s="12"/>
+    </row>
+    <row r="80" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A80" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B80" s="3"/>
+        <v>256</v>
+      </c>
       <c r="C80" s="12" t="s">
-        <v>204</v>
+        <v>255</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B81" s="3"/>
+        <v>125</v>
+      </c>
       <c r="C81" s="12" t="s">
-        <v>230</v>
+        <v>211</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>195</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B82" s="3"/>
       <c r="C82" s="12" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C83" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="B83" s="3"/>
+      <c r="C83" s="12" t="s">
+        <v>230</v>
+      </c>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C84" s="12"/>
+        <v>195</v>
+      </c>
+      <c r="C84" s="12" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
+        <v>197</v>
+      </c>
+      <c r="C85" s="12"/>
+    </row>
+    <row r="86" spans="1:3" s="13" customFormat="1">
+      <c r="A86" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C86" s="12"/>
+    </row>
+    <row r="87" spans="1:3" s="13" customFormat="1">
+      <c r="A87" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C85" s="12" t="s">
+      <c r="C87" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="86" spans="1:3">
-      <c r="A86" s="2" t="s">
+    <row r="88" spans="1:3">
+      <c r="A88" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C86" s="4" t="s">
+      <c r="C88" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="87" spans="1:3">
-      <c r="A87" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B87" s="13"/>
-      <c r="C87" s="12"/>
-    </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="11" t="s">
-        <v>102</v>
       </c>
     </row>
     <row r="89" spans="1:3">
       <c r="A89" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="B89" s="13"/>
+      <c r="C89" s="12"/>
+    </row>
+    <row r="90" spans="1:3">
+      <c r="A90" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3">
+      <c r="A91" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="C89" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>162</v>
-      </c>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C90" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="92" spans="1:3">
       <c r="A92" s="2" t="s">
-        <v>7</v>
+        <v>91</v>
+      </c>
+      <c r="C92" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:3">
-      <c r="A93" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C93" s="12" t="s">
-        <v>223</v>
+      <c r="A93" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3" ht="30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
       <c r="A95" s="11" t="s">
-        <v>316</v>
+        <v>222</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>317</v>
+        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3" ht="30">
+      <c r="A97" s="11" t="s">
+        <v>316</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="99" spans="1:3">
       <c r="A99" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="C99" s="12" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3">
+      <c r="A100" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C101" s="12" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="102" spans="1:3">
       <c r="A102" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C102" s="4" t="s">
-        <v>47</v>
+        <v>8</v>
       </c>
     </row>
     <row r="103" spans="1:3">
-      <c r="A103" s="11" t="s">
-        <v>97</v>
+      <c r="A103" s="2" t="s">
+        <v>11</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>98</v>
+        <v>140</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="2" t="s">
-        <v>13</v>
+        <v>46</v>
+      </c>
+      <c r="C104" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="105" spans="1:3">
       <c r="A105" s="11" t="s">
-        <v>225</v>
+        <v>97</v>
       </c>
       <c r="C105" s="12" t="s">
-        <v>226</v>
+        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>103</v>
+        <v>13</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>35</v>
+      <c r="A107" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>226</v>
       </c>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="2" t="s">
-        <v>33</v>
+        <v>79</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>34</v>
+        <v>103</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>206</v>
+      <c r="A109" s="2" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
+      <c r="A111" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3">
+      <c r="A112" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C112" s="12" t="s">
         <v>205</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="30">
-      <c r="A111" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="113" spans="1:3" ht="30">
       <c r="A113" s="11" t="s">
-        <v>379</v>
+        <v>142</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>378</v>
+        <v>141</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="11" t="s">
-        <v>380</v>
+        <v>144</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
       <c r="A115" s="11" t="s">
-        <v>100</v>
+        <v>376</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>375</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="11" t="s">
+        <v>377</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="11" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C117" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C119" s="4" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
+      <c r="A121" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C119" s="12" t="s">
+      <c r="C121" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C120" s="12"/>
-    </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C121" s="12"/>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="11" t="s">
-        <v>148</v>
+        <v>227</v>
       </c>
       <c r="C122" s="12"/>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C123" s="12"/>
+    </row>
+    <row r="124" spans="1:3">
+      <c r="A124" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C124" s="12"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" spans="1:3" ht="30">
-      <c r="A124" s="11" t="s">
+      <c r="C125" s="12"/>
+    </row>
+    <row r="126" spans="1:3" ht="30">
+      <c r="A126" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="12" t="s">
+      <c r="B126" s="13"/>
+      <c r="C126" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C125" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C126" s="4" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>89</v>
+        <v>74</v>
       </c>
       <c r="C127" s="4" t="s">
-        <v>90</v>
+        <v>75</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C128" s="12" t="s">
-        <v>96</v>
+      <c r="A128" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="2" t="s">
-        <v>77</v>
+        <v>89</v>
+      </c>
+      <c r="C129" s="4" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="11" t="s">
-        <v>209</v>
+        <v>95</v>
       </c>
       <c r="C130" s="12" t="s">
-        <v>210</v>
+        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3" s="9" customFormat="1">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
       <c r="A132" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B132" s="3"/>
-      <c r="C132" s="4"/>
+        <v>209</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3" s="9" customFormat="1">
+      <c r="A134" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B134" s="3"/>
+      <c r="C134" s="4"/>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="11" t="s">
-        <v>137</v>
+        <v>106</v>
       </c>
       <c r="C137" s="12" t="s">
-        <v>138</v>
+        <v>113</v>
       </c>
     </row>
     <row r="138" spans="1:3">
       <c r="A138" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B138" s="13"/>
+        <v>120</v>
+      </c>
       <c r="C138" s="12" t="s">
-        <v>146</v>
+        <v>121</v>
       </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B139" s="13"/>
+        <v>137</v>
+      </c>
       <c r="C139" s="12" t="s">
-        <v>152</v>
+        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="11" t="s">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="B140" s="13"/>
       <c r="C140" s="12" t="s">
-        <v>154</v>
+        <v>146</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>234</v>
+        <v>151</v>
       </c>
       <c r="B141" s="13"/>
       <c r="C141" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3" ht="30">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>241</v>
+        <v>153</v>
       </c>
       <c r="B142" s="13"/>
       <c r="C142" s="12" t="s">
-        <v>242</v>
+        <v>154</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="B143" s="13"/>
+      <c r="C143" s="12" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="30">
+      <c r="A144" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="B144" s="13"/>
+      <c r="C144" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3">
+      <c r="A145" s="11" t="s">
         <v>243</v>
       </c>
-      <c r="C143" s="12" t="s">
+      <c r="C145" s="12" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="11" t="s">
+    <row r="146" spans="1:3">
+      <c r="A146" s="11" t="s">
         <v>273</v>
       </c>
-      <c r="C144" s="12" t="s">
+      <c r="C146" s="12" t="s">
         <v>274</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="29" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5303,25 +6182,25 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="containsText" dxfId="28" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="2" operator="containsText" text="cancel">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="cancel">
       <formula>NOT(ISERROR(SEARCH("cancel",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="3" operator="containsText" text="pN = N">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="pN = N">
       <formula>NOT(ISERROR(SEARCH("pN = N",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="28" operator="containsText" text="unscheduled">
+    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="unscheduled">
       <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="29" operator="containsText" text="confirm">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="confirm">
       <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="30" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5332,15 +6211,15 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
-  <dimension ref="A1:F61"/>
+  <dimension ref="A1:F62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="201.42578125" style="28" customWidth="1"/>
+    <col min="1" max="1" width="218.140625" style="28" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="20"/>
     <col min="7" max="16384" width="9.140625" style="28"/>
@@ -5356,9 +6235,9 @@
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1">
-      <c r="A2" s="28" t="s">
-        <v>322</v>
+    <row r="2" spans="1:6" s="12" customFormat="1" ht="90">
+      <c r="A2" s="74" t="s">
+        <v>418</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -5367,8 +6246,8 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
-      <c r="A3" s="28" t="s">
-        <v>323</v>
+      <c r="A3" s="25" t="s">
+        <v>395</v>
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -5377,9 +6256,6 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
-      <c r="A4" s="28" t="s">
-        <v>324</v>
-      </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -5387,8 +6263,8 @@
       <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
-      <c r="A5" s="10" t="s">
-        <v>325</v>
+      <c r="A5" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -5396,214 +6272,312 @@
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:6" s="12" customFormat="1">
       <c r="A6" s="28" t="s">
+        <v>323</v>
+      </c>
+      <c r="B6" s="57"/>
+      <c r="C6" s="57"/>
+      <c r="D6" s="57"/>
+      <c r="E6" s="57"/>
+      <c r="F6" s="57"/>
+    </row>
+    <row r="7" spans="1:6" s="12" customFormat="1">
+      <c r="A7" s="28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B7" s="57"/>
+      <c r="C7" s="57"/>
+      <c r="D7" s="57"/>
+      <c r="E7" s="57"/>
+      <c r="F7" s="57"/>
+    </row>
+    <row r="8" spans="1:6" s="12" customFormat="1">
+      <c r="A8" s="10" t="s">
+        <v>325</v>
+      </c>
+      <c r="B8" s="57"/>
+      <c r="C8" s="57"/>
+      <c r="D8" s="57"/>
+      <c r="E8" s="57"/>
+      <c r="F8" s="57"/>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" s="28" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
-        <v>328</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>321</v>
+        <v>327</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
-        <v>370</v>
+        <v>328</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" s="28" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6">
-      <c r="A16" s="28" t="s">
-        <v>385</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1" ht="30">
-      <c r="A19" s="28" t="s">
-        <v>373</v>
+        <v>381</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1">
+      <c r="A19" s="74" t="s">
+        <v>382</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1">
+      <c r="A21" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" ht="30">
       <c r="A22" s="28" t="s">
-        <v>386</v>
+        <v>370</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>387</v>
-      </c>
-    </row>
-    <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
-        <v>390</v>
+        <v>371</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="28" t="s">
-        <v>391</v>
+        <v>383</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="28" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="28" t="s">
-        <v>388</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
-      <c r="A28" s="28" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1" ht="30">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1">
       <c r="A29" s="28" t="s">
-        <v>405</v>
+        <v>425</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="25" t="s">
-        <v>407</v>
+      <c r="A30" s="28" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="74" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="28" t="s">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" ht="30">
-      <c r="A33" s="28" t="s">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" ht="30">
-      <c r="A34" s="28" t="s">
-        <v>383</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1">
-      <c r="A35" s="28" t="s">
-        <v>377</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" ht="30">
-      <c r="A36" s="28" t="s">
-        <v>382</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1">
+      <c r="A32" s="74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="74" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="90">
+      <c r="A34" s="74" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6">
+      <c r="A35" s="25" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6">
+      <c r="A37" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" ht="30">
       <c r="A38" s="28" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="28" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6">
+      <c r="A40" s="28" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" ht="30">
+      <c r="A41" s="28" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6">
+      <c r="A43" s="28" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="28" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="10" customFormat="1">
+      <c r="A47" s="10" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" ht="30">
-      <c r="A39" s="28" t="s">
+      <c r="B47" s="93"/>
+      <c r="C47" s="93"/>
+      <c r="D47" s="93"/>
+      <c r="E47" s="93"/>
+      <c r="F47" s="93"/>
+    </row>
+    <row r="48" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A48" s="10" t="s">
         <v>354</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" ht="30">
-      <c r="A40" s="28" t="s">
+      <c r="B48" s="93"/>
+      <c r="C48" s="93"/>
+      <c r="D48" s="93"/>
+      <c r="E48" s="93"/>
+      <c r="F48" s="93"/>
+    </row>
+    <row r="49" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A49" s="10" t="s">
         <v>347</v>
       </c>
-    </row>
-    <row r="41" spans="1:1">
-      <c r="A41" s="28" t="s">
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+    </row>
+    <row r="50" spans="1:6" s="10" customFormat="1">
+      <c r="A50" s="10" t="s">
         <v>355</v>
       </c>
-    </row>
-    <row r="43" spans="1:1">
-      <c r="A43" s="28" t="s">
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+    </row>
+    <row r="51" spans="1:6" s="10" customFormat="1">
+      <c r="B51" s="93"/>
+      <c r="C51" s="93"/>
+      <c r="D51" s="93"/>
+      <c r="E51" s="93"/>
+      <c r="F51" s="93"/>
+    </row>
+    <row r="52" spans="1:6" s="10" customFormat="1">
+      <c r="A52" s="10" t="s">
         <v>352</v>
       </c>
-    </row>
-    <row r="44" spans="1:1">
-      <c r="A44" s="28" t="s">
+      <c r="B52" s="93"/>
+      <c r="C52" s="93"/>
+      <c r="D52" s="93"/>
+      <c r="E52" s="93"/>
+      <c r="F52" s="93"/>
+    </row>
+    <row r="53" spans="1:6" s="10" customFormat="1">
+      <c r="A53" s="10" t="s">
         <v>353</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" ht="30">
-      <c r="A45" s="28" t="s">
+      <c r="B53" s="93"/>
+      <c r="C53" s="93"/>
+      <c r="D53" s="93"/>
+      <c r="E53" s="93"/>
+      <c r="F53" s="93"/>
+    </row>
+    <row r="54" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A54" s="10" t="s">
         <v>358</v>
       </c>
-    </row>
-    <row r="46" spans="1:1">
-      <c r="A46" s="28" t="s">
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+    </row>
+    <row r="55" spans="1:6" s="10" customFormat="1">
+      <c r="A55" s="10" t="s">
         <v>363</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" ht="45">
-      <c r="A47" s="28" t="s">
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+    </row>
+    <row r="56" spans="1:6" s="10" customFormat="1" ht="45">
+      <c r="A56" s="10" t="s">
         <v>359</v>
       </c>
-    </row>
-    <row r="57" spans="1:1">
-      <c r="A57" s="10" t="s">
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+    </row>
+    <row r="58" spans="1:6">
+      <c r="A58" s="10" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="58" spans="1:1">
-      <c r="A58" s="10" t="s">
+    <row r="59" spans="1:6">
+      <c r="A59" s="10" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="59" spans="1:1" ht="30">
-      <c r="A59" s="10" t="s">
+    <row r="60" spans="1:6" ht="30">
+      <c r="A60" s="10" t="s">
         <v>351</v>
       </c>
     </row>
-    <row r="60" spans="1:1">
-      <c r="A60" s="10" t="s">
+    <row r="61" spans="1:6">
+      <c r="A61" s="10" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="61" spans="1:1">
-      <c r="A61" s="10" t="s">
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
         <v>350</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A30" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
+    <hyperlink ref="A35" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
+    <hyperlink ref="A3" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{FE1719CB-348B-411F-8807-7C9D6C17EE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -5615,358 +6589,482 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11BE1A-892C-449D-A753-1B446ED96C7C}">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane xSplit="1" ySplit="6" topLeftCell="B7" activePane="bottomRight" state="frozen"/>
-      <selection pane="topRight" activeCell="B1" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
-      <selection pane="bottomRight" activeCell="E22" sqref="E22"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15"/>
   <cols>
+    <col min="1" max="1" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="3" max="4" width="16.5703125" style="23"/>
     <col min="8" max="9" width="16.5703125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30.75" thickBot="1">
+    <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A1" s="72" t="s">
-        <v>361</v>
-      </c>
-      <c r="B1" s="73" t="s">
-        <v>345</v>
-      </c>
-      <c r="C1" s="74" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="74" t="s">
-        <v>365</v>
-      </c>
-      <c r="E1" s="74" t="s">
-        <v>366</v>
-      </c>
-      <c r="F1" s="75" t="s">
+        <v>394</v>
+      </c>
+      <c r="B1" s="28" t="s">
+        <v>399</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>400</v>
+      </c>
+      <c r="D1" s="28" t="s">
+        <v>421</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>422</v>
+      </c>
+      <c r="G1" s="28" t="s">
+        <v>423</v>
+      </c>
+      <c r="H1" s="28" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-    </row>
-    <row r="2" spans="1:12">
-      <c r="A2" s="68" t="s">
-        <v>342</v>
+    </row>
+    <row r="2" spans="1:12" s="23" customFormat="1">
+      <c r="A2" s="75" t="s">
+        <v>406</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>336</v>
+        <v>388</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="70" t="s">
-        <v>336</v>
-      </c>
-      <c r="H2" s="56"/>
-      <c r="I2" s="56"/>
-    </row>
-    <row r="3" spans="1:12">
-      <c r="A3" s="69" t="s">
-        <v>367</v>
+        <v>388</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="G2" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="H2" s="61" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
+      <c r="A3" s="75" t="s">
+        <v>401</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>338</v>
+        <v>387</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>339</v>
+        <v>387</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F3" s="71" t="s">
-        <v>337</v>
-      </c>
-      <c r="H3" s="56"/>
-      <c r="I3" s="56"/>
-    </row>
-    <row r="4" spans="1:12">
-      <c r="A4" s="76" t="s">
+        <v>389</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="G3" s="62" t="s">
+        <v>388</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
+      <c r="A4" s="75" t="s">
+        <v>419</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="G4" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="71" t="s">
         <v>331</v>
       </c>
-      <c r="B4" s="77" t="s">
-        <v>338</v>
-      </c>
-      <c r="C4" s="78" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="78" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="79" t="s">
+      <c r="B5" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C5" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="D5" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="E5" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="F5" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="G5" s="70" t="s">
+        <v>389</v>
+      </c>
+      <c r="H5" s="70" t="s">
         <v>329</v>
       </c>
-      <c r="H4" s="56"/>
-      <c r="I4" s="56"/>
-    </row>
-    <row r="6" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A6" s="72" t="s">
+    </row>
+    <row r="6" spans="1:12" s="23" customFormat="1">
+      <c r="A6" s="73"/>
+    </row>
+    <row r="7" spans="1:12" ht="30.75" thickBot="1">
+      <c r="A7" s="63" t="s">
+        <v>391</v>
+      </c>
+      <c r="B7" s="64" t="s">
+        <v>402</v>
+      </c>
+      <c r="C7" s="65" t="s">
+        <v>403</v>
+      </c>
+      <c r="D7" s="65" t="s">
+        <v>404</v>
+      </c>
+      <c r="E7" s="65" t="s">
+        <v>405</v>
+      </c>
+      <c r="F7" s="66" t="s">
+        <v>330</v>
+      </c>
+      <c r="H7" s="56"/>
+      <c r="I7" s="56"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="A8" s="59" t="s">
+        <v>406</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>387</v>
+      </c>
+      <c r="C8" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>388</v>
+      </c>
+      <c r="F8" s="61" t="s">
+        <v>388</v>
+      </c>
+      <c r="H8" s="56"/>
+      <c r="I8" s="56"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="A9" s="60" t="s">
+        <v>407</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>387</v>
+      </c>
+      <c r="C9" s="19" t="s">
+        <v>387</v>
+      </c>
+      <c r="D9" s="19" t="s">
+        <v>389</v>
+      </c>
+      <c r="E9" s="19" t="s">
+        <v>390</v>
+      </c>
+      <c r="F9" s="62" t="s">
+        <v>390</v>
+      </c>
+      <c r="H9" s="56"/>
+      <c r="I9" s="56"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="A10" s="67" t="s">
+        <v>331</v>
+      </c>
+      <c r="B10" s="68" t="s">
+        <v>387</v>
+      </c>
+      <c r="C10" s="69" t="s">
+        <v>387</v>
+      </c>
+      <c r="D10" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="E10" s="69" t="s">
+        <v>389</v>
+      </c>
+      <c r="F10" s="70" t="s">
+        <v>329</v>
+      </c>
+      <c r="H10" s="56"/>
+      <c r="I10" s="56"/>
+    </row>
+    <row r="12" spans="1:12" ht="45.75" thickBot="1">
+      <c r="A12" s="76" t="s">
         <v>392</v>
       </c>
-      <c r="B6" s="73" t="s">
+      <c r="B12" s="77" t="s">
+        <v>408</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>409</v>
+      </c>
+      <c r="D12" s="78" t="s">
         <v>410</v>
       </c>
-      <c r="C6" s="74" t="s">
-        <v>399</v>
-      </c>
-      <c r="D6" s="74" t="s">
-        <v>400</v>
-      </c>
-      <c r="E6" s="74" t="s">
-        <v>398</v>
-      </c>
-      <c r="F6" s="74" t="s">
-        <v>401</v>
-      </c>
-      <c r="G6" s="75" t="s">
-        <v>403</v>
-      </c>
-      <c r="H6" s="75" t="s">
-        <v>402</v>
-      </c>
-      <c r="I6" s="75" t="s">
-        <v>394</v>
-      </c>
-      <c r="J6" s="67"/>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56"/>
-    </row>
-    <row r="7" spans="1:12" ht="30">
-      <c r="A7" s="68" t="s">
-        <v>409</v>
-      </c>
-      <c r="B7" s="64" t="s">
-        <v>396</v>
-      </c>
-      <c r="C7" s="65" t="s">
-        <v>396</v>
-      </c>
-      <c r="D7" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="E7" s="65" t="s">
-        <v>338</v>
-      </c>
-      <c r="F7" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="G7" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="H7" s="66" t="s">
-        <v>338</v>
-      </c>
-      <c r="I7" s="66" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" ht="45">
-      <c r="A8" s="69" t="s">
-        <v>404</v>
-      </c>
-      <c r="B8" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="C8" s="58" t="s">
-        <v>396</v>
-      </c>
-      <c r="D8" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="E8" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="F8" s="60" t="s">
+      <c r="E12" s="78" t="s">
+        <v>411</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>412</v>
+      </c>
+      <c r="G12" s="79" t="s">
+        <v>413</v>
+      </c>
+      <c r="H12" s="79" t="s">
+        <v>414</v>
+      </c>
+      <c r="I12" s="79" t="s">
+        <v>330</v>
+      </c>
+      <c r="J12" s="58"/>
+      <c r="K12" s="56"/>
+      <c r="L12" s="56"/>
+    </row>
+    <row r="13" spans="1:12" ht="30">
+      <c r="A13" s="80" t="s">
+        <v>415</v>
+      </c>
+      <c r="B13" s="81" t="s">
+        <v>387</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>387</v>
+      </c>
+      <c r="D13" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="E13" s="82" t="s">
+        <v>388</v>
+      </c>
+      <c r="F13" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="G13" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="H13" s="83" t="s">
+        <v>388</v>
+      </c>
+      <c r="I13" s="83" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="45">
+      <c r="A14" s="84" t="s">
+        <v>416</v>
+      </c>
+      <c r="B14" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C14" s="86" t="s">
         <v>229</v>
       </c>
-      <c r="G8" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="H8" s="60" t="s">
-        <v>339</v>
-      </c>
-      <c r="I8" s="60" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="9" spans="1:12" s="23" customFormat="1" ht="45">
-      <c r="A9" s="69" t="s">
-        <v>397</v>
-      </c>
-      <c r="B9" s="59" t="s">
-        <v>396</v>
-      </c>
-      <c r="C9" s="58" t="s">
+      <c r="D14" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="F14" s="88" t="s">
+        <v>388</v>
+      </c>
+      <c r="G14" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="D9" s="60" t="s">
-        <v>396</v>
-      </c>
-      <c r="E9" s="58" t="s">
-        <v>395</v>
-      </c>
-      <c r="F9" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="G9" s="60" t="s">
+      <c r="H14" s="88" t="s">
+        <v>388</v>
+      </c>
+      <c r="I14" s="88" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
+      <c r="A15" s="84" t="s">
+        <v>417</v>
+      </c>
+      <c r="B15" s="85" t="s">
+        <v>387</v>
+      </c>
+      <c r="C15" s="86" t="s">
+        <v>387</v>
+      </c>
+      <c r="D15" s="87" t="s">
+        <v>387</v>
+      </c>
+      <c r="E15" s="86" t="s">
+        <v>389</v>
+      </c>
+      <c r="F15" s="87" t="s">
         <v>229</v>
       </c>
-      <c r="H9" s="80" t="s">
-        <v>338</v>
-      </c>
-      <c r="I9" s="80" t="s">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" s="23" customFormat="1">
-      <c r="A10" s="68" t="s">
-        <v>408</v>
-      </c>
-      <c r="B10" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="C10" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="D10" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="E10" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="F10" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="G10" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="H10" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="I10" s="63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" s="23" customFormat="1">
-      <c r="A11" s="76" t="s">
+      <c r="G15" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="H15" s="87" t="s">
+        <v>390</v>
+      </c>
+      <c r="I15" s="87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" s="23" customFormat="1">
+      <c r="A16" s="80" t="s">
+        <v>393</v>
+      </c>
+      <c r="B16" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="C16" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D16" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="E16" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="G16" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="H16" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="I16" s="91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" s="23" customFormat="1">
+      <c r="A17" s="92" t="s">
+        <v>386</v>
+      </c>
+      <c r="B17" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="C17" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D17" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="E17" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="G17" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="H17" s="91" t="s">
+        <v>390</v>
+      </c>
+      <c r="I17" s="91" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
+      <c r="A18" s="92" t="s">
         <v>331</v>
       </c>
-      <c r="B11" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="C11" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="D11" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="E11" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="F11" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="G11" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="H11" s="63" t="s">
-        <v>339</v>
-      </c>
-      <c r="I11" s="63" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12">
-      <c r="A12" s="76" t="s">
-        <v>393</v>
-      </c>
-      <c r="B12" s="61" t="s">
-        <v>396</v>
-      </c>
-      <c r="C12" s="62" t="s">
-        <v>396</v>
-      </c>
-      <c r="D12" s="63" t="s">
-        <v>396</v>
-      </c>
-      <c r="E12" s="62" t="s">
-        <v>395</v>
-      </c>
-      <c r="F12" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="H12" s="63" t="s">
-        <v>395</v>
-      </c>
-      <c r="I12" s="63" t="s">
+      <c r="B18" s="89" t="s">
+        <v>387</v>
+      </c>
+      <c r="C18" s="90" t="s">
+        <v>387</v>
+      </c>
+      <c r="D18" s="91" t="s">
+        <v>387</v>
+      </c>
+      <c r="E18" s="90" t="s">
+        <v>389</v>
+      </c>
+      <c r="F18" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="G18" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="H18" s="91" t="s">
+        <v>389</v>
+      </c>
+      <c r="I18" s="91" t="s">
         <v>329</v>
       </c>
     </row>
+    <row r="20" spans="1:9">
+      <c r="F20" s="28"/>
+    </row>
   </sheetData>
-  <conditionalFormatting sqref="B2:F4 B7:I12">
-    <cfRule type="containsText" dxfId="21" priority="1" stopIfTrue="1" operator="containsText" text="C1 Expand">
-      <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="2" stopIfTrue="1" operator="containsText" text="C2 Expand">
-      <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="19" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+  <conditionalFormatting sqref="B8:F10 B13:I18 B2:H5">
+    <cfRule type="containsText" dxfId="17" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="20" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+    <cfRule type="containsText" dxfId="16" priority="36" stopIfTrue="1" operator="containsText" text="C2 Shrink">
       <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="21" stopIfTrue="1" operator="containsText" text="C3 Shrink">
-      <formula>NOT(ISERROR(SEARCH("C3 Shrink",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="22" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+    <cfRule type="containsText" dxfId="15" priority="38" stopIfTrue="1" operator="containsText" text="C1 ReDist">
       <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="23" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+    <cfRule type="containsText" dxfId="14" priority="39" stopIfTrue="1" operator="containsText" text="C2 ReDist">
       <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="24" stopIfTrue="1" operator="containsText" text="C1 Push">
+    <cfRule type="containsText" dxfId="13" priority="40" stopIfTrue="1" operator="containsText" text="C1 Push">
       <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="25" stopIfTrue="1" operator="containsText" text="C2 Push">
+    <cfRule type="containsText" dxfId="12" priority="41" stopIfTrue="1" operator="containsText" text="C2 Push">
       <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="26" stopIfTrue="1" operator="containsText" text="C3 Push">
-      <formula>NOT(ISERROR(SEARCH("C3 Push",B2)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="27" stopIfTrue="1" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="11" priority="43" stopIfTrue="1" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="28" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="44" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="2">
-    <tablePart r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="3">
     <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="682" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="429">
   <si>
     <t>Feature</t>
   </si>
@@ -1024,9 +1024,6 @@
 🔒C.State = confirmed</t>
   </si>
   <si>
-    <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict. If there are any CalObjs that cross a zone boundary by more than MinDur, split it</t>
-  </si>
-  <si>
     <t>this will be very similar to what we did for BuildAllocations() but we want to respect the CalObjs built in AllocateTimeFromCheckIns(). Check if there is a CalObj in each InclusionZone ignore, otherwise create CalObjs in each vacant zone and allocate any remaining time to them.</t>
   </si>
   <si>
@@ -1362,6 +1359,48 @@
     <t>C1.Z.S &lt; C1.S
 C3HasRoom=F
 C3 &gt;= C1</t>
+  </si>
+  <si>
+    <t>C1HasRoom=F
+LP == C1</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &gt;= RP
+C2 == RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &gt;= RP
+C2 &gt; RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &lt; RP
+C2 &gt; RP</t>
+  </si>
+  <si>
+    <t>C2HasRoom=F
+LP &lt; RP
+C2 == RP</t>
+  </si>
+  <si>
+    <t>In a collision where C1 is inside C2, C1 © C2, decide to delete C1 or split C2</t>
+  </si>
+  <si>
+    <t>In a collision where C1 intersects C2 from left to right, C1 ∩ C2, decide to push or shrink C1 to the left or C2 to the right</t>
+  </si>
+  <si>
+    <t>Intersect collision</t>
+  </si>
+  <si>
+    <t>Inside collision</t>
+  </si>
+  <si>
+    <t>Inside Collision</t>
+  </si>
+  <si>
+    <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict. If there are any CalObjs that cross a zone boundary by more than MinDur, split it. Make sure states are correct: If a CalObj marked Unscheduled is within a proper InclusionZone, mark it correctly. If any CalObj not marked Unscheduled is outside of a proper InclusionZone, mark it Unscheduled.</t>
   </si>
   <si>
     <t>In a Collision C1 ∩ C2, where C1.P &lt; C2.P: 
@@ -1369,46 +1408,8 @@
 If C1.HasRoom == T, LC is the LT where LT.LT == null. LP = LC.P.
 Else If C1.HasRoom == F, LC is the nearest LT where LT.S🔒 or LT.Z.S &gt;=LT.S or LT.LT.E🔒. LP = C.P where C is the LT with the lowest priority from C1 to LC.
 Find the right side data: Determine C2HasRoom. Find RC. Find RP. 
-Determine collision result based on comparing C1HasRoom=T|F, C2HasRoom=T|F, and LP &gt;=|&lt; RP.</t>
-  </si>
-  <si>
-    <t>C1HasRoom=F
-LP == C1</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-LP &gt;= RP
-C2 == RP</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-LP &gt;= RP
-C2 &gt; RP</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-LP &lt; RP
-C2 &gt; RP</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-LP &lt; RP
-C2 == RP</t>
-  </si>
-  <si>
-    <t>In a collision where C1 is inside C2, C1 © C2, decide to delete C1 or split C2</t>
-  </si>
-  <si>
-    <t>In a collision where C1 intersects C2 from left to right, C1 ∩ C2, decide to push or shrink C1 to the left or C2 to the right</t>
-  </si>
-  <si>
-    <t>Intersect collision</t>
-  </si>
-  <si>
-    <t>Inside collision</t>
-  </si>
-  <si>
-    <t>Inside Collision</t>
+Determine collision result based on comparing C1HasRoom=T|F, C2HasRoom=T|F, and LP &gt;=|&lt; RP.
+Set Tangents.</t>
   </si>
 </sst>
 </file>
@@ -3652,8 +3653,8 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A117" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
-  <autoFilter ref="A1:A117" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A114" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
+  <autoFilter ref="A1:A114" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
   <tableColumns count="1">
     <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="115"/>
   </tableColumns>
@@ -4709,7 +4710,7 @@
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
@@ -4720,19 +4721,19 @@
         <v>23</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B74" s="13"/>
       <c r="C74" s="12"/>
@@ -4749,7 +4750,7 @@
         <v>315</v>
       </c>
       <c r="C76" s="10" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="77" spans="1:3" s="9" customFormat="1">
@@ -5026,18 +5027,18 @@
     </row>
     <row r="115" spans="1:3" ht="30">
       <c r="A115" s="11" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="11" t="s">
+        <v>376</v>
+      </c>
+      <c r="C116" s="12" t="s">
         <v>377</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>378</v>
       </c>
     </row>
     <row r="117" spans="1:3">
@@ -5281,7 +5282,7 @@
   <dimension ref="A1:L25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="B18"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5389,7 +5390,7 @@
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1">
       <c r="A13" s="23" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B13" s="28"/>
     </row>
@@ -5401,12 +5402,12 @@
         <v>258</v>
       </c>
     </row>
-    <row r="15" spans="1:12">
+    <row r="15" spans="1:12" ht="30">
       <c r="A15" t="s">
         <v>228</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>319</v>
+        <v>427</v>
       </c>
     </row>
     <row r="18" spans="2:2">
@@ -6211,10 +6212,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
-  <dimension ref="A1:F62"/>
+  <dimension ref="A1:F59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A31" sqref="A31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6235,9 +6236,9 @@
       <c r="E1" s="57"/>
       <c r="F1" s="57"/>
     </row>
-    <row r="2" spans="1:6" s="12" customFormat="1" ht="90">
-      <c r="A2" s="74" t="s">
-        <v>418</v>
+    <row r="2" spans="1:6" s="12" customFormat="1">
+      <c r="A2" s="28" t="s">
+        <v>321</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -6246,8 +6247,8 @@
       <c r="F2" s="57"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
-      <c r="A3" s="25" t="s">
-        <v>395</v>
+      <c r="A3" s="28" t="s">
+        <v>322</v>
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -6256,6 +6257,9 @@
       <c r="F3" s="57"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
+      <c r="A4" s="28" t="s">
+        <v>323</v>
+      </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
       <c r="D4" s="57"/>
@@ -6263,8 +6267,8 @@
       <c r="F4" s="57"/>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
-      <c r="A5" s="28" t="s">
-        <v>322</v>
+      <c r="A5" s="10" t="s">
+        <v>324</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -6272,189 +6276,189 @@
       <c r="E5" s="57"/>
       <c r="F5" s="57"/>
     </row>
-    <row r="6" spans="1:6" s="12" customFormat="1">
+    <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="B6" s="57"/>
-      <c r="C6" s="57"/>
-      <c r="D6" s="57"/>
-      <c r="E6" s="57"/>
-      <c r="F6" s="57"/>
-    </row>
-    <row r="7" spans="1:6" s="12" customFormat="1">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>324</v>
-      </c>
-      <c r="B7" s="57"/>
-      <c r="C7" s="57"/>
-      <c r="D7" s="57"/>
-      <c r="E7" s="57"/>
-      <c r="F7" s="57"/>
-    </row>
-    <row r="8" spans="1:6" s="12" customFormat="1">
-      <c r="A8" s="10" t="s">
-        <v>325</v>
-      </c>
-      <c r="B8" s="57"/>
-      <c r="C8" s="57"/>
-      <c r="D8" s="57"/>
-      <c r="E8" s="57"/>
-      <c r="F8" s="57"/>
-    </row>
-    <row r="9" spans="1:6">
-      <c r="A9" s="28" t="s">
         <v>326</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" s="28" t="s">
+        <v>327</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>327</v>
+        <v>320</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
-      <c r="A13" s="28" t="s">
-        <v>321</v>
+        <v>365</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" s="28" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>367</v>
+        <v>380</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" s="12" t="s">
+        <v>381</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>365</v>
+        <v>367</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>381</v>
-      </c>
-    </row>
-    <row r="19" spans="1:1">
-      <c r="A19" s="74" t="s">
-        <v>382</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" ht="30">
+      <c r="A19" s="28" t="s">
+        <v>369</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="21" spans="1:1">
-      <c r="A21" s="28" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" ht="30">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="25" spans="1:1">
-      <c r="A25" s="28" t="s">
         <v>383</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1">
+      <c r="A24" s="28" t="s">
+        <v>422</v>
       </c>
     </row>
     <row r="26" spans="1:1">
       <c r="A26" s="28" t="s">
-        <v>384</v>
+        <v>423</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="28" t="s">
-        <v>424</v>
+        <v>384</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1">
+      <c r="A28" s="74" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="1:1">
-      <c r="A29" s="28" t="s">
-        <v>425</v>
+      <c r="A29" s="74" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="28" t="s">
-        <v>385</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1">
+      <c r="A30" s="74" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" ht="105">
       <c r="A31" s="74" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="74" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
-      <c r="A33" s="74" t="s">
-        <v>398</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6" ht="90">
-      <c r="A34" s="74" t="s">
-        <v>418</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
-      <c r="A35" s="25" t="s">
-        <v>395</v>
+      <c r="A32" s="25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
+      <c r="A34" s="28" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="30">
+      <c r="A35" s="28" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" ht="30">
+      <c r="A36" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" s="28" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="38" spans="1:6" ht="30">
       <c r="A38" s="28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="28" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="40" spans="1:6">
       <c r="A40" s="28" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6" ht="30">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
-      <c r="A43" s="28" t="s">
-        <v>428</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
-      <c r="A44" s="28" t="s">
-        <v>424</v>
-      </c>
+        <v>422</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="10" customFormat="1">
+      <c r="A44" s="10" t="s">
+        <v>355</v>
+      </c>
+      <c r="B44" s="93"/>
+      <c r="C44" s="93"/>
+      <c r="D44" s="93"/>
+      <c r="E44" s="93"/>
+      <c r="F44" s="93"/>
+    </row>
+    <row r="45" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A45" s="10" t="s">
+        <v>353</v>
+      </c>
+      <c r="B45" s="93"/>
+      <c r="C45" s="93"/>
+      <c r="D45" s="93"/>
+      <c r="E45" s="93"/>
+      <c r="F45" s="93"/>
+    </row>
+    <row r="46" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A46" s="10" t="s">
+        <v>346</v>
+      </c>
+      <c r="B46" s="93"/>
+      <c r="C46" s="93"/>
+      <c r="D46" s="93"/>
+      <c r="E46" s="93"/>
+      <c r="F46" s="93"/>
     </row>
     <row r="47" spans="1:6" s="10" customFormat="1">
       <c r="A47" s="10" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B47" s="93"/>
       <c r="C47" s="93"/>
@@ -6462,19 +6466,16 @@
       <c r="E47" s="93"/>
       <c r="F47" s="93"/>
     </row>
-    <row r="48" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A48" s="10" t="s">
-        <v>354</v>
-      </c>
+    <row r="48" spans="1:6" s="10" customFormat="1">
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
       <c r="F48" s="93"/>
     </row>
-    <row r="49" spans="1:6" s="10" customFormat="1" ht="30">
+    <row r="49" spans="1:6" s="10" customFormat="1">
       <c r="A49" s="10" t="s">
-        <v>347</v>
+        <v>351</v>
       </c>
       <c r="B49" s="93"/>
       <c r="C49" s="93"/>
@@ -6484,7 +6485,7 @@
     </row>
     <row r="50" spans="1:6" s="10" customFormat="1">
       <c r="A50" s="10" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
@@ -6492,7 +6493,10 @@
       <c r="E50" s="93"/>
       <c r="F50" s="93"/>
     </row>
-    <row r="51" spans="1:6" s="10" customFormat="1">
+    <row r="51" spans="1:6" s="10" customFormat="1" ht="30">
+      <c r="A51" s="10" t="s">
+        <v>357</v>
+      </c>
       <c r="B51" s="93"/>
       <c r="C51" s="93"/>
       <c r="D51" s="93"/>
@@ -6501,7 +6505,7 @@
     </row>
     <row r="52" spans="1:6" s="10" customFormat="1">
       <c r="A52" s="10" t="s">
-        <v>352</v>
+        <v>362</v>
       </c>
       <c r="B52" s="93"/>
       <c r="C52" s="93"/>
@@ -6509,9 +6513,9 @@
       <c r="E52" s="93"/>
       <c r="F52" s="93"/>
     </row>
-    <row r="53" spans="1:6" s="10" customFormat="1">
+    <row r="53" spans="1:6" s="10" customFormat="1" ht="45">
       <c r="A53" s="10" t="s">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
@@ -6519,64 +6523,34 @@
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
     </row>
-    <row r="54" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A54" s="10" t="s">
-        <v>358</v>
-      </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
-    </row>
-    <row r="55" spans="1:6" s="10" customFormat="1">
+    <row r="55" spans="1:6">
       <c r="A55" s="10" t="s">
-        <v>363</v>
-      </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
-    </row>
-    <row r="56" spans="1:6" s="10" customFormat="1" ht="45">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6">
       <c r="A56" s="10" t="s">
-        <v>359</v>
-      </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+        <v>356</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" ht="30">
+      <c r="A57" s="10" t="s">
+        <v>350</v>
+      </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" s="10" t="s">
-        <v>349</v>
+        <v>359</v>
       </c>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6" ht="30">
-      <c r="A60" s="10" t="s">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
-      <c r="A61" s="10" t="s">
-        <v>360</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
-      <c r="A62" s="10" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A35" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
+    <hyperlink ref="A32" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
     <hyperlink ref="A3" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{FE1719CB-348B-411F-8807-7C9D6C17EE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6604,132 +6578,132 @@
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A1" s="72" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B1" s="28" t="s">
+        <v>398</v>
+      </c>
+      <c r="C1" s="28" t="s">
         <v>399</v>
       </c>
-      <c r="C1" s="28" t="s">
-        <v>400</v>
-      </c>
       <c r="D1" s="28" t="s">
+        <v>419</v>
+      </c>
+      <c r="E1" s="28" t="s">
+        <v>418</v>
+      </c>
+      <c r="F1" s="28" t="s">
+        <v>420</v>
+      </c>
+      <c r="G1" s="28" t="s">
         <v>421</v>
       </c>
-      <c r="E1" s="28" t="s">
-        <v>420</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>422</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>423</v>
-      </c>
       <c r="H1" s="28" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C2" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C2" s="29" t="s">
-        <v>388</v>
-      </c>
       <c r="D2" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A3" s="75" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>386</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>387</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="G3" s="62" t="s">
         <v>387</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="H3" s="62" t="s">
         <v>387</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>389</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>388</v>
-      </c>
-      <c r="G3" s="62" t="s">
-        <v>388</v>
-      </c>
-      <c r="H3" s="62" t="s">
-        <v>388</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A4" s="75" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>390</v>
-      </c>
       <c r="G4" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="71" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -6737,119 +6711,119 @@
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1">
       <c r="A7" s="63" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B7" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C7" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="D7" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="E7" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="E7" s="65" t="s">
-        <v>405</v>
-      </c>
       <c r="F7" s="66" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="59" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B8" s="45" t="s">
+        <v>386</v>
+      </c>
+      <c r="C8" s="29" t="s">
         <v>387</v>
       </c>
-      <c r="C8" s="29" t="s">
-        <v>388</v>
-      </c>
       <c r="D8" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="60" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>388</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>389</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>390</v>
-      </c>
       <c r="F9" s="62" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="67" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" thickBot="1">
       <c r="A12" s="76" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B12" s="77" t="s">
+        <v>407</v>
+      </c>
+      <c r="C12" s="78" t="s">
         <v>408</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="D12" s="78" t="s">
         <v>409</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="E12" s="78" t="s">
         <v>410</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="F12" s="78" t="s">
         <v>411</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="G12" s="79" t="s">
         <v>412</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="H12" s="79" t="s">
         <v>413</v>
       </c>
-      <c r="H12" s="79" t="s">
-        <v>414</v>
-      </c>
       <c r="I12" s="79" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
@@ -6857,176 +6831,176 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="80" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B13" s="81" t="s">
+        <v>386</v>
+      </c>
+      <c r="C13" s="82" t="s">
+        <v>386</v>
+      </c>
+      <c r="D13" s="83" t="s">
         <v>387</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="E13" s="82" t="s">
         <v>387</v>
       </c>
-      <c r="D13" s="83" t="s">
-        <v>388</v>
-      </c>
-      <c r="E13" s="82" t="s">
-        <v>388</v>
-      </c>
       <c r="F13" s="83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="84" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C14" s="86" t="s">
         <v>229</v>
       </c>
       <c r="D14" s="87" t="s">
+        <v>386</v>
+      </c>
+      <c r="E14" s="86" t="s">
+        <v>388</v>
+      </c>
+      <c r="F14" s="88" t="s">
         <v>387</v>
-      </c>
-      <c r="E14" s="86" t="s">
-        <v>389</v>
-      </c>
-      <c r="F14" s="88" t="s">
-        <v>388</v>
       </c>
       <c r="G14" s="87" t="s">
         <v>229</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A15" s="84" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F15" s="87" t="s">
         <v>229</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="H15" s="87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1">
       <c r="A16" s="80" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E16" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="F16" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="G16" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="H16" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="G16" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="H16" s="91" t="s">
-        <v>390</v>
-      </c>
       <c r="I16" s="91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1">
       <c r="A17" s="92" t="s">
+        <v>385</v>
+      </c>
+      <c r="B17" s="89" t="s">
         <v>386</v>
       </c>
-      <c r="B17" s="89" t="s">
-        <v>387</v>
-      </c>
       <c r="C17" s="90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E17" s="90" t="s">
+        <v>388</v>
+      </c>
+      <c r="F17" s="91" t="s">
+        <v>388</v>
+      </c>
+      <c r="G17" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="H17" s="91" t="s">
         <v>389</v>
       </c>
-      <c r="G17" s="91" t="s">
-        <v>390</v>
-      </c>
-      <c r="H17" s="91" t="s">
-        <v>390</v>
-      </c>
       <c r="I17" s="91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="92" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="F18" s="91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="I18" s="91" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7089,132 +7063,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="47" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B1" s="44" t="s">
+        <v>344</v>
+      </c>
+      <c r="C1" s="42" t="s">
+        <v>340</v>
+      </c>
+      <c r="D1" s="42" t="s">
         <v>345</v>
       </c>
-      <c r="C1" s="42" t="s">
-        <v>341</v>
-      </c>
-      <c r="D1" s="42" t="s">
-        <v>346</v>
-      </c>
       <c r="E1" s="42" t="s">
+        <v>331</v>
+      </c>
+      <c r="F1" s="42" t="s">
+        <v>343</v>
+      </c>
+      <c r="G1" s="42" t="s">
         <v>332</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>344</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>333</v>
-      </c>
       <c r="H1" s="43" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="48" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="49" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B4" s="46" t="s">
+        <v>337</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>339</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>338</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>340</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>339</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H4" s="52" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="50" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>337</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>337</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>339</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="G5" s="54" t="s">
         <v>338</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>340</v>
-      </c>
-      <c r="F5" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="G5" s="54" t="s">
-        <v>339</v>
-      </c>
       <c r="H5" s="55" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" activeTab="4" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" activeTab="1" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="680" uniqueCount="429">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="437">
   <si>
     <t>Feature</t>
   </si>
@@ -508,9 +508,6 @@
   </si>
   <si>
     <t>make End optional, but must have either defined start and end, or defined start and any time allocation</t>
-  </si>
-  <si>
-    <t>CalObj.Split()</t>
   </si>
   <si>
     <t>pattern editor All/Any</t>
@@ -809,9 +806,6 @@
   </si>
   <si>
     <t>AllocateFiller()</t>
-  </si>
-  <si>
-    <t>Tasks have a CanFill option that will allow us to fill any unallocated time within its InclusionZones even after we've allocated all required resources. Mark this area as Unconfirmed.</t>
   </si>
   <si>
     <t>CheckIns</t>
@@ -1168,9 +1162,6 @@
     <t>If we do nothing about this, the user will have to confirm times that would otherwise be pushed out by something that could have been redistributed.</t>
   </si>
   <si>
-    <t>Redistributions</t>
-  </si>
-  <si>
     <t>A collision between two CO's is simple, but 3 or more becomes non-trivial and could cause Ping-Ponging and we need to come up with a better solution.</t>
   </si>
   <si>
@@ -1223,12 +1214,6 @@
   </si>
   <si>
     <t>After a collision between two objects where they become tangent, both remember each other from the direction it was placed. An object can remember two tangents, one for each side.</t>
-  </si>
-  <si>
-    <t>Collision Tests</t>
-  </si>
-  <si>
-    <t>To determine the outcome of a collision, we need to test a few things:</t>
   </si>
   <si>
     <t>Is C1.E🔒? Is C2.S🔒?</t>
@@ -1403,13 +1388,59 @@
     <t>If a Per has remaining &gt; 0, mark all of its CalObjs as Insufficient. If there are still collisions, mark them as Conflict. If there are any CalObjs that cross a zone boundary by more than MinDur, split it. Make sure states are correct: If a CalObj marked Unscheduled is within a proper InclusionZone, mark it correctly. If any CalObj not marked Unscheduled is outside of a proper InclusionZone, mark it Unscheduled.</t>
   </si>
   <si>
-    <t>In a Collision C1 ∩ C2, where C1.P &lt; C2.P: 
+    <t>Does C2 have room to be split and pushed left or right?</t>
+  </si>
+  <si>
+    <t>Does it make sense to split and will the split parts be large enough?</t>
+  </si>
+  <si>
+    <t>C1 locked or higher priority?</t>
+  </si>
+  <si>
+    <t>After deciding to split or delete, we are trying to change the collection, which is not allowed inside a loop. We need to immediately break the loop by returning from CalculateCollision(), add the changes to the collection, and call CalculateCollision() again.</t>
+  </si>
+  <si>
+    <t>We can't delete an insider if it has a lock.</t>
+  </si>
+  <si>
+    <t>In a collision C1 © C2:
+We will return the new CO or the CO to delete called RC.
+If C1 &gt; C2 or C1.S🔒 or C1.E🔒, Split C2 in the middle of C1: Find Middle of C1 called MDT. RC is new CO where RC.S is C2.S, RC.E is MDT. Set C2.S to MDT. Return Tuple(RC, NEW)
+Else RC = C1. Return Tuple(RC, DELETE)
+Stop the CalculateCollision() loop to modify the collection. Run CalculateCollision() again.
+Splits will be handled again in terms of intersection collisions.</t>
+  </si>
+  <si>
+    <t>smarter splitting</t>
+  </si>
+  <si>
+    <t>In a Collision C1 ∩ C2: 
 Find the left side data: Determine C1HasRoom.
 If C1.HasRoom == T, LC is the LT where LT.LT == null. LP = LC.P.
-Else If C1.HasRoom == F, LC is the nearest LT where LT.S🔒 or LT.Z.S &gt;=LT.S or LT.LT.E🔒. LP = C.P where C is the LT with the lowest priority from C1 to LC.
+Else If C1.HasRoom == F, LC is the nearest LT where LT.S🔒 or LT.Z.S &gt;=LT.S or LT.LT.E🔒. LP = WL.P where WL is the LT with the lowest priority from C1 to LC.
 Find the right side data: Determine C2HasRoom. Find RC. Find RP. 
 Determine collision result based on comparing C1HasRoom=T|F, C2HasRoom=T|F, and LP &gt;=|&lt; RP.
+If C1 is pushed, C1 can be pushed by MIN(C1.E - C2.S, C1.S - C1.Z.S, IF C1.HasRoom=T then LC.S - LC.Z.S, IF C1.HasRoom=F then WL.Duration)
+If C1 is shrunk, C1 can be shrunk by MIN(C1.E - C2.S, C1.Duration)
 Set Tangents.</t>
+  </si>
+  <si>
+    <t>Recalculate remaining allocations. Identify empty spaces. Figure out if we can add more time to insufficient tasks based on if any empty spaces intersect their InclusionZones. Add time within those intersections.</t>
+  </si>
+  <si>
+    <t>Tasks have a CanFill option that will allow us to fill any unallocated time within its InclusionZones even after we've allocated all required resources. Same procedure as above.</t>
+  </si>
+  <si>
+    <t>CheckIn CRUDs</t>
+  </si>
+  <si>
+    <t>Cancel CalObj</t>
+  </si>
+  <si>
+    <t>Not actually a CheckIn, but creates an End CheckIn at the start of the selected CalObj so that the CalObj takes up no time</t>
+  </si>
+  <si>
+    <t>Redistributions. If I want to do this, consider that collisions currently do not modify allocation.remaining, but instead handled in AllocateInsufficient().</t>
   </si>
 </sst>
 </file>
@@ -1987,7 +2018,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="95">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2201,16 +2232,258 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="123">
+  <dxfs count="81">
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
     <dxf>
       <fill>
         <patternFill>
@@ -2415,38 +2688,189 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
           <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -2677,404 +3101,55 @@
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.79998168889431442"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF33CC33"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFF3300"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
+      <font>
+        <strike/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
       <fill>
         <patternFill patternType="none">
           <fgColor indexed="64"/>
@@ -3082,45 +3157,6 @@
         </patternFill>
       </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3244,17 +3280,142 @@
       </border>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
       <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
         <right style="medium">
           <color indexed="64"/>
         </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
         <top/>
         <bottom/>
-        <vertical/>
-        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <name val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </font>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFCDF9FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+      </font>
+      <border>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <left style="thin">
+          <color auto="1"/>
+        </left>
+        <right style="thin">
+          <color auto="1"/>
+        </right>
+        <top style="thin">
+          <color auto="1"/>
+        </top>
+        <bottom style="thin">
+          <color auto="1"/>
+        </bottom>
       </border>
     </dxf>
     <dxf>
@@ -3315,304 +3476,18 @@
         </horizontal>
       </border>
     </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFCDF9FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-      </font>
-      <border>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border>
-        <left style="thin">
-          <color auto="1"/>
-        </left>
-        <right style="thin">
-          <color auto="1"/>
-        </right>
-        <top style="thin">
-          <color auto="1"/>
-        </top>
-        <bottom style="thin">
-          <color auto="1"/>
-        </bottom>
-      </border>
-    </dxf>
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="101"/>
-      <tableStyleElement type="headerRow" dxfId="100"/>
-      <tableStyleElement type="firstColumn" dxfId="99"/>
+      <tableStyleElement type="wholeTable" dxfId="80"/>
+      <tableStyleElement type="headerRow" dxfId="79"/>
+      <tableStyleElement type="firstColumn" dxfId="78"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="122"/>
-      <tableStyleElement type="headerRow" dxfId="121"/>
-      <tableStyleElement type="secondRowStripe" dxfId="120"/>
+      <tableStyleElement type="wholeTable" dxfId="77"/>
+      <tableStyleElement type="headerRow" dxfId="76"/>
+      <tableStyleElement type="secondRowStripe" dxfId="75"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3641,72 +3516,89 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C146" totalsRowShown="0">
-  <autoFilter ref="A1:C146" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C149" totalsRowShown="0">
+  <autoFilter ref="A1:C149" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="119"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="74"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="118"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A114" totalsRowShown="0" headerRowDxfId="117" dataDxfId="116">
-  <autoFilter ref="A1:A114" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
-  <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="115"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4DD08F2-9CC2-46CC-93EE-E01A4DBC8EEE}" name="Table5" displayName="Table5" ref="A1:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
+  <autoFilter ref="A1:H8" xr:uid="{9EF71295-67E3-4AA7-981B-99814F9C00D6}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{5F56F396-ECBF-4022-A747-BB6579150BC5}" name="Previous" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{52DF5424-7715-4094-9055-254252166B84}" name="N Start_x000a_in Z" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{4BF25F2B-3788-4EC0-877F-738CFB7416BD}" name="N End_x000a_in Z" dataDxfId="7"/>
+    <tableColumn id="4" xr3:uid="{3D1264CD-7DED-47FE-9A26-02FAA9BC34AE}" name="N Start_x000a_out Z" dataDxfId="6"/>
+    <tableColumn id="5" xr3:uid="{91478E3E-F2EC-42B9-9CAC-61EA2AD657CB}" name="N End_x000a_out Z" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{BD45968E-F796-4835-9D67-3627C99D24EC}" name="Z Start" dataDxfId="4"/>
+    <tableColumn id="7" xr3:uid="{3B4EE896-0831-43E7-8AE0-49A3476BEA97}" name="Z End" dataDxfId="3"/>
+    <tableColumn id="8" xr3:uid="{D4DAA8AA-8B7A-4978-8C26-61D2C9036856}" name="P End" dataDxfId="2"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="114" dataDxfId="112" headerRowBorderDxfId="113" tableBorderDxfId="111">
-  <autoFilter ref="A7:F10" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="110"/>
-    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="109"/>
-    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="108"/>
-    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="107"/>
-    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="106"/>
-    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="105"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A118" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+  <autoFilter ref="A1:A118" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
+  <tableColumns count="1">
+    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="70"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="27" dataDxfId="26" headerRowBorderDxfId="104" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
   <autoFilter ref="A12:I18" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="36"/>
-    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="35"/>
-    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="34"/>
-    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="33"/>
-    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="32"/>
-    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="31"/>
-    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="30"/>
-    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="29"/>
-    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="53"/>
+    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="52"/>
+    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="50"/>
+    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="49"/>
+    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="48"/>
+    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="102">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="46">
   <autoFilter ref="A1:H5" xr:uid="{3AB9159B-B403-4CC8-8649-2A74831EFA39}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="98"/>
-    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="97"/>
-    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="96"/>
-    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="95"/>
-    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="92"/>
-    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="94"/>
-    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="91"/>
-    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="93"/>
+    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+  <autoFilter ref="A7:F10" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="63"/>
+    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="62"/>
+    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="61"/>
+    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="60"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4009,10 +3901,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G149"/>
   <sheetViews>
-    <sheetView topLeftCell="A55" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76:C76"/>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="A78" sqref="A78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4566,7 +4458,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -4575,7 +4467,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>23</v>
@@ -4584,13 +4476,13 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
+        <v>211</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>212</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4601,56 +4493,56 @@
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="25" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="25" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -4659,7 +4551,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -4668,7 +4560,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -4677,7 +4569,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -4686,7 +4578,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -4695,7 +4587,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -4704,562 +4596,593 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="25" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>424</v>
+        <v>313</v>
       </c>
       <c r="B73" s="13"/>
-      <c r="C73" s="12"/>
+      <c r="C73" s="12" t="s">
+        <v>436</v>
+      </c>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="B74" s="13"/>
+        <v>420</v>
+      </c>
+      <c r="B74" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C74" s="12"/>
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>203</v>
+        <v>420</v>
       </c>
       <c r="B75" s="13"/>
-      <c r="C75" s="12"/>
+      <c r="C75" s="12" t="s">
+        <v>429</v>
+      </c>
     </row>
     <row r="76" spans="1:3" s="9" customFormat="1">
-      <c r="A76" s="94" t="s">
-        <v>315</v>
-      </c>
-      <c r="C76" s="10" t="s">
-        <v>363</v>
-      </c>
+      <c r="A76" s="11" t="s">
+        <v>419</v>
+      </c>
+      <c r="B76" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C76" s="12"/>
     </row>
     <row r="77" spans="1:3" s="9" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>257</v>
-      </c>
-      <c r="B77" s="13"/>
+        <v>202</v>
+      </c>
+      <c r="B77" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C77" s="12"/>
     </row>
-    <row r="78" spans="1:3" s="13" customFormat="1">
+    <row r="78" spans="1:3" s="9" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>228</v>
-      </c>
+        <v>359</v>
+      </c>
+      <c r="B78" s="13"/>
       <c r="C78" s="12"/>
     </row>
-    <row r="79" spans="1:3" s="13" customFormat="1">
+    <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>159</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="B79" s="13"/>
       <c r="C79" s="12"/>
     </row>
-    <row r="80" spans="1:3" s="13" customFormat="1" ht="30">
+    <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>256</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>255</v>
-      </c>
+        <v>227</v>
+      </c>
+      <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>211</v>
-      </c>
+        <v>433</v>
+      </c>
+      <c r="C81" s="12"/>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B82" s="3"/>
+        <v>434</v>
+      </c>
       <c r="C82" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="13" customFormat="1">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A83" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B83" s="3"/>
+        <v>255</v>
+      </c>
       <c r="C83" s="12" t="s">
-        <v>230</v>
+        <v>254</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>195</v>
+        <v>125</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>196</v>
+        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="C85" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="B85" s="3"/>
+      <c r="C85" s="12" t="s">
+        <v>203</v>
+      </c>
     </row>
     <row r="86" spans="1:3" s="13" customFormat="1">
       <c r="A86" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C86" s="12"/>
+        <v>105</v>
+      </c>
+      <c r="B86" s="3"/>
+      <c r="C86" s="12" t="s">
+        <v>229</v>
+      </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
       <c r="A87" s="11" t="s">
+        <v>194</v>
+      </c>
+      <c r="C87" s="12" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="88" spans="1:3" s="13" customFormat="1">
+      <c r="A88" s="11" t="s">
+        <v>196</v>
+      </c>
+      <c r="C88" s="12"/>
+    </row>
+    <row r="89" spans="1:3" s="13" customFormat="1">
+      <c r="A89" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C89" s="12"/>
+    </row>
+    <row r="90" spans="1:3" s="13" customFormat="1">
+      <c r="A90" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C87" s="12" t="s">
+      <c r="C90" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="88" spans="1:3">
-      <c r="A88" s="2" t="s">
+    <row r="91" spans="1:3">
+      <c r="A91" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C88" s="4" t="s">
+      <c r="C91" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="89" spans="1:3">
-      <c r="A89" s="11" t="s">
-        <v>207</v>
-      </c>
-      <c r="B89" s="13"/>
-      <c r="C89" s="12"/>
-    </row>
-    <row r="90" spans="1:3">
-      <c r="A90" s="11" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="11" t="s">
+        <v>206</v>
+      </c>
+      <c r="B92" s="13"/>
+      <c r="C92" s="12"/>
+    </row>
+    <row r="93" spans="1:3">
+      <c r="A93" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="11" t="s">
+    <row r="94" spans="1:3">
+      <c r="A94" s="11" t="s">
+        <v>160</v>
+      </c>
+      <c r="C94" s="12" t="s">
         <v>161</v>
       </c>
-      <c r="C91" s="12" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="C95" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="11" t="s">
-        <v>222</v>
-      </c>
-      <c r="C95" s="12" t="s">
-        <v>223</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="30">
-      <c r="A97" s="11" t="s">
-        <v>316</v>
-      </c>
-      <c r="C97" s="12" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
+    <row r="100" spans="1:3" ht="30">
+      <c r="A100" s="11" t="s">
+        <v>314</v>
+      </c>
+      <c r="C100" s="12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="11" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C99" s="12" t="s">
+      <c r="C102" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="11" t="s">
+    <row r="103" spans="1:3">
+      <c r="A103" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C103" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="11" t="s">
+    <row r="104" spans="1:3">
+      <c r="A104" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C101" s="12" t="s">
+      <c r="C104" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C103" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C104" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="107" spans="1:3">
-      <c r="A107" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>226</v>
+      <c r="A107" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C107" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>79</v>
+      <c r="A108" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C108" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="109" spans="1:3">
       <c r="A109" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
-        <v>33</v>
+      <c r="A110" s="11" t="s">
+        <v>224</v>
       </c>
       <c r="C110" s="12" t="s">
-        <v>34</v>
+        <v>225</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="11" t="s">
-        <v>125</v>
+      <c r="A111" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C111" s="12" t="s">
-        <v>206</v>
+        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3" ht="30">
-      <c r="A113" s="11" t="s">
-        <v>142</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3">
+      <c r="A113" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C113" s="12" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
-      <c r="A115" s="11" t="s">
-        <v>375</v>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3">
+      <c r="A115" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3" ht="30">
       <c r="A116" s="11" t="s">
-        <v>376</v>
+        <v>142</v>
       </c>
       <c r="C116" s="12" t="s">
-        <v>377</v>
+        <v>141</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="11" t="s">
+        <v>144</v>
+      </c>
+      <c r="C117" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="118" spans="1:3" ht="30">
+      <c r="A118" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C118" s="12" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="11" t="s">
+        <v>373</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="11" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11" t="s">
+    <row r="121" spans="1:3">
+      <c r="A121" s="11" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
+    <row r="122" spans="1:3">
+      <c r="A122" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="C119" s="4" t="s">
+      <c r="C122" s="4" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="120" spans="1:3">
-      <c r="A120" s="2" t="s">
+    <row r="123" spans="1:3">
+      <c r="A123" s="2" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="121" spans="1:3">
-      <c r="A121" s="2" t="s">
+    <row r="124" spans="1:3">
+      <c r="A124" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C121" s="12" t="s">
+      <c r="C124" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="11" t="s">
-        <v>227</v>
-      </c>
-      <c r="C122" s="12"/>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C123" s="12"/>
-    </row>
-    <row r="124" spans="1:3">
-      <c r="A124" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C124" s="12"/>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="11" t="s">
+        <v>226</v>
+      </c>
+      <c r="C125" s="12"/>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C126" s="12"/>
+    </row>
+    <row r="127" spans="1:3">
+      <c r="A127" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C127" s="12"/>
+    </row>
+    <row r="128" spans="1:3">
+      <c r="A128" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C125" s="12"/>
-    </row>
-    <row r="126" spans="1:3" ht="30">
-      <c r="A126" s="11" t="s">
+      <c r="C128" s="12"/>
+    </row>
+    <row r="129" spans="1:3" ht="30">
+      <c r="A129" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B126" s="13"/>
-      <c r="C126" s="12" t="s">
+      <c r="B129" s="13"/>
+      <c r="C129" s="12" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="127" spans="1:3">
-      <c r="A127" s="2" t="s">
+    <row r="130" spans="1:3">
+      <c r="A130" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="C127" s="4" t="s">
+      <c r="C130" s="4" t="s">
         <v>75</v>
-      </c>
-    </row>
-    <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C129" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C130" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C131" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="11" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C135" s="12" t="s">
         <v>209</v>
-      </c>
-      <c r="C132" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3" s="9" customFormat="1">
-      <c r="A134" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B134" s="3"/>
-      <c r="C134" s="4"/>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3" s="9" customFormat="1">
+      <c r="A137" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="B137" s="3"/>
+      <c r="C137" s="4"/>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C139" s="12" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="140" spans="1:3">
       <c r="A140" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B140" s="13"/>
+        <v>106</v>
+      </c>
       <c r="C140" s="12" t="s">
-        <v>146</v>
+        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B141" s="13"/>
+        <v>120</v>
+      </c>
       <c r="C141" s="12" t="s">
-        <v>152</v>
+        <v>121</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B142" s="13"/>
+        <v>137</v>
+      </c>
       <c r="C142" s="12" t="s">
-        <v>154</v>
+        <v>138</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="11" t="s">
-        <v>234</v>
+        <v>145</v>
       </c>
       <c r="B143" s="13"/>
       <c r="C143" s="12" t="s">
-        <v>235</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="30">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
       <c r="A144" s="11" t="s">
-        <v>241</v>
+        <v>151</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="12" t="s">
-        <v>242</v>
+        <v>152</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="11" t="s">
-        <v>243</v>
-      </c>
+        <v>153</v>
+      </c>
+      <c r="B145" s="13"/>
       <c r="C145" s="12" t="s">
-        <v>244</v>
+        <v>154</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="11" t="s">
-        <v>273</v>
-      </c>
+        <v>233</v>
+      </c>
+      <c r="B146" s="13"/>
       <c r="C146" s="12" t="s">
-        <v>274</v>
+        <v>234</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3" ht="30">
+      <c r="A147" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B147" s="13"/>
+      <c r="C147" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
+      <c r="A148" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3">
+      <c r="A149" s="11" t="s">
+        <v>271</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>272</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5281,8 +5204,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
   <dimension ref="A1:L25"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5294,7 +5217,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5310,144 +5233,146 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>199</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
+        <v>247</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>248</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1">
       <c r="A13" s="23" t="s">
-        <v>361</v>
-      </c>
-      <c r="B13" s="28"/>
+        <v>359</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>431</v>
+      </c>
     </row>
     <row r="14" spans="1:12" s="23" customFormat="1">
       <c r="A14" s="23" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B14" s="24" t="s">
-        <v>258</v>
+        <v>432</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="30">
       <c r="A15" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B15" s="15" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:2">
       <c r="B21" s="15" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="45">
       <c r="B22" s="10" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="30">
       <c r="B24" s="10" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="25" spans="2:2" ht="45">
       <c r="B25" s="15" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
   </sheetData>
@@ -5477,236 +5402,236 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
+        <v>163</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>207</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>164</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>165</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B3" s="31" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="B4" s="32" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="B5" s="33" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B6" s="34" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B7" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B8" s="36" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="B9" s="37" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="B10" s="38" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
+        <v>189</v>
+      </c>
+      <c r="B11" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>190</v>
       </c>
-      <c r="B11" s="39" t="s">
-        <v>182</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>191</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B12" s="40" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="B13" s="41" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="30" customFormat="1">
       <c r="A21" s="30" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="30" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5729,12 +5654,12 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="D12" sqref="D12"/>
+      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="8.7109375" style="26" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.85546875" style="26" customWidth="1"/>
     <col min="2" max="3" width="22" style="26" customWidth="1"/>
     <col min="4" max="4" width="24.85546875" style="26" customWidth="1"/>
     <col min="5" max="5" width="24.140625" style="26" customWidth="1"/>
@@ -5745,223 +5670,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A1" s="47" t="s">
-        <v>288</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="63" t="s">
+        <v>286</v>
+      </c>
+      <c r="B1" s="64" t="s">
+        <v>291</v>
+      </c>
+      <c r="C1" s="65" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="65" t="s">
         <v>293</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="E1" s="65" t="s">
         <v>294</v>
       </c>
-      <c r="D1" s="42" t="s">
-        <v>295</v>
-      </c>
-      <c r="E1" s="42" t="s">
+      <c r="F1" s="65" t="s">
+        <v>284</v>
+      </c>
+      <c r="G1" s="65" t="s">
+        <v>285</v>
+      </c>
+      <c r="H1" s="66" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="59" t="s">
+        <v>291</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>316</v>
+      </c>
+      <c r="C2" s="29" t="s">
+        <v>298</v>
+      </c>
+      <c r="D2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="F2" s="29" t="s">
+        <v>228</v>
+      </c>
+      <c r="G2" s="29" t="s">
         <v>296</v>
       </c>
-      <c r="F1" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G1" s="42" t="s">
-        <v>287</v>
-      </c>
-      <c r="H1" s="43" t="s">
-        <v>285</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="48" t="s">
-        <v>293</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>318</v>
-      </c>
-      <c r="C2" s="29" t="s">
-        <v>300</v>
-      </c>
-      <c r="D2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="E2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="F2" s="29" t="s">
-        <v>229</v>
-      </c>
-      <c r="G2" s="29" t="s">
-        <v>298</v>
-      </c>
-      <c r="H2" s="51" t="s">
-        <v>229</v>
+      <c r="H2" s="61" t="s">
+        <v>228</v>
       </c>
       <c r="I2" s="26"/>
       <c r="J2" s="26"/>
     </row>
     <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="49" t="s">
-        <v>294</v>
+      <c r="A3" s="60" t="s">
+        <v>292</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>295</v>
+      </c>
+      <c r="C3" s="19" t="s">
         <v>297</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>299</v>
-      </c>
       <c r="D3" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H3" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="H3" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="I3" s="26"/>
       <c r="J3" s="26"/>
     </row>
     <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="49" t="s">
-        <v>295</v>
+      <c r="A4" s="60" t="s">
+        <v>293</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>305</v>
+        <v>228</v>
+      </c>
+      <c r="H4" s="62" t="s">
+        <v>303</v>
       </c>
       <c r="I4" s="26"/>
       <c r="J4" s="26"/>
     </row>
     <row r="5" spans="1:10" ht="60">
-      <c r="A5" s="49" t="s">
-        <v>296</v>
+      <c r="A5" s="60" t="s">
+        <v>294</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H5" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="H5" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="I5" s="26"/>
       <c r="J5" s="26"/>
     </row>
     <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="49" t="s">
-        <v>286</v>
+      <c r="A6" s="60" t="s">
+        <v>284</v>
       </c>
       <c r="B6" s="46" t="s">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H6" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="H6" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="I6" s="26"/>
       <c r="J6" s="26"/>
     </row>
     <row r="7" spans="1:10" ht="60">
-      <c r="A7" s="49" t="s">
-        <v>287</v>
+      <c r="A7" s="60" t="s">
+        <v>285</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>229</v>
-      </c>
-      <c r="H7" s="52" t="s">
-        <v>229</v>
+        <v>228</v>
+      </c>
+      <c r="H7" s="62" t="s">
+        <v>228</v>
       </c>
       <c r="I7" s="26"/>
       <c r="J7" s="26"/>
     </row>
-    <row r="8" spans="1:10" ht="60.75" thickBot="1">
-      <c r="A8" s="50" t="s">
-        <v>284</v>
-      </c>
-      <c r="B8" s="53" t="s">
-        <v>229</v>
-      </c>
-      <c r="C8" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="D8" s="54" t="s">
-        <v>253</v>
-      </c>
-      <c r="E8" s="54" t="s">
-        <v>303</v>
-      </c>
-      <c r="F8" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="G8" s="54" t="s">
-        <v>229</v>
-      </c>
-      <c r="H8" s="55" t="s">
-        <v>229</v>
+    <row r="8" spans="1:10" ht="60">
+      <c r="A8" s="67" t="s">
+        <v>282</v>
+      </c>
+      <c r="B8" s="68" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="D8" s="69" t="s">
+        <v>252</v>
+      </c>
+      <c r="E8" s="69" t="s">
+        <v>301</v>
+      </c>
+      <c r="F8" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="G8" s="69" t="s">
+        <v>228</v>
+      </c>
+      <c r="H8" s="70" t="s">
+        <v>228</v>
       </c>
       <c r="I8" s="26"/>
       <c r="J8" s="26"/>
@@ -6183,39 +6108,42 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="cancel">
+    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="cancel">
       <formula>NOT(ISERROR(SEARCH("cancel",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="pN = N">
+    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="pN = N">
       <formula>NOT(ISERROR(SEARCH("pN = N",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="unscheduled">
+    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="unscheduled">
       <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="confirm">
+    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="confirm">
       <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
-  <dimension ref="A1:F59"/>
+  <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A31" sqref="A31"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6228,7 +6156,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B1" s="57"/>
       <c r="C1" s="57"/>
@@ -6238,7 +6166,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="28" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B2" s="57"/>
       <c r="C2" s="57"/>
@@ -6248,7 +6176,7 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="28" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B3" s="57"/>
       <c r="C3" s="57"/>
@@ -6258,7 +6186,7 @@
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
       <c r="A4" s="28" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B4" s="57"/>
       <c r="C4" s="57"/>
@@ -6268,7 +6196,7 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B5" s="57"/>
       <c r="C5" s="57"/>
@@ -6278,203 +6206,186 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="28" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="28" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="28" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="28" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="28" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="28" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="28" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="28" t="s">
-        <v>380</v>
+        <v>377</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>381</v>
+        <v>378</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="28" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="28" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="28" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="28" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="28" t="s">
-        <v>382</v>
+        <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="28" t="s">
-        <v>383</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24" spans="1:1">
-      <c r="A24" s="28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1">
+      <c r="A24" s="10" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1">
+      <c r="A25" s="8" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" ht="30">
       <c r="A26" s="28" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="28" t="s">
-        <v>384</v>
-      </c>
-    </row>
-    <row r="28" spans="1:1">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" ht="90">
       <c r="A28" s="74" t="s">
-        <v>395</v>
-      </c>
-    </row>
-    <row r="29" spans="1:1">
-      <c r="A29" s="74" t="s">
-        <v>396</v>
+        <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="74" t="s">
-        <v>397</v>
-      </c>
-    </row>
-    <row r="31" spans="1:1" ht="105">
-      <c r="A31" s="74" t="s">
-        <v>428</v>
+      <c r="A30" s="28" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1">
+      <c r="A31" s="28" t="s">
+        <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="25" t="s">
-        <v>394</v>
+      <c r="A32" s="74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="74" t="s">
+        <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="28" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6" ht="30">
-      <c r="A35" s="28" t="s">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="36" spans="1:6" ht="30">
-      <c r="A36" s="28" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
-      <c r="A37" s="28" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="38" spans="1:6" ht="30">
+      <c r="A34" s="74" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" ht="135">
+      <c r="A35" s="74" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6">
+      <c r="A36" s="25" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6">
       <c r="A38" s="28" t="s">
-        <v>378</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" ht="30">
+      <c r="A39" s="28" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" ht="30">
       <c r="A40" s="28" t="s">
-        <v>426</v>
+        <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="28" t="s">
-        <v>422</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6" s="10" customFormat="1">
-      <c r="A44" s="10" t="s">
-        <v>355</v>
-      </c>
-      <c r="B44" s="93"/>
-      <c r="C44" s="93"/>
-      <c r="D44" s="93"/>
-      <c r="E44" s="93"/>
-      <c r="F44" s="93"/>
-    </row>
-    <row r="45" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A45" s="10" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" ht="30">
+      <c r="A42" s="28" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6">
+      <c r="A44" s="28" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6">
+      <c r="A45" s="28" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1">
+      <c r="A48" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B45" s="93"/>
-      <c r="C45" s="93"/>
-      <c r="D45" s="93"/>
-      <c r="E45" s="93"/>
-      <c r="F45" s="93"/>
-    </row>
-    <row r="46" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A46" s="10" t="s">
-        <v>346</v>
-      </c>
-      <c r="B46" s="93"/>
-      <c r="C46" s="93"/>
-      <c r="D46" s="93"/>
-      <c r="E46" s="93"/>
-      <c r="F46" s="93"/>
-    </row>
-    <row r="47" spans="1:6" s="10" customFormat="1">
-      <c r="A47" s="10" t="s">
-        <v>354</v>
-      </c>
-      <c r="B47" s="93"/>
-      <c r="C47" s="93"/>
-      <c r="D47" s="93"/>
-      <c r="E47" s="93"/>
-      <c r="F47" s="93"/>
-    </row>
-    <row r="48" spans="1:6" s="10" customFormat="1">
       <c r="B48" s="93"/>
       <c r="C48" s="93"/>
       <c r="D48" s="93"/>
       <c r="E48" s="93"/>
       <c r="F48" s="93"/>
     </row>
-    <row r="49" spans="1:6" s="10" customFormat="1">
-      <c r="A49" s="10" t="s">
+    <row r="49" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A49" s="8" t="s">
         <v>351</v>
       </c>
       <c r="B49" s="93"/>
@@ -6483,9 +6394,9 @@
       <c r="E49" s="93"/>
       <c r="F49" s="93"/>
     </row>
-    <row r="50" spans="1:6" s="10" customFormat="1">
-      <c r="A50" s="10" t="s">
-        <v>352</v>
+    <row r="50" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A50" s="8" t="s">
+        <v>344</v>
       </c>
       <c r="B50" s="93"/>
       <c r="C50" s="93"/>
@@ -6493,9 +6404,9 @@
       <c r="E50" s="93"/>
       <c r="F50" s="93"/>
     </row>
-    <row r="51" spans="1:6" s="10" customFormat="1" ht="30">
-      <c r="A51" s="10" t="s">
-        <v>357</v>
+    <row r="51" spans="1:6" s="8" customFormat="1">
+      <c r="A51" s="8" t="s">
+        <v>352</v>
       </c>
       <c r="B51" s="93"/>
       <c r="C51" s="93"/>
@@ -6503,19 +6414,16 @@
       <c r="E51" s="93"/>
       <c r="F51" s="93"/>
     </row>
-    <row r="52" spans="1:6" s="10" customFormat="1">
-      <c r="A52" s="10" t="s">
-        <v>362</v>
-      </c>
+    <row r="52" spans="1:6" s="8" customFormat="1">
       <c r="B52" s="93"/>
       <c r="C52" s="93"/>
       <c r="D52" s="93"/>
       <c r="E52" s="93"/>
       <c r="F52" s="93"/>
     </row>
-    <row r="53" spans="1:6" s="10" customFormat="1" ht="45">
-      <c r="A53" s="10" t="s">
-        <v>358</v>
+    <row r="53" spans="1:6" s="8" customFormat="1">
+      <c r="A53" s="8" t="s">
+        <v>349</v>
       </c>
       <c r="B53" s="93"/>
       <c r="C53" s="93"/>
@@ -6523,34 +6431,74 @@
       <c r="E53" s="93"/>
       <c r="F53" s="93"/>
     </row>
-    <row r="55" spans="1:6">
-      <c r="A55" s="10" t="s">
-        <v>348</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
-      <c r="A56" s="10" t="s">
+    <row r="54" spans="1:6" s="8" customFormat="1">
+      <c r="A54" s="8" t="s">
+        <v>350</v>
+      </c>
+      <c r="B54" s="93"/>
+      <c r="C54" s="93"/>
+      <c r="D54" s="93"/>
+      <c r="E54" s="93"/>
+      <c r="F54" s="93"/>
+    </row>
+    <row r="55" spans="1:6" s="8" customFormat="1" ht="30">
+      <c r="A55" s="8" t="s">
+        <v>355</v>
+      </c>
+      <c r="B55" s="93"/>
+      <c r="C55" s="93"/>
+      <c r="D55" s="93"/>
+      <c r="E55" s="93"/>
+      <c r="F55" s="93"/>
+    </row>
+    <row r="56" spans="1:6" s="8" customFormat="1">
+      <c r="A56" s="8" t="s">
+        <v>360</v>
+      </c>
+      <c r="B56" s="93"/>
+      <c r="C56" s="93"/>
+      <c r="D56" s="93"/>
+      <c r="E56" s="93"/>
+      <c r="F56" s="93"/>
+    </row>
+    <row r="57" spans="1:6" s="8" customFormat="1" ht="45">
+      <c r="A57" s="8" t="s">
         <v>356</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" ht="30">
-      <c r="A57" s="10" t="s">
-        <v>350</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
-      <c r="A58" s="10" t="s">
-        <v>359</v>
-      </c>
+      <c r="B57" s="93"/>
+      <c r="C57" s="93"/>
+      <c r="D57" s="93"/>
+      <c r="E57" s="93"/>
+      <c r="F57" s="93"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>349</v>
+        <v>346</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6">
+      <c r="A60" s="10" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" ht="30">
+      <c r="A61" s="10" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6">
+      <c r="A62" s="10" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6">
+      <c r="A63" s="10" t="s">
+        <v>347</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A32" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
+    <hyperlink ref="A36" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{4BBF8F46-F289-4BB6-BE2C-785469A39422}"/>
     <hyperlink ref="A3" location="Collisions2!B2" display="Based on these tests, we use the table in Collisions2" xr:uid="{FE1719CB-348B-411F-8807-7C9D6C17EE19}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -6566,7 +6514,7 @@
   <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15"/>
@@ -6578,252 +6526,259 @@
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A1" s="72" t="s">
+        <v>388</v>
+      </c>
+      <c r="B1" s="28" t="s">
         <v>393</v>
       </c>
-      <c r="B1" s="28" t="s">
-        <v>398</v>
-      </c>
       <c r="C1" s="28" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="D1" s="28" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
       <c r="E1" s="28" t="s">
-        <v>418</v>
+        <v>413</v>
       </c>
       <c r="F1" s="28" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
       <c r="G1" s="28" t="s">
-        <v>421</v>
+        <v>416</v>
       </c>
       <c r="H1" s="28" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1">
       <c r="A2" s="75" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G2" s="61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H2" s="61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A3" s="75" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G3" s="62" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H3" s="62" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A4" s="75" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
       <c r="B4" s="46" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="G4" s="62" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H4" s="62" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="71" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B5" s="68" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C5" s="69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D5" s="69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E5" s="69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F5" s="69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="G5" s="70" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H5" s="70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" s="73"/>
+      <c r="B6" s="56"/>
+      <c r="C6" s="56"/>
+      <c r="D6" s="56"/>
+      <c r="E6" s="56"/>
+      <c r="F6" s="56"/>
+      <c r="G6" s="56"/>
+      <c r="H6" s="56"/>
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1">
       <c r="A7" s="63" t="s">
-        <v>390</v>
+        <v>385</v>
       </c>
       <c r="B7" s="64" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>402</v>
+        <v>397</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>404</v>
+        <v>399</v>
       </c>
       <c r="F7" s="66" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="H7" s="56"/>
       <c r="I7" s="56"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="59" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C8" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="D8" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E8" s="29" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F8" s="61" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H8" s="56"/>
       <c r="I8" s="56"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="60" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="F9" s="62" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H9" s="56"/>
       <c r="I9" s="56"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="67" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B10" s="68" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C10" s="69" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D10" s="69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="E10" s="69" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F10" s="70" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="H10" s="56"/>
       <c r="I10" s="56"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" thickBot="1">
       <c r="A12" s="76" t="s">
-        <v>391</v>
+        <v>386</v>
       </c>
       <c r="B12" s="77" t="s">
+        <v>402</v>
+      </c>
+      <c r="C12" s="78" t="s">
+        <v>403</v>
+      </c>
+      <c r="D12" s="78" t="s">
+        <v>404</v>
+      </c>
+      <c r="E12" s="78" t="s">
+        <v>405</v>
+      </c>
+      <c r="F12" s="78" t="s">
+        <v>406</v>
+      </c>
+      <c r="G12" s="79" t="s">
         <v>407</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="H12" s="79" t="s">
         <v>408</v>
       </c>
-      <c r="D12" s="78" t="s">
-        <v>409</v>
-      </c>
-      <c r="E12" s="78" t="s">
-        <v>410</v>
-      </c>
-      <c r="F12" s="78" t="s">
-        <v>411</v>
-      </c>
-      <c r="G12" s="79" t="s">
-        <v>412</v>
-      </c>
-      <c r="H12" s="79" t="s">
-        <v>413</v>
-      </c>
       <c r="I12" s="79" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="J12" s="58"/>
       <c r="K12" s="56"/>
@@ -6831,205 +6786,205 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="80" t="s">
-        <v>414</v>
+        <v>409</v>
       </c>
       <c r="B13" s="81" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C13" s="82" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D13" s="83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="E13" s="82" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="F13" s="83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G13" s="83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="H13" s="83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I13" s="83" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="84" t="s">
-        <v>415</v>
+        <v>410</v>
       </c>
       <c r="B14" s="85" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C14" s="86" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D14" s="87" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E14" s="86" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F14" s="88" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="G14" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="H14" s="88" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
       <c r="I14" s="88" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A15" s="84" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
       <c r="B15" s="85" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C15" s="86" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D15" s="87" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E15" s="86" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F15" s="87" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="G15" s="87" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H15" s="87" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I15" s="87" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1">
       <c r="A16" s="80" t="s">
-        <v>392</v>
+        <v>387</v>
       </c>
       <c r="B16" s="89" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D16" s="91" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E16" s="90" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F16" s="91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G16" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H16" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I16" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1">
       <c r="A17" s="92" t="s">
-        <v>385</v>
+        <v>380</v>
       </c>
       <c r="B17" s="89" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C17" s="90" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D17" s="91" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E17" s="90" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F17" s="91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G17" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="H17" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
       <c r="I17" s="91" t="s">
-        <v>389</v>
+        <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="92" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B18" s="89" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="C18" s="90" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="D18" s="91" t="s">
-        <v>386</v>
+        <v>381</v>
       </c>
       <c r="E18" s="90" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="F18" s="91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="G18" s="91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="H18" s="91" t="s">
-        <v>388</v>
+        <v>383</v>
       </c>
       <c r="I18" s="91" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:9">
       <c r="F20" s="28"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:F10 B13:I18 B2:H5">
-    <cfRule type="containsText" dxfId="17" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+  <conditionalFormatting sqref="B8:F10 B13:I18 B2:H6">
+    <cfRule type="containsText" dxfId="29" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="36" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+    <cfRule type="containsText" dxfId="28" priority="36" stopIfTrue="1" operator="containsText" text="C2 Shrink">
       <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="38" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+    <cfRule type="containsText" dxfId="27" priority="38" stopIfTrue="1" operator="containsText" text="C1 ReDist">
       <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="39" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+    <cfRule type="containsText" dxfId="26" priority="39" stopIfTrue="1" operator="containsText" text="C2 ReDist">
       <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="40" stopIfTrue="1" operator="containsText" text="C1 Push">
+    <cfRule type="containsText" dxfId="25" priority="40" stopIfTrue="1" operator="containsText" text="C1 Push">
       <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="41" stopIfTrue="1" operator="containsText" text="C2 Push">
+    <cfRule type="containsText" dxfId="24" priority="41" stopIfTrue="1" operator="containsText" text="C2 Push">
       <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="43" stopIfTrue="1" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="23" priority="43" stopIfTrue="1" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="22" priority="44" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7063,132 +7018,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="47" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B1" s="44" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="C1" s="42" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="D1" s="42" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="E1" s="42" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="F1" s="42" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="G1" s="42" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="H1" s="43" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="48" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="C2" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="D2" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="E2" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="F2" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="G2" s="29" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="H2" s="51" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="49" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B3" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D3" s="19" t="s">
         <v>337</v>
       </c>
-      <c r="C3" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>339</v>
-      </c>
       <c r="E3" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="H3" s="52" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="49" t="s">
+        <v>332</v>
+      </c>
+      <c r="B4" s="46" t="s">
+        <v>335</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>335</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>337</v>
+      </c>
+      <c r="F4" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="B4" s="46" t="s">
-        <v>337</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>339</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>338</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="H4" s="52" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="15.75" thickBot="1">
       <c r="A5" s="50" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B5" s="53" t="s">
+        <v>335</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>335</v>
+      </c>
+      <c r="D5" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="E5" s="54" t="s">
         <v>337</v>
       </c>
-      <c r="D5" s="54" t="s">
-        <v>339</v>
-      </c>
-      <c r="E5" s="54" t="s">
-        <v>339</v>
-      </c>
       <c r="F5" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="G5" s="54" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="H5" s="55" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7202,36 +7157,36 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:D7 A8 A1:H5">
-    <cfRule type="containsText" dxfId="9" priority="14" stopIfTrue="1" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="21" priority="14" stopIfTrue="1" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7 B2:H5">
-    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
+    <cfRule type="containsText" dxfId="19" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
       <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
+    <cfRule type="containsText" dxfId="18" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
       <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+    <cfRule type="containsText" dxfId="17" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
       <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+    <cfRule type="containsText" dxfId="16" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+    <cfRule type="containsText" dxfId="15" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
       <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+    <cfRule type="containsText" dxfId="14" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
       <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
+    <cfRule type="containsText" dxfId="13" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
       <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
+    <cfRule type="containsText" dxfId="12" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
       <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" activeTab="1" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="693" uniqueCount="437">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="440">
   <si>
     <t>Feature</t>
   </si>
@@ -1425,12 +1425,6 @@
 Set Tangents.</t>
   </si>
   <si>
-    <t>Recalculate remaining allocations. Identify empty spaces. Figure out if we can add more time to insufficient tasks based on if any empty spaces intersect their InclusionZones. Add time within those intersections.</t>
-  </si>
-  <si>
-    <t>Tasks have a CanFill option that will allow us to fill any unallocated time within its InclusionZones even after we've allocated all required resources. Same procedure as above.</t>
-  </si>
-  <si>
     <t>CheckIn CRUDs</t>
   </si>
   <si>
@@ -1441,6 +1435,21 @@
   </si>
   <si>
     <t>Redistributions. If I want to do this, consider that collisions currently do not modify allocation.remaining, but instead handled in AllocateInsufficient().</t>
+  </si>
+  <si>
+    <t>AllocateEmptySpace()</t>
+  </si>
+  <si>
+    <t>Recalculate remaining allocations. Identify empty spaces. For each empty space, check if there is any relevant task that can be allocated by priority of: Highest priority intersecting insufficient InclusionZone, highest priority intersecting InclusionZone with CanFill.</t>
+  </si>
+  <si>
+    <t>async CreateTaskObjs</t>
+  </si>
+  <si>
+    <t>Is it possible to make the Interpret Data/Organize Data async?</t>
+  </si>
+  <si>
+    <t>What funcs do I need to call? I don’t need to BuildCheckIns() but everything afterwards?</t>
   </si>
 </sst>
 </file>
@@ -1580,7 +1589,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="34">
+  <borders count="22">
     <border>
       <left/>
       <right/>
@@ -1632,64 +1641,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="medium">
-        <color indexed="64"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
@@ -1710,120 +1661,6 @@
       </top>
       <bottom style="thin">
         <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </top>
-      <bottom style="medium">
-        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2018,7 +1855,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="81">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2069,9 +1906,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2097,27 +1931,16 @@
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2125,6 +1948,12 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2139,97 +1968,66 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2238,7 +2036,210 @@
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="81">
+  <dxfs count="93">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="5" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.14996795556505021"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FFFFC0CB"/>
+          <bgColor rgb="FFFFC0CB"/>
+        </patternFill>
+      </fill>
+      <border>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF00FF7F"/>
+          <bgColor rgb="FF00FF7F"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor rgb="FF7FFF00"/>
+          <bgColor rgb="FF7FFF00"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.59996337778862885"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <fgColor rgb="FFDC143C"/>
+          <bgColor rgb="FFDC143C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFF00FF"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <fill>
         <patternFill patternType="none">
@@ -2486,206 +2487,198 @@
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="5" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="9" tint="0.39994506668294322"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="9"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="8"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.39994506668294322"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="7"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="0" tint="-0.14996795556505021"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFC0CB"/>
-          <bgColor rgb="FFFFC0CB"/>
-        </patternFill>
-      </fill>
-      <border>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
         <vertical/>
         <horizontal/>
       </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF00FF7F"/>
-          <bgColor rgb="FF00FF7F"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF7FFF00"/>
-          <bgColor rgb="FF7FFF00"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor theme="7" tint="0.59996337778862885"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <fgColor rgb="FFDC143C"/>
-          <bgColor rgb="FFDC143C"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
     </dxf>
     <dxf>
       <fill>
-        <patternFill>
-          <bgColor rgb="FFFF00FF"/>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <fill>
@@ -3159,201 +3152,6 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3377,6 +3175,251 @@
         <scheme val="minor"/>
       </font>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </top>
+        <bottom style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </bottom>
+        <vertical/>
+        <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="medium">
+          <color indexed="64"/>
+        </left>
+        <right style="medium">
+          <color indexed="64"/>
+        </right>
+        <top style="medium">
+          <color indexed="64"/>
+        </top>
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
+      </border>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -3479,15 +3522,15 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="80"/>
-      <tableStyleElement type="headerRow" dxfId="79"/>
-      <tableStyleElement type="firstColumn" dxfId="78"/>
+      <tableStyleElement type="wholeTable" dxfId="92"/>
+      <tableStyleElement type="headerRow" dxfId="91"/>
+      <tableStyleElement type="firstColumn" dxfId="90"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="77"/>
-      <tableStyleElement type="headerRow" dxfId="76"/>
-      <tableStyleElement type="secondRowStripe" dxfId="75"/>
+      <tableStyleElement type="wholeTable" dxfId="89"/>
+      <tableStyleElement type="headerRow" dxfId="88"/>
+      <tableStyleElement type="secondRowStripe" dxfId="87"/>
     </tableStyle>
   </tableStyles>
   <colors>
@@ -3516,29 +3559,29 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C149" totalsRowShown="0">
-  <autoFilter ref="A1:C149" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C150" totalsRowShown="0">
+  <autoFilter ref="A1:C150" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="74"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="86"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="73"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="85"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4DD08F2-9CC2-46CC-93EE-E01A4DBC8EEE}" name="Table5" displayName="Table5" ref="A1:H8" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1" headerRowBorderDxfId="10" tableBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4DD08F2-9CC2-46CC-93EE-E01A4DBC8EEE}" name="Table5" displayName="Table5" ref="A1:H8" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
   <autoFilter ref="A1:H8" xr:uid="{9EF71295-67E3-4AA7-981B-99814F9C00D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5F56F396-ECBF-4022-A747-BB6579150BC5}" name="Previous" dataDxfId="9"/>
-    <tableColumn id="2" xr3:uid="{52DF5424-7715-4094-9055-254252166B84}" name="N Start_x000a_in Z" dataDxfId="8"/>
-    <tableColumn id="3" xr3:uid="{4BF25F2B-3788-4EC0-877F-738CFB7416BD}" name="N End_x000a_in Z" dataDxfId="7"/>
-    <tableColumn id="4" xr3:uid="{3D1264CD-7DED-47FE-9A26-02FAA9BC34AE}" name="N Start_x000a_out Z" dataDxfId="6"/>
-    <tableColumn id="5" xr3:uid="{91478E3E-F2EC-42B9-9CAC-61EA2AD657CB}" name="N End_x000a_out Z" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{BD45968E-F796-4835-9D67-3627C99D24EC}" name="Z Start" dataDxfId="4"/>
-    <tableColumn id="7" xr3:uid="{3B4EE896-0831-43E7-8AE0-49A3476BEA97}" name="Z End" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{D4DAA8AA-8B7A-4978-8C26-61D2C9036856}" name="P End" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{5F56F396-ECBF-4022-A747-BB6579150BC5}" name="Previous" dataDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{52DF5424-7715-4094-9055-254252166B84}" name="N Start_x000a_in Z" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{4BF25F2B-3788-4EC0-877F-738CFB7416BD}" name="N End_x000a_in Z" dataDxfId="78"/>
+    <tableColumn id="4" xr3:uid="{3D1264CD-7DED-47FE-9A26-02FAA9BC34AE}" name="N Start_x000a_out Z" dataDxfId="77"/>
+    <tableColumn id="5" xr3:uid="{91478E3E-F2EC-42B9-9CAC-61EA2AD657CB}" name="N End_x000a_out Z" dataDxfId="76"/>
+    <tableColumn id="6" xr3:uid="{BD45968E-F796-4835-9D67-3627C99D24EC}" name="Z Start" dataDxfId="75"/>
+    <tableColumn id="7" xr3:uid="{3B4EE896-0831-43E7-8AE0-49A3476BEA97}" name="Z End" dataDxfId="74"/>
+    <tableColumn id="8" xr3:uid="{D4DAA8AA-8B7A-4978-8C26-61D2C9036856}" name="P End" dataDxfId="73"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3555,50 +3598,67 @@
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="59" dataDxfId="57" headerRowBorderDxfId="58" tableBorderDxfId="56">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
   <autoFilter ref="A12:I18" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
   <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="53"/>
-    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="52"/>
-    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="51"/>
-    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="50"/>
-    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="49"/>
-    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="48"/>
-    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="47"/>
+    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="65"/>
+    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="64"/>
+    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="63"/>
+    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="62"/>
+    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="61"/>
+    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="60"/>
+    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="59"/>
+    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="58"/>
+    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="57"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="46">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="56">
   <autoFilter ref="A1:H5" xr:uid="{3AB9159B-B403-4CC8-8649-2A74831EFA39}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="45"/>
-    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="44"/>
-    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="43"/>
-    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="42"/>
-    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="41"/>
-    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="40"/>
-    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="38"/>
+    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="55"/>
+    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="54"/>
+    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="53"/>
+    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="52"/>
+    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="51"/>
+    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="50"/>
+    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="49"/>
+    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="48"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
   <autoFilter ref="A7:F10" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="63"/>
-    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="62"/>
-    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="61"/>
-    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="60"/>
+    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="43"/>
+    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="42"/>
+    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="41"/>
+    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="40"/>
+    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="38"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A637EB4D-B0BD-451A-AEF8-4F572CDAEA03}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" headerRowBorderDxfId="36" tableBorderDxfId="37">
+  <autoFilter ref="A1:H5" xr:uid="{1C355147-87D4-4562-8BCA-2AC6E8731BE0}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{2D2C5C32-B8C1-434D-9678-8FA28AA9E25E}" name="C1 ∩ C2" dataDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{83D2755C-6BC6-444B-B47B-E805256587D2}" name="C2HasRoom = T_x000a_C1 &gt;= C2" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{1CE782A0-B082-4A0B-9C40-AF715F441CC4}" name="C2HasRoom = T_x000a_C1 &lt; C2" dataDxfId="33"/>
+    <tableColumn id="4" xr3:uid="{BD5AA1DC-AE84-47FC-9B2A-54FD9FA153CE}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &gt;= C2" dataDxfId="32"/>
+    <tableColumn id="5" xr3:uid="{BB1432BE-D946-4CB6-B3F6-04E8F22BC33F}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &lt; C2" dataDxfId="31"/>
+    <tableColumn id="6" xr3:uid="{69EA148B-29D0-4FD1-8924-7228DCD5168D}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &gt;= C2" dataDxfId="30"/>
+    <tableColumn id="7" xr3:uid="{5304745C-6EDF-461B-A5C3-75B5645DF5C0}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &lt; C2" dataDxfId="29"/>
+    <tableColumn id="8" xr3:uid="{94277B06-039D-4427-8C01-ABF777E3ED15}" name="C2S🔒" dataDxfId="28"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3901,10 +3961,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G149"/>
+  <dimension ref="A1:G150"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="A78" sqref="A78"/>
+    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4503,7 +4563,7 @@
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C61" s="25" t="s">
+      <c r="C61" s="24" t="s">
         <v>236</v>
       </c>
     </row>
@@ -4514,7 +4574,7 @@
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C62" s="25" t="s">
+      <c r="C62" s="24" t="s">
         <v>237</v>
       </c>
     </row>
@@ -4536,7 +4596,7 @@
       <c r="B64" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C64" s="25" t="s">
+      <c r="C64" s="24" t="s">
         <v>312</v>
       </c>
     </row>
@@ -4612,7 +4672,7 @@
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C72" s="25" t="s">
+      <c r="C72" s="24" t="s">
         <v>345</v>
       </c>
     </row>
@@ -4622,7 +4682,7 @@
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
@@ -4665,59 +4725,67 @@
       <c r="A78" s="11" t="s">
         <v>359</v>
       </c>
-      <c r="B78" s="13"/>
+      <c r="B78" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C78" s="12"/>
     </row>
     <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
         <v>256</v>
       </c>
-      <c r="B79" s="13"/>
+      <c r="B79" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C79" s="12"/>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
         <v>227</v>
       </c>
+      <c r="B80" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C80" s="12"/>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>433</v>
-      </c>
-      <c r="C81" s="12"/>
+        <v>437</v>
+      </c>
+      <c r="C81" s="12" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>434</v>
+        <v>431</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>435</v>
-      </c>
-    </row>
-    <row r="83" spans="1:3" s="13" customFormat="1" ht="30">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C83" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A84" s="11" t="s">
         <v>255</v>
       </c>
-      <c r="C83" s="12" t="s">
+      <c r="C84" s="12" t="s">
         <v>254</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="13" customFormat="1">
-      <c r="A84" s="11" t="s">
-        <v>125</v>
-      </c>
-      <c r="C84" s="12" t="s">
-        <v>210</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>105</v>
-      </c>
-      <c r="B85" s="3"/>
+        <v>125</v>
+      </c>
       <c r="C85" s="12" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="13" customFormat="1">
@@ -4726,463 +4794,472 @@
       </c>
       <c r="B86" s="3"/>
       <c r="C86" s="12" t="s">
-        <v>229</v>
+        <v>203</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>194</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B87" s="3"/>
       <c r="C87" s="12" t="s">
-        <v>195</v>
+        <v>229</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1">
       <c r="A88" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="C88" s="12"/>
+        <v>194</v>
+      </c>
+      <c r="C88" s="12" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1">
       <c r="A89" s="11" t="s">
-        <v>80</v>
+        <v>196</v>
       </c>
       <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C90" s="12"/>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1">
+      <c r="A91" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C90" s="12" t="s">
+      <c r="C91" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="91" spans="1:3">
-      <c r="A91" s="2" t="s">
+    <row r="92" spans="1:3">
+      <c r="A92" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C91" s="4" t="s">
+      <c r="C92" s="4" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B92" s="13"/>
-      <c r="C92" s="12"/>
     </row>
     <row r="93" spans="1:3">
       <c r="A93" s="11" t="s">
-        <v>102</v>
-      </c>
+        <v>206</v>
+      </c>
+      <c r="B93" s="13"/>
+      <c r="C93" s="12"/>
     </row>
     <row r="94" spans="1:3">
       <c r="A94" s="11" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3">
+      <c r="A95" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="C95" s="12" t="s">
         <v>161</v>
-      </c>
-    </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C95" s="4" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:3">
       <c r="A96" s="2" t="s">
-        <v>6</v>
+        <v>91</v>
+      </c>
+      <c r="C96" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:3">
       <c r="A97" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3">
+      <c r="A98" s="2" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="11" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="11" t="s">
         <v>221</v>
       </c>
-      <c r="C98" s="12" t="s">
+      <c r="C99" s="12" t="s">
         <v>222</v>
       </c>
     </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
+    <row r="100" spans="1:3">
+      <c r="A100" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="30">
-      <c r="A100" s="11" t="s">
+    <row r="101" spans="1:3" ht="30">
+      <c r="A101" s="11" t="s">
         <v>314</v>
       </c>
-      <c r="C100" s="12" t="s">
+      <c r="C101" s="12" t="s">
         <v>315</v>
       </c>
     </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
+    <row r="102" spans="1:3">
+      <c r="A102" s="2" t="s">
         <v>81</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="103" spans="1:3">
       <c r="A103" s="11" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C103" s="12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="104" spans="1:3">
       <c r="A104" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C105" s="12" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="106" spans="1:3">
       <c r="A106" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>140</v>
+        <v>8</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="108" spans="1:3">
+      <c r="A108" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="C107" s="4" t="s">
+      <c r="C108" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="11" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="C108" s="12" t="s">
+      <c r="C109" s="12" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
+    <row r="110" spans="1:3">
+      <c r="A110" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="11" t="s">
+    <row r="111" spans="1:3">
+      <c r="A111" s="11" t="s">
         <v>224</v>
       </c>
-      <c r="C110" s="12" t="s">
+      <c r="C111" s="12" t="s">
         <v>225</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>103</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="2" t="s">
-        <v>35</v>
+        <v>79</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>103</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="114" spans="1:3">
+      <c r="A114" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C113" s="12" t="s">
+      <c r="C114" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="11" t="s">
+    <row r="115" spans="1:3">
+      <c r="A115" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C114" s="12" t="s">
+      <c r="C115" s="12" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C115" s="12" t="s">
+      <c r="C116" s="12" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="30">
-      <c r="A116" s="11" t="s">
+    <row r="117" spans="1:3" ht="30">
+      <c r="A117" s="11" t="s">
         <v>142</v>
       </c>
-      <c r="C116" s="12" t="s">
+      <c r="C117" s="12" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="11" t="s">
+    <row r="118" spans="1:3">
+      <c r="A118" s="11" t="s">
         <v>144</v>
       </c>
-      <c r="C117" s="12" t="s">
+      <c r="C118" s="12" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="30">
-      <c r="A118" s="11" t="s">
+    <row r="119" spans="1:3" ht="30">
+      <c r="A119" s="11" t="s">
         <v>372</v>
       </c>
-      <c r="C118" s="12" t="s">
+      <c r="C119" s="12" t="s">
         <v>371</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3">
-      <c r="A119" s="11" t="s">
-        <v>373</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="11" t="s">
-        <v>100</v>
+        <v>373</v>
+      </c>
+      <c r="C120" s="12" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="11" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3">
+      <c r="A122" s="11" t="s">
         <v>101</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C122" s="4" t="s">
-        <v>45</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="2" t="s">
-        <v>49</v>
+        <v>44</v>
+      </c>
+      <c r="C123" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C124" s="12" t="s">
+      <c r="C125" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="125" spans="1:3">
-      <c r="A125" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C125" s="12"/>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="C126" s="12"/>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="11" t="s">
-        <v>148</v>
+        <v>220</v>
       </c>
       <c r="C127" s="12"/>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="C128" s="12"/>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C128" s="12"/>
-    </row>
-    <row r="129" spans="1:3" ht="30">
-      <c r="A129" s="11" t="s">
+      <c r="C129" s="12"/>
+    </row>
+    <row r="130" spans="1:3" ht="30">
+      <c r="A130" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B129" s="13"/>
-      <c r="C129" s="12" t="s">
+      <c r="B130" s="13"/>
+      <c r="C130" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C130" s="4" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>85</v>
+        <v>74</v>
       </c>
       <c r="C131" s="4" t="s">
-        <v>86</v>
+        <v>75</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C132" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="C132" s="4" t="s">
+      <c r="C133" s="4" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="11" t="s">
+    <row r="134" spans="1:3">
+      <c r="A134" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="C133" s="12" t="s">
+      <c r="C134" s="12" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="11" t="s">
+    <row r="136" spans="1:3">
+      <c r="A136" s="11" t="s">
         <v>208</v>
       </c>
-      <c r="C135" s="12" t="s">
+      <c r="C136" s="12" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="137" spans="1:3" s="9" customFormat="1">
-      <c r="A137" s="11" t="s">
+    <row r="138" spans="1:3" s="9" customFormat="1">
+      <c r="A138" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="B137" s="3"/>
-      <c r="C137" s="4"/>
-    </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B138" s="3"/>
+      <c r="C138" s="4"/>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
         <v>59</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
-      <c r="A140" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>121</v>
+        <v>113</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>137</v>
+        <v>120</v>
       </c>
       <c r="C142" s="12" t="s">
-        <v>138</v>
+        <v>121</v>
       </c>
     </row>
     <row r="143" spans="1:3">
       <c r="A143" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B143" s="13"/>
+        <v>137</v>
+      </c>
       <c r="C143" s="12" t="s">
-        <v>146</v>
+        <v>138</v>
       </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="11" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="B144" s="13"/>
       <c r="C144" s="12" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="11" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B145" s="13"/>
       <c r="C145" s="12" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="11" t="s">
-        <v>233</v>
+        <v>153</v>
       </c>
       <c r="B146" s="13"/>
       <c r="C146" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="147" spans="1:3" ht="30">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="147" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="B147" s="13"/>
       <c r="C147" s="12" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3" ht="30">
+      <c r="A148" s="11" t="s">
+        <v>240</v>
+      </c>
+      <c r="B148" s="13"/>
+      <c r="C148" s="12" t="s">
         <v>241</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3">
-      <c r="A148" s="11" t="s">
-        <v>242</v>
-      </c>
-      <c r="C148" s="12" t="s">
-        <v>243</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="11" t="s">
+        <v>242</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3">
+      <c r="A150" s="11" t="s">
         <v>271</v>
       </c>
-      <c r="C149" s="12" t="s">
+      <c r="C150" s="12" t="s">
         <v>272</v>
       </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
-    <cfRule type="cellIs" dxfId="37" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="1" operator="equal">
       <formula>"Done"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5202,10 +5279,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5283,7 +5360,7 @@
       <c r="A9" s="23" t="s">
         <v>305</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B9" s="27" t="s">
         <v>306</v>
       </c>
     </row>
@@ -5311,67 +5388,59 @@
         <v>269</v>
       </c>
     </row>
-    <row r="13" spans="1:12" s="23" customFormat="1">
+    <row r="13" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A13" s="23" t="s">
-        <v>359</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>431</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" s="23" customFormat="1">
-      <c r="A14" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B14" s="24" t="s">
-        <v>432</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" ht="30">
-      <c r="A15" t="s">
+        <v>435</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="30">
+      <c r="A14" t="s">
         <v>227</v>
       </c>
-      <c r="B15" s="15" t="s">
+      <c r="B14" s="15" t="s">
         <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="2:2">
+      <c r="B17" s="15" t="s">
+        <v>273</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="21" spans="2:2">
-      <c r="B21" s="15" t="s">
         <v>276</v>
       </c>
     </row>
-    <row r="22" spans="2:2" ht="45">
+    <row r="21" spans="2:2" ht="45">
+      <c r="B21" s="10" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" ht="30">
       <c r="B22" s="10" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="24" spans="2:2" ht="30">
-      <c r="B24" s="10" t="s">
         <v>280</v>
       </c>
     </row>
-    <row r="25" spans="2:2" ht="45">
-      <c r="B25" s="15" t="s">
+    <row r="24" spans="2:2" ht="45">
+      <c r="B24" s="15" t="s">
         <v>281</v>
       </c>
     </row>
@@ -5426,7 +5495,7 @@
       <c r="A3" s="20" t="s">
         <v>165</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>173</v>
       </c>
       <c r="C3" s="20" t="s">
@@ -5443,7 +5512,7 @@
       <c r="A4" s="20" t="s">
         <v>166</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="31" t="s">
         <v>174</v>
       </c>
       <c r="C4" s="20" t="s">
@@ -5457,7 +5526,7 @@
       <c r="A5" s="20" t="s">
         <v>167</v>
       </c>
-      <c r="B5" s="33" t="s">
+      <c r="B5" s="32" t="s">
         <v>175</v>
       </c>
       <c r="C5" s="20" t="s">
@@ -5474,7 +5543,7 @@
       <c r="A6" s="20" t="s">
         <v>230</v>
       </c>
-      <c r="B6" s="34" t="s">
+      <c r="B6" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C6" s="20" t="s">
@@ -5485,7 +5554,7 @@
       <c r="A7" s="20" t="s">
         <v>168</v>
       </c>
-      <c r="B7" s="35" t="s">
+      <c r="B7" s="34" t="s">
         <v>177</v>
       </c>
       <c r="C7" s="20" t="s">
@@ -5499,7 +5568,7 @@
       <c r="A8" s="20" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="36" t="s">
+      <c r="B8" s="35" t="s">
         <v>178</v>
       </c>
       <c r="C8" s="20" t="s">
@@ -5513,7 +5582,7 @@
       <c r="A9" s="20" t="s">
         <v>170</v>
       </c>
-      <c r="B9" s="37" t="s">
+      <c r="B9" s="36" t="s">
         <v>179</v>
       </c>
       <c r="C9" s="20" t="s">
@@ -5530,7 +5599,7 @@
       <c r="A10" s="20" t="s">
         <v>171</v>
       </c>
-      <c r="B10" s="38" t="s">
+      <c r="B10" s="37" t="s">
         <v>180</v>
       </c>
       <c r="C10" s="20" t="s">
@@ -5547,7 +5616,7 @@
       <c r="A11" s="20" t="s">
         <v>189</v>
       </c>
-      <c r="B11" s="39" t="s">
+      <c r="B11" s="38" t="s">
         <v>181</v>
       </c>
       <c r="C11" s="20" t="s">
@@ -5564,7 +5633,7 @@
       <c r="A12" s="20" t="s">
         <v>213</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="39" t="s">
         <v>182</v>
       </c>
       <c r="C12" s="20" t="s">
@@ -5581,7 +5650,7 @@
       <c r="A13" s="20" t="s">
         <v>172</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="40" t="s">
         <v>183</v>
       </c>
       <c r="C13" s="20" t="s">
@@ -5624,13 +5693,13 @@
         <v>287</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="30" customFormat="1">
-      <c r="A21" s="30" t="s">
+    <row r="21" spans="1:6" s="29" customFormat="1">
+      <c r="A21" s="29" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="22" spans="1:6">
-      <c r="A22" s="30" t="s">
+      <c r="A22" s="29" t="s">
         <v>290</v>
       </c>
     </row>
@@ -5659,75 +5728,75 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.85546875" style="26" customWidth="1"/>
-    <col min="2" max="3" width="22" style="26" customWidth="1"/>
-    <col min="4" max="4" width="24.85546875" style="26" customWidth="1"/>
-    <col min="5" max="5" width="24.140625" style="26" customWidth="1"/>
-    <col min="6" max="6" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" style="26" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="14" style="26" bestFit="1" customWidth="1"/>
-    <col min="11" max="16384" width="22.28515625" style="26"/>
+    <col min="1" max="1" width="10.85546875" style="25" customWidth="1"/>
+    <col min="2" max="3" width="22" style="25" customWidth="1"/>
+    <col min="4" max="4" width="24.85546875" style="25" customWidth="1"/>
+    <col min="5" max="5" width="24.140625" style="25" customWidth="1"/>
+    <col min="6" max="6" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="11.5703125" style="25" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14" style="25" bestFit="1" customWidth="1"/>
+    <col min="11" max="16384" width="22.28515625" style="25"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="50" t="s">
         <v>286</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="51" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="65" t="s">
+      <c r="C1" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="65" t="s">
+      <c r="D1" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="65" t="s">
+      <c r="E1" s="52" t="s">
         <v>294</v>
       </c>
-      <c r="F1" s="65" t="s">
+      <c r="F1" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="65" t="s">
+      <c r="G1" s="52" t="s">
         <v>285</v>
       </c>
-      <c r="H1" s="66" t="s">
+      <c r="H1" s="53" t="s">
         <v>283</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="46" t="s">
         <v>291</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>316</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>298</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>228</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>296</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="48" t="s">
         <v>228</v>
       </c>
-      <c r="I2" s="26"/>
-      <c r="J2" s="26"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="60" t="s">
+      <c r="A3" s="47" t="s">
         <v>292</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>295</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -5745,17 +5814,17 @@
       <c r="G3" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I3" s="26"/>
-      <c r="J3" s="26"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="60" t="s">
+      <c r="A4" s="47" t="s">
         <v>293</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>228</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -5773,17 +5842,17 @@
       <c r="G4" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="49" t="s">
         <v>303</v>
       </c>
-      <c r="I4" s="26"/>
-      <c r="J4" s="26"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="60">
-      <c r="A5" s="60" t="s">
+      <c r="A5" s="47" t="s">
         <v>294</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="42" t="s">
         <v>228</v>
       </c>
       <c r="C5" s="19" t="s">
@@ -5801,17 +5870,17 @@
       <c r="G5" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H5" s="62" t="s">
+      <c r="H5" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I5" s="26"/>
-      <c r="J5" s="26"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="60" t="s">
+      <c r="A6" s="47" t="s">
         <v>284</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="42" t="s">
         <v>295</v>
       </c>
       <c r="C6" s="19" t="s">
@@ -5829,17 +5898,17 @@
       <c r="G6" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H6" s="62" t="s">
+      <c r="H6" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I6" s="26"/>
-      <c r="J6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="60">
-      <c r="A7" s="60" t="s">
+      <c r="A7" s="47" t="s">
         <v>285</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="42" t="s">
         <v>228</v>
       </c>
       <c r="C7" s="19" t="s">
@@ -5857,276 +5926,276 @@
       <c r="G7" s="19" t="s">
         <v>228</v>
       </c>
-      <c r="H7" s="62" t="s">
+      <c r="H7" s="49" t="s">
         <v>228</v>
       </c>
-      <c r="I7" s="26"/>
-      <c r="J7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="60">
-      <c r="A8" s="67" t="s">
+      <c r="A8" s="54" t="s">
         <v>282</v>
       </c>
-      <c r="B8" s="68" t="s">
+      <c r="B8" s="55" t="s">
         <v>228</v>
       </c>
-      <c r="C8" s="69" t="s">
+      <c r="C8" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="D8" s="69" t="s">
+      <c r="D8" s="56" t="s">
         <v>252</v>
       </c>
-      <c r="E8" s="69" t="s">
+      <c r="E8" s="56" t="s">
         <v>301</v>
       </c>
-      <c r="F8" s="69" t="s">
+      <c r="F8" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="G8" s="69" t="s">
+      <c r="G8" s="56" t="s">
         <v>228</v>
       </c>
-      <c r="H8" s="70" t="s">
+      <c r="H8" s="57" t="s">
         <v>228</v>
       </c>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:10" s="27" customFormat="1"/>
-    <row r="10" spans="1:10" s="27" customFormat="1"/>
-    <row r="11" spans="1:10" s="27" customFormat="1"/>
-    <row r="12" spans="1:10" s="27" customFormat="1"/>
-    <row r="13" spans="1:10" s="27" customFormat="1"/>
-    <row r="14" spans="1:10" s="27" customFormat="1"/>
-    <row r="15" spans="1:10" s="27" customFormat="1"/>
-    <row r="16" spans="1:10" s="27" customFormat="1"/>
-    <row r="17" s="27" customFormat="1"/>
-    <row r="18" s="27" customFormat="1"/>
-    <row r="19" s="27" customFormat="1"/>
-    <row r="20" s="27" customFormat="1"/>
-    <row r="21" s="27" customFormat="1"/>
-    <row r="22" s="27" customFormat="1"/>
-    <row r="23" s="27" customFormat="1"/>
-    <row r="24" s="27" customFormat="1"/>
-    <row r="25" s="27" customFormat="1"/>
-    <row r="26" s="27" customFormat="1"/>
-    <row r="27" s="27" customFormat="1"/>
-    <row r="28" s="27" customFormat="1"/>
-    <row r="29" s="27" customFormat="1"/>
-    <row r="30" s="27" customFormat="1"/>
-    <row r="31" s="27" customFormat="1"/>
-    <row r="32" s="27" customFormat="1"/>
-    <row r="33" s="27" customFormat="1"/>
-    <row r="34" s="27" customFormat="1"/>
-    <row r="35" s="27" customFormat="1"/>
-    <row r="36" s="27" customFormat="1"/>
-    <row r="37" s="27" customFormat="1"/>
-    <row r="38" s="27" customFormat="1"/>
-    <row r="39" s="27" customFormat="1"/>
-    <row r="40" s="27" customFormat="1"/>
-    <row r="41" s="27" customFormat="1"/>
-    <row r="42" s="27" customFormat="1"/>
-    <row r="43" s="27" customFormat="1"/>
-    <row r="44" s="27" customFormat="1"/>
-    <row r="45" s="27" customFormat="1"/>
-    <row r="46" s="27" customFormat="1"/>
-    <row r="47" s="27" customFormat="1"/>
-    <row r="48" s="27" customFormat="1"/>
-    <row r="49" s="27" customFormat="1"/>
-    <row r="50" s="27" customFormat="1"/>
-    <row r="51" s="27" customFormat="1"/>
-    <row r="52" s="27" customFormat="1"/>
-    <row r="53" s="27" customFormat="1"/>
-    <row r="54" s="27" customFormat="1"/>
-    <row r="55" s="27" customFormat="1"/>
-    <row r="56" s="27" customFormat="1"/>
-    <row r="57" s="27" customFormat="1"/>
-    <row r="58" s="27" customFormat="1"/>
-    <row r="59" s="27" customFormat="1"/>
-    <row r="60" s="27" customFormat="1"/>
-    <row r="61" s="27" customFormat="1"/>
-    <row r="62" s="27" customFormat="1"/>
-    <row r="63" s="27" customFormat="1"/>
-    <row r="64" s="27" customFormat="1"/>
-    <row r="65" s="27" customFormat="1"/>
-    <row r="66" s="27" customFormat="1"/>
-    <row r="67" s="27" customFormat="1"/>
-    <row r="68" s="27" customFormat="1"/>
-    <row r="69" s="27" customFormat="1"/>
-    <row r="70" s="27" customFormat="1"/>
-    <row r="71" s="27" customFormat="1"/>
-    <row r="72" s="27" customFormat="1"/>
-    <row r="73" s="27" customFormat="1"/>
-    <row r="74" s="27" customFormat="1"/>
-    <row r="75" s="27" customFormat="1"/>
-    <row r="76" s="27" customFormat="1"/>
-    <row r="77" s="27" customFormat="1"/>
-    <row r="78" s="27" customFormat="1"/>
-    <row r="79" s="27" customFormat="1"/>
-    <row r="80" s="27" customFormat="1"/>
-    <row r="81" s="27" customFormat="1"/>
-    <row r="82" s="27" customFormat="1"/>
-    <row r="83" s="27" customFormat="1"/>
-    <row r="84" s="27" customFormat="1"/>
-    <row r="85" s="27" customFormat="1"/>
-    <row r="86" s="27" customFormat="1"/>
-    <row r="87" s="27" customFormat="1"/>
-    <row r="88" s="27" customFormat="1"/>
-    <row r="89" s="27" customFormat="1"/>
-    <row r="90" s="27" customFormat="1"/>
-    <row r="91" s="27" customFormat="1"/>
-    <row r="92" s="27" customFormat="1"/>
-    <row r="93" s="27" customFormat="1"/>
-    <row r="94" s="27" customFormat="1"/>
-    <row r="95" s="27" customFormat="1"/>
-    <row r="96" s="27" customFormat="1"/>
-    <row r="97" s="27" customFormat="1"/>
-    <row r="98" s="27" customFormat="1"/>
-    <row r="99" s="27" customFormat="1"/>
-    <row r="100" s="27" customFormat="1"/>
-    <row r="101" s="27" customFormat="1"/>
-    <row r="102" s="27" customFormat="1"/>
-    <row r="103" s="27" customFormat="1"/>
-    <row r="104" s="27" customFormat="1"/>
-    <row r="105" s="27" customFormat="1"/>
-    <row r="106" s="27" customFormat="1"/>
-    <row r="107" s="27" customFormat="1"/>
-    <row r="108" s="27" customFormat="1"/>
-    <row r="109" s="27" customFormat="1"/>
-    <row r="110" s="27" customFormat="1"/>
-    <row r="111" s="27" customFormat="1"/>
-    <row r="112" s="27" customFormat="1"/>
-    <row r="113" s="27" customFormat="1"/>
-    <row r="114" s="27" customFormat="1"/>
-    <row r="115" s="27" customFormat="1"/>
-    <row r="116" s="27" customFormat="1"/>
-    <row r="117" s="27" customFormat="1"/>
-    <row r="118" s="27" customFormat="1"/>
-    <row r="119" s="27" customFormat="1"/>
-    <row r="120" s="27" customFormat="1"/>
-    <row r="121" s="27" customFormat="1"/>
-    <row r="122" s="27" customFormat="1"/>
-    <row r="123" s="27" customFormat="1"/>
-    <row r="124" s="27" customFormat="1"/>
-    <row r="125" s="27" customFormat="1"/>
-    <row r="126" s="27" customFormat="1"/>
-    <row r="127" s="27" customFormat="1"/>
-    <row r="128" s="27" customFormat="1"/>
-    <row r="129" s="27" customFormat="1"/>
-    <row r="130" s="27" customFormat="1"/>
-    <row r="131" s="27" customFormat="1"/>
-    <row r="132" s="27" customFormat="1"/>
-    <row r="133" s="27" customFormat="1"/>
-    <row r="134" s="27" customFormat="1"/>
-    <row r="135" s="27" customFormat="1"/>
-    <row r="136" s="27" customFormat="1"/>
-    <row r="137" s="27" customFormat="1"/>
-    <row r="138" s="27" customFormat="1"/>
-    <row r="139" s="27" customFormat="1"/>
-    <row r="140" s="27" customFormat="1"/>
-    <row r="141" s="27" customFormat="1"/>
-    <row r="142" s="27" customFormat="1"/>
-    <row r="143" s="27" customFormat="1"/>
-    <row r="144" s="27" customFormat="1"/>
-    <row r="145" s="27" customFormat="1"/>
-    <row r="146" s="27" customFormat="1"/>
-    <row r="147" s="27" customFormat="1"/>
-    <row r="148" s="27" customFormat="1"/>
-    <row r="149" s="27" customFormat="1"/>
-    <row r="150" s="27" customFormat="1"/>
-    <row r="151" s="27" customFormat="1"/>
-    <row r="152" s="27" customFormat="1"/>
-    <row r="153" s="27" customFormat="1"/>
-    <row r="154" s="27" customFormat="1"/>
-    <row r="155" s="27" customFormat="1"/>
-    <row r="156" s="27" customFormat="1"/>
-    <row r="157" s="27" customFormat="1"/>
-    <row r="158" s="27" customFormat="1"/>
-    <row r="159" s="27" customFormat="1"/>
-    <row r="160" s="27" customFormat="1"/>
-    <row r="161" s="27" customFormat="1"/>
-    <row r="162" s="27" customFormat="1"/>
-    <row r="163" s="27" customFormat="1"/>
-    <row r="164" s="27" customFormat="1"/>
-    <row r="165" s="27" customFormat="1"/>
-    <row r="166" s="27" customFormat="1"/>
-    <row r="167" s="27" customFormat="1"/>
-    <row r="168" s="27" customFormat="1"/>
-    <row r="169" s="27" customFormat="1"/>
-    <row r="170" s="27" customFormat="1"/>
-    <row r="171" s="27" customFormat="1"/>
-    <row r="172" s="27" customFormat="1"/>
-    <row r="173" s="27" customFormat="1"/>
-    <row r="174" s="27" customFormat="1"/>
-    <row r="175" s="27" customFormat="1"/>
-    <row r="176" s="27" customFormat="1"/>
-    <row r="177" spans="9:10" s="27" customFormat="1"/>
-    <row r="178" spans="9:10" s="27" customFormat="1"/>
-    <row r="179" spans="9:10" s="27" customFormat="1"/>
-    <row r="180" spans="9:10" s="27" customFormat="1"/>
-    <row r="181" spans="9:10" s="27" customFormat="1"/>
-    <row r="182" spans="9:10" s="27" customFormat="1"/>
-    <row r="183" spans="9:10" s="27" customFormat="1"/>
-    <row r="184" spans="9:10" s="27" customFormat="1"/>
-    <row r="185" spans="9:10" s="27" customFormat="1"/>
-    <row r="186" spans="9:10" s="27" customFormat="1"/>
-    <row r="187" spans="9:10" s="27" customFormat="1"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="25"/>
+    </row>
+    <row r="9" spans="1:10" s="26" customFormat="1"/>
+    <row r="10" spans="1:10" s="26" customFormat="1"/>
+    <row r="11" spans="1:10" s="26" customFormat="1"/>
+    <row r="12" spans="1:10" s="26" customFormat="1"/>
+    <row r="13" spans="1:10" s="26" customFormat="1"/>
+    <row r="14" spans="1:10" s="26" customFormat="1"/>
+    <row r="15" spans="1:10" s="26" customFormat="1"/>
+    <row r="16" spans="1:10" s="26" customFormat="1"/>
+    <row r="17" s="26" customFormat="1"/>
+    <row r="18" s="26" customFormat="1"/>
+    <row r="19" s="26" customFormat="1"/>
+    <row r="20" s="26" customFormat="1"/>
+    <row r="21" s="26" customFormat="1"/>
+    <row r="22" s="26" customFormat="1"/>
+    <row r="23" s="26" customFormat="1"/>
+    <row r="24" s="26" customFormat="1"/>
+    <row r="25" s="26" customFormat="1"/>
+    <row r="26" s="26" customFormat="1"/>
+    <row r="27" s="26" customFormat="1"/>
+    <row r="28" s="26" customFormat="1"/>
+    <row r="29" s="26" customFormat="1"/>
+    <row r="30" s="26" customFormat="1"/>
+    <row r="31" s="26" customFormat="1"/>
+    <row r="32" s="26" customFormat="1"/>
+    <row r="33" s="26" customFormat="1"/>
+    <row r="34" s="26" customFormat="1"/>
+    <row r="35" s="26" customFormat="1"/>
+    <row r="36" s="26" customFormat="1"/>
+    <row r="37" s="26" customFormat="1"/>
+    <row r="38" s="26" customFormat="1"/>
+    <row r="39" s="26" customFormat="1"/>
+    <row r="40" s="26" customFormat="1"/>
+    <row r="41" s="26" customFormat="1"/>
+    <row r="42" s="26" customFormat="1"/>
+    <row r="43" s="26" customFormat="1"/>
+    <row r="44" s="26" customFormat="1"/>
+    <row r="45" s="26" customFormat="1"/>
+    <row r="46" s="26" customFormat="1"/>
+    <row r="47" s="26" customFormat="1"/>
+    <row r="48" s="26" customFormat="1"/>
+    <row r="49" s="26" customFormat="1"/>
+    <row r="50" s="26" customFormat="1"/>
+    <row r="51" s="26" customFormat="1"/>
+    <row r="52" s="26" customFormat="1"/>
+    <row r="53" s="26" customFormat="1"/>
+    <row r="54" s="26" customFormat="1"/>
+    <row r="55" s="26" customFormat="1"/>
+    <row r="56" s="26" customFormat="1"/>
+    <row r="57" s="26" customFormat="1"/>
+    <row r="58" s="26" customFormat="1"/>
+    <row r="59" s="26" customFormat="1"/>
+    <row r="60" s="26" customFormat="1"/>
+    <row r="61" s="26" customFormat="1"/>
+    <row r="62" s="26" customFormat="1"/>
+    <row r="63" s="26" customFormat="1"/>
+    <row r="64" s="26" customFormat="1"/>
+    <row r="65" s="26" customFormat="1"/>
+    <row r="66" s="26" customFormat="1"/>
+    <row r="67" s="26" customFormat="1"/>
+    <row r="68" s="26" customFormat="1"/>
+    <row r="69" s="26" customFormat="1"/>
+    <row r="70" s="26" customFormat="1"/>
+    <row r="71" s="26" customFormat="1"/>
+    <row r="72" s="26" customFormat="1"/>
+    <row r="73" s="26" customFormat="1"/>
+    <row r="74" s="26" customFormat="1"/>
+    <row r="75" s="26" customFormat="1"/>
+    <row r="76" s="26" customFormat="1"/>
+    <row r="77" s="26" customFormat="1"/>
+    <row r="78" s="26" customFormat="1"/>
+    <row r="79" s="26" customFormat="1"/>
+    <row r="80" s="26" customFormat="1"/>
+    <row r="81" s="26" customFormat="1"/>
+    <row r="82" s="26" customFormat="1"/>
+    <row r="83" s="26" customFormat="1"/>
+    <row r="84" s="26" customFormat="1"/>
+    <row r="85" s="26" customFormat="1"/>
+    <row r="86" s="26" customFormat="1"/>
+    <row r="87" s="26" customFormat="1"/>
+    <row r="88" s="26" customFormat="1"/>
+    <row r="89" s="26" customFormat="1"/>
+    <row r="90" s="26" customFormat="1"/>
+    <row r="91" s="26" customFormat="1"/>
+    <row r="92" s="26" customFormat="1"/>
+    <row r="93" s="26" customFormat="1"/>
+    <row r="94" s="26" customFormat="1"/>
+    <row r="95" s="26" customFormat="1"/>
+    <row r="96" s="26" customFormat="1"/>
+    <row r="97" s="26" customFormat="1"/>
+    <row r="98" s="26" customFormat="1"/>
+    <row r="99" s="26" customFormat="1"/>
+    <row r="100" s="26" customFormat="1"/>
+    <row r="101" s="26" customFormat="1"/>
+    <row r="102" s="26" customFormat="1"/>
+    <row r="103" s="26" customFormat="1"/>
+    <row r="104" s="26" customFormat="1"/>
+    <row r="105" s="26" customFormat="1"/>
+    <row r="106" s="26" customFormat="1"/>
+    <row r="107" s="26" customFormat="1"/>
+    <row r="108" s="26" customFormat="1"/>
+    <row r="109" s="26" customFormat="1"/>
+    <row r="110" s="26" customFormat="1"/>
+    <row r="111" s="26" customFormat="1"/>
+    <row r="112" s="26" customFormat="1"/>
+    <row r="113" s="26" customFormat="1"/>
+    <row r="114" s="26" customFormat="1"/>
+    <row r="115" s="26" customFormat="1"/>
+    <row r="116" s="26" customFormat="1"/>
+    <row r="117" s="26" customFormat="1"/>
+    <row r="118" s="26" customFormat="1"/>
+    <row r="119" s="26" customFormat="1"/>
+    <row r="120" s="26" customFormat="1"/>
+    <row r="121" s="26" customFormat="1"/>
+    <row r="122" s="26" customFormat="1"/>
+    <row r="123" s="26" customFormat="1"/>
+    <row r="124" s="26" customFormat="1"/>
+    <row r="125" s="26" customFormat="1"/>
+    <row r="126" s="26" customFormat="1"/>
+    <row r="127" s="26" customFormat="1"/>
+    <row r="128" s="26" customFormat="1"/>
+    <row r="129" s="26" customFormat="1"/>
+    <row r="130" s="26" customFormat="1"/>
+    <row r="131" s="26" customFormat="1"/>
+    <row r="132" s="26" customFormat="1"/>
+    <row r="133" s="26" customFormat="1"/>
+    <row r="134" s="26" customFormat="1"/>
+    <row r="135" s="26" customFormat="1"/>
+    <row r="136" s="26" customFormat="1"/>
+    <row r="137" s="26" customFormat="1"/>
+    <row r="138" s="26" customFormat="1"/>
+    <row r="139" s="26" customFormat="1"/>
+    <row r="140" s="26" customFormat="1"/>
+    <row r="141" s="26" customFormat="1"/>
+    <row r="142" s="26" customFormat="1"/>
+    <row r="143" s="26" customFormat="1"/>
+    <row r="144" s="26" customFormat="1"/>
+    <row r="145" s="26" customFormat="1"/>
+    <row r="146" s="26" customFormat="1"/>
+    <row r="147" s="26" customFormat="1"/>
+    <row r="148" s="26" customFormat="1"/>
+    <row r="149" s="26" customFormat="1"/>
+    <row r="150" s="26" customFormat="1"/>
+    <row r="151" s="26" customFormat="1"/>
+    <row r="152" s="26" customFormat="1"/>
+    <row r="153" s="26" customFormat="1"/>
+    <row r="154" s="26" customFormat="1"/>
+    <row r="155" s="26" customFormat="1"/>
+    <row r="156" s="26" customFormat="1"/>
+    <row r="157" s="26" customFormat="1"/>
+    <row r="158" s="26" customFormat="1"/>
+    <row r="159" s="26" customFormat="1"/>
+    <row r="160" s="26" customFormat="1"/>
+    <row r="161" s="26" customFormat="1"/>
+    <row r="162" s="26" customFormat="1"/>
+    <row r="163" s="26" customFormat="1"/>
+    <row r="164" s="26" customFormat="1"/>
+    <row r="165" s="26" customFormat="1"/>
+    <row r="166" s="26" customFormat="1"/>
+    <row r="167" s="26" customFormat="1"/>
+    <row r="168" s="26" customFormat="1"/>
+    <row r="169" s="26" customFormat="1"/>
+    <row r="170" s="26" customFormat="1"/>
+    <row r="171" s="26" customFormat="1"/>
+    <row r="172" s="26" customFormat="1"/>
+    <row r="173" s="26" customFormat="1"/>
+    <row r="174" s="26" customFormat="1"/>
+    <row r="175" s="26" customFormat="1"/>
+    <row r="176" s="26" customFormat="1"/>
+    <row r="177" spans="9:10" s="26" customFormat="1"/>
+    <row r="178" spans="9:10" s="26" customFormat="1"/>
+    <row r="179" spans="9:10" s="26" customFormat="1"/>
+    <row r="180" spans="9:10" s="26" customFormat="1"/>
+    <row r="181" spans="9:10" s="26" customFormat="1"/>
+    <row r="182" spans="9:10" s="26" customFormat="1"/>
+    <row r="183" spans="9:10" s="26" customFormat="1"/>
+    <row r="184" spans="9:10" s="26" customFormat="1"/>
+    <row r="185" spans="9:10" s="26" customFormat="1"/>
+    <row r="186" spans="9:10" s="26" customFormat="1"/>
+    <row r="187" spans="9:10" s="26" customFormat="1"/>
     <row r="188" spans="9:10">
-      <c r="I188" s="26"/>
-      <c r="J188" s="26"/>
+      <c r="I188" s="25"/>
+      <c r="J188" s="25"/>
     </row>
     <row r="189" spans="9:10">
-      <c r="I189" s="26"/>
-      <c r="J189" s="26"/>
+      <c r="I189" s="25"/>
+      <c r="J189" s="25"/>
     </row>
     <row r="190" spans="9:10">
-      <c r="I190" s="26"/>
-      <c r="J190" s="26"/>
+      <c r="I190" s="25"/>
+      <c r="J190" s="25"/>
     </row>
     <row r="191" spans="9:10">
-      <c r="I191" s="26"/>
-      <c r="J191" s="26"/>
+      <c r="I191" s="25"/>
+      <c r="J191" s="25"/>
     </row>
     <row r="192" spans="9:10">
-      <c r="I192" s="26"/>
-      <c r="J192" s="26"/>
+      <c r="I192" s="25"/>
+      <c r="J192" s="25"/>
     </row>
     <row r="193" spans="9:10">
-      <c r="I193" s="26"/>
-      <c r="J193" s="26"/>
+      <c r="I193" s="25"/>
+      <c r="J193" s="25"/>
     </row>
     <row r="194" spans="9:10">
-      <c r="I194" s="26"/>
-      <c r="J194" s="26"/>
+      <c r="I194" s="25"/>
+      <c r="J194" s="25"/>
     </row>
     <row r="195" spans="9:10">
-      <c r="I195" s="26"/>
-      <c r="J195" s="26"/>
+      <c r="I195" s="25"/>
+      <c r="J195" s="25"/>
     </row>
     <row r="196" spans="9:10">
-      <c r="I196" s="26"/>
-      <c r="J196" s="26"/>
+      <c r="I196" s="25"/>
+      <c r="J196" s="25"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B2:H8">
-    <cfRule type="containsText" dxfId="36" priority="1" operator="containsText" text="unknown">
+    <cfRule type="containsText" dxfId="24" priority="1" operator="containsText" text="unknown">
       <formula>NOT(ISERROR(SEARCH("unknown",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="2" operator="containsText" text="cancel">
+    <cfRule type="containsText" dxfId="23" priority="2" operator="containsText" text="cancel">
       <formula>NOT(ISERROR(SEARCH("cancel",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="34" priority="3" operator="containsText" text="pN = N">
+    <cfRule type="containsText" dxfId="22" priority="3" operator="containsText" text="pN = N">
       <formula>NOT(ISERROR(SEARCH("pN = N",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="28" operator="containsText" text="unscheduled">
+    <cfRule type="containsText" dxfId="21" priority="28" operator="containsText" text="unscheduled">
       <formula>NOT(ISERROR(SEARCH("unscheduled",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="29" operator="containsText" text="confirm">
+    <cfRule type="containsText" dxfId="20" priority="29" operator="containsText" text="confirm">
       <formula>NOT(ISERROR(SEARCH("confirm",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="31" priority="30" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="19" priority="30" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="31" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="31" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6142,105 +6211,105 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A36" sqref="A36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="218.140625" style="28" customWidth="1"/>
+    <col min="1" max="1" width="218.140625" style="27" customWidth="1"/>
     <col min="2" max="2" width="9.140625" style="20" customWidth="1"/>
     <col min="3" max="6" width="9.140625" style="20"/>
-    <col min="7" max="16384" width="9.140625" style="28"/>
+    <col min="7" max="16384" width="9.140625" style="27"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
         <v>313</v>
       </c>
-      <c r="B1" s="57"/>
-      <c r="C1" s="57"/>
-      <c r="D1" s="57"/>
-      <c r="E1" s="57"/>
-      <c r="F1" s="57"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="27" t="s">
         <v>319</v>
       </c>
-      <c r="B2" s="57"/>
-      <c r="C2" s="57"/>
-      <c r="D2" s="57"/>
-      <c r="E2" s="57"/>
-      <c r="F2" s="57"/>
+      <c r="B2" s="44"/>
+      <c r="C2" s="44"/>
+      <c r="D2" s="44"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="27" t="s">
         <v>320</v>
       </c>
-      <c r="B3" s="57"/>
-      <c r="C3" s="57"/>
-      <c r="D3" s="57"/>
-      <c r="E3" s="57"/>
-      <c r="F3" s="57"/>
+      <c r="B3" s="44"/>
+      <c r="C3" s="44"/>
+      <c r="D3" s="44"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
-      <c r="A4" s="28" t="s">
+      <c r="A4" s="27" t="s">
         <v>321</v>
       </c>
-      <c r="B4" s="57"/>
-      <c r="C4" s="57"/>
-      <c r="D4" s="57"/>
-      <c r="E4" s="57"/>
-      <c r="F4" s="57"/>
+      <c r="B4" s="44"/>
+      <c r="C4" s="44"/>
+      <c r="D4" s="44"/>
+      <c r="E4" s="44"/>
+      <c r="F4" s="44"/>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
         <v>322</v>
       </c>
-      <c r="B5" s="57"/>
-      <c r="C5" s="57"/>
-      <c r="D5" s="57"/>
-      <c r="E5" s="57"/>
-      <c r="F5" s="57"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="44"/>
+      <c r="D5" s="44"/>
+      <c r="E5" s="44"/>
+      <c r="F5" s="44"/>
     </row>
     <row r="6" spans="1:6">
-      <c r="A6" s="28" t="s">
+      <c r="A6" s="27" t="s">
         <v>323</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="A7" s="28" t="s">
+      <c r="A7" s="27" t="s">
         <v>324</v>
       </c>
     </row>
     <row r="8" spans="1:6">
-      <c r="A8" s="28" t="s">
+      <c r="A8" s="27" t="s">
         <v>325</v>
       </c>
     </row>
     <row r="10" spans="1:6">
-      <c r="A10" s="28" t="s">
+      <c r="A10" s="27" t="s">
         <v>318</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="A11" s="28" t="s">
+      <c r="A11" s="27" t="s">
         <v>362</v>
       </c>
     </row>
     <row r="12" spans="1:6">
-      <c r="A12" s="28" t="s">
+      <c r="A12" s="27" t="s">
         <v>363</v>
       </c>
     </row>
     <row r="14" spans="1:6">
-      <c r="A14" s="28" t="s">
+      <c r="A14" s="27" t="s">
         <v>361</v>
       </c>
     </row>
     <row r="15" spans="1:6">
-      <c r="A15" s="28" t="s">
+      <c r="A15" s="27" t="s">
         <v>377</v>
       </c>
     </row>
@@ -6250,32 +6319,32 @@
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="27" t="s">
         <v>364</v>
       </c>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="28" t="s">
+      <c r="A18" s="27" t="s">
         <v>365</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
-      <c r="A19" s="28" t="s">
+      <c r="A19" s="27" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="28" t="s">
+      <c r="A20" s="27" t="s">
         <v>367</v>
       </c>
     </row>
     <row r="22" spans="1:1">
-      <c r="A22" s="28" t="s">
+      <c r="A22" s="27" t="s">
         <v>417</v>
       </c>
     </row>
     <row r="23" spans="1:1">
-      <c r="A23" s="28" t="s">
+      <c r="A23" s="27" t="s">
         <v>425</v>
       </c>
     </row>
@@ -6290,87 +6359,87 @@
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
-      <c r="A26" s="28" t="s">
+      <c r="A26" s="27" t="s">
         <v>426</v>
       </c>
     </row>
     <row r="27" spans="1:1">
-      <c r="A27" s="28" t="s">
+      <c r="A27" s="27" t="s">
         <v>427</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="90">
-      <c r="A28" s="74" t="s">
+      <c r="A28" s="61" t="s">
         <v>428</v>
       </c>
     </row>
     <row r="30" spans="1:1">
-      <c r="A30" s="28" t="s">
+      <c r="A30" s="27" t="s">
         <v>418</v>
       </c>
     </row>
     <row r="31" spans="1:1">
-      <c r="A31" s="28" t="s">
+      <c r="A31" s="27" t="s">
         <v>379</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="74" t="s">
+      <c r="A32" s="61" t="s">
         <v>390</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="74" t="s">
+      <c r="A33" s="61" t="s">
         <v>391</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="74" t="s">
+      <c r="A34" s="61" t="s">
         <v>392</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="135">
-      <c r="A35" s="74" t="s">
+      <c r="A35" s="61" t="s">
         <v>430</v>
       </c>
     </row>
     <row r="36" spans="1:6">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="24" t="s">
         <v>389</v>
       </c>
     </row>
     <row r="38" spans="1:6">
-      <c r="A38" s="28" t="s">
+      <c r="A38" s="27" t="s">
         <v>368</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
-      <c r="A39" s="28" t="s">
+      <c r="A39" s="27" t="s">
         <v>369</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
-      <c r="A40" s="28" t="s">
+      <c r="A40" s="27" t="s">
         <v>376</v>
       </c>
     </row>
     <row r="41" spans="1:6">
-      <c r="A41" s="28" t="s">
+      <c r="A41" s="27" t="s">
         <v>370</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
-      <c r="A42" s="28" t="s">
+      <c r="A42" s="27" t="s">
         <v>375</v>
       </c>
     </row>
     <row r="44" spans="1:6">
-      <c r="A44" s="28" t="s">
+      <c r="A44" s="27" t="s">
         <v>421</v>
       </c>
     </row>
     <row r="45" spans="1:6">
-      <c r="A45" s="28" t="s">
+      <c r="A45" s="27" t="s">
         <v>417</v>
       </c>
     </row>
@@ -6378,98 +6447,98 @@
       <c r="A48" s="8" t="s">
         <v>353</v>
       </c>
-      <c r="B48" s="93"/>
-      <c r="C48" s="93"/>
-      <c r="D48" s="93"/>
-      <c r="E48" s="93"/>
-      <c r="F48" s="93"/>
+      <c r="B48" s="80"/>
+      <c r="C48" s="80"/>
+      <c r="D48" s="80"/>
+      <c r="E48" s="80"/>
+      <c r="F48" s="80"/>
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A49" s="8" t="s">
         <v>351</v>
       </c>
-      <c r="B49" s="93"/>
-      <c r="C49" s="93"/>
-      <c r="D49" s="93"/>
-      <c r="E49" s="93"/>
-      <c r="F49" s="93"/>
+      <c r="B49" s="80"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="80"/>
+      <c r="E49" s="80"/>
+      <c r="F49" s="80"/>
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A50" s="8" t="s">
         <v>344</v>
       </c>
-      <c r="B50" s="93"/>
-      <c r="C50" s="93"/>
-      <c r="D50" s="93"/>
-      <c r="E50" s="93"/>
-      <c r="F50" s="93"/>
+      <c r="B50" s="80"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="80"/>
+      <c r="E50" s="80"/>
+      <c r="F50" s="80"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
         <v>352</v>
       </c>
-      <c r="B51" s="93"/>
-      <c r="C51" s="93"/>
-      <c r="D51" s="93"/>
-      <c r="E51" s="93"/>
-      <c r="F51" s="93"/>
+      <c r="B51" s="80"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="80"/>
+      <c r="E51" s="80"/>
+      <c r="F51" s="80"/>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1">
-      <c r="B52" s="93"/>
-      <c r="C52" s="93"/>
-      <c r="D52" s="93"/>
-      <c r="E52" s="93"/>
-      <c r="F52" s="93"/>
+      <c r="B52" s="80"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="80"/>
+      <c r="E52" s="80"/>
+      <c r="F52" s="80"/>
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
         <v>349</v>
       </c>
-      <c r="B53" s="93"/>
-      <c r="C53" s="93"/>
-      <c r="D53" s="93"/>
-      <c r="E53" s="93"/>
-      <c r="F53" s="93"/>
+      <c r="B53" s="80"/>
+      <c r="C53" s="80"/>
+      <c r="D53" s="80"/>
+      <c r="E53" s="80"/>
+      <c r="F53" s="80"/>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
         <v>350</v>
       </c>
-      <c r="B54" s="93"/>
-      <c r="C54" s="93"/>
-      <c r="D54" s="93"/>
-      <c r="E54" s="93"/>
-      <c r="F54" s="93"/>
+      <c r="B54" s="80"/>
+      <c r="C54" s="80"/>
+      <c r="D54" s="80"/>
+      <c r="E54" s="80"/>
+      <c r="F54" s="80"/>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A55" s="8" t="s">
         <v>355</v>
       </c>
-      <c r="B55" s="93"/>
-      <c r="C55" s="93"/>
-      <c r="D55" s="93"/>
-      <c r="E55" s="93"/>
-      <c r="F55" s="93"/>
+      <c r="B55" s="80"/>
+      <c r="C55" s="80"/>
+      <c r="D55" s="80"/>
+      <c r="E55" s="80"/>
+      <c r="F55" s="80"/>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
         <v>360</v>
       </c>
-      <c r="B56" s="93"/>
-      <c r="C56" s="93"/>
-      <c r="D56" s="93"/>
-      <c r="E56" s="93"/>
-      <c r="F56" s="93"/>
+      <c r="B56" s="80"/>
+      <c r="C56" s="80"/>
+      <c r="D56" s="80"/>
+      <c r="E56" s="80"/>
+      <c r="F56" s="80"/>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A57" s="8" t="s">
         <v>356</v>
       </c>
-      <c r="B57" s="93"/>
-      <c r="C57" s="93"/>
-      <c r="D57" s="93"/>
-      <c r="E57" s="93"/>
-      <c r="F57" s="93"/>
+      <c r="B57" s="80"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="80"/>
+      <c r="E57" s="80"/>
+      <c r="F57" s="80"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
@@ -6525,62 +6594,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
-      <c r="A1" s="72" t="s">
+      <c r="A1" s="59" t="s">
         <v>388</v>
       </c>
-      <c r="B1" s="28" t="s">
+      <c r="B1" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="28" t="s">
+      <c r="C1" s="27" t="s">
         <v>394</v>
       </c>
-      <c r="D1" s="28" t="s">
+      <c r="D1" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="28" t="s">
+      <c r="E1" s="27" t="s">
         <v>413</v>
       </c>
-      <c r="F1" s="28" t="s">
+      <c r="F1" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="G1" s="28" t="s">
+      <c r="G1" s="27" t="s">
         <v>416</v>
       </c>
-      <c r="H1" s="28" t="s">
+      <c r="H1" s="27" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1">
-      <c r="A2" s="75" t="s">
+      <c r="A2" s="62" t="s">
         <v>400</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="G2" s="61" t="s">
+      <c r="G2" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="H2" s="61" t="s">
+      <c r="H2" s="48" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A3" s="75" t="s">
+      <c r="A3" s="62" t="s">
         <v>395</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>381</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -6595,18 +6664,18 @@
       <c r="F3" s="19" t="s">
         <v>382</v>
       </c>
-      <c r="G3" s="62" t="s">
+      <c r="G3" s="49" t="s">
         <v>382</v>
       </c>
-      <c r="H3" s="62" t="s">
+      <c r="H3" s="49" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A4" s="75" t="s">
+      <c r="A4" s="62" t="s">
         <v>412</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>381</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -6621,98 +6690,98 @@
       <c r="F4" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="G4" s="62" t="s">
+      <c r="G4" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="H4" s="62" t="s">
+      <c r="H4" s="49" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="71" t="s">
+      <c r="A5" s="58" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="68" t="s">
+      <c r="B5" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="C5" s="69" t="s">
+      <c r="C5" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="D5" s="69" t="s">
+      <c r="D5" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="E5" s="69" t="s">
+      <c r="E5" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="F5" s="69" t="s">
+      <c r="F5" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="G5" s="70" t="s">
+      <c r="G5" s="57" t="s">
         <v>383</v>
       </c>
-      <c r="H5" s="70" t="s">
+      <c r="H5" s="57" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
-      <c r="A6" s="73"/>
-      <c r="B6" s="56"/>
-      <c r="C6" s="56"/>
-      <c r="D6" s="56"/>
-      <c r="E6" s="56"/>
-      <c r="F6" s="56"/>
-      <c r="G6" s="56"/>
-      <c r="H6" s="56"/>
+      <c r="A6" s="60"/>
+      <c r="B6" s="43"/>
+      <c r="C6" s="43"/>
+      <c r="D6" s="43"/>
+      <c r="E6" s="43"/>
+      <c r="F6" s="43"/>
+      <c r="G6" s="43"/>
+      <c r="H6" s="43"/>
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A7" s="63" t="s">
+      <c r="A7" s="50" t="s">
         <v>385</v>
       </c>
-      <c r="B7" s="64" t="s">
+      <c r="B7" s="51" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="65" t="s">
+      <c r="D7" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="65" t="s">
+      <c r="E7" s="52" t="s">
         <v>399</v>
       </c>
-      <c r="F7" s="66" t="s">
+      <c r="F7" s="53" t="s">
         <v>327</v>
       </c>
-      <c r="H7" s="56"/>
-      <c r="I7" s="56"/>
+      <c r="H7" s="43"/>
+      <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:12">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="46" t="s">
         <v>400</v>
       </c>
-      <c r="B8" s="45" t="s">
+      <c r="B8" s="41" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="D8" s="29" t="s">
+      <c r="D8" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="E8" s="29" t="s">
+      <c r="E8" s="28" t="s">
         <v>382</v>
       </c>
-      <c r="F8" s="61" t="s">
+      <c r="F8" s="48" t="s">
         <v>382</v>
       </c>
-      <c r="H8" s="56"/>
-      <c r="I8" s="56"/>
+      <c r="H8" s="43"/>
+      <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:12">
-      <c r="A9" s="60" t="s">
+      <c r="A9" s="47" t="s">
         <v>401</v>
       </c>
-      <c r="B9" s="46" t="s">
+      <c r="B9" s="42" t="s">
         <v>381</v>
       </c>
       <c r="C9" s="19" t="s">
@@ -6724,267 +6793,267 @@
       <c r="E9" s="19" t="s">
         <v>384</v>
       </c>
-      <c r="F9" s="62" t="s">
+      <c r="F9" s="49" t="s">
         <v>384</v>
       </c>
-      <c r="H9" s="56"/>
-      <c r="I9" s="56"/>
+      <c r="H9" s="43"/>
+      <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:12">
-      <c r="A10" s="67" t="s">
+      <c r="A10" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B10" s="68" t="s">
+      <c r="B10" s="55" t="s">
         <v>381</v>
       </c>
-      <c r="C10" s="69" t="s">
+      <c r="C10" s="56" t="s">
         <v>381</v>
       </c>
-      <c r="D10" s="69" t="s">
+      <c r="D10" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="E10" s="69" t="s">
+      <c r="E10" s="56" t="s">
         <v>383</v>
       </c>
-      <c r="F10" s="70" t="s">
+      <c r="F10" s="57" t="s">
         <v>326</v>
       </c>
-      <c r="H10" s="56"/>
-      <c r="I10" s="56"/>
+      <c r="H10" s="43"/>
+      <c r="I10" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A12" s="76" t="s">
+      <c r="A12" s="63" t="s">
         <v>386</v>
       </c>
-      <c r="B12" s="77" t="s">
+      <c r="B12" s="64" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="78" t="s">
+      <c r="C12" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="D12" s="78" t="s">
+      <c r="D12" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="E12" s="78" t="s">
+      <c r="E12" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="F12" s="78" t="s">
+      <c r="F12" s="65" t="s">
         <v>406</v>
       </c>
-      <c r="G12" s="79" t="s">
+      <c r="G12" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="H12" s="79" t="s">
+      <c r="H12" s="66" t="s">
         <v>408</v>
       </c>
-      <c r="I12" s="79" t="s">
+      <c r="I12" s="66" t="s">
         <v>327</v>
       </c>
-      <c r="J12" s="58"/>
-      <c r="K12" s="56"/>
-      <c r="L12" s="56"/>
+      <c r="J12" s="45"/>
+      <c r="K12" s="43"/>
+      <c r="L12" s="43"/>
     </row>
     <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="80" t="s">
+      <c r="A13" s="67" t="s">
         <v>409</v>
       </c>
-      <c r="B13" s="81" t="s">
+      <c r="B13" s="68" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="82" t="s">
+      <c r="C13" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="83" t="s">
+      <c r="D13" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="E13" s="82" t="s">
+      <c r="E13" s="69" t="s">
         <v>382</v>
       </c>
-      <c r="F13" s="83" t="s">
+      <c r="F13" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="G13" s="83" t="s">
+      <c r="G13" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="H13" s="83" t="s">
+      <c r="H13" s="70" t="s">
         <v>382</v>
       </c>
-      <c r="I13" s="83" t="s">
+      <c r="I13" s="70" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
-      <c r="A14" s="84" t="s">
+      <c r="A14" s="71" t="s">
         <v>410</v>
       </c>
-      <c r="B14" s="85" t="s">
+      <c r="B14" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="86" t="s">
+      <c r="C14" s="73" t="s">
         <v>228</v>
       </c>
-      <c r="D14" s="87" t="s">
+      <c r="D14" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="E14" s="86" t="s">
+      <c r="E14" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F14" s="88" t="s">
+      <c r="F14" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="G14" s="87" t="s">
+      <c r="G14" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="H14" s="88" t="s">
+      <c r="H14" s="75" t="s">
         <v>382</v>
       </c>
-      <c r="I14" s="88" t="s">
+      <c r="I14" s="75" t="s">
         <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
-      <c r="A15" s="84" t="s">
+      <c r="A15" s="71" t="s">
         <v>411</v>
       </c>
-      <c r="B15" s="85" t="s">
+      <c r="B15" s="72" t="s">
         <v>381</v>
       </c>
-      <c r="C15" s="86" t="s">
+      <c r="C15" s="73" t="s">
         <v>381</v>
       </c>
-      <c r="D15" s="87" t="s">
+      <c r="D15" s="74" t="s">
         <v>381</v>
       </c>
-      <c r="E15" s="86" t="s">
+      <c r="E15" s="73" t="s">
         <v>383</v>
       </c>
-      <c r="F15" s="87" t="s">
+      <c r="F15" s="74" t="s">
         <v>228</v>
       </c>
-      <c r="G15" s="87" t="s">
+      <c r="G15" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="H15" s="87" t="s">
+      <c r="H15" s="74" t="s">
         <v>384</v>
       </c>
-      <c r="I15" s="87" t="s">
+      <c r="I15" s="74" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1">
-      <c r="A16" s="80" t="s">
+      <c r="A16" s="67" t="s">
         <v>387</v>
       </c>
-      <c r="B16" s="89" t="s">
+      <c r="B16" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="C16" s="90" t="s">
+      <c r="C16" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="D16" s="91" t="s">
+      <c r="D16" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="E16" s="90" t="s">
+      <c r="E16" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F16" s="91" t="s">
+      <c r="F16" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="91" t="s">
+      <c r="G16" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="H16" s="91" t="s">
+      <c r="H16" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="I16" s="91" t="s">
+      <c r="I16" s="78" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1">
-      <c r="A17" s="92" t="s">
+      <c r="A17" s="79" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="89" t="s">
+      <c r="B17" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="C17" s="90" t="s">
+      <c r="C17" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="D17" s="91" t="s">
+      <c r="D17" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="E17" s="90" t="s">
+      <c r="E17" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="91" t="s">
+      <c r="F17" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="G17" s="91" t="s">
+      <c r="G17" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="H17" s="91" t="s">
+      <c r="H17" s="78" t="s">
         <v>384</v>
       </c>
-      <c r="I17" s="91" t="s">
+      <c r="I17" s="78" t="s">
         <v>384</v>
       </c>
     </row>
     <row r="18" spans="1:9">
-      <c r="A18" s="92" t="s">
+      <c r="A18" s="79" t="s">
         <v>328</v>
       </c>
-      <c r="B18" s="89" t="s">
+      <c r="B18" s="76" t="s">
         <v>381</v>
       </c>
-      <c r="C18" s="90" t="s">
+      <c r="C18" s="77" t="s">
         <v>381</v>
       </c>
-      <c r="D18" s="91" t="s">
+      <c r="D18" s="78" t="s">
         <v>381</v>
       </c>
-      <c r="E18" s="90" t="s">
+      <c r="E18" s="77" t="s">
         <v>383</v>
       </c>
-      <c r="F18" s="91" t="s">
+      <c r="F18" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="G18" s="91" t="s">
+      <c r="G18" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="H18" s="91" t="s">
+      <c r="H18" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="I18" s="91" t="s">
+      <c r="I18" s="78" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="20" spans="1:9">
-      <c r="F20" s="28"/>
+      <c r="F20" s="27"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B8:F10 B13:I18 B2:H6">
-    <cfRule type="containsText" dxfId="29" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+    <cfRule type="containsText" dxfId="17" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="28" priority="36" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+    <cfRule type="containsText" dxfId="16" priority="36" stopIfTrue="1" operator="containsText" text="C2 Shrink">
       <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="27" priority="38" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+    <cfRule type="containsText" dxfId="15" priority="38" stopIfTrue="1" operator="containsText" text="C1 ReDist">
       <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="26" priority="39" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+    <cfRule type="containsText" dxfId="14" priority="39" stopIfTrue="1" operator="containsText" text="C2 ReDist">
       <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="25" priority="40" stopIfTrue="1" operator="containsText" text="C1 Push">
+    <cfRule type="containsText" dxfId="13" priority="40" stopIfTrue="1" operator="containsText" text="C1 Push">
       <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="24" priority="41" stopIfTrue="1" operator="containsText" text="C2 Push">
+    <cfRule type="containsText" dxfId="12" priority="41" stopIfTrue="1" operator="containsText" text="C2 Push">
       <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="23" priority="43" stopIfTrue="1" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="11" priority="43" stopIfTrue="1" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="22" priority="44" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="44" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
@@ -7006,7 +7075,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A3" sqref="A3"/>
-      <selection pane="bottomRight" activeCell="F14" sqref="F14"/>
+      <selection pane="bottomRight" activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.5703125" defaultRowHeight="15"/>
@@ -7017,62 +7086,62 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A1" s="47" t="s">
+      <c r="A1" s="50" t="s">
         <v>358</v>
       </c>
-      <c r="B1" s="44" t="s">
+      <c r="B1" s="51" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="42" t="s">
+      <c r="C1" s="52" t="s">
         <v>338</v>
       </c>
-      <c r="D1" s="42" t="s">
+      <c r="D1" s="52" t="s">
         <v>343</v>
       </c>
-      <c r="E1" s="42" t="s">
+      <c r="E1" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="42" t="s">
+      <c r="F1" s="52" t="s">
         <v>341</v>
       </c>
-      <c r="G1" s="42" t="s">
+      <c r="G1" s="52" t="s">
         <v>330</v>
       </c>
-      <c r="H1" s="43" t="s">
+      <c r="H1" s="53" t="s">
         <v>327</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="48" t="s">
+      <c r="A2" s="46" t="s">
         <v>339</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>335</v>
       </c>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="D2" s="29" t="s">
+      <c r="D2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="E2" s="29" t="s">
+      <c r="E2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="F2" s="29" t="s">
+      <c r="F2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="G2" s="29" t="s">
+      <c r="G2" s="28" t="s">
         <v>333</v>
       </c>
-      <c r="H2" s="51" t="s">
+      <c r="H2" s="48" t="s">
         <v>333</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="47" t="s">
         <v>331</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="42" t="s">
         <v>335</v>
       </c>
       <c r="C3" s="19" t="s">
@@ -7090,15 +7159,15 @@
       <c r="G3" s="19" t="s">
         <v>340</v>
       </c>
-      <c r="H3" s="52" t="s">
+      <c r="H3" s="49" t="s">
         <v>340</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="49" t="s">
+      <c r="A4" s="47" t="s">
         <v>332</v>
       </c>
-      <c r="B4" s="46" t="s">
+      <c r="B4" s="42" t="s">
         <v>335</v>
       </c>
       <c r="C4" s="19" t="s">
@@ -7116,82 +7185,85 @@
       <c r="G4" s="19" t="s">
         <v>334</v>
       </c>
-      <c r="H4" s="52" t="s">
+      <c r="H4" s="49" t="s">
         <v>334</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="15.75" thickBot="1">
-      <c r="A5" s="50" t="s">
+    <row r="5" spans="1:8">
+      <c r="A5" s="54" t="s">
         <v>328</v>
       </c>
-      <c r="B5" s="53" t="s">
+      <c r="B5" s="55" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="54" t="s">
+      <c r="C5" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="54" t="s">
+      <c r="D5" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="E5" s="54" t="s">
+      <c r="E5" s="56" t="s">
         <v>337</v>
       </c>
-      <c r="F5" s="54" t="s">
+      <c r="F5" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="G5" s="54" t="s">
+      <c r="G5" s="56" t="s">
         <v>336</v>
       </c>
-      <c r="H5" s="55" t="s">
+      <c r="H5" s="57" t="s">
         <v>326</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="56"/>
-      <c r="B7" s="56"/>
-      <c r="C7" s="56"/>
-      <c r="D7" s="56"/>
+      <c r="A7" s="43"/>
+      <c r="B7" s="43"/>
+      <c r="C7" s="43"/>
+      <c r="D7" s="43"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="56"/>
+      <c r="A8" s="43"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:D7 A8 A1:H5">
-    <cfRule type="containsText" dxfId="21" priority="14" stopIfTrue="1" operator="containsText" text="conflict">
+    <cfRule type="containsText" dxfId="9" priority="14" stopIfTrue="1" operator="containsText" text="conflict">
       <formula>NOT(ISERROR(SEARCH("conflict",A1)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="20" priority="15" stopIfTrue="1" operator="equal">
+    <cfRule type="cellIs" dxfId="8" priority="15" stopIfTrue="1" operator="equal">
       <formula>"N/A"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B7:D7 B2:H5">
-    <cfRule type="containsText" dxfId="19" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
+    <cfRule type="containsText" dxfId="7" priority="1" stopIfTrue="1" operator="containsText" text="C2 Expand">
       <formula>NOT(ISERROR(SEARCH("C2 Expand",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="18" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
+    <cfRule type="containsText" dxfId="6" priority="2" stopIfTrue="1" operator="containsText" text="C1 Expand">
       <formula>NOT(ISERROR(SEARCH("C1 Expand",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
+    <cfRule type="containsText" dxfId="5" priority="3" stopIfTrue="1" operator="containsText" text="C2 Shrink">
       <formula>NOT(ISERROR(SEARCH("C2 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
+    <cfRule type="containsText" dxfId="4" priority="4" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="15" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
+    <cfRule type="containsText" dxfId="3" priority="5" stopIfTrue="1" operator="containsText" text="C2 ReDist">
       <formula>NOT(ISERROR(SEARCH("C2 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
+    <cfRule type="containsText" dxfId="2" priority="6" stopIfTrue="1" operator="containsText" text="C1 ReDist">
       <formula>NOT(ISERROR(SEARCH("C1 ReDist",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
+    <cfRule type="containsText" dxfId="1" priority="7" stopIfTrue="1" operator="containsText" text="C2 Push">
       <formula>NOT(ISERROR(SEARCH("C2 Push",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
+    <cfRule type="containsText" dxfId="0" priority="8" stopIfTrue="1" operator="containsText" text="C1 Push">
       <formula>NOT(ISERROR(SEARCH("C1 Push",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
 </worksheet>
 </file>
 

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="697" uniqueCount="440">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="448">
   <si>
     <t>Feature</t>
   </si>
@@ -640,9 +640,6 @@
   </si>
   <si>
     <t>CalculateCollisions()</t>
-  </si>
-  <si>
-    <t>Square with rounded corners and the right bottom corner is flipped up. Color by task type, but with a darker shade and a black border.</t>
   </si>
   <si>
     <t>Filters on the EntityViews</t>
@@ -1443,13 +1440,40 @@
     <t>Recalculate remaining allocations. Identify empty spaces. For each empty space, check if there is any relevant task that can be allocated by priority of: Highest priority intersecting insufficient InclusionZone, highest priority intersecting InclusionZone with CanFill.</t>
   </si>
   <si>
-    <t>async CreateTaskObjs</t>
-  </si>
-  <si>
-    <t>Is it possible to make the Interpret Data/Organize Data async?</t>
-  </si>
-  <si>
-    <t>What funcs do I need to call? I don’t need to BuildCheckIns() but everything afterwards?</t>
+    <t>Sequential Prioritization</t>
+  </si>
+  <si>
+    <t xml:space="preserve">e.g. Task A can't be done until Task B is done. </t>
+  </si>
+  <si>
+    <t>CheckIns on Calendar</t>
+  </si>
+  <si>
+    <t>like Notes</t>
+  </si>
+  <si>
+    <t>CheckIn graphic</t>
+  </si>
+  <si>
+    <t>Triangle centered on time, on the side, line spanning day</t>
+  </si>
+  <si>
+    <t>Square with rounded corners and the right bottom corner is flipped up.</t>
+  </si>
+  <si>
+    <t>Bug</t>
+  </si>
+  <si>
+    <t>Zooming in is glitchy, more glitchy the farther scrolled down</t>
+  </si>
+  <si>
+    <t>testing</t>
+  </si>
+  <si>
+    <t>Need to reload Notes/CheckIns/Tasks when adding new respectively in Calendar</t>
+  </si>
+  <si>
+    <t>What funcs do I need to call? I don’t need to BuildCheckIns() but everything afterwards? Add CheckIns to TaskMaps on new. Find CheckIn from TaskMaps on edit.</t>
   </si>
 </sst>
 </file>
@@ -1855,7 +1879,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="82">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2031,6 +2055,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2239,34 +2266,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <fill>
@@ -2464,13 +2463,6 @@
     </dxf>
     <dxf>
       <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
         <left style="medium">
           <color indexed="64"/>
         </left>
@@ -2483,6 +2475,41 @@
         <bottom style="medium">
           <color indexed="64"/>
         </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="medium">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill patternType="none">
+          <fgColor indexed="64"/>
+          <bgColor indexed="65"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <border diagonalUp="0" diagonalDown="0" outline="0">
+        <left style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </left>
+        <right style="thin">
+          <color theme="0" tint="-0.24994659260841701"/>
+        </right>
+        <top/>
+        <bottom/>
       </border>
     </dxf>
     <dxf>
@@ -3559,8 +3586,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C150" totalsRowShown="0">
-  <autoFilter ref="A1:C150" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C154" totalsRowShown="0">
+  <autoFilter ref="A1:C154" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="86"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -3648,17 +3675,17 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A637EB4D-B0BD-451A-AEF8-4F572CDAEA03}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0" headerRowDxfId="26" dataDxfId="27" headerRowBorderDxfId="36" tableBorderDxfId="37">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A637EB4D-B0BD-451A-AEF8-4F572CDAEA03}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:H5" xr:uid="{1C355147-87D4-4562-8BCA-2AC6E8731BE0}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{2D2C5C32-B8C1-434D-9678-8FA28AA9E25E}" name="C1 ∩ C2" dataDxfId="35"/>
-    <tableColumn id="2" xr3:uid="{83D2755C-6BC6-444B-B47B-E805256587D2}" name="C2HasRoom = T_x000a_C1 &gt;= C2" dataDxfId="34"/>
-    <tableColumn id="3" xr3:uid="{1CE782A0-B082-4A0B-9C40-AF715F441CC4}" name="C2HasRoom = T_x000a_C1 &lt; C2" dataDxfId="33"/>
-    <tableColumn id="4" xr3:uid="{BD5AA1DC-AE84-47FC-9B2A-54FD9FA153CE}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &gt;= C2" dataDxfId="32"/>
-    <tableColumn id="5" xr3:uid="{BB1432BE-D946-4CB6-B3F6-04E8F22BC33F}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &lt; C2" dataDxfId="31"/>
-    <tableColumn id="6" xr3:uid="{69EA148B-29D0-4FD1-8924-7228DCD5168D}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &gt;= C2" dataDxfId="30"/>
-    <tableColumn id="7" xr3:uid="{5304745C-6EDF-461B-A5C3-75B5645DF5C0}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &lt; C2" dataDxfId="29"/>
-    <tableColumn id="8" xr3:uid="{94277B06-039D-4427-8C01-ABF777E3ED15}" name="C2S🔒" dataDxfId="28"/>
+    <tableColumn id="1" xr3:uid="{2D2C5C32-B8C1-434D-9678-8FA28AA9E25E}" name="C1 ∩ C2" dataDxfId="33"/>
+    <tableColumn id="2" xr3:uid="{83D2755C-6BC6-444B-B47B-E805256587D2}" name="C2HasRoom = T_x000a_C1 &gt;= C2" dataDxfId="32"/>
+    <tableColumn id="3" xr3:uid="{1CE782A0-B082-4A0B-9C40-AF715F441CC4}" name="C2HasRoom = T_x000a_C1 &lt; C2" dataDxfId="31"/>
+    <tableColumn id="4" xr3:uid="{BD5AA1DC-AE84-47FC-9B2A-54FD9FA153CE}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &gt;= C2" dataDxfId="30"/>
+    <tableColumn id="5" xr3:uid="{BB1432BE-D946-4CB6-B3F6-04E8F22BC33F}" name="C2HasRoom = F_x000a_C2CanReDist = T_x000a_C1 &lt; C2" dataDxfId="29"/>
+    <tableColumn id="6" xr3:uid="{69EA148B-29D0-4FD1-8924-7228DCD5168D}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &gt;= C2" dataDxfId="28"/>
+    <tableColumn id="7" xr3:uid="{5304745C-6EDF-461B-A5C3-75B5645DF5C0}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &lt; C2" dataDxfId="27"/>
+    <tableColumn id="8" xr3:uid="{94277B06-039D-4427-8C01-ABF777E3ED15}" name="C2S🔒" dataDxfId="26"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3961,9 +3988,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G150"/>
+  <dimension ref="A1:G154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
       <selection activeCell="B81" sqref="B81"/>
     </sheetView>
   </sheetViews>
@@ -4536,13 +4563,13 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
+        <v>210</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>211</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4553,56 +4580,56 @@
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
+        <v>310</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>311</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>312</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -4611,7 +4638,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -4620,7 +4647,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -4629,7 +4656,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -4638,7 +4665,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -4647,7 +4674,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -4656,38 +4683,38 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>23</v>
@@ -4696,16 +4723,16 @@
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="12" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="9" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>23</v>
@@ -4723,7 +4750,7 @@
     </row>
     <row r="78" spans="1:3" s="9" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>23</v>
@@ -4732,7 +4759,7 @@
     </row>
     <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>23</v>
@@ -4741,7 +4768,7 @@
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>23</v>
@@ -4750,60 +4777,68 @@
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>437</v>
+        <v>430</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>438</v>
+        <v>447</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>431</v>
+        <v>445</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>439</v>
+        <v>446</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
+        <v>431</v>
+      </c>
+      <c r="C83" s="12" t="s">
         <v>432</v>
       </c>
-      <c r="C83" s="12" t="s">
-        <v>433</v>
-      </c>
-    </row>
-    <row r="84" spans="1:3" s="13" customFormat="1" ht="30">
+    </row>
+    <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>255</v>
+        <v>438</v>
+      </c>
+      <c r="B84" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>254</v>
+        <v>439</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>125</v>
+        <v>440</v>
+      </c>
+      <c r="B85" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>210</v>
+        <v>441</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="13" customFormat="1">
-      <c r="A86" s="11" t="s">
+      <c r="A86" s="81" t="s">
         <v>105</v>
       </c>
-      <c r="B86" s="3"/>
-      <c r="C86" s="12" t="s">
-        <v>203</v>
+      <c r="B86" s="9"/>
+      <c r="C86" s="10" t="s">
+        <v>442</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
       <c r="A87" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="B87" s="3"/>
+      <c r="B87" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C87" s="12" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1">
@@ -4818,443 +4853,479 @@
       <c r="A89" s="11" t="s">
         <v>196</v>
       </c>
+      <c r="B89" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C90" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A91" s="11" t="s">
+        <v>254</v>
+      </c>
+      <c r="C91" s="12" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="92" spans="1:3" s="13" customFormat="1">
+      <c r="A92" s="11" t="s">
+        <v>125</v>
+      </c>
+      <c r="C92" s="12" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1">
+      <c r="A93" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="C90" s="12"/>
-    </row>
-    <row r="91" spans="1:3" s="13" customFormat="1">
-      <c r="A91" s="11" t="s">
+      <c r="C93" s="12"/>
+    </row>
+    <row r="94" spans="1:3" s="13" customFormat="1">
+      <c r="A94" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C91" s="12" t="s">
+      <c r="C94" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="92" spans="1:3">
-      <c r="A92" s="2" t="s">
+    <row r="95" spans="1:3" s="13" customFormat="1">
+      <c r="A95" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="C92" s="4" t="s">
+      <c r="B95" s="3"/>
+      <c r="C95" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="93" spans="1:3">
-      <c r="A93" s="11" t="s">
-        <v>206</v>
-      </c>
-      <c r="B93" s="13"/>
-      <c r="C93" s="12"/>
-    </row>
-    <row r="94" spans="1:3">
-      <c r="A94" s="11" t="s">
+    <row r="96" spans="1:3">
+      <c r="A96" s="11" t="s">
+        <v>205</v>
+      </c>
+      <c r="B96" s="13"/>
+      <c r="C96" s="12"/>
+    </row>
+    <row r="97" spans="1:3">
+      <c r="A97" s="11" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="95" spans="1:3">
-      <c r="A95" s="11" t="s">
+    <row r="98" spans="1:3">
+      <c r="A98" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="C95" s="12" t="s">
+      <c r="C98" s="12" t="s">
         <v>161</v>
       </c>
     </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="2" t="s">
+    <row r="99" spans="1:3">
+      <c r="A99" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="C96" s="4" t="s">
+      <c r="C99" s="4" t="s">
         <v>92</v>
-      </c>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="C99" s="12" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="100" spans="1:3">
       <c r="A100" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3">
+      <c r="A101" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3">
+      <c r="A102" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3">
+      <c r="A103" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="30">
-      <c r="A101" s="11" t="s">
+    <row r="104" spans="1:3" ht="30">
+      <c r="A104" s="11" t="s">
+        <v>313</v>
+      </c>
+      <c r="C104" s="12" t="s">
         <v>314</v>
       </c>
-      <c r="C101" s="12" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="2" t="s">
+    </row>
+    <row r="105" spans="1:3">
+      <c r="A105" s="2" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="11" t="s">
+    <row r="106" spans="1:3">
+      <c r="A106" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="C103" s="12" t="s">
+      <c r="C106" s="12" t="s">
         <v>157</v>
       </c>
     </row>
-    <row r="104" spans="1:3">
-      <c r="A104" s="11" t="s">
+    <row r="107" spans="1:3">
+      <c r="A107" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="C104" s="12" t="s">
+      <c r="C107" s="12" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11" t="s">
+    <row r="108" spans="1:3">
+      <c r="A108" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="C105" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
+    <row r="109" spans="1:3">
+      <c r="A109" s="2" t="s">
         <v>8</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C108" s="4" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
-      <c r="A109" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="C109" s="12" t="s">
-        <v>98</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>13</v>
+        <v>11</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="111" spans="1:3">
-      <c r="A111" s="11" t="s">
-        <v>224</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>225</v>
+      <c r="A111" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C111" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="112" spans="1:3">
-      <c r="A112" s="2" t="s">
-        <v>79</v>
+      <c r="A112" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="113" spans="1:3">
       <c r="A113" s="2" t="s">
-        <v>35</v>
+        <v>13</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>33</v>
+      <c r="A114" s="11" t="s">
+        <v>223</v>
       </c>
       <c r="C114" s="12" t="s">
-        <v>34</v>
+        <v>224</v>
       </c>
     </row>
     <row r="115" spans="1:3">
-      <c r="A115" s="11" t="s">
-        <v>125</v>
+      <c r="A115" s="2" t="s">
+        <v>79</v>
       </c>
       <c r="C115" s="12" t="s">
-        <v>205</v>
+        <v>103</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3" ht="30">
-      <c r="A117" s="11" t="s">
-        <v>142</v>
+        <v>35</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="2" t="s">
+        <v>33</v>
       </c>
       <c r="C117" s="12" t="s">
-        <v>141</v>
+        <v>34</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="11" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="119" spans="1:3" ht="30">
-      <c r="A119" s="11" t="s">
-        <v>372</v>
+        <v>204</v>
+      </c>
+    </row>
+    <row r="119" spans="1:3">
+      <c r="A119" s="2" t="s">
+        <v>5</v>
       </c>
       <c r="C119" s="12" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3" ht="30">
       <c r="A120" s="11" t="s">
-        <v>373</v>
+        <v>142</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>374</v>
+        <v>141</v>
       </c>
     </row>
     <row r="121" spans="1:3">
       <c r="A121" s="11" t="s">
-        <v>100</v>
+        <v>144</v>
+      </c>
+      <c r="C121" s="12" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3">
-      <c r="A123" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C123" s="4" t="s">
-        <v>45</v>
+        <v>436</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3" ht="30">
+      <c r="A123" s="11" t="s">
+        <v>371</v>
+      </c>
+      <c r="C123" s="12" t="s">
+        <v>370</v>
       </c>
     </row>
     <row r="124" spans="1:3">
-      <c r="A124" s="2" t="s">
-        <v>49</v>
+      <c r="A124" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="C124" s="12" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="125" spans="1:3">
-      <c r="A125" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C125" s="12" t="s">
-        <v>104</v>
+      <c r="A125" s="11" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="126" spans="1:3">
       <c r="A126" s="11" t="s">
-        <v>226</v>
-      </c>
-      <c r="C126" s="12"/>
+        <v>101</v>
+      </c>
     </row>
     <row r="127" spans="1:3">
-      <c r="A127" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C127" s="12"/>
+      <c r="A127" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C127" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="11" t="s">
+      <c r="A128" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="129" spans="1:3">
+      <c r="A129" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C129" s="12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="130" spans="1:3">
+      <c r="A130" s="11" t="s">
+        <v>225</v>
+      </c>
+      <c r="C130" s="12"/>
+    </row>
+    <row r="131" spans="1:3">
+      <c r="A131" s="11" t="s">
+        <v>219</v>
+      </c>
+      <c r="C131" s="12"/>
+    </row>
+    <row r="132" spans="1:3">
+      <c r="A132" s="11" t="s">
         <v>148</v>
       </c>
-      <c r="C128" s="12"/>
-    </row>
-    <row r="129" spans="1:3">
-      <c r="A129" s="11" t="s">
+      <c r="C132" s="12"/>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="C129" s="12"/>
-    </row>
-    <row r="130" spans="1:3" ht="30">
-      <c r="A130" s="11" t="s">
+      <c r="C133" s="12"/>
+    </row>
+    <row r="134" spans="1:3" ht="30">
+      <c r="A134" s="11" t="s">
         <v>150</v>
       </c>
-      <c r="B130" s="13"/>
-      <c r="C130" s="12" t="s">
+      <c r="B134" s="13"/>
+      <c r="C134" s="12" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C131" s="4" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C132" s="4" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C134" s="12" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="135" spans="1:3">
       <c r="A135" s="2" t="s">
-        <v>77</v>
+        <v>74</v>
+      </c>
+      <c r="C135" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>209</v>
+      <c r="A136" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C136" s="4" t="s">
+        <v>86</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" s="9" customFormat="1">
+        <v>89</v>
+      </c>
+      <c r="C137" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
       <c r="A138" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="B138" s="3"/>
-      <c r="C138" s="4"/>
+        <v>95</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="139" spans="1:3">
       <c r="A139" s="2" t="s">
-        <v>58</v>
+        <v>77</v>
       </c>
     </row>
     <row r="140" spans="1:3">
-      <c r="A140" s="2" t="s">
-        <v>59</v>
+      <c r="A140" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C140" s="12" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>113</v>
+      <c r="A141" s="2" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
-      <c r="A143" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>138</v>
-      </c>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" s="9" customFormat="1">
+      <c r="A143" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B143" s="3"/>
+      <c r="C143" s="4"/>
     </row>
     <row r="144" spans="1:3">
-      <c r="A144" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B144" s="13"/>
-      <c r="C144" s="12" t="s">
-        <v>146</v>
+      <c r="A144" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
     <row r="145" spans="1:3">
       <c r="A145" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B145" s="13"/>
+        <v>106</v>
+      </c>
       <c r="C145" s="12" t="s">
-        <v>152</v>
+        <v>113</v>
       </c>
     </row>
     <row r="146" spans="1:3">
       <c r="A146" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B146" s="13"/>
+        <v>120</v>
+      </c>
       <c r="C146" s="12" t="s">
-        <v>154</v>
+        <v>121</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>233</v>
-      </c>
-      <c r="B147" s="13"/>
+        <v>137</v>
+      </c>
       <c r="C147" s="12" t="s">
-        <v>234</v>
-      </c>
-    </row>
-    <row r="148" spans="1:3" ht="30">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="148" spans="1:3">
       <c r="A148" s="11" t="s">
-        <v>240</v>
+        <v>145</v>
       </c>
       <c r="B148" s="13"/>
       <c r="C148" s="12" t="s">
-        <v>241</v>
+        <v>146</v>
       </c>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="11" t="s">
-        <v>242</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="B149" s="13"/>
       <c r="C149" s="12" t="s">
-        <v>243</v>
+        <v>152</v>
       </c>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="11" t="s">
+        <v>153</v>
+      </c>
+      <c r="B150" s="13"/>
+      <c r="C150" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3">
+      <c r="A151" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="B151" s="13"/>
+      <c r="C151" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3" ht="30">
+      <c r="A152" s="11" t="s">
+        <v>239</v>
+      </c>
+      <c r="B152" s="13"/>
+      <c r="C152" s="12" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="153" spans="1:3">
+      <c r="A153" s="11" t="s">
+        <v>241</v>
+      </c>
+      <c r="C153" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="154" spans="1:3">
+      <c r="A154" s="11" t="s">
+        <v>270</v>
+      </c>
+      <c r="C154" s="12" t="s">
         <v>271</v>
-      </c>
-      <c r="C150" s="12" t="s">
-        <v>272</v>
       </c>
     </row>
   </sheetData>
@@ -5318,18 +5389,18 @@
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -5337,47 +5408,47 @@
         <v>201</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
+        <v>246</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>247</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
+        <v>304</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>305</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>306</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
@@ -5385,63 +5456,63 @@
         <v>202</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A13" s="23" t="s">
+        <v>434</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>435</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>436</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="45">
       <c r="B21" s="10" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="30">
       <c r="B22" s="10" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="45">
       <c r="B24" s="15" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -5479,7 +5550,7 @@
         <v>163</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C2" s="20" t="s">
         <v>164</v>
@@ -5488,7 +5559,7 @@
         <v>197</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -5502,10 +5573,10 @@
         <v>184</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
     </row>
     <row r="4" spans="1:5">
@@ -5519,7 +5590,7 @@
         <v>185</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="5" spans="1:5">
@@ -5533,7 +5604,7 @@
         <v>186</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="E5" s="20" t="s">
         <v>166</v>
@@ -5541,13 +5612,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B6" s="33" t="s">
         <v>176</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
     </row>
     <row r="7" spans="1:5">
@@ -5558,10 +5629,10 @@
         <v>177</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="8" spans="1:5">
@@ -5575,7 +5646,7 @@
         <v>187</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="9" spans="1:5">
@@ -5589,10 +5660,10 @@
         <v>188</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="10" spans="1:5">
@@ -5603,10 +5674,10 @@
         <v>180</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="E10" s="20" t="s">
         <v>171</v>
@@ -5623,15 +5694,15 @@
         <v>190</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="B12" s="39" t="s">
         <v>182</v>
@@ -5640,10 +5711,10 @@
         <v>192</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="13" spans="1:5">
@@ -5657,50 +5728,50 @@
         <v>191</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1">
       <c r="A21" s="29" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5740,222 +5811,222 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>290</v>
+      </c>
+      <c r="C1" s="52" t="s">
         <v>291</v>
       </c>
-      <c r="C1" s="52" t="s">
+      <c r="D1" s="52" t="s">
         <v>292</v>
       </c>
-      <c r="D1" s="52" t="s">
+      <c r="E1" s="52" t="s">
         <v>293</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>294</v>
-      </c>
       <c r="F1" s="52" t="s">
+        <v>283</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>284</v>
       </c>
-      <c r="G1" s="52" t="s">
-        <v>285</v>
-      </c>
       <c r="H1" s="53" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="46" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="47" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="47" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="A5" s="47" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="47" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="47" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="54" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -6225,7 +6296,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6235,7 +6306,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="27" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -6245,7 +6316,7 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -6255,7 +6326,7 @@
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -6265,7 +6336,7 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -6275,177 +6346,177 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="27" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="27" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="27" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="27" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
       <c r="A26" s="27" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="90">
       <c r="A28" s="61" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="27" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="61" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="61" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="61" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="135">
       <c r="A35" s="61" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="24" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="27" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="27" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="27" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="27" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="27" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="27" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="27" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -6455,7 +6526,7 @@
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A49" s="8" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -6465,7 +6536,7 @@
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A50" s="8" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -6475,7 +6546,7 @@
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -6492,7 +6563,7 @@
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -6502,7 +6573,7 @@
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B54" s="80"/>
       <c r="C54" s="80"/>
@@ -6512,7 +6583,7 @@
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A55" s="8" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -6522,7 +6593,7 @@
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
@@ -6532,7 +6603,7 @@
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A57" s="8" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -6542,27 +6613,27 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="10" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
     </row>
   </sheetData>
@@ -6595,132 +6666,132 @@
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A1" s="59" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B1" s="27" t="s">
+        <v>392</v>
+      </c>
+      <c r="C1" s="27" t="s">
         <v>393</v>
       </c>
-      <c r="C1" s="27" t="s">
-        <v>394</v>
-      </c>
       <c r="D1" s="27" t="s">
+        <v>413</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>412</v>
+      </c>
+      <c r="F1" s="27" t="s">
         <v>414</v>
       </c>
-      <c r="E1" s="27" t="s">
-        <v>413</v>
-      </c>
-      <c r="F1" s="27" t="s">
+      <c r="G1" s="27" t="s">
         <v>415</v>
       </c>
-      <c r="G1" s="27" t="s">
-        <v>416</v>
-      </c>
       <c r="H1" s="27" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1">
       <c r="A2" s="62" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="C2" s="28" t="s">
-        <v>382</v>
-      </c>
       <c r="D2" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A3" s="62" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B3" s="42" t="s">
+        <v>380</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>380</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F3" s="19" t="s">
         <v>381</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="G3" s="49" t="s">
         <v>381</v>
       </c>
-      <c r="D3" s="19" t="s">
+      <c r="H3" s="49" t="s">
         <v>381</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>383</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>382</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>382</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A4" s="62" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E4" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="F4" s="19" t="s">
-        <v>384</v>
-      </c>
       <c r="G4" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="58" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -6735,119 +6806,119 @@
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1">
       <c r="A7" s="50" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B7" s="51" t="s">
+        <v>395</v>
+      </c>
+      <c r="C7" s="52" t="s">
         <v>396</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="D7" s="52" t="s">
         <v>397</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="E7" s="52" t="s">
         <v>398</v>
       </c>
-      <c r="E7" s="52" t="s">
-        <v>399</v>
-      </c>
       <c r="F7" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="46" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B8" s="41" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" s="28" t="s">
         <v>381</v>
       </c>
-      <c r="C8" s="28" t="s">
-        <v>382</v>
-      </c>
       <c r="D8" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="47" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D9" s="19" t="s">
+        <v>382</v>
+      </c>
+      <c r="E9" s="19" t="s">
         <v>383</v>
       </c>
-      <c r="E9" s="19" t="s">
-        <v>384</v>
-      </c>
       <c r="F9" s="49" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" thickBot="1">
       <c r="A12" s="63" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B12" s="64" t="s">
+        <v>401</v>
+      </c>
+      <c r="C12" s="65" t="s">
         <v>402</v>
       </c>
-      <c r="C12" s="65" t="s">
+      <c r="D12" s="65" t="s">
         <v>403</v>
       </c>
-      <c r="D12" s="65" t="s">
+      <c r="E12" s="65" t="s">
         <v>404</v>
       </c>
-      <c r="E12" s="65" t="s">
+      <c r="F12" s="65" t="s">
         <v>405</v>
       </c>
-      <c r="F12" s="65" t="s">
+      <c r="G12" s="66" t="s">
         <v>406</v>
       </c>
-      <c r="G12" s="66" t="s">
+      <c r="H12" s="66" t="s">
         <v>407</v>
       </c>
-      <c r="H12" s="66" t="s">
-        <v>408</v>
-      </c>
       <c r="I12" s="66" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="43"/>
@@ -6855,176 +6926,176 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="67" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B13" s="68" t="s">
+        <v>380</v>
+      </c>
+      <c r="C13" s="69" t="s">
+        <v>380</v>
+      </c>
+      <c r="D13" s="70" t="s">
         <v>381</v>
       </c>
-      <c r="C13" s="69" t="s">
+      <c r="E13" s="69" t="s">
         <v>381</v>
       </c>
-      <c r="D13" s="70" t="s">
-        <v>382</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>382</v>
-      </c>
       <c r="F13" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="71" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B14" s="72" t="s">
+        <v>380</v>
+      </c>
+      <c r="C14" s="73" t="s">
+        <v>227</v>
+      </c>
+      <c r="D14" s="74" t="s">
+        <v>380</v>
+      </c>
+      <c r="E14" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="F14" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="C14" s="73" t="s">
-        <v>228</v>
-      </c>
-      <c r="D14" s="74" t="s">
+      <c r="G14" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="H14" s="75" t="s">
         <v>381</v>
       </c>
-      <c r="E14" s="73" t="s">
-        <v>383</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>382</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>382</v>
-      </c>
       <c r="I14" s="75" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A15" s="71" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E15" s="73" t="s">
+        <v>382</v>
+      </c>
+      <c r="F15" s="74" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="74" t="s">
         <v>383</v>
       </c>
-      <c r="F15" s="74" t="s">
-        <v>228</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>384</v>
-      </c>
       <c r="H15" s="74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1">
       <c r="A16" s="67" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E16" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="F16" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="F16" s="78" t="s">
+      <c r="H16" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="G16" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>384</v>
-      </c>
       <c r="I16" s="78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1">
       <c r="A17" s="79" t="s">
+        <v>379</v>
+      </c>
+      <c r="B17" s="76" t="s">
         <v>380</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>381</v>
-      </c>
       <c r="C17" s="77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E17" s="77" t="s">
+        <v>382</v>
+      </c>
+      <c r="F17" s="78" t="s">
+        <v>382</v>
+      </c>
+      <c r="G17" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="F17" s="78" t="s">
+      <c r="H17" s="78" t="s">
         <v>383</v>
       </c>
-      <c r="G17" s="78" t="s">
-        <v>384</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>384</v>
-      </c>
       <c r="I17" s="78" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="79" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7087,132 +7158,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B1" s="51" t="s">
+        <v>341</v>
+      </c>
+      <c r="C1" s="52" t="s">
+        <v>337</v>
+      </c>
+      <c r="D1" s="52" t="s">
         <v>342</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>338</v>
-      </c>
-      <c r="D1" s="52" t="s">
-        <v>343</v>
-      </c>
       <c r="E1" s="52" t="s">
+        <v>328</v>
+      </c>
+      <c r="F1" s="52" t="s">
+        <v>340</v>
+      </c>
+      <c r="G1" s="52" t="s">
         <v>329</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>341</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>330</v>
-      </c>
       <c r="H1" s="53" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="46" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="47" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="47" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B4" s="42" t="s">
+        <v>334</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>334</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>336</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>335</v>
       </c>
-      <c r="C4" s="19" t="s">
-        <v>335</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>337</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>336</v>
-      </c>
       <c r="G4" s="19" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="54" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B5" s="55" t="s">
+        <v>334</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>334</v>
+      </c>
+      <c r="D5" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="E5" s="56" t="s">
+        <v>336</v>
+      </c>
+      <c r="F5" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="C5" s="56" t="s">
+      <c r="G5" s="56" t="s">
         <v>335</v>
       </c>
-      <c r="D5" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>337</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>336</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>336</v>
-      </c>
       <c r="H5" s="57" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
     </row>
     <row r="7" spans="1:8">

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -19,7 +19,8 @@
     <sheet name="Collisions" sheetId="7" r:id="rId5"/>
     <sheet name="Collisions2" sheetId="11" r:id="rId6"/>
     <sheet name="Redistributions" sheetId="9" r:id="rId7"/>
-    <sheet name="Thoughts" sheetId="3" r:id="rId8"/>
+    <sheet name="Tests" sheetId="12" r:id="rId8"/>
+    <sheet name="Thoughts" sheetId="3" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="709" uniqueCount="448">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="482">
   <si>
     <t>Feature</t>
   </si>
@@ -351,9 +352,6 @@
     <t>Note graphic</t>
   </si>
   <si>
-    <t>Auto Assign names to new notes</t>
-  </si>
-  <si>
     <t>Redesign DAL, Filters</t>
   </si>
   <si>
@@ -372,9 +370,6 @@
     <t>better AllocationSelectorView</t>
   </si>
   <si>
-    <t>Note 51 etc.</t>
-  </si>
-  <si>
     <t>FilterView</t>
   </si>
   <si>
@@ -396,9 +391,6 @@
     <t>Resource API</t>
   </si>
   <si>
-    <t>create an API that exposes functions that allow an external program to interact with resource consumption/acquisition</t>
-  </si>
-  <si>
     <t>Problem</t>
   </si>
   <si>
@@ -495,9 +487,6 @@
     <t>Parallel</t>
   </si>
   <si>
-    <t>In CreateEventObjectsFromTimeTasks implement task cancellation</t>
-  </si>
-  <si>
     <t>better allocations</t>
   </si>
   <si>
@@ -516,9 +505,6 @@
     <t>non-interactive CalObj</t>
   </si>
   <si>
-    <t>Generally to display stuff like holidays, don't have collisions, cant select or click</t>
-  </si>
-  <si>
     <t>CalObj States</t>
   </si>
   <si>
@@ -615,12 +601,6 @@
     <t>update Notes</t>
   </si>
   <si>
-    <t>Note editor tooltip</t>
-  </si>
-  <si>
-    <t>Explains that stuff typed in Note.Text can determine the state of CalObjs</t>
-  </si>
-  <si>
     <t>CalObj tooltips</t>
   </si>
   <si>
@@ -645,16 +625,10 @@
     <t>Filters on the EntityViews</t>
   </si>
   <si>
-    <t>If today changes, do I need to rebuild the calendar for an reason?</t>
-  </si>
-  <si>
     <t>Day panel dimensions</t>
   </si>
   <si>
     <t>Border Color</t>
-  </si>
-  <si>
-    <t>noninteractive NowMarker</t>
   </si>
   <si>
     <t>no selection but has tooltip</t>
@@ -1187,9 +1161,6 @@
   </si>
   <si>
     <t>The gap can be filled during AllocateInsufficient() that looks for tasks that are insufficient and tries to add time to identified gaps.</t>
-  </si>
-  <si>
-    <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it.</t>
   </si>
   <si>
     <t>Travel Time + Minimum Time</t>
@@ -1406,9 +1377,6 @@
 Else RC = C1. Return Tuple(RC, DELETE)
 Stop the CalculateCollision() loop to modify the collection. Run CalculateCollision() again.
 Splits will be handled again in terms of intersection collisions.</t>
-  </si>
-  <si>
-    <t>smarter splitting</t>
   </si>
   <si>
     <t>In a Collision C1 ∩ C2: 
@@ -1474,6 +1442,144 @@
   </si>
   <si>
     <t>What funcs do I need to call? I don’t need to BuildCheckIns() but everything afterwards? Add CheckIns to TaskMaps on new. Find CheckIn from TaskMaps on edit.</t>
+  </si>
+  <si>
+    <t>New CheckIn has an irrelevant Task</t>
+  </si>
+  <si>
+    <t>New CheckIn has an irrelevant Per</t>
+  </si>
+  <si>
+    <t>New CheckIn doesn't belong to a Per</t>
+  </si>
+  <si>
+    <t>Selecting an object with shadowclones should also show a selection graphic on all shadow clones</t>
+  </si>
+  <si>
+    <t>select ShadowClone</t>
+  </si>
+  <si>
+    <t>Note</t>
+  </si>
+  <si>
+    <t>Task</t>
+  </si>
+  <si>
+    <t>Type</t>
+  </si>
+  <si>
+    <t>Delete</t>
+  </si>
+  <si>
+    <t>Commit</t>
+  </si>
+  <si>
+    <t>Cancel</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Edit</t>
+  </si>
+  <si>
+    <t>Edit/New Task to cause collition</t>
+  </si>
+  <si>
+    <t>Edit/New Task large per extends out of Calendar</t>
+  </si>
+  <si>
+    <t>Task per interacts with task outside of Calendar</t>
+  </si>
+  <si>
+    <t>Editor Editor</t>
+  </si>
+  <si>
+    <t>Let me CRUD other obejcts while in editor. E.g. let me create update delete patterns while creating a task. This can be done by adding VMs to the VMs, but make sure you don't cause stack overflows with circle reference.</t>
+  </si>
+  <si>
+    <t>CheckIn/Note selection box</t>
+  </si>
+  <si>
+    <t>make the selection box smaller for these, maybe instead of creating a highlight box, change foreground color</t>
+  </si>
+  <si>
+    <t>selection status in statusbar</t>
+  </si>
+  <si>
+    <t>When scrolled all the down, then when zooming out, the animation is not smooth. Probably the scroll animation and zoom animation aren't synergizing.</t>
+  </si>
+  <si>
+    <t>Delete confirmation</t>
+  </si>
+  <si>
+    <t>Better tooltips</t>
+  </si>
+  <si>
+    <t>expandable properties</t>
+  </si>
+  <si>
+    <t>Generally to display stuff like holidays, don't have collisions, cant select or click: In WeekView in the CompositeCollection, set the object IsHitTestVisibile to false, set the ListBoxItem prop to content property</t>
+  </si>
+  <si>
+    <t>Tooltips disappeared</t>
+  </si>
+  <si>
+    <t>Creating/Deleting a CheckIn causes everything to disappear until I click reload: Allocations weren't being reset</t>
+  </si>
+  <si>
+    <t>New CheckIn doesn't show up until reload</t>
+  </si>
+  <si>
+    <t>Creating a Start CheckIn before a Start CheckIn somehow gets stuck in the while loop in AllocateEmptySpace(). It thinks there's an empty space from the start of the calendar to the second CheckIn.: Not sure if fixed? Stopped happening?</t>
+  </si>
+  <si>
+    <t>Triggers</t>
+  </si>
+  <si>
+    <t>Create a new object like Note or CheckIn that shows on calendar. It listens to the tick timer and causes something to happen based on conditions. Perhaps we can specify what the trigger listens to. The conditions can be things like: Now &gt;= Trigger.DT. Or a certain number of resources have been met for a certain Task. Or a certain amount of time has been spent on a Task.  Pers have a list of Triggers. A task can set recurring triggers.</t>
+  </si>
+  <si>
+    <t>Things that a trigger can trigger</t>
+  </si>
+  <si>
+    <t>Bells, whistles, alarms, tallys, special effects, Weak Auras, music, sound effects, etc… 
+External programs, go to a website, open a program, start a script
+Create a new Task, set a note, check in… This might be the best way to do sequential prioritization
+Announce a certain condition has been met to whoever is listening</t>
+  </si>
+  <si>
+    <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it. May require sequential prioritization</t>
+  </si>
+  <si>
+    <t>state, duration, locks, more info, organized better</t>
+  </si>
+  <si>
+    <t>concurrent note/checkin</t>
+  </si>
+  <si>
+    <t>Where there are checkins that have the same DT, display them side by side like 🔒🔒------------------------- Or maybe just letters  S E indicating start, end</t>
+  </si>
+  <si>
+    <t>If today changes, do I need to rebuild the calendar for any reason?</t>
+  </si>
+  <si>
+    <t>Thumb snapping</t>
+  </si>
+  <si>
+    <t>non-interactive NowMarker</t>
+  </si>
+  <si>
+    <t>create an API that exposes functions that allow an external program to interact with resource consumption/acquisition. Will be useful for automatically tracking things like sleep with Beddit, fitness with FitBit, maybe eventually tracking of receipt data</t>
+  </si>
+  <si>
+    <t>In CreateEventObjectsFromTimeTasks implement task cancellation. Will allow you to scroll past views with data as if they didn't have data. Will allow you to cancel if database is not responding.</t>
+  </si>
+  <si>
+    <t>smarter splitting: Does it make sense to split and will the split parts be large enough?</t>
+  </si>
+  <si>
+    <t>Can copy database as file based db, but you still need to fully instal SQL Server. Need better solution try SQL Server CE</t>
   </si>
 </sst>
 </file>
@@ -3586,8 +3692,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C154" totalsRowShown="0">
-  <autoFilter ref="A1:C154" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C169" totalsRowShown="0">
+  <autoFilter ref="A1:C169" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="86"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -3686,6 +3792,21 @@
     <tableColumn id="6" xr3:uid="{69EA148B-29D0-4FD1-8924-7228DCD5168D}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &gt;= C2" dataDxfId="28"/>
     <tableColumn id="7" xr3:uid="{5304745C-6EDF-461B-A5C3-75B5645DF5C0}" name="C2HasRoom = F_x000a_C2CanReDist = F_x000a_C1 &lt; C2" dataDxfId="27"/>
     <tableColumn id="8" xr3:uid="{94277B06-039D-4427-8C01-ABF777E3ED15}" name="C2S🔒" dataDxfId="26"/>
+  </tableColumns>
+  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23251552-5E98-4102-9DE7-0FF2B60CEB4B}" name="Table8" displayName="Table8" ref="B1:G4" totalsRowShown="0">
+  <autoFilter ref="B1:G4" xr:uid="{876B12BE-7000-4382-A947-7B6C125C4C06}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{1E78DD40-652F-4A6D-975C-DCA817CDDF28}" name="Type"/>
+    <tableColumn id="2" xr3:uid="{0F33217D-11DD-4A3C-8C27-ED6B87268CDF}" name="New"/>
+    <tableColumn id="3" xr3:uid="{3470A257-BD23-4471-B37E-B012CB4429B1}" name="Edit"/>
+    <tableColumn id="4" xr3:uid="{6B12055E-98EA-40A6-BB26-8C1078FEE629}" name="Delete"/>
+    <tableColumn id="5" xr3:uid="{C949607E-C0F6-43D9-AA87-2FE72DD5371F}" name="Commit"/>
+    <tableColumn id="6" xr3:uid="{6E95E679-F973-4B3F-8D18-0FF637B6C39E}" name="Cancel"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -3988,17 +4109,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G154"/>
+  <dimension ref="A1:G169"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" workbookViewId="0">
-      <selection activeCell="B81" sqref="B81"/>
+    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="C90" sqref="C90"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="151.140625" style="4" customWidth="1"/>
+    <col min="3" max="3" width="153.7109375" style="4" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
@@ -4301,7 +4422,9 @@
       <c r="B31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C31" s="8"/>
+      <c r="C31" s="8" t="s">
+        <v>481</v>
+      </c>
     </row>
     <row r="32" spans="1:7">
       <c r="A32" s="2" t="s">
@@ -4348,7 +4471,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>23</v>
@@ -4356,7 +4479,7 @@
     </row>
     <row r="38" spans="1:3" s="13" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>23</v>
@@ -4365,18 +4488,18 @@
     </row>
     <row r="39" spans="1:3" s="13" customFormat="1">
       <c r="A39" s="11" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B39" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C39" s="12" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>23</v>
@@ -4384,7 +4507,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>23</v>
@@ -4392,24 +4515,24 @@
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="11" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B42" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C42" s="12" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B43" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C43" s="12" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4430,40 +4553,40 @@
     </row>
     <row r="46" spans="1:3" s="13" customFormat="1">
       <c r="A46" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A47" s="11" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="9" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1">
       <c r="A49" s="11" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>23</v>
@@ -4472,51 +4595,51 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="14" customFormat="1" ht="45">
       <c r="A51" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="14" customFormat="1">
       <c r="A52" s="11" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="B52" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C52" s="12" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="B53" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C53" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>23</v>
@@ -4525,18 +4648,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>23</v>
@@ -4545,7 +4668,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -4554,7 +4677,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>23</v>
@@ -4563,73 +4686,73 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>211</v>
+        <v>202</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>238</v>
+        <v>229</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>235</v>
+        <v>226</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>237</v>
+        <v>228</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>236</v>
+        <v>227</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>309</v>
+        <v>300</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -4638,7 +4761,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -4647,7 +4770,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -4656,7 +4779,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -4665,7 +4788,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -4674,7 +4797,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -4683,38 +4806,38 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>344</v>
+        <v>335</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B73" s="13"/>
       <c r="C73" s="12" t="s">
-        <v>433</v>
+        <v>422</v>
       </c>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>23</v>
@@ -4723,16 +4846,16 @@
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>419</v>
+        <v>409</v>
       </c>
       <c r="B75" s="13"/>
       <c r="C75" s="12" t="s">
-        <v>428</v>
+        <v>480</v>
       </c>
     </row>
     <row r="76" spans="1:3" s="9" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>418</v>
+        <v>408</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>23</v>
@@ -4741,7 +4864,7 @@
     </row>
     <row r="77" spans="1:3" s="9" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>23</v>
@@ -4750,7 +4873,7 @@
     </row>
     <row r="78" spans="1:3" s="9" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>358</v>
+        <v>349</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>23</v>
@@ -4759,7 +4882,7 @@
     </row>
     <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>23</v>
@@ -4768,7 +4891,7 @@
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>23</v>
@@ -4777,48 +4900,54 @@
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>430</v>
+        <v>419</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>447</v>
+        <v>436</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>445</v>
+        <v>434</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>446</v>
+        <v>435</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
-        <v>431</v>
+        <v>420</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>432</v>
+        <v>421</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>438</v>
+        <v>427</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C84" s="12" t="s">
-        <v>439</v>
+        <v>428</v>
       </c>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>440</v>
+        <v>429</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>441</v>
+        <v>430</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="13" customFormat="1">
@@ -4827,7 +4956,7 @@
       </c>
       <c r="B86" s="9"/>
       <c r="C86" s="10" t="s">
-        <v>442</v>
+        <v>431</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
@@ -4838,494 +4967,624 @@
         <v>23</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>228</v>
+        <v>219</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1">
       <c r="A88" s="11" t="s">
-        <v>194</v>
-      </c>
-      <c r="C88" s="12" t="s">
-        <v>195</v>
-      </c>
+        <v>189</v>
+      </c>
+      <c r="B88" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C88" s="12"/>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1">
       <c r="A89" s="11" t="s">
-        <v>196</v>
-      </c>
-      <c r="B89" s="13" t="s">
-        <v>23</v>
+        <v>434</v>
       </c>
       <c r="C89" s="12"/>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="11" t="s">
-        <v>443</v>
+        <v>432</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>444</v>
+        <v>465</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A91" s="11" t="s">
-        <v>254</v>
+        <v>432</v>
+      </c>
+      <c r="B91" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>253</v>
+        <v>466</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="11" t="s">
-        <v>125</v>
+        <v>432</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>209</v>
+        <v>463</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="13" customFormat="1">
       <c r="A93" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="C93" s="12"/>
+        <v>432</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C93" s="12" t="s">
+        <v>464</v>
+      </c>
     </row>
     <row r="94" spans="1:3" s="13" customFormat="1">
       <c r="A94" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C94" s="12" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="95" spans="1:3" s="13" customFormat="1">
+      <c r="A95" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C95" s="12" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1">
+      <c r="A96" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C96" s="12"/>
+    </row>
+    <row r="97" spans="1:3" s="13" customFormat="1">
+      <c r="A97" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C97" s="12" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="98" spans="1:3" s="13" customFormat="1">
+      <c r="A98" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C98" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="99" spans="1:3" s="13" customFormat="1">
+      <c r="A99" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="B99" s="3"/>
+      <c r="C99" s="12" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="100" spans="1:3" s="13" customFormat="1">
+      <c r="A100" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="B100" s="3"/>
+      <c r="C100" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A101" s="11" t="s">
+        <v>245</v>
+      </c>
+      <c r="C101" s="12" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="102" spans="1:3" s="13" customFormat="1">
+      <c r="A102" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="C102" s="12" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="103" spans="1:3" s="13" customFormat="1">
+      <c r="A103" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C103" s="12"/>
+    </row>
+    <row r="104" spans="1:3">
+      <c r="A104" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="C94" s="12" t="s">
+      <c r="B104" s="13"/>
+      <c r="C104" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="95" spans="1:3" s="13" customFormat="1">
-      <c r="A95" s="2" t="s">
+    <row r="105" spans="1:3">
+      <c r="A105" s="11" t="s">
+        <v>441</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3">
+      <c r="A106" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="B95" s="3"/>
-      <c r="C95" s="4" t="s">
+      <c r="C106" s="4" t="s">
         <v>88</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3">
-      <c r="A96" s="11" t="s">
-        <v>205</v>
-      </c>
-      <c r="B96" s="13"/>
-      <c r="C96" s="12"/>
-    </row>
-    <row r="97" spans="1:3">
-      <c r="A97" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="98" spans="1:3">
-      <c r="A98" s="11" t="s">
-        <v>160</v>
-      </c>
-      <c r="C98" s="12" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="99" spans="1:3">
-      <c r="A99" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="C99" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="100" spans="1:3">
-      <c r="A100" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3">
-      <c r="A101" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="102" spans="1:3">
-      <c r="A102" s="11" t="s">
-        <v>220</v>
-      </c>
-      <c r="C102" s="12" t="s">
-        <v>221</v>
-      </c>
-    </row>
-    <row r="103" spans="1:3">
-      <c r="A103" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="104" spans="1:3" ht="30">
-      <c r="A104" s="11" t="s">
-        <v>313</v>
-      </c>
-      <c r="C104" s="12" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="2" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="C106" s="12" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="107" spans="1:3">
       <c r="A107" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="C107" s="12" t="s">
-        <v>158</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="B107" s="13"/>
+      <c r="C107" s="12"/>
     </row>
     <row r="108" spans="1:3">
       <c r="A108" s="11" t="s">
-        <v>131</v>
-      </c>
-      <c r="C108" s="12" t="s">
-        <v>132</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:3">
-      <c r="A109" s="2" t="s">
-        <v>8</v>
+      <c r="A109" s="11" t="s">
+        <v>473</v>
+      </c>
+      <c r="C109" s="12" t="s">
+        <v>474</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C110" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C111" s="4" t="s">
-        <v>47</v>
+        <v>89</v>
+      </c>
+      <c r="C110" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" ht="30">
+      <c r="A111" s="11" t="s">
+        <v>156</v>
+      </c>
+      <c r="B111" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>462</v>
       </c>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11" t="s">
-        <v>97</v>
+        <v>477</v>
+      </c>
+      <c r="B112" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C112" s="12" t="s">
-        <v>98</v>
+        <v>199</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="2" t="s">
-        <v>13</v>
+      <c r="A113" s="81" t="s">
+        <v>455</v>
+      </c>
+      <c r="B113" s="9"/>
+      <c r="C113" s="10" t="s">
+        <v>456</v>
       </c>
     </row>
     <row r="114" spans="1:3">
       <c r="A114" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="C114" s="12" t="s">
-        <v>224</v>
-      </c>
+        <v>457</v>
+      </c>
+      <c r="C114" s="12"/>
     </row>
     <row r="115" spans="1:3">
       <c r="A115" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>103</v>
+        <v>91</v>
+      </c>
+      <c r="C115" s="4" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:3">
       <c r="A116" s="2" t="s">
-        <v>35</v>
+        <v>6</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="C117" s="12" t="s">
-        <v>34</v>
+        <v>7</v>
       </c>
     </row>
     <row r="118" spans="1:3">
       <c r="A118" s="11" t="s">
-        <v>125</v>
+        <v>211</v>
       </c>
       <c r="C118" s="12" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C119" s="12" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
     </row>
     <row r="120" spans="1:3" ht="30">
       <c r="A120" s="11" t="s">
-        <v>142</v>
+        <v>453</v>
       </c>
       <c r="C120" s="12" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3" ht="30">
       <c r="A121" s="11" t="s">
-        <v>144</v>
+        <v>304</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>143</v>
+        <v>305</v>
       </c>
     </row>
     <row r="122" spans="1:3">
-      <c r="A122" s="11" t="s">
-        <v>436</v>
-      </c>
-      <c r="C122" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="123" spans="1:3" ht="30">
+      <c r="A122" s="2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
-        <v>371</v>
+        <v>151</v>
       </c>
       <c r="C123" s="12" t="s">
-        <v>370</v>
+        <v>153</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="11" t="s">
-        <v>372</v>
+        <v>152</v>
       </c>
       <c r="C124" s="12" t="s">
-        <v>373</v>
+        <v>154</v>
       </c>
     </row>
     <row r="125" spans="1:3">
       <c r="A125" s="11" t="s">
-        <v>100</v>
+        <v>128</v>
+      </c>
+      <c r="C125" s="12" t="s">
+        <v>129</v>
       </c>
     </row>
     <row r="126" spans="1:3">
-      <c r="A126" s="11" t="s">
-        <v>101</v>
+      <c r="A126" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C127" s="4" t="s">
-        <v>45</v>
+        <v>11</v>
+      </c>
+      <c r="C127" s="12" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="2" t="s">
-        <v>49</v>
+        <v>46</v>
+      </c>
+      <c r="C128" s="4" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="2" t="s">
-        <v>60</v>
+      <c r="A129" s="11" t="s">
+        <v>97</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>104</v>
+        <v>98</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="11" t="s">
-        <v>225</v>
-      </c>
-      <c r="C130" s="12"/>
+      <c r="A130" s="2" t="s">
+        <v>13</v>
+      </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="11" t="s">
-        <v>219</v>
-      </c>
-      <c r="C131" s="12"/>
+      <c r="A131" s="2" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="132" spans="1:3">
-      <c r="A132" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="C132" s="12"/>
+      <c r="A132" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="C133" s="12"/>
-    </row>
-    <row r="134" spans="1:3" ht="30">
-      <c r="A134" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B134" s="13"/>
+        <v>122</v>
+      </c>
+      <c r="C133" s="12" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="2" t="s">
+        <v>5</v>
+      </c>
       <c r="C134" s="12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C135" s="4" t="s">
-        <v>75</v>
+        <v>196</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3" ht="30">
+      <c r="A135" s="11" t="s">
+        <v>139</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="136" spans="1:3">
-      <c r="A136" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C136" s="4" t="s">
-        <v>86</v>
+      <c r="A136" s="11" t="s">
+        <v>141</v>
+      </c>
+      <c r="C136" s="12" t="s">
+        <v>140</v>
       </c>
     </row>
     <row r="137" spans="1:3">
-      <c r="A137" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="C137" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3">
+      <c r="A137" s="11" t="s">
+        <v>425</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3" ht="45">
       <c r="A138" s="11" t="s">
-        <v>95</v>
+        <v>467</v>
       </c>
       <c r="C138" s="12" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3" ht="60">
+      <c r="A139" s="11" t="s">
+        <v>469</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3" ht="30">
       <c r="A140" s="11" t="s">
-        <v>207</v>
+        <v>361</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>208</v>
+        <v>471</v>
       </c>
     </row>
     <row r="141" spans="1:3">
-      <c r="A141" s="2" t="s">
-        <v>68</v>
+      <c r="A141" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="C141" s="12" t="s">
+        <v>363</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" s="9" customFormat="1">
-      <c r="A143" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B143" s="3"/>
-      <c r="C143" s="4"/>
+        <v>100</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3">
+      <c r="A143" s="11" t="s">
+        <v>101</v>
+      </c>
     </row>
     <row r="144" spans="1:3">
       <c r="A144" s="2" t="s">
-        <v>59</v>
+        <v>44</v>
+      </c>
+      <c r="C144" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="145" spans="1:3">
-      <c r="A145" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="C145" s="12" t="s">
-        <v>113</v>
+      <c r="A145" s="2" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="11" t="s">
-        <v>120</v>
+      <c r="A146" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>121</v>
+        <v>104</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>137</v>
-      </c>
-      <c r="C147" s="12" t="s">
-        <v>138</v>
-      </c>
+        <v>476</v>
+      </c>
+      <c r="C147" s="12"/>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="B148" s="13"/>
-      <c r="C148" s="12" t="s">
-        <v>146</v>
-      </c>
+        <v>216</v>
+      </c>
+      <c r="C148" s="12"/>
     </row>
     <row r="149" spans="1:3">
       <c r="A149" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="B149" s="13"/>
-      <c r="C149" s="12" t="s">
-        <v>152</v>
-      </c>
+        <v>210</v>
+      </c>
+      <c r="C149" s="12"/>
     </row>
     <row r="150" spans="1:3">
       <c r="A150" s="11" t="s">
-        <v>153</v>
-      </c>
-      <c r="B150" s="13"/>
-      <c r="C150" s="12" t="s">
-        <v>154</v>
-      </c>
+        <v>145</v>
+      </c>
+      <c r="C150" s="12"/>
     </row>
     <row r="151" spans="1:3">
       <c r="A151" s="11" t="s">
-        <v>232</v>
-      </c>
-      <c r="B151" s="13"/>
-      <c r="C151" s="12" t="s">
-        <v>233</v>
-      </c>
+        <v>146</v>
+      </c>
+      <c r="C151" s="12"/>
     </row>
     <row r="152" spans="1:3" ht="30">
       <c r="A152" s="11" t="s">
-        <v>239</v>
+        <v>147</v>
       </c>
       <c r="B152" s="13"/>
       <c r="C152" s="12" t="s">
-        <v>240</v>
+        <v>36</v>
       </c>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="11" t="s">
-        <v>241</v>
-      </c>
-      <c r="C153" s="12" t="s">
-        <v>242</v>
+      <c r="A153" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C153" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="11" t="s">
-        <v>270</v>
-      </c>
-      <c r="C154" s="12" t="s">
-        <v>271</v>
+      <c r="A154" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C154" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="155" spans="1:3">
+      <c r="A155" s="11" t="s">
+        <v>95</v>
+      </c>
+      <c r="C155" s="12" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="156" spans="1:3">
+      <c r="A156" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3" s="9" customFormat="1">
+      <c r="A157" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B157" s="3"/>
+      <c r="C157" s="4"/>
+    </row>
+    <row r="158" spans="1:3">
+      <c r="A158" s="11" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="159" spans="1:3">
+      <c r="A159" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="160" spans="1:3">
+      <c r="A160" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3" ht="30">
+      <c r="A161" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C161" s="12" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3">
+      <c r="A162" s="11" t="s">
+        <v>134</v>
+      </c>
+      <c r="C162" s="12" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="163" spans="1:3">
+      <c r="A163" s="11" t="s">
+        <v>142</v>
+      </c>
+      <c r="B163" s="13"/>
+      <c r="C163" s="12" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="164" spans="1:3">
+      <c r="A164" s="11" t="s">
+        <v>148</v>
+      </c>
+      <c r="B164" s="13"/>
+      <c r="C164" s="12" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3" ht="30">
+      <c r="A165" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="B165" s="13"/>
+      <c r="C165" s="12" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
+      <c r="A166" s="11" t="s">
+        <v>223</v>
+      </c>
+      <c r="B166" s="13"/>
+      <c r="C166" s="12" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3" ht="30">
+      <c r="A167" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="B167" s="13"/>
+      <c r="C167" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="168" spans="1:3">
+      <c r="A168" s="11" t="s">
+        <v>232</v>
+      </c>
+      <c r="C168" s="12" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="169" spans="1:3">
+      <c r="A169" s="11" t="s">
+        <v>261</v>
+      </c>
+      <c r="C169" s="12" t="s">
+        <v>262</v>
       </c>
     </row>
   </sheetData>
@@ -5365,7 +5624,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
-        <v>200</v>
+        <v>193</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5381,138 +5640,138 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>225</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" t="s">
-        <v>201</v>
+        <v>194</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>308</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>231</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
-        <v>304</v>
+        <v>295</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>305</v>
+        <v>296</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>307</v>
+        <v>298</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>303</v>
+        <v>294</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>306</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>202</v>
+        <v>195</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A13" s="23" t="s">
-        <v>434</v>
+        <v>423</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>435</v>
+        <v>424</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>421</v>
+        <v>411</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="45">
       <c r="B21" s="10" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="30">
       <c r="B22" s="10" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="45">
       <c r="B24" s="15" t="s">
-        <v>280</v>
+        <v>271</v>
       </c>
     </row>
   </sheetData>
@@ -5526,7 +5785,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5542,236 +5801,236 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="B2" s="20" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D2" s="20" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>214</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>230</v>
+        <v>221</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B4" s="31" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="B5" s="32" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="B6" s="33" t="s">
-        <v>176</v>
+        <v>220</v>
+      </c>
+      <c r="B6" s="34" t="s">
+        <v>172</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>177</v>
+        <v>163</v>
+      </c>
+      <c r="B7" s="33" t="s">
+        <v>171</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="B8" s="35" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="B9" s="36" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="B10" s="37" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B11" s="38" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B12" s="39" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="B13" s="40" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>217</v>
+        <v>208</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="20" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="20" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="20" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="20" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="20" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="20" t="s">
-        <v>286</v>
+        <v>277</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1">
       <c r="A21" s="29" t="s">
-        <v>288</v>
+        <v>279</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="29" t="s">
-        <v>289</v>
+        <v>280</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -5794,7 +6053,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="J5" sqref="J5"/>
+      <selection pane="bottomRight" activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="22.28515625" defaultRowHeight="15"/>
@@ -5811,222 +6070,222 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>285</v>
+        <v>276</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>282</v>
+        <v>273</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="46" t="s">
-        <v>290</v>
+        <v>281</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>295</v>
+        <v>286</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="47" t="s">
-        <v>291</v>
+        <v>282</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="47" t="s">
-        <v>292</v>
+        <v>283</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="A5" s="47" t="s">
-        <v>293</v>
+        <v>284</v>
       </c>
       <c r="B5" s="42" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H5" s="49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="47" t="s">
-        <v>283</v>
+        <v>274</v>
       </c>
       <c r="B6" s="42" t="s">
-        <v>294</v>
+        <v>285</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H6" s="49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="47" t="s">
-        <v>284</v>
+        <v>275</v>
       </c>
       <c r="B7" s="42" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H7" s="49" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="54" t="s">
-        <v>281</v>
+        <v>272</v>
       </c>
       <c r="B8" s="55" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="C8" s="56" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D8" s="56" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E8" s="56" t="s">
-        <v>300</v>
+        <v>291</v>
       </c>
       <c r="F8" s="56" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G8" s="56" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H8" s="57" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -6283,7 +6542,7 @@
   <dimension ref="A1:F63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A36" sqref="A36"/>
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6296,7 +6555,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>312</v>
+        <v>303</v>
       </c>
       <c r="B1" s="44"/>
       <c r="C1" s="44"/>
@@ -6306,7 +6565,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="27" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B2" s="44"/>
       <c r="C2" s="44"/>
@@ -6316,7 +6575,7 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>319</v>
+        <v>310</v>
       </c>
       <c r="B3" s="44"/>
       <c r="C3" s="44"/>
@@ -6326,7 +6585,7 @@
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B4" s="44"/>
       <c r="C4" s="44"/>
@@ -6336,7 +6595,7 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="B5" s="44"/>
       <c r="C5" s="44"/>
@@ -6346,177 +6605,177 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>322</v>
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="27" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="27" t="s">
-        <v>317</v>
+        <v>308</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27" t="s">
-        <v>361</v>
+        <v>352</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>362</v>
+        <v>353</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>360</v>
+        <v>351</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
-        <v>376</v>
+        <v>366</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>377</v>
+        <v>367</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="27" t="s">
-        <v>363</v>
+        <v>354</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="27" t="s">
-        <v>364</v>
+        <v>355</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="27" t="s">
-        <v>365</v>
+        <v>356</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>366</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="27" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
-        <v>424</v>
+        <v>414</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>422</v>
+        <v>412</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>423</v>
+        <v>413</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
       <c r="A26" s="27" t="s">
-        <v>425</v>
+        <v>415</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="s">
-        <v>426</v>
+        <v>416</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="90">
       <c r="A28" s="61" t="s">
-        <v>427</v>
+        <v>417</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="27" t="s">
-        <v>417</v>
+        <v>407</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
-        <v>378</v>
+        <v>368</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="61" t="s">
-        <v>389</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="61" t="s">
-        <v>390</v>
+        <v>380</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="61" t="s">
-        <v>391</v>
+        <v>381</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="135">
       <c r="A35" s="61" t="s">
-        <v>429</v>
+        <v>418</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="24" t="s">
-        <v>388</v>
+        <v>378</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="27" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="27" t="s">
-        <v>368</v>
+        <v>359</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="27" t="s">
-        <v>375</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="27" t="s">
-        <v>369</v>
+        <v>360</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="27" t="s">
-        <v>374</v>
+        <v>364</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="27" t="s">
-        <v>420</v>
+        <v>410</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="27" t="s">
-        <v>416</v>
+        <v>406</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>352</v>
+        <v>343</v>
       </c>
       <c r="B48" s="80"/>
       <c r="C48" s="80"/>
@@ -6526,7 +6785,7 @@
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A49" s="8" t="s">
-        <v>350</v>
+        <v>341</v>
       </c>
       <c r="B49" s="80"/>
       <c r="C49" s="80"/>
@@ -6536,7 +6795,7 @@
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A50" s="8" t="s">
-        <v>343</v>
+        <v>334</v>
       </c>
       <c r="B50" s="80"/>
       <c r="C50" s="80"/>
@@ -6546,7 +6805,7 @@
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>351</v>
+        <v>342</v>
       </c>
       <c r="B51" s="80"/>
       <c r="C51" s="80"/>
@@ -6563,7 +6822,7 @@
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>348</v>
+        <v>339</v>
       </c>
       <c r="B53" s="80"/>
       <c r="C53" s="80"/>
@@ -6573,7 +6832,7 @@
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>349</v>
+        <v>340</v>
       </c>
       <c r="B54" s="80"/>
       <c r="C54" s="80"/>
@@ -6583,7 +6842,7 @@
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A55" s="8" t="s">
-        <v>354</v>
+        <v>345</v>
       </c>
       <c r="B55" s="80"/>
       <c r="C55" s="80"/>
@@ -6593,7 +6852,7 @@
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>359</v>
+        <v>350</v>
       </c>
       <c r="B56" s="80"/>
       <c r="C56" s="80"/>
@@ -6603,7 +6862,7 @@
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A57" s="8" t="s">
-        <v>355</v>
+        <v>346</v>
       </c>
       <c r="B57" s="80"/>
       <c r="C57" s="80"/>
@@ -6613,27 +6872,27 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>345</v>
+        <v>336</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>353</v>
+        <v>344</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="10" t="s">
-        <v>347</v>
+        <v>338</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>356</v>
+        <v>347</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>346</v>
+        <v>337</v>
       </c>
     </row>
   </sheetData>
@@ -6666,132 +6925,132 @@
   <sheetData>
     <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A1" s="59" t="s">
-        <v>387</v>
+        <v>377</v>
       </c>
       <c r="B1" s="27" t="s">
-        <v>392</v>
+        <v>382</v>
       </c>
       <c r="C1" s="27" t="s">
-        <v>393</v>
+        <v>383</v>
       </c>
       <c r="D1" s="27" t="s">
-        <v>413</v>
+        <v>403</v>
       </c>
       <c r="E1" s="27" t="s">
-        <v>412</v>
+        <v>402</v>
       </c>
       <c r="F1" s="27" t="s">
-        <v>414</v>
+        <v>404</v>
       </c>
       <c r="G1" s="27" t="s">
-        <v>415</v>
+        <v>405</v>
       </c>
       <c r="H1" s="27" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:12" s="23" customFormat="1">
       <c r="A2" s="62" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G2" s="48" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A3" s="62" t="s">
-        <v>394</v>
+        <v>384</v>
       </c>
       <c r="B3" s="42" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G3" s="49" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A4" s="62" t="s">
-        <v>411</v>
+        <v>401</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="G4" s="49" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
       <c r="A5" s="58" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B5" s="55" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C5" s="56" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D5" s="56" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E5" s="56" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="G5" s="57" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
@@ -6806,119 +7065,119 @@
     </row>
     <row r="7" spans="1:12" ht="30.75" thickBot="1">
       <c r="A7" s="50" t="s">
-        <v>384</v>
+        <v>374</v>
       </c>
       <c r="B7" s="51" t="s">
-        <v>395</v>
+        <v>385</v>
       </c>
       <c r="C7" s="52" t="s">
-        <v>396</v>
+        <v>386</v>
       </c>
       <c r="D7" s="52" t="s">
-        <v>397</v>
+        <v>387</v>
       </c>
       <c r="E7" s="52" t="s">
-        <v>398</v>
+        <v>388</v>
       </c>
       <c r="F7" s="53" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="H7" s="43"/>
       <c r="I7" s="43"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="46" t="s">
-        <v>399</v>
+        <v>389</v>
       </c>
       <c r="B8" s="41" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C8" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="D8" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F8" s="48" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H8" s="43"/>
       <c r="I8" s="43"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" s="47" t="s">
-        <v>400</v>
+        <v>390</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C9" s="19" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D9" s="19" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E9" s="19" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="F9" s="49" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H9" s="43"/>
       <c r="I9" s="43"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" s="54" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B10" s="55" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C10" s="56" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D10" s="56" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="E10" s="56" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F10" s="57" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
       <c r="H10" s="43"/>
       <c r="I10" s="43"/>
     </row>
     <row r="12" spans="1:12" ht="45.75" thickBot="1">
       <c r="A12" s="63" t="s">
-        <v>385</v>
+        <v>375</v>
       </c>
       <c r="B12" s="64" t="s">
-        <v>401</v>
+        <v>391</v>
       </c>
       <c r="C12" s="65" t="s">
-        <v>402</v>
+        <v>392</v>
       </c>
       <c r="D12" s="65" t="s">
-        <v>403</v>
+        <v>393</v>
       </c>
       <c r="E12" s="65" t="s">
-        <v>404</v>
+        <v>394</v>
       </c>
       <c r="F12" s="65" t="s">
-        <v>405</v>
+        <v>395</v>
       </c>
       <c r="G12" s="66" t="s">
-        <v>406</v>
+        <v>396</v>
       </c>
       <c r="H12" s="66" t="s">
-        <v>407</v>
+        <v>397</v>
       </c>
       <c r="I12" s="66" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
       <c r="J12" s="45"/>
       <c r="K12" s="43"/>
@@ -6926,176 +7185,176 @@
     </row>
     <row r="13" spans="1:12" ht="30">
       <c r="A13" s="67" t="s">
-        <v>408</v>
+        <v>398</v>
       </c>
       <c r="B13" s="68" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C13" s="69" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D13" s="70" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="E13" s="69" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="F13" s="70" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G13" s="70" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="H13" s="70" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I13" s="70" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="45">
       <c r="A14" s="71" t="s">
-        <v>409</v>
+        <v>399</v>
       </c>
       <c r="B14" s="72" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C14" s="73" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="D14" s="74" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E14" s="73" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F14" s="75" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="G14" s="74" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H14" s="75" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
       <c r="I14" s="75" t="s">
-        <v>381</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
       <c r="A15" s="71" t="s">
-        <v>410</v>
+        <v>400</v>
       </c>
       <c r="B15" s="72" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C15" s="73" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D15" s="74" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E15" s="73" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F15" s="74" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="G15" s="74" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H15" s="74" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I15" s="74" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16" spans="1:12" s="23" customFormat="1">
       <c r="A16" s="67" t="s">
-        <v>386</v>
+        <v>376</v>
       </c>
       <c r="B16" s="76" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C16" s="77" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D16" s="78" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E16" s="77" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F16" s="78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G16" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H16" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I16" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="17" spans="1:9" s="23" customFormat="1">
       <c r="A17" s="79" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="B17" s="76" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C17" s="77" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D17" s="78" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E17" s="77" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F17" s="78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G17" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="H17" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
       <c r="I17" s="78" t="s">
-        <v>383</v>
+        <v>373</v>
       </c>
     </row>
     <row r="18" spans="1:9">
       <c r="A18" s="79" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
       <c r="B18" s="76" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C18" s="77" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="D18" s="78" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="E18" s="77" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="F18" s="78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="G18" s="78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="H18" s="78" t="s">
-        <v>382</v>
+        <v>372</v>
       </c>
       <c r="I18" s="78" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -7158,132 +7417,132 @@
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
       <c r="A1" s="50" t="s">
-        <v>357</v>
+        <v>348</v>
       </c>
       <c r="B1" s="51" t="s">
-        <v>341</v>
+        <v>332</v>
       </c>
       <c r="C1" s="52" t="s">
-        <v>337</v>
+        <v>328</v>
       </c>
       <c r="D1" s="52" t="s">
-        <v>342</v>
+        <v>333</v>
       </c>
       <c r="E1" s="52" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
       <c r="F1" s="52" t="s">
-        <v>340</v>
+        <v>331</v>
       </c>
       <c r="G1" s="52" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
       <c r="H1" s="53" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="2" spans="1:8">
       <c r="A2" s="46" t="s">
-        <v>338</v>
+        <v>329</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
       <c r="H2" s="48" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
     <row r="3" spans="1:8" ht="30">
       <c r="A3" s="47" t="s">
+        <v>321</v>
+      </c>
+      <c r="B3" s="42" t="s">
+        <v>325</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="E3" s="19" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>334</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>334</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>336</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>339</v>
-      </c>
       <c r="F3" s="19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
       <c r="H3" s="49" t="s">
-        <v>339</v>
+        <v>330</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="30">
       <c r="A4" s="47" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
       <c r="B4" s="42" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>334</v>
+        <v>325</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
       <c r="H4" s="49" t="s">
-        <v>333</v>
+        <v>324</v>
       </c>
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="54" t="s">
+        <v>318</v>
+      </c>
+      <c r="B5" s="55" t="s">
+        <v>325</v>
+      </c>
+      <c r="C5" s="56" t="s">
+        <v>325</v>
+      </c>
+      <c r="D5" s="56" t="s">
         <v>327</v>
       </c>
-      <c r="B5" s="55" t="s">
-        <v>334</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>334</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>336</v>
-      </c>
       <c r="E5" s="56" t="s">
-        <v>336</v>
+        <v>327</v>
       </c>
       <c r="F5" s="56" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="G5" s="56" t="s">
-        <v>335</v>
+        <v>326</v>
       </c>
       <c r="H5" s="57" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -7339,6 +7598,85 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFA241A8-6F93-400B-8E8B-D16ADE5AD9AC}">
+  <dimension ref="A1:G6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="44.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7">
+      <c r="A1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B1" t="s">
+        <v>444</v>
+      </c>
+      <c r="C1" t="s">
+        <v>448</v>
+      </c>
+      <c r="D1" t="s">
+        <v>449</v>
+      </c>
+      <c r="E1" t="s">
+        <v>445</v>
+      </c>
+      <c r="F1" t="s">
+        <v>446</v>
+      </c>
+      <c r="G1" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
+      <c r="A2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B2" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3" t="s">
+        <v>439</v>
+      </c>
+      <c r="B3" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4" t="s">
+        <v>450</v>
+      </c>
+      <c r="B4" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6" t="s">
+        <v>452</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2396B387-46D7-4AB3-8C4F-DEA1CC7ED8C8}">
   <dimension ref="A1:A3"/>
   <sheetViews>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="758" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="483">
   <si>
     <t>Feature</t>
   </si>
@@ -271,9 +271,6 @@
     <t>Implmnt TimeTasks on Calendar</t>
   </si>
   <si>
-    <t>New Note Here</t>
-  </si>
-  <si>
     <t>Legend</t>
   </si>
   <si>
@@ -539,9 +536,6 @@
   </si>
   <si>
     <t>Azure</t>
-  </si>
-  <si>
-    <t>LimeGreen</t>
   </si>
   <si>
     <t>SpringGreen</t>
@@ -771,9 +765,6 @@
   </si>
   <si>
     <t>If we want to edit a task, but If that Task has notes in the past, we need to lock the task from edits to its past, otherwise problems will occur with those notes. Instead, Cut off the old task at now, and create a copy task with all the same properties but starting at now.</t>
-  </si>
-  <si>
-    <t>Lock used Tasks</t>
   </si>
   <si>
     <t>AllocateFiller()</t>
@@ -1187,9 +1178,6 @@
     <t>Is C1.E🔒? Is C2.S🔒?</t>
   </si>
   <si>
-    <t>C3E🔒</t>
-  </si>
-  <si>
     <t>C2 Push R</t>
   </si>
   <si>
@@ -1200,17 +1188,6 @@
   </si>
   <si>
     <t>C1 Shrink L</t>
-  </si>
-  <si>
-    <t>Collision
-C1 ∩ C2</t>
-  </si>
-  <si>
-    <t>Collision
-C3 T C1 ∩ C2</t>
-  </si>
-  <si>
-    <t>C1.Z.S &gt;= C1.S</t>
   </si>
   <si>
     <t>Collision
@@ -1243,75 +1220,7 @@
 LP &lt; C1</t>
   </si>
   <si>
-    <t>C2HasRoom=T
-C1 &gt;= C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=T
-C1 &lt; C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &gt;= C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &lt; C2</t>
-  </si>
-  <si>
     <t>C1HasRoom=T</t>
-  </si>
-  <si>
-    <t>C1HasRoom=F</t>
-  </si>
-  <si>
-    <t xml:space="preserve">C2HasRoom=T
-C1 &gt;= C2
-</t>
-  </si>
-  <si>
-    <t>C2HasRoom=T
-C1 &lt; C2
-C3 &gt;= C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=T
-C1 &lt; C2
-C3 &lt; C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &gt;= C2
-C3 &gt;= C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &gt;= C2
-C3 &lt; C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &lt; C2
-C3 &gt;= C2</t>
-  </si>
-  <si>
-    <t>C2HasRoom=F
-C1 &lt; C2
-C3 &lt; C2</t>
-  </si>
-  <si>
-    <t>C1.Z.S &lt; C1.S
-C3HasRoom=T</t>
-  </si>
-  <si>
-    <t>C1.Z.S &lt; C1.S
-C3HasRoom=F
-C3 &lt; C1</t>
-  </si>
-  <si>
-    <t>C1.Z.S &lt; C1.S
-C3HasRoom=F
-C3 &gt;= C1</t>
   </si>
   <si>
     <t>C1HasRoom=F
@@ -1426,9 +1335,6 @@
     <t>Triangle centered on time, on the side, line spanning day</t>
   </si>
   <si>
-    <t>Square with rounded corners and the right bottom corner is flipped up.</t>
-  </si>
-  <si>
     <t>Bug</t>
   </si>
   <si>
@@ -1498,12 +1404,6 @@
     <t>Let me CRUD other obejcts while in editor. E.g. let me create update delete patterns while creating a task. This can be done by adding VMs to the VMs, but make sure you don't cause stack overflows with circle reference.</t>
   </si>
   <si>
-    <t>CheckIn/Note selection box</t>
-  </si>
-  <si>
-    <t>make the selection box smaller for these, maybe instead of creating a highlight box, change foreground color</t>
-  </si>
-  <si>
     <t>selection status in statusbar</t>
   </si>
   <si>
@@ -1526,9 +1426,6 @@
   </si>
   <si>
     <t>Creating/Deleting a CheckIn causes everything to disappear until I click reload: Allocations weren't being reset</t>
-  </si>
-  <si>
-    <t>New CheckIn doesn't show up until reload</t>
   </si>
   <si>
     <t>Creating a Start CheckIn before a Start CheckIn somehow gets stuck in the while loop in AllocateEmptySpace(). It thinks there's an empty space from the start of the calendar to the second CheckIn.: Not sure if fixed? Stopped happening?</t>
@@ -1552,9 +1449,6 @@
     <t>Some tasks will require some travel time and/or wind-up time which means they need designated time before or after the task where nothing else can happen. Wind-up time means the task requires a minimum amount of time it needs in each instance, otherwise there's no point in doing it. May require sequential prioritization</t>
   </si>
   <si>
-    <t>state, duration, locks, more info, organized better</t>
-  </si>
-  <si>
     <t>concurrent note/checkin</t>
   </si>
   <si>
@@ -1580,6 +1474,90 @@
   </si>
   <si>
     <t>Can copy database as file based db, but you still need to fully instal SQL Server. Need better solution try SQL Server CE</t>
+  </si>
+  <si>
+    <t>Created a Start CheckIn for a task for tomorrow and it doesn't have a state color</t>
+  </si>
+  <si>
+    <t>New Note/CheckIn Here</t>
+  </si>
+  <si>
+    <t>Sections for calendar specific actions. Section for context specific actions, depends on what the mouse is over like a Task or a CheckIn, edit, delete, details, etc.</t>
+  </si>
+  <si>
+    <t>New CheckIn doesn't show up until reload. Test for TimeTask.Id because objects come from different DataContexts</t>
+  </si>
+  <si>
+    <t>Split confirmed Tasks</t>
+  </si>
+  <si>
+    <t>Task Min/Max duration</t>
+  </si>
+  <si>
+    <t>Need an option in Task to specify the expected size of an instance. E.g. Going on lunch break, expected to take 30 minutes. Without this, if we CheckIn Start Lunch, Lunch will extend until it hits the next CalendarTaskObject, which could be hours away and it pushes the work task off. Instead we want to force a split of the work instance.</t>
+  </si>
+  <si>
+    <t>Creating a CheckIn doesn't update Tasks until I click reload. CheckIn was added to end of list, list wasn't sorted.</t>
+  </si>
+  <si>
+    <t>tasktype, state, duration, locks, more info, organized better</t>
+  </si>
+  <si>
+    <t>Context menu stuff</t>
+  </si>
+  <si>
+    <t>Context menu, Right Click</t>
+  </si>
+  <si>
+    <t>Task Types</t>
+  </si>
+  <si>
+    <t>Work</t>
+  </si>
+  <si>
+    <t>Chore</t>
+  </si>
+  <si>
+    <t>Eat</t>
+  </si>
+  <si>
+    <t>Sleep</t>
+  </si>
+  <si>
+    <t>Play</t>
+  </si>
+  <si>
+    <t>Tomato</t>
+  </si>
+  <si>
+    <t>Chocolate</t>
+  </si>
+  <si>
+    <t>Gold</t>
+  </si>
+  <si>
+    <t>SeaGreen</t>
+  </si>
+  <si>
+    <t>MediumPurple</t>
+  </si>
+  <si>
+    <t>ForestGreen</t>
+  </si>
+  <si>
+    <t>Test all collisions in Collisions2</t>
+  </si>
+  <si>
+    <t>Test all check ins in CheckIns</t>
+  </si>
+  <si>
+    <t>Test all States</t>
+  </si>
+  <si>
+    <t>Current Task border RGB cycle</t>
+  </si>
+  <si>
+    <t xml:space="preserve">FindTaskSet and FindPerSet need to account for dimension. </t>
   </si>
 </sst>
 </file>
@@ -1645,7 +1623,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="13">
+  <fills count="18">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1655,12 +1633,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFF0FFFF"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF32CD32"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1718,8 +1690,44 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFD700"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD2691E"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2E8B57"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF9370DB"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF6347"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF228B22"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="22">
+  <borders count="21">
     <border>
       <left/>
       <right/>
@@ -1854,15 +1862,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color theme="0" tint="-0.24994659260841701"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1985,7 +1984,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="82">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2060,7 +2059,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2077,13 +2075,13 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2098,9 +2096,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2110,66 +2105,30 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="93">
+  <dxfs count="70">
     <dxf>
       <fill>
         <patternFill>
@@ -2653,201 +2612,6 @@
         <left style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
         </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top/>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </bottom>
-        <vertical/>
-        <horizontal/>
-      </border>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
         <right/>
         <top style="thin">
           <color theme="0" tint="-0.24994659260841701"/>
@@ -2997,291 +2761,6 @@
       </border>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right/>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </left>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <border diagonalUp="0" diagonalDown="0" outline="0">
-        <left/>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color theme="0" tint="-0.24994659260841701"/>
-        </top>
-        <bottom/>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <font>
-        <strike/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <name val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </font>
-      <fill>
-        <patternFill patternType="none">
-          <fgColor indexed="64"/>
-          <bgColor indexed="65"/>
-        </patternFill>
-      </fill>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -3655,29 +3134,29 @@
   </dxfs>
   <tableStyles count="2" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16">
     <tableStyle name="Table Style 1" pivot="0" count="4" xr9:uid="{5F0E2908-E7EC-43FB-9BBB-CB014E9A6F67}">
-      <tableStyleElement type="wholeTable" dxfId="92"/>
-      <tableStyleElement type="headerRow" dxfId="91"/>
-      <tableStyleElement type="firstColumn" dxfId="90"/>
+      <tableStyleElement type="wholeTable" dxfId="69"/>
+      <tableStyleElement type="headerRow" dxfId="68"/>
+      <tableStyleElement type="firstColumn" dxfId="67"/>
       <tableStyleElement type="firstRowStripe" size="2"/>
     </tableStyle>
     <tableStyle name="Table Style 2" pivot="0" count="3" xr9:uid="{A53ADC7C-9332-4916-9ACB-0EFC07D28AC6}">
-      <tableStyleElement type="wholeTable" dxfId="89"/>
-      <tableStyleElement type="headerRow" dxfId="88"/>
-      <tableStyleElement type="secondRowStripe" dxfId="87"/>
+      <tableStyleElement type="wholeTable" dxfId="66"/>
+      <tableStyleElement type="headerRow" dxfId="65"/>
+      <tableStyleElement type="secondRowStripe" dxfId="64"/>
     </tableStyle>
   </tableStyles>
   <colors>
     <mruColors>
+      <color rgb="FF228B22"/>
+      <color rgb="FFFF6347"/>
+      <color rgb="FF9370DB"/>
+      <color rgb="FF2E8B57"/>
+      <color rgb="FFD2691E"/>
+      <color rgb="FFFFD700"/>
       <color rgb="FFCCFFCC"/>
       <color rgb="FFFF3300"/>
       <color rgb="FF33CC33"/>
       <color rgb="FFFF00FF"/>
-      <color rgb="FF9370DB"/>
-      <color rgb="FFDC143C"/>
-      <color rgb="FFFFC0CB"/>
-      <color rgb="FF00FF7F"/>
-      <color rgb="FF7FFF00"/>
-      <color rgb="FF7FFFD4"/>
     </mruColors>
   </colors>
   <extLst>
@@ -3692,95 +3171,62 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C169" totalsRowShown="0">
-  <autoFilter ref="A1:C169" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C175" totalsRowShown="0">
+  <autoFilter ref="A1:C175" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="63"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
-    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="85"/>
+    <tableColumn id="5" xr3:uid="{65384592-5F41-4A06-A57C-FE71C87B4BDD}" name="Notes" dataDxfId="62"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4DD08F2-9CC2-46CC-93EE-E01A4DBC8EEE}" name="Table5" displayName="Table5" ref="A1:H8" totalsRowShown="0" headerRowDxfId="84" dataDxfId="82" headerRowBorderDxfId="83" tableBorderDxfId="81">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E4DD08F2-9CC2-46CC-93EE-E01A4DBC8EEE}" name="Table5" displayName="Table5" ref="A1:H8" totalsRowShown="0" headerRowDxfId="61" dataDxfId="59" headerRowBorderDxfId="60" tableBorderDxfId="58">
   <autoFilter ref="A1:H8" xr:uid="{9EF71295-67E3-4AA7-981B-99814F9C00D6}"/>
   <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{5F56F396-ECBF-4022-A747-BB6579150BC5}" name="Previous" dataDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{52DF5424-7715-4094-9055-254252166B84}" name="N Start_x000a_in Z" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{4BF25F2B-3788-4EC0-877F-738CFB7416BD}" name="N End_x000a_in Z" dataDxfId="78"/>
-    <tableColumn id="4" xr3:uid="{3D1264CD-7DED-47FE-9A26-02FAA9BC34AE}" name="N Start_x000a_out Z" dataDxfId="77"/>
-    <tableColumn id="5" xr3:uid="{91478E3E-F2EC-42B9-9CAC-61EA2AD657CB}" name="N End_x000a_out Z" dataDxfId="76"/>
-    <tableColumn id="6" xr3:uid="{BD45968E-F796-4835-9D67-3627C99D24EC}" name="Z Start" dataDxfId="75"/>
-    <tableColumn id="7" xr3:uid="{3B4EE896-0831-43E7-8AE0-49A3476BEA97}" name="Z End" dataDxfId="74"/>
-    <tableColumn id="8" xr3:uid="{D4DAA8AA-8B7A-4978-8C26-61D2C9036856}" name="P End" dataDxfId="73"/>
+    <tableColumn id="1" xr3:uid="{5F56F396-ECBF-4022-A747-BB6579150BC5}" name="Previous" dataDxfId="57"/>
+    <tableColumn id="2" xr3:uid="{52DF5424-7715-4094-9055-254252166B84}" name="N Start_x000a_in Z" dataDxfId="56"/>
+    <tableColumn id="3" xr3:uid="{4BF25F2B-3788-4EC0-877F-738CFB7416BD}" name="N End_x000a_in Z" dataDxfId="55"/>
+    <tableColumn id="4" xr3:uid="{3D1264CD-7DED-47FE-9A26-02FAA9BC34AE}" name="N Start_x000a_out Z" dataDxfId="54"/>
+    <tableColumn id="5" xr3:uid="{91478E3E-F2EC-42B9-9CAC-61EA2AD657CB}" name="N End_x000a_out Z" dataDxfId="53"/>
+    <tableColumn id="6" xr3:uid="{BD45968E-F796-4835-9D67-3627C99D24EC}" name="Z Start" dataDxfId="52"/>
+    <tableColumn id="7" xr3:uid="{3B4EE896-0831-43E7-8AE0-49A3476BEA97}" name="Z End" dataDxfId="51"/>
+    <tableColumn id="8" xr3:uid="{D4DAA8AA-8B7A-4978-8C26-61D2C9036856}" name="P End" dataDxfId="50"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A118" totalsRowShown="0" headerRowDxfId="72" dataDxfId="71">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{AC6FE9AE-35E3-4705-A142-315DB9D43B3A}" name="Table3" displayName="Table3" ref="A1:A118" totalsRowShown="0" headerRowDxfId="49" dataDxfId="48">
   <autoFilter ref="A1:A118" xr:uid="{A2F7B623-DE53-4896-BDD6-CCC38D4467C3}"/>
   <tableColumns count="1">
-    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="70"/>
+    <tableColumn id="1" xr3:uid="{0C8999A5-1CD8-483C-A3BB-7AD00E0E2478}" name="Collision Theory" dataDxfId="47"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{9C17C327-5BFF-41D2-9FFC-402BA11A6C60}" name="Table4" displayName="Table4" ref="A12:I18" totalsRowShown="0" headerRowDxfId="69" dataDxfId="67" headerRowBorderDxfId="68" tableBorderDxfId="66">
-  <autoFilter ref="A12:I18" xr:uid="{F0F0841A-2244-4028-98E3-C1A16E2E3D2D}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{46882863-20B4-4139-A174-C28958DBB9AA}" name="Collision_x000a_C3 T C1 ∩ C2" dataDxfId="65"/>
-    <tableColumn id="2" xr3:uid="{E8D73CCC-F6DB-4889-A70E-8B31A8526329}" name="C2HasRoom=T_x000a_C1 &gt;= C2_x000a_" dataDxfId="64"/>
-    <tableColumn id="3" xr3:uid="{AC952EED-725C-404E-8D2C-E46AA939CDB4}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="63"/>
-    <tableColumn id="5" xr3:uid="{5F007C5E-4DA5-4A9B-A91E-F36943B72049}" name="C2HasRoom=T_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="62"/>
-    <tableColumn id="6" xr3:uid="{31D33967-EFBB-4005-930F-72BCF6A4FDF3}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &gt;= C2" dataDxfId="61"/>
-    <tableColumn id="8" xr3:uid="{DBF268F4-1310-4D45-B208-11DCA768647B}" name="C2HasRoom=F_x000a_C1 &gt;= C2_x000a_C3 &lt; C2" dataDxfId="60"/>
-    <tableColumn id="7" xr3:uid="{5C0C06EA-392D-4476-B9AF-BD85777C7605}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &gt;= C2" dataDxfId="59"/>
-    <tableColumn id="9" xr3:uid="{03FE38CB-7BF7-4E1F-A2EC-29FBF3D83163}" name="C2HasRoom=F_x000a_C1 &lt; C2_x000a_C3 &lt; C2" dataDxfId="58"/>
-    <tableColumn id="10" xr3:uid="{A9BB6DED-BCD2-4C62-B356-E9D37C9EE5F6}" name="C2S🔒" dataDxfId="57"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="46">
+  <autoFilter ref="A1:H5" xr:uid="{3AB9159B-B403-4CC8-8649-2A74831EFA39}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="45"/>
+    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="44"/>
+    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="43"/>
+    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="42"/>
+    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="41"/>
+    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="40"/>
+    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="39"/>
+    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="38"/>
   </tableColumns>
   <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{BEABA309-E652-49AF-B0CA-0DBB8732C3D3}" name="Table6" displayName="Table6" ref="A1:H5" totalsRowShown="0" headerRowDxfId="56">
-  <autoFilter ref="A1:H5" xr:uid="{3AB9159B-B403-4CC8-8649-2A74831EFA39}"/>
-  <tableColumns count="8">
-    <tableColumn id="1" xr3:uid="{72C9A77E-AFBC-404B-A7F6-E681135EDAE9}" name="Collision_x000a_C3 T C1 ∩ C2 T C4" dataDxfId="55"/>
-    <tableColumn id="2" xr3:uid="{7B5E19F2-C874-4B16-82C8-FA89018E0F3A}" name="C2HasRoom=T_x000a_LP &gt;= RP_x000a_" dataDxfId="54"/>
-    <tableColumn id="3" xr3:uid="{E21AAA4F-92B4-436C-B55B-4DFD07C4BE29}" name="C2HasRoom=T_x000a_LP &lt; RP_x000a_" dataDxfId="53"/>
-    <tableColumn id="4" xr3:uid="{833A1012-7AE2-431D-82C0-B7CB5960C752}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 &gt; RP" dataDxfId="52"/>
-    <tableColumn id="9" xr3:uid="{43D8BEE4-A2A2-4CFF-9608-9E5B08D746D9}" name="C2HasRoom=F_x000a_LP &gt;= RP_x000a_C2 == RP" dataDxfId="51"/>
-    <tableColumn id="5" xr3:uid="{0599BB19-BD4F-4332-92DE-B1E045C56EEF}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 &gt; RP" dataDxfId="50"/>
-    <tableColumn id="10" xr3:uid="{3C3A9FF5-1451-4E38-87EA-C000A51EC5B5}" name="C2HasRoom=F_x000a_LP &lt; RP_x000a_C2 == RP" dataDxfId="49"/>
-    <tableColumn id="6" xr3:uid="{D413EC93-83CF-4773-9080-8AB9148DFA4E}" name="C2S🔒" dataDxfId="48"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{7B35A69B-E010-4F30-858E-82EA25E1C181}" name="Table2" displayName="Table2" ref="A7:F10" totalsRowShown="0" headerRowDxfId="47" dataDxfId="45" headerRowBorderDxfId="46" tableBorderDxfId="44">
-  <autoFilter ref="A7:F10" xr:uid="{DA79933D-D1EA-4D0E-9A48-569AA606A750}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{82FD07A4-3395-4C16-AC11-51A74101CC1F}" name="Collision_x000a_C1 ∩ C2" dataDxfId="43"/>
-    <tableColumn id="2" xr3:uid="{E4C6AC43-54FE-4419-8A28-482148B24410}" name="C2HasRoom=T_x000a_C1 &gt;= C2" dataDxfId="42"/>
-    <tableColumn id="3" xr3:uid="{BC9230F6-4014-4E0C-B67F-42C3AF7922C9}" name="C2HasRoom=T_x000a_C1 &lt; C2" dataDxfId="41"/>
-    <tableColumn id="4" xr3:uid="{999B6859-7D27-4858-9DFA-76E387F3D25B}" name="C2HasRoom=F_x000a_C1 &gt;= C2" dataDxfId="40"/>
-    <tableColumn id="5" xr3:uid="{811DB7C4-1A8D-4594-8916-ED1A68B19B20}" name="C2HasRoom=F_x000a_C1 &lt; C2" dataDxfId="39"/>
-    <tableColumn id="6" xr3:uid="{40DBAFE5-A03E-406E-8B3B-455B2F254BCC}" name="C2S🔒" dataDxfId="38"/>
-  </tableColumns>
-  <tableStyleInfo name="Table Style 1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{A637EB4D-B0BD-451A-AEF8-4F572CDAEA03}" name="Table7" displayName="Table7" ref="A1:H5" totalsRowShown="0" headerRowDxfId="37" dataDxfId="35" headerRowBorderDxfId="36" tableBorderDxfId="34">
   <autoFilter ref="A1:H5" xr:uid="{1C355147-87D4-4562-8BCA-2AC6E8731BE0}"/>
   <tableColumns count="8">
@@ -3797,7 +3243,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{23251552-5E98-4102-9DE7-0FF2B60CEB4B}" name="Table8" displayName="Table8" ref="B1:G4" totalsRowShown="0">
   <autoFilter ref="B1:G4" xr:uid="{876B12BE-7000-4382-A947-7B6C125C4C06}"/>
   <tableColumns count="6">
@@ -4109,17 +3555,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G169"/>
+  <dimension ref="A1:G175"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="C90" sqref="C90"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="B92" sqref="B92"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="37.42578125" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="9.85546875" style="3" customWidth="1"/>
-    <col min="3" max="3" width="153.7109375" style="4" customWidth="1"/>
+    <col min="3" max="3" width="155.28515625" style="4" customWidth="1"/>
     <col min="4" max="5" width="9.140625" style="3"/>
     <col min="6" max="6" width="10.140625" style="3" bestFit="1" customWidth="1"/>
     <col min="7" max="16384" width="9.140625" style="3"/>
@@ -4423,7 +3869,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>481</v>
+        <v>454</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4455,7 +3901,7 @@
     </row>
     <row r="35" spans="1:3">
       <c r="A35" s="11" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B35" s="13" t="s">
         <v>23</v>
@@ -4463,7 +3909,7 @@
     </row>
     <row r="36" spans="1:3">
       <c r="A36" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B36" s="13" t="s">
         <v>23</v>
@@ -4471,7 +3917,7 @@
     </row>
     <row r="37" spans="1:3">
       <c r="A37" s="11" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B37" s="13" t="s">
         <v>23</v>
@@ -4479,7 +3925,7 @@
     </row>
     <row r="38" spans="1:3" s="13" customFormat="1">
       <c r="A38" s="11" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B38" s="13" t="s">
         <v>23</v>
@@ -4488,18 +3934,18 @@
     </row>
     <row r="39" spans="1:3" s="13" customFormat="1">
       <c r="A39" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C39" s="12" t="s">
         <v>112</v>
-      </c>
-      <c r="B39" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="40" spans="1:3">
       <c r="A40" s="11" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B40" s="13" t="s">
         <v>23</v>
@@ -4507,7 +3953,7 @@
     </row>
     <row r="41" spans="1:3">
       <c r="A41" s="11" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B41" s="13" t="s">
         <v>23</v>
@@ -4515,24 +3961,24 @@
     </row>
     <row r="42" spans="1:3" ht="30">
       <c r="A42" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C42" s="12" t="s">
         <v>119</v>
-      </c>
-      <c r="B42" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C42" s="12" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="43" spans="1:3">
       <c r="A43" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C43" s="12" t="s">
         <v>114</v>
-      </c>
-      <c r="B43" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C43" s="12" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -4553,40 +3999,40 @@
     </row>
     <row r="46" spans="1:3" s="13" customFormat="1">
       <c r="A46" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B46" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C46" s="12" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="47" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A47" s="11" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="B47" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C47" s="12" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="48" spans="1:3" s="9" customFormat="1">
       <c r="A48" s="11" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="B48" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C48" s="12" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="49" spans="1:3" s="9" customFormat="1">
       <c r="A49" s="11" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B49" s="13" t="s">
         <v>23</v>
@@ -4595,51 +4041,51 @@
     </row>
     <row r="50" spans="1:3">
       <c r="A50" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B50" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C50" s="12" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="51" spans="1:3" s="14" customFormat="1" ht="45">
       <c r="A51" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B51" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
     </row>
     <row r="52" spans="1:3" s="14" customFormat="1">
       <c r="A52" s="11" t="s">
+        <v>131</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C52" s="12" t="s">
         <v>132</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C52" s="12" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="53" spans="1:3">
       <c r="A53" s="11" t="s">
+        <v>122</v>
+      </c>
+      <c r="B53" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C53" s="12" t="s">
         <v>123</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="54" spans="1:3">
       <c r="A54" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="B54" s="13" t="s">
         <v>23</v>
@@ -4648,18 +4094,18 @@
     </row>
     <row r="55" spans="1:3">
       <c r="A55" s="11" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B55" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C55" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="56" spans="1:3">
       <c r="A56" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B56" s="13" t="s">
         <v>23</v>
@@ -4668,7 +4114,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -4677,7 +4123,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>23</v>
@@ -4686,73 +4132,73 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B59" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C59" s="12" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3">
       <c r="A60" s="11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B60" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="B64" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C64" s="24" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -4761,7 +4207,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -4770,7 +4216,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -4779,7 +4225,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -4788,7 +4234,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -4797,7 +4243,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -4806,38 +4252,38 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="B73" s="13"/>
-      <c r="C73" s="12" t="s">
-        <v>422</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B73" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C73" s="12"/>
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>23</v>
@@ -4846,16 +4292,16 @@
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>409</v>
-      </c>
-      <c r="B75" s="13"/>
-      <c r="C75" s="12" t="s">
-        <v>480</v>
-      </c>
+        <v>193</v>
+      </c>
+      <c r="B75" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C75" s="12"/>
     </row>
     <row r="76" spans="1:3" s="9" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>408</v>
+        <v>346</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>23</v>
@@ -4864,7 +4310,7 @@
     </row>
     <row r="77" spans="1:3" s="9" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>195</v>
+        <v>243</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>23</v>
@@ -4873,7 +4319,7 @@
     </row>
     <row r="78" spans="1:3" s="9" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>349</v>
+        <v>215</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>23</v>
@@ -4882,710 +4328,772 @@
     </row>
     <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>246</v>
+        <v>397</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C79" s="12"/>
+      <c r="C79" s="12" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
-        <v>217</v>
+        <v>411</v>
       </c>
       <c r="B80" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C80" s="12"/>
+      <c r="C80" s="12" t="s">
+        <v>412</v>
+      </c>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
-        <v>419</v>
+        <v>405</v>
       </c>
       <c r="B81" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C81" s="12" t="s">
-        <v>436</v>
+        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
-        <v>434</v>
+        <v>407</v>
       </c>
       <c r="B82" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C82" s="12" t="s">
-        <v>435</v>
+        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
       <c r="A83" s="11" t="s">
-        <v>420</v>
+        <v>104</v>
+      </c>
+      <c r="B83" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>421</v>
+        <v>217</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>427</v>
+        <v>187</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C84" s="12" t="s">
-        <v>428</v>
-      </c>
+      <c r="C84" s="12"/>
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>429</v>
+        <v>409</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>430</v>
-      </c>
-    </row>
-    <row r="86" spans="1:3" s="13" customFormat="1">
-      <c r="A86" s="81" t="s">
-        <v>105</v>
-      </c>
-      <c r="B86" s="9"/>
-      <c r="C86" s="10" t="s">
-        <v>431</v>
+        <v>458</v>
+      </c>
+    </row>
+    <row r="86" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A86" s="11" t="s">
+        <v>409</v>
+      </c>
+      <c r="B86" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C86" s="12" t="s">
+        <v>440</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>105</v>
+        <v>409</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>219</v>
+        <v>438</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1">
       <c r="A88" s="11" t="s">
-        <v>189</v>
+        <v>409</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="C88" s="12"/>
+      <c r="C88" s="12" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1">
       <c r="A89" s="11" t="s">
-        <v>434</v>
-      </c>
-      <c r="C89" s="12"/>
+        <v>409</v>
+      </c>
+      <c r="B89" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C89" s="12" t="s">
+        <v>462</v>
+      </c>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="11" t="s">
-        <v>432</v>
+        <v>409</v>
+      </c>
+      <c r="B90" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>465</v>
-      </c>
-    </row>
-    <row r="91" spans="1:3" s="13" customFormat="1" ht="30">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="91" spans="1:3" s="13" customFormat="1">
       <c r="A91" s="11" t="s">
-        <v>432</v>
+        <v>118</v>
       </c>
       <c r="B91" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>466</v>
+        <v>482</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B92" s="13" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>463</v>
+        <v>478</v>
       </c>
     </row>
     <row r="93" spans="1:3" s="13" customFormat="1">
       <c r="A93" s="11" t="s">
-        <v>432</v>
-      </c>
-      <c r="B93" s="13" t="s">
-        <v>23</v>
+        <v>411</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>464</v>
+        <v>479</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="13" customFormat="1">
       <c r="A94" s="11" t="s">
-        <v>432</v>
+        <v>411</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>433</v>
+        <v>480</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="13" customFormat="1">
       <c r="A95" s="11" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>458</v>
+        <v>410</v>
       </c>
     </row>
     <row r="96" spans="1:3" s="13" customFormat="1">
       <c r="A96" s="11" t="s">
-        <v>459</v>
-      </c>
-      <c r="C96" s="12"/>
+        <v>409</v>
+      </c>
+      <c r="C96" s="12" t="s">
+        <v>433</v>
+      </c>
     </row>
     <row r="97" spans="1:3" s="13" customFormat="1">
       <c r="A97" s="11" t="s">
-        <v>460</v>
+        <v>435</v>
+      </c>
+      <c r="B97" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>472</v>
+        <v>463</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="13" customFormat="1">
       <c r="A98" s="11" t="s">
-        <v>460</v>
-      </c>
+        <v>212</v>
+      </c>
+      <c r="B98" s="3"/>
       <c r="C98" s="12" t="s">
-        <v>461</v>
+        <v>213</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="13" customFormat="1">
       <c r="A99" s="11" t="s">
-        <v>214</v>
+        <v>465</v>
       </c>
       <c r="B99" s="3"/>
       <c r="C99" s="12" t="s">
-        <v>215</v>
+        <v>457</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="13" customFormat="1">
-      <c r="A100" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="B100" s="3"/>
+      <c r="A100" s="11" t="s">
+        <v>464</v>
+      </c>
       <c r="C100" s="12" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="101" spans="1:3" s="13" customFormat="1" ht="30">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="101" spans="1:3" s="13" customFormat="1">
       <c r="A101" s="11" t="s">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>244</v>
+        <v>399</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="13" customFormat="1">
       <c r="A102" s="11" t="s">
-        <v>122</v>
-      </c>
+        <v>456</v>
+      </c>
+      <c r="B102" s="3"/>
       <c r="C102" s="12" t="s">
-        <v>200</v>
+        <v>102</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="13" customFormat="1">
       <c r="A103" s="11" t="s">
-        <v>80</v>
+        <v>434</v>
       </c>
       <c r="C103" s="12"/>
     </row>
-    <row r="104" spans="1:3">
+    <row r="104" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A104" s="11" t="s">
+        <v>460</v>
+      </c>
+      <c r="C104" s="12" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A105" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C105" s="12" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="106" spans="1:3" s="13" customFormat="1">
+      <c r="A106" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C106" s="12" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="107" spans="1:3" s="13" customFormat="1">
+      <c r="A107" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C107" s="12"/>
+    </row>
+    <row r="108" spans="1:3" s="13" customFormat="1">
+      <c r="A108" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="B104" s="13"/>
-      <c r="C104" s="12" t="s">
+      <c r="C108" s="12" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="105" spans="1:3">
-      <c r="A105" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C105" s="12" t="s">
-        <v>440</v>
-      </c>
-    </row>
-    <row r="106" spans="1:3">
-      <c r="A106" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="C106" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="107" spans="1:3">
-      <c r="A107" s="11" t="s">
-        <v>197</v>
-      </c>
-      <c r="B107" s="13"/>
-      <c r="C107" s="12"/>
-    </row>
-    <row r="108" spans="1:3">
-      <c r="A108" s="11" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="109" spans="1:3">
+    <row r="109" spans="1:3" s="13" customFormat="1">
       <c r="A109" s="11" t="s">
-        <v>473</v>
-      </c>
+        <v>418</v>
+      </c>
+      <c r="B109" s="3"/>
       <c r="C109" s="12" t="s">
-        <v>474</v>
+        <v>417</v>
       </c>
     </row>
     <row r="110" spans="1:3">
       <c r="A110" s="2" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C110" s="4" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3" ht="30">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3">
       <c r="A111" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="B111" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C111" s="12" t="s">
-        <v>462</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="B111" s="13"/>
+      <c r="C111" s="12"/>
     </row>
     <row r="112" spans="1:3">
       <c r="A112" s="11" t="s">
-        <v>477</v>
-      </c>
-      <c r="B112" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C112" s="12" t="s">
-        <v>199</v>
+        <v>101</v>
       </c>
     </row>
     <row r="113" spans="1:3">
-      <c r="A113" s="81" t="s">
-        <v>455</v>
-      </c>
-      <c r="B113" s="9"/>
-      <c r="C113" s="10" t="s">
-        <v>456</v>
+      <c r="A113" s="11" t="s">
+        <v>446</v>
+      </c>
+      <c r="C113" s="12" t="s">
+        <v>447</v>
       </c>
     </row>
     <row r="114" spans="1:3">
-      <c r="A114" s="11" t="s">
-        <v>457</v>
-      </c>
-      <c r="C114" s="12"/>
-    </row>
-    <row r="115" spans="1:3">
-      <c r="A115" s="2" t="s">
+      <c r="A114" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C114" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" ht="30">
+      <c r="A115" s="11" t="s">
+        <v>155</v>
+      </c>
+      <c r="B115" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C115" s="12" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="11" t="s">
+        <v>450</v>
+      </c>
+      <c r="B116" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C116" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="117" spans="1:3">
+      <c r="A117" s="11" t="s">
+        <v>432</v>
+      </c>
+      <c r="C117" s="12"/>
+    </row>
+    <row r="118" spans="1:3">
+      <c r="A118" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C118" s="4" t="s">
         <v>91</v>
-      </c>
-      <c r="C115" s="4" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="117" spans="1:3">
-      <c r="A117" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="118" spans="1:3">
-      <c r="A118" s="11" t="s">
-        <v>211</v>
-      </c>
-      <c r="C118" s="12" t="s">
-        <v>212</v>
       </c>
     </row>
     <row r="119" spans="1:3">
       <c r="A119" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="120" spans="1:3" ht="30">
-      <c r="A120" s="11" t="s">
-        <v>453</v>
-      </c>
-      <c r="C120" s="12" t="s">
-        <v>454</v>
-      </c>
-    </row>
-    <row r="121" spans="1:3" ht="30">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="120" spans="1:3">
+      <c r="A120" s="2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="121" spans="1:3">
       <c r="A121" s="11" t="s">
-        <v>304</v>
+        <v>209</v>
       </c>
       <c r="C121" s="12" t="s">
-        <v>305</v>
+        <v>210</v>
       </c>
     </row>
     <row r="122" spans="1:3">
       <c r="A122" s="2" t="s">
-        <v>81</v>
+        <v>10</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
-        <v>151</v>
-      </c>
+        <v>387</v>
+      </c>
+      <c r="B123" s="13"/>
       <c r="C123" s="12" t="s">
-        <v>153</v>
+        <v>453</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="11" t="s">
-        <v>152</v>
-      </c>
+        <v>300</v>
+      </c>
+      <c r="B124" s="13"/>
       <c r="C124" s="12" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="125" spans="1:3" ht="30">
       <c r="A125" s="11" t="s">
-        <v>128</v>
+        <v>430</v>
       </c>
       <c r="C125" s="12" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="126" spans="1:3">
-      <c r="A126" s="2" t="s">
-        <v>8</v>
+        <v>431</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3" ht="30">
+      <c r="A126" s="11" t="s">
+        <v>301</v>
+      </c>
+      <c r="C126" s="12" t="s">
+        <v>302</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C127" s="12" t="s">
-        <v>137</v>
+        <v>80</v>
       </c>
     </row>
     <row r="128" spans="1:3">
-      <c r="A128" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C128" s="4" t="s">
-        <v>47</v>
+      <c r="A128" s="11" t="s">
+        <v>150</v>
+      </c>
+      <c r="C128" s="12" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="129" spans="1:3">
       <c r="A129" s="11" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
       <c r="C129" s="12" t="s">
-        <v>98</v>
+        <v>153</v>
       </c>
     </row>
     <row r="130" spans="1:3">
-      <c r="A130" s="2" t="s">
-        <v>13</v>
+      <c r="A130" s="11" t="s">
+        <v>127</v>
+      </c>
+      <c r="C130" s="12" t="s">
+        <v>128</v>
       </c>
     </row>
     <row r="131" spans="1:3">
       <c r="A131" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="132" spans="1:3">
       <c r="A132" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="133" spans="1:3">
+      <c r="A133" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C133" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="134" spans="1:3">
+      <c r="A134" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C134" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="135" spans="1:3">
+      <c r="A135" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="136" spans="1:3">
+      <c r="A136" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="137" spans="1:3">
+      <c r="A137" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C132" s="12" t="s">
+      <c r="C137" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="133" spans="1:3">
-      <c r="A133" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="C133" s="12" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="134" spans="1:3">
-      <c r="A134" s="2" t="s">
+    <row r="138" spans="1:3">
+      <c r="A138" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C138" s="12" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C134" s="12" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="135" spans="1:3" ht="30">
-      <c r="A135" s="11" t="s">
-        <v>139</v>
-      </c>
-      <c r="C135" s="12" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="136" spans="1:3">
-      <c r="A136" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="C136" s="12" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="137" spans="1:3">
-      <c r="A137" s="11" t="s">
-        <v>425</v>
-      </c>
-      <c r="C137" s="12" t="s">
-        <v>426</v>
-      </c>
-    </row>
-    <row r="138" spans="1:3" ht="45">
-      <c r="A138" s="11" t="s">
-        <v>467</v>
-      </c>
-      <c r="C138" s="12" t="s">
-        <v>468</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3" ht="60">
-      <c r="A139" s="11" t="s">
-        <v>469</v>
-      </c>
       <c r="C139" s="12" t="s">
-        <v>470</v>
+        <v>194</v>
       </c>
     </row>
     <row r="140" spans="1:3" ht="30">
       <c r="A140" s="11" t="s">
-        <v>361</v>
+        <v>138</v>
       </c>
       <c r="C140" s="12" t="s">
-        <v>471</v>
+        <v>137</v>
       </c>
     </row>
     <row r="141" spans="1:3">
       <c r="A141" s="11" t="s">
-        <v>362</v>
+        <v>140</v>
       </c>
       <c r="C141" s="12" t="s">
-        <v>363</v>
+        <v>139</v>
       </c>
     </row>
     <row r="142" spans="1:3">
       <c r="A142" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3">
+        <v>403</v>
+      </c>
+      <c r="C142" s="12" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="143" spans="1:3" ht="45">
       <c r="A143" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3">
-      <c r="A144" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C144" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="145" spans="1:3">
-      <c r="A145" s="2" t="s">
-        <v>49</v>
+        <v>441</v>
+      </c>
+      <c r="C143" s="12" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3" ht="60">
+      <c r="A144" s="11" t="s">
+        <v>443</v>
+      </c>
+      <c r="C144" s="12" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="145" spans="1:3" ht="30">
+      <c r="A145" s="11" t="s">
+        <v>358</v>
+      </c>
+      <c r="C145" s="12" t="s">
+        <v>445</v>
       </c>
     </row>
     <row r="146" spans="1:3">
-      <c r="A146" s="2" t="s">
-        <v>60</v>
+      <c r="A146" s="11" t="s">
+        <v>359</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>104</v>
+        <v>360</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>476</v>
-      </c>
-      <c r="C147" s="12"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="11" t="s">
-        <v>216</v>
-      </c>
-      <c r="C148" s="12"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="149" spans="1:3">
-      <c r="A149" s="11" t="s">
-        <v>210</v>
-      </c>
-      <c r="C149" s="12"/>
+      <c r="A149" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="C149" s="4" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="150" spans="1:3">
-      <c r="A150" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C150" s="12"/>
+      <c r="A150" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="151" spans="1:3">
-      <c r="A151" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="C151" s="12"/>
-    </row>
-    <row r="152" spans="1:3" ht="30">
+      <c r="A151" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C151" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="152" spans="1:3">
       <c r="A152" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B152" s="13"/>
-      <c r="C152" s="12" t="s">
-        <v>36</v>
-      </c>
+        <v>449</v>
+      </c>
+      <c r="C152" s="12"/>
     </row>
     <row r="153" spans="1:3">
-      <c r="A153" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C153" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A153" s="11" t="s">
+        <v>214</v>
+      </c>
+      <c r="C153" s="12"/>
     </row>
     <row r="154" spans="1:3">
-      <c r="A154" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C154" s="4" t="s">
-        <v>86</v>
-      </c>
+      <c r="A154" s="11" t="s">
+        <v>208</v>
+      </c>
+      <c r="C154" s="12"/>
     </row>
     <row r="155" spans="1:3">
       <c r="A155" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="C155" s="12" t="s">
-        <v>96</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C155" s="12"/>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="157" spans="1:3" s="9" customFormat="1">
-      <c r="A157" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B157" s="3"/>
-      <c r="C157" s="4"/>
+      <c r="A156" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C156" s="12"/>
+    </row>
+    <row r="157" spans="1:3" ht="30">
+      <c r="A157" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B157" s="13"/>
+      <c r="C157" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="11" t="s">
-        <v>99</v>
+      <c r="A158" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C158" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="C159" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="160" spans="1:3">
-      <c r="A160" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="161" spans="1:3" ht="30">
-      <c r="A161" s="11" t="s">
-        <v>118</v>
-      </c>
-      <c r="C161" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3">
-      <c r="A162" s="11" t="s">
-        <v>134</v>
-      </c>
-      <c r="C162" s="12" t="s">
-        <v>135</v>
-      </c>
+      <c r="A160" s="11" t="s">
+        <v>94</v>
+      </c>
+      <c r="C160" s="12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="161" spans="1:3">
+      <c r="A161" s="2" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="162" spans="1:3" s="9" customFormat="1">
+      <c r="A162" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="B162" s="3"/>
+      <c r="C162" s="4"/>
     </row>
     <row r="163" spans="1:3">
       <c r="A163" s="11" t="s">
-        <v>142</v>
-      </c>
-      <c r="B163" s="13"/>
-      <c r="C163" s="12" t="s">
-        <v>143</v>
+        <v>98</v>
       </c>
     </row>
     <row r="164" spans="1:3">
-      <c r="A164" s="11" t="s">
-        <v>148</v>
-      </c>
-      <c r="B164" s="13"/>
-      <c r="C164" s="12" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="165" spans="1:3" ht="30">
-      <c r="A165" s="11" t="s">
-        <v>150</v>
-      </c>
-      <c r="B165" s="13"/>
-      <c r="C165" s="12" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3">
+      <c r="A164" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="165" spans="1:3">
+      <c r="A165" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3" ht="30">
       <c r="A166" s="11" t="s">
-        <v>223</v>
-      </c>
-      <c r="B166" s="13"/>
+        <v>117</v>
+      </c>
       <c r="C166" s="12" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="167" spans="1:3" ht="30">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="167" spans="1:3">
       <c r="A167" s="11" t="s">
-        <v>230</v>
-      </c>
-      <c r="B167" s="13"/>
+        <v>133</v>
+      </c>
       <c r="C167" s="12" t="s">
-        <v>231</v>
+        <v>134</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="11" t="s">
-        <v>232</v>
-      </c>
+        <v>141</v>
+      </c>
+      <c r="B168" s="13"/>
       <c r="C168" s="12" t="s">
-        <v>233</v>
+        <v>142</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169" s="11" t="s">
-        <v>261</v>
-      </c>
+        <v>147</v>
+      </c>
+      <c r="B169" s="13"/>
       <c r="C169" s="12" t="s">
-        <v>262</v>
-      </c>
+        <v>148</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3" ht="30">
+      <c r="A170" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B170" s="13"/>
+      <c r="C170" s="12" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3">
+      <c r="A171" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="B171" s="13"/>
+      <c r="C171" s="12" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="172" spans="1:3" ht="30">
+      <c r="A172" s="11" t="s">
+        <v>228</v>
+      </c>
+      <c r="B172" s="13"/>
+      <c r="C172" s="12" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3">
+      <c r="A173" s="11" t="s">
+        <v>230</v>
+      </c>
+      <c r="C173" s="12" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="174" spans="1:3">
+      <c r="A174" s="11" t="s">
+        <v>258</v>
+      </c>
+      <c r="C174" s="12" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="175" spans="1:3">
+      <c r="A175" s="11" t="s">
+        <v>481</v>
+      </c>
+      <c r="C175" s="12"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
@@ -5624,7 +5132,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5640,138 +5148,138 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
+        <v>232</v>
+      </c>
+      <c r="B5" s="15" t="s">
         <v>234</v>
-      </c>
-      <c r="B5" s="15" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B7" s="22" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
+        <v>291</v>
+      </c>
+      <c r="B11" s="15" t="s">
         <v>294</v>
-      </c>
-      <c r="B11" s="15" t="s">
-        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A13" s="23" t="s">
-        <v>423</v>
+        <v>401</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>424</v>
+        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>411</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="45">
       <c r="B21" s="10" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="30">
       <c r="B22" s="10" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="45">
       <c r="B24" s="15" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
     </row>
   </sheetData>
@@ -5782,10 +5290,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4DB4886-0351-4FBB-AD2E-ACDCB11388DD}">
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -5801,242 +5309,289 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
+        <v>157</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>196</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>158</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>198</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>159</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>161</v>
-      </c>
-      <c r="B4" s="31" t="s">
-        <v>169</v>
+        <v>160</v>
+      </c>
+      <c r="B4" s="67" t="s">
+        <v>477</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
-        <v>162</v>
-      </c>
-      <c r="B5" s="32" t="s">
-        <v>170</v>
+        <v>161</v>
+      </c>
+      <c r="B5" s="31" t="s">
+        <v>168</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>220</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>172</v>
+        <v>218</v>
+      </c>
+      <c r="B6" s="33" t="s">
+        <v>170</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
-        <v>163</v>
-      </c>
-      <c r="B7" s="33" t="s">
-        <v>171</v>
+        <v>162</v>
+      </c>
+      <c r="B7" s="32" t="s">
+        <v>169</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
-        <v>164</v>
-      </c>
-      <c r="B8" s="35" t="s">
-        <v>173</v>
+        <v>163</v>
+      </c>
+      <c r="B8" s="34" t="s">
+        <v>171</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>165</v>
-      </c>
-      <c r="B9" s="36" t="s">
-        <v>174</v>
+        <v>164</v>
+      </c>
+      <c r="B9" s="35" t="s">
+        <v>172</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>166</v>
-      </c>
-      <c r="B10" s="37" t="s">
-        <v>175</v>
+        <v>165</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>173</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="B11" s="38" t="s">
-        <v>176</v>
+        <v>182</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>174</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>203</v>
-      </c>
-      <c r="B12" s="39" t="s">
-        <v>177</v>
+        <v>201</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>175</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>167</v>
-      </c>
-      <c r="B13" s="40" t="s">
-        <v>178</v>
+        <v>166</v>
+      </c>
+      <c r="B13" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
       <c r="D13" s="20" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" s="20" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" s="29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" s="29" t="s">
+        <v>468</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" ht="15" customHeight="1">
+      <c r="A17" s="29" t="s">
+        <v>469</v>
+      </c>
+      <c r="B17" s="63" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" s="29" t="s">
+        <v>471</v>
+      </c>
+      <c r="B18" s="64" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" s="29" t="s">
+        <v>470</v>
+      </c>
+      <c r="B19" s="65" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" ht="15" customHeight="1">
+      <c r="A20" s="29" t="s">
+        <v>467</v>
+      </c>
+      <c r="B20" s="66" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="29" customFormat="1"/>
+    <row r="24" spans="1:6">
+      <c r="A24" s="20" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6">
+      <c r="A25" s="20" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6">
+      <c r="A26" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="E13" s="20" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" s="20" t="s">
-        <v>248</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" s="20" t="s">
-        <v>249</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6" ht="15" customHeight="1">
-      <c r="A17" s="20" t="s">
-        <v>258</v>
-      </c>
-    </row>
-    <row r="18" spans="1:6">
-      <c r="A18" s="20" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="19" spans="1:6">
-      <c r="A19" s="20" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6" ht="15" customHeight="1">
-      <c r="A20" s="20" t="s">
+      <c r="F26" s="21"/>
+    </row>
+    <row r="27" spans="1:6">
+      <c r="A27" s="20" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6">
+      <c r="A28" s="20" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6">
+      <c r="A29" s="20" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="29" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6">
+      <c r="A31" s="29" t="s">
         <v>277</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="29" customFormat="1">
-      <c r="A21" s="29" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
-      <c r="A22" s="29" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
-      <c r="F26" s="21"/>
-    </row>
   </sheetData>
+  <sortState ref="A16:A20">
+    <sortCondition ref="A16"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -6069,223 +5624,223 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
-      <c r="A1" s="50" t="s">
-        <v>276</v>
-      </c>
-      <c r="B1" s="51" t="s">
+      <c r="A1" s="48" t="s">
+        <v>273</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>278</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>279</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>280</v>
+      </c>
+      <c r="E1" s="50" t="s">
         <v>281</v>
       </c>
-      <c r="C1" s="52" t="s">
-        <v>282</v>
-      </c>
-      <c r="D1" s="52" t="s">
+      <c r="F1" s="50" t="s">
+        <v>271</v>
+      </c>
+      <c r="G1" s="50" t="s">
+        <v>272</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" ht="75">
+      <c r="A2" s="44" t="s">
+        <v>278</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>303</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>216</v>
+      </c>
+      <c r="G2" s="28" t="s">
         <v>283</v>
       </c>
-      <c r="E1" s="52" t="s">
-        <v>284</v>
-      </c>
-      <c r="F1" s="52" t="s">
-        <v>274</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>275</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="75">
-      <c r="A2" s="46" t="s">
-        <v>281</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>306</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>288</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>218</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>286</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>218</v>
+      <c r="H2" s="46" t="s">
+        <v>216</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
-      <c r="A3" s="47" t="s">
+      <c r="A3" s="45" t="s">
+        <v>279</v>
+      </c>
+      <c r="B3" s="41" t="s">
         <v>282</v>
       </c>
-      <c r="B3" s="42" t="s">
-        <v>285</v>
-      </c>
       <c r="C3" s="19" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="75">
-      <c r="A4" s="47" t="s">
-        <v>283</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>218</v>
+      <c r="A4" s="45" t="s">
+        <v>280</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>293</v>
+        <v>216</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>290</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="60">
-      <c r="A5" s="47" t="s">
-        <v>284</v>
-      </c>
-      <c r="B5" s="42" t="s">
-        <v>218</v>
+      <c r="A5" s="45" t="s">
+        <v>281</v>
+      </c>
+      <c r="B5" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H5" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="H5" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="60">
-      <c r="A6" s="47" t="s">
-        <v>274</v>
-      </c>
-      <c r="B6" s="42" t="s">
-        <v>285</v>
+      <c r="A6" s="45" t="s">
+        <v>271</v>
+      </c>
+      <c r="B6" s="41" t="s">
+        <v>282</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="H6" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="60">
-      <c r="A7" s="47" t="s">
-        <v>275</v>
-      </c>
-      <c r="B7" s="42" t="s">
-        <v>218</v>
+      <c r="A7" s="45" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7" s="41" t="s">
+        <v>216</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="49" t="s">
-        <v>218</v>
+        <v>216</v>
+      </c>
+      <c r="H7" s="47" t="s">
+        <v>216</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="60">
-      <c r="A8" s="54" t="s">
-        <v>272</v>
-      </c>
-      <c r="B8" s="55" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="D8" s="56" t="s">
-        <v>242</v>
-      </c>
-      <c r="E8" s="56" t="s">
-        <v>291</v>
-      </c>
-      <c r="F8" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="G8" s="56" t="s">
-        <v>218</v>
-      </c>
-      <c r="H8" s="57" t="s">
-        <v>218</v>
+      <c r="A8" s="52" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" s="53" t="s">
+        <v>216</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>240</v>
+      </c>
+      <c r="E8" s="54" t="s">
+        <v>288</v>
+      </c>
+      <c r="F8" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="G8" s="54" t="s">
+        <v>216</v>
+      </c>
+      <c r="H8" s="55" t="s">
+        <v>216</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -6541,8 +6096,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -6555,344 +6110,344 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>303</v>
-      </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
+        <v>300</v>
+      </c>
+      <c r="B1" s="43"/>
+      <c r="C1" s="43"/>
+      <c r="D1" s="43"/>
+      <c r="E1" s="43"/>
+      <c r="F1" s="43"/>
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="27" t="s">
-        <v>309</v>
-      </c>
-      <c r="B2" s="44"/>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
-      <c r="E2" s="44"/>
-      <c r="F2" s="44"/>
+        <v>306</v>
+      </c>
+      <c r="B2" s="43"/>
+      <c r="C2" s="43"/>
+      <c r="D2" s="43"/>
+      <c r="E2" s="43"/>
+      <c r="F2" s="43"/>
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>310</v>
-      </c>
-      <c r="B3" s="44"/>
-      <c r="C3" s="44"/>
-      <c r="D3" s="44"/>
-      <c r="E3" s="44"/>
-      <c r="F3" s="44"/>
+        <v>307</v>
+      </c>
+      <c r="B3" s="43"/>
+      <c r="C3" s="43"/>
+      <c r="D3" s="43"/>
+      <c r="E3" s="43"/>
+      <c r="F3" s="43"/>
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>311</v>
-      </c>
-      <c r="B4" s="44"/>
-      <c r="C4" s="44"/>
-      <c r="D4" s="44"/>
-      <c r="E4" s="44"/>
-      <c r="F4" s="44"/>
+        <v>308</v>
+      </c>
+      <c r="B4" s="43"/>
+      <c r="C4" s="43"/>
+      <c r="D4" s="43"/>
+      <c r="E4" s="43"/>
+      <c r="F4" s="43"/>
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>312</v>
-      </c>
-      <c r="B5" s="44"/>
-      <c r="C5" s="44"/>
-      <c r="D5" s="44"/>
-      <c r="E5" s="44"/>
-      <c r="F5" s="44"/>
+        <v>309</v>
+      </c>
+      <c r="B5" s="43"/>
+      <c r="C5" s="43"/>
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="27" t="s">
-        <v>315</v>
+        <v>312</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="27" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="27" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="27" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="27" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="27" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
-        <v>414</v>
+        <v>392</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>412</v>
+        <v>390</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>413</v>
+        <v>391</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
       <c r="A26" s="27" t="s">
-        <v>415</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="s">
-        <v>416</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="90">
-      <c r="A28" s="61" t="s">
-        <v>417</v>
+      <c r="A28" s="59" t="s">
+        <v>395</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="27" t="s">
-        <v>407</v>
+        <v>385</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
     </row>
     <row r="32" spans="1:1">
-      <c r="A32" s="61" t="s">
-        <v>379</v>
+      <c r="A32" s="59" t="s">
+        <v>372</v>
       </c>
     </row>
     <row r="33" spans="1:6">
-      <c r="A33" s="61" t="s">
-        <v>380</v>
+      <c r="A33" s="59" t="s">
+        <v>373</v>
       </c>
     </row>
     <row r="34" spans="1:6">
-      <c r="A34" s="61" t="s">
-        <v>381</v>
+      <c r="A34" s="59" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="135">
-      <c r="A35" s="61" t="s">
-        <v>418</v>
+      <c r="A35" s="59" t="s">
+        <v>396</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="24" t="s">
-        <v>378</v>
+        <v>371</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="27" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="27" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="27" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="27" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="27" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="27" t="s">
-        <v>410</v>
+        <v>388</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="27" t="s">
-        <v>406</v>
+        <v>384</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>343</v>
-      </c>
-      <c r="B48" s="80"/>
-      <c r="C48" s="80"/>
-      <c r="D48" s="80"/>
-      <c r="E48" s="80"/>
-      <c r="F48" s="80"/>
+        <v>340</v>
+      </c>
+      <c r="B48" s="61"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="61"/>
+      <c r="E48" s="61"/>
+      <c r="F48" s="61"/>
     </row>
     <row r="49" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A49" s="8" t="s">
-        <v>341</v>
-      </c>
-      <c r="B49" s="80"/>
-      <c r="C49" s="80"/>
-      <c r="D49" s="80"/>
-      <c r="E49" s="80"/>
-      <c r="F49" s="80"/>
+        <v>338</v>
+      </c>
+      <c r="B49" s="61"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="61"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="61"/>
     </row>
     <row r="50" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A50" s="8" t="s">
-        <v>334</v>
-      </c>
-      <c r="B50" s="80"/>
-      <c r="C50" s="80"/>
-      <c r="D50" s="80"/>
-      <c r="E50" s="80"/>
-      <c r="F50" s="80"/>
+        <v>331</v>
+      </c>
+      <c r="B50" s="61"/>
+      <c r="C50" s="61"/>
+      <c r="D50" s="61"/>
+      <c r="E50" s="61"/>
+      <c r="F50" s="61"/>
     </row>
     <row r="51" spans="1:6" s="8" customFormat="1">
       <c r="A51" s="8" t="s">
-        <v>342</v>
-      </c>
-      <c r="B51" s="80"/>
-      <c r="C51" s="80"/>
-      <c r="D51" s="80"/>
-      <c r="E51" s="80"/>
-      <c r="F51" s="80"/>
+        <v>339</v>
+      </c>
+      <c r="B51" s="61"/>
+      <c r="C51" s="61"/>
+      <c r="D51" s="61"/>
+      <c r="E51" s="61"/>
+      <c r="F51" s="61"/>
     </row>
     <row r="52" spans="1:6" s="8" customFormat="1">
-      <c r="B52" s="80"/>
-      <c r="C52" s="80"/>
-      <c r="D52" s="80"/>
-      <c r="E52" s="80"/>
-      <c r="F52" s="80"/>
+      <c r="B52" s="61"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="61"/>
+      <c r="E52" s="61"/>
+      <c r="F52" s="61"/>
     </row>
     <row r="53" spans="1:6" s="8" customFormat="1">
       <c r="A53" s="8" t="s">
-        <v>339</v>
-      </c>
-      <c r="B53" s="80"/>
-      <c r="C53" s="80"/>
-      <c r="D53" s="80"/>
-      <c r="E53" s="80"/>
-      <c r="F53" s="80"/>
+        <v>336</v>
+      </c>
+      <c r="B53" s="61"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="61"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="61"/>
     </row>
     <row r="54" spans="1:6" s="8" customFormat="1">
       <c r="A54" s="8" t="s">
-        <v>340</v>
-      </c>
-      <c r="B54" s="80"/>
-      <c r="C54" s="80"/>
-      <c r="D54" s="80"/>
-      <c r="E54" s="80"/>
-      <c r="F54" s="80"/>
+        <v>337</v>
+      </c>
+      <c r="B54" s="61"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="61"/>
+      <c r="E54" s="61"/>
+      <c r="F54" s="61"/>
     </row>
     <row r="55" spans="1:6" s="8" customFormat="1" ht="30">
       <c r="A55" s="8" t="s">
-        <v>345</v>
-      </c>
-      <c r="B55" s="80"/>
-      <c r="C55" s="80"/>
-      <c r="D55" s="80"/>
-      <c r="E55" s="80"/>
-      <c r="F55" s="80"/>
+        <v>342</v>
+      </c>
+      <c r="B55" s="61"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
+      <c r="F55" s="61"/>
     </row>
     <row r="56" spans="1:6" s="8" customFormat="1">
       <c r="A56" s="8" t="s">
-        <v>350</v>
-      </c>
-      <c r="B56" s="80"/>
-      <c r="C56" s="80"/>
-      <c r="D56" s="80"/>
-      <c r="E56" s="80"/>
-      <c r="F56" s="80"/>
+        <v>347</v>
+      </c>
+      <c r="B56" s="61"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="61"/>
+      <c r="E56" s="61"/>
+      <c r="F56" s="61"/>
     </row>
     <row r="57" spans="1:6" s="8" customFormat="1" ht="45">
       <c r="A57" s="8" t="s">
-        <v>346</v>
-      </c>
-      <c r="B57" s="80"/>
-      <c r="C57" s="80"/>
-      <c r="D57" s="80"/>
-      <c r="E57" s="80"/>
-      <c r="F57" s="80"/>
+        <v>343</v>
+      </c>
+      <c r="B57" s="61"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="61"/>
+      <c r="E57" s="61"/>
+      <c r="F57" s="61"/>
     </row>
     <row r="59" spans="1:6">
       <c r="A59" s="10" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" s="10" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
     </row>
     <row r="61" spans="1:6" ht="30">
       <c r="A61" s="10" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
     </row>
     <row r="62" spans="1:6">
       <c r="A62" s="10" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" s="10" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
     </row>
   </sheetData>
@@ -6910,10 +6465,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF11BE1A-892C-449D-A753-1B446ED96C7C}">
-  <dimension ref="A1:L20"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H8" sqref="H8"/>
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.5703125" defaultRowHeight="15"/>
@@ -6923,445 +6478,148 @@
     <col min="8" max="9" width="16.5703125" style="23"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" s="23" customFormat="1" ht="45">
-      <c r="A1" s="59" t="s">
+    <row r="1" spans="1:8" s="23" customFormat="1" ht="45">
+      <c r="A1" s="57" t="s">
+        <v>370</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>375</v>
+      </c>
+      <c r="C1" s="27" t="s">
+        <v>376</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>381</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>380</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>382</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>383</v>
+      </c>
+      <c r="H1" s="27" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" s="23" customFormat="1">
+      <c r="A2" s="60" t="s">
+        <v>378</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>366</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>367</v>
+      </c>
+      <c r="G2" s="46" t="s">
+        <v>367</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" s="23" customFormat="1" ht="30">
+      <c r="A3" s="60" t="s">
         <v>377</v>
       </c>
-      <c r="B1" s="27" t="s">
-        <v>382</v>
-      </c>
-      <c r="C1" s="27" t="s">
-        <v>383</v>
-      </c>
-      <c r="D1" s="27" t="s">
-        <v>403</v>
-      </c>
-      <c r="E1" s="27" t="s">
-        <v>402</v>
-      </c>
-      <c r="F1" s="27" t="s">
-        <v>404</v>
-      </c>
-      <c r="G1" s="27" t="s">
-        <v>405</v>
-      </c>
-      <c r="H1" s="27" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" s="23" customFormat="1">
-      <c r="A2" s="62" t="s">
-        <v>389</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="C2" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="D2" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="E2" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="F2" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="G2" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A3" s="62" t="s">
-        <v>384</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>370</v>
+      <c r="B3" s="41" t="s">
+        <v>366</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>371</v>
-      </c>
-      <c r="G3" s="49" t="s">
-        <v>371</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" s="23" customFormat="1" ht="30">
-      <c r="A4" s="62" t="s">
-        <v>401</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>370</v>
+        <v>367</v>
+      </c>
+      <c r="G3" s="47" t="s">
+        <v>367</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" s="23" customFormat="1" ht="30">
+      <c r="A4" s="60" t="s">
+        <v>379</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>366</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="G4" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" s="23" customFormat="1" ht="15.75" thickBot="1">
-      <c r="A5" s="58" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="G5" s="57" t="s">
-        <v>372</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" s="23" customFormat="1">
-      <c r="A6" s="60"/>
-      <c r="B6" s="43"/>
-      <c r="C6" s="43"/>
-      <c r="D6" s="43"/>
-      <c r="E6" s="43"/>
-      <c r="F6" s="43"/>
-      <c r="G6" s="43"/>
-      <c r="H6" s="43"/>
-    </row>
-    <row r="7" spans="1:12" ht="30.75" thickBot="1">
-      <c r="A7" s="50" t="s">
-        <v>374</v>
-      </c>
-      <c r="B7" s="51" t="s">
-        <v>385</v>
-      </c>
-      <c r="C7" s="52" t="s">
-        <v>386</v>
-      </c>
-      <c r="D7" s="52" t="s">
-        <v>387</v>
-      </c>
-      <c r="E7" s="52" t="s">
-        <v>388</v>
-      </c>
-      <c r="F7" s="53" t="s">
-        <v>317</v>
-      </c>
-      <c r="H7" s="43"/>
-      <c r="I7" s="43"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="A8" s="46" t="s">
-        <v>389</v>
-      </c>
-      <c r="B8" s="41" t="s">
-        <v>370</v>
-      </c>
-      <c r="C8" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="D8" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>371</v>
-      </c>
-      <c r="F8" s="48" t="s">
-        <v>371</v>
-      </c>
-      <c r="H8" s="43"/>
-      <c r="I8" s="43"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="A9" s="47" t="s">
-        <v>390</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="19" t="s">
-        <v>370</v>
-      </c>
-      <c r="D9" s="19" t="s">
-        <v>372</v>
-      </c>
-      <c r="E9" s="19" t="s">
-        <v>373</v>
-      </c>
-      <c r="F9" s="49" t="s">
-        <v>373</v>
-      </c>
-      <c r="H9" s="43"/>
-      <c r="I9" s="43"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="A10" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B10" s="55" t="s">
-        <v>370</v>
-      </c>
-      <c r="C10" s="56" t="s">
-        <v>370</v>
-      </c>
-      <c r="D10" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="E10" s="56" t="s">
-        <v>372</v>
-      </c>
-      <c r="F10" s="57" t="s">
-        <v>316</v>
-      </c>
-      <c r="H10" s="43"/>
-      <c r="I10" s="43"/>
-    </row>
-    <row r="12" spans="1:12" ht="45.75" thickBot="1">
-      <c r="A12" s="63" t="s">
-        <v>375</v>
-      </c>
-      <c r="B12" s="64" t="s">
-        <v>391</v>
-      </c>
-      <c r="C12" s="65" t="s">
-        <v>392</v>
-      </c>
-      <c r="D12" s="65" t="s">
-        <v>393</v>
-      </c>
-      <c r="E12" s="65" t="s">
-        <v>394</v>
-      </c>
-      <c r="F12" s="65" t="s">
-        <v>395</v>
-      </c>
-      <c r="G12" s="66" t="s">
-        <v>396</v>
-      </c>
-      <c r="H12" s="66" t="s">
-        <v>397</v>
-      </c>
-      <c r="I12" s="66" t="s">
-        <v>317</v>
-      </c>
-      <c r="J12" s="45"/>
-      <c r="K12" s="43"/>
-      <c r="L12" s="43"/>
-    </row>
-    <row r="13" spans="1:12" ht="30">
-      <c r="A13" s="67" t="s">
-        <v>398</v>
-      </c>
-      <c r="B13" s="68" t="s">
-        <v>370</v>
-      </c>
-      <c r="C13" s="69" t="s">
-        <v>370</v>
-      </c>
-      <c r="D13" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="E13" s="69" t="s">
-        <v>371</v>
-      </c>
-      <c r="F13" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="G13" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="H13" s="70" t="s">
-        <v>371</v>
-      </c>
-      <c r="I13" s="70" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="14" spans="1:12" ht="45">
-      <c r="A14" s="71" t="s">
-        <v>399</v>
-      </c>
-      <c r="B14" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="C14" s="73" t="s">
-        <v>218</v>
-      </c>
-      <c r="D14" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="E14" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F14" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="G14" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="H14" s="75" t="s">
-        <v>371</v>
-      </c>
-      <c r="I14" s="75" t="s">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="15" spans="1:12" s="23" customFormat="1" ht="45">
-      <c r="A15" s="71" t="s">
-        <v>400</v>
-      </c>
-      <c r="B15" s="72" t="s">
-        <v>370</v>
-      </c>
-      <c r="C15" s="73" t="s">
-        <v>370</v>
-      </c>
-      <c r="D15" s="74" t="s">
-        <v>370</v>
-      </c>
-      <c r="E15" s="73" t="s">
-        <v>372</v>
-      </c>
-      <c r="F15" s="74" t="s">
-        <v>218</v>
-      </c>
-      <c r="G15" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="H15" s="74" t="s">
-        <v>373</v>
-      </c>
-      <c r="I15" s="74" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="16" spans="1:12" s="23" customFormat="1">
-      <c r="A16" s="67" t="s">
-        <v>376</v>
-      </c>
-      <c r="B16" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="C16" s="77" t="s">
-        <v>370</v>
-      </c>
-      <c r="D16" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="E16" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="F16" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G16" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="H16" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="I16" s="78" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" s="23" customFormat="1">
-      <c r="A17" s="79" t="s">
         <v>369</v>
       </c>
-      <c r="B17" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="C17" s="77" t="s">
-        <v>370</v>
-      </c>
-      <c r="D17" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="E17" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="F17" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G17" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="H17" s="78" t="s">
-        <v>373</v>
-      </c>
-      <c r="I17" s="78" t="s">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9">
-      <c r="A18" s="79" t="s">
-        <v>318</v>
-      </c>
-      <c r="B18" s="76" t="s">
-        <v>370</v>
-      </c>
-      <c r="C18" s="77" t="s">
-        <v>370</v>
-      </c>
-      <c r="D18" s="78" t="s">
-        <v>370</v>
-      </c>
-      <c r="E18" s="77" t="s">
-        <v>372</v>
-      </c>
-      <c r="F18" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="G18" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="H18" s="78" t="s">
-        <v>372</v>
-      </c>
-      <c r="I18" s="78" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
-      <c r="F20" s="27"/>
+      <c r="G4" s="47" t="s">
+        <v>369</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" s="23" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A5" s="56" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>366</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>368</v>
+      </c>
+      <c r="F5" s="54" t="s">
+        <v>366</v>
+      </c>
+      <c r="G5" s="55" t="s">
+        <v>368</v>
+      </c>
+      <c r="H5" s="55" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" s="23" customFormat="1">
+      <c r="A6" s="58"/>
+      <c r="B6" s="42"/>
+      <c r="C6" s="42"/>
+      <c r="D6" s="42"/>
+      <c r="E6" s="42"/>
+      <c r="F6" s="42"/>
+      <c r="G6" s="42"/>
+      <c r="H6" s="42"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B8:F10 B13:I18 B2:H6">
+  <conditionalFormatting sqref="B2:H6">
     <cfRule type="containsText" dxfId="17" priority="35" stopIfTrue="1" operator="containsText" text="C1 Shrink">
       <formula>NOT(ISERROR(SEARCH("C1 Shrink",B2)))</formula>
     </cfRule>
@@ -7389,10 +6647,8 @@
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
-  <tableParts count="3">
+  <tableParts count="1">
     <tablePart r:id="rId2"/>
-    <tablePart r:id="rId3"/>
-    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -7416,143 +6672,143 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="45.75" thickBot="1">
-      <c r="A1" s="50" t="s">
-        <v>348</v>
-      </c>
-      <c r="B1" s="51" t="s">
-        <v>332</v>
-      </c>
-      <c r="C1" s="52" t="s">
+      <c r="A1" s="48" t="s">
+        <v>345</v>
+      </c>
+      <c r="B1" s="49" t="s">
+        <v>329</v>
+      </c>
+      <c r="C1" s="50" t="s">
+        <v>325</v>
+      </c>
+      <c r="D1" s="50" t="s">
+        <v>330</v>
+      </c>
+      <c r="E1" s="50" t="s">
+        <v>316</v>
+      </c>
+      <c r="F1" s="50" t="s">
         <v>328</v>
       </c>
-      <c r="D1" s="52" t="s">
-        <v>333</v>
-      </c>
-      <c r="E1" s="52" t="s">
+      <c r="G1" s="50" t="s">
+        <v>317</v>
+      </c>
+      <c r="H1" s="51" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>322</v>
+      </c>
+      <c r="C2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="E2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="F2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="G2" s="28" t="s">
+        <v>320</v>
+      </c>
+      <c r="H2" s="46" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="30">
+      <c r="A3" s="45" t="s">
+        <v>318</v>
+      </c>
+      <c r="B3" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C3" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D3" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="G3" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="H3" s="47" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" ht="30">
+      <c r="A4" s="45" t="s">
         <v>319</v>
       </c>
-      <c r="F1" s="52" t="s">
-        <v>331</v>
-      </c>
-      <c r="G1" s="52" t="s">
-        <v>320</v>
-      </c>
-      <c r="H1" s="53" t="s">
-        <v>317</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="46" t="s">
-        <v>329</v>
-      </c>
-      <c r="B2" s="41" t="s">
-        <v>325</v>
-      </c>
-      <c r="C2" s="28" t="s">
+      <c r="B4" s="41" t="s">
+        <v>322</v>
+      </c>
+      <c r="C4" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="D4" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F4" s="19" t="s">
         <v>323</v>
       </c>
-      <c r="D2" s="28" t="s">
+      <c r="G4" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="H4" s="47" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" s="52" t="s">
+        <v>315</v>
+      </c>
+      <c r="B5" s="53" t="s">
+        <v>322</v>
+      </c>
+      <c r="C5" s="54" t="s">
+        <v>322</v>
+      </c>
+      <c r="D5" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="E5" s="54" t="s">
+        <v>324</v>
+      </c>
+      <c r="F5" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="E2" s="28" t="s">
+      <c r="G5" s="54" t="s">
         <v>323</v>
       </c>
-      <c r="F2" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="G2" s="28" t="s">
-        <v>323</v>
-      </c>
-      <c r="H2" s="48" t="s">
-        <v>323</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="30">
-      <c r="A3" s="47" t="s">
-        <v>321</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D3" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="E3" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="F3" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>330</v>
-      </c>
-      <c r="H3" s="49" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" ht="30">
-      <c r="A4" s="47" t="s">
-        <v>322</v>
-      </c>
-      <c r="B4" s="42" t="s">
-        <v>325</v>
-      </c>
-      <c r="C4" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="D4" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="E4" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F4" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="H4" s="49" t="s">
-        <v>324</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="54" t="s">
-        <v>318</v>
-      </c>
-      <c r="B5" s="55" t="s">
-        <v>325</v>
-      </c>
-      <c r="C5" s="56" t="s">
-        <v>325</v>
-      </c>
-      <c r="D5" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="E5" s="56" t="s">
-        <v>327</v>
-      </c>
-      <c r="F5" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="G5" s="56" t="s">
-        <v>326</v>
-      </c>
-      <c r="H5" s="57" t="s">
-        <v>316</v>
+      <c r="H5" s="55" t="s">
+        <v>313</v>
       </c>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="43"/>
-      <c r="B7" s="43"/>
-      <c r="C7" s="43"/>
-      <c r="D7" s="43"/>
+      <c r="A7" s="42"/>
+      <c r="B7" s="42"/>
+      <c r="C7" s="42"/>
+      <c r="D7" s="42"/>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="43"/>
+      <c r="A8" s="42"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="A7:D7 A8 A1:H5">
@@ -7602,7 +6858,7 @@
   <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7613,59 +6869,59 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
       <c r="B1" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="C1" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="D1" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="E1" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="F1" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="G1" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="2" spans="1:7">
       <c r="A2" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B2" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
       <c r="B3" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
       <c r="B4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="A5" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
     </row>
   </sheetData>
@@ -7691,17 +6947,17 @@
   <sheetData>
     <row r="1" spans="1:1">
       <c r="A1" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1">
       <c r="A2" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1">
       <c r="A3" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
   </sheetData>

--- a/Plans.xlsx
+++ b/Plans.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24930" windowHeight="12330" tabRatio="753" activeTab="1" xr2:uid="{B08B66F6-8B10-48BD-8CBC-92B4F4D60D54}"/>
   </bookViews>
   <sheets>
     <sheet name="TODO" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="699" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="722" uniqueCount="495">
   <si>
     <t>Feature</t>
   </si>
@@ -491,9 +491,6 @@
   </si>
   <si>
     <t>allow a set amount with a rate. E.g. Spend $1000 at a rate of $200 per week. E.g. Spend 500 hours at a rate of 40 hours per week</t>
-  </si>
-  <si>
-    <t>make End optional, but must have either defined start and end, or defined start and any time allocation</t>
   </si>
   <si>
     <t>pattern editor All/Any</t>
@@ -1558,6 +1555,45 @@
   </si>
   <si>
     <t xml:space="preserve">FindTaskSet and FindPerSet need to account for dimension. </t>
+  </si>
+  <si>
+    <t>Adding a new task, need to refresh checkin editor task list</t>
+  </si>
+  <si>
+    <t>Validation lists are yet again missing… The context of the direct content of the EditPopUpTemplate must be CurrentEditItem. The ContentControl using the EditPopUpTemplate must be wrapped in a Grid with the DataContext set to the correct ViewModel</t>
+  </si>
+  <si>
+    <t>Label categories</t>
+  </si>
+  <si>
+    <t>Favorites</t>
+  </si>
+  <si>
+    <t>Task CheckIn quick bar. Like WoW action bars</t>
+  </si>
+  <si>
+    <t>Macros</t>
+  </si>
+  <si>
+    <t>WoW-like macros</t>
+  </si>
+  <si>
+    <t>Clauses needed Pattern foreign key so that they could be deleted from a pattern</t>
+  </si>
+  <si>
+    <t>AllocateEmptySpace() was just completely wrong</t>
+  </si>
+  <si>
+    <t>make End optional, but must have either defined start and end, or defined start and any time allocation.</t>
+  </si>
+  <si>
+    <t>Why the heck am I seeing a perfectly fine allocated Per, but its Remaining is hugely negative? -2days? Was using Allocation.Amount instead of Allocation.AmountAsTimeSpan.Ticks. Lmao</t>
+  </si>
+  <si>
+    <t>Priority</t>
+  </si>
+  <si>
+    <t>Should higher priority be a bigger number or a smaller number? Bigger.</t>
   </si>
 </sst>
 </file>
@@ -1984,7 +2020,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2123,6 +2159,9 @@
     <xf numFmtId="0" fontId="0" fillId="15" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="16" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3171,8 +3210,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C175" totalsRowShown="0">
-  <autoFilter ref="A1:C175" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{65952822-3284-40E9-9481-C13F5965A79B}" name="Table1" displayName="Table1" ref="A1:C184" totalsRowShown="0">
+  <autoFilter ref="A1:C184" xr:uid="{BF00F6B2-463B-4ADE-983E-2EF4E635F59B}"/>
   <tableColumns count="3">
     <tableColumn id="1" xr3:uid="{D3AD27DB-285B-4F25-830A-2F06B20F1459}" name="Feature" dataDxfId="63"/>
     <tableColumn id="6" xr3:uid="{1FFE88A6-F499-42FB-A3F4-F5BDCD9D0CF0}" name="Done"/>
@@ -3555,10 +3594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7F1E44D-0EC6-4B80-951F-3617AE94E3C2}">
-  <dimension ref="A1:G175"/>
+  <dimension ref="A1:G184"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="B92" sqref="B92"/>
+    <sheetView topLeftCell="A89" workbookViewId="0">
+      <selection activeCell="B98" sqref="B98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3869,7 +3908,7 @@
         <v>23</v>
       </c>
       <c r="C31" s="8" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -4114,7 +4153,7 @@
     </row>
     <row r="57" spans="1:3">
       <c r="A57" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B57" s="13" t="s">
         <v>23</v>
@@ -4123,7 +4162,7 @@
     </row>
     <row r="58" spans="1:3">
       <c r="A58" s="11" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B58" s="13" t="s">
         <v>23</v>
@@ -4132,13 +4171,13 @@
     </row>
     <row r="59" spans="1:3" ht="30">
       <c r="A59" s="11" t="s">
+        <v>198</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C59" s="12" t="s">
         <v>199</v>
-      </c>
-      <c r="B59" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C59" s="12" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="60" spans="1:3">
@@ -4149,56 +4188,56 @@
         <v>23</v>
       </c>
       <c r="C60" s="12" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="61" spans="1:3">
       <c r="A61" s="11" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B61" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C61" s="24" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="62" spans="1:3">
       <c r="A62" s="11" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B62" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C62" s="24" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
     </row>
     <row r="63" spans="1:3">
       <c r="A63" s="11" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B63" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C63" s="12" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="64" spans="1:3">
       <c r="A64" s="11" t="s">
+        <v>297</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C64" s="24" t="s">
         <v>298</v>
-      </c>
-      <c r="B64" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C64" s="24" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="65" spans="1:3">
       <c r="A65" s="11" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B65" s="13" t="s">
         <v>23</v>
@@ -4207,7 +4246,7 @@
     </row>
     <row r="66" spans="1:3">
       <c r="A66" s="11" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B66" s="13" t="s">
         <v>23</v>
@@ -4216,7 +4255,7 @@
     </row>
     <row r="67" spans="1:3">
       <c r="A67" s="11" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B67" s="13" t="s">
         <v>23</v>
@@ -4225,7 +4264,7 @@
     </row>
     <row r="68" spans="1:3">
       <c r="A68" s="11" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B68" s="13" t="s">
         <v>23</v>
@@ -4234,7 +4273,7 @@
     </row>
     <row r="69" spans="1:3">
       <c r="A69" s="11" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B69" s="13" t="s">
         <v>23</v>
@@ -4243,7 +4282,7 @@
     </row>
     <row r="70" spans="1:3" s="9" customFormat="1">
       <c r="A70" s="11" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B70" s="13" t="s">
         <v>23</v>
@@ -4252,29 +4291,29 @@
     </row>
     <row r="71" spans="1:3" s="9" customFormat="1" ht="30">
       <c r="A71" s="11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B71" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C71" s="12" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="72" spans="1:3" s="9" customFormat="1">
       <c r="A72" s="11" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C72" s="24" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
     </row>
     <row r="73" spans="1:3" s="9" customFormat="1">
       <c r="A73" s="11" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B73" s="13" t="s">
         <v>23</v>
@@ -4283,7 +4322,7 @@
     </row>
     <row r="74" spans="1:3" s="9" customFormat="1">
       <c r="A74" s="11" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B74" s="13" t="s">
         <v>23</v>
@@ -4292,7 +4331,7 @@
     </row>
     <row r="75" spans="1:3" s="9" customFormat="1">
       <c r="A75" s="11" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B75" s="13" t="s">
         <v>23</v>
@@ -4301,7 +4340,7 @@
     </row>
     <row r="76" spans="1:3" s="9" customFormat="1">
       <c r="A76" s="11" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B76" s="13" t="s">
         <v>23</v>
@@ -4310,7 +4349,7 @@
     </row>
     <row r="77" spans="1:3" s="9" customFormat="1">
       <c r="A77" s="11" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B77" s="13" t="s">
         <v>23</v>
@@ -4319,7 +4358,7 @@
     </row>
     <row r="78" spans="1:3" s="9" customFormat="1">
       <c r="A78" s="11" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B78" s="13" t="s">
         <v>23</v>
@@ -4328,46 +4367,46 @@
     </row>
     <row r="79" spans="1:3" s="9" customFormat="1">
       <c r="A79" s="11" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B79" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C79" s="12" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
     </row>
     <row r="80" spans="1:3" s="13" customFormat="1">
       <c r="A80" s="11" t="s">
+        <v>410</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C80" s="12" t="s">
         <v>411</v>
-      </c>
-      <c r="B80" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C80" s="12" t="s">
-        <v>412</v>
       </c>
     </row>
     <row r="81" spans="1:3" s="13" customFormat="1">
       <c r="A81" s="11" t="s">
+        <v>404</v>
+      </c>
+      <c r="B81" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C81" s="12" t="s">
         <v>405</v>
-      </c>
-      <c r="B81" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C81" s="12" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="82" spans="1:3" s="13" customFormat="1">
       <c r="A82" s="11" t="s">
+        <v>406</v>
+      </c>
+      <c r="B82" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C82" s="12" t="s">
         <v>407</v>
-      </c>
-      <c r="B82" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C82" s="12" t="s">
-        <v>408</v>
       </c>
     </row>
     <row r="83" spans="1:3" s="13" customFormat="1">
@@ -4378,12 +4417,12 @@
         <v>23</v>
       </c>
       <c r="C83" s="12" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="84" spans="1:3" s="13" customFormat="1">
       <c r="A84" s="11" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="B84" s="13" t="s">
         <v>23</v>
@@ -4392,68 +4431,68 @@
     </row>
     <row r="85" spans="1:3" s="13" customFormat="1">
       <c r="A85" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B85" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C85" s="12" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="86" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A86" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B86" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C86" s="12" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="87" spans="1:3" s="13" customFormat="1">
       <c r="A87" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B87" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C87" s="12" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
     </row>
     <row r="88" spans="1:3" s="13" customFormat="1">
       <c r="A88" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B88" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C88" s="12" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
     </row>
     <row r="89" spans="1:3" s="13" customFormat="1">
       <c r="A89" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B89" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C89" s="12" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="90" spans="1:3" s="13" customFormat="1">
       <c r="A90" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B90" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C90" s="12" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="91" spans="1:3" s="13" customFormat="1">
@@ -4464,636 +4503,724 @@
         <v>23</v>
       </c>
       <c r="C91" s="12" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="92" spans="1:3" s="13" customFormat="1">
       <c r="A92" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="B92" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C92" s="12" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="93" spans="1:3" s="13" customFormat="1">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="93" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A93" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="B93" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C93" s="12" t="s">
-        <v>479</v>
+        <v>483</v>
       </c>
     </row>
     <row r="94" spans="1:3" s="13" customFormat="1">
       <c r="A94" s="11" t="s">
-        <v>411</v>
+        <v>408</v>
+      </c>
+      <c r="B94" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C94" s="12" t="s">
-        <v>480</v>
+        <v>489</v>
       </c>
     </row>
     <row r="95" spans="1:3" s="13" customFormat="1">
       <c r="A95" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="B95" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C95" s="12" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="96" spans="1:3" s="13" customFormat="1">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="96" spans="1:3" s="13" customFormat="1" ht="30">
       <c r="A96" s="11" t="s">
-        <v>409</v>
+        <v>408</v>
+      </c>
+      <c r="B96" s="13" t="s">
+        <v>23</v>
       </c>
       <c r="C96" s="12" t="s">
-        <v>433</v>
+        <v>492</v>
       </c>
     </row>
     <row r="97" spans="1:3" s="13" customFormat="1">
       <c r="A97" s="11" t="s">
-        <v>435</v>
+        <v>493</v>
       </c>
       <c r="B97" s="13" t="s">
         <v>23</v>
       </c>
       <c r="C97" s="12" t="s">
-        <v>463</v>
+        <v>494</v>
       </c>
     </row>
     <row r="98" spans="1:3" s="13" customFormat="1">
       <c r="A98" s="11" t="s">
-        <v>212</v>
-      </c>
-      <c r="B98" s="3"/>
+        <v>410</v>
+      </c>
       <c r="C98" s="12" t="s">
-        <v>213</v>
+        <v>477</v>
       </c>
     </row>
     <row r="99" spans="1:3" s="13" customFormat="1">
       <c r="A99" s="11" t="s">
-        <v>465</v>
-      </c>
-      <c r="B99" s="3"/>
+        <v>410</v>
+      </c>
       <c r="C99" s="12" t="s">
-        <v>457</v>
+        <v>478</v>
       </c>
     </row>
     <row r="100" spans="1:3" s="13" customFormat="1">
       <c r="A100" s="11" t="s">
-        <v>464</v>
+        <v>410</v>
       </c>
       <c r="C100" s="12" t="s">
-        <v>436</v>
+        <v>479</v>
       </c>
     </row>
     <row r="101" spans="1:3" s="13" customFormat="1">
       <c r="A101" s="11" t="s">
-        <v>398</v>
+        <v>408</v>
       </c>
       <c r="C101" s="12" t="s">
-        <v>399</v>
+        <v>409</v>
       </c>
     </row>
     <row r="102" spans="1:3" s="13" customFormat="1">
       <c r="A102" s="11" t="s">
-        <v>456</v>
-      </c>
-      <c r="B102" s="3"/>
+        <v>408</v>
+      </c>
       <c r="C102" s="12" t="s">
-        <v>102</v>
+        <v>432</v>
       </c>
     </row>
     <row r="103" spans="1:3" s="13" customFormat="1">
       <c r="A103" s="11" t="s">
         <v>434</v>
       </c>
-      <c r="C103" s="12"/>
-    </row>
-    <row r="104" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="B103" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C103" s="12" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="104" spans="1:3" s="13" customFormat="1">
       <c r="A104" s="11" t="s">
-        <v>460</v>
-      </c>
+        <v>211</v>
+      </c>
+      <c r="B104" s="3"/>
       <c r="C104" s="12" t="s">
-        <v>461</v>
-      </c>
-    </row>
-    <row r="105" spans="1:3" s="13" customFormat="1" ht="30">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="105" spans="1:3" s="13" customFormat="1">
       <c r="A105" s="11" t="s">
-        <v>459</v>
-      </c>
+        <v>464</v>
+      </c>
+      <c r="B105" s="3"/>
       <c r="C105" s="12" t="s">
-        <v>242</v>
+        <v>456</v>
       </c>
     </row>
     <row r="106" spans="1:3" s="13" customFormat="1">
       <c r="A106" s="11" t="s">
-        <v>121</v>
+        <v>463</v>
       </c>
       <c r="C106" s="12" t="s">
-        <v>198</v>
+        <v>435</v>
       </c>
     </row>
     <row r="107" spans="1:3" s="13" customFormat="1">
       <c r="A107" s="11" t="s">
-        <v>79</v>
-      </c>
-      <c r="C107" s="12"/>
+        <v>397</v>
+      </c>
+      <c r="C107" s="12" t="s">
+        <v>398</v>
+      </c>
     </row>
     <row r="108" spans="1:3" s="13" customFormat="1">
       <c r="A108" s="11" t="s">
-        <v>51</v>
-      </c>
+        <v>455</v>
+      </c>
+      <c r="B108" s="3"/>
       <c r="C108" s="12" t="s">
-        <v>52</v>
+        <v>102</v>
       </c>
     </row>
     <row r="109" spans="1:3" s="13" customFormat="1">
       <c r="A109" s="11" t="s">
-        <v>418</v>
-      </c>
-      <c r="B109" s="3"/>
-      <c r="C109" s="12" t="s">
+        <v>433</v>
+      </c>
+      <c r="C109" s="12"/>
+    </row>
+    <row r="110" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A110" s="11" t="s">
+        <v>459</v>
+      </c>
+      <c r="C110" s="12" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="111" spans="1:3" s="13" customFormat="1" ht="30">
+      <c r="A111" s="11" t="s">
+        <v>458</v>
+      </c>
+      <c r="C111" s="12" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="112" spans="1:3" s="13" customFormat="1">
+      <c r="A112" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="C112" s="12" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="113" spans="1:3" s="13" customFormat="1">
+      <c r="A113" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="C113" s="12"/>
+    </row>
+    <row r="114" spans="1:3" s="13" customFormat="1">
+      <c r="A114" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C114" s="12" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="115" spans="1:3" s="13" customFormat="1">
+      <c r="A115" s="11" t="s">
         <v>417</v>
       </c>
-    </row>
-    <row r="110" spans="1:3">
-      <c r="A110" s="2" t="s">
+      <c r="B115" s="3"/>
+      <c r="C115" s="12" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="116" spans="1:3">
+      <c r="A116" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="C110" s="4" t="s">
+      <c r="C116" s="4" t="s">
         <v>87</v>
-      </c>
-    </row>
-    <row r="111" spans="1:3">
-      <c r="A111" s="11" t="s">
-        <v>195</v>
-      </c>
-      <c r="B111" s="13"/>
-      <c r="C111" s="12"/>
-    </row>
-    <row r="112" spans="1:3">
-      <c r="A112" s="11" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="113" spans="1:3">
-      <c r="A113" s="11" t="s">
-        <v>446</v>
-      </c>
-      <c r="C113" s="12" t="s">
-        <v>447</v>
-      </c>
-    </row>
-    <row r="114" spans="1:3">
-      <c r="A114" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="C114" s="4" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="115" spans="1:3" ht="30">
-      <c r="A115" s="11" t="s">
-        <v>155</v>
-      </c>
-      <c r="B115" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C115" s="12" t="s">
-        <v>437</v>
-      </c>
-    </row>
-    <row r="116" spans="1:3">
-      <c r="A116" s="11" t="s">
-        <v>450</v>
-      </c>
-      <c r="B116" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C116" s="12" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="117" spans="1:3">
       <c r="A117" s="11" t="s">
-        <v>432</v>
-      </c>
+        <v>194</v>
+      </c>
+      <c r="B117" s="13"/>
       <c r="C117" s="12"/>
     </row>
     <row r="118" spans="1:3">
-      <c r="A118" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="C118" s="4" t="s">
-        <v>91</v>
+      <c r="A118" s="11" t="s">
+        <v>101</v>
       </c>
     </row>
     <row r="119" spans="1:3">
-      <c r="A119" s="2" t="s">
-        <v>6</v>
+      <c r="A119" s="11" t="s">
+        <v>445</v>
+      </c>
+      <c r="C119" s="12" t="s">
+        <v>446</v>
       </c>
     </row>
     <row r="120" spans="1:3">
       <c r="A120" s="2" t="s">
-        <v>7</v>
+        <v>44</v>
+      </c>
+      <c r="C120" s="4" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="121" spans="1:3">
-      <c r="A121" s="11" t="s">
-        <v>209</v>
-      </c>
-      <c r="C121" s="12" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="122" spans="1:3">
-      <c r="A122" s="2" t="s">
-        <v>10</v>
+      <c r="A121" s="2" t="s">
+        <v>88</v>
+      </c>
+      <c r="C121" s="4" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="122" spans="1:3" ht="30">
+      <c r="A122" s="11" t="s">
+        <v>154</v>
+      </c>
+      <c r="B122" s="13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C122" s="12" t="s">
+        <v>436</v>
       </c>
     </row>
     <row r="123" spans="1:3">
       <c r="A123" s="11" t="s">
-        <v>387</v>
-      </c>
-      <c r="B123" s="13"/>
+        <v>449</v>
+      </c>
+      <c r="B123" s="13" t="s">
+        <v>23</v>
+      </c>
       <c r="C123" s="12" t="s">
-        <v>453</v>
+        <v>196</v>
       </c>
     </row>
     <row r="124" spans="1:3">
       <c r="A124" s="11" t="s">
-        <v>300</v>
-      </c>
-      <c r="B124" s="13"/>
-      <c r="C124" s="12" t="s">
-        <v>400</v>
-      </c>
-    </row>
-    <row r="125" spans="1:3" ht="30">
-      <c r="A125" s="11" t="s">
-        <v>430</v>
-      </c>
-      <c r="C125" s="12" t="s">
         <v>431</v>
       </c>
-    </row>
-    <row r="126" spans="1:3" ht="30">
-      <c r="A126" s="11" t="s">
-        <v>301</v>
-      </c>
-      <c r="C126" s="12" t="s">
-        <v>302</v>
+      <c r="C124" s="12"/>
+    </row>
+    <row r="125" spans="1:3">
+      <c r="A125" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C125" s="4" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="126" spans="1:3">
+      <c r="A126" s="2" t="s">
+        <v>6</v>
       </c>
     </row>
     <row r="127" spans="1:3">
       <c r="A127" s="2" t="s">
-        <v>80</v>
+        <v>7</v>
       </c>
     </row>
     <row r="128" spans="1:3">
       <c r="A128" s="11" t="s">
-        <v>150</v>
+        <v>208</v>
       </c>
       <c r="C128" s="12" t="s">
-        <v>152</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:3">
-      <c r="A129" s="11" t="s">
-        <v>151</v>
-      </c>
-      <c r="C129" s="12" t="s">
-        <v>153</v>
+      <c r="A129" s="2" t="s">
+        <v>10</v>
       </c>
     </row>
     <row r="130" spans="1:3">
       <c r="A130" s="11" t="s">
-        <v>127</v>
-      </c>
+        <v>386</v>
+      </c>
+      <c r="B130" s="13"/>
       <c r="C130" s="12" t="s">
-        <v>128</v>
+        <v>452</v>
       </c>
     </row>
     <row r="131" spans="1:3">
-      <c r="A131" s="2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="132" spans="1:3">
-      <c r="A132" s="2" t="s">
-        <v>11</v>
+      <c r="A131" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="B131" s="13"/>
+      <c r="C131" s="12" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="132" spans="1:3" ht="30">
+      <c r="A132" s="11" t="s">
+        <v>300</v>
       </c>
       <c r="C132" s="12" t="s">
-        <v>136</v>
+        <v>301</v>
       </c>
     </row>
     <row r="133" spans="1:3">
       <c r="A133" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C133" s="4" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
     </row>
     <row r="134" spans="1:3">
       <c r="A134" s="11" t="s">
-        <v>96</v>
+        <v>150</v>
       </c>
       <c r="C134" s="12" t="s">
-        <v>97</v>
+        <v>152</v>
       </c>
     </row>
     <row r="135" spans="1:3">
-      <c r="A135" s="2" t="s">
-        <v>13</v>
+      <c r="A135" s="11" t="s">
+        <v>151</v>
+      </c>
+      <c r="C135" s="12" t="s">
+        <v>491</v>
       </c>
     </row>
     <row r="136" spans="1:3">
       <c r="A136" s="2" t="s">
-        <v>35</v>
+        <v>8</v>
       </c>
     </row>
     <row r="137" spans="1:3">
       <c r="A137" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137" s="12" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="138" spans="1:3">
+      <c r="A138" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="C138" s="4" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="139" spans="1:3">
+      <c r="A139" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C139" s="12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="140" spans="1:3">
+      <c r="A140" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="141" spans="1:3">
+      <c r="A141" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="142" spans="1:3">
+      <c r="A142" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="C137" s="12" t="s">
+      <c r="C142" s="12" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="138" spans="1:3">
-      <c r="A138" s="11" t="s">
+    <row r="143" spans="1:3">
+      <c r="A143" s="11" t="s">
         <v>121</v>
       </c>
-      <c r="C138" s="12" t="s">
-        <v>448</v>
-      </c>
-    </row>
-    <row r="139" spans="1:3">
-      <c r="A139" s="2" t="s">
+      <c r="C143" s="12" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="144" spans="1:3">
+      <c r="A144" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C139" s="12" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="140" spans="1:3" ht="30">
-      <c r="A140" s="11" t="s">
-        <v>138</v>
-      </c>
-      <c r="C140" s="12" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="141" spans="1:3">
-      <c r="A141" s="11" t="s">
-        <v>140</v>
-      </c>
-      <c r="C141" s="12" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="142" spans="1:3">
-      <c r="A142" s="11" t="s">
-        <v>403</v>
-      </c>
-      <c r="C142" s="12" t="s">
-        <v>404</v>
-      </c>
-    </row>
-    <row r="143" spans="1:3" ht="45">
-      <c r="A143" s="11" t="s">
-        <v>441</v>
-      </c>
-      <c r="C143" s="12" t="s">
-        <v>442</v>
-      </c>
-    </row>
-    <row r="144" spans="1:3" ht="60">
-      <c r="A144" s="11" t="s">
-        <v>443</v>
-      </c>
       <c r="C144" s="12" t="s">
-        <v>444</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:3" ht="30">
       <c r="A145" s="11" t="s">
-        <v>358</v>
+        <v>429</v>
       </c>
       <c r="C145" s="12" t="s">
-        <v>445</v>
-      </c>
-    </row>
-    <row r="146" spans="1:3">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="146" spans="1:3" ht="30">
       <c r="A146" s="11" t="s">
-        <v>359</v>
+        <v>138</v>
       </c>
       <c r="C146" s="12" t="s">
-        <v>360</v>
+        <v>137</v>
       </c>
     </row>
     <row r="147" spans="1:3">
       <c r="A147" s="11" t="s">
-        <v>99</v>
+        <v>140</v>
+      </c>
+      <c r="C147" s="12" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="148" spans="1:3">
       <c r="A148" s="11" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="149" spans="1:3">
-      <c r="A149" s="2" t="s">
-        <v>44</v>
-      </c>
-      <c r="C149" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="150" spans="1:3">
-      <c r="A150" s="2" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="151" spans="1:3">
-      <c r="A151" s="2" t="s">
-        <v>60</v>
+        <v>402</v>
+      </c>
+      <c r="C148" s="12" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="149" spans="1:3" ht="45">
+      <c r="A149" s="11" t="s">
+        <v>440</v>
+      </c>
+      <c r="C149" s="12" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="150" spans="1:3" ht="60">
+      <c r="A150" s="11" t="s">
+        <v>442</v>
+      </c>
+      <c r="C150" s="12" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="151" spans="1:3" ht="30">
+      <c r="A151" s="11" t="s">
+        <v>357</v>
       </c>
       <c r="C151" s="12" t="s">
-        <v>103</v>
+        <v>444</v>
       </c>
     </row>
     <row r="152" spans="1:3">
       <c r="A152" s="11" t="s">
-        <v>449</v>
-      </c>
-      <c r="C152" s="12"/>
+        <v>358</v>
+      </c>
+      <c r="C152" s="12" t="s">
+        <v>359</v>
+      </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153" s="11" t="s">
-        <v>214</v>
-      </c>
-      <c r="C153" s="12"/>
+        <v>99</v>
+      </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154" s="11" t="s">
-        <v>208</v>
-      </c>
-      <c r="C154" s="12"/>
+        <v>100</v>
+      </c>
     </row>
     <row r="155" spans="1:3">
-      <c r="A155" s="11" t="s">
-        <v>144</v>
-      </c>
-      <c r="C155" s="12"/>
+      <c r="A155" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="156" spans="1:3">
-      <c r="A156" s="11" t="s">
-        <v>145</v>
-      </c>
-      <c r="C156" s="12"/>
-    </row>
-    <row r="157" spans="1:3" ht="30">
+      <c r="A156" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C156" s="12" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="157" spans="1:3">
       <c r="A157" s="11" t="s">
-        <v>146</v>
-      </c>
-      <c r="B157" s="13"/>
-      <c r="C157" s="12" t="s">
-        <v>36</v>
-      </c>
+        <v>448</v>
+      </c>
+      <c r="C157" s="12"/>
     </row>
     <row r="158" spans="1:3">
-      <c r="A158" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="C158" s="4" t="s">
-        <v>75</v>
-      </c>
+      <c r="A158" s="11" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="12"/>
     </row>
     <row r="159" spans="1:3">
-      <c r="A159" s="2" t="s">
-        <v>84</v>
-      </c>
-      <c r="C159" s="4" t="s">
-        <v>85</v>
-      </c>
+      <c r="A159" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="C159" s="12"/>
     </row>
     <row r="160" spans="1:3">
       <c r="A160" s="11" t="s">
-        <v>94</v>
-      </c>
-      <c r="C160" s="12" t="s">
-        <v>95</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="C160" s="12"/>
     </row>
     <row r="161" spans="1:3">
-      <c r="A161" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="162" spans="1:3" s="9" customFormat="1">
-      <c r="A162" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="B162" s="3"/>
-      <c r="C162" s="4"/>
+      <c r="A161" s="11" t="s">
+        <v>145</v>
+      </c>
+      <c r="C161" s="12"/>
+    </row>
+    <row r="162" spans="1:3" ht="30">
+      <c r="A162" s="11" t="s">
+        <v>146</v>
+      </c>
+      <c r="B162" s="13"/>
+      <c r="C162" s="12" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="163" spans="1:3">
-      <c r="A163" s="11" t="s">
-        <v>98</v>
+      <c r="A163" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C163" s="4" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="164" spans="1:3">
       <c r="A164" s="2" t="s">
-        <v>58</v>
+        <v>84</v>
+      </c>
+      <c r="C164" s="4" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="165" spans="1:3">
-      <c r="A165" s="2" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="166" spans="1:3" ht="30">
+      <c r="A165" s="68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B165" s="9"/>
+      <c r="C165" s="10" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="166" spans="1:3">
       <c r="A166" s="11" t="s">
-        <v>117</v>
+        <v>127</v>
       </c>
       <c r="C166" s="12" t="s">
-        <v>451</v>
+        <v>128</v>
       </c>
     </row>
     <row r="167" spans="1:3">
-      <c r="A167" s="11" t="s">
-        <v>133</v>
-      </c>
-      <c r="C167" s="12" t="s">
-        <v>134</v>
+      <c r="A167" s="2" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="168" spans="1:3">
       <c r="A168" s="11" t="s">
-        <v>141</v>
-      </c>
-      <c r="B168" s="13"/>
-      <c r="C168" s="12" t="s">
-        <v>142</v>
+        <v>484</v>
       </c>
     </row>
     <row r="169" spans="1:3">
-      <c r="A169" s="11" t="s">
-        <v>147</v>
-      </c>
-      <c r="B169" s="13"/>
-      <c r="C169" s="12" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="170" spans="1:3" ht="30">
+      <c r="A169" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="170" spans="1:3">
       <c r="A170" s="11" t="s">
-        <v>149</v>
-      </c>
-      <c r="B170" s="13"/>
-      <c r="C170" s="12" t="s">
-        <v>452</v>
-      </c>
-    </row>
-    <row r="171" spans="1:3">
-      <c r="A171" s="11" t="s">
-        <v>221</v>
-      </c>
-      <c r="B171" s="13"/>
-      <c r="C171" s="12" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="172" spans="1:3" ht="30">
-      <c r="A172" s="11" t="s">
-        <v>228</v>
-      </c>
-      <c r="B172" s="13"/>
-      <c r="C172" s="12" t="s">
-        <v>229</v>
-      </c>
-    </row>
-    <row r="173" spans="1:3">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="171" spans="1:3" s="9" customFormat="1">
+      <c r="A171" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B171" s="3"/>
+      <c r="C171" s="4"/>
+    </row>
+    <row r="172" spans="1:3">
+      <c r="A172" s="2" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="173" spans="1:3" ht="30">
       <c r="A173" s="11" t="s">
-        <v>230</v>
+        <v>117</v>
       </c>
       <c r="C173" s="12" t="s">
-        <v>231</v>
+        <v>450</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174" s="11" t="s">
-        <v>258</v>
+        <v>133</v>
       </c>
       <c r="C174" s="12" t="s">
-        <v>259</v>
+        <v>134</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175" s="11" t="s">
-        <v>481</v>
-      </c>
-      <c r="C175" s="12"/>
+        <v>141</v>
+      </c>
+      <c r="B175" s="13"/>
+      <c r="C175" s="12" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="176" spans="1:3">
+      <c r="A176" s="11" t="s">
+        <v>147</v>
+      </c>
+      <c r="B176" s="13"/>
+      <c r="C176" s="12" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="177" spans="1:3" ht="30">
+      <c r="A177" s="11" t="s">
+        <v>149</v>
+      </c>
+      <c r="B177" s="13"/>
+      <c r="C177" s="12" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="178" spans="1:3">
+      <c r="A178" s="11" t="s">
+        <v>220</v>
+      </c>
+      <c r="B178" s="13"/>
+      <c r="C178" s="12" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="179" spans="1:3" ht="30">
+      <c r="A179" s="11" t="s">
+        <v>227</v>
+      </c>
+      <c r="B179" s="13"/>
+      <c r="C179" s="12" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="180" spans="1:3">
+      <c r="A180" s="11" t="s">
+        <v>229</v>
+      </c>
+      <c r="C180" s="12" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="181" spans="1:3">
+      <c r="A181" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="C181" s="12" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="182" spans="1:3">
+      <c r="A182" s="11" t="s">
+        <v>480</v>
+      </c>
+      <c r="C182" s="12"/>
+    </row>
+    <row r="183" spans="1:3">
+      <c r="A183" s="11" t="s">
+        <v>485</v>
+      </c>
+      <c r="C183" s="12" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="184" spans="1:3">
+      <c r="A184" s="11" t="s">
+        <v>487</v>
+      </c>
+      <c r="C184" s="12" t="s">
+        <v>488</v>
+      </c>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B1048576">
@@ -5119,7 +5246,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06728CA9-C11D-4FE8-8912-18D6A33E8379}">
   <dimension ref="A1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
@@ -5132,7 +5259,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="20" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="B1" s="20"/>
       <c r="C1" s="20"/>
@@ -5148,138 +5275,138 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" t="s">
+        <v>188</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>189</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B5" s="15" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
     <row r="6" spans="1:12" s="23" customFormat="1">
       <c r="A6" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
     </row>
     <row r="7" spans="1:12" s="23" customFormat="1">
       <c r="A7" s="23" t="s">
+        <v>234</v>
+      </c>
+      <c r="B7" s="22" t="s">
         <v>235</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
     </row>
     <row r="9" spans="1:12" s="23" customFormat="1">
       <c r="A9" s="23" t="s">
+        <v>291</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>292</v>
-      </c>
-      <c r="B9" s="27" t="s">
-        <v>293</v>
       </c>
     </row>
     <row r="10" spans="1:12" s="18" customFormat="1">
       <c r="A10" s="16" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B10" s="17" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
     </row>
     <row r="11" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A11" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="45">
       <c r="A12" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B12" s="15" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="13" spans="1:12" s="23" customFormat="1" ht="30">
       <c r="A13" s="23" t="s">
+        <v>400</v>
+      </c>
+      <c r="B13" s="27" t="s">
         <v>401</v>
-      </c>
-      <c r="B13" s="27" t="s">
-        <v>402</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="30">
       <c r="A14" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="2:2">
       <c r="B17" s="15" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
     </row>
     <row r="18" spans="2:2">
       <c r="B18" s="15" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
     </row>
     <row r="19" spans="2:2">
       <c r="B19" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
     </row>
     <row r="20" spans="2:2">
       <c r="B20" s="15" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
     </row>
     <row r="21" spans="2:2" ht="45">
       <c r="B21" s="10" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
     </row>
     <row r="22" spans="2:2" ht="30">
       <c r="B22" s="10" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
     </row>
     <row r="23" spans="2:2" ht="30">
       <c r="B23" s="10" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
     </row>
     <row r="24" spans="2:2" ht="45">
       <c r="B24" s="15" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
     </row>
   </sheetData>
@@ -5309,283 +5436,283 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1" s="20" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="2" spans="1:5">
       <c r="A2" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="B2" s="20" t="s">
+        <v>195</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>157</v>
       </c>
-      <c r="B2" s="20" t="s">
-        <v>196</v>
-      </c>
-      <c r="C2" s="20" t="s">
-        <v>158</v>
-      </c>
       <c r="D2" s="20" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="E2" s="20" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="3" spans="1:5">
       <c r="A3" s="20" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B3" s="30" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="E3" s="20" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="4" spans="1:5">
       <c r="A4" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B4" s="67" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="C4" s="20" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D4" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
     </row>
     <row r="5" spans="1:5">
       <c r="A5" s="20" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B5" s="31" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="E5" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:5">
       <c r="A6" s="20" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="33" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
     </row>
     <row r="7" spans="1:5">
       <c r="A7" s="20" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B7" s="32" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="8" spans="1:5">
       <c r="A8" s="20" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B8" s="34" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D8" s="20" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="9" spans="1:5">
       <c r="A9" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B9" s="35" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="E9" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="10" spans="1:5">
       <c r="A10" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D10" s="20" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="E10" s="20" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:5">
       <c r="A11" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B11" s="37" t="s">
+        <v>173</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>182</v>
       </c>
-      <c r="B11" s="37" t="s">
-        <v>174</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>183</v>
-      </c>
       <c r="D11" s="20" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="E11" s="20" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="12" spans="1:5">
       <c r="A12" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B12" s="38" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D12" s="20" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="E12" s="20" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="13" spans="1:5">
       <c r="A13" s="20" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B13" s="39" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="E13" s="20" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5">
       <c r="A15" s="29" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="16" spans="1:5">
       <c r="A16" s="29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B16" s="62" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" customHeight="1">
       <c r="A17" s="29" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B17" s="63" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" s="29" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B18" s="64" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="19" spans="1:6">
       <c r="A19" s="29" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B19" s="65" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="20" spans="1:6" ht="15" customHeight="1">
       <c r="A20" s="29" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B20" s="66" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="21" spans="1:6" s="29" customFormat="1"/>
     <row r="24" spans="1:6">
       <c r="A24" s="20" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="25" spans="1:6">
       <c r="A25" s="20" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" s="20" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F26" s="21"/>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" s="20" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" s="20" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
     </row>
     <row r="29" spans="1:6">
       <c r="A29" s="20" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" s="29" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
     </row>
     <row r="31" spans="1:6">
       <c r="A31" s="29" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
     </row>
   </sheetData>
@@ -5625,222 +5752,222 @@
   <sheetData>
     <row r="1" spans="1:10" ht="30.75" thickBot="1">
       <c r="A1" s="48" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B1" s="49" t="s">
+        <v>277</v>
+      </c>
+      <c r="C1" s="50" t="s">
         <v>278</v>
       </c>
-      <c r="C1" s="50" t="s">
+      <c r="D1" s="50" t="s">
         <v>279</v>
       </c>
-      <c r="D1" s="50" t="s">
+      <c r="E1" s="50" t="s">
         <v>280</v>
       </c>
-      <c r="E1" s="50" t="s">
-        <v>281</v>
-      </c>
       <c r="F1" s="50" t="s">
+        <v>270</v>
+      </c>
+      <c r="G1" s="50" t="s">
         <v>271</v>
       </c>
-      <c r="G1" s="50" t="s">
-        <v>272</v>
-      </c>
       <c r="H1" s="51" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
     </row>
     <row r="2" spans="1:10" ht="75">
       <c r="A2" s="44" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="C2" s="28" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D2" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E2" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F2" s="28" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G2" s="28" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="H2" s="46" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
     </row>
     <row r="3" spans="1:10" ht="60">
       <c r="A3" s="45" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B3" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D3" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F3" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G3" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H3" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I3" s="25"/>
       <c r="J3" s="25"/>
     </row>
     <row r="4" spans="1:10" ht="75">
       <c r="A4" s="45" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B4" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D4" s="19" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F4" s="19" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="G4" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H4" s="47" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="I4" s="25"/>
       <c r="J4" s="25"/>
     </row>
     <row r="5" spans="1:10" ht="60">
       <c r="A5" s="45" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B5" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D5" s="19" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E5" s="19" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="F5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G5" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H5" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I5" s="25"/>
       <c r="J5" s="25"/>
     </row>
     <row r="6" spans="1:10" ht="60">
       <c r="A6" s="45" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B6" s="41" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="C6" s="19" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D6" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E6" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="F6" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G6" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H6" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I6" s="25"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:10" ht="60">
       <c r="A7" s="45" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B7" s="41" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D7" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="E7" s="19" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F7" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G7" s="19" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H7" s="47" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I7" s="25"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:10" ht="60">
       <c r="A8" s="52" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B8" s="53" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C8" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D8" s="54" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="E8" s="54" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="F8" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="G8" s="54" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="H8" s="55" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I8" s="25"/>
       <c r="J8" s="25"/>
@@ -6096,7 +6223,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F77D648-B449-4B03-97EB-4834E79DA6CD}">
   <dimension ref="A1:F63"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" workbookViewId="0">
+    <sheetView topLeftCell="A19" workbookViewId="0">
       <selection activeCell="A28" sqref="A28:XFD28"/>
     </sheetView>
   </sheetViews>
@@ -6110,7 +6237,7 @@
   <sheetData>
     <row r="1" spans="1:6" s="12" customFormat="1">
       <c r="A1" s="12" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B1" s="43"/>
       <c r="C1" s="43"/>
@@ -6120,7 +6247,7 @@
     </row>
     <row r="2" spans="1:6" s="12" customFormat="1">
       <c r="A2" s="27" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B2" s="43"/>
       <c r="C2" s="43"/>
@@ -6130,7 +6257,7 @@
     </row>
     <row r="3" spans="1:6" s="12" customFormat="1">
       <c r="A3" s="27" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B3" s="43"/>
       <c r="C3" s="43"/>
@@ -6140,7 +6267,7 @@
     </row>
     <row r="4" spans="1:6" s="12" customFormat="1">
       <c r="A4" s="27" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B4" s="43"/>
       <c r="C4" s="43"/>
@@ -6150,7 +6277,7 @@
     </row>
     <row r="5" spans="1:6" s="12" customFormat="1">
       <c r="A5" s="10" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B5" s="43"/>
       <c r="C5" s="43"/>
@@ -6160,177 +6287,177 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" s="27" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" s="27" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="27" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
     </row>
     <row r="10" spans="1:6">
       <c r="A10" s="27" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" s="27" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" s="27" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
     </row>
     <row r="14" spans="1:6">
       <c r="A14" s="27" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" s="27" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="16" spans="1:6">
       <c r="A16" s="12" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="17" spans="1:1">
       <c r="A17" s="27" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
     </row>
     <row r="18" spans="1:1">
       <c r="A18" s="27" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="30">
       <c r="A19" s="27" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
     </row>
     <row r="20" spans="1:1">
       <c r="A20" s="27" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
     </row>
     <row r="22" spans="1:1">
       <c r="A22" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="23" spans="1:1">
       <c r="A23" s="27" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="24" spans="1:1">
       <c r="A24" s="10" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="25" spans="1:1">
       <c r="A25" s="8" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="30">
       <c r="A26" s="27" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
     </row>
     <row r="27" spans="1:1">
       <c r="A27" s="27" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="90">
       <c r="A28" s="59" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
     </row>
     <row r="30" spans="1:1">
       <c r="A30" s="27" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
     </row>
     <row r="31" spans="1:1">
       <c r="A31" s="27" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="32" spans="1:1">
       <c r="A32" s="59" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" s="59" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
     </row>
     <row r="34" spans="1:6">
       <c r="A34" s="59" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
     </row>
     <row r="35" spans="1:6" ht="135">
       <c r="A35" s="59" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" s="24" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="38" spans="1:6">
       <c r="A38" s="27" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
     </row>
     <row r="39" spans="1:6" ht="30">
       <c r="A39" s="27" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
     </row>
     <row r="40" spans="1:6" ht="30">
       <c r="A40" s="27" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" s="27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
     </row>
     <row r="42" spans="1:6" ht="30">
       <c r="A42" s="27" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
     </row>
     <row r="44" spans="1:6">
       <c r="A44" s="27" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" s="27" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
     </row>
     <row r="48" spans="1:6" s="8" customFormat="1">
       <c r="A48" s="8" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B48" s="61"/>
       <c r="C48" s="61"/>
@@ -6340,7 +6467,7 @@
     </